--- a/data/02_intermediate/cleaned_Dr._Bériz_songs.xlsx
+++ b/data/02_intermediate/cleaned_Dr._Bériz_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>O.K, eh, eh Lartiste baby Continue Purple Money Polygame, polygame Polygame, polygame Polygame, polygame Polygame, polygame Polygame, polygame Polygame, polygame Jsuis polygame abusé Cest mon malheur abusé Jaime trop les femmes abusé Cest mon malheur abusé Même vous mesdames vous vous amusez Polygame abusé Pas damalgame abusé Polygame abusé Polygame jai la fusée Fatigué de chercher la bonne Cque jai pas chez lune, je lai chez lautre Elle ne veut que le sexe et la somme Si lamour est mort cest pas de ma faute Elle aime collectionner les hommes Trois numéros dtéléphone Allô chéri ? , rien que ça sonne Cyclone en vue quand elle est dans la zone You might also like Polygame polygame, polygame polygame Polygame polygame, polygame polygame Polygame polygame, polygame polygame Polygame polygame, polygame Polygame yeah-yeah, yeah-yeah Oui mesdames yeah-yeah, yeah-yeah Connexion, toi et moi connexion Bamono au soleil déconnexions Ma main sur ton crâne je relâche la pression bang Donne-toi ma chérie faut pas te cacher wouh Ton boule est chargé tout comme ton passé wouh Tu nes pas la seule non faut pas te fâcher Tes fan de moi mais tu vas te lasser Fatigué de chercher la bonne Cque jai pas chez lune, je lai chez lautre Elle ne veut que le sexe et la somme Si lamour est mort cest pas de ma faute Elle aime collectionner les hommes Trois numéros dtéléphone Allô chéri ? , rien que ça sonne Cyclone en vue quand elle est dans la zone Polygame polygame, polygame polygame Polygame polygame, polygame polygame Polygame polygame, polygame polygame Polygame polygame, polygame Polygame yeah-yeah, yeah-yeah Oui mesdames yeah-yeah, yeah-yeah Ah, mais elles sont ou ces femmes là quand tas besoin delles ? Polygame Fatoumata, Kayma, polygame eh appelle Mélanie là, elles sont où ? polygame Elles sont trop Ah, Polygame polygame même, on ta dit Bienvenue chez les hommes polygames Elles connaissent la règle Laisse-moi tfaire visiter Paris-centre Bienvenue chez les hommes polygames Elles connaissent la règle Laisse-moi tfaire visiter Paris-centre Jsais plus où donner dla tête mon gars Elles sont toutes pas mal Africaines, Européennes, Antillaises De lAsie ou République Dominicaine Laisse-moi faire le plein pour le week-end Jeune Obama on mappelle Yes We Can Polygame, polygame Polygame, polygame Polygame, polygame Polygame, polygame Polygame Oui mesdames12</t>
+          <t>O.K, eh, eh Lartiste baby Continue Purple Money Polygame, polygame Polygame, polygame Polygame, polygame Polygame, polygame Polygame, polygame Polygame, polygame Jsuis polygame abusé Cest mon malheur abusé Jaime trop les femmes abusé Cest mon malheur abusé Même vous mesdames vous vous amusez Polygame abusé Pas damalgame abusé Polygame abusé Polygame jai la fusée Fatigué de chercher la bonne Cque jai pas chez lune, je lai chez lautre Elle ne veut que le sexe et la somme Si lamour est mort cest pas de ma faute Elle aime collectionner les hommes Trois numéros dtéléphone Allô chéri ? , rien que ça sonne Cyclone en vue quand elle est dans la zone Polygame polygame, polygame polygame Polygame polygame, polygame polygame Polygame polygame, polygame polygame Polygame polygame, polygame Polygame yeah-yeah, yeah-yeah Oui mesdames yeah-yeah, yeah-yeah Connexion, toi et moi connexion Bamono au soleil déconnexions Ma main sur ton crâne je relâche la pression bang Donne-toi ma chérie faut pas te cacher wouh Ton boule est chargé tout comme ton passé wouh Tu nes pas la seule non faut pas te fâcher Tes fan de moi mais tu vas te lasser Fatigué de chercher la bonne Cque jai pas chez lune, je lai chez lautre Elle ne veut que le sexe et la somme Si lamour est mort cest pas de ma faute Elle aime collectionner les hommes Trois numéros dtéléphone Allô chéri ? , rien que ça sonne Cyclone en vue quand elle est dans la zone Polygame polygame, polygame polygame Polygame polygame, polygame polygame Polygame polygame, polygame polygame Polygame polygame, polygame Polygame yeah-yeah, yeah-yeah Oui mesdames yeah-yeah, yeah-yeah Ah, mais elles sont ou ces femmes là quand tas besoin delles ? Polygame Fatoumata, Kayma, polygame eh appelle Mélanie là, elles sont où ? polygame Elles sont trop Ah, Polygame polygame même, on ta dit Bienvenue chez les hommes polygames Elles connaissent la règle Laisse-moi tfaire visiter Paris-centre Bienvenue chez les hommes polygames Elles connaissent la règle Laisse-moi tfaire visiter Paris-centre Jsais plus où donner dla tête mon gars Elles sont toutes pas mal Africaines, Européennes, Antillaises De lAsie ou République Dominicaine Laisse-moi faire le plein pour le week-end Jeune Obama on mappelle Yes We Can Polygame, polygame Polygame, polygame Polygame, polygame Polygame, polygame Polygame Oui mesdames12</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter J'veux me propulser Ne mentez pas sur les effets néfastes de trop du succès Et puis merde au fond c'est que du son Passe un BIC pas question que j'signe avec du sang Pou-pousse toi reste dans le décor Mange-toi les punchlines, re-re-reste dans les cordes Impossible d'arrêter, j'ai déjà fait fait tant d'effort J'suis pas dans le game, aurais-je tort ? Est-ce que tu m'aimerais autant si j't'ai claqué ? J'suis pas dans le game Est-ce que tu sauterais pour moi si j't'ai plaqué ? J'suis pas dans le game Est-ce que tu m'aurais soutenu jusqu'au parquet ? J'suis pas dans le game Et si ce texte j'l'avais jamais gratté ? Et si j'avais jamais rappé ? You might also like Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Est-ce que tu me flaires ? J'tourne autour de l'osmose trop terre à terre Mais sous ma casquette j'ai le cosmos, côtoie la gifle qui n'a pas de main Mets pas tes seufs sur le magma 4 du mat, j'commence, fonce prendre l'air, passe le mic et j'installe ma sphère Boosté par la puissance WA, c'est un délit d'science, il faut l'voir sur scène Rien d'autre que l'illicite, j'plains ceux que le 36 cerne et... J'plains ceux que le 666 charme et puis percute un d'plein fouet Pas l'temps, j'guette le monde les autres me prennent pour un Shakespeare fonce-dé L'arbitre est d'mon coté, j'baise le game sans meme le toucher Louché, coup d'pioche de boucher Passe un coup d'fil en 2-4-6 le ceau-mor est bouclé Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Oui je sais, j'suis incompris, excusez-moi très chers Français Mais fuck le rêve Américain, laisse moi mon cauchemar Africain Laissez moi dans mes galères, j'suis bien tant qu'il y a ma famille Oui, je ne joue pas, j'suis pas dans l'game, akhi, j'ai d'autres soucis Et si... un beau jour tu ne me vois plus dans le son C'est que je ne l'ai plus dans le coeur, ouais ce n'est pas plus mal dans le fond Et si... j'étais dans l'game sans me rendre compte Peu importe j'vais en rendre des comptes, mais ce n'est pas le thème, bandes de cons De toute façon je n'ai plus de force, avec vous c'est la même chose Même si je viens j'kick One shot, sale, vous allez dire C'est la même daube Venez pas me parler de hip-hop, pé-ra depuis l'époque du Beat box Ils s'branlent sur les soi-disant Big Boss, dédicace à mon ga-va Big Tox Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Si j'avais la patate d'un X-Men, est-ce que mes sons feraient l'même effet ? Qu'est-ce que j'ferais sur scène ? Jamais j'le saurai J'suis pas dans le game, j'suis dans le... Wa wa wa, wa wa wa D.R.Y. est dans le... Wa wa wa, wa wa wa H Magnum est dans le... Wa wa wa, wa wa wa L'Institut est dans le... Wa wa wa, wa wa wa Yeah, L.I.O est dans le... Wa wa wa, wa wa wa Ha ! Harouna est dans le... Wa wa wa, wa wa wa HCue est dans le... Wa wa wa, wa wa wa Wati Boss Wa wa wa, wa wa wa Welcome to the... Wa wa wa, wa wa wa Wa wa wa, wa wa wa...2</t>
+          <t>Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter J'veux me propulser Ne mentez pas sur les effets néfastes de trop du succès Et puis merde au fond c'est que du son Passe un BIC pas question que j'signe avec du sang Pou-pousse toi reste dans le décor Mange-toi les punchlines, re-re-reste dans les cordes Impossible d'arrêter, j'ai déjà fait fait tant d'effort J'suis pas dans le game, aurais-je tort ? Est-ce que tu m'aimerais autant si j't'ai claqué ? J'suis pas dans le game Est-ce que tu sauterais pour moi si j't'ai plaqué ? J'suis pas dans le game Est-ce que tu m'aurais soutenu jusqu'au parquet ? J'suis pas dans le game Et si ce texte j'l'avais jamais gratté ? Et si j'avais jamais rappé ? Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Est-ce que tu me flaires ? J'tourne autour de l'osmose trop terre à terre Mais sous ma casquette j'ai le cosmos, côtoie la gifle qui n'a pas de main Mets pas tes seufs sur le magma 4 du mat, j'commence, fonce prendre l'air, passe le mic et j'installe ma sphère Boosté par la puissance WA, c'est un délit d'science, il faut l'voir sur scène Rien d'autre que l'illicite, j'plains ceux que le 36 cerne et... J'plains ceux que le 666 charme et puis percute un d'plein fouet Pas l'temps, j'guette le monde les autres me prennent pour un Shakespeare fonce-dé L'arbitre est d'mon coté, j'baise le game sans meme le toucher Louché, coup d'pioche de boucher Passe un coup d'fil en 2-4-6 le ceau-mor est bouclé Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Oui je sais, j'suis incompris, excusez-moi très chers Français Mais fuck le rêve Américain, laisse moi mon cauchemar Africain Laissez moi dans mes galères, j'suis bien tant qu'il y a ma famille Oui, je ne joue pas, j'suis pas dans l'game, akhi, j'ai d'autres soucis Et si... un beau jour tu ne me vois plus dans le son C'est que je ne l'ai plus dans le coeur, ouais ce n'est pas plus mal dans le fond Et si... j'étais dans l'game sans me rendre compte Peu importe j'vais en rendre des comptes, mais ce n'est pas le thème, bandes de cons De toute façon je n'ai plus de force, avec vous c'est la même chose Même si je viens j'kick One shot, sale, vous allez dire C'est la même daube Venez pas me parler de hip-hop, pé-ra depuis l'époque du Beat box Ils s'branlent sur les soi-disant Big Boss, dédicace à mon ga-va Big Tox Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Si j'avais la patate d'un X-Men, est-ce que mes sons feraient l'même effet ? Qu'est-ce que j'ferais sur scène ? Jamais j'le saurai J'suis pas dans le game, j'suis dans le... Wa wa wa, wa wa wa D.R.Y. est dans le... Wa wa wa, wa wa wa H Magnum est dans le... Wa wa wa, wa wa wa L'Institut est dans le... Wa wa wa, wa wa wa Yeah, L.I.O est dans le... Wa wa wa, wa wa wa Ha ! Harouna est dans le... Wa wa wa, wa wa wa HCue est dans le... Wa wa wa, wa wa wa Wati Boss Wa wa wa, wa wa wa Welcome to the... Wa wa wa, wa wa wa Wa wa wa, wa wa wa...2</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Le cur dans la main, j'avance à découvert Aucun diplôme, j'suis l'singe avec des couverts J'marche sur des bouts d'verres, le bonheur est éphémère Tu peux te faire refiler l'sida par une infirmière J'crache ma vérité, à force d'les regarder J'me demande si la vie on l'a mérité C'est ça applaudissez, on finira tous sous terre Plus ridés qu'Johnny Hallyday Cramés, j'crois qu'il est l'heure de jeter les dés D'ravaler sa langue et assumer en silence cet été Tu connais ma ville on se baratine À part le dîn, ma génération n'est qu'une parodie Ils me parlent, mais j'suis ailleurs loin d'ce Monde où rien ne reste Laisse tomber, laisse tomber Ils prennent l'amour pour du fire, persuadés que rien ne presse Laisse tomber, laisse tomber Pleins phares sur le périph', trop tard dans la nuit J'ai déjà fui Pleins phares sur le périph', trop tard dans la nuit J'ai déjà fui You might also like Est-ce que tu sais qu'les gens te tournent autour quand tu sens l'oseille ? Tu leur parles, ils sourient pensant fort Vivement que ça paye Est-ce moi ou ce billet d'500 dollars qui t'apaise ? Question bête et réponse idiote j'en vaux pas la peine Est-ce que tu sais qu'dehors c'est gore ? Tu dois buter en restant propre, sans toit, ni pote Ça vit l'époque qui force à t'ver-le' et fait tes poches Le mektoub m'a mis des bosses, vidé mes poches, ficha' devant mes proches J'ai vu dans l'obscurité le noir total La vérité me hante, mais j'la calcule pas J'essaye d'rester sur mes gardes Laisser tomber mes habitudes et m'barrer Ils me parlent, mais j'suis ailleurs loin d'ce Monde où rien ne reste Laisse tomber, laisse tomber Ils prennent l'amour pour du fire, persuadés que rien ne presse Laisse tomber, laisse tomber Pleins phares sur le périph', trop tard dans la nuit J'ai déjà fui Pleins phares sur le périph', trop tard dans la nuit J'ai déjà fui Confus, tu me parles, je n'réponds pas Mais je suis sûrement quelque part Confie-toi j'te l'disais dès l'départ Mais tu t'es détourné de moi Confie-toi j'te l'disais dès l'départ Mais tu t'es détourné de moi Confus, je te parle, tu n'réponds pas Mais je suis sûrement quelque part Ils me parlent, mais j'suis ailleurs loin d'ce Monde où rien ne reste Laisse tomber, laisse tomber Ils prennent l'amour pour du fire, persuadés que rien ne presse Laisse tomber, laisse tomber Pleins phares sur le périph', trop tard dans la nuit J'ai déjà fui Pleins phares sur le périph', trop tard dans la nuit J'ai déjà fui1</t>
+          <t>Le cur dans la main, j'avance à découvert Aucun diplôme, j'suis l'singe avec des couverts J'marche sur des bouts d'verres, le bonheur est éphémère Tu peux te faire refiler l'sida par une infirmière J'crache ma vérité, à force d'les regarder J'me demande si la vie on l'a mérité C'est ça applaudissez, on finira tous sous terre Plus ridés qu'Johnny Hallyday Cramés, j'crois qu'il est l'heure de jeter les dés D'ravaler sa langue et assumer en silence cet été Tu connais ma ville on se baratine À part le dîn, ma génération n'est qu'une parodie Ils me parlent, mais j'suis ailleurs loin d'ce Monde où rien ne reste Laisse tomber, laisse tomber Ils prennent l'amour pour du fire, persuadés que rien ne presse Laisse tomber, laisse tomber Pleins phares sur le périph', trop tard dans la nuit J'ai déjà fui Pleins phares sur le périph', trop tard dans la nuit J'ai déjà fui Est-ce que tu sais qu'les gens te tournent autour quand tu sens l'oseille ? Tu leur parles, ils sourient pensant fort Vivement que ça paye Est-ce moi ou ce billet d'500 dollars qui t'apaise ? Question bête et réponse idiote j'en vaux pas la peine Est-ce que tu sais qu'dehors c'est gore ? Tu dois buter en restant propre, sans toit, ni pote Ça vit l'époque qui force à t'ver-le' et fait tes poches Le mektoub m'a mis des bosses, vidé mes poches, ficha' devant mes proches J'ai vu dans l'obscurité le noir total La vérité me hante, mais j'la calcule pas J'essaye d'rester sur mes gardes Laisser tomber mes habitudes et m'barrer Ils me parlent, mais j'suis ailleurs loin d'ce Monde où rien ne reste Laisse tomber, laisse tomber Ils prennent l'amour pour du fire, persuadés que rien ne presse Laisse tomber, laisse tomber Pleins phares sur le périph', trop tard dans la nuit J'ai déjà fui Pleins phares sur le périph', trop tard dans la nuit J'ai déjà fui Confus, tu me parles, je n'réponds pas Mais je suis sûrement quelque part Confie-toi j'te l'disais dès l'départ Mais tu t'es détourné de moi Confie-toi j'te l'disais dès l'départ Mais tu t'es détourné de moi Confus, je te parle, tu n'réponds pas Mais je suis sûrement quelque part Ils me parlent, mais j'suis ailleurs loin d'ce Monde où rien ne reste Laisse tomber, laisse tomber Ils prennent l'amour pour du fire, persuadés que rien ne presse Laisse tomber, laisse tomber Pleins phares sur le périph', trop tard dans la nuit J'ai déjà fui Pleins phares sur le périph', trop tard dans la nuit J'ai déjà fui1</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Maître Gims, Bedjik Mais qui a 'glige ? Maitre Gims, Bedjik, un feat en famille Trop deus tu t'demandes si j'tape dans la farine Here We Go ! Tu vois bien que les flows varient C'est l'zbeul un peu comme dans Tex Avery Ça fait des mois et des mois et des mois que je ne dors pas Les MCs me veulent en featuring mais j'en prends très peu Qui assumera pas sans avoir enfilé un joint de beuh Vous êtes tous piégés dans le Vortex... Mais j'compte t'enterrer après t'avoir humilié sur la voie ferrée Demande à Ferris à quoi bon sert de faire l'inspecteur Derrick ? Ça m'fait dahek Sors ton béret, puis ton pe-pom, si t'es paré, ben c'est bavon C'est moi l'premier à l'avoir kické donc je n'sais pas à la base qui t'es L'heure est venue de t'liquider, Bedjik le psy, c'est la qualité Ceinture noire chrome sur le bas-côté, fallait méditer J'vais pas te le répéter au cas où t'aurais pas tilté Et puis j'm'lèb' sur la prod' sans déc' Il faut qu'j'te la mette pour que tu captes ma tech' Mais moi j'fais du lourd, même si t'es par terre j'te lève Bsahtek pour ton feat mais il t'en reste sur les lèvres You might also like J'suis dans mon délire, j'suis pas pressé, j'vais les fumer sans m'reposer La dégaine de l'homme amoché donc japparais souvent stressé Disons qu'la vie est dure, et qu'les pe-stu nous cassent les couilles À cause d'une dégaine de taré, j'suis pas carré mais j'sens la douille Alors j'me pose, ma couronne sur les questions qu'j'me pose La daronne cogne, crie sur le gosse qui compose Et dès qu'j'suis dehors, Berisque de perdre le contrôle Rien à foutre de ce que vous pensez, toutes vos attitudes de shour J'suis déboussolé, déboule solo ma passion j'vais déboutonner Correctionné mise de côté si t'as zappé là tu connais Genre connu mais débit volé, tu vas prendre une demi-volée Mais t'as rien à m'dire, t'inquiète J'avais une barre pour toi mais tu tentais de m'chourave les miettes J'ai tort de... toi t'es condamné à te gratter les fesses Et roule sur ce fils de... change de tier-quar Mon espèce est protégée, les enfoirés sont mis à part J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis grave énervant, tu es trop décevant J'kicke depuis mes 9 ans, pour ça qu'j'plie du de-mon AAAAAAAAAAAAAAAAH Guette le niveau froid comme Sub-Zéro D'mande à Jerry R., un flow sans précédent S'faire fumer devant des javons Ambiance chavaud-bavon, craint comme un Deceptycons Ton cul sur le trident, là c'est mon côté dit-ban Laisse moi les dé-fler-gon, me-Gi fucke Poséidon Ferme là, si t'es pas con, j'défouraille depuis l'balcon Glauque comme les rues d'Patong, danse dans la gueule du dragon Viens m'voir à Kin' au Congo, ou dans la forêt d'Ngorongoro Au corps à corps avec un taureau dans l'océan d'vant les coraux Violent comme de décevoir ou l'désaccord avec les parents C'est paro car tôt ou tard t'es forcé d'payer plein pot l'tarot J'suis avec Sop-pra-no Bedjik, Beriz, H, Dream Oh no, tu vis un instant hors norme J'suis bizarre, je sais, je ne suis pas aux normes Énorme ? I don't know Dream Chérie, questionne tes hormones J'lance une bombe, j'vous donne cinq secondes Les gars, cassez-vous, j'ai tué Cupidon Ta go me trouve intriguant Dis-lui qu'j'ai du goût comme du bon taga J'suis dans le sas, j'ai quatre tass', aux pattes des tas d'passes S'échappe ta carcasse, craque ne canne aps Le taff ton futur, mon passé s'noie Et t'es calme, me parle aps, j'sais aps les poukaves Écarte de cracher, se cache Confie tout aux tasses-pé, rafale de face Yeah, ne me faites pas chier, j'fais plus confiance même au chien Une belle paire à tes pieds même ton poto peut t'les cirer J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Reste tranquille, mais-mais reste tranquille Voilà Sopra' M'Baba et Maitre Gims Comme lui, j'ai fait le tour du monde de Marseille à Paris Tu connais déjà le gabarit, donc donc reste tranquille Un big up au Wati-B, pour les 700 000 Que des mecs costauds, que des mecs solides, là j'atterris comme à Smallvile Oh oui ce feat c'est de la-la folie, mes rimes défilent comme un gros bolide J'vois des MCs prendre la fuite comme des vaches d'Interville Dream, mon flow assassine À la fin de ce couplet tes gars ont le visage à Seal Je les braque avec le magnum de l'Institut Le game n'est pas un trottoir pourquoi tu te prostitues ? Dédicace à Bedjik et à Shin Sekaï Avec un putain de flow qui découpe comme San ku kai Rien qu'jpars en live, faut qu'je fly Donc je vous dis bye bye bye bye bye-bye bye !4</t>
+          <t>Maître Gims, Bedjik Mais qui a 'glige ? Maitre Gims, Bedjik, un feat en famille Trop deus tu t'demandes si j'tape dans la farine Here We Go ! Tu vois bien que les flows varient C'est l'zbeul un peu comme dans Tex Avery Ça fait des mois et des mois et des mois que je ne dors pas Les MCs me veulent en featuring mais j'en prends très peu Qui assumera pas sans avoir enfilé un joint de beuh Vous êtes tous piégés dans le Vortex... Mais j'compte t'enterrer après t'avoir humilié sur la voie ferrée Demande à Ferris à quoi bon sert de faire l'inspecteur Derrick ? Ça m'fait dahek Sors ton béret, puis ton pe-pom, si t'es paré, ben c'est bavon C'est moi l'premier à l'avoir kické donc je n'sais pas à la base qui t'es L'heure est venue de t'liquider, Bedjik le psy, c'est la qualité Ceinture noire chrome sur le bas-côté, fallait méditer J'vais pas te le répéter au cas où t'aurais pas tilté Et puis j'm'lèb' sur la prod' sans déc' Il faut qu'j'te la mette pour que tu captes ma tech' Mais moi j'fais du lourd, même si t'es par terre j'te lève Bsahtek pour ton feat mais il t'en reste sur les lèvres J'suis dans mon délire, j'suis pas pressé, j'vais les fumer sans m'reposer La dégaine de l'homme amoché donc japparais souvent stressé Disons qu'la vie est dure, et qu'les pe-stu nous cassent les couilles À cause d'une dégaine de taré, j'suis pas carré mais j'sens la douille Alors j'me pose, ma couronne sur les questions qu'j'me pose La daronne cogne, crie sur le gosse qui compose Et dès qu'j'suis dehors, Berisque de perdre le contrôle Rien à foutre de ce que vous pensez, toutes vos attitudes de shour J'suis déboussolé, déboule solo ma passion j'vais déboutonner Correctionné mise de côté si t'as zappé là tu connais Genre connu mais débit volé, tu vas prendre une demi-volée Mais t'as rien à m'dire, t'inquiète J'avais une barre pour toi mais tu tentais de m'chourave les miettes J'ai tort de... toi t'es condamné à te gratter les fesses Et roule sur ce fils de... change de tier-quar Mon espèce est protégée, les enfoirés sont mis à part J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis grave énervant, tu es trop décevant J'kicke depuis mes 9 ans, pour ça qu'j'plie du de-mon AAAAAAAAAAAAAAAAH Guette le niveau froid comme Sub-Zéro D'mande à Jerry R., un flow sans précédent S'faire fumer devant des javons Ambiance chavaud-bavon, craint comme un Deceptycons Ton cul sur le trident, là c'est mon côté dit-ban Laisse moi les dé-fler-gon, me-Gi fucke Poséidon Ferme là, si t'es pas con, j'défouraille depuis l'balcon Glauque comme les rues d'Patong, danse dans la gueule du dragon Viens m'voir à Kin' au Congo, ou dans la forêt d'Ngorongoro Au corps à corps avec un taureau dans l'océan d'vant les coraux Violent comme de décevoir ou l'désaccord avec les parents C'est paro car tôt ou tard t'es forcé d'payer plein pot l'tarot J'suis avec Sop-pra-no Bedjik, Beriz, H, Dream Oh no, tu vis un instant hors norme J'suis bizarre, je sais, je ne suis pas aux normes Énorme ? I don't know Dream Chérie, questionne tes hormones J'lance une bombe, j'vous donne cinq secondes Les gars, cassez-vous, j'ai tué Cupidon Ta go me trouve intriguant Dis-lui qu'j'ai du goût comme du bon taga J'suis dans le sas, j'ai quatre tass', aux pattes des tas d'passes S'échappe ta carcasse, craque ne canne aps Le taff ton futur, mon passé s'noie Et t'es calme, me parle aps, j'sais aps les poukaves Écarte de cracher, se cache Confie tout aux tasses-pé, rafale de face Yeah, ne me faites pas chier, j'fais plus confiance même au chien Une belle paire à tes pieds même ton poto peut t'les cirer J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Reste tranquille, mais-mais reste tranquille Voilà Sopra' M'Baba et Maitre Gims Comme lui, j'ai fait le tour du monde de Marseille à Paris Tu connais déjà le gabarit, donc donc reste tranquille Un big up au Wati-B, pour les 700 000 Que des mecs costauds, que des mecs solides, là j'atterris comme à Smallvile Oh oui ce feat c'est de la-la folie, mes rimes défilent comme un gros bolide J'vois des MCs prendre la fuite comme des vaches d'Interville Dream, mon flow assassine À la fin de ce couplet tes gars ont le visage à Seal Je les braque avec le magnum de l'Institut Le game n'est pas un trottoir pourquoi tu te prostitues ? Dédicace à Bedjik et à Shin Sekaï Avec un putain de flow qui découpe comme San ku kai Rien qu'jpars en live, faut qu'je fly Donc je vous dis bye bye bye bye bye-bye bye !4</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Oh, oh, oh ! Les yeux plus gros qu'le monde ! Dr Beriz Big Black M Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M Hello Bériz ! Euh... Comment vas-tu depuis Wati euh... ? Comment leur dire que c'est moi l'king ? Euh... C'est moi qui vous dicte le chapitre Rêveur, on me dit que j'suis ché-per, mais, le Big Black M, il a cé-per Et on dit que, la chute, elle est sévère mais, le débrouillard, il sait faire J'ai le sang du daron de la Guinée tout comme j'ai le sang d'un rappeur qui sait kicker Je me fous de vos idoles cain-ri, ce n'est pas eux qui me donnent le maro Je suis pas dans les délires L.A, quand le soleil frappe, j'suis plutôt Maroc Gros son pour les re-frés, il faut que tout le monde chante mon refrain You might also like Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M Je voulais juste prendre mes lovés, sans pour autant vouloir être mauvais M'en voulez pas d'avoir innové, oh ! Tous vos sons me donnent la nausée J'étais au tié-quar' souvent posé, j'voulais que personne vienne me causer Je voulais juste dreamer, m'sauver, fuck l'Interim, j'préférais chômer Beaucoup m'ont dit qu'je finirai paumé, j'avais que Sexion pour m'épauler J'étais souvent dur et en colère, oui, je n'aimais pas l'système scolaire J'avais du mal avec les horaires, à mes ennemis j'disais J'les aurai. Je ne suis pas là pour décorer, non, renoi, faut pas déconner Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M Si j'ai les yeux plus gros qu'le monde C'est que j'ai dû voir ce qu'ont vu tous les grands de ce monde, n'est ce pas ? J'ai que ma gueule, ma musique et mon style Pour m'en sortir, j'ai du transmettre ma peine sur mes titres, mon gars Si j'ai les yeux plus gros qu'le monde C'est que j'ai dû voir ce qu'ont vu tous les grands de ce monde, n'est ce pas ? J'ai que ma gueule, ma musique et mon style Pour m'en sortir, j'ai du transmettre ma peine sur mes titres, mon gars Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M6</t>
+          <t>Oh, oh, oh ! Les yeux plus gros qu'le monde ! Dr Beriz Big Black M Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M Hello Bériz ! Euh... Comment vas-tu depuis Wati euh... ? Comment leur dire que c'est moi l'king ? Euh... C'est moi qui vous dicte le chapitre Rêveur, on me dit que j'suis ché-per, mais, le Big Black M, il a cé-per Et on dit que, la chute, elle est sévère mais, le débrouillard, il sait faire J'ai le sang du daron de la Guinée tout comme j'ai le sang d'un rappeur qui sait kicker Je me fous de vos idoles cain-ri, ce n'est pas eux qui me donnent le maro Je suis pas dans les délires L.A, quand le soleil frappe, j'suis plutôt Maroc Gros son pour les re-frés, il faut que tout le monde chante mon refrain Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M Je voulais juste prendre mes lovés, sans pour autant vouloir être mauvais M'en voulez pas d'avoir innové, oh ! Tous vos sons me donnent la nausée J'étais au tié-quar' souvent posé, j'voulais que personne vienne me causer Je voulais juste dreamer, m'sauver, fuck l'Interim, j'préférais chômer Beaucoup m'ont dit qu'je finirai paumé, j'avais que Sexion pour m'épauler J'étais souvent dur et en colère, oui, je n'aimais pas l'système scolaire J'avais du mal avec les horaires, à mes ennemis j'disais J'les aurai. Je ne suis pas là pour décorer, non, renoi, faut pas déconner Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M Si j'ai les yeux plus gros qu'le monde C'est que j'ai dû voir ce qu'ont vu tous les grands de ce monde, n'est ce pas ? J'ai que ma gueule, ma musique et mon style Pour m'en sortir, j'ai du transmettre ma peine sur mes titres, mon gars Si j'ai les yeux plus gros qu'le monde C'est que j'ai dû voir ce qu'ont vu tous les grands de ce monde, n'est ce pas ? J'ai que ma gueule, ma musique et mon style Pour m'en sortir, j'ai du transmettre ma peine sur mes titres, mon gars Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M6</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Si t'avais vu l'assurance de ceux qui m'disaient qu'j'échouerai Les temps ont changé, j'avance en profitant de c'que j'ai Mais avant de partir, j'vous laisserai des choses qui peuvent booster toute une life ! Man, je fais pas semblant, je fais pas semblant Pour dire Bonjour à nos pères, on leur serre la main Si on frappe nos p'tits frères, c'est pas pour s'faire la main On s'aime à notre manière, on sait qu'y'a vraiment rien d'méchant On marche en bande, car ensemble, vraiment rien n'est chiant La jeunesse a changé aime agir, peu songer À l'avenir, veut tout tout d'suite, alors vend des 100G Le respect disparaît, les anciens disent pareil Ici, le vice paraît banal, on devient tous tarés Mais on est comme ça Et plus tard, on espère tous devenir des hommes sages Oui, plus tard, on aimerait tous devenir des hommes savants Pour l'instant ça veut du rêve, donc, dans la zone, ça vend Lève ton briquet Si tu veux prendre le large, car chez toi tu t'sens étriqué On ne fait pas semblant, on devient dingue, rien n'est truqué La faute n'est pas aux parents j'te rassure, on est bien éduqués You might also like Tu crois qu'on fait semblant ? On voit l'amour au loin Nos parents s'font un sang d'encre, on s'voit de moins en moins Déçus sans privilèges, on a délaissé l'amour Plus facile de dire J'te laisse !, que Je t'aime pour toujours ! C'est vrai... Qu'on a l'cur endurci Oh, ouais, c'est vrai... Qu'on a l'cur endurci Tu crois qu'on fait semblant ? Pour faire honneur à nos mères, on devient responsable Mais grandir n'est pas si simple, même loin des bacs à sable On fait la part des choses, surtout quand y'a plus rien à prendre On s'sent minable, comme un shop qui a plus rien à revendre La misère m'a guidé, même si aujourd'hui j'suis ridé Moi, j'ai pris conscience que le temps tue et m'suis fait à l'idée Nos parents charbonnent tous, sans aucune reconnaissance Et on a du mal à dire des Je t'aime !, ça depuis l'enfance Des curs de pierre nous sommes, juste bons qu'à faire des sommes Mais quand le malheur assomme, ici, seul l'alcool console On fait des sauts périlleux dans l'vide Peu importe, on fonce tête baissée en période de crise Miser sur la chance jamais, car la rue n'fait pas semblant Dur de voir l'futur quand le passé est sanglant Un semblant d'amour ici-bas pour nos semblables On paye nos dettes, même si la vie n'est pas rentable Tu crois qu'on fait semblant ? On voit l'amour au loin Nos parents s'font un sang d'encre, on s'voit de moins en moins Déçus sans privilèges, on a délaissé l'amour Plus facile de dire J'te laisse !, que Je t'aime pour toujours ! C'est vrai... Qu'on a l'cur endurci Oh, ouais, c'est vrai... Qu'on a l'cur endurci Tu crois qu'on fait semblant ? Tu crois qu'on fait semblant ? Si t'avais vu l'assurance de ceux qui m'disaient qu'j'échouerai Les temps ont changé, j'avance en profitant de c'que j'ai Mais avant de partir, j'vous laisserai des choses qui peuvent booster toute une life ! Man, je fais pas semblant... Je fais pas semblant...</t>
+          <t>Si t'avais vu l'assurance de ceux qui m'disaient qu'j'échouerai Les temps ont changé, j'avance en profitant de c'que j'ai Mais avant de partir, j'vous laisserai des choses qui peuvent booster toute une life ! Man, je fais pas semblant, je fais pas semblant Pour dire Bonjour à nos pères, on leur serre la main Si on frappe nos p'tits frères, c'est pas pour s'faire la main On s'aime à notre manière, on sait qu'y'a vraiment rien d'méchant On marche en bande, car ensemble, vraiment rien n'est chiant La jeunesse a changé aime agir, peu songer À l'avenir, veut tout tout d'suite, alors vend des 100G Le respect disparaît, les anciens disent pareil Ici, le vice paraît banal, on devient tous tarés Mais on est comme ça Et plus tard, on espère tous devenir des hommes sages Oui, plus tard, on aimerait tous devenir des hommes savants Pour l'instant ça veut du rêve, donc, dans la zone, ça vend Lève ton briquet Si tu veux prendre le large, car chez toi tu t'sens étriqué On ne fait pas semblant, on devient dingue, rien n'est truqué La faute n'est pas aux parents j'te rassure, on est bien éduqués Tu crois qu'on fait semblant ? On voit l'amour au loin Nos parents s'font un sang d'encre, on s'voit de moins en moins Déçus sans privilèges, on a délaissé l'amour Plus facile de dire J'te laisse !, que Je t'aime pour toujours ! C'est vrai... Qu'on a l'cur endurci Oh, ouais, c'est vrai... Qu'on a l'cur endurci Tu crois qu'on fait semblant ? Pour faire honneur à nos mères, on devient responsable Mais grandir n'est pas si simple, même loin des bacs à sable On fait la part des choses, surtout quand y'a plus rien à prendre On s'sent minable, comme un shop qui a plus rien à revendre La misère m'a guidé, même si aujourd'hui j'suis ridé Moi, j'ai pris conscience que le temps tue et m'suis fait à l'idée Nos parents charbonnent tous, sans aucune reconnaissance Et on a du mal à dire des Je t'aime !, ça depuis l'enfance Des curs de pierre nous sommes, juste bons qu'à faire des sommes Mais quand le malheur assomme, ici, seul l'alcool console On fait des sauts périlleux dans l'vide Peu importe, on fonce tête baissée en période de crise Miser sur la chance jamais, car la rue n'fait pas semblant Dur de voir l'futur quand le passé est sanglant Un semblant d'amour ici-bas pour nos semblables On paye nos dettes, même si la vie n'est pas rentable Tu crois qu'on fait semblant ? On voit l'amour au loin Nos parents s'font un sang d'encre, on s'voit de moins en moins Déçus sans privilèges, on a délaissé l'amour Plus facile de dire J'te laisse !, que Je t'aime pour toujours ! C'est vrai... Qu'on a l'cur endurci Oh, ouais, c'est vrai... Qu'on a l'cur endurci Tu crois qu'on fait semblant ? Tu crois qu'on fait semblant ? Si t'avais vu l'assurance de ceux qui m'disaient qu'j'échouerai Les temps ont changé, j'avance en profitant de c'que j'ai Mais avant de partir, j'vous laisserai des choses qui peuvent booster toute une life ! Man, je fais pas semblant... Je fais pas semblant...</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sur la route, cheveux au vent, elle conduit avec des gants Au feu rouge, j'arrive doucement, j'ai le regard insistant Elle me nargue, elle accélère, j'suis sur mon cheval de fer J'vois son sourire, du rétro, j'passe les rapports en roue arrière Elle se gare, j'lève le casque, wesh ma belle, j'te roule une pelle ? Elle rigole, j'marque un point, tu m'étonnes, mais what's your name? Dis-moi, où vas-tu comme ça ? Comment ? Je te plais ou pas ? J'suis pas plus chou que ton p'tit ami, Franco, on y va ou pas ? P'tit resto, zerma tu surveilles ta ligne J'vois qu't'es un avion de chasse, j'serai ton pilote de ligne Restons simple, franchement poupée je te plais ou pas ? Ça n'engage à rien, évitons les nanani, les nanana Y'a une place, allez gare-toi bien, je crois pas aux signes du destin Je sais pas, mais toi t'as l'air bien, j'peux te tenir par la main Un p'tit tour sur la côte, on se marre comme deux potes J'vois qu'tu glisse, c'est le top, là, je te plais ou pas ? En roue libre, si tu veux fuir Moi je te suis C'est ma caisse qui t'barre la route, belle gosse J'ai ton 06 Tu seras mon plat pendant mon dîner Ma Marilyn Monroe pendant mon ciné La balle de mon canon scié Ma belle, j'suis la Bête qui t'fera glisser dans le Tu seras mon plat pendant mon dîner Ma Marilyn Monroe pendant mon ciné La balle de mon canon scié Ma belle, j'suis la Bête qui t'fera glisser dans le You might also like De haut en bas, de gauche à droite, on forme le couplet parfait Tes copines doutent de moi parce que tous les jours j'suis en Dolce Voiture d'loc', du Ciroc, j'ai des Zanotti aux pieds Je demanderai au DJ de passer ton son préféré J'ai le style qui les attirent, tu fais genre t'es pas jalouse SMS sur mon tél, on dirait qu't'as les yeux qui louchent Je vois qu'tu me kiffes de fou, je sais qu'tu me kiffes de fou Ca te dit un week-end à Milan ou Istanbul ? Draps rouges pour une nuit d'enfer, tu sais l'faire ? Je sais l'faire, ça va l'faire Cinq étoiles, tu te dévoiles, tu m'as fait oublier mon ex Coup de hanches, j'ai le manche qui vient de trouer le latex Tu penses déjà à te marier, faire des tissmés Jamais une meuf a vu la madre, chez nous tu connais Un ciné, des pop corn avec toi j'ai plus de cornes Allège-moi, t'es ma pote, t'es ma femme, ma chicha pomme En roue libre, si tu veux fuir Moi je te suis C'est ma caisse qui t'barre la route, belle gosse J'ai ton 06 Tu seras mon plat pendant mon dîner Ma Marilyn Monroe pendant mon ciné La balle de mon canon scié Ma belle, j'suis la Bête qui t'fera glisser dans le Tu seras mon plat pendant mon dîner Ma Marilyn Monroe pendant mon ciné La balle de mon canon scié Ma belle, j'suis la Bête qui t'fera glisser dans le Oh oh oh, j'vais te mettre bien Hé, j'vais te mettre bien tonight Héé, j'vais te mettre bien tonight J'vais te mettre bien</t>
+          <t>Sur la route, cheveux au vent, elle conduit avec des gants Au feu rouge, j'arrive doucement, j'ai le regard insistant Elle me nargue, elle accélère, j'suis sur mon cheval de fer J'vois son sourire, du rétro, j'passe les rapports en roue arrière Elle se gare, j'lève le casque, wesh ma belle, j'te roule une pelle ? Elle rigole, j'marque un point, tu m'étonnes, mais what's your name? Dis-moi, où vas-tu comme ça ? Comment ? Je te plais ou pas ? J'suis pas plus chou que ton p'tit ami, Franco, on y va ou pas ? P'tit resto, zerma tu surveilles ta ligne J'vois qu't'es un avion de chasse, j'serai ton pilote de ligne Restons simple, franchement poupée je te plais ou pas ? Ça n'engage à rien, évitons les nanani, les nanana Y'a une place, allez gare-toi bien, je crois pas aux signes du destin Je sais pas, mais toi t'as l'air bien, j'peux te tenir par la main Un p'tit tour sur la côte, on se marre comme deux potes J'vois qu'tu glisse, c'est le top, là, je te plais ou pas ? En roue libre, si tu veux fuir Moi je te suis C'est ma caisse qui t'barre la route, belle gosse J'ai ton 06 Tu seras mon plat pendant mon dîner Ma Marilyn Monroe pendant mon ciné La balle de mon canon scié Ma belle, j'suis la Bête qui t'fera glisser dans le Tu seras mon plat pendant mon dîner Ma Marilyn Monroe pendant mon ciné La balle de mon canon scié Ma belle, j'suis la Bête qui t'fera glisser dans le De haut en bas, de gauche à droite, on forme le couplet parfait Tes copines doutent de moi parce que tous les jours j'suis en Dolce Voiture d'loc', du Ciroc, j'ai des Zanotti aux pieds Je demanderai au DJ de passer ton son préféré J'ai le style qui les attirent, tu fais genre t'es pas jalouse SMS sur mon tél, on dirait qu't'as les yeux qui louchent Je vois qu'tu me kiffes de fou, je sais qu'tu me kiffes de fou Ca te dit un week-end à Milan ou Istanbul ? Draps rouges pour une nuit d'enfer, tu sais l'faire ? Je sais l'faire, ça va l'faire Cinq étoiles, tu te dévoiles, tu m'as fait oublier mon ex Coup de hanches, j'ai le manche qui vient de trouer le latex Tu penses déjà à te marier, faire des tissmés Jamais une meuf a vu la madre, chez nous tu connais Un ciné, des pop corn avec toi j'ai plus de cornes Allège-moi, t'es ma pote, t'es ma femme, ma chicha pomme En roue libre, si tu veux fuir Moi je te suis C'est ma caisse qui t'barre la route, belle gosse J'ai ton 06 Tu seras mon plat pendant mon dîner Ma Marilyn Monroe pendant mon ciné La balle de mon canon scié Ma belle, j'suis la Bête qui t'fera glisser dans le Tu seras mon plat pendant mon dîner Ma Marilyn Monroe pendant mon ciné La balle de mon canon scié Ma belle, j'suis la Bête qui t'fera glisser dans le Oh oh oh, j'vais te mettre bien Hé, j'vais te mettre bien tonight Héé, j'vais te mettre bien tonight J'vais te mettre bien</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense Elle ne m'a jamais épousé Certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Certains sont touchés par la grâce, d'autres par la poisse On me dit choisis ta voie alors que face à moi, y'a qu'une impasse J'ai vu qu'j'touchais pas au but, même au gré des passes Car habitué du banc de touche, j'ai peu de face-à-face Mais il parait que ça n'arrive pas qu'aux autres Mais c'est les nôtres qui payent la note Moi comme tout ces Boeings, mon rêve est de la détourner Au pied du mur, comment la voir si j'ai le dos tourné ? You might also like J'ai vu le bonheur passer comme une étoile filante Ça va fêter le réveillon sur un capot mais sans guirlande J'ai tout misé sur l'écriture, à défaut de finir chef de gang Les seules étoiles qu'on voit briller se trouvent dans les stades ou sur les champs J'ai pas toujours été au top, d'ailleurs je me demande à quand mon tour J'ai mis du temps mais pour apprendre à tenir sans fléchir sur les genoux Certains l'attendent sans réfléchir avec les naseaux pleines de poudres On la convoite au clair de Lune, tout comme dans les tributs papous Elle ne m'a jamais épousé Certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Je vois le paradis à quelques kilomètres Le navire a chaviré et ma bonne étoile a prévu la même Mon compagnon le désespoir me rappelle qu'on ne sait pas nager Ma descendance ne saura jamais où mon corps a pu échouer Combien en ont perdu la vie ? nous sommes des milliers Et combien y pensent tous les jours ? nous sommes des millions Et si personne bouge ? on serait des milliards Elle ne m'a jamais épousé Certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Une douleur sans médicament Je vous parle d'une vie du tiers monde La valeur d'une âme en diamant Méprisé qui vient du tiers monde J'suis le reflet de ce que je vis, j'avance avec un regard de glace Le savoir est une arme, on peut blesser avec les mots Si j'te racontais ma vie, j'crois bien que tu pleurais à ma place J'ai toujours retenu mes larmes, parce que j'aime pas gaspiller l'eau Rester lucide, c'est déjà une réussite Si j'dois mourir avec une arme, je pense au braquage pas au suicide Elle m'a abandonné depuis ce jour-là, ça va pas Certains l'appellent la chance, moi j'appelle ça la Baraka Quand jétais petit, je croyais que jétais son préféré J'y échappais de justesse quand les autres faisaient déferrer Elle me rappelle en masqué donc souvent je décroche pas Je croyais qu'elle me faisait du pied en faite c'était un croche-patte Elle ne m'a jamais épousé Certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense7</t>
+          <t>Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense Elle ne m'a jamais épousé Certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Certains sont touchés par la grâce, d'autres par la poisse On me dit choisis ta voie alors que face à moi, y'a qu'une impasse J'ai vu qu'j'touchais pas au but, même au gré des passes Car habitué du banc de touche, j'ai peu de face-à-face Mais il parait que ça n'arrive pas qu'aux autres Mais c'est les nôtres qui payent la note Moi comme tout ces Boeings, mon rêve est de la détourner Au pied du mur, comment la voir si j'ai le dos tourné ? J'ai vu le bonheur passer comme une étoile filante Ça va fêter le réveillon sur un capot mais sans guirlande J'ai tout misé sur l'écriture, à défaut de finir chef de gang Les seules étoiles qu'on voit briller se trouvent dans les stades ou sur les champs J'ai pas toujours été au top, d'ailleurs je me demande à quand mon tour J'ai mis du temps mais pour apprendre à tenir sans fléchir sur les genoux Certains l'attendent sans réfléchir avec les naseaux pleines de poudres On la convoite au clair de Lune, tout comme dans les tributs papous Elle ne m'a jamais épousé Certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Je vois le paradis à quelques kilomètres Le navire a chaviré et ma bonne étoile a prévu la même Mon compagnon le désespoir me rappelle qu'on ne sait pas nager Ma descendance ne saura jamais où mon corps a pu échouer Combien en ont perdu la vie ? nous sommes des milliers Et combien y pensent tous les jours ? nous sommes des millions Et si personne bouge ? on serait des milliards Elle ne m'a jamais épousé Certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Une douleur sans médicament Je vous parle d'une vie du tiers monde La valeur d'une âme en diamant Méprisé qui vient du tiers monde J'suis le reflet de ce que je vis, j'avance avec un regard de glace Le savoir est une arme, on peut blesser avec les mots Si j'te racontais ma vie, j'crois bien que tu pleurais à ma place J'ai toujours retenu mes larmes, parce que j'aime pas gaspiller l'eau Rester lucide, c'est déjà une réussite Si j'dois mourir avec une arme, je pense au braquage pas au suicide Elle m'a abandonné depuis ce jour-là, ça va pas Certains l'appellent la chance, moi j'appelle ça la Baraka Quand jétais petit, je croyais que jétais son préféré J'y échappais de justesse quand les autres faisaient déferrer Elle me rappelle en masqué donc souvent je décroche pas Je croyais qu'elle me faisait du pied en faite c'était un croche-patte Elle ne m'a jamais épousé Certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense7</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dj Lil King Dawala Congolais de pure souche, j'suis un vantard Prêt à vendre la raque-ba pour un costard Si j'me trouve ici, tu n'es forcément nul part Certains pourraient s'crever les yeux pour qu'on les regarde Les michtos se dessapent afin qu'tu les ressapes Dans un sharingan depuis que t'as eu son WhatsApp Petit canard, maman t'a appris à dire stop Pour te voler le billet violet, bien sûr qu'elle frotte Sexy lady, ton homme on va l'taser Range ces sses-cui, mes négros veulent damer Tout est physique, ton cul oui t'rend te-bê Faut qu'ça s'finisse en soirée mayabé Quoi que disent les gens sur toi Plus rien à foutre, laissons les juger, ah Oh Oh Ah Demain tu reprendras ton taf' Mais soir-ce, t'es là pour t'ambiancer You might also like Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, ma chérie l'argent te fascine D'où viennent tes racines ? Ton choix de vêtements m'assassine Les pas sont saccadés, rentre dans la ronde, fais ta mala D'Abidjan à Douala, partout dans le monde fais ta mala Congolais, expert en sapologie Quand j'me sape, vois comment la foule réagit Avec le sexe opposé, on interagit Agile sont les miens, si y'a gadjis Docile, ça jamais, demande à Badjnight Si j'rince, c'est qu'je peux passer une bad night Comme Michael touche le ciel sans mes Air Flyght Quand j'vois s'fight tous mes amoureux de lasphalte Quoi que disent les gens sur toi Plus rien à foutre laissons les juger, ah Oh Oh Ah Demain tu reprendras ton taf' Mais soir-ce t'es là pour t'ambiancer Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, l'argent va façon facile Wati B fascine, mes gars là sont sapés façon bavon On est loin des footeux niama niama, ooh niama niama Tu veux goûter l'succès d'mande à Dawa, ooh demande à Dawa J'suis sénégalais pure souche, pas une p'tite frappe Jeune et beau, j'suis l'cauchemar des cistes-ra Je sais très bien que juste pour la mala J'pourrais poser 10 bouteilles même si j'tise pas Bien bien, les montres et les p'tites sapes Dommage que la fin du mois soit ric-rac Je n'sais guerre ce que veulent ces p'tites 'tasse Quitte là, pour les chneckzer j'ai du whiskas Mon gava, mon gava y'a pas si longtemps que ça tu n'me regardais pas Maintenant ta f-meu se-dan sur du Shin Sekaï Elle kiff ma dégaine, le charisme et le style Ce soir, j'compte bien faire du boucan sur tout Paname Quoi que disent les gens sur toi Plus rien à foutre laissons les juger, ah Oh Oh Ah Demain tu reprendras ton taf' Mais soir ce t'es là pour t'ambiancer Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, Debeing a le billet facile Abidjan, Abidjan ! Le billet facile, Tall a le billet facile Séné-Sénégal ! Le billet facile, Beriz a le billet facile BKO, BKO ! Le billet facile, DR a le billet facile Congo Kinshasa, Brazzaville, ah !6</t>
+          <t>Dj Lil King Dawala Congolais de pure souche, j'suis un vantard Prêt à vendre la raque-ba pour un costard Si j'me trouve ici, tu n'es forcément nul part Certains pourraient s'crever les yeux pour qu'on les regarde Les michtos se dessapent afin qu'tu les ressapes Dans un sharingan depuis que t'as eu son WhatsApp Petit canard, maman t'a appris à dire stop Pour te voler le billet violet, bien sûr qu'elle frotte Sexy lady, ton homme on va l'taser Range ces sses-cui, mes négros veulent damer Tout est physique, ton cul oui t'rend te-bê Faut qu'ça s'finisse en soirée mayabé Quoi que disent les gens sur toi Plus rien à foutre, laissons les juger, ah Oh Oh Ah Demain tu reprendras ton taf' Mais soir-ce, t'es là pour t'ambiancer Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, ma chérie l'argent te fascine D'où viennent tes racines ? Ton choix de vêtements m'assassine Les pas sont saccadés, rentre dans la ronde, fais ta mala D'Abidjan à Douala, partout dans le monde fais ta mala Congolais, expert en sapologie Quand j'me sape, vois comment la foule réagit Avec le sexe opposé, on interagit Agile sont les miens, si y'a gadjis Docile, ça jamais, demande à Badjnight Si j'rince, c'est qu'je peux passer une bad night Comme Michael touche le ciel sans mes Air Flyght Quand j'vois s'fight tous mes amoureux de lasphalte Quoi que disent les gens sur toi Plus rien à foutre laissons les juger, ah Oh Oh Ah Demain tu reprendras ton taf' Mais soir-ce t'es là pour t'ambiancer Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, l'argent va façon facile Wati B fascine, mes gars là sont sapés façon bavon On est loin des footeux niama niama, ooh niama niama Tu veux goûter l'succès d'mande à Dawa, ooh demande à Dawa J'suis sénégalais pure souche, pas une p'tite frappe Jeune et beau, j'suis l'cauchemar des cistes-ra Je sais très bien que juste pour la mala J'pourrais poser 10 bouteilles même si j'tise pas Bien bien, les montres et les p'tites sapes Dommage que la fin du mois soit ric-rac Je n'sais guerre ce que veulent ces p'tites 'tasse Quitte là, pour les chneckzer j'ai du whiskas Mon gava, mon gava y'a pas si longtemps que ça tu n'me regardais pas Maintenant ta f-meu se-dan sur du Shin Sekaï Elle kiff ma dégaine, le charisme et le style Ce soir, j'compte bien faire du boucan sur tout Paname Quoi que disent les gens sur toi Plus rien à foutre laissons les juger, ah Oh Oh Ah Demain tu reprendras ton taf' Mais soir ce t'es là pour t'ambiancer Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, Debeing a le billet facile Abidjan, Abidjan ! Le billet facile, Tall a le billet facile Séné-Sénégal ! Le billet facile, Beriz a le billet facile BKO, BKO ! Le billet facile, DR a le billet facile Congo Kinshasa, Brazzaville, ah !6</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ce soir on sautera les barrières, on mettra pas leurs petits tickets Paraît qu'j'suis Noir et mal élevé, que mon équipe est critiquée Mais fuck, je ne gobe ni leurs paroles ni leurs médicaments Cosmopolites, chez nous lalcool est russe et le bolide allemand La sape est italienne, la rage est africaine, ok Raciste, cest avec nous que ta fille traîne, ok Jtexplique le dièse mon père fait pas déconomies En garde-à-vue mes frelots nient, et moi jai le blues des colonies Ouais jai lblues de lépoque où Del Piero menait la Juve Jaurais pas cru, si on mavait dit quun jour jverrais la juge Jparle pas trop au téléphone, mon entourage est sous écoute Ok... hé et la vie sans sous dégoûte Du coups jai deux-trois accès, dla dope qui peut désaxer Nos poumons sont martyrs, nos cigarettes détaxées Nos oncles et tantes, adeptes du petit grattage Et nous sa mère, ça mlaisse amer, on est tous dans le piratage Mes soucis mont forgé, je nfais que mplaindre dans ma life Mais quoi que je dise, crois-moi, jla kiffe trop my life Jai le contrôle sur mes faits et gestes, le guide de ma life Mes soucis mont forgé, je nfais que mplaindre dans ma life Mais quoi que je dise, crois-moi, jla kiffe trop my life Jai le contrôle sur mes faits et gestes, le guide de ma life You might also like Je souhaite de vivre longtemps dans mes prières Sans aiguille dans lbras Mes rimes jles chauffe dans une cuillère Ffrère, et jles deale en bas Jmen bats les couilles moi Tout cque jveux cest vivre sans souffrir Voir les coffres fermés souvrir Et pourquoi pas les sous venir Et dans mes meilleurs souvenirs Avec les potes on slâchait On savait même pas shlasser Sembrouillait pour des sachets Sembrouillait pour du bénèf Sembrouillait pour des petites putes On avait tous des petits buts Et puis les crocs des pitbulls Et on sest mis à grandir Entendu même les grands dire Quon prendrait leur place Et que les armes on aimerait brandir Cest la spirale dla cité Ouais celle avec un grand C Où cest plus dur davancer Quand Fleury Fresnes ta lancée Et si la sagesse sacquiert Bah moi jai besoin de saphirs Le soir, je marche sur des braises Un peu comme font les fakirs Hé jsais pas si au fond On nous prendra comme tels Si on mourra vieux Si on passera la trentaine, mon pote Je suis, larchitecte de mes erreurs Tu fuis, quoi quje fasse jsuis à zéro Je suis, tes larchitecte de tes erreurs Tu fuis, quoi qutu fasses tes à zéro Je kiffe ma life, je kiffe ma life Je kiffe ma life, je kiffe ma life 5</t>
+          <t>Ce soir on sautera les barrières, on mettra pas leurs petits tickets Paraît qu'j'suis Noir et mal élevé, que mon équipe est critiquée Mais fuck, je ne gobe ni leurs paroles ni leurs médicaments Cosmopolites, chez nous lalcool est russe et le bolide allemand La sape est italienne, la rage est africaine, ok Raciste, cest avec nous que ta fille traîne, ok Jtexplique le dièse mon père fait pas déconomies En garde-à-vue mes frelots nient, et moi jai le blues des colonies Ouais jai lblues de lépoque où Del Piero menait la Juve Jaurais pas cru, si on mavait dit quun jour jverrais la juge Jparle pas trop au téléphone, mon entourage est sous écoute Ok... hé et la vie sans sous dégoûte Du coups jai deux-trois accès, dla dope qui peut désaxer Nos poumons sont martyrs, nos cigarettes détaxées Nos oncles et tantes, adeptes du petit grattage Et nous sa mère, ça mlaisse amer, on est tous dans le piratage Mes soucis mont forgé, je nfais que mplaindre dans ma life Mais quoi que je dise, crois-moi, jla kiffe trop my life Jai le contrôle sur mes faits et gestes, le guide de ma life Mes soucis mont forgé, je nfais que mplaindre dans ma life Mais quoi que je dise, crois-moi, jla kiffe trop my life Jai le contrôle sur mes faits et gestes, le guide de ma life Je souhaite de vivre longtemps dans mes prières Sans aiguille dans lbras Mes rimes jles chauffe dans une cuillère Ffrère, et jles deale en bas Jmen bats les couilles moi Tout cque jveux cest vivre sans souffrir Voir les coffres fermés souvrir Et pourquoi pas les sous venir Et dans mes meilleurs souvenirs Avec les potes on slâchait On savait même pas shlasser Sembrouillait pour des sachets Sembrouillait pour du bénèf Sembrouillait pour des petites putes On avait tous des petits buts Et puis les crocs des pitbulls Et on sest mis à grandir Entendu même les grands dire Quon prendrait leur place Et que les armes on aimerait brandir Cest la spirale dla cité Ouais celle avec un grand C Où cest plus dur davancer Quand Fleury Fresnes ta lancée Et si la sagesse sacquiert Bah moi jai besoin de saphirs Le soir, je marche sur des braises Un peu comme font les fakirs Hé jsais pas si au fond On nous prendra comme tels Si on mourra vieux Si on passera la trentaine, mon pote Je suis, larchitecte de mes erreurs Tu fuis, quoi quje fasse jsuis à zéro Je suis, tes larchitecte de tes erreurs Tu fuis, quoi qutu fasses tes à zéro Je kiffe ma life, je kiffe ma life Je kiffe ma life, je kiffe ma life 5</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>J'passe ma vie à zoner et à m'demander si j'n'ai pas de chance La rue c'est ma son-mai, tu m'as vu marcher dans tous les sens Ma belle, tu es chant-mé et je m'en tape de tout c'que tu penses J'passe ma vie à zoner, la tête dans les nuages et les pieds sur l'bitume Où? Où t'as dormi? Où? Mais où tu vas? Où? Mais où tu passes toutes les nuits? Ma belle, tu poses trop de questions On a peur pour toi, mon fils, j'lui ai répondu t'inquiète pas pour moi mama Je n'aime pas le jour je n'vis que la night J'passe ma vie à zoner et à m'demander si j'n'ai pas de chance La rue c'est ma son-mai, tu m'as vu marcher dans tous les sens Ma belle, tu es chant-mé et je m'en tape de tout c'que tu penses J'passe ma vie à zoner, la tête dans les nuages et les pieds sur l'bitume Qui? Qui tu fréquentes? Qui? Chez qui tu vas? Avec qui t'as passé toute la nuit? Ma belle, tu poses trop de questions On a peur pour toi, mon fils, j'lui ai répondu t'inquiète pas pour moi mama Je n'aime pas le jour je n'vis que la night J'passe ma vie à zoner et à m'demander si j'n'ai pas de chance La rue c'est ma son-mai, tu m'as vu marcher dans tous les sens Ma belle, tu es chant-mé et je m'en tape de tout c'que tu penses J'passe ma vie à zoner, la tête dans les nuages et les pieds sur l'bitume You might also like Je me pose des questions, quand est-ce que tu vas changer? Je me pose des questions, quand est-ce que tu vas médire? Tu n'comprends pas, une partie de moi ne vit qu'la nuit Désire que la nuit J'passe ma vie à zoner et à m'demander si j'n'ai pas de chance La rue c'est ma son-mai, tu m'as vu marcher dans tous les sens Ma belle, tu es chant-mé et je m'en tape de tout c'que tu penses J'passe ma vie à zoner, la tête dans les nuages et les pieds sur l'bitume1</t>
+          <t>J'passe ma vie à zoner et à m'demander si j'n'ai pas de chance La rue c'est ma son-mai, tu m'as vu marcher dans tous les sens Ma belle, tu es chant-mé et je m'en tape de tout c'que tu penses J'passe ma vie à zoner, la tête dans les nuages et les pieds sur l'bitume Où? Où t'as dormi? Où? Mais où tu vas? Où? Mais où tu passes toutes les nuits? Ma belle, tu poses trop de questions On a peur pour toi, mon fils, j'lui ai répondu t'inquiète pas pour moi mama Je n'aime pas le jour je n'vis que la night J'passe ma vie à zoner et à m'demander si j'n'ai pas de chance La rue c'est ma son-mai, tu m'as vu marcher dans tous les sens Ma belle, tu es chant-mé et je m'en tape de tout c'que tu penses J'passe ma vie à zoner, la tête dans les nuages et les pieds sur l'bitume Qui? Qui tu fréquentes? Qui? Chez qui tu vas? Avec qui t'as passé toute la nuit? Ma belle, tu poses trop de questions On a peur pour toi, mon fils, j'lui ai répondu t'inquiète pas pour moi mama Je n'aime pas le jour je n'vis que la night J'passe ma vie à zoner et à m'demander si j'n'ai pas de chance La rue c'est ma son-mai, tu m'as vu marcher dans tous les sens Ma belle, tu es chant-mé et je m'en tape de tout c'que tu penses J'passe ma vie à zoner, la tête dans les nuages et les pieds sur l'bitume Je me pose des questions, quand est-ce que tu vas changer? Je me pose des questions, quand est-ce que tu vas médire? Tu n'comprends pas, une partie de moi ne vit qu'la nuit Désire que la nuit J'passe ma vie à zoner et à m'demander si j'n'ai pas de chance La rue c'est ma son-mai, tu m'as vu marcher dans tous les sens Ma belle, tu es chant-mé et je m'en tape de tout c'que tu penses J'passe ma vie à zoner, la tête dans les nuages et les pieds sur l'bitume1</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Oh, oh, oh ! Les yeux plus gros qu'le monde ! Dr Beriz Big Black M Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M Hello Bériz ! Euh... Comment vas-tu depuis Wati euh... ? Comment leur dire que c'est moi l'king ? Euh... C'est moi qui vous dicte le chapitre Rêveur, on me dit que j'suis ché-per, mais, le Big Black M, il a cé-per Et on dit que, la chute, elle est sévère mais, le débrouillard, il sait faire J'ai le sang du daron de la Guinée tout comme j'ai le sang d'un rappeur qui sait kicker Je me fous de vos idoles cain-ri, ce n'est pas eux qui me donnent le maro Je suis pas dans les délires L.A, quand le soleil frappe, j'suis plutôt Maroc Gros son pour les re-frés, il faut que tout le monde chante mon refrain You might also like Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M Je voulais juste prendre mes lovés, sans pour autant vouloir être mauvais M'en voulez pas d'avoir innové, oh ! Tous vos sons me donnent la nausée J'étais au tié-quar' souvent posé, j'voulais que personne vienne me causer Je voulais juste dreamer, m'sauver, fuck l'Interim, j'préférais chômer Beaucoup m'ont dit qu'je finirai paumé, j'avais que Sexion pour m'épauler J'étais souvent dur et en colère, oui, je n'aimais pas l'système scolaire J'avais du mal avec les horaires, à mes ennemis j'disais J'les aurai. Je ne suis pas là pour décorer, non, renoi, faut pas déconner Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M Si j'ai les yeux plus gros qu'le monde C'est que j'ai dû voir ce qu'ont vu tous les grands de ce monde, n'est ce pas ? J'ai que ma gueule, ma musique et mon style Pour m'en sortir, j'ai du transmettre ma peine sur mes titres, mon gars Si j'ai les yeux plus gros qu'le monde C'est que j'ai dû voir ce qu'ont vu tous les grands de ce monde, n'est ce pas ? J'ai que ma gueule, ma musique et mon style Pour m'en sortir, j'ai du transmettre ma peine sur mes titres, mon gars Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M6</t>
+          <t>Oh, oh, oh ! Les yeux plus gros qu'le monde ! Dr Beriz Big Black M Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M Hello Bériz ! Euh... Comment vas-tu depuis Wati euh... ? Comment leur dire que c'est moi l'king ? Euh... C'est moi qui vous dicte le chapitre Rêveur, on me dit que j'suis ché-per, mais, le Big Black M, il a cé-per Et on dit que, la chute, elle est sévère mais, le débrouillard, il sait faire J'ai le sang du daron de la Guinée tout comme j'ai le sang d'un rappeur qui sait kicker Je me fous de vos idoles cain-ri, ce n'est pas eux qui me donnent le maro Je suis pas dans les délires L.A, quand le soleil frappe, j'suis plutôt Maroc Gros son pour les re-frés, il faut que tout le monde chante mon refrain Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M Je voulais juste prendre mes lovés, sans pour autant vouloir être mauvais M'en voulez pas d'avoir innové, oh ! Tous vos sons me donnent la nausée J'étais au tié-quar' souvent posé, j'voulais que personne vienne me causer Je voulais juste dreamer, m'sauver, fuck l'Interim, j'préférais chômer Beaucoup m'ont dit qu'je finirai paumé, j'avais que Sexion pour m'épauler J'étais souvent dur et en colère, oui, je n'aimais pas l'système scolaire J'avais du mal avec les horaires, à mes ennemis j'disais J'les aurai. Je ne suis pas là pour décorer, non, renoi, faut pas déconner Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M Si j'ai les yeux plus gros qu'le monde C'est que j'ai dû voir ce qu'ont vu tous les grands de ce monde, n'est ce pas ? J'ai que ma gueule, ma musique et mon style Pour m'en sortir, j'ai du transmettre ma peine sur mes titres, mon gars Si j'ai les yeux plus gros qu'le monde C'est que j'ai dû voir ce qu'ont vu tous les grands de ce monde, n'est ce pas ? J'ai que ma gueule, ma musique et mon style Pour m'en sortir, j'ai du transmettre ma peine sur mes titres, mon gars Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M6</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Est-ce que j'dois profiter d'ma life ? Dormir, sortir, que faire de ma night ? Est-ce que j'dois profiter d'ma life bien avant que ma vie s'écoule Dormir, sortir, que faire de ma night, soit je m'isole ou soit j'deviens fou Tu veux tout tout de suite quand t'es sous tise C'est une course poursuite, moi je m'épuise Wesh gava, tu t'pavanes T'as sorti la gova et les bravas T'es de passage, c'est le bazar T'as provoqué les passants même en bas âge On te connait, t'aimes rigoler Mais personne n'aime te croiser quand t'as trop picolé Tu vois une équipe, tu veux embrouiller l'un d'eux Akhi t'es mon gars sûr mais on s'verra main-de Est-ce que j'dois profiter d'ma life bien avant que ma vie s'écoule Dormir, sortir, que faire de ma night, soit je m'isole ou soit j'deviens fou Tu veux tout tout de suite quand t'es sous tise C'est une course poursuite, moi je m'épuise You might also like Ouh Ouh , je veux pas la baraque à Drake Je veux mon terrain au bled bien barricadé Ah Ah , demande à Barack A.D Le dream c'est la famille tout le reste est gâté Petit je voulais tout tout de suite J'voyais les chose en grand fallait pas que je touche que le SMIC Petit ferme ta bouche ! Parler d'argent ici en France c'est tabou On est pas dans le pays d'Obama Si t'as réussi ta vie on te regarde mal N'essaye pas de débattre ici les gens parlent mal Bienvenue akhi ici t'es bien à Paname Est-ce que j'dois profiter d'ma life bien avant que ma vie s'écoule Dormir, sortir, que faire de ma night, soit je m'isole ou soit j'deviens fou Tu veux tout tout de suite quand t'es sous tise C'est une course poursuite, moi je m'épuise Je suis entouré de biff, de meufs, de teilles... Que faire ? Dis moi que faire ? Finir à BKO en maybach, il faut le faire, il faut le faire T'es sorti clean, t'as pas le temps, deux, trois potos qui t'attendent Un beau mytho pour madame, ça passe elle va mir-dor, ça t'arrange Bouteille à ta table t'es refait ! En place avec tous tes re-fré Deux jolies métisses Que faire ? Mes yeux fatiguent J'te cerne ! Vous connaissez les refrains, fonce-dé jusquà demain Tu crois déchirer, être au dessus des hommes ? Mais t'es déchiré tu dors sur le sol Est-ce que j'dois profiter d'ma life bien avant que ma vie s'écoule Dormir, sortir, que faire de ma night, soit je m'isole ou soit j'deviens fou Tu veux tout tout de suite quand t'es sous tise C'est une course poursuite, moi je m'épuise Qui a sous estimé le WA ? C'est le del-bor Qui t'a surestimé toi ? Peu importe Trop de talent et d'billets, comme la NBA Feeling in the air ! Laisse moi profiter de ma life avant que tout s'éteigne ! De ma life avant que tout s'éteigne ! Laisse moi profiter de ma life avant que tout s'éteigne ! De ma life avant que tout s'éteigne6</t>
+          <t>Est-ce que j'dois profiter d'ma life ? Dormir, sortir, que faire de ma night ? Est-ce que j'dois profiter d'ma life bien avant que ma vie s'écoule Dormir, sortir, que faire de ma night, soit je m'isole ou soit j'deviens fou Tu veux tout tout de suite quand t'es sous tise C'est une course poursuite, moi je m'épuise Wesh gava, tu t'pavanes T'as sorti la gova et les bravas T'es de passage, c'est le bazar T'as provoqué les passants même en bas âge On te connait, t'aimes rigoler Mais personne n'aime te croiser quand t'as trop picolé Tu vois une équipe, tu veux embrouiller l'un d'eux Akhi t'es mon gars sûr mais on s'verra main-de Est-ce que j'dois profiter d'ma life bien avant que ma vie s'écoule Dormir, sortir, que faire de ma night, soit je m'isole ou soit j'deviens fou Tu veux tout tout de suite quand t'es sous tise C'est une course poursuite, moi je m'épuise Ouh Ouh , je veux pas la baraque à Drake Je veux mon terrain au bled bien barricadé Ah Ah , demande à Barack A.D Le dream c'est la famille tout le reste est gâté Petit je voulais tout tout de suite J'voyais les chose en grand fallait pas que je touche que le SMIC Petit ferme ta bouche ! Parler d'argent ici en France c'est tabou On est pas dans le pays d'Obama Si t'as réussi ta vie on te regarde mal N'essaye pas de débattre ici les gens parlent mal Bienvenue akhi ici t'es bien à Paname Est-ce que j'dois profiter d'ma life bien avant que ma vie s'écoule Dormir, sortir, que faire de ma night, soit je m'isole ou soit j'deviens fou Tu veux tout tout de suite quand t'es sous tise C'est une course poursuite, moi je m'épuise Je suis entouré de biff, de meufs, de teilles... Que faire ? Dis moi que faire ? Finir à BKO en maybach, il faut le faire, il faut le faire T'es sorti clean, t'as pas le temps, deux, trois potos qui t'attendent Un beau mytho pour madame, ça passe elle va mir-dor, ça t'arrange Bouteille à ta table t'es refait ! En place avec tous tes re-fré Deux jolies métisses Que faire ? Mes yeux fatiguent J'te cerne ! Vous connaissez les refrains, fonce-dé jusquà demain Tu crois déchirer, être au dessus des hommes ? Mais t'es déchiré tu dors sur le sol Est-ce que j'dois profiter d'ma life bien avant que ma vie s'écoule Dormir, sortir, que faire de ma night, soit je m'isole ou soit j'deviens fou Tu veux tout tout de suite quand t'es sous tise C'est une course poursuite, moi je m'épuise Qui a sous estimé le WA ? C'est le del-bor Qui t'a surestimé toi ? Peu importe Trop de talent et d'billets, comme la NBA Feeling in the air ! Laisse moi profiter de ma life avant que tout s'éteigne ! De ma life avant que tout s'éteigne ! Laisse moi profiter de ma life avant que tout s'éteigne ! De ma life avant que tout s'éteigne6</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Wati B Prod, Shin Sekai Warano style, l'Amiral D.R L'ennemi public aka le numero un Black Mesrimes Les choses se passent dans l'calme J'ai l'keutru, j'ai l'débit, j'ai l'flow, j'vais les taper sans commettre aucune faute T'es le vrai 'warano ou t'es l'faux ? J'ai cru voir ta tête aux infos ça va ! Franchement c'est par rapport à mes parents que mes couplets se différencient des javons de l'Île-de-France Et quand tu cavalais comme un caniche devant des keumés, des calibres, tu faisais moins lintéressant J'envoie des ck-tru droit dans les chicos, c'est signé Meuguiwarano, tout est fini, j'enflamme le vinyle Petite merde, dis-moi salâm 'aleïkoum si tu vois mon cavu sé-po.. Lamborghini J'suis dans le terrain de tout l'monde Zazie, Johnny puis Balavoine, le disque d'or, tu ne pourras p't-être pas l'avoir D'autant plus que tu t'es jamais cassé la voix, une spéciale pour mes gens, mes gavas navas J'suis un grand garçon, ne me tenez même pas la main, très peu, très peu de bonhommes à Paname Qui tiendraient plus de cinq ou six minutes à la barre, va là-bas, disparais comme Jessica Alba Ça gratte avec l'esprit d'tuer, demande à 2being, ce que je veux, c'est t'taser là où tu te baignes Beaucoup trop de faux vécus dans le rap game, qui t'la certifié que mon casier vierge est plus gang ? Gilge-né comme un baveux commis d'office, pourtant, j'ai la te-tê', j'ai le charisme et la notice J'suis arrivé jusqu'ici, mon parcours un sans faute, fils de... J'arrêterai le son quand j'aurai plus de blé que Will Smith Et tous les hustlers te diront C'est la hass, là donc ça ré-ti comme l'Hezbollah sans craindre de prendre du hebs tu piges ? À tous ces soi-disant gars sûrs absents après chaque accident présents que quand y'a le bif' qui rentre, zombie un peu comme dans Resident Evil T'as une grande gueule, gonflée comme une montgolfière mais, quand il y a plus tes potes, tu fais le moins fier, hein ? Belek à la ue-r et tout le monde veut s'entuber, soûlé de la vie, ça peut soulever pour une .. J'fixe les gles-rè', ça va saigner, un mot de travers faut assumer, toujours fidèle à moi même, akhi, j'dois rien à sonne-per' Et celui qui dit des dingueries peut pas cer-per' ses dingaries, il y a qu'une chose à dire, en vrai, c'est qu'il aille niquer son père Ici, c'est soit tu gagnes, soit tu perds, do you understand ? T'as l'air du-per' J'fais d'une pierre dix coups, tu peux m'a.k.a Les ricochets qui cognent et cognent en traversant la rivière You might also like Ma vie n'a pas beaucoup changé depuis Je reviendrai J'ajouterai qu'à vrai dire, j'aimerais avancer en paix car le succès m'effraie Mais j'ai besoin de donuts, j'aimerais faire peau neuve car j'ai laissé quelques plumes à la quête du bonheur Je n'ai jamais écouté mes profs cistes-ra' qui pensaient très fort que je ne finirai qu'en chômeur Et puis je sais que face à Brad Pitt, j'ai sûrement l'air abominable Michto, ton choix serait vite fait entre une ceinture LV et une ceinture abdominale Fuck la droite, fuck la gauche, fuck les, fuck les, fuck l'État Je n'aime pas me soumettre, mis à part devant Dieu, fuck les, fuck les, fuck les chtars Et j'rends les miens heureux pendant qu'tes rappeurs de merde rendent l'âme Je ne veux pas être un légume accro à la blanche comme Jean-Claude Van Damme Rien à foutre de vos clashs, rien à, rien à, rien à foutre de vos swags de merde Merci d'tes conseils, mais j'n'en ai rien à faire, et, tout compte fait, je t'emmerde Bloquer, je sais qu'tu veux m'bloquer Que je disparaisse du circuit car moi je ne suis pas cette pute à peloter Nan, gros c'est l'Amiral dit l'Animal, ouais fais croquer Moi je manie mic', coups d'tête et crochets, ma vie, mon équipe, mon éthique m'aident à bosser Grossiers sont les persos mais fuck moi j'attends que la Terre saute Vu que l'humanité a délaissé son berceau et que la lucidité chez nous on la perd tôt Beriz, je sais qu'tu veux nous baiser et qu'on périsse Je sais qu'tu veux nous briser mais t'embellis et ça sent la douille, dans les rues ça sent l'pénis Pour le khalis on dévalise vu qu'à nos parents ils ont bloqué les valises Eux qui subissent des contrôles même en Vélib', l'État brise leur rêves à rendre leur vie invalide Pas de manif car les calibres crient fort, asseoir ainsi le respect On partira pas les mains vides car comme ils disent on a la gueule du suspect Tout le monde dit Black Black ! Tout le monde dit Black Black ! J'ai dit Tout le monde dit Black Black ! Tout le monde voit Black Black ! Tout le monde voit Black Black ! Ok ok, tout le monde voit Black Ce n'est pas le premier single, non c'est juste une pression, pression Allô, les puristes de merde le Black M ne veut pas de vos impressions Ouais, j'ai le seum, je mélange tout, même l'ingé' son peut s'en manger une La verité sort de la bouche des alcoliques, ne venez pas me voir quand j'ai bu Qui est dans le tur-fu' ? Oui, dis moi, qui est dans le tur-fu' ? Les MCs te diront plus tard qu'à cause de moi leur passé fut dur Moi, mon rap, c'est pas la ue-r', mais la ue-r', elle aime mon rap J'ai l'antidote contre l'Alzheimer, oui, ma musique, elle est mémorable Dans ma tête, j'suis pas solo, dites à tout le monde qu'il m'unfollow Ou juste à Beyonce qu'elle me follow, j'sais que vous en redemanderez encore Wesh, le game, c'est comment ? On s'ennuie ça fait un moment Tout le monde prétend avoir du talent, voilà pourquoi Big Black, il est paro Tout le monde dit Black Black Tout le monde dit Black Black Tout le monde dit Black Les yeux plus gros que la Play 4</t>
+          <t>Wati B Prod, Shin Sekai Warano style, l'Amiral D.R L'ennemi public aka le numero un Black Mesrimes Les choses se passent dans l'calme J'ai l'keutru, j'ai l'débit, j'ai l'flow, j'vais les taper sans commettre aucune faute T'es le vrai 'warano ou t'es l'faux ? J'ai cru voir ta tête aux infos ça va ! Franchement c'est par rapport à mes parents que mes couplets se différencient des javons de l'Île-de-France Et quand tu cavalais comme un caniche devant des keumés, des calibres, tu faisais moins lintéressant J'envoie des ck-tru droit dans les chicos, c'est signé Meuguiwarano, tout est fini, j'enflamme le vinyle Petite merde, dis-moi salâm 'aleïkoum si tu vois mon cavu sé-po.. Lamborghini J'suis dans le terrain de tout l'monde Zazie, Johnny puis Balavoine, le disque d'or, tu ne pourras p't-être pas l'avoir D'autant plus que tu t'es jamais cassé la voix, une spéciale pour mes gens, mes gavas navas J'suis un grand garçon, ne me tenez même pas la main, très peu, très peu de bonhommes à Paname Qui tiendraient plus de cinq ou six minutes à la barre, va là-bas, disparais comme Jessica Alba Ça gratte avec l'esprit d'tuer, demande à 2being, ce que je veux, c'est t'taser là où tu te baignes Beaucoup trop de faux vécus dans le rap game, qui t'la certifié que mon casier vierge est plus gang ? Gilge-né comme un baveux commis d'office, pourtant, j'ai la te-tê', j'ai le charisme et la notice J'suis arrivé jusqu'ici, mon parcours un sans faute, fils de... J'arrêterai le son quand j'aurai plus de blé que Will Smith Et tous les hustlers te diront C'est la hass, là donc ça ré-ti comme l'Hezbollah sans craindre de prendre du hebs tu piges ? À tous ces soi-disant gars sûrs absents après chaque accident présents que quand y'a le bif' qui rentre, zombie un peu comme dans Resident Evil T'as une grande gueule, gonflée comme une montgolfière mais, quand il y a plus tes potes, tu fais le moins fier, hein ? Belek à la ue-r et tout le monde veut s'entuber, soûlé de la vie, ça peut soulever pour une .. J'fixe les gles-rè', ça va saigner, un mot de travers faut assumer, toujours fidèle à moi même, akhi, j'dois rien à sonne-per' Et celui qui dit des dingueries peut pas cer-per' ses dingaries, il y a qu'une chose à dire, en vrai, c'est qu'il aille niquer son père Ici, c'est soit tu gagnes, soit tu perds, do you understand ? T'as l'air du-per' J'fais d'une pierre dix coups, tu peux m'a.k.a Les ricochets qui cognent et cognent en traversant la rivière Ma vie n'a pas beaucoup changé depuis Je reviendrai J'ajouterai qu'à vrai dire, j'aimerais avancer en paix car le succès m'effraie Mais j'ai besoin de donuts, j'aimerais faire peau neuve car j'ai laissé quelques plumes à la quête du bonheur Je n'ai jamais écouté mes profs cistes-ra' qui pensaient très fort que je ne finirai qu'en chômeur Et puis je sais que face à Brad Pitt, j'ai sûrement l'air abominable Michto, ton choix serait vite fait entre une ceinture LV et une ceinture abdominale Fuck la droite, fuck la gauche, fuck les, fuck les, fuck l'État Je n'aime pas me soumettre, mis à part devant Dieu, fuck les, fuck les, fuck les chtars Et j'rends les miens heureux pendant qu'tes rappeurs de merde rendent l'âme Je ne veux pas être un légume accro à la blanche comme Jean-Claude Van Damme Rien à foutre de vos clashs, rien à, rien à, rien à foutre de vos swags de merde Merci d'tes conseils, mais j'n'en ai rien à faire, et, tout compte fait, je t'emmerde Bloquer, je sais qu'tu veux m'bloquer Que je disparaisse du circuit car moi je ne suis pas cette pute à peloter Nan, gros c'est l'Amiral dit l'Animal, ouais fais croquer Moi je manie mic', coups d'tête et crochets, ma vie, mon équipe, mon éthique m'aident à bosser Grossiers sont les persos mais fuck moi j'attends que la Terre saute Vu que l'humanité a délaissé son berceau et que la lucidité chez nous on la perd tôt Beriz, je sais qu'tu veux nous baiser et qu'on périsse Je sais qu'tu veux nous briser mais t'embellis et ça sent la douille, dans les rues ça sent l'pénis Pour le khalis on dévalise vu qu'à nos parents ils ont bloqué les valises Eux qui subissent des contrôles même en Vélib', l'État brise leur rêves à rendre leur vie invalide Pas de manif car les calibres crient fort, asseoir ainsi le respect On partira pas les mains vides car comme ils disent on a la gueule du suspect Tout le monde dit Black Black ! Tout le monde dit Black Black ! J'ai dit Tout le monde dit Black Black ! Tout le monde voit Black Black ! Tout le monde voit Black Black ! Ok ok, tout le monde voit Black Ce n'est pas le premier single, non c'est juste une pression, pression Allô, les puristes de merde le Black M ne veut pas de vos impressions Ouais, j'ai le seum, je mélange tout, même l'ingé' son peut s'en manger une La verité sort de la bouche des alcoliques, ne venez pas me voir quand j'ai bu Qui est dans le tur-fu' ? Oui, dis moi, qui est dans le tur-fu' ? Les MCs te diront plus tard qu'à cause de moi leur passé fut dur Moi, mon rap, c'est pas la ue-r', mais la ue-r', elle aime mon rap J'ai l'antidote contre l'Alzheimer, oui, ma musique, elle est mémorable Dans ma tête, j'suis pas solo, dites à tout le monde qu'il m'unfollow Ou juste à Beyonce qu'elle me follow, j'sais que vous en redemanderez encore Wesh, le game, c'est comment ? On s'ennuie ça fait un moment Tout le monde prétend avoir du talent, voilà pourquoi Big Black, il est paro Tout le monde dit Black Black Tout le monde dit Black Black Tout le monde dit Black Les yeux plus gros que la Play 4</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>La lune descend un nouveau jour se lève La plus belle étoile dans le ciel s'élève Après chaque nuit de sommeil, envie de vivre mes rêves La vérité posée au bout de nos lèvres Tu dis que tu fais du lourd mais ton flow je le soulève N'oublions pas que le maître n'est qu'un ancien élève Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant You might also like Je crois que tu t'es trompé de jour, d'heure, de siècle et même de temps Car là où j'suis posé avec Biwai vous êtes la définition de ''perdre du temps'' Toucher le ciel, j'ai pas de time C'est peut-être la dernière fois où je kick en freestyle man Je dis bye bye ou reste encore et fais un truc de malade man C'est Les Chroniques Du Wati Boss on vous clashe man, on vous baffe man C'est Biwai et Beriz, Orlins et Paris Je n'ai pas le temps de t'expliquer, je sais que je te l'ai mise Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant</t>
+          <t>La lune descend un nouveau jour se lève La plus belle étoile dans le ciel s'élève Après chaque nuit de sommeil, envie de vivre mes rêves La vérité posée au bout de nos lèvres Tu dis que tu fais du lourd mais ton flow je le soulève N'oublions pas que le maître n'est qu'un ancien élève Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant Je crois que tu t'es trompé de jour, d'heure, de siècle et même de temps Car là où j'suis posé avec Biwai vous êtes la définition de ''perdre du temps'' Toucher le ciel, j'ai pas de time C'est peut-être la dernière fois où je kick en freestyle man Je dis bye bye ou reste encore et fais un truc de malade man C'est Les Chroniques Du Wati Boss on vous clashe man, on vous baffe man C'est Biwai et Beriz, Orlins et Paris Je n'ai pas le temps de t'expliquer, je sais que je te l'ai mise Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>J'arrive et j'les bouscule sans dire Pardon, messieurs De la classe dans les gestes, de la rage dans les yeux Vers chez nous ça kicke dur ouais, comme tu le vois Sinon, moi c'est Petrodollz Welcome to the Wa J'fais du cinéma parce que j'vois la vie sur grand écran J'ai jamais été p'tit, j'étais un futur grand Ils censurent les miens parce que chez nous ça ré-ti Du sang sur les mains, le dollar dans la rétine Trop d'types vendraient père et mère dans le périmètre Sens l'biff à des kilomètres, faut des kilos mec Tu m'testes ? Je t'encule au mic, j'suis un phénomène On s'doit, dans ce monde d'animal, d'être opé' les mecs Ouais ouais, on s'croise en ville et puis on s'parle Et puis c'est vrai que nos soirées commencent tard On paye un verre et puis on s'barre Je veux mener la vie de boss, non pas la vie de star Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Ça ne baratine pas Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Fais pas ta star alors qu't'es moche Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses IDR c'est comment ? Ça ne baratine pas PDG, on s'attrape ? Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses Hissam c'est comment ? Ça ne baratine pas Dawala, on s'attrape ? You might also like Marche avec les boss ou crève en hass Je fais parti de ceux qu'on présente pas Wati B frappe, tu ne peux que tendre la joue Numéro uno la gloire nous est due avec mes semblables C'est Dawa qui m'a parrainé Casse-toi, tu ne m'as pas aidé J'veux pas donner mon âme A mes démons m'affligent et me partagent Volontairement désinvolte Car aujourd'hui peu m'importe Quand je marche avec les boss Écartez les mômes, préparez les hommes, on est de sortie tonight, yeahi Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Ça ne baratine pas Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Fais pas ta star alors qu't'es moche Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses IDR c'est comment ? Ça ne baratine pas PDG, on s'attrape ? Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses c'est comment ? Ça ne baratine pas Dawala, on s'attrape ? Oyé sapapaya Ça vous dirait un ice cream avec mon ami et moi ? En plus mon ami et moi... j'ai dit mon ami et moi ? Plutôt mon frère, on partage tout comme des siamois Tu te fies à moi, j'suis pas dans fia-ma Mais je côtoie les italiennes un peu comme Diana Laisse ton gars l'plombier, viens voir mon clan, tu Nique sa mère le plan B, on passe direct au plan cul Quand je joue au foot, j'mets des buts à la Tevez Fais comme les américaines applaudis avec les fesses J'te présenterai mes potes, j'te ferai kiffer l'époque Je regarderai la télé quand tu m'feras des plats de pâtes J'te ferai kiffer l'époque, j'te présenterai mes potes J'te ferai crier de joie quand j'te prendrai à 4 pattes Ouais... on paye un verre et puis on s'barre Je veux mener la vie de boss, non pas la vie de star Quand Tony n'a plus sa coke, c'est sûrement ce son qui l'maudit Escobar qui tape la pose, Al Capone qui gère la musique Je peux faire de Alcatraz une boîte de nuit Qu'est-ce qu'on fait d'un camion de police ? Une boîte de 6 Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Ça ne baratine pas Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Fais pas ta star alors qu't'es moche Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses IDR c'est comment ? Ça ne baratine pas PDG, on s'attrape ? Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses Hissam c'est comment ? Ça ne baratine pas Dawala, on s'attrape ? Paroles rédigées et annotées par la communauté Rap Genius France</t>
+          <t>J'arrive et j'les bouscule sans dire Pardon, messieurs De la classe dans les gestes, de la rage dans les yeux Vers chez nous ça kicke dur ouais, comme tu le vois Sinon, moi c'est Petrodollz Welcome to the Wa J'fais du cinéma parce que j'vois la vie sur grand écran J'ai jamais été p'tit, j'étais un futur grand Ils censurent les miens parce que chez nous ça ré-ti Du sang sur les mains, le dollar dans la rétine Trop d'types vendraient père et mère dans le périmètre Sens l'biff à des kilomètres, faut des kilos mec Tu m'testes ? Je t'encule au mic, j'suis un phénomène On s'doit, dans ce monde d'animal, d'être opé' les mecs Ouais ouais, on s'croise en ville et puis on s'parle Et puis c'est vrai que nos soirées commencent tard On paye un verre et puis on s'barre Je veux mener la vie de boss, non pas la vie de star Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Ça ne baratine pas Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Fais pas ta star alors qu't'es moche Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses IDR c'est comment ? Ça ne baratine pas PDG, on s'attrape ? Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses Hissam c'est comment ? Ça ne baratine pas Dawala, on s'attrape ? Marche avec les boss ou crève en hass Je fais parti de ceux qu'on présente pas Wati B frappe, tu ne peux que tendre la joue Numéro uno la gloire nous est due avec mes semblables C'est Dawa qui m'a parrainé Casse-toi, tu ne m'as pas aidé J'veux pas donner mon âme A mes démons m'affligent et me partagent Volontairement désinvolte Car aujourd'hui peu m'importe Quand je marche avec les boss Écartez les mômes, préparez les hommes, on est de sortie tonight, yeahi Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Ça ne baratine pas Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Fais pas ta star alors qu't'es moche Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses IDR c'est comment ? Ça ne baratine pas PDG, on s'attrape ? Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses c'est comment ? Ça ne baratine pas Dawala, on s'attrape ? Oyé sapapaya Ça vous dirait un ice cream avec mon ami et moi ? En plus mon ami et moi... j'ai dit mon ami et moi ? Plutôt mon frère, on partage tout comme des siamois Tu te fies à moi, j'suis pas dans fia-ma Mais je côtoie les italiennes un peu comme Diana Laisse ton gars l'plombier, viens voir mon clan, tu Nique sa mère le plan B, on passe direct au plan cul Quand je joue au foot, j'mets des buts à la Tevez Fais comme les américaines applaudis avec les fesses J'te présenterai mes potes, j'te ferai kiffer l'époque Je regarderai la télé quand tu m'feras des plats de pâtes J'te ferai kiffer l'époque, j'te présenterai mes potes J'te ferai crier de joie quand j'te prendrai à 4 pattes Ouais... on paye un verre et puis on s'barre Je veux mener la vie de boss, non pas la vie de star Quand Tony n'a plus sa coke, c'est sûrement ce son qui l'maudit Escobar qui tape la pose, Al Capone qui gère la musique Je peux faire de Alcatraz une boîte de nuit Qu'est-ce qu'on fait d'un camion de police ? Une boîte de 6 Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Ça ne baratine pas Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Fais pas ta star alors qu't'es moche Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses IDR c'est comment ? Ça ne baratine pas PDG, on s'attrape ? Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses Hissam c'est comment ? Ça ne baratine pas Dawala, on s'attrape ? Paroles rédigées et annotées par la communauté Rap Genius France</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mes amis, j'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'pourrais te raconter ma life de façon triste et sans l'dire J'ai mal au cur, amis J'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'passe mon time à méditer j'essaie d'anticiper le pire J'ai mal au cur, amis J'ai beaucoup d'amis et presque autant de déceptions L'amitié parfaite ne restera qu'une inception J'accepte tes defauts, fais-en autant pour moi Car même dans le tort j'étais avec toi j't'ai jamais pointé du doigt Et je ne t'ai jamais causé de tort et si j'l'ai fait pardonne moi Ne crois pas que je te néglige si j'réponds une fois sur trois Et si demain tout s'arrête je n'irai pas tout recommencer Parce qu'une amitié qui s'arrête n'avait jamais commencé Avant d'être sincère avec moi sois-le avec toi même Ne m'encule pas sous pretexte que l'erreur est humaine Mon ami c'est moi et je suis mon ami J'avance avec le peu de frères que j'ai j'm'en beurre de ton avis Mes amis, j'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'pourrais te raconter ma life de façon triste et sans l'dire J'ai mal au cur, amis J'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'passe mon time à méditer j'essaie d'anticiper le pire J'ai mal au cur, amis You might also like Le cur à labri des coups de lame j'écris la plume dans l'estomac Mis de côté mes sentiments mais pour en faire une carapace Des fois les mots ça suffit pas, ça fait grandir ou ça fait mal L'amour est mort mais d'un virus virulent qu'on appelle Sheitan Rien a changé, mais le bitûme c'est comme les potes on s'y attache On s'donne à fond pour la plupart avec du recul c'est pas rentable On se comporte comme des hypocrites, sans rancune pour un coudoir Quasi détruit de l'intérieur, imbibé de larmes est le grimoire Plus de compassion, plus d'émotion, j'pars en guerre sans mitraillette J'ai mal au coeur, j'vis ma life à travers musique et concerts Les amis j'ai compté sur la plupart j'en ai souffert Aujourd'hui j'fais ma route j'reste à l'écart sans m'en soucier Mes amis, j'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'pourrais te raconter ma life de façon triste et sans l'dire J'ai mal au cur, amis J'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'passe mon time à méditer j'essaie d'anticiper le pire J'ai mal au cur, amis Entre l'amour et l'amitié l'incertitude fera son poids T'auras beau connaître tout un tas de meufs mais une fois dans les bois Si tu dois cher-ca un corps, dis-moi quel serait trop choix Une boule en plein milieu du thorax qui flirte avec le foie L'amitié c'est juste un masque qui che-ca une tête de mort Certains limite schizophrènes au niveau du comportement Pour tous nos soldats de l'ombre qu'on a pu juger par leurs actes Les vrais de vrais, coupe moi cinq doigts t'auras le chiffre exact J'tiens pas à faire de nouvelles connaissances traite moi d'incandescent Me connaissant, chaque déception me rend méconnaissable Moi je t'aime pour ce que tu es, toi t'aimes ce que tu veux que je sois J'en veux pas, juste mes gavas avec qui je peux être moi Tu n'auras plus jamais d'amis comme moi On pourrait se dire, je le sais, t'as changé comme moi Mes amis, j'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'pourrais te raconter ma life de façon triste et sans l'dire J'ai mal au cur, amis J'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'passe mon time à méditer j'essaie d'anticiper le pire J'ai mal au cur, amis3</t>
+          <t>Mes amis, j'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'pourrais te raconter ma life de façon triste et sans l'dire J'ai mal au cur, amis J'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'passe mon time à méditer j'essaie d'anticiper le pire J'ai mal au cur, amis J'ai beaucoup d'amis et presque autant de déceptions L'amitié parfaite ne restera qu'une inception J'accepte tes defauts, fais-en autant pour moi Car même dans le tort j'étais avec toi j't'ai jamais pointé du doigt Et je ne t'ai jamais causé de tort et si j'l'ai fait pardonne moi Ne crois pas que je te néglige si j'réponds une fois sur trois Et si demain tout s'arrête je n'irai pas tout recommencer Parce qu'une amitié qui s'arrête n'avait jamais commencé Avant d'être sincère avec moi sois-le avec toi même Ne m'encule pas sous pretexte que l'erreur est humaine Mon ami c'est moi et je suis mon ami J'avance avec le peu de frères que j'ai j'm'en beurre de ton avis Mes amis, j'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'pourrais te raconter ma life de façon triste et sans l'dire J'ai mal au cur, amis J'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'passe mon time à méditer j'essaie d'anticiper le pire J'ai mal au cur, amis Le cur à labri des coups de lame j'écris la plume dans l'estomac Mis de côté mes sentiments mais pour en faire une carapace Des fois les mots ça suffit pas, ça fait grandir ou ça fait mal L'amour est mort mais d'un virus virulent qu'on appelle Sheitan Rien a changé, mais le bitûme c'est comme les potes on s'y attache On s'donne à fond pour la plupart avec du recul c'est pas rentable On se comporte comme des hypocrites, sans rancune pour un coudoir Quasi détruit de l'intérieur, imbibé de larmes est le grimoire Plus de compassion, plus d'émotion, j'pars en guerre sans mitraillette J'ai mal au coeur, j'vis ma life à travers musique et concerts Les amis j'ai compté sur la plupart j'en ai souffert Aujourd'hui j'fais ma route j'reste à l'écart sans m'en soucier Mes amis, j'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'pourrais te raconter ma life de façon triste et sans l'dire J'ai mal au cur, amis J'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'passe mon time à méditer j'essaie d'anticiper le pire J'ai mal au cur, amis Entre l'amour et l'amitié l'incertitude fera son poids T'auras beau connaître tout un tas de meufs mais une fois dans les bois Si tu dois cher-ca un corps, dis-moi quel serait trop choix Une boule en plein milieu du thorax qui flirte avec le foie L'amitié c'est juste un masque qui che-ca une tête de mort Certains limite schizophrènes au niveau du comportement Pour tous nos soldats de l'ombre qu'on a pu juger par leurs actes Les vrais de vrais, coupe moi cinq doigts t'auras le chiffre exact J'tiens pas à faire de nouvelles connaissances traite moi d'incandescent Me connaissant, chaque déception me rend méconnaissable Moi je t'aime pour ce que tu es, toi t'aimes ce que tu veux que je sois J'en veux pas, juste mes gavas avec qui je peux être moi Tu n'auras plus jamais d'amis comme moi On pourrait se dire, je le sais, t'as changé comme moi Mes amis, j'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'pourrais te raconter ma life de façon triste et sans l'dire J'ai mal au cur, amis J'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'passe mon time à méditer j'essaie d'anticiper le pire J'ai mal au cur, amis3</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ma musique ne dépend pas du temps Mais l'accompagne à chaque instant Espace Temps En attendant Intemporel Connais-tu mon mal ? Connais-tu mon mal, mon mal-être ? Bastien Maska Souleyman veut toujours pas finir sous les flammes À moitié fou sans tous mes gars, mes cauchemars m'étouffent sous mes draps Il pleut mais j'ai le corps sec, tête d'ange, pensées obscènes J'observe à quoi les autres servent, ils sont trompeurs comme un corset J'avance quoi qu'ils disent, à l'époque des paquets de dix de clopes Y'avait pas tous ce biz' de coke, y'avait pas tout ces vices à l'école J'aimerais bien amputer l'Europe, l'Italie représente son pied J'parle de l'Etat, pas des habitants, fonce-dé sans tiser le rhum Pour viser le top, faudrait vider le coffre De ses propres potes c'est pas mon style, j'reste propre Les mecs sans tête qui s'entêtent, au final, comprennent et se sentent bêtes Princesse qui avance en boîte, deux gosses, trentenaire et sans mec Les amis, c'est comme des frères, on les aime avec leurs défauts Facile à dire, dur à faire, sur ma moral se sert l'étau Laisse-moi te dire File pas, frère, affronte la vie, lève-toi assez tôt Faut investir, petite affaire Chiken Chika, Chicha restau' You might also like Souvent, je m'isole sur mes notes, dans ma sphère, ça résonne, oh oui Le public est croque, moi, j'suis mort si j'ber-tom' sur la scène ou dans le vide C'est plus mon ego qui cause, le gent-ar' en cause, man Le bout de mes lèvres n'ose pas aller vers le haut, man Maintenant, tu connais mon mal-être J'ai besoin d'air pour rapper, à croire que rapper m'asphyxie J'repeignais le monde en rose, j'étais artiste à six piges Mais j'me suis rendu compte qu'la lumière était dans l'ombre Du trône des chefs d'Etat qui avaient trop souvent les dents longues Méfie-toi des apparences, certaines prostituées sentent bon J'ai l'rap assassin, ma prose te tuerait sans nom Laissées sur la scène de crime par mes empreintes digitales Mes mots ont des conséquences, comme une femme enceinte qui vit mal J'me vois trop en grand, heureusement, mon mini-moi M'dit Papa, assis-toi, raconte-moi une histoire Trop têtu, j'suis trop déter', ferme-la si tu me parles mal Tu recracheras un mensonge si, bêtement, tu l'avales J'suis un sentimental et ça m'fait peur Car, si tu m'casses le coeur, j'pourrais t'arracher l'tien J'arrive à trouver d'la beauté dans ma laideur Attiré par la luxure, heureusement, le passé m'tient Souvent, je m'isole sur mes notes, dans ma sphère, ça résonne, oh oui Le public est croque, moi, j'suis mort si j'ber-tom' sur la scène ou dans le vide C'est plus mon ego qui cause, le gent-ar' en cause, man Le bout de mes lèvres n'ose pas aller vers le haut, man Maintenant, tu connais mon mal-être Le mental d'acier de l'Etat s'affronte avec des gants de métal J'ai appris à kicker sale en partant rapper dans les caves J'revendais en détail mes petites barrettes pour louer le stud' J'cramais mon joint, j'me demandais qui de lui ou moi souffrait le plus On partait en descente pour remonter dans notre estime Je souhaite que tout s'arrête pour retrouver ma modestie Je désire ce que l'on esquive, être ivre n'est pas une excuse J'suis perdu, comme un manchot qui joue à la roulette russe Parfois, j'ai tellement honte de moi que mon miroir n'a plus d'reflet J'tourne en rond, j'égare les gens comme une boussole qu'a plus d'repère On a agit chacun pour soi bien qu'on soit rien sans les autres Oui, le succès m'a séduit bien que son sourire semblait faux Sur ma route, y'a des jaloux où que j'aille Pour éviter d'les voir, faudrait que j'me crève les yeux Les michtos ont un petit goût d'gousse d'ail Derrière le parfum Chanel que leur achètent les vieux Souvent, je m'isole sur mes notes, dans ma sphère, ça résonne, oh oui Le public est croque, moi, j'suis mort si j'ber-tom' sur la scène ou dans le vide C'est plus mon ego qui cause, le gent-ar' en cause, man Le bout de mes lèvres n'ose pas aller vers le haut, man Maintenant, tu connais mon mal-être Compter sur les gens, c'est jouer d'ses sentiments J'aime pas trop les gens qui font trop d'compliments, non T'ouvres ton coeur en chantant, y'a de l'ego qui entre Oui, mon âme est morte à force d'être bon vivant, non Compter sur les gens, c'est jouer d'ses sentiments J'aime pas trop les gens qui font trop d'compliments, non T'ouvres ton coeur en chantant, y'a de l'ego qui entre Oui, mon âme est morte à force d'être bon vivant, non5</t>
+          <t>Ma musique ne dépend pas du temps Mais l'accompagne à chaque instant Espace Temps En attendant Intemporel Connais-tu mon mal ? Connais-tu mon mal, mon mal-être ? Bastien Maska Souleyman veut toujours pas finir sous les flammes À moitié fou sans tous mes gars, mes cauchemars m'étouffent sous mes draps Il pleut mais j'ai le corps sec, tête d'ange, pensées obscènes J'observe à quoi les autres servent, ils sont trompeurs comme un corset J'avance quoi qu'ils disent, à l'époque des paquets de dix de clopes Y'avait pas tous ce biz' de coke, y'avait pas tout ces vices à l'école J'aimerais bien amputer l'Europe, l'Italie représente son pied J'parle de l'Etat, pas des habitants, fonce-dé sans tiser le rhum Pour viser le top, faudrait vider le coffre De ses propres potes c'est pas mon style, j'reste propre Les mecs sans tête qui s'entêtent, au final, comprennent et se sentent bêtes Princesse qui avance en boîte, deux gosses, trentenaire et sans mec Les amis, c'est comme des frères, on les aime avec leurs défauts Facile à dire, dur à faire, sur ma moral se sert l'étau Laisse-moi te dire File pas, frère, affronte la vie, lève-toi assez tôt Faut investir, petite affaire Chiken Chika, Chicha restau' Souvent, je m'isole sur mes notes, dans ma sphère, ça résonne, oh oui Le public est croque, moi, j'suis mort si j'ber-tom' sur la scène ou dans le vide C'est plus mon ego qui cause, le gent-ar' en cause, man Le bout de mes lèvres n'ose pas aller vers le haut, man Maintenant, tu connais mon mal-être J'ai besoin d'air pour rapper, à croire que rapper m'asphyxie J'repeignais le monde en rose, j'étais artiste à six piges Mais j'me suis rendu compte qu'la lumière était dans l'ombre Du trône des chefs d'Etat qui avaient trop souvent les dents longues Méfie-toi des apparences, certaines prostituées sentent bon J'ai l'rap assassin, ma prose te tuerait sans nom Laissées sur la scène de crime par mes empreintes digitales Mes mots ont des conséquences, comme une femme enceinte qui vit mal J'me vois trop en grand, heureusement, mon mini-moi M'dit Papa, assis-toi, raconte-moi une histoire Trop têtu, j'suis trop déter', ferme-la si tu me parles mal Tu recracheras un mensonge si, bêtement, tu l'avales J'suis un sentimental et ça m'fait peur Car, si tu m'casses le coeur, j'pourrais t'arracher l'tien J'arrive à trouver d'la beauté dans ma laideur Attiré par la luxure, heureusement, le passé m'tient Souvent, je m'isole sur mes notes, dans ma sphère, ça résonne, oh oui Le public est croque, moi, j'suis mort si j'ber-tom' sur la scène ou dans le vide C'est plus mon ego qui cause, le gent-ar' en cause, man Le bout de mes lèvres n'ose pas aller vers le haut, man Maintenant, tu connais mon mal-être Le mental d'acier de l'Etat s'affronte avec des gants de métal J'ai appris à kicker sale en partant rapper dans les caves J'revendais en détail mes petites barrettes pour louer le stud' J'cramais mon joint, j'me demandais qui de lui ou moi souffrait le plus On partait en descente pour remonter dans notre estime Je souhaite que tout s'arrête pour retrouver ma modestie Je désire ce que l'on esquive, être ivre n'est pas une excuse J'suis perdu, comme un manchot qui joue à la roulette russe Parfois, j'ai tellement honte de moi que mon miroir n'a plus d'reflet J'tourne en rond, j'égare les gens comme une boussole qu'a plus d'repère On a agit chacun pour soi bien qu'on soit rien sans les autres Oui, le succès m'a séduit bien que son sourire semblait faux Sur ma route, y'a des jaloux où que j'aille Pour éviter d'les voir, faudrait que j'me crève les yeux Les michtos ont un petit goût d'gousse d'ail Derrière le parfum Chanel que leur achètent les vieux Souvent, je m'isole sur mes notes, dans ma sphère, ça résonne, oh oui Le public est croque, moi, j'suis mort si j'ber-tom' sur la scène ou dans le vide C'est plus mon ego qui cause, le gent-ar' en cause, man Le bout de mes lèvres n'ose pas aller vers le haut, man Maintenant, tu connais mon mal-être Compter sur les gens, c'est jouer d'ses sentiments J'aime pas trop les gens qui font trop d'compliments, non T'ouvres ton coeur en chantant, y'a de l'ego qui entre Oui, mon âme est morte à force d'être bon vivant, non Compter sur les gens, c'est jouer d'ses sentiments J'aime pas trop les gens qui font trop d'compliments, non T'ouvres ton coeur en chantant, y'a de l'ego qui entre Oui, mon âme est morte à force d'être bon vivant, non5</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>J'ai souffert dans l'effort Grandi dans Paris Nord Si l'amour était borgne Tu m'aimerais pour mes torts Mes passions, mon mal être, une énième cigarette Mes faiblesses, ma force Et souvent j'raisonne Au final j'ai mes torts Et je cherchais le bonheur Sans jamais sentir son odeur Et j'ai compris au fil du temps Qu'il est dans les choses simples Je n'attends pas de sauveur Non, je n'attendrai rien des autres A chacun ses défauts Je suis à la recherche du bonheur Sans jamais délaisser mon honneur Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Je suis à la recherche du bonheur Où est le bonheur ? Sans jamais délaisser mon honneur J'garderai mon honneur Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Pour enfin aller plus haut You might also like Mes peurs, ma foi Mes vices, mes larmes Mes erreurs, mes Mes choix, ma vie On dit souvent Relativise Mais à ma place Toi dis moi que ferais tu P'têtre que tabandonnerais Et que tu baisserais la tête Oh, dis moi Où se cache lallégresse Où se cache le bonheur Loin des yeux près du cur Ohouhoh Je suis à la recherche du bonheur Sans jamais délaisser mon honneur Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Je suis à la recherche du bonheur Où est le bonheur ? Sans jamais délaisser mon honneur J'garderai mon honneur Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Pour enfin aller plus haut Le temps ne guérit pas les blessures Mais j'apprends à vivre avec Je suis un être humain, je suis faible Mais j'suis pas prête à tout pour plaire Et si la chance est de mon côté Je n'aurai rien à perdre et tout à gagner A la recherche du bonheur c'est vrai Et j'aimerai tant y accéder Je suis à la recherche du bonheur Sans jamais délaisser mon honneur J'aimerais que la vie me fasse une fleur Effacer toutes mes rancurs Je suis à la recherche du bonheur Je suis à la recherche du bonheur Où es tu ? Je suis à la recherche du bonheur Sans jamais délaisser mon honneur Jamais Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Je suis à la recherche du bonheur Où est le bonheur ? Sans jamais délaisser mon honneur J'garderai mon honneur Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Pour enfin aller plus haut1</t>
+          <t>J'ai souffert dans l'effort Grandi dans Paris Nord Si l'amour était borgne Tu m'aimerais pour mes torts Mes passions, mon mal être, une énième cigarette Mes faiblesses, ma force Et souvent j'raisonne Au final j'ai mes torts Et je cherchais le bonheur Sans jamais sentir son odeur Et j'ai compris au fil du temps Qu'il est dans les choses simples Je n'attends pas de sauveur Non, je n'attendrai rien des autres A chacun ses défauts Je suis à la recherche du bonheur Sans jamais délaisser mon honneur Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Je suis à la recherche du bonheur Où est le bonheur ? Sans jamais délaisser mon honneur J'garderai mon honneur Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Pour enfin aller plus haut Mes peurs, ma foi Mes vices, mes larmes Mes erreurs, mes Mes choix, ma vie On dit souvent Relativise Mais à ma place Toi dis moi que ferais tu P'têtre que tabandonnerais Et que tu baisserais la tête Oh, dis moi Où se cache lallégresse Où se cache le bonheur Loin des yeux près du cur Ohouhoh Je suis à la recherche du bonheur Sans jamais délaisser mon honneur Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Je suis à la recherche du bonheur Où est le bonheur ? Sans jamais délaisser mon honneur J'garderai mon honneur Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Pour enfin aller plus haut Le temps ne guérit pas les blessures Mais j'apprends à vivre avec Je suis un être humain, je suis faible Mais j'suis pas prête à tout pour plaire Et si la chance est de mon côté Je n'aurai rien à perdre et tout à gagner A la recherche du bonheur c'est vrai Et j'aimerai tant y accéder Je suis à la recherche du bonheur Sans jamais délaisser mon honneur J'aimerais que la vie me fasse une fleur Effacer toutes mes rancurs Je suis à la recherche du bonheur Je suis à la recherche du bonheur Où es tu ? Je suis à la recherche du bonheur Sans jamais délaisser mon honneur Jamais Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Je suis à la recherche du bonheur Où est le bonheur ? Sans jamais délaisser mon honneur J'garderai mon honneur Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Pour enfin aller plus haut1</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Oh, mon Dieu, ne me dites pas que c'est c'que j'crois. Il faut qu'j'en parle aux supérieurs. Bonjour Colonel K. Je viens de capter un signal provenant de la galaxie noire, situé à 23 années-lumières de la Grande Dame. Je suis vraiment désolé monsieur, je suis obligée de vous faire parvenir le signal - Signal parvenu - Oh mon Dieu, Monsieur, ne me dites pas que c'est c'que j'pense - Dites-moi agent 00913, avez-vous déjà passée une journée en Enfer ? Bienvenue dans le sanctuaire du Docteur Bériz Les enfants, restez à vos places Les femmes et les hommes seront divisés en deux parties Et juste après votre retour, ce message vous parviendra en 1974 Aujourd'hui nous sommes en 2016 Apprenez à vous délecter de notre musique Il s'appelle Wati B Wost... L'Empire Ça fait 25 ans que j'vous observe Il n'y a pas d'solution pour votre espèce Corrompu à cause des espèces, il y a bien une solution qui vient de l'espace T'es dans un sale état, j'essaie de t'sauver Viens vers moi, de l'effet du temps tu seras immunisé 1, 2, 3, j'fais une dinguerie, barrez-vous Si t'es pas d'taille, eh barrez-vous J'ai dû coffrer toute ma science, le saviez-vous ? Tu n'seras jamais despi, tu fais le vif, tu m'vois, tu m'attrapes, je nie Je ne péra jamais dans le vide, je vois des fans, je m'vesqui, m'préserve pour l'inspi Je n'ai pas chaud, vas-y viens, on va au casse-pipe, c'est la merde, vas-y viens, tu fuis T'as des excuses, tu m'vois, c'est vif, tu m'as tourné l'dos si deuspi Bon bref, j'ai plié la prod c'est complet, mon phone qui sonn et j'm'en vais J'me souviens d'mes potes qui me samplaient, hmmm je m'disais jamais Calculez c'que j'ai fait, j'ai dit Bériz t'es mauvais Hmm hmmmm t'es mauvaisYou might also like</t>
+          <t>Oh, mon Dieu, ne me dites pas que c'est c'que j'crois. Il faut qu'j'en parle aux supérieurs. Bonjour Colonel K. Je viens de capter un signal provenant de la galaxie noire, situé à 23 années-lumières de la Grande Dame. Je suis vraiment désolé monsieur, je suis obligée de vous faire parvenir le signal - Signal parvenu - Oh mon Dieu, Monsieur, ne me dites pas que c'est c'que j'pense - Dites-moi agent 00913, avez-vous déjà passée une journée en Enfer ? Bienvenue dans le sanctuaire du Docteur Bériz Les enfants, restez à vos places Les femmes et les hommes seront divisés en deux parties Et juste après votre retour, ce message vous parviendra en 1974 Aujourd'hui nous sommes en 2016 Apprenez à vous délecter de notre musique Il s'appelle Wati B Wost... L'Empire Ça fait 25 ans que j'vous observe Il n'y a pas d'solution pour votre espèce Corrompu à cause des espèces, il y a bien une solution qui vient de l'espace T'es dans un sale état, j'essaie de t'sauver Viens vers moi, de l'effet du temps tu seras immunisé 1, 2, 3, j'fais une dinguerie, barrez-vous Si t'es pas d'taille, eh barrez-vous J'ai dû coffrer toute ma science, le saviez-vous ? Tu n'seras jamais despi, tu fais le vif, tu m'vois, tu m'attrapes, je nie Je ne péra jamais dans le vide, je vois des fans, je m'vesqui, m'préserve pour l'inspi Je n'ai pas chaud, vas-y viens, on va au casse-pipe, c'est la merde, vas-y viens, tu fuis T'as des excuses, tu m'vois, c'est vif, tu m'as tourné l'dos si deuspi Bon bref, j'ai plié la prod c'est complet, mon phone qui sonn et j'm'en vais J'me souviens d'mes potes qui me samplaient, hmmm je m'disais jamais Calculez c'que j'ai fait, j'ai dit Bériz t'es mauvais Hmm hmmmm t'es mauvais</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>À force de dire qu'on a rien, on a tendance à s'retrouver dans la pente Mais on s'accroche car l'époque devient rude, on est tombé bien bas La réussite me parait loin d'ici et pour l'atteindre, j'ai déjà des crampes Mais qui vivra, verra, mon épopée Mais pour l'instant tout roule, oh, personne n'est blessé J'ai fais danser les foules sans jamais agresser Marre de t'voir endetter, il est temps que j'te soulage m'man J'vais devoir m'endetter Ouuuh Je suis le calme qui annonce la tempête, je n'suis pas seul sur ce chemin esquinté J'ai les deux pieds cloués au sol, mais je toucherai le sommet J'n'ai pas qu'la 'sique comme raison d'vivre, j'ai d'autres cibles Sans rancune, même si je m'épuise Et quand le public chante Nananana Je retrouve la force d'avancer, et j'me dis fonce À force de dire qu'on a rien, on a tendance à s'retrouver dans la pente Mais on s'accroche car l'époque devient rude, on est tombé bien bas La réussite me parait loin d'ici et pour l'atteindre, j'ai déjà des crampes Mais qui vivra, verra, mon épopée You might also like Mais pour l'instant tout roule, oh, personne n'est blessé J'ai fais danser les foules sans jamais agresser Marre de t'voir endetter, il est temps que j'te soulage m'man J'vais devoir m'endetter Ouuuh Et plus personne ne pourra me rabaisser, la peine, je rejette son odeur Le désarroi, j'veux plus le toucher, je n'veux plus le voir ni même m'en soucier J'veux qu'tous mes sos' soient comblés, n'plus sombrer Que ma famille reste en paix Et quand le public chante Nananana Je retrouve la force d'avancer, et j'me dis fonce À force de dire qu'on a rien, on a tendance à s'retrouver dans la pente Mais on s'accroche car l'époque devient rude, on est tombé bien bas La réussite me parait loin d'ici et pour l'atteindre, j'ai déjà des crampes Mais qui vivra, verra, mon épopée Mais pour l'instant tout roule, oh, personne n'est blessé J'ai fais danser les foules sans jamais agresser Marre de t'voir endetter, il est temps que j'te soulage m'man J'vais devoir m'endetter Ouuuh Le temps est passé, je sais qu'il est temps de démarrer C'est pas l'premier essai, ni le dernier, mais je suis paré À force d'entendre vos paroles Maintenant j'encaisse tous les coups, j'suis devenu un homme Mais pour l'instant tout roule, oh, personne n'est blessé J'ai fais danser les foules sans jamais agresser Marre de t'voir endetter, Il est temps que j'te soulage m'man J'vais devoir m'endetter Ouuuh</t>
+          <t>À force de dire qu'on a rien, on a tendance à s'retrouver dans la pente Mais on s'accroche car l'époque devient rude, on est tombé bien bas La réussite me parait loin d'ici et pour l'atteindre, j'ai déjà des crampes Mais qui vivra, verra, mon épopée Mais pour l'instant tout roule, oh, personne n'est blessé J'ai fais danser les foules sans jamais agresser Marre de t'voir endetter, il est temps que j'te soulage m'man J'vais devoir m'endetter Ouuuh Je suis le calme qui annonce la tempête, je n'suis pas seul sur ce chemin esquinté J'ai les deux pieds cloués au sol, mais je toucherai le sommet J'n'ai pas qu'la 'sique comme raison d'vivre, j'ai d'autres cibles Sans rancune, même si je m'épuise Et quand le public chante Nananana Je retrouve la force d'avancer, et j'me dis fonce À force de dire qu'on a rien, on a tendance à s'retrouver dans la pente Mais on s'accroche car l'époque devient rude, on est tombé bien bas La réussite me parait loin d'ici et pour l'atteindre, j'ai déjà des crampes Mais qui vivra, verra, mon épopée Mais pour l'instant tout roule, oh, personne n'est blessé J'ai fais danser les foules sans jamais agresser Marre de t'voir endetter, il est temps que j'te soulage m'man J'vais devoir m'endetter Ouuuh Et plus personne ne pourra me rabaisser, la peine, je rejette son odeur Le désarroi, j'veux plus le toucher, je n'veux plus le voir ni même m'en soucier J'veux qu'tous mes sos' soient comblés, n'plus sombrer Que ma famille reste en paix Et quand le public chante Nananana Je retrouve la force d'avancer, et j'me dis fonce À force de dire qu'on a rien, on a tendance à s'retrouver dans la pente Mais on s'accroche car l'époque devient rude, on est tombé bien bas La réussite me parait loin d'ici et pour l'atteindre, j'ai déjà des crampes Mais qui vivra, verra, mon épopée Mais pour l'instant tout roule, oh, personne n'est blessé J'ai fais danser les foules sans jamais agresser Marre de t'voir endetter, il est temps que j'te soulage m'man J'vais devoir m'endetter Ouuuh Le temps est passé, je sais qu'il est temps de démarrer C'est pas l'premier essai, ni le dernier, mais je suis paré À force d'entendre vos paroles Maintenant j'encaisse tous les coups, j'suis devenu un homme Mais pour l'instant tout roule, oh, personne n'est blessé J'ai fais danser les foules sans jamais agresser Marre de t'voir endetter, Il est temps que j'te soulage m'man J'vais devoir m'endetter Ouuuh</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Appelle-moi, jirai te retrouver Peu importe où tu es, en France ou aux USA Appelle-moi, je nsais même plus où je vais Je msens abandonné Appelle-moi, je suis défiguré Oh mon sourire tas volé pour fuir aux USA Appelle-moi, appelle-moi Appelle-moi, appelle-moi, appelle-moi Mes yeux sont loin dson corps Mes pensées me dévorent Des fois je mendors Et je rêve dlavoir sous mes draps Pas de faux pas ni dfausse note Jcrois bien qucest la bonne Elle mignore, elle me laisse sur une île déserte Si ya dla place dans son cur jveux bien être le leader Elle a piqué mon âme sans les flèches de Cupidon Oh, en plein dans le mile, dans le mile Appelle-moi, jirai te retrouver Peu importe où tu es, en France ou aux USA Appelle-moi, je nsais même plus où je vais Je msens abandonné Appelle-moi, je suis défiguré Oh mon sourire tas volé pour fuir aux USA Appelle-moi, appelle-moi Appelle-moi, appelle-moi, appelle-moi You might also like Elle ma dépossédé de ma tristesse Elle ma sorti de ce quotidien Et dce monde qui mécure Maintenant je nai plus peur Je me sens si bien Arrête-moi ce numéro Je sais que tu nmas pas oublié Tu lsais eu jtai dans la peau, alors Appelle-moi, jirai te retrouver Peu importe où tu es, en France ou aux USA Appelle-moi, je nsais même plus où je vais Je msens abandonné Appelle-moi Ça y est, je vais devenir fou Ça y est, je vais devenir fou Ça y est, tu veux me rendre fou Fou, fou, fou Appelle-moi, jirai te retrouver Peu importe où tu es, en France ou aux USA Appelle-moi, je nsais même plus où je vais Je msens abandonné Appelle-moi, je suis défiguré Oh mon sourire tas volé pour fuir aux USA Appelle-moi, appelle-moi Appelle-moi, appelle-moi, appelle-moi Ça y est, je vais devenir fou Ça y est, je vais devenir fou Ça y est, tu veux me rendre fou Fou, fou, fou</t>
+          <t>Appelle-moi, jirai te retrouver Peu importe où tu es, en France ou aux USA Appelle-moi, je nsais même plus où je vais Je msens abandonné Appelle-moi, je suis défiguré Oh mon sourire tas volé pour fuir aux USA Appelle-moi, appelle-moi Appelle-moi, appelle-moi, appelle-moi Mes yeux sont loin dson corps Mes pensées me dévorent Des fois je mendors Et je rêve dlavoir sous mes draps Pas de faux pas ni dfausse note Jcrois bien qucest la bonne Elle mignore, elle me laisse sur une île déserte Si ya dla place dans son cur jveux bien être le leader Elle a piqué mon âme sans les flèches de Cupidon Oh, en plein dans le mile, dans le mile Appelle-moi, jirai te retrouver Peu importe où tu es, en France ou aux USA Appelle-moi, je nsais même plus où je vais Je msens abandonné Appelle-moi, je suis défiguré Oh mon sourire tas volé pour fuir aux USA Appelle-moi, appelle-moi Appelle-moi, appelle-moi, appelle-moi Elle ma dépossédé de ma tristesse Elle ma sorti de ce quotidien Et dce monde qui mécure Maintenant je nai plus peur Je me sens si bien Arrête-moi ce numéro Je sais que tu nmas pas oublié Tu lsais eu jtai dans la peau, alors Appelle-moi, jirai te retrouver Peu importe où tu es, en France ou aux USA Appelle-moi, je nsais même plus où je vais Je msens abandonné Appelle-moi Ça y est, je vais devenir fou Ça y est, je vais devenir fou Ça y est, tu veux me rendre fou Fou, fou, fou Appelle-moi, jirai te retrouver Peu importe où tu es, en France ou aux USA Appelle-moi, je nsais même plus où je vais Je msens abandonné Appelle-moi, je suis défiguré Oh mon sourire tas volé pour fuir aux USA Appelle-moi, appelle-moi Appelle-moi, appelle-moi, appelle-moi Ça y est, je vais devenir fou Ça y est, je vais devenir fou Ça y est, tu veux me rendre fou Fou, fou, fou</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tu disparais de vue sans que je puisse dire au revoir Tu disparais de vue sans que je puisse dire au revoir Le temps défile peu à peu Le temps défile peu à peu... Pourquoi il me questionne ? Pourquoi il veut savoir ce que je pense ? Pourquoi il me questionne ? Bon j'oublie, bon j'oublie J'ai pas l'age des soucis Non j'ai pas l'age des soucis Hey j'oublie, j'oublie J'ai baraudé la nuit y a plus une place à l'hôtel Ceux qui disent mon gars sûr, ont oublié mon phone-tel Y a personne pour m'assurer, j'étais limite par terre Papa souvent je me suis dit que j'aurais jamais dû partir Mais je me suis juré qu'en solo je pouvais m'en sortir Devenir un millionnaire avec ou sans supporters J'en pouvais plus de te voir boulette après des centimes Voir les mêmes s'enrichir pendant que tu suffoquais La vie est belle pour ceux qui peuvent la voir sous fond de teint Ceux qui la connaissent vraiment ne peuvent pas la sentir À jeun les gens nous saoulent, on préfère être sous vodka Je roule un cône bien roulé que pour me contenir Je fume un cône bien roulé que pour me contenir J'irai tout péter le jour où mes nerfs vont sortir de leurs containers J'ai dormi dans la rue, j'en ai encore des souvenirs Je la connais par cur, qui peut dire le contraire ? Alors on veut du concret T'as merdé, je t'ai mis de côté, tu m'en fais un procès Que Dieu nous protège, je veux moins de condés sur nos côtes Dire aux potos c'soir se barrant c'est moi qui régale la note Je t'ai dit qu'on veut du concret T'as merdé, je t'ai mis de côté, tu m'en fais un procès Que Dieu nous protège, je veux moins de condés sur nos côtes Dire aux potos c'soir se barrant c'est moi qui régale la note , 9 PC 18ème You might also like Oh, oh, oh, oh Hé, hé, hé, hé Tu disparais de vue sans que je puisse dire au revoir Tu disparais de vue sans que je puisse dire au revoir Le temps défile peu à peu Le temps défile peu à peu... À l'heure où j'te parle ça spécule Torches-toi la bouche avec du PQ Laisse-moi clarifier les choses avant qu'on te déforme Les médisants n'ont plus de visage, plus de formes Perdu mais son visage reste une boussole, Celui qu'a perdu toute sa puissance Mais le baraka n'a jamais dit que t'allais gagner dans la mouvance Cette salope a fermé les yeux, mon frère Elle s'est bouchée les oreilles, en vrai Elle a voulu m'oublier Elle a voulu m'oublier J'suis en béné' quand je vois ma famille au top J'ai dormi dans la rue, dans la cellule et dans la tiop Bâtons dans les roues en piétinant les ronds, on devient un sage Ou une créature encore plus différente à l'abattage Zoulou, t'étais souriant quand t'avais l'avantage Mais on t'a tous vu déchanter après c'est lamentable Kriss Kross, années 80, té-ma la référence Déterminé et solitaire, tu vois la différence Magique malgré la fin tragique Paris m'a éventré mais j'ai stoppé l'hémorragie Genre de classique, l'amour est né fragile J'arrivais pas à pioncer, j'ai compté les naufragés Je laisse couler la mer et je laisse couler la 'teille Je laisse la place à ce genre de mariachi, je rêve d'oublier la veille J'essaie de fuir la mort mais elle est là Rester loin des scélérats.... Tu disparais de vue sans que je puisse dire au revoir Tu disparais de vue sans que je puisse dire au revoir Le temps défile peu à peu Le temps défile peu à peu...</t>
+          <t>Tu disparais de vue sans que je puisse dire au revoir Tu disparais de vue sans que je puisse dire au revoir Le temps défile peu à peu Le temps défile peu à peu... Pourquoi il me questionne ? Pourquoi il veut savoir ce que je pense ? Pourquoi il me questionne ? Bon j'oublie, bon j'oublie J'ai pas l'age des soucis Non j'ai pas l'age des soucis Hey j'oublie, j'oublie J'ai baraudé la nuit y a plus une place à l'hôtel Ceux qui disent mon gars sûr, ont oublié mon phone-tel Y a personne pour m'assurer, j'étais limite par terre Papa souvent je me suis dit que j'aurais jamais dû partir Mais je me suis juré qu'en solo je pouvais m'en sortir Devenir un millionnaire avec ou sans supporters J'en pouvais plus de te voir boulette après des centimes Voir les mêmes s'enrichir pendant que tu suffoquais La vie est belle pour ceux qui peuvent la voir sous fond de teint Ceux qui la connaissent vraiment ne peuvent pas la sentir À jeun les gens nous saoulent, on préfère être sous vodka Je roule un cône bien roulé que pour me contenir Je fume un cône bien roulé que pour me contenir J'irai tout péter le jour où mes nerfs vont sortir de leurs containers J'ai dormi dans la rue, j'en ai encore des souvenirs Je la connais par cur, qui peut dire le contraire ? Alors on veut du concret T'as merdé, je t'ai mis de côté, tu m'en fais un procès Que Dieu nous protège, je veux moins de condés sur nos côtes Dire aux potos c'soir se barrant c'est moi qui régale la note Je t'ai dit qu'on veut du concret T'as merdé, je t'ai mis de côté, tu m'en fais un procès Que Dieu nous protège, je veux moins de condés sur nos côtes Dire aux potos c'soir se barrant c'est moi qui régale la note , 9 PC 18ème Oh, oh, oh, oh Hé, hé, hé, hé Tu disparais de vue sans que je puisse dire au revoir Tu disparais de vue sans que je puisse dire au revoir Le temps défile peu à peu Le temps défile peu à peu... À l'heure où j'te parle ça spécule Torches-toi la bouche avec du PQ Laisse-moi clarifier les choses avant qu'on te déforme Les médisants n'ont plus de visage, plus de formes Perdu mais son visage reste une boussole, Celui qu'a perdu toute sa puissance Mais le baraka n'a jamais dit que t'allais gagner dans la mouvance Cette salope a fermé les yeux, mon frère Elle s'est bouchée les oreilles, en vrai Elle a voulu m'oublier Elle a voulu m'oublier J'suis en béné' quand je vois ma famille au top J'ai dormi dans la rue, dans la cellule et dans la tiop Bâtons dans les roues en piétinant les ronds, on devient un sage Ou une créature encore plus différente à l'abattage Zoulou, t'étais souriant quand t'avais l'avantage Mais on t'a tous vu déchanter après c'est lamentable Kriss Kross, années 80, té-ma la référence Déterminé et solitaire, tu vois la différence Magique malgré la fin tragique Paris m'a éventré mais j'ai stoppé l'hémorragie Genre de classique, l'amour est né fragile J'arrivais pas à pioncer, j'ai compté les naufragés Je laisse couler la mer et je laisse couler la 'teille Je laisse la place à ce genre de mariachi, je rêve d'oublier la veille J'essaie de fuir la mort mais elle est là Rester loin des scélérats.... Tu disparais de vue sans que je puisse dire au revoir Tu disparais de vue sans que je puisse dire au revoir Le temps défile peu à peu Le temps défile peu à peu...</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Elle était belle et jeune, elle avait le monde pour elle disons Et lui la choquée, et ses attitudes ensorcelèrent son cur gisant Désemparé, tu ressens cquelle pourrait lui donner Une vie, linavoué mais elle nest pas dans son programme Du mauvais type elle est folle, elle lui donnerait le monde Juste pour vivre quelques secondes Avec lanimal, elle est en love Du mauvais man, elle est à fond dedans Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle ne ressent que les vibes de lanimal Elle est dans llove, elle est dans llove Elle veut faire partie de la life de lanimal Rien à foutre des loves, elle est dans llove Elle ne ressent que la vibes de lanimal Elle est dans llove, elle est dans llove Elle veut faire partie de la life de lanimal Rien à foutre des loves, elle est dans llove You might also like Il était jeune et beau, avait le monde à ses pieds disons Quil sen foutait, il voulait slibérer dses attitudes de sale dit-ban Il la voyait kiffer, il sdisait jai pas ltemps dme poser Le business ma envouté, belle gosse, je nsuis pas dans ton programme Du mauvais type elle est folle, elle lui donnerait le monde Juste pour vivre quelques secondes Avec lanimal, elle est en love Du mauvais man, elle est à fond dedans Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle ne ressent que les vibes de lanimal Elle est dans llove, elle est dans llove Elle veut faire partie de la life de lanimal Rien à foutre des loves, elle est dans llove Elle ne ressent que la vibes de lanimal Elle est dans llove, elle est dans llove Elle veut faire partie de la life de lanimal Rien à foutre des loves, elle est dans llove La distance me sépare de ma belle gosse, on remet ça à plus tard Éloigné de force de ma belle gosse, on remet ça à plus tard Si jamais le temps ne ta pas effacé, on remet ça à plus tard Je lirai dans tes yeux si tout sest bien passé Du mauvais type elle est folle, elle lui donnerait le monde Juste pour vivre quelques secondes Avec lanimal, elle est en love Du mauvais man, elle est à fond dedans Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle ne ressent que les vibes de lanimal Elle est dans llove, elle est dans llove Elle veut faire partie de la life de lanimal Rien à foutre des loves, elle est dans llove1</t>
+          <t>Elle était belle et jeune, elle avait le monde pour elle disons Et lui la choquée, et ses attitudes ensorcelèrent son cur gisant Désemparé, tu ressens cquelle pourrait lui donner Une vie, linavoué mais elle nest pas dans son programme Du mauvais type elle est folle, elle lui donnerait le monde Juste pour vivre quelques secondes Avec lanimal, elle est en love Du mauvais man, elle est à fond dedans Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle ne ressent que les vibes de lanimal Elle est dans llove, elle est dans llove Elle veut faire partie de la life de lanimal Rien à foutre des loves, elle est dans llove Elle ne ressent que la vibes de lanimal Elle est dans llove, elle est dans llove Elle veut faire partie de la life de lanimal Rien à foutre des loves, elle est dans llove Il était jeune et beau, avait le monde à ses pieds disons Quil sen foutait, il voulait slibérer dses attitudes de sale dit-ban Il la voyait kiffer, il sdisait jai pas ltemps dme poser Le business ma envouté, belle gosse, je nsuis pas dans ton programme Du mauvais type elle est folle, elle lui donnerait le monde Juste pour vivre quelques secondes Avec lanimal, elle est en love Du mauvais man, elle est à fond dedans Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle ne ressent que les vibes de lanimal Elle est dans llove, elle est dans llove Elle veut faire partie de la life de lanimal Rien à foutre des loves, elle est dans llove Elle ne ressent que la vibes de lanimal Elle est dans llove, elle est dans llove Elle veut faire partie de la life de lanimal Rien à foutre des loves, elle est dans llove La distance me sépare de ma belle gosse, on remet ça à plus tard Éloigné de force de ma belle gosse, on remet ça à plus tard Si jamais le temps ne ta pas effacé, on remet ça à plus tard Je lirai dans tes yeux si tout sest bien passé Du mauvais type elle est folle, elle lui donnerait le monde Juste pour vivre quelques secondes Avec lanimal, elle est en love Du mauvais man, elle est à fond dedans Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle ne ressent que les vibes de lanimal Elle est dans llove, elle est dans llove Elle veut faire partie de la life de lanimal Rien à foutre des loves, elle est dans llove1</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Yeah Oh Oh Ah Provoque la folie, chouffe ma gouache C'est pour les Niggaz' qui valident la frappe Témoin du futur, je te laisse la place Gardez votre foutu trône, donne-nous le bif' qu'on se casse Laisse les Baliser, nous prends plus pour des outsiders yeah Ça kick comme dans un foutu cypher oh oh ah Défiguré par la vapeur Patienter sur l'tec' y à qu'ça à faire J'arrive en équipe, j'vois que nos rivaux s'équipent Y a pas ni une ni deux quand il s'agit de taire les critiques Ça tire comme ça kick, laisse les polémiquer A moins que la mort me frappe il me reste un peu de temps pour les gifler Ces cons aiment trop sticker, pour gonfler ce pick up Cousin y a pas photo entre la Lambo et le pick up Je les smoke comme un stick, pète vos pronostic D.R. aura le titre car la victoire n'est qu'un cycle Comme Ulysse viens pour charcler lil du cyclope Qui tiens la tour du rap français ? Tous diront mon cop' Ils aimeraient tous nous voir clamser Gère le Wati Boss si tu veux te placer, avant qu'on ne parle de toi qu'au passé W.A. c'est là que c'est, qu'on t'a dit No Limit Les zappeuses pour le succès, nous on fait pas les timides Ces connards aux goûts luxés, a bougé la tête sur nos chroniques Je suis le canon du brolique, killeur radiophonique You might also like Provoque la folie, chouffe ma gouache C'est pour les Niggaz' qui valident la frappe Témoin du futur, je te laisse la place Gardez votre foutu trône, donne-nous le bif' qu'on se casse Laisse les Baliser, nous prends plus pour des outsiders Ça kick comme dans un foutu cypher oh oh ah Défiguré par la vapeur Patienter sur l'tec' y à qu'ça à faire Hola Hola ils balisent mon frère, pousse toi laisse faire Beriz hé Wesh quoi de hein ? Brr Comment tu te sens quand jarrive avec mes concepts ? Sceptique ou pas tu vas te manger ton petit coup de cèp Petit con, casse toi, sauve toi quand tu peux Je suis un siphon, je parle pas, croise moi, fais un vu Enlève ton trois quart de merde, viens on se place où tu veux Pour moi tu bluff, allez fuck les suricates, sauve qui peut Ah, ce nest que les préliminaires Tu mises ta carrière de merde sur des délits mineurs On est des cracks, on te donne du taf si tes un démineur Débile, cest Beriz AKA flow dkiller Provoque la folie, chouffe ma gouache C'est pour les Niggaz' qui valident la frappe Témoin du futur, je te laisse la place Gardez votre foutu trône, donne-nous le bif' qu'on se casse Laisse les Baliser, nous prends plus pour des outsiders Ça kick comme dans un foutu cypher oh oh ah Défiguré par la vapeur Patienter sur l'tec' y à qu'ça à faire C'est pour les morros dans les XXX qui me check Les mecs à fond dedans qui font la promo sans sitckers Pour mes niggas, qui foncent au premier round dans un pick up Depuis que, je les ai mis à l'amende chouf les piquer L'impression d'avoir la dalle poto depuis mes premiers pas J'ai parchoqué pas mal de javons comme les phones avec la 3G Quand ça té-gra ça té-gra, j'ai comme un pe-pom dans la trachée Là j'vous préviens ça va s'pé-ta, ça va kicker, ça va s'donner oh oui Vendetta sur les chroniques du Wati Boss ah ouh Dans la famille Shin Sekaï moi je voudrais Dadju Epaulé mon acolyte j'ai du platine ras le cou On va t'arracher la tête au défilé baffe d'ours C'est pour les tés-ci qui font du sale à Paname Les loups garous du bitume qu'attendent de voir le bum-al Té-ma, on t'fais la cour même sur un T-Max T'as même pas fais le quart du taff donc arrête de pénave Provoque la folie, chouffe ma gouache C'est pour les Niggaz' qui valident la frappe Témoin du futur, je te laisse la place Gardez votre foutu trône, donne-nous le bif' qu'on se casse Laisse les Baliser, nous prends plus pour des outsiders Ça kick comme dans un foutu cypher oh oh ah Défiguré par la vapeur Patienter sur l'tec' y à qu'ça à faire Nous prends plus pour des outsiders Ça kick comme dans un foutu cypher Défiguré par la vapeur Patienter sur l'tec' y à qu'ça à faire2</t>
+          <t>Yeah Oh Oh Ah Provoque la folie, chouffe ma gouache C'est pour les Niggaz' qui valident la frappe Témoin du futur, je te laisse la place Gardez votre foutu trône, donne-nous le bif' qu'on se casse Laisse les Baliser, nous prends plus pour des outsiders yeah Ça kick comme dans un foutu cypher oh oh ah Défiguré par la vapeur Patienter sur l'tec' y à qu'ça à faire J'arrive en équipe, j'vois que nos rivaux s'équipent Y a pas ni une ni deux quand il s'agit de taire les critiques Ça tire comme ça kick, laisse les polémiquer A moins que la mort me frappe il me reste un peu de temps pour les gifler Ces cons aiment trop sticker, pour gonfler ce pick up Cousin y a pas photo entre la Lambo et le pick up Je les smoke comme un stick, pète vos pronostic D.R. aura le titre car la victoire n'est qu'un cycle Comme Ulysse viens pour charcler lil du cyclope Qui tiens la tour du rap français ? Tous diront mon cop' Ils aimeraient tous nous voir clamser Gère le Wati Boss si tu veux te placer, avant qu'on ne parle de toi qu'au passé W.A. c'est là que c'est, qu'on t'a dit No Limit Les zappeuses pour le succès, nous on fait pas les timides Ces connards aux goûts luxés, a bougé la tête sur nos chroniques Je suis le canon du brolique, killeur radiophonique Provoque la folie, chouffe ma gouache C'est pour les Niggaz' qui valident la frappe Témoin du futur, je te laisse la place Gardez votre foutu trône, donne-nous le bif' qu'on se casse Laisse les Baliser, nous prends plus pour des outsiders Ça kick comme dans un foutu cypher oh oh ah Défiguré par la vapeur Patienter sur l'tec' y à qu'ça à faire Hola Hola ils balisent mon frère, pousse toi laisse faire Beriz hé Wesh quoi de hein ? Brr Comment tu te sens quand jarrive avec mes concepts ? Sceptique ou pas tu vas te manger ton petit coup de cèp Petit con, casse toi, sauve toi quand tu peux Je suis un siphon, je parle pas, croise moi, fais un vu Enlève ton trois quart de merde, viens on se place où tu veux Pour moi tu bluff, allez fuck les suricates, sauve qui peut Ah, ce nest que les préliminaires Tu mises ta carrière de merde sur des délits mineurs On est des cracks, on te donne du taf si tes un démineur Débile, cest Beriz AKA flow dkiller Provoque la folie, chouffe ma gouache C'est pour les Niggaz' qui valident la frappe Témoin du futur, je te laisse la place Gardez votre foutu trône, donne-nous le bif' qu'on se casse Laisse les Baliser, nous prends plus pour des outsiders Ça kick comme dans un foutu cypher oh oh ah Défiguré par la vapeur Patienter sur l'tec' y à qu'ça à faire C'est pour les morros dans les XXX qui me check Les mecs à fond dedans qui font la promo sans sitckers Pour mes niggas, qui foncent au premier round dans un pick up Depuis que, je les ai mis à l'amende chouf les piquer L'impression d'avoir la dalle poto depuis mes premiers pas J'ai parchoqué pas mal de javons comme les phones avec la 3G Quand ça té-gra ça té-gra, j'ai comme un pe-pom dans la trachée Là j'vous préviens ça va s'pé-ta, ça va kicker, ça va s'donner oh oui Vendetta sur les chroniques du Wati Boss ah ouh Dans la famille Shin Sekaï moi je voudrais Dadju Epaulé mon acolyte j'ai du platine ras le cou On va t'arracher la tête au défilé baffe d'ours C'est pour les tés-ci qui font du sale à Paname Les loups garous du bitume qu'attendent de voir le bum-al Té-ma, on t'fais la cour même sur un T-Max T'as même pas fais le quart du taff donc arrête de pénave Provoque la folie, chouffe ma gouache C'est pour les Niggaz' qui valident la frappe Témoin du futur, je te laisse la place Gardez votre foutu trône, donne-nous le bif' qu'on se casse Laisse les Baliser, nous prends plus pour des outsiders Ça kick comme dans un foutu cypher oh oh ah Défiguré par la vapeur Patienter sur l'tec' y à qu'ça à faire Nous prends plus pour des outsiders Ça kick comme dans un foutu cypher Défiguré par la vapeur Patienter sur l'tec' y à qu'ça à faire2</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Les horreurs d'ici-bas ont justifié mes crimes Si je ne crois pas en moi, personne le fera Le bonheur d'ici, bah c'est le fric D'or et platine jusqu'en Africa Et le gagnant de ce soir se trouve à Paris, mesdames et messieurs Bingo gringo, bingo gringo Bingo gringo, bingo gringo Il veut juste la fille, qu'il rêvait Et quitter son appart' une pièce Grand palace ou bien un palais Est-ce qu'il reste encore une chance en vrai ? Mais oui bien sur, la chance sourit au plus audacieux Il suffit de faire un pas vers elle pour qu'elle te fixe dans les yeux Le plus dur ce n'est pas la chute quand tu tombes depuis les cieux Mais oui madame la chance, on peut faire ce qu'on veut Les horreurs d'ici-bas-bas ont justifié mes crimes Si je ne crois pas en moi, personne le fera Le bonheur d'ici, bah c'est le fric D'or et platine jusqu'en Africa You might also like Bingo gringo, bingo gringo Bingo gringo, bingo gringo Elle délaisse la vie de chalet Pour un homme qui n'a pas une pièce Est-ce l'amour ou bien un malaise ? Est-ce qu'elle sait encore ce qu'elle fait en vrai ? Mais oui bien sur, la chance sourit au plus audacieux Il suffit de faire un pas vers elle pour qu'elle te fixe dans les yeux Le plus dur ce n'est pas la chute quand tu es tombé depuis les cieux Mais oui madame la chance, on peut faire ce qu'on veut Les horreurs d'ici-bas ont justifié mes crimes Si je ne crois pas en moi, personne le fera Le bonheur d'ici, bah c'est le fric D'or et platine jusqu'en Africa Bingo gringo, bingo gringo Bingo gringo, bingo gringo Bingo gringo, bingo gringo Bingo gringo, bingo gringo Les horreurs d'ici-bas ont justifié mes crimes Si je ne crois pas en moi, personne le fera Le bonheur d'ici, bah c'est le fric D'or et platine jusqu'en Africa Et le gagnant de ce soir se trouve sur la lune, mesdames et messieurs Bingo gringo, bingo gringo Bingo gringo, bingo gringo Bingo gringo, bingo gringo Bingo gringo, bingo gringo</t>
+          <t>Les horreurs d'ici-bas ont justifié mes crimes Si je ne crois pas en moi, personne le fera Le bonheur d'ici, bah c'est le fric D'or et platine jusqu'en Africa Et le gagnant de ce soir se trouve à Paris, mesdames et messieurs Bingo gringo, bingo gringo Bingo gringo, bingo gringo Il veut juste la fille, qu'il rêvait Et quitter son appart' une pièce Grand palace ou bien un palais Est-ce qu'il reste encore une chance en vrai ? Mais oui bien sur, la chance sourit au plus audacieux Il suffit de faire un pas vers elle pour qu'elle te fixe dans les yeux Le plus dur ce n'est pas la chute quand tu tombes depuis les cieux Mais oui madame la chance, on peut faire ce qu'on veut Les horreurs d'ici-bas-bas ont justifié mes crimes Si je ne crois pas en moi, personne le fera Le bonheur d'ici, bah c'est le fric D'or et platine jusqu'en Africa Bingo gringo, bingo gringo Bingo gringo, bingo gringo Elle délaisse la vie de chalet Pour un homme qui n'a pas une pièce Est-ce l'amour ou bien un malaise ? Est-ce qu'elle sait encore ce qu'elle fait en vrai ? Mais oui bien sur, la chance sourit au plus audacieux Il suffit de faire un pas vers elle pour qu'elle te fixe dans les yeux Le plus dur ce n'est pas la chute quand tu es tombé depuis les cieux Mais oui madame la chance, on peut faire ce qu'on veut Les horreurs d'ici-bas ont justifié mes crimes Si je ne crois pas en moi, personne le fera Le bonheur d'ici, bah c'est le fric D'or et platine jusqu'en Africa Bingo gringo, bingo gringo Bingo gringo, bingo gringo Bingo gringo, bingo gringo Bingo gringo, bingo gringo Les horreurs d'ici-bas ont justifié mes crimes Si je ne crois pas en moi, personne le fera Le bonheur d'ici, bah c'est le fric D'or et platine jusqu'en Africa Et le gagnant de ce soir se trouve sur la lune, mesdames et messieurs Bingo gringo, bingo gringo Bingo gringo, bingo gringo Bingo gringo, bingo gringo Bingo gringo, bingo gringo</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Si tu m'vois frapper l'tempo jusqu'à m'en péter les bias-ti' C'est pour la Porte de Clichy, la Fourche, la Tour, l'Allée XXX Comme tous les locos de ma team, je hais Sarko' dans la politique Il pleut des mythos, j'suis pas né d'la dernière tempête médiatique Dramatique, on pète la race pour quelques copecs au Tac-O-Tac Dans l'District on confond pas l'orage et le flash Kodak De pack en pack, on s'enracine dans les bâtiments made in OPAC J'veux l'champagne, la limousine sans avoir l'bac' Wesh cousine, joue pas les bastos ou j'te mets dans la chambre et j'tire et chtah C'est pas Shakespeare, c'est hrach, les MC's j'extirpe le cash Retire ton string, approche, je respire en cachette Kick à la vitesse d'un Porsche, et tu pries pour que j'me crash, wesh Ha-Ha-Hayce le traumatisme crânien Sortez l'champagne d'Alsace, le caviar iranien Contraint d'buter des plaquettes car les bas-fonds s'dégradent Fais pas genre tu vends d'la 'quette, on sait qu'tu racontes des cracks Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter You might also like J'te mets des coups d'tête comme si j'avais le front de Rihanna Tu nages dans la merde à côté des piranhas A la télé on dit noir, juste après on dit savane J'suis rare comme un cain-ri' qui adopte un p'tit arabe Qu'est-ce qu'il s'passe ? Encore un connard qui veut l'cash, qui fini die T'excites pas, j'tape les 'ta-'ta-'tasses, on rappe, on les mitraille C'est ti-par', on te pète le coccyx, découpe le beat avec lacolyte Hayce Lemsi, casse le mythe Quoi que l'on dise on est tricards J'tape le beat et le bute à la batte C'est le but du Bic et la lutte à l'élite On déboule des beats, des phases qui font mal Les pétasses ont la trique, on leur A la base on est pas dans les baptêmes, les battles Les boîtes, à l'épreuve des balles On écarte la prod' et la casse A la base on est pas des boloss On t'éclate la face man Passe le Bic qu'on le castagne, casse toi ou on t'casse ta gueule Cascader, , cassons ou on casse la prod' Casse les mans et les fouette comme Castlevania Tellement propre et sûr de moi qu'on les déclasse wa'Allah Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter On fait péter les watts, quoi que tu fasses dans l'rap j'vais t'briser On clash pas, on tape dans le tas pour t'plier Quoi que tu fasses dans l'rap j'vais t'briser On clash pas, on tape dans le tas pour t'plier On fait péter les watts, quoi que tu fasses dans l'rap j'vais t'briser Briser, briser, j'vais, j'vais t'plier Quoi que tu fasses dans l'rap j'vais t'briser On clash pas, on tape dans le tas pour t'plier Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Si tu m'vois frapper l'tempo jusqu'à m'en péter les bias-ti' C'est pour la Porte de Clichy, la Fourche, la Tour, l'Allée XXX Comme tous les locos de ma team, je hais Sarko' dans la politique Il pleut des mythos, j'suis pas né d'la dernière tempête médiatique Dramatique, on pète la race pour quelques copecs au Tac-O-Tac Dans l'District on confond pas l'orage et le flash Kodak De pack en pack, on s'enracine dans les bâtiments made in OPAC J'veux l'champagne, la limousine sans avoir l'bac' Wesh cousine, joue pas les bastos ou j'te mets dans la chambre et j'tire et chtah C'est pas Shakespeare, c'est hrach, les MC's j'extirpe le cash Retire ton string, approche, je respire en cachette Kick à la vitesse d'un Porsche, et tu pries pour que j'me crash, wesh Ha-Ha-Hayce le traumatisme crânien Sortez l'champagne d'Alsace, le caviar iranien Contraint d'buter des plaquettes car les bas-fonds s'dégradent Fais pas genre tu vends d'la 'quette, on sait qu'tu racontes des cracks Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter J'te mets des coups d'tête comme si j'avais le front de Rihanna Tu nages dans la merde à côté des piranhas A la télé on dit noir, juste après on dit savane J'suis rare comme un cain-ri' qui adopte un p'tit arabe Qu'est-ce qu'il s'passe ? Encore un connard qui veut l'cash, qui fini die T'excites pas, j'tape les 'ta-'ta-'tasses, on rappe, on les mitraille C'est ti-par', on te pète le coccyx, découpe le beat avec lacolyte Hayce Lemsi, casse le mythe Quoi que l'on dise on est tricards J'tape le beat et le bute à la batte C'est le but du Bic et la lutte à l'élite On déboule des beats, des phases qui font mal Les pétasses ont la trique, on leur A la base on est pas dans les baptêmes, les battles Les boîtes, à l'épreuve des balles On écarte la prod' et la casse A la base on est pas des boloss On t'éclate la face man Passe le Bic qu'on le castagne, casse toi ou on t'casse ta gueule Cascader, , cassons ou on casse la prod' Casse les mans et les fouette comme Castlevania Tellement propre et sûr de moi qu'on les déclasse wa'Allah Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter On fait péter les watts, quoi que tu fasses dans l'rap j'vais t'briser On clash pas, on tape dans le tas pour t'plier Quoi que tu fasses dans l'rap j'vais t'briser On clash pas, on tape dans le tas pour t'plier On fait péter les watts, quoi que tu fasses dans l'rap j'vais t'briser Briser, briser, j'vais, j'vais t'plier Quoi que tu fasses dans l'rap j'vais t'briser On clash pas, on tape dans le tas pour t'plier Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Métro, boulot, dodo, cauchemar citizen Métro, boulot, dodo, fardeau, cauchemar citizen Je nsuis pas devin, je nai rien de divin Je nsuis quun humain, prisonnier dson destin Je nsuis pas devin, je nai rien de divin Je nsuis quun humain, prisonnier dson destin Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Oh oui, oh oui, oh oui, oh oui Oh oui, oh oui, oh oui, oh oui Que ça serai beau, quça serait bon Jsuis dans mon monde, exactement Jsuis assez grand, jobserve le monde Jai beaucoup trop de rêves pour une âme de mortel Je ndors même plus pour le lendemain moi Je jongle avec des flammes qui me brûlent les mains Et jembellis un sale décor Enfermé dans la salle des coffres Avec une clé dsol jorganise le bordel Cest là qutu réalises que cest mort You might also like Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Oh oui, oh oui, oh oui, oh oui Oh oui, oh oui, oh oui, oh oui Le rêve est permis Donc je fais cque jveux Tu naimes pas la grande vie Si taimes la monnaie il en pleut Tu naimes pas avoir tort Cest la faute du mauvais sort Tout lmonde mange puis tout lmonde dort La belle vie sans faire defforts La belle vie sans faire defforts La belle vie sans faire defforts Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Oh oui, oh oui, oh oui, oh oui Oh oui, oh oui, oh oui, oh oui</t>
+          <t>Métro, boulot, dodo, cauchemar citizen Métro, boulot, dodo, fardeau, cauchemar citizen Je nsuis pas devin, je nai rien de divin Je nsuis quun humain, prisonnier dson destin Je nsuis pas devin, je nai rien de divin Je nsuis quun humain, prisonnier dson destin Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Oh oui, oh oui, oh oui, oh oui Oh oui, oh oui, oh oui, oh oui Que ça serai beau, quça serait bon Jsuis dans mon monde, exactement Jsuis assez grand, jobserve le monde Jai beaucoup trop de rêves pour une âme de mortel Je ndors même plus pour le lendemain moi Je jongle avec des flammes qui me brûlent les mains Et jembellis un sale décor Enfermé dans la salle des coffres Avec une clé dsol jorganise le bordel Cest là qutu réalises que cest mort Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Oh oui, oh oui, oh oui, oh oui Oh oui, oh oui, oh oui, oh oui Le rêve est permis Donc je fais cque jveux Tu naimes pas la grande vie Si taimes la monnaie il en pleut Tu naimes pas avoir tort Cest la faute du mauvais sort Tout lmonde mange puis tout lmonde dort La belle vie sans faire defforts La belle vie sans faire defforts La belle vie sans faire defforts Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Oh oui, oh oui, oh oui, oh oui Oh oui, oh oui, oh oui, oh oui</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Bla bla bla, cest toujours la même chose avec toi Tu regardes de gauche à droite tu nchanges pas Tes jamais sûr de toi, jamais sûr de toi Tu nes jamais sûr de toi Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Tu nas peut-être pas dquoi te vanter Pas dquoi te vanter Jsuis désolé, tu vas louper, louper, louper Je me demande comment je vais te shooter Depuis le départ tu nfais que loucher Tu nvends que du rêve tu nes jamais clair Les gens qui te suivent sont dans la merde Ici tout lmonde te connaît, ça ne marchera jamais Imposteur, baratineur, menteur, jamais dhumeur à XXX Imposteur, baratineur, menteur, jamais Bla bla bla, cest toujours la même chose avec toi Tu regardes de gauche à droite tu nchanges pas Tes jamais sûr de toi, jamais sûr de toi Tu nes jamais sûr de toi You might also like Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Tas bavé sur mon dos toi tes pas fiable Jte faisais confiance jusquà présent Mais jai remarqué que tout comme eux Tétais rempli de blablas Toujours à jacter dans les parages Fais gaffe à cqui va tarriver Car un jour tout se sait Et tu le sais, donc reste sincère Ou un beau jour se stoppera notre amitié Tu sors tard la night et tu blablabates Sur ldos de tout lmonde cest dla folie Pour casser du sucre paraît quil ny a pas dâge Tu tes retrouvé dans la merde par le on-dit Allez va, fais ta vie, bats les pattes Après tout cest chacun sa vie, Dieu pour tous Efface mon num et ne mappelle pas Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Bla bla bla, cest toujours la même chose avec toi Tu regardes de gauche à droite tu nchanges pas Tes jamais sûr de toi, jamais sûr de toi Tu nes jamais sûr de toi Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Il veut être moi, elle veut être à moi Et moi jvoudrais être à laffiche dans lRER du mois Il veut être moi, elle veut être à moi Et moi être à laffiche dans lRER du mois Du mois, du mois Cest celui qui dit qui lest Cest celui qui dit qui lest2</t>
+          <t>Bla bla bla, cest toujours la même chose avec toi Tu regardes de gauche à droite tu nchanges pas Tes jamais sûr de toi, jamais sûr de toi Tu nes jamais sûr de toi Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Tu nas peut-être pas dquoi te vanter Pas dquoi te vanter Jsuis désolé, tu vas louper, louper, louper Je me demande comment je vais te shooter Depuis le départ tu nfais que loucher Tu nvends que du rêve tu nes jamais clair Les gens qui te suivent sont dans la merde Ici tout lmonde te connaît, ça ne marchera jamais Imposteur, baratineur, menteur, jamais dhumeur à XXX Imposteur, baratineur, menteur, jamais Bla bla bla, cest toujours la même chose avec toi Tu regardes de gauche à droite tu nchanges pas Tes jamais sûr de toi, jamais sûr de toi Tu nes jamais sûr de toi Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Tas bavé sur mon dos toi tes pas fiable Jte faisais confiance jusquà présent Mais jai remarqué que tout comme eux Tétais rempli de blablas Toujours à jacter dans les parages Fais gaffe à cqui va tarriver Car un jour tout se sait Et tu le sais, donc reste sincère Ou un beau jour se stoppera notre amitié Tu sors tard la night et tu blablabates Sur ldos de tout lmonde cest dla folie Pour casser du sucre paraît quil ny a pas dâge Tu tes retrouvé dans la merde par le on-dit Allez va, fais ta vie, bats les pattes Après tout cest chacun sa vie, Dieu pour tous Efface mon num et ne mappelle pas Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Bla bla bla, cest toujours la même chose avec toi Tu regardes de gauche à droite tu nchanges pas Tes jamais sûr de toi, jamais sûr de toi Tu nes jamais sûr de toi Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Il veut être moi, elle veut être à moi Et moi jvoudrais être à laffiche dans lRER du mois Il veut être moi, elle veut être à moi Et moi être à laffiche dans lRER du mois Du mois, du mois Cest celui qui dit qui lest Cest celui qui dit qui lest2</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Tu veux le biff du reuf et quer-ni la reus Que j'sois docile tout en restant dans la hass T'aimes bien l'Afrique pour toutes les femmes colorées Jt'ai vu partir en cances-va, investir comme Une belle femme j'dis ne se rate pas Mais tu wake plus cheum sur l'compte d'la rapta Es-tu aptes à assumer ce gosse là Quand tous les soirs tu décides de pas mettre la pote-ca A chaque fois que j'étais lade-ma C'était pour le lendemain pouvoir esquiver le radma Claque sur la tetê, puchca Mène une vie de couche tard, excuse pour les embuscades Les rottes-ca mais faut dire qu'à la raque-ba Pour une baguette ça criait Allah Akbar Voilà ce qu'il me traversait l'esprit avant de gratter c'texte, peace La Terre tourne avec ou sans toi Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle Chelou, chelou, c'est chelou Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle C'est injuste Toi tu veux que la, la, la, la Toi tu veux que la, la, la, la Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle You might also like Ça y est ça roule en Crossover, ça y est ça vé-squi la té-ci T'as l'compte en banque d'un footballeur grâce à la coke que tu cuisines T'as fait d'la baraque un palace, mais y'a ta reum dans un taudis Tu veux le bon Dieu sans concession t'as les mains pleins d'hémoglobines T'as laissé tomber ton équipe Donc autrement dit, t'as qué-ni, khey, ton Posse T'es plus qu'avide de sentiments, t'as l'cur aussi noir qu'un gothique Les boites de nuits c'est comme les potes, un moment c'est plus compatible T'as fait du sale, la hagra, l'a crié sur tous les toits T'as fait du placard à Dakar tout le monde en ler-par au tier-quar T'as fait ton malaise sur l'Trocad' direction l'autoroute A4 Avec la BAC en filature du coup t'as ton-car en bécane Évidemment ça part en testos', tortionnaire de lice-po Déclencheur d'émeutes tu peux dire ci-mer à ton flash ball Toi tu veux qu'la vie te fasse flipper depuis qutes vux sexaucent Venez vous repentir mais bon juste avant qu'la terre saute Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle Chelou, chelou, c'est chelou Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle C'est injuste Toi tu veux que la, la, la, la Toi tu veux que la, la, la, la Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle Tu veux les bienfaits du Tout Puissant mais n'commet que des méfaits Dur de gagner le marathon de la vie les lacets défaits Chelou comme ces bâtards qui se réjouissent de nos décès Ou comme ce frère de sang qui convoite ta pine-co vulsée Pourquoi mon succès te gratte la gorge, oui, vu qu'j'ai Ravalé ma haine, la ceinture serré comme mon budget Chelou comme ces gavas qui te vendent puis te volent Mais rien d'étonnant si ces connards s'font shooter en plein vol Donc je plane sous pilon négro, canne que sur mes démos Femme trouve les phases si ce soir tu veux ton négro Je vois que la côte est grandissante depuis Ma mélo Pourtant ma rage n'est pas décroissante car j'suis trop ghetto Tu la trouves si ravissante pourtant c'est un homme Oui tu la trouves si attirante mais pourquoi tu la cognes ? T'es chelou comme ce coq qui ne défend plus sa basse-cour Au chant du glock bah plus personne, tout le monde court Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle Chelou, chelou, c'est chelou Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle C'est injuste Toi tu veux que la, la, la, la Toi tu veux que la, la, la, la Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle1</t>
+          <t>Tu veux le biff du reuf et quer-ni la reus Que j'sois docile tout en restant dans la hass T'aimes bien l'Afrique pour toutes les femmes colorées Jt'ai vu partir en cances-va, investir comme Une belle femme j'dis ne se rate pas Mais tu wake plus cheum sur l'compte d'la rapta Es-tu aptes à assumer ce gosse là Quand tous les soirs tu décides de pas mettre la pote-ca A chaque fois que j'étais lade-ma C'était pour le lendemain pouvoir esquiver le radma Claque sur la tetê, puchca Mène une vie de couche tard, excuse pour les embuscades Les rottes-ca mais faut dire qu'à la raque-ba Pour une baguette ça criait Allah Akbar Voilà ce qu'il me traversait l'esprit avant de gratter c'texte, peace La Terre tourne avec ou sans toi Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle Chelou, chelou, c'est chelou Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle C'est injuste Toi tu veux que la, la, la, la Toi tu veux que la, la, la, la Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle Ça y est ça roule en Crossover, ça y est ça vé-squi la té-ci T'as l'compte en banque d'un footballeur grâce à la coke que tu cuisines T'as fait d'la baraque un palace, mais y'a ta reum dans un taudis Tu veux le bon Dieu sans concession t'as les mains pleins d'hémoglobines T'as laissé tomber ton équipe Donc autrement dit, t'as qué-ni, khey, ton Posse T'es plus qu'avide de sentiments, t'as l'cur aussi noir qu'un gothique Les boites de nuits c'est comme les potes, un moment c'est plus compatible T'as fait du sale, la hagra, l'a crié sur tous les toits T'as fait du placard à Dakar tout le monde en ler-par au tier-quar T'as fait ton malaise sur l'Trocad' direction l'autoroute A4 Avec la BAC en filature du coup t'as ton-car en bécane Évidemment ça part en testos', tortionnaire de lice-po Déclencheur d'émeutes tu peux dire ci-mer à ton flash ball Toi tu veux qu'la vie te fasse flipper depuis qutes vux sexaucent Venez vous repentir mais bon juste avant qu'la terre saute Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle Chelou, chelou, c'est chelou Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle C'est injuste Toi tu veux que la, la, la, la Toi tu veux que la, la, la, la Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle Tu veux les bienfaits du Tout Puissant mais n'commet que des méfaits Dur de gagner le marathon de la vie les lacets défaits Chelou comme ces bâtards qui se réjouissent de nos décès Ou comme ce frère de sang qui convoite ta pine-co vulsée Pourquoi mon succès te gratte la gorge, oui, vu qu'j'ai Ravalé ma haine, la ceinture serré comme mon budget Chelou comme ces gavas qui te vendent puis te volent Mais rien d'étonnant si ces connards s'font shooter en plein vol Donc je plane sous pilon négro, canne que sur mes démos Femme trouve les phases si ce soir tu veux ton négro Je vois que la côte est grandissante depuis Ma mélo Pourtant ma rage n'est pas décroissante car j'suis trop ghetto Tu la trouves si ravissante pourtant c'est un homme Oui tu la trouves si attirante mais pourquoi tu la cognes ? T'es chelou comme ce coq qui ne défend plus sa basse-cour Au chant du glock bah plus personne, tout le monde court Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle Chelou, chelou, c'est chelou Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle C'est injuste Toi tu veux que la, la, la, la Toi tu veux que la, la, la, la Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle1</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Gbereya be bela gbereya be bela Wari bana Gbereya be bela, gbereya be bela Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Jte les ai vu senfuir En sous-entendant je reviendrais Que veux-tu quje fasse du désespoir À part la rendre plus belle ? Je veux juste un petit coin dParadis Sans les effets néfastes de la money Si tu cherches comme moi un petit coin dParadis Copacabana mon ami You might also like Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Gbereya be bela gbereya be bela Wari bana, gbereya be bela, gbereya be bela Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Stop, juste un petit coin au soleil Parcque moi la grisaille de Paname ma soulé Parcquau tier-quar je ne peux pas me défouler Zone à risque surveillée par les poulets We-we-wesh, miss como está ? Elle a kiffé sur moi ya quà voir comment elle msnappe Dailleurs cest pas la seule, té-ma comment elle stapent toutes Beriz on a la cote ici mon gars, ouais pas ddoute Oh oui, dans le délire on est fêlés Parcquon vient dun endroit où portes et fenêtres étaient scellés La famille sur le te-c, ne crois pas que je suis solo Laissez-nous la discothèque ou on va faire les insolents Tant pis si ça part en cacahuètes On est loin de la capitale, on est plein, on va les uer-t Envie de tout niquer, Copacabana, Havana Le Big Black M il a la mala Même si tes poches sont vides viens à Copacabana De-de joie on-on déborde de bonheur, on-on déborde Même si tes poches sont vides viens à Copacabana De-de joie on-on déborde de bonheur, on-on déborde Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Gbereya be bela gbereya be bela Wari bana, gbereya be bela gbereya be bela Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi</t>
+          <t>Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Gbereya be bela gbereya be bela Wari bana Gbereya be bela, gbereya be bela Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Jte les ai vu senfuir En sous-entendant je reviendrais Que veux-tu quje fasse du désespoir À part la rendre plus belle ? Je veux juste un petit coin dParadis Sans les effets néfastes de la money Si tu cherches comme moi un petit coin dParadis Copacabana mon ami Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Gbereya be bela gbereya be bela Wari bana, gbereya be bela, gbereya be bela Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Stop, juste un petit coin au soleil Parcque moi la grisaille de Paname ma soulé Parcquau tier-quar je ne peux pas me défouler Zone à risque surveillée par les poulets We-we-wesh, miss como está ? Elle a kiffé sur moi ya quà voir comment elle msnappe Dailleurs cest pas la seule, té-ma comment elle stapent toutes Beriz on a la cote ici mon gars, ouais pas ddoute Oh oui, dans le délire on est fêlés Parcquon vient dun endroit où portes et fenêtres étaient scellés La famille sur le te-c, ne crois pas que je suis solo Laissez-nous la discothèque ou on va faire les insolents Tant pis si ça part en cacahuètes On est loin de la capitale, on est plein, on va les uer-t Envie de tout niquer, Copacabana, Havana Le Big Black M il a la mala Même si tes poches sont vides viens à Copacabana De-de joie on-on déborde de bonheur, on-on déborde Même si tes poches sont vides viens à Copacabana De-de joie on-on déborde de bonheur, on-on déborde Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Gbereya be bela gbereya be bela Wari bana, gbereya be bela gbereya be bela Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Au pire des cas juste un coup de fil juste un coup de fil Comme dans le movie eh comme dans le movie Aucun soucis eh ouuuu ah Je déboule tout de suite Dis-moi si tes dans le coup ou ou Si tes dans le coup ou ho Si tes dans le coup ou ou Si tes dans le coup ou ho Que signifie ce clin dil ? On se connaît pas mais cest cramé je suis pas le seul Eh, tes tombé dans le love Quand tes rentré le temps cest arrêté à lentrée Je vois le style, cest Cainfri et Quinri bien mixé A distance sans toucher on cest regardé jai kiffé Au pire des cas juste un coup de fil juste un coup de fil Comme dans le movie eh comme dans le movie Aucun soucis eh ouuuu ah Je déboule tout de suite Au pire des juste un coup de fil juste un coup de fil Comme dans le movie eh comme dans le movie Aucun soucis eh ouuuu ah Je déboule tout de suite Dis-moi si tes dans le coup ou ou Si tes dans le coup ou ho Si tes dans le coup ou ou Si tes dans le coup ou ho You might also like Verres fumés, jean taille basse, parfumé hasin Jai le cur calciné Je suis en place avec mes potes mal lunés Est-ce que tu veux que je te fasse une place en vrai Quand tu tes mis debout ou ou, Jai perdu le souffle Donne-moi quelques secondes, pour te suivre jusquau bout Au pire des cas juste un coup de fil juste un coup de fil Comme dans le movie eh comme dans le movie Aucun soucis eh ouuuu ah Je déboule tout de suite Dis-moi si tes dans le coup ou ou Si tes dans le coup ou ho Si tes dans le coup ou ou Si tes dans le coup ou ho Pourtant je suis pas un queme dans le love, jsuis dans les loves, dans les love oh Jsuis pas dans le love mais dans les loves, dans les love oh On se tient au joussma Elle marche doucement Tout le monde veut tâter le tossma Ça ce passe comme ça On se tient au joussma Au pire des cas juste un coup de fil juste un coup de fil Comme dans le movie eh comme dans le movie Aucun soucis eh ouuuu ah Je déboule tout de suite Dis-moi si tes dans le coup ou ou Si tes dans le coup ou ho Si tes dans le coup ou ou Si tes dans le coup ou ho</t>
+          <t>Au pire des cas juste un coup de fil juste un coup de fil Comme dans le movie eh comme dans le movie Aucun soucis eh ouuuu ah Je déboule tout de suite Dis-moi si tes dans le coup ou ou Si tes dans le coup ou ho Si tes dans le coup ou ou Si tes dans le coup ou ho Que signifie ce clin dil ? On se connaît pas mais cest cramé je suis pas le seul Eh, tes tombé dans le love Quand tes rentré le temps cest arrêté à lentrée Je vois le style, cest Cainfri et Quinri bien mixé A distance sans toucher on cest regardé jai kiffé Au pire des cas juste un coup de fil juste un coup de fil Comme dans le movie eh comme dans le movie Aucun soucis eh ouuuu ah Je déboule tout de suite Au pire des juste un coup de fil juste un coup de fil Comme dans le movie eh comme dans le movie Aucun soucis eh ouuuu ah Je déboule tout de suite Dis-moi si tes dans le coup ou ou Si tes dans le coup ou ho Si tes dans le coup ou ou Si tes dans le coup ou ho Verres fumés, jean taille basse, parfumé hasin Jai le cur calciné Je suis en place avec mes potes mal lunés Est-ce que tu veux que je te fasse une place en vrai Quand tu tes mis debout ou ou, Jai perdu le souffle Donne-moi quelques secondes, pour te suivre jusquau bout Au pire des cas juste un coup de fil juste un coup de fil Comme dans le movie eh comme dans le movie Aucun soucis eh ouuuu ah Je déboule tout de suite Dis-moi si tes dans le coup ou ou Si tes dans le coup ou ho Si tes dans le coup ou ou Si tes dans le coup ou ho Pourtant je suis pas un queme dans le love, jsuis dans les loves, dans les love oh Jsuis pas dans le love mais dans les loves, dans les love oh On se tient au joussma Elle marche doucement Tout le monde veut tâter le tossma Ça ce passe comme ça On se tient au joussma Au pire des cas juste un coup de fil juste un coup de fil Comme dans le movie eh comme dans le movie Aucun soucis eh ouuuu ah Je déboule tout de suite Dis-moi si tes dans le coup ou ou Si tes dans le coup ou ho Si tes dans le coup ou ou Si tes dans le coup ou ho</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>T'es nouveau sur l'rrain-té, t'es bénef' Mon tit-pe, ma dope tu écoutes bien De mauvaise humeur, on va t'niquer ta mère pour que tout l'monde s'en souvienne Colt 45, Smith Yassa', chez nous ça mange bien Débrouillardise, t'as rien à dire à part sentir la patate dans l'refrain Ils en montent par un geyser Negro à se-l'ai dans l'désert Visu' de Zulu, dans la poche un ze-dou On s'vi-ser sans jamais dire ci-mer Va niquer ta grand mère, ton cavu est ciblé à 3 heures Comment tu veux qu'on compatisse ? Même pour aller à la guerre, mes négros tisent Faut des gros titres, sinus bousillés à la chevrotine Ça chiffre vite, même quand ça tire, c'est la routine Toujours sur les rotules même quand la roue tourne Nous parle pas de nos fils, on va te percer la foufoune Je me suis fait tout seul Fuck la réput' des mecs qu'ont l'seum La weed, j'consomme Tout mon entourage touche des grosses sommes Les meufs, les haineux Les suceurs de ah, les élites, le quartier Dans mon monde, tu n'as pas pieds You might also like Je suis l'dernier negro Le dernier negro Le dernier negro Dernier negro Le dernier negro Rien à foutre de c'que t'en penses Ventre plein sans dépense Les types sont haut perchés Y'a qu'les balles qui descendent Check, qu'est-ce qu'tu veux qu'j'te dise ? Si t'es sec fais belek ! Protèges ton dos, même si t'es 50 cents Cassez-vous, aucun respect T'aurais du faire des tubes, au lieu de te faire shoo-shoo-shooter-shoot mon frère Ils veulent nous voir 6 pieds sous terre, dis-leur ces mots Ils veulent nous voir 6 pieds sous terre, dis-leur c'est mort Je suis le dernier, le dernier Ils veulent nous voir 6 pieds sous terre, dis-leur ces mots Ils veulent nous voir 6 pieds sous terre, dis-leur c'est mort Je suis le dernier, le dernier Ils veulent nous voir 6 pieds sous terre, dis-leur ces mots Ils veulent nous voir 6 pieds sous terre, dis-leur c'est mort Je suis le dernier Je me suis fait tout seul Fuck la réput' des mecs qu'ont l'seum La weed, j'consomme Tout mon entourage touche des grosses sommes Les meufs, les haineux Les suceurs de ah, les élites, le quartier Dans mon monde, tu n'as pas pieds Je suis l'dernier negro Le dernier negro Le dernier negro Dernier negro Le dernier negro1</t>
+          <t>T'es nouveau sur l'rrain-té, t'es bénef' Mon tit-pe, ma dope tu écoutes bien De mauvaise humeur, on va t'niquer ta mère pour que tout l'monde s'en souvienne Colt 45, Smith Yassa', chez nous ça mange bien Débrouillardise, t'as rien à dire à part sentir la patate dans l'refrain Ils en montent par un geyser Negro à se-l'ai dans l'désert Visu' de Zulu, dans la poche un ze-dou On s'vi-ser sans jamais dire ci-mer Va niquer ta grand mère, ton cavu est ciblé à 3 heures Comment tu veux qu'on compatisse ? Même pour aller à la guerre, mes négros tisent Faut des gros titres, sinus bousillés à la chevrotine Ça chiffre vite, même quand ça tire, c'est la routine Toujours sur les rotules même quand la roue tourne Nous parle pas de nos fils, on va te percer la foufoune Je me suis fait tout seul Fuck la réput' des mecs qu'ont l'seum La weed, j'consomme Tout mon entourage touche des grosses sommes Les meufs, les haineux Les suceurs de ah, les élites, le quartier Dans mon monde, tu n'as pas pieds Je suis l'dernier negro Le dernier negro Le dernier negro Dernier negro Le dernier negro Rien à foutre de c'que t'en penses Ventre plein sans dépense Les types sont haut perchés Y'a qu'les balles qui descendent Check, qu'est-ce qu'tu veux qu'j'te dise ? Si t'es sec fais belek ! Protèges ton dos, même si t'es 50 cents Cassez-vous, aucun respect T'aurais du faire des tubes, au lieu de te faire shoo-shoo-shooter-shoot mon frère Ils veulent nous voir 6 pieds sous terre, dis-leur ces mots Ils veulent nous voir 6 pieds sous terre, dis-leur c'est mort Je suis le dernier, le dernier Ils veulent nous voir 6 pieds sous terre, dis-leur ces mots Ils veulent nous voir 6 pieds sous terre, dis-leur c'est mort Je suis le dernier, le dernier Ils veulent nous voir 6 pieds sous terre, dis-leur ces mots Ils veulent nous voir 6 pieds sous terre, dis-leur c'est mort Je suis le dernier Je me suis fait tout seul Fuck la réput' des mecs qu'ont l'seum La weed, j'consomme Tout mon entourage touche des grosses sommes Les meufs, les haineux Les suceurs de ah, les élites, le quartier Dans mon monde, tu n'as pas pieds Je suis l'dernier negro Le dernier negro Le dernier negro Dernier negro Le dernier negro1</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ouch Je sais que j'ai le contrôle et que je m'en sers Vous êtes bloqué sur mes mélos J'ai tous vos airs Dinguelop J'suis bon qu'à faire des dinguelop Dinguelop Bon qu'à faire des dinguelop J'suis bon qu'à faire des dinguelop Dinguelop , Dinguelop Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff man Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff J'suis perturbée Je perds l'équilibre sur toutes ces lignes qui font ma vie Je vais tomber, mais t'inquiète j'sais voler Je suis sous l'emprise d'une terrible maladie À ce qui parait eh oh Eh Beriz j'ai quelques ennuis Je crois que j'ai des problèmes psychologiques C'est la même mélodie Elle reste dans ma tête cette mélodie Oh oh oh Que puis-je y faire ? Elle m'embarque au bout de la terre Cette même mélodie Cette même mélodie You might also like J'ai tous vos airs Dinguelop J'suis bon qu'à faire des dinguelop Dinguelop Bon qu'à faire des dinguelop J'suis bon qu'à faire des dinguelop Dinguelop , Dinguelop Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff man Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff J'suis désolée Je ne me contrôle pas, c'est ma folie qui guide mes pas Tu t'en doutais eh oh Ouai j'suis spontanée Je fonce droit dedans même si j'finis par l'regretter J'suis désolé eh oh Eh Beriz j'ai quelques ennuis Je crois que j'ai des problèmes psychologiques C'est la même mélodie Elle reste dans ma tête cette mélodie Oh oh oh Que puis-je y faire ? Elle m'embarque au bout de la terre Cette même mélodie ... J'ai tous vos airs Dinguelop J'suis bon qu'à faire des dinguelop Dinguelop Bon qu'à faire des dinguelop J'suis bon qu'à faire des dinguelop Dinguelop , Dinguelop Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff man Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff I heard something ... I think the angel's cry tonight Oh oh oh I heard something The angel's cry tonight J'ai tous vos airs Dinguelop J'suis bon qu'à faire des dinguelop Dinguelop Bon qu'à faire des dinguelop J'suis bon qu'à faire des dinguelop Dinguelop , Dinguelop Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff man Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff Dinguelop ! Dinguelop this is my life Je sais bien qu'ils ne me comprennent pas Mais j'y peux rien c'est bien plus fort que moi J'suis comme ça, j'suis comme ça Dinguelop ! Dinguelop this is my life Je fonce dedans je ne réfléchis pas Les autres bluffs, ils ne sont pas de taille C'est comme ça C'est comme ça Hey wech Beriz quoi d'neuf ? Rien que ça bluff Wech Beriz quoi d'neuf ? De l'autre côté Rien que ça bluff Hey wech Beriz quoi d'neuf ? Rien que ça bluff Wech Beriz quoi d'neuf ? De l'autre côté Rien que sa bluff</t>
+          <t>Ouch Je sais que j'ai le contrôle et que je m'en sers Vous êtes bloqué sur mes mélos J'ai tous vos airs Dinguelop J'suis bon qu'à faire des dinguelop Dinguelop Bon qu'à faire des dinguelop J'suis bon qu'à faire des dinguelop Dinguelop , Dinguelop Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff man Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff J'suis perturbée Je perds l'équilibre sur toutes ces lignes qui font ma vie Je vais tomber, mais t'inquiète j'sais voler Je suis sous l'emprise d'une terrible maladie À ce qui parait eh oh Eh Beriz j'ai quelques ennuis Je crois que j'ai des problèmes psychologiques C'est la même mélodie Elle reste dans ma tête cette mélodie Oh oh oh Que puis-je y faire ? Elle m'embarque au bout de la terre Cette même mélodie Cette même mélodie J'ai tous vos airs Dinguelop J'suis bon qu'à faire des dinguelop Dinguelop Bon qu'à faire des dinguelop J'suis bon qu'à faire des dinguelop Dinguelop , Dinguelop Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff man Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff J'suis désolée Je ne me contrôle pas, c'est ma folie qui guide mes pas Tu t'en doutais eh oh Ouai j'suis spontanée Je fonce droit dedans même si j'finis par l'regretter J'suis désolé eh oh Eh Beriz j'ai quelques ennuis Je crois que j'ai des problèmes psychologiques C'est la même mélodie Elle reste dans ma tête cette mélodie Oh oh oh Que puis-je y faire ? Elle m'embarque au bout de la terre Cette même mélodie ... J'ai tous vos airs Dinguelop J'suis bon qu'à faire des dinguelop Dinguelop Bon qu'à faire des dinguelop J'suis bon qu'à faire des dinguelop Dinguelop , Dinguelop Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff man Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff I heard something ... I think the angel's cry tonight Oh oh oh I heard something The angel's cry tonight J'ai tous vos airs Dinguelop J'suis bon qu'à faire des dinguelop Dinguelop Bon qu'à faire des dinguelop J'suis bon qu'à faire des dinguelop Dinguelop , Dinguelop Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff man Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff Dinguelop ! Dinguelop this is my life Je sais bien qu'ils ne me comprennent pas Mais j'y peux rien c'est bien plus fort que moi J'suis comme ça, j'suis comme ça Dinguelop ! Dinguelop this is my life Je fonce dedans je ne réfléchis pas Les autres bluffs, ils ne sont pas de taille C'est comme ça C'est comme ça Hey wech Beriz quoi d'neuf ? Rien que ça bluff Wech Beriz quoi d'neuf ? De l'autre côté Rien que ça bluff Hey wech Beriz quoi d'neuf ? Rien que ça bluff Wech Beriz quoi d'neuf ? De l'autre côté Rien que sa bluff</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Nous avons trouvé deux types extraordinaires Qui ne craignent aucun effet de la kryptonite Après avoir exploré les bas fonds Nous les avons trouvé avec une détermination qui dépasse votre imagination Oui Et aujourd'hui, c'est la rentrée, et bien sûr, elle est olympique Oui Olympique Pour décrocher la Lune faut la fusée, j'arrive en vaisseau spatial On veut pas toucher le ciel, j'suis déjà dans l'espace, man Déter' comme un spartiate, il s'passe as-p' Un jour sans que j'gratte sale, j'm'acharne, la mélodie m'attrape Je coupe la prod' et la castagne, un peu comme une renaissance On est tellement forts qu'on a plus besoin d'reconnaissance Moi, depuis l'adolescence, j'ai pas sympathisé Et fini l'époque du pilon où je trouvais sympa d'tiser On pètera la maille pour les briser, coup d'tête, t'es avisé Coup sec comme un uzi, si tu m'testes t'es la risée Kicker figé, briser crispé, sent les limites qu'ils veulent m'infliger Qui sait qui t'es ? J'y vais direct sans les minutes qui vont défiler Si la qualité d'MC était proportionnelle au nombre de clics Amandine du 38 serait la reine du featuring Le monde part en vrille, même les saisons sont déréglées J'serai même plus surpris qu'en été il s'mette à neiger Me contenter de c'que j'ai ? Regarde mon doigt d'honneur Y'a qu'les riches qui disent que l'argent n'fait pas l'bonheur Si j'avais les tunes d'un empereur ? Si j'avais les tunes d'un empereur ? Imagine Ici c'est pas l'Tibet, les mois sont agités Freeno Prod s'exporte et XXX comme au Wati-B Calibré, Entrée Olympique c'est l'instinct qui tue Aligné, armé comme esprit d'art et d'institut Abrité par la , plus besoin d'sampleur On compose les mélodrames, on arrive comme des empereurs Tant d'peur, tant d'pleurs, t'aide comme le prompteur Plus que rappeur, tant de vibe qu'on est chanteurs You might also like On fait notre entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Un pour les soldats, deux pour les sisters Fuck si t'es un haineux du temps qu't'insistes peu Sept-Cinq, Scrib'r, T.O.X C'est deux MCs respectables, tu peux kiffer On fait notre entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Tu penses qu'on joue jusqu'à c'qu'on fasse livré la frappe c'est clair Avant la 'sique, on s'faisait palper par la BAC sans dec' ? Si ça paye as-p', ça retourne dealer, pourquoi ? L'oseille Poto, j'ai pas sommeil, ça mène la vie de Marc Dorcel La rue t'a marqué comme une vache qui sourit Rumine ta haine et tourne autour, et hop, la vache, on t'surine Y'a des gosses qu'ont passés des étapes sales Maintenant c'est les startings blocs, avant-hier c'était les cages d'escal' Peu importe comment t'as palpé Si t'as pas balancé ni baisé tes potes au top sans casquer Respect, t'es un champion, respire Passe le tapis rouge et fait ta rentrée olympique Prend une place entre les soldats Oubli tes soucis et laisse toi guider par les sistas Couvert quoi qu'il arrive Un dollar c'est un dollar, si tu perds c'est moi qui mise Fuck les autres, ils ont pas l'sens de la mif' En vérité, y'a que la maille qui fait la diff' Poto, regarde la rentrée olympique, fuck c'que tu penses, mec Rentrée olympique On fait notre entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Un pour les soldats, deux pour les sisters Fuck si t'es un haineux du temps qu't'insistes peu Sept-Cinq, Scrib'r, T.O.X C'est deux MCs respectables, tu peux kiffer On fait notre entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Huuum, sur un bateau, ouais imagine Non, non, ou plutôt sur un yacht ou un avion ouais, ça c'est bien ça imagine Dans une soucoupe volante imagine J'suis trop loin, j'ai la fusée imagine Et la piquouse du Dr. Beriz Tu vas swinguer même sans musique Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Nous avons trouvé deux types extraordinaires Qui ne craignent aucun effet de la kryptonite Après avoir exploré les bas fonds Nous les avons trouvé avec une détermination qui dépasse votre imagination Oui Et aujourd'hui, c'est la rentrée, et bien sûr, elle est olympique Oui Olympique Pour décrocher la Lune faut la fusée, j'arrive en vaisseau spatial On veut pas toucher le ciel, j'suis déjà dans l'espace, man Déter' comme un spartiate, il s'passe as-p' Un jour sans que j'gratte sale, j'm'acharne, la mélodie m'attrape Je coupe la prod' et la castagne, un peu comme une renaissance On est tellement forts qu'on a plus besoin d'reconnaissance Moi, depuis l'adolescence, j'ai pas sympathisé Et fini l'époque du pilon où je trouvais sympa d'tiser On pètera la maille pour les briser, coup d'tête, t'es avisé Coup sec comme un uzi, si tu m'testes t'es la risée Kicker figé, briser crispé, sent les limites qu'ils veulent m'infliger Qui sait qui t'es ? J'y vais direct sans les minutes qui vont défiler Si la qualité d'MC était proportionnelle au nombre de clics Amandine du 38 serait la reine du featuring Le monde part en vrille, même les saisons sont déréglées J'serai même plus surpris qu'en été il s'mette à neiger Me contenter de c'que j'ai ? Regarde mon doigt d'honneur Y'a qu'les riches qui disent que l'argent n'fait pas l'bonheur Si j'avais les tunes d'un empereur ? Si j'avais les tunes d'un empereur ? Imagine Ici c'est pas l'Tibet, les mois sont agités Freeno Prod s'exporte et XXX comme au Wati-B Calibré, Entrée Olympique c'est l'instinct qui tue Aligné, armé comme esprit d'art et d'institut Abrité par la , plus besoin d'sampleur On compose les mélodrames, on arrive comme des empereurs Tant d'peur, tant d'pleurs, t'aide comme le prompteur Plus que rappeur, tant de vibe qu'on est chanteurs On fait notre entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Un pour les soldats, deux pour les sisters Fuck si t'es un haineux du temps qu't'insistes peu Sept-Cinq, Scrib'r, T.O.X C'est deux MCs respectables, tu peux kiffer On fait notre entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Tu penses qu'on joue jusqu'à c'qu'on fasse livré la frappe c'est clair Avant la 'sique, on s'faisait palper par la BAC sans dec' ? Si ça paye as-p', ça retourne dealer, pourquoi ? L'oseille Poto, j'ai pas sommeil, ça mène la vie de Marc Dorcel La rue t'a marqué comme une vache qui sourit Rumine ta haine et tourne autour, et hop, la vache, on t'surine Y'a des gosses qu'ont passés des étapes sales Maintenant c'est les startings blocs, avant-hier c'était les cages d'escal' Peu importe comment t'as palpé Si t'as pas balancé ni baisé tes potes au top sans casquer Respect, t'es un champion, respire Passe le tapis rouge et fait ta rentrée olympique Prend une place entre les soldats Oubli tes soucis et laisse toi guider par les sistas Couvert quoi qu'il arrive Un dollar c'est un dollar, si tu perds c'est moi qui mise Fuck les autres, ils ont pas l'sens de la mif' En vérité, y'a que la maille qui fait la diff' Poto, regarde la rentrée olympique, fuck c'que tu penses, mec Rentrée olympique On fait notre entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Un pour les soldats, deux pour les sisters Fuck si t'es un haineux du temps qu't'insistes peu Sept-Cinq, Scrib'r, T.O.X C'est deux MCs respectables, tu peux kiffer On fait notre entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Huuum, sur un bateau, ouais imagine Non, non, ou plutôt sur un yacht ou un avion ouais, ça c'est bien ça imagine Dans une soucoupe volante imagine J'suis trop loin, j'ai la fusée imagine Et la piquouse du Dr. Beriz Tu vas swinguer même sans musique Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>J'sais pas si j'aurais la force de te gérer Y'a que dans mes écrits que j'tue Quand j'aurai plus rien dans les poches, comment j'ferai Y'a que dans mes écrits que j'tue J'voudrais t'élever à la dure Y'a que dans mes écrits que j'tue Même si j'viens d'la ue-r' J'te guiderai au maximum Ta mère m'a dit qu'tu mettais que des coups d'pieds C'est sûrement qu'elle s'défoule, fiston écoute bien J'fais des cascades pour un casse-dalle la nuit Rentre à la casba, faut déjà qu'j'parte taffer J'reçois un texto, ça c'est Dawala Y'a des interviews gros, y'a l'cd dans les bacs Moi j'sais rien faire d'autre, si j'ai pu m'y faire Que vendre ma vieille dope, survivant d'l'enfer Pour que tu t'installes, j'laisse parler ceux qui me disent instable En gros ceux qui m'connaissent pas Qui m'appellent re-sta depuis qu'j'suis loin des res-shta Qui m'aimaient bien que dans la merde mais chacun vit son destin N'est-ce pas, fiston Sache que la vie n'est pas faite que de piston T'as les bras long, ceux qu'on m'a amputé C'est dans le drame qu'on voit les plus gros enculés J't'assure pas, que tes diplômes te seront bénéfiques Si t'assures pas, surtout me ramène jamais les flics You might also like J'sais pas si j'aurais la force de te gérer Y'a que dans mes écrits que j'tue Quand j'aurai plus rien dans les poches, comment j'ferai Y'a que dans mes écrits que j'tue J'voudrais t'élever à la dure Y'a que dans mes écrits que j'tue Même si j'viens d'la ue-r' J'te guiderai au maximum Si j'ai cru m'y faire à ce monde de merde qui m'a traumat' Survivant d'l'enfer, le cur calciné, ça fait trop mal Si j'ai su m'y faire, comparé aux autres, j'ai moins d'stigmates Ce monde fait mal, ça t'a traumat', t'as moins d'stigmates et tu t'en tires pas mal J'suis débordé, j'sais même pas par où commencer Mais j'imagine que ça a dû être dur pour toi de m'l'annoncer J'ai du sentir la boule au ventre au bout du fil qui simmisçait Lors du soir où t'as bigo bah c'était bien c'que j'me disais Dissipé quand ça délire t'as comme un poids mais sur la tête Là faut choisir, être un bonhomme ou s'enfuir et faire le traître Faire le test de pater', t'en assurer qu't'en es l'daron Mettre les voiles dans la minute, l'abandonner comme un brigand, ok On f'ra c'qu'il faut pour qu'tu sois quelqu'un d'élégant N'imite jamais les gens qu'affrontent la BRB c'est qu'des légendes N'oublie jamais qu'on s'f'ra du mouron si t'as pas fait comme les grands J'vois d'jà ta mère faire des duhas, s'exciter dans tous les sens T'auras beau ram'ner les shtars mais j'te dirai jamais décampe Tout c'que j'veux c'est t'voir marcher sur les sentiers du Tout Puissant J'traînerai dehors jusqu'à l'aube mais tiens pas compte de mes absences J'connais la street, mon fils ne s'ra pas un délinquant J'sais pas si j'aurais la force de te gérer Y'a que dans mes écrits que j'tue Quand j'aurai plus rien dans les poches, comment j'ferai Y'a que dans mes écrits que j'tue J'voudrais t'élever à la dure Y'a que dans mes écrits que j'tue Même si j'viens d'la ue-r' J'te guiderai au maximum Connu ta mère en galère, pas grand chose sous le palet Le gabarit d'un balais, j'touchais même pas d'salaire Pâtes salées, en pleine chaleur J'rêvais d'vacances ne serait-c'qu'au Pas-d'Calais Son sage-vi m'a giflé Obligé d'm'impliquer M'appliquer, la fliquer Tout filtrer, mon côté africain M'a quer-ni jusque dans l'affectif Effectivement Entre les meufs qui t'mentent Une éducation où l'affectif manque Là j'étais obligé Elle avait trop de swag, une certaine timidité Les mecs c'est ça que j'aime, faut seulement la mériter Imagine-toi juste une frappe qui te dit la vérité J'sais pas si j'aurais la force de te gérer Y'a que dans mes écrits que j'tue Quand j'aurai plus rien dans les poches, comment j'ferai Y'a que dans mes écrits que j'tue J'voudrais t'élever à la dure Y'a que dans mes écrits que j'tue Même si j'viens d'la ue-r' J'te guiderai au maximum ...1</t>
+          <t>J'sais pas si j'aurais la force de te gérer Y'a que dans mes écrits que j'tue Quand j'aurai plus rien dans les poches, comment j'ferai Y'a que dans mes écrits que j'tue J'voudrais t'élever à la dure Y'a que dans mes écrits que j'tue Même si j'viens d'la ue-r' J'te guiderai au maximum Ta mère m'a dit qu'tu mettais que des coups d'pieds C'est sûrement qu'elle s'défoule, fiston écoute bien J'fais des cascades pour un casse-dalle la nuit Rentre à la casba, faut déjà qu'j'parte taffer J'reçois un texto, ça c'est Dawala Y'a des interviews gros, y'a l'cd dans les bacs Moi j'sais rien faire d'autre, si j'ai pu m'y faire Que vendre ma vieille dope, survivant d'l'enfer Pour que tu t'installes, j'laisse parler ceux qui me disent instable En gros ceux qui m'connaissent pas Qui m'appellent re-sta depuis qu'j'suis loin des res-shta Qui m'aimaient bien que dans la merde mais chacun vit son destin N'est-ce pas, fiston Sache que la vie n'est pas faite que de piston T'as les bras long, ceux qu'on m'a amputé C'est dans le drame qu'on voit les plus gros enculés J't'assure pas, que tes diplômes te seront bénéfiques Si t'assures pas, surtout me ramène jamais les flics J'sais pas si j'aurais la force de te gérer Y'a que dans mes écrits que j'tue Quand j'aurai plus rien dans les poches, comment j'ferai Y'a que dans mes écrits que j'tue J'voudrais t'élever à la dure Y'a que dans mes écrits que j'tue Même si j'viens d'la ue-r' J'te guiderai au maximum Si j'ai cru m'y faire à ce monde de merde qui m'a traumat' Survivant d'l'enfer, le cur calciné, ça fait trop mal Si j'ai su m'y faire, comparé aux autres, j'ai moins d'stigmates Ce monde fait mal, ça t'a traumat', t'as moins d'stigmates et tu t'en tires pas mal J'suis débordé, j'sais même pas par où commencer Mais j'imagine que ça a dû être dur pour toi de m'l'annoncer J'ai du sentir la boule au ventre au bout du fil qui simmisçait Lors du soir où t'as bigo bah c'était bien c'que j'me disais Dissipé quand ça délire t'as comme un poids mais sur la tête Là faut choisir, être un bonhomme ou s'enfuir et faire le traître Faire le test de pater', t'en assurer qu't'en es l'daron Mettre les voiles dans la minute, l'abandonner comme un brigand, ok On f'ra c'qu'il faut pour qu'tu sois quelqu'un d'élégant N'imite jamais les gens qu'affrontent la BRB c'est qu'des légendes N'oublie jamais qu'on s'f'ra du mouron si t'as pas fait comme les grands J'vois d'jà ta mère faire des duhas, s'exciter dans tous les sens T'auras beau ram'ner les shtars mais j'te dirai jamais décampe Tout c'que j'veux c'est t'voir marcher sur les sentiers du Tout Puissant J'traînerai dehors jusqu'à l'aube mais tiens pas compte de mes absences J'connais la street, mon fils ne s'ra pas un délinquant J'sais pas si j'aurais la force de te gérer Y'a que dans mes écrits que j'tue Quand j'aurai plus rien dans les poches, comment j'ferai Y'a que dans mes écrits que j'tue J'voudrais t'élever à la dure Y'a que dans mes écrits que j'tue Même si j'viens d'la ue-r' J'te guiderai au maximum Connu ta mère en galère, pas grand chose sous le palet Le gabarit d'un balais, j'touchais même pas d'salaire Pâtes salées, en pleine chaleur J'rêvais d'vacances ne serait-c'qu'au Pas-d'Calais Son sage-vi m'a giflé Obligé d'm'impliquer M'appliquer, la fliquer Tout filtrer, mon côté africain M'a quer-ni jusque dans l'affectif Effectivement Entre les meufs qui t'mentent Une éducation où l'affectif manque Là j'étais obligé Elle avait trop de swag, une certaine timidité Les mecs c'est ça que j'aime, faut seulement la mériter Imagine-toi juste une frappe qui te dit la vérité J'sais pas si j'aurais la force de te gérer Y'a que dans mes écrits que j'tue Quand j'aurai plus rien dans les poches, comment j'ferai Y'a que dans mes écrits que j'tue J'voudrais t'élever à la dure Y'a que dans mes écrits que j'tue Même si j'viens d'la ue-r' J'te guiderai au maximum ...1</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Maintenant, écoute, celui qui viendra te parler d'une rencontre avec Barzini, ce sera lui le traître, n'oublie pas ça. La technique est brésilienne il me faut un fusil et Laisses les putains s'égosiller On va les bousiller Nerveux quand je vois la Dép' J'suis dehors c'est la fête Savent déjà qu'j'vais les uer-t Mettent des pépettes sur ma tête Cette salope à tout donner c'est pas assez hein Hara Kiri c'est pas assez yeah Cette salope à tout donner c'est pas assez hein Hara Kiri c'est pas assez yeah Torche-toi le cul et respecte nous tout ira mieux Ferme ta gueule et respecte nous tout ira mieux Ok la prod est lourde j'me sens comme Pablo j'fais mon job Des patates dans la cour, des coups d'sse-cro c'est l'minimum J'ai pris le mic bourré, les juges font que d'm'harceler PalpaTeam va t'mêler, pas d'moonwalk, côtes fêlées Boy, quand l'cur hésite la main tremble J'voulais m'barrer mais tout le quartier m'a tenu la jambe Boy, magnum pas d'bouteille, ni de sécurité Boy, j'vis dans un putain d'sas pressurisé Hey, j'ai peu d'amis beaucoup d'inimitiés Hey, y'a des corps terre-pa, j'élimine sans hésiter Hey, j'alimente la ne-zo en tout humilité Genkidama dans leurs mères personnes pourra l'éviter You might also like La technique est brésilienne il me faut un fusil et Laisses les putains s'égosiller On va les bousiller Nerveux quand je vois la Dép' J'suis dehors c'est la fête Savent déjà qu'j'vais les uer-t Mettent des pépettes sur ma tête Cette salope à tout donner c'est pas assez, hein Hara Kiri c'est pas assez yeah Cette salope à tout donner c'est pas assez, hein Hara Kiri c'est pas assez yeah Torche-toi le cul et respecte nous tout ira mieux Ferme ta gueule et respecte nous tout ira mieux C'est la Mannschaft, c'est la Mannschaft J'ai posé mes couilles et le tout sur la table Carré VIP c'est pour les pointeurs et les zoulous piqués qui veulent montrer leur tal' J'ai du bon 'tos, j'ai du bon 'tos ma gueule dis-leur qu'j'fais des réductions Tu r'pars à poil si tu fais l'grossiste, dans l'19ème c'est la tradition Ton équipe de putes nous te garnissons Va tapiner à la télé avec Ardisson, Fogiel J'ai dégainé nous vous haïssons Dans l'mille j'ai du nouveau pour la mission Hosto, j'fais augmenter les admissions Vas-y pousse le son chacal ça flingue C'est pour les mauvais garçons dans l'banks, mets ta bouche par terre ramasse ta seringue hmm hmm hmm Et la douille est passée, ça s'arrose hmm hmm Et le compte est plein hmm Et la mule est passée, ça s'arrose La technique est brésilienne il me faut un fusil et Laisses les putains s'égosiller On va les bousiller Nerveux quand je vois la Dép' J'suis dehors c'est la fête Savent déjà qu'j'vais les uer-t Mette des pépettes sur ma tête Cette salope à tout donner c'est pas assez, hein Hara Kiri c'est pas assez yeah Cette salope à tout donner c'est pas assez, hein Hara Kiri c'est pas assez yeah Torche-toi le cul et respecte nous tout ira mieux Ferme ta gueule et respecte nous tout ira mieux Tu connais les bails ma gueule Respect à toi, longue vie à nous et garde la pêche Respect à toi, longue vie à nous et garde la pêche Cest lui quavait raison Bruce Wayne Bang 2005 Yo What up boy boy1</t>
+          <t>Maintenant, écoute, celui qui viendra te parler d'une rencontre avec Barzini, ce sera lui le traître, n'oublie pas ça. La technique est brésilienne il me faut un fusil et Laisses les putains s'égosiller On va les bousiller Nerveux quand je vois la Dép' J'suis dehors c'est la fête Savent déjà qu'j'vais les uer-t Mettent des pépettes sur ma tête Cette salope à tout donner c'est pas assez hein Hara Kiri c'est pas assez yeah Cette salope à tout donner c'est pas assez hein Hara Kiri c'est pas assez yeah Torche-toi le cul et respecte nous tout ira mieux Ferme ta gueule et respecte nous tout ira mieux Ok la prod est lourde j'me sens comme Pablo j'fais mon job Des patates dans la cour, des coups d'sse-cro c'est l'minimum J'ai pris le mic bourré, les juges font que d'm'harceler PalpaTeam va t'mêler, pas d'moonwalk, côtes fêlées Boy, quand l'cur hésite la main tremble J'voulais m'barrer mais tout le quartier m'a tenu la jambe Boy, magnum pas d'bouteille, ni de sécurité Boy, j'vis dans un putain d'sas pressurisé Hey, j'ai peu d'amis beaucoup d'inimitiés Hey, y'a des corps terre-pa, j'élimine sans hésiter Hey, j'alimente la ne-zo en tout humilité Genkidama dans leurs mères personnes pourra l'éviter La technique est brésilienne il me faut un fusil et Laisses les putains s'égosiller On va les bousiller Nerveux quand je vois la Dép' J'suis dehors c'est la fête Savent déjà qu'j'vais les uer-t Mettent des pépettes sur ma tête Cette salope à tout donner c'est pas assez, hein Hara Kiri c'est pas assez yeah Cette salope à tout donner c'est pas assez, hein Hara Kiri c'est pas assez yeah Torche-toi le cul et respecte nous tout ira mieux Ferme ta gueule et respecte nous tout ira mieux C'est la Mannschaft, c'est la Mannschaft J'ai posé mes couilles et le tout sur la table Carré VIP c'est pour les pointeurs et les zoulous piqués qui veulent montrer leur tal' J'ai du bon 'tos, j'ai du bon 'tos ma gueule dis-leur qu'j'fais des réductions Tu r'pars à poil si tu fais l'grossiste, dans l'19ème c'est la tradition Ton équipe de putes nous te garnissons Va tapiner à la télé avec Ardisson, Fogiel J'ai dégainé nous vous haïssons Dans l'mille j'ai du nouveau pour la mission Hosto, j'fais augmenter les admissions Vas-y pousse le son chacal ça flingue C'est pour les mauvais garçons dans l'banks, mets ta bouche par terre ramasse ta seringue hmm hmm hmm Et la douille est passée, ça s'arrose hmm hmm Et le compte est plein hmm Et la mule est passée, ça s'arrose La technique est brésilienne il me faut un fusil et Laisses les putains s'égosiller On va les bousiller Nerveux quand je vois la Dép' J'suis dehors c'est la fête Savent déjà qu'j'vais les uer-t Mette des pépettes sur ma tête Cette salope à tout donner c'est pas assez, hein Hara Kiri c'est pas assez yeah Cette salope à tout donner c'est pas assez, hein Hara Kiri c'est pas assez yeah Torche-toi le cul et respecte nous tout ira mieux Ferme ta gueule et respecte nous tout ira mieux Tu connais les bails ma gueule Respect à toi, longue vie à nous et garde la pêche Respect à toi, longue vie à nous et garde la pêche Cest lui quavait raison Bruce Wayne Bang 2005 Yo What up boy boy1</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa Perdu de vue depuis dix ans Moi qui mdisais Mon aller-retour serait vite-fait Jai perdu ma route comme un tiseur Parti trop tôt dchez moi sans être avisé La déchéance de lhomme ma tétanisé Et certains dentre nous préfèrent lignorer Les yeux fermés à jamais Parti trop tôt dchez moi sans être avisé La déchéance de lhomme ma tétanisé Et certains dentre nous préfèrent lignorer Les yeux fermés à jamais If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa You might also like Ça fait déjà une décennie que je sais quje nreviendrai plus Je fais le tour de la Terre de leuphorie au garde-à-vous Jusquà la fin dmes jours, loin de vous Jusquà la fin dmes jours, loin de vous If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa Perdu de vue depuis dix ans Moi qui mdisais Mon aller-retour serait vite-fait Jai perdu ma route comme un tiseur</t>
+          <t>If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa Perdu de vue depuis dix ans Moi qui mdisais Mon aller-retour serait vite-fait Jai perdu ma route comme un tiseur Parti trop tôt dchez moi sans être avisé La déchéance de lhomme ma tétanisé Et certains dentre nous préfèrent lignorer Les yeux fermés à jamais Parti trop tôt dchez moi sans être avisé La déchéance de lhomme ma tétanisé Et certains dentre nous préfèrent lignorer Les yeux fermés à jamais If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa Ça fait déjà une décennie que je sais quje nreviendrai plus Je fais le tour de la Terre de leuphorie au garde-à-vous Jusquà la fin dmes jours, loin de vous Jusquà la fin dmes jours, loin de vous If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa Perdu de vue depuis dix ans Moi qui mdisais Mon aller-retour serait vite-fait Jai perdu ma route comme un tiseur</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Epargnez-moi vos partouzes, on les frappe tous 7.5 les zoulous, je les tue par douze Come back c'est la frappe dans les bacs couz Casses toi, tu fais du rap, j'suis la bad news Trop de putains veulent graille, ils vont pas gater mes bails Gros big up à ma maille, ils sont bons qu'à taper des rails Sont bons quà sucer des eue-q, check fais péter les watts Je suis satisfait quand les you-v mettent mon son dans les bat' Je suis satisfait quand les nazes foutent mon son dans les boites Je te connais a-p oi-t, tu me checkes a-p x3 Le 7.5 ma gueule, ça va défoncer vos enceintes Depuis le temps qu'on les esquinte C'est le 7.5 Plus qu'une seule idée être le meilleur à Paname Plus qu'une seule idée la concu n'est pas là Plus qu'une seule idée si t'es fêlé, fais-le Plus qu'une seule idée ???? faut les ver-le Pètes ton sbah, bouges ta tête Et quand le 7.5 frappe, bouges ta tête Ça vient des ghettos chics, man, bouges ta tête C'est que du son, paniques a-p, bouges ta tête Pourquoi tu guettes comme ça, bouges ta tête x2 C'est que du son, paniques a-p, bouges ta tête Ça vient des ghettos chics, man, bouges ta tête You might also like C'est Jarod, je baraude, galope salope, j'arrose J'ai pas reu-p, balance, carotte, c'est le même taro J'ai perdu trop de potes, j'ai des raisons dêtre paro 365 jours des grillages et cinq barreaux 1.9 y'a la hass quand mes gars seront libérés T'as un 9 dans ta caisse, dis toi bien que tu vas tirer Comme un coup de machette, je te la ai-f one shoot Ton équipe est H.S, faut la foutre aux chiottes Les gens m'entendent pper-ra et croient que je joues Si j'ai haja avec toi, je vais pas te mettre en joue C'est le zoo, comment allez-vous ? Ce mec a un flingue putain de merde, barrez-vous Le 7.5 ma gueule, ça va défoncer vos enceintes Depuis le temps qu'on les esquinte C'est le 7.5 Plus qu'une seule idée être le meilleur à Paname Plus qu'une seule idée la concu n'est pas là Plus qu'une seule idée si t'es fêlé, fais-le Plus qu'une seule idée ???? faut les ver-le Pètes ton sbah, bouges ta tête Et quand le 7.5 frappe, bouges ta tête Ça vient des ghettos chics, man, bouges ta tête C'est que du son, paniques a-p, bouges ta tête Pourquoi tu guettes comme ça, bouges ta tête x2 C'est que du son, paniques a-p, bouges ta tête Ça vient des ghettos chics, man, bouges ta tête Fais pas genre tu connais pas , on arrive, on te met le tarif....</t>
+          <t>Epargnez-moi vos partouzes, on les frappe tous 7.5 les zoulous, je les tue par douze Come back c'est la frappe dans les bacs couz Casses toi, tu fais du rap, j'suis la bad news Trop de putains veulent graille, ils vont pas gater mes bails Gros big up à ma maille, ils sont bons qu'à taper des rails Sont bons quà sucer des eue-q, check fais péter les watts Je suis satisfait quand les you-v mettent mon son dans les bat' Je suis satisfait quand les nazes foutent mon son dans les boites Je te connais a-p oi-t, tu me checkes a-p x3 Le 7.5 ma gueule, ça va défoncer vos enceintes Depuis le temps qu'on les esquinte C'est le 7.5 Plus qu'une seule idée être le meilleur à Paname Plus qu'une seule idée la concu n'est pas là Plus qu'une seule idée si t'es fêlé, fais-le Plus qu'une seule idée ???? faut les ver-le Pètes ton sbah, bouges ta tête Et quand le 7.5 frappe, bouges ta tête Ça vient des ghettos chics, man, bouges ta tête C'est que du son, paniques a-p, bouges ta tête Pourquoi tu guettes comme ça, bouges ta tête x2 C'est que du son, paniques a-p, bouges ta tête Ça vient des ghettos chics, man, bouges ta tête C'est Jarod, je baraude, galope salope, j'arrose J'ai pas reu-p, balance, carotte, c'est le même taro J'ai perdu trop de potes, j'ai des raisons dêtre paro 365 jours des grillages et cinq barreaux 1.9 y'a la hass quand mes gars seront libérés T'as un 9 dans ta caisse, dis toi bien que tu vas tirer Comme un coup de machette, je te la ai-f one shoot Ton équipe est H.S, faut la foutre aux chiottes Les gens m'entendent pper-ra et croient que je joues Si j'ai haja avec toi, je vais pas te mettre en joue C'est le zoo, comment allez-vous ? Ce mec a un flingue putain de merde, barrez-vous Le 7.5 ma gueule, ça va défoncer vos enceintes Depuis le temps qu'on les esquinte C'est le 7.5 Plus qu'une seule idée être le meilleur à Paname Plus qu'une seule idée la concu n'est pas là Plus qu'une seule idée si t'es fêlé, fais-le Plus qu'une seule idée ???? faut les ver-le Pètes ton sbah, bouges ta tête Et quand le 7.5 frappe, bouges ta tête Ça vient des ghettos chics, man, bouges ta tête C'est que du son, paniques a-p, bouges ta tête Pourquoi tu guettes comme ça, bouges ta tête x2 C'est que du son, paniques a-p, bouges ta tête Ça vient des ghettos chics, man, bouges ta tête Fais pas genre tu connais pas , on arrive, on te met le tarif....</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Tu m'ennuies, moi aussi, viens on parle Sur qui? Deux, trois, Caraba, Maléfique Chut, chut, chut, chut tout c'qu'elles disent Chut, chut, chut, chut que des bêtises Des bêtises des hypocrites ah, des hypocrites ah Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, j'te dis que l'homme est du-per Je les ai vus sur Twitter te faire Comment tu veux dire que tout est fake? Les bâtards ont noté tous les faits De quoi faire un coup d'état Mon ami, faut que tu disparaisses Tout ce qu'on dit sur toi m'agresse Amis et ennemis disent tous pareil, reprends-toi You might also like Mais tout est faux, Black J'ai déjà payé la pension, on m'dit no, no, no C'est parce qu'ils disent, tout est faux, Black J'ai payé la pension, mais on m'dit no, no, no Sois gentil, épargne-nous les détails J'ai grandi, ça n'me fait plus de mal ah, ah oui Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui La prochaine fois qu't'entends des messes basses Crois pas qu't'as dead ça, mes potos laissent ça La prochaine fois qu't'entends des messes basses Crois pas qu't'as dead ça, mes potos laissent ça Tu n'es qu'un mytho, igo, d'après toutes celles que t'as côtoyées Tu es mon gars, quoi qu'il arrive, le poisson, je vais le noyer Monsieur le juge, la vérité, ce n'est pas mérité Ce n'est que la célébrité, question de crédibilité Mais tout est faux, Black non, non J'ai déjà payé la pension, on m'dit no, no, no C'est parce qu'ils disent, tout est faux, Black non, non J'ai payé la pension, mais on m'dit no, no, no Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, j'te dis que l'homme est du-per Y a beaucoup trop de pipelettes Très peu de gens qui t'aident À deux doigts d'te quitter, j'ai quitté, faut quitter Beaucoup trop de mythos, ils veulent nous imiter Tu fais sonner mon bigo, mais t'es pas invité J'suis avec Portoricaine, on décale un week-end Au soleil, en hiver, loin des langues de vipère Côté sur l'appuie-tête, casquette de capitaine Si leur vie est vilaine, bah, la nôtre est super Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal mais, mais, mais, mais Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, j'te dis que l'homme est du-per</t>
+          <t>Tu m'ennuies, moi aussi, viens on parle Sur qui? Deux, trois, Caraba, Maléfique Chut, chut, chut, chut tout c'qu'elles disent Chut, chut, chut, chut que des bêtises Des bêtises des hypocrites ah, des hypocrites ah Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, j'te dis que l'homme est du-per Je les ai vus sur Twitter te faire Comment tu veux dire que tout est fake? Les bâtards ont noté tous les faits De quoi faire un coup d'état Mon ami, faut que tu disparaisses Tout ce qu'on dit sur toi m'agresse Amis et ennemis disent tous pareil, reprends-toi Mais tout est faux, Black J'ai déjà payé la pension, on m'dit no, no, no C'est parce qu'ils disent, tout est faux, Black J'ai payé la pension, mais on m'dit no, no, no Sois gentil, épargne-nous les détails J'ai grandi, ça n'me fait plus de mal ah, ah oui Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui La prochaine fois qu't'entends des messes basses Crois pas qu't'as dead ça, mes potos laissent ça La prochaine fois qu't'entends des messes basses Crois pas qu't'as dead ça, mes potos laissent ça Tu n'es qu'un mytho, igo, d'après toutes celles que t'as côtoyées Tu es mon gars, quoi qu'il arrive, le poisson, je vais le noyer Monsieur le juge, la vérité, ce n'est pas mérité Ce n'est que la célébrité, question de crédibilité Mais tout est faux, Black non, non J'ai déjà payé la pension, on m'dit no, no, no C'est parce qu'ils disent, tout est faux, Black non, non J'ai payé la pension, mais on m'dit no, no, no Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, j'te dis que l'homme est du-per Y a beaucoup trop de pipelettes Très peu de gens qui t'aident À deux doigts d'te quitter, j'ai quitté, faut quitter Beaucoup trop de mythos, ils veulent nous imiter Tu fais sonner mon bigo, mais t'es pas invité J'suis avec Portoricaine, on décale un week-end Au soleil, en hiver, loin des langues de vipère Côté sur l'appuie-tête, casquette de capitaine Si leur vie est vilaine, bah, la nôtre est super Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal mais, mais, mais, mais Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, j'te dis que l'homme est du-per</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>J'avoue y avait toute la team quand on l'a ken Laisse-la vivre quelques semaines Scarifie son corps ensuite balance dans la Seine Je te laisse faire ton gravon pendant qu'on reste zen T'es dans les problèmes my nigga Quoi de neuf gravon ? Les problèmes my nigga Fais pas trop le savon, quoi de neuf gravon ? Il passe le savon Fais pas trop le savant ou tu te feras lessiver Esquive-les dehors À ce qu'il parait tu tires dans les jambes et tu rigoles Zoulou on m'appelle John Wayne, viens nous voir à jeun Ça fait 15 ans qu'on est là, putain mais retourne à l'école T'es que de la chair à canon, ouais ça va enjailler l'engin Petite tapine au collège ensuite veut michetonner un grand du tieks J'arrive c'est nous les grands du tieks, monte dans la tchop Tu vas juste gratter la bouteile, un KFC et stop Putain de génération niqué, ouais tous les jours, elle m'choque Bref, je suis nouveau dans la fête, j'ai fait des kilomètres Mon zoulou tu vas yer-p', mon zoulou tu vas ier-ch Quand tu verras la team Quand tu verras qu'on frime pas, qu'on connait bien le crime J'parle peu, je connais bien mes classiques et mes racines Monnaie facile, roro massif, état raciste démocratie Ça rime mal, j'envoie comme Beenie Man L'habit, le moine, trahir chez moi c'est illégal, boy You might also like J'avoue y avait toute la team quand on l'a ken Laisse-la vivre quelques semaines Scarifie son corps ensuite balance dans la Seine Je te laisse faire ton gravon pendant qu'on reste zen T'es dans les problèmes my nigga Quoi de neuf gravon ? Les problèmes my nigga Fais pas trop le savon, quoi de neuf gravon ? Il passe le savon Fais pas trop le savant ou tu te feras lessiver Esquive-les dehors J'arrive tout seul je vous bousille Maitrise langage du Uzi, pose ton vuca dans le jacuzzi On savait que c'était ta cousine, mon laud-sa, mais on s'en beurre Même les petits du coin sont passés dessus, gava, elle aime le beurre Qu'on arrive jamais à l'heure, habitudes d'ancien voleur Plus matrixé tu meurs, ouais mon zoulou, elle aime le beurre Casse-toi, je veux pas de limousine, je veux juste une son-mai pour Maman On m'appelle brother, mon zinc j'arrive je fais l'effet d'un calmant Zoulou je te laisse le bas-monde, et tout ce qu'il englobe Zoulou je te mets plus d'amende, tu me paieras là-haut Ils font les dingues, ils me connaissent bien, ils oublient On va les uer-t, ils vont entendre brrrr fin du conflit Mon zoulou viens nous voir dans le zoo et ouais l'ambiance est cosy Malgré beaucoup de charos en chien, des ches-lâ comme sarkozy J'avoue y avait toute la team quand on l'a ken Laisse-la vivre quelques semaines Scarifie son corps ensuite balance dans la Seine Je te laisse faire gravon pendant qu'on reste zen T'es dans les problèmes my nigga Quoi de neuf gravon ? Les problèmes my nigga Fais pas trop le savon, quoi de neuf gravon ? Il passe le savon Fais pas trop le savant ou tu te feras lessiver Esquive-les dehors Ouais mon gars c'est comment ? Ici la Source Ha j'ai entendu les histoires, c'est bon c'est réglé ? Il s'est vé-squi RDV au top Là où ça donne la calvitie Torse nu, calibré même en calcif Hé ! Fuck ton arbitre Armée, donnes-moi le reflet sur ta vitre teintée</t>
+          <t>J'avoue y avait toute la team quand on l'a ken Laisse-la vivre quelques semaines Scarifie son corps ensuite balance dans la Seine Je te laisse faire ton gravon pendant qu'on reste zen T'es dans les problèmes my nigga Quoi de neuf gravon ? Les problèmes my nigga Fais pas trop le savon, quoi de neuf gravon ? Il passe le savon Fais pas trop le savant ou tu te feras lessiver Esquive-les dehors À ce qu'il parait tu tires dans les jambes et tu rigoles Zoulou on m'appelle John Wayne, viens nous voir à jeun Ça fait 15 ans qu'on est là, putain mais retourne à l'école T'es que de la chair à canon, ouais ça va enjailler l'engin Petite tapine au collège ensuite veut michetonner un grand du tieks J'arrive c'est nous les grands du tieks, monte dans la tchop Tu vas juste gratter la bouteile, un KFC et stop Putain de génération niqué, ouais tous les jours, elle m'choque Bref, je suis nouveau dans la fête, j'ai fait des kilomètres Mon zoulou tu vas yer-p', mon zoulou tu vas ier-ch Quand tu verras la team Quand tu verras qu'on frime pas, qu'on connait bien le crime J'parle peu, je connais bien mes classiques et mes racines Monnaie facile, roro massif, état raciste démocratie Ça rime mal, j'envoie comme Beenie Man L'habit, le moine, trahir chez moi c'est illégal, boy J'avoue y avait toute la team quand on l'a ken Laisse-la vivre quelques semaines Scarifie son corps ensuite balance dans la Seine Je te laisse faire ton gravon pendant qu'on reste zen T'es dans les problèmes my nigga Quoi de neuf gravon ? Les problèmes my nigga Fais pas trop le savon, quoi de neuf gravon ? Il passe le savon Fais pas trop le savant ou tu te feras lessiver Esquive-les dehors J'arrive tout seul je vous bousille Maitrise langage du Uzi, pose ton vuca dans le jacuzzi On savait que c'était ta cousine, mon laud-sa, mais on s'en beurre Même les petits du coin sont passés dessus, gava, elle aime le beurre Qu'on arrive jamais à l'heure, habitudes d'ancien voleur Plus matrixé tu meurs, ouais mon zoulou, elle aime le beurre Casse-toi, je veux pas de limousine, je veux juste une son-mai pour Maman On m'appelle brother, mon zinc j'arrive je fais l'effet d'un calmant Zoulou je te laisse le bas-monde, et tout ce qu'il englobe Zoulou je te mets plus d'amende, tu me paieras là-haut Ils font les dingues, ils me connaissent bien, ils oublient On va les uer-t, ils vont entendre brrrr fin du conflit Mon zoulou viens nous voir dans le zoo et ouais l'ambiance est cosy Malgré beaucoup de charos en chien, des ches-lâ comme sarkozy J'avoue y avait toute la team quand on l'a ken Laisse-la vivre quelques semaines Scarifie son corps ensuite balance dans la Seine Je te laisse faire gravon pendant qu'on reste zen T'es dans les problèmes my nigga Quoi de neuf gravon ? Les problèmes my nigga Fais pas trop le savon, quoi de neuf gravon ? Il passe le savon Fais pas trop le savant ou tu te feras lessiver Esquive-les dehors Ouais mon gars c'est comment ? Ici la Source Ha j'ai entendu les histoires, c'est bon c'est réglé ? Il s'est vé-squi RDV au top Là où ça donne la calvitie Torse nu, calibré même en calcif Hé ! Fuck ton arbitre Armée, donnes-moi le reflet sur ta vitre teintée</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Eh mais t'entends pas ou quoi ? Yeah, c'est Jacky Brown et Ben-J Accompagnés du Docteur Bériz Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques Mais je reste debout Ce n'est pas la peine d'appeler les pompiers tant que j'respire N'appelez pas les pompes funèbres tant qu'la bonne musique m'inspire Et ouais les gars, j'ai tout vu, j'ai connu les hauts, les bas Mais n'en faites pas tout un débat, pas de hasard si on est là Capitaine de mon bateau, mister Jacky Brown garde le cap J'ai partagé mon gâteau la vie m'a quand même mis des claques Acteur et metteur en scène de mon propre long métrage J'ai toujours assumé mes réussites et mes naufrages Leur soi-disant game franchement m'a fatigué Mais mon orgueil et ma fierté m'empêchent de capituler Donc on come back again malgré les difficultés J'aime entendre mon fiston crier Vas-y Papa tue-les Aujourd'hui j'ferai plus croquer personne à part mon chien Vu qu'les Hommes sont tous des vampires Te sucent de tout ton sang quand tu leur tends la main Ils te souhaitent la mort avec le sourire You might also like Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques J'ai pris de l'âge, j'me sens fatigué Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques Mais je reste debout Les mecs comme moi qui gardent leurs souvenirs Comme si Picasso l'avait peinte en personne Mon berceau à moi, c'est bien l'Afrique Je ne fais pas la guerre pour une soi-disant terre sainte Je paye mes fautes pour ma part Je paye mes fautes pour ma part Si tu l'sais pas, j'te le dis Les mecs comme moi se font tous seuls Comme Shin Shekaï disait du berceau au linceul Je n'suiverai pas les gens qui disent Des balles il pleut Je vis pour donner de l'espoir à ceux qui l'veulent Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques J'ai pris de l'âge, j'me sens fatigué Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques Mais je reste debout Tu veux savoir combien j'pèse, si j'prends du bif Si la musique ça paie, combien rapportent mes classiques On est jamais assez préparé pour le succès Le showbiz laisse plus de traces que les tatoos à Djibril Cissé Strass et paillettes, gros gamos, red carpet Que de gros rêves de plomb sur un matelas rempli de pépettes Hmm, la rançon de la gloire c'est trop hard Comme un boxeur faut encaisser pour être le La vie nous met des claques La vie a un prix pour chacun La vie une piste noire, j'zigzague entre les fauves et les requins J'vous laisse rêver du star system Mon empreinte rouge sang pour emblème Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques J'ai pris de l'âge, j'me sens fatigué Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques Mais je reste debout Tic tac, de pas à pas j'arrive à mon destin La vie te met une claque si t'es mesquin Tic tac, de pas à pas j'arrive à mon destin La vie te met une claque si t'es mesquin Eh Jacky, mes frères sont à bout Eh baby, l'Afrique est à genoux</t>
+          <t>Eh mais t'entends pas ou quoi ? Yeah, c'est Jacky Brown et Ben-J Accompagnés du Docteur Bériz Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques Mais je reste debout Ce n'est pas la peine d'appeler les pompiers tant que j'respire N'appelez pas les pompes funèbres tant qu'la bonne musique m'inspire Et ouais les gars, j'ai tout vu, j'ai connu les hauts, les bas Mais n'en faites pas tout un débat, pas de hasard si on est là Capitaine de mon bateau, mister Jacky Brown garde le cap J'ai partagé mon gâteau la vie m'a quand même mis des claques Acteur et metteur en scène de mon propre long métrage J'ai toujours assumé mes réussites et mes naufrages Leur soi-disant game franchement m'a fatigué Mais mon orgueil et ma fierté m'empêchent de capituler Donc on come back again malgré les difficultés J'aime entendre mon fiston crier Vas-y Papa tue-les Aujourd'hui j'ferai plus croquer personne à part mon chien Vu qu'les Hommes sont tous des vampires Te sucent de tout ton sang quand tu leur tends la main Ils te souhaitent la mort avec le sourire Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques J'ai pris de l'âge, j'me sens fatigué Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques Mais je reste debout Les mecs comme moi qui gardent leurs souvenirs Comme si Picasso l'avait peinte en personne Mon berceau à moi, c'est bien l'Afrique Je ne fais pas la guerre pour une soi-disant terre sainte Je paye mes fautes pour ma part Je paye mes fautes pour ma part Si tu l'sais pas, j'te le dis Les mecs comme moi se font tous seuls Comme Shin Shekaï disait du berceau au linceul Je n'suiverai pas les gens qui disent Des balles il pleut Je vis pour donner de l'espoir à ceux qui l'veulent Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques J'ai pris de l'âge, j'me sens fatigué Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques Mais je reste debout Tu veux savoir combien j'pèse, si j'prends du bif Si la musique ça paie, combien rapportent mes classiques On est jamais assez préparé pour le succès Le showbiz laisse plus de traces que les tatoos à Djibril Cissé Strass et paillettes, gros gamos, red carpet Que de gros rêves de plomb sur un matelas rempli de pépettes Hmm, la rançon de la gloire c'est trop hard Comme un boxeur faut encaisser pour être le La vie nous met des claques La vie a un prix pour chacun La vie une piste noire, j'zigzague entre les fauves et les requins J'vous laisse rêver du star system Mon empreinte rouge sang pour emblème Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques J'ai pris de l'âge, j'me sens fatigué Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques Mais je reste debout Tic tac, de pas à pas j'arrive à mon destin La vie te met une claque si t'es mesquin Tic tac, de pas à pas j'arrive à mon destin La vie te met une claque si t'es mesquin Eh Jacky, mes frères sont à bout Eh baby, l'Afrique est à genoux</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Ils ont qu'à dire c'est le rap à l'ancienne bats les couilles j'suis lancé J'ai fait quelques diamants ils veulent me faire tout recommencer J'étais posé au tierquar fallait que je fasse mon billet car Les gens sont froids là bas poto même en été ça yéca En face ils pensent qu'à streamer ici on veut juste s'exprimer Trop vrai pour être acteur je préfère prendre des mots les fair rimer Salam aux détracteurs j'sais qu'ils font partie ds opprimés Oui très peu m'ont compris mais j'suis encore là pas d'R.I.P Et souvent quand je pense 10 ans en arrière Je me dis hmm macha'Allah la carrière Bref pas là pour parler de moi enfin si Et puis mais pourquoi les petits de chez moi se croient invincibles ? J'ai des flashs j'aimerais pouvoir retourner dans le passé J'étais sous flash je me disais mais qu'est ce que je vais faire dans le futur Aujourd'hui je les entends dire aaah il est sur sa route Quitte à choisir je veux pas être sur la vôtre allez vous faire foutre Entre musique et vie réelle aaah je me trompe peut-être Y'a celui qui joue et celui qui va souffler dans la trompette C'est pas à moi de juger tout ce qu'ils font frère Est ce que tu sais ce qui se cache derrière ce putain de fond vert ? J'aimerais tellement me venger avant de me ranger Mais si je fonce tête baissée ils vont me prendre pour un dérangé 10 ans à douter la musique m'a envoûté Comme Paul mon fils commence à me demander papa où t'es ? Les gens de ma ville m'élèvent Le coeur à Paris le cerveau sur une île déserte Quand j'ai la haine j'essaye de faire un signe à mon ascendant Je mettrai de l'eau dans mon vin quand il aura 100 ans Les keufs se sont levés plus tôt que la daronne Y'a les chemins qui mènent au hebs et les autres à Rome Dis leur que t'as faim ils vont juste te mettre des carottes Si ils sont 20 et qu'j'suis tout seul wAllah que j'ai pas reup Petit frère s'est fait planter pas loin du jardin dans le jargon On est très loin des films de Dujardin Comme si j'avais du sang sur la mano Du sang sur la mano Ils m'ont rendu parano Ils m'ont rendu parano Je suis seul dans mon viano Je suis seul je suis seul Je suis triste comme un piano Vos regards me font peur me font perdre confiance Laissez moi dans mon coin je risque de plomber l'ambiance Je me méfie comme de celui qui pose le regard sur ma fille Bizarre quand tu veux donner on veut te prendre ta vie Mon gilet pare balles est troué juste au niveau du coeur Okay prenez ce que vous voulez mais laissez moi un joker J'essaie pas de vous faire de la peine veuillez garder votre compassion Si tu viens juger ma vie bien sûr qu'y'aura confrontation Je me suis retrouvé dans tout ce bordel juste par passion PS Je suis celui qui marque dans les prolongations You might also like On va tous finir au sol pour le simple fait qu'on respire Ceux qui sont encore debout se consolident ou bien se méprisent Motivés par la chaleur et le prestige D'où je viens y'avait pas grand chose Le temps de rêver du top on y était Mon petit frère on essaie juste de vivre Légendaire depuis le binks un exemple pour ma ville D'où je viens ma vie est gravée comme dans un livre D'où je viens ma vie est gravée comme dans un livre Comme dans un livre</t>
+          <t>Ils ont qu'à dire c'est le rap à l'ancienne bats les couilles j'suis lancé J'ai fait quelques diamants ils veulent me faire tout recommencer J'étais posé au tierquar fallait que je fasse mon billet car Les gens sont froids là bas poto même en été ça yéca En face ils pensent qu'à streamer ici on veut juste s'exprimer Trop vrai pour être acteur je préfère prendre des mots les fair rimer Salam aux détracteurs j'sais qu'ils font partie ds opprimés Oui très peu m'ont compris mais j'suis encore là pas d'R.I.P Et souvent quand je pense 10 ans en arrière Je me dis hmm macha'Allah la carrière Bref pas là pour parler de moi enfin si Et puis mais pourquoi les petits de chez moi se croient invincibles ? J'ai des flashs j'aimerais pouvoir retourner dans le passé J'étais sous flash je me disais mais qu'est ce que je vais faire dans le futur Aujourd'hui je les entends dire aaah il est sur sa route Quitte à choisir je veux pas être sur la vôtre allez vous faire foutre Entre musique et vie réelle aaah je me trompe peut-être Y'a celui qui joue et celui qui va souffler dans la trompette C'est pas à moi de juger tout ce qu'ils font frère Est ce que tu sais ce qui se cache derrière ce putain de fond vert ? J'aimerais tellement me venger avant de me ranger Mais si je fonce tête baissée ils vont me prendre pour un dérangé 10 ans à douter la musique m'a envoûté Comme Paul mon fils commence à me demander papa où t'es ? Les gens de ma ville m'élèvent Le coeur à Paris le cerveau sur une île déserte Quand j'ai la haine j'essaye de faire un signe à mon ascendant Je mettrai de l'eau dans mon vin quand il aura 100 ans Les keufs se sont levés plus tôt que la daronne Y'a les chemins qui mènent au hebs et les autres à Rome Dis leur que t'as faim ils vont juste te mettre des carottes Si ils sont 20 et qu'j'suis tout seul wAllah que j'ai pas reup Petit frère s'est fait planter pas loin du jardin dans le jargon On est très loin des films de Dujardin Comme si j'avais du sang sur la mano Du sang sur la mano Ils m'ont rendu parano Ils m'ont rendu parano Je suis seul dans mon viano Je suis seul je suis seul Je suis triste comme un piano Vos regards me font peur me font perdre confiance Laissez moi dans mon coin je risque de plomber l'ambiance Je me méfie comme de celui qui pose le regard sur ma fille Bizarre quand tu veux donner on veut te prendre ta vie Mon gilet pare balles est troué juste au niveau du coeur Okay prenez ce que vous voulez mais laissez moi un joker J'essaie pas de vous faire de la peine veuillez garder votre compassion Si tu viens juger ma vie bien sûr qu'y'aura confrontation Je me suis retrouvé dans tout ce bordel juste par passion PS Je suis celui qui marque dans les prolongations On va tous finir au sol pour le simple fait qu'on respire Ceux qui sont encore debout se consolident ou bien se méprisent Motivés par la chaleur et le prestige D'où je viens y'avait pas grand chose Le temps de rêver du top on y était Mon petit frère on essaie juste de vivre Légendaire depuis le binks un exemple pour ma ville D'où je viens ma vie est gravée comme dans un livre D'où je viens ma vie est gravée comme dans un livre Comme dans un livre</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Peu importe c'que tu fais, un d'ces quatre tu payes Que ce soit ici ou ailleurs, Beriz mets les à l'heure Je suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Témoins d'c'que vous voyez pas Quand tout le monde part c'est eux qui veillent sur moi C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent Les yeux ouverts dans la matinée En portant le regard sur tous ceux qui m'ont freiné Je prends une douche froide, grille une clope et sors pour prier Une présence qui m'observe, mon passé qui m'obsède Je suis en excès, j'attends pas le succès J'ai pas besoin d'me prendre la tête, je sais qu'ils veillent sur moi J'ai pas besoin d'être prise de tête, je sais qu'ils veillent sur moi Je suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Témoins d'c'que vous voyez pas Quand tout le monde part c'est eux qui veillent sur moi C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent You might also like Maman m'a dit sort, va chercher de quoi vivre À la s'conde j'étais dehors, tout en esquivant les flics Ma démarche a changé poto, j'suis devenu deuss Essaie de me pointer si à cause du goudron dans la beuj' Rien que j'les rends ouf dans ma zone Beriz est d'sorti et il a les crocs Petit fait pas l'malin, dis-moi qu'est-c'que tu connais J'laisse mes affaires entre tes mains pour voir qu'est-c'que tu commets La rue n'a pas d'pitié, négro tu veux briller Tes adversaires t'effacent pour un billet La jalousie du charme et si tu t'poses elle va t'sucer Elle fera ça tellement bien qu'elle pourrait t'parler du suicide Et toi comme un con tu sors ton Beretta et règle tes affaires Comment faire quand t'as un fer ? C'est l'enfer et je m'y plaîs Je soigne mes plaies et j'suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Témoins d'c'que vous voyez pas Quand tout le monde part c'est eux qui veillent sur moi C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent Garde la foi p'tit frère, peu importe c'que tu fais Les gens qui t'jugent, sont ceux qui ont à faire à l'enfer Leur facture est salée, on les nomme les obsédés C'est eux qui gagnent mais un d'ces quatre ils s'feront fourrer Ils perdront la tête en cherchant leur chance Entourés par le diable dans n'importe quel sens Ce jour-là c'est toi qui s'ras vainqueur Pas parc'que t'es le meilleur mais parc'que t'as du cur, nigga Mais tout se paye passe à la caisse nigga Tourne la page si t'as fini C'est eux qui payent bien sûr Et toi qui passes Je suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Témoins d'c'que vous voyez pas Quand tout le monde part c'est eux qui veillent sur moi C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent Je suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Témoins d'c'que vous voyez pas Quand tout le monde part c'est eux qui veillent sur moi C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent3</t>
+          <t>Peu importe c'que tu fais, un d'ces quatre tu payes Que ce soit ici ou ailleurs, Beriz mets les à l'heure Je suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Témoins d'c'que vous voyez pas Quand tout le monde part c'est eux qui veillent sur moi C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent Les yeux ouverts dans la matinée En portant le regard sur tous ceux qui m'ont freiné Je prends une douche froide, grille une clope et sors pour prier Une présence qui m'observe, mon passé qui m'obsède Je suis en excès, j'attends pas le succès J'ai pas besoin d'me prendre la tête, je sais qu'ils veillent sur moi J'ai pas besoin d'être prise de tête, je sais qu'ils veillent sur moi Je suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Témoins d'c'que vous voyez pas Quand tout le monde part c'est eux qui veillent sur moi C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent Maman m'a dit sort, va chercher de quoi vivre À la s'conde j'étais dehors, tout en esquivant les flics Ma démarche a changé poto, j'suis devenu deuss Essaie de me pointer si à cause du goudron dans la beuj' Rien que j'les rends ouf dans ma zone Beriz est d'sorti et il a les crocs Petit fait pas l'malin, dis-moi qu'est-c'que tu connais J'laisse mes affaires entre tes mains pour voir qu'est-c'que tu commets La rue n'a pas d'pitié, négro tu veux briller Tes adversaires t'effacent pour un billet La jalousie du charme et si tu t'poses elle va t'sucer Elle fera ça tellement bien qu'elle pourrait t'parler du suicide Et toi comme un con tu sors ton Beretta et règle tes affaires Comment faire quand t'as un fer ? C'est l'enfer et je m'y plaîs Je soigne mes plaies et j'suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Témoins d'c'que vous voyez pas Quand tout le monde part c'est eux qui veillent sur moi C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent Garde la foi p'tit frère, peu importe c'que tu fais Les gens qui t'jugent, sont ceux qui ont à faire à l'enfer Leur facture est salée, on les nomme les obsédés C'est eux qui gagnent mais un d'ces quatre ils s'feront fourrer Ils perdront la tête en cherchant leur chance Entourés par le diable dans n'importe quel sens Ce jour-là c'est toi qui s'ras vainqueur Pas parc'que t'es le meilleur mais parc'que t'as du cur, nigga Mais tout se paye passe à la caisse nigga Tourne la page si t'as fini C'est eux qui payent bien sûr Et toi qui passes Je suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Témoins d'c'que vous voyez pas Quand tout le monde part c'est eux qui veillent sur moi C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent Je suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Témoins d'c'que vous voyez pas Quand tout le monde part c'est eux qui veillent sur moi C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent3</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Tinquiète elle est pas comme les autres, elle est pas sotte Bosseuse, elle a pas ltime elle est frais comme personne Ce nest quune question dtemps ce nest quune question dépiderme Car lamour ne suffit plus et que la haine nous dissout Cétait pas la bonne, qui sait pas les mêmes ambitions Quen sais-je ? Pas les mêmes accords uon jouait, ya pas dsecret On a perdu le fil car ça n'allait pas trop, nos familles sdéchirent Petit à petit jmabandonne rien qujenquille des culs-secs Jai donné tout cque javais jamais je ntai trahi crois-moi Sur les réseaux sociaux jamais donné mon numéro On aurait pu faire un bon bout dtrajet même partir en séjour planète ou movie Jréalise, parle pas dkhaliss, prends tes valises Cest tout cquil y avait entre elle et moi Cest tout cquil y avait entre elle et moi Cquil y avait, cquil y avait, cquil y avait Si tu ne le vois pas, jpeux pas texpliquer la situation Tu ne le vois pas, jpeux pas texpliquer la situation Fallait bien quun jour les choses bloquent depuis lépoque il te manipulait Ramène plus jamais ce sale Noir Première réplique qui ma fait reculer Pourtant jai commis aucune erreur pour toi javais donné le meilleur Juste la couleur de ma peau qui les dérange jveux pas rentrer les menaces Fallait surtout pas quon strompe la mélodie était sans fausse note On était deux, yavait pas besoin dpotes tout cela nous a rendu claustrophobes Jtire fort sur fin dclope, jcogite solo sur lbalcon Tous tes messages je les relis, tout ça mrend fou Jusquau jour où apparaît le syndrome de celui ou celle qui aime Plus que lautre Jattendrai pas la fin du requiem Jattendrai pas la fin du requiem You might also like Cest tout cquil y avait entre elle et moi Cest tout cquil y avait entre elle et moi Cquil y avait, cquil y avait, cquil y avait Si tu ne le vois pas, jpeux pas texpliquer la situation Tu ne le vois pas, jpeux pas texpliquer la situation Cest tout cquil y avait entre elle et moi Cest tout cquil y avait entre elle et moi Cquil y avait, cquil y avait, cquil y avait Si tu ne le vois pas, jpeux pas texpliquer la situation Tu ne le vois pas, jpeux pas texpliquer la situation La situation1</t>
+          <t>Tinquiète elle est pas comme les autres, elle est pas sotte Bosseuse, elle a pas ltime elle est frais comme personne Ce nest quune question dtemps ce nest quune question dépiderme Car lamour ne suffit plus et que la haine nous dissout Cétait pas la bonne, qui sait pas les mêmes ambitions Quen sais-je ? Pas les mêmes accords uon jouait, ya pas dsecret On a perdu le fil car ça n'allait pas trop, nos familles sdéchirent Petit à petit jmabandonne rien qujenquille des culs-secs Jai donné tout cque javais jamais je ntai trahi crois-moi Sur les réseaux sociaux jamais donné mon numéro On aurait pu faire un bon bout dtrajet même partir en séjour planète ou movie Jréalise, parle pas dkhaliss, prends tes valises Cest tout cquil y avait entre elle et moi Cest tout cquil y avait entre elle et moi Cquil y avait, cquil y avait, cquil y avait Si tu ne le vois pas, jpeux pas texpliquer la situation Tu ne le vois pas, jpeux pas texpliquer la situation Fallait bien quun jour les choses bloquent depuis lépoque il te manipulait Ramène plus jamais ce sale Noir Première réplique qui ma fait reculer Pourtant jai commis aucune erreur pour toi javais donné le meilleur Juste la couleur de ma peau qui les dérange jveux pas rentrer les menaces Fallait surtout pas quon strompe la mélodie était sans fausse note On était deux, yavait pas besoin dpotes tout cela nous a rendu claustrophobes Jtire fort sur fin dclope, jcogite solo sur lbalcon Tous tes messages je les relis, tout ça mrend fou Jusquau jour où apparaît le syndrome de celui ou celle qui aime Plus que lautre Jattendrai pas la fin du requiem Jattendrai pas la fin du requiem Cest tout cquil y avait entre elle et moi Cest tout cquil y avait entre elle et moi Cquil y avait, cquil y avait, cquil y avait Si tu ne le vois pas, jpeux pas texpliquer la situation Tu ne le vois pas, jpeux pas texpliquer la situation Cest tout cquil y avait entre elle et moi Cest tout cquil y avait entre elle et moi Cquil y avait, cquil y avait, cquil y avait Si tu ne le vois pas, jpeux pas texpliquer la situation Tu ne le vois pas, jpeux pas texpliquer la situation La situation1</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>x2 Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Certains sont touchés par la grâce d'autres par la poisse On me dit choisis ta voie alors que face à moi il y a qu'une impasse J'ai vu je touchais pas au but même au gré des passes Car habitué du banc de touche j'ai peu de face-à-face Mais il parait que ça n'arrive pas qu'aux autres Mais c'est les notre qui payent la note Moi comme tout ces Boeings mon rêve est de la détourner Au pied du mur comment la voir si j'ai le dos tourné ? J'ai vu le bonheur passer comme une étoile filante Ça fêter le réveillon sur un capot mais sans guirlande J'ai tout misé sur l'écriture à défaut de finir chef de gang Les seuls étoiles qu'on voit briller se trouventdans les stades ou sur les champs J'ai pas toujours été au top d'ailleurs je me demande à quand mon projet? J'ai mis du temps mais pour apprendre à tenir sans fléchir sur les genoux Certains ont l'intention de réfléchir avec les naseaux pleines de poudres On la convoite au clair de lune tout comme dans les tributs babtous You might also like Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Je vois le paradis à quelque kilomètre Le navire a chaviré et ma bonne étoile après vit la même Mon compagnon le désespoir me rappelle qu'on ne sait pas nager Ma descendance ne saura jamais où mon corps a pu échouer Combien en ont perdu la vie? nous sommes des milliers Et combien y pensent tout les jours? nous sommes des millions Et si personne bouge? nous sommes des milliards Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Une douleur sans médicament Je vous parle d'une vie du tiers monde La valeur d'une âme en diamant Méprisé qu'il vient du tiers monde J'suis le reflet de ce que je vis, j'avance avec un regard de glace Le savoir est une arme, on peut blesser avec les mots Si j'te racontais ma vie j'crois bien que tu pleurais à ma place J'ai toujours retenu mes larmes parce que j'aime pas gaspiller l'eau Rester lucide, c'est déjà une réussite J'dois mourir avec une arme je pense au braquage pas au suicide Elle m'a abandonné depuis ce jour là ça va pas Certains l'appellent ça la chance moi j'appelle ça la Baraka Quand jétais petit je croyais que jétais son préféré J'y échappais de justesse quand les autres faisaient déferrer Elle me rappelle en masqué donc souvent je décroche pas Je croyais qu'elle me faisait du pied enfaîte c'était un croche-patte Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner x2 Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense</t>
+          <t>x2 Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Certains sont touchés par la grâce d'autres par la poisse On me dit choisis ta voie alors que face à moi il y a qu'une impasse J'ai vu je touchais pas au but même au gré des passes Car habitué du banc de touche j'ai peu de face-à-face Mais il parait que ça n'arrive pas qu'aux autres Mais c'est les notre qui payent la note Moi comme tout ces Boeings mon rêve est de la détourner Au pied du mur comment la voir si j'ai le dos tourné ? J'ai vu le bonheur passer comme une étoile filante Ça fêter le réveillon sur un capot mais sans guirlande J'ai tout misé sur l'écriture à défaut de finir chef de gang Les seuls étoiles qu'on voit briller se trouventdans les stades ou sur les champs J'ai pas toujours été au top d'ailleurs je me demande à quand mon projet? J'ai mis du temps mais pour apprendre à tenir sans fléchir sur les genoux Certains ont l'intention de réfléchir avec les naseaux pleines de poudres On la convoite au clair de lune tout comme dans les tributs babtous Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Je vois le paradis à quelque kilomètre Le navire a chaviré et ma bonne étoile après vit la même Mon compagnon le désespoir me rappelle qu'on ne sait pas nager Ma descendance ne saura jamais où mon corps a pu échouer Combien en ont perdu la vie? nous sommes des milliers Et combien y pensent tout les jours? nous sommes des millions Et si personne bouge? nous sommes des milliards Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Une douleur sans médicament Je vous parle d'une vie du tiers monde La valeur d'une âme en diamant Méprisé qu'il vient du tiers monde J'suis le reflet de ce que je vis, j'avance avec un regard de glace Le savoir est une arme, on peut blesser avec les mots Si j'te racontais ma vie j'crois bien que tu pleurais à ma place J'ai toujours retenu mes larmes parce que j'aime pas gaspiller l'eau Rester lucide, c'est déjà une réussite J'dois mourir avec une arme je pense au braquage pas au suicide Elle m'a abandonné depuis ce jour là ça va pas Certains l'appellent ça la chance moi j'appelle ça la Baraka Quand jétais petit je croyais que jétais son préféré J'y échappais de justesse quand les autres faisaient déferrer Elle me rappelle en masqué donc souvent je décroche pas Je croyais qu'elle me faisait du pied enfaîte c'était un croche-patte Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner x2 Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>x2 Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Certains sont touchés par la grâce d'autres par la poisse On me dit choisis ta voie alors que face à moi il y a qu'une impasse J'ai vu je touchais pas au but même au gré des passes Car habitué du banc de touche j'ai peu de face-à-face Mais il parait que ça n'arrive pas qu'aux autres Mais c'est les notre qui payent la note Moi comme tout ces Boeings mon rêve est de la détourner Au pied du mur comment la voir si j'ai le dos tourné ? J'ai vu le bonheur passer comme une étoile filante Ça fêter le réveillon sur un capot mais sans guirlande J'ai tout misé sur l'écriture à défaut de finir chef de gang Les seuls étoiles qu'on voit briller se trouventdans les stades ou sur les champs J'ai pas toujours été au top d'ailleurs je me demande à quand mon projet? J'ai mis du temps mais pour apprendre à tenir sans fléchir sur les genoux Certains ont l'intention de réfléchir avec les naseaux pleines de poudres On la convoite au clair de lune tout comme dans les tributs babtous You might also like Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Je vois le paradis à quelque kilomètre Le navire a chaviré et ma bonne étoile après vit la même Mon compagnon le désespoir me rappelle qu'on ne sait pas nager Ma descendance ne saura jamais où mon corps a pu échouer Combien en ont perdu la vie? nous sommes des milliers Et combien y pensent tout les jours? nous sommes des millions Et si personne bouge? nous sommes des milliards Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Une douleur sans médicament Je vous parle d'une vie du tiers monde La valeur d'une âme en diamant Méprisé qu'il vient du tiers monde J'suis le reflet de ce que je vis, j'avance avec un regard de glace Le savoir est une arme, on peut blesser avec les mots Si j'te racontais ma vie j'crois bien que tu pleurais à ma place J'ai toujours retenu mes larmes parce que j'aime pas gaspiller l'eau Rester lucide, c'est déjà une réussite J'dois mourir avec une arme je pense au braquage pas au suicide Elle m'a abandonné depuis ce jour là ça va pas Certains l'appellent ça la chance moi j'appelle ça la Baraka Quand jétais petit je croyais que jétais son préféré J'y échappais de justesse quand les autres faisaient déferrer Elle me rappelle en masqué donc souvent je décroche pas Je croyais qu'elle me faisait du pied enfaîte c'était un croche-patte Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner x2 Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense</t>
+          <t>x2 Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Certains sont touchés par la grâce d'autres par la poisse On me dit choisis ta voie alors que face à moi il y a qu'une impasse J'ai vu je touchais pas au but même au gré des passes Car habitué du banc de touche j'ai peu de face-à-face Mais il parait que ça n'arrive pas qu'aux autres Mais c'est les notre qui payent la note Moi comme tout ces Boeings mon rêve est de la détourner Au pied du mur comment la voir si j'ai le dos tourné ? J'ai vu le bonheur passer comme une étoile filante Ça fêter le réveillon sur un capot mais sans guirlande J'ai tout misé sur l'écriture à défaut de finir chef de gang Les seuls étoiles qu'on voit briller se trouventdans les stades ou sur les champs J'ai pas toujours été au top d'ailleurs je me demande à quand mon projet? J'ai mis du temps mais pour apprendre à tenir sans fléchir sur les genoux Certains ont l'intention de réfléchir avec les naseaux pleines de poudres On la convoite au clair de lune tout comme dans les tributs babtous Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Je vois le paradis à quelque kilomètre Le navire a chaviré et ma bonne étoile après vit la même Mon compagnon le désespoir me rappelle qu'on ne sait pas nager Ma descendance ne saura jamais où mon corps a pu échouer Combien en ont perdu la vie? nous sommes des milliers Et combien y pensent tout les jours? nous sommes des millions Et si personne bouge? nous sommes des milliards Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Une douleur sans médicament Je vous parle d'une vie du tiers monde La valeur d'une âme en diamant Méprisé qu'il vient du tiers monde J'suis le reflet de ce que je vis, j'avance avec un regard de glace Le savoir est une arme, on peut blesser avec les mots Si j'te racontais ma vie j'crois bien que tu pleurais à ma place J'ai toujours retenu mes larmes parce que j'aime pas gaspiller l'eau Rester lucide, c'est déjà une réussite J'dois mourir avec une arme je pense au braquage pas au suicide Elle m'a abandonné depuis ce jour là ça va pas Certains l'appellent ça la chance moi j'appelle ça la Baraka Quand jétais petit je croyais que jétais son préféré J'y échappais de justesse quand les autres faisaient déferrer Elle me rappelle en masqué donc souvent je décroche pas Je croyais qu'elle me faisait du pied enfaîte c'était un croche-patte Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner x2 Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Elle s'appelait Monica, Monica qui Jolie Elle s'appelait Monica, Monica Jolie Monica, Monica Jolie, Monica Monica n'est pas le genre de meuf à dire je t'aime Monica est armé, prêt à faire bang bang Si t'as pas dix mille euros, vas-y, vas-y, passe ton chemin Combien se tuent au taf juste pour lui remplir les mains, aux pieds les mains Elle n'a pas de cur, retiens bien mes paroles tu ne seras pas son âme-sur Petit ou gros, tu ne restes qu'un poisson Tu fais le malin devant l'hameçon fiston Elle s'appelait Monica, Monica qui Jolie Elle s'appelait Monica, Monica Jolie Monica, Monica Jolie, Monica Jack Daniel, bub, matinée mortelle Un peu du dancehall, elle se tortille comme une sorcière Elle a caché son cur dans un mini-short taille basse Elle réglera ton compte à coup de quelques messes basses Bien sûr elle gère quelques loss-bo Le papa à Monica si tu pèses pas des kilos You might also like Elle s'appelait Monica, Monica qui Jolie Elle s'appelait Monica, Monica Jolie Monica, Monica Jolie, Monica Elle s'appelait Monica, Monica qui Jolie Elle s'appelait Monica, Monica Jolie Monica, Monica Jolie, Monica</t>
+          <t>Elle s'appelait Monica, Monica qui Jolie Elle s'appelait Monica, Monica Jolie Monica, Monica Jolie, Monica Monica n'est pas le genre de meuf à dire je t'aime Monica est armé, prêt à faire bang bang Si t'as pas dix mille euros, vas-y, vas-y, passe ton chemin Combien se tuent au taf juste pour lui remplir les mains, aux pieds les mains Elle n'a pas de cur, retiens bien mes paroles tu ne seras pas son âme-sur Petit ou gros, tu ne restes qu'un poisson Tu fais le malin devant l'hameçon fiston Elle s'appelait Monica, Monica qui Jolie Elle s'appelait Monica, Monica Jolie Monica, Monica Jolie, Monica Jack Daniel, bub, matinée mortelle Un peu du dancehall, elle se tortille comme une sorcière Elle a caché son cur dans un mini-short taille basse Elle réglera ton compte à coup de quelques messes basses Bien sûr elle gère quelques loss-bo Le papa à Monica si tu pèses pas des kilos Elle s'appelait Monica, Monica qui Jolie Elle s'appelait Monica, Monica Jolie Monica, Monica Jolie, Monica Elle s'appelait Monica, Monica qui Jolie Elle s'appelait Monica, Monica Jolie Monica, Monica Jolie, Monica</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Oui, oui, oui, oui, monsieur l'Agent Ça se voit peut-être pas mais tiens, j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Oui, oui, monsieur l'Agent Ça se voit peut-être pas mais j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Fais pas ta morale à deux balles, franchement t'es fatigant Fais pas ta morale à deux balles, franchement t'es fatigant Malgré qu'j'suis mate, mes fafs ont la même couleur que ton uniforme À part mettre un désordre, à quoi servent vos forces ? J'te donne pas raison malgré tes torts Et vu qu'je vis là, t'aimerais me vé-la et me jeter par mes tées-por Erreur judiciaire, erreur, Erreur judiciaire Les erreurs judiciaires sont des bavures policières Erreur judiciaire, erreur, Erreur judiciaire Les erreurs judiciaires sont des bavures policières Ça fait des marches républicaines et y'a pleins de démons L'affaire Bouna et Zyed, y'avait pas de démons À la vue de tous ça, j'veux m'tirer Ici, c'est pas lÉlysée Pourquoi j'm'habillerais ? Pourquoi j'mentirais You might also like Oui, oui, oui, oui, monsieur l'Agent Ça se voit peut-être pas mais tiens, j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Oui, oui, monsieur l'Agent Ça se voit peut-être pas mais j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Fais pas ta morale à deux balles, franchement t'es fatigant Fais pas ta morale à deux balles, franchement t'es fatigant Oui, Monsieur l'Agent Mais qu'est que tu veux que j'te dise ? J'ai les poches pleines et tous ces gâteaux, friandises Ze-dou, chelou Selon toi, j'suis bon qu'à être un fucking modo' Arrêtez vos contrôles abusifs toute la journée Jeté au Wati B parce que j'ai une certaine manière de m'habiller Je rôde les rues de ma ville avec les poches pleines de billets J'fais ma tricks et j'me demande dans quelle merde j'me suis fourré Je suis comme mes mentors depuis l'élémentaire Négro, j'ai tort, j'suis à deux doigts d'déborder Monsieur l'Agent, c'est vrai, tu nous sens pas Et nous aussi, on t'aime pas vraiment On s'demande pas pourquoi tu nous méprises seulement Tall Toujours acharné, ce pour nous mettre à l'amende Mets ton amande, j'fais plus d'sous que t'en aura jamais, bitch Pourquoi me regardes-tu mal ? Parce que je suis k'hel, l'air coupable et que je n'ai pas le cul pâle Un flic est mort, j'ai la larme à l'il Y'a-t-il quelqu'un lorsque nos daronnes sont en deuil ? Nan La raison pour laquelle on tire le signal d'alarme C'est que le respect va dans les deux sens, pas d'enculade Monsieur l'Agent, c'est la haine que tu m'imposes Aucun amour pour toi, lèche mes flash-balls suce Prend ma pièce et casse-toi, parle au talkie Moi j'ai pas de shit Merci, bye bye Oui monsieur l'Agent Ça se voit peut-être pas mais tiens, j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Oui, oui, monsieur l'Agent Ça se voit peut-être pas mais j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Fais pas ta morale à deux balles, franchement t'es fatigant Fais pas ta morale à deux balles, franchement t'es fatigant J'fais d'la 'sique, j'suis loin de la Thug Life Tu vois pas plus loin que ta Maglite Qu'est-ce qui te pousse à jouer les Batmans, nigga ? T'es complètement à coté de ta plaque Tes enfants m'écoutent, et ta femme aussi Mets-toi dans le crâne qu'un noir en Panamera, c'est possible Sans uniforme, t'aurais déjà ta tête sous mes XXXX Aucune haine Monsieur l'Agent Sois juste, après on coexiste Donne-moi une seule raison de garder le silence Ok, une seule raison, autre que ma différence capillaire Pas la peau claire, pas là pour plaire Tous tes confrères n'ont qu'à aller s'faire Oh oh ah Hé képi, viens pas nous les sé-bri Les pédophiles sont devant les schools avec des Kinders Country Képi, viens pas nous les sé-bri Dans nos fut', y'a pas de résine, y'a pas de résine Toujours les même balles dans les tieks, les té-ci1</t>
+          <t>Oui, oui, oui, oui, monsieur l'Agent Ça se voit peut-être pas mais tiens, j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Oui, oui, monsieur l'Agent Ça se voit peut-être pas mais j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Fais pas ta morale à deux balles, franchement t'es fatigant Fais pas ta morale à deux balles, franchement t'es fatigant Malgré qu'j'suis mate, mes fafs ont la même couleur que ton uniforme À part mettre un désordre, à quoi servent vos forces ? J'te donne pas raison malgré tes torts Et vu qu'je vis là, t'aimerais me vé-la et me jeter par mes tées-por Erreur judiciaire, erreur, Erreur judiciaire Les erreurs judiciaires sont des bavures policières Erreur judiciaire, erreur, Erreur judiciaire Les erreurs judiciaires sont des bavures policières Ça fait des marches républicaines et y'a pleins de démons L'affaire Bouna et Zyed, y'avait pas de démons À la vue de tous ça, j'veux m'tirer Ici, c'est pas lÉlysée Pourquoi j'm'habillerais ? Pourquoi j'mentirais Oui, oui, oui, oui, monsieur l'Agent Ça se voit peut-être pas mais tiens, j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Oui, oui, monsieur l'Agent Ça se voit peut-être pas mais j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Fais pas ta morale à deux balles, franchement t'es fatigant Fais pas ta morale à deux balles, franchement t'es fatigant Oui, Monsieur l'Agent Mais qu'est que tu veux que j'te dise ? J'ai les poches pleines et tous ces gâteaux, friandises Ze-dou, chelou Selon toi, j'suis bon qu'à être un fucking modo' Arrêtez vos contrôles abusifs toute la journée Jeté au Wati B parce que j'ai une certaine manière de m'habiller Je rôde les rues de ma ville avec les poches pleines de billets J'fais ma tricks et j'me demande dans quelle merde j'me suis fourré Je suis comme mes mentors depuis l'élémentaire Négro, j'ai tort, j'suis à deux doigts d'déborder Monsieur l'Agent, c'est vrai, tu nous sens pas Et nous aussi, on t'aime pas vraiment On s'demande pas pourquoi tu nous méprises seulement Tall Toujours acharné, ce pour nous mettre à l'amende Mets ton amande, j'fais plus d'sous que t'en aura jamais, bitch Pourquoi me regardes-tu mal ? Parce que je suis k'hel, l'air coupable et que je n'ai pas le cul pâle Un flic est mort, j'ai la larme à l'il Y'a-t-il quelqu'un lorsque nos daronnes sont en deuil ? Nan La raison pour laquelle on tire le signal d'alarme C'est que le respect va dans les deux sens, pas d'enculade Monsieur l'Agent, c'est la haine que tu m'imposes Aucun amour pour toi, lèche mes flash-balls suce Prend ma pièce et casse-toi, parle au talkie Moi j'ai pas de shit Merci, bye bye Oui monsieur l'Agent Ça se voit peut-être pas mais tiens, j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Oui, oui, monsieur l'Agent Ça se voit peut-être pas mais j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Fais pas ta morale à deux balles, franchement t'es fatigant Fais pas ta morale à deux balles, franchement t'es fatigant J'fais d'la 'sique, j'suis loin de la Thug Life Tu vois pas plus loin que ta Maglite Qu'est-ce qui te pousse à jouer les Batmans, nigga ? T'es complètement à coté de ta plaque Tes enfants m'écoutent, et ta femme aussi Mets-toi dans le crâne qu'un noir en Panamera, c'est possible Sans uniforme, t'aurais déjà ta tête sous mes XXXX Aucune haine Monsieur l'Agent Sois juste, après on coexiste Donne-moi une seule raison de garder le silence Ok, une seule raison, autre que ma différence capillaire Pas la peau claire, pas là pour plaire Tous tes confrères n'ont qu'à aller s'faire Oh oh ah Hé képi, viens pas nous les sé-bri Les pédophiles sont devant les schools avec des Kinders Country Képi, viens pas nous les sé-bri Dans nos fut', y'a pas de résine, y'a pas de résine Toujours les même balles dans les tieks, les té-ci1</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ils n'ont qu'à me négliger Mais je passerai sous votre nez comme Omar Sy Ainsi, je n'ai jamais l'air blessé Je repeins le monde un peu comme Da Vinci Et si vous m'tendez la main, je ferai de même Et si jamais t'as croisé mon ch'min, j'suis resté l'même Et j'leur ai dit Oui mais non merci oh Mais non merci oh Oui mais non merci oh Mais non merci oh Oui mais non merci oh Mais non merci oh Oui mais non merci oh Mais non merci Vous m'avez négligé, vous m'avez négligé Vous m'avez négligé, vous m'avez négligé Sachez-le que c'est déjà trop tard, trop tard, trop tard Je n'raffole pas du menu fretin, fretin, fretin Ils ont beau se déguiser, mais au fil du temps la vérité les déshabille Je n'ai jamais XXX, j'ai détourné l'regard, j'veux pas te voir ainsi Je lui ai tendu la main, elle a fait de même Elle a croisé mon ch'min, le destin était de même You might also like Et j'leur ai dit Oui mais non merci oh Mais non merci oh Oui mais non merci oh Mais non merci oh Vous m'avez négligé, vous m'avez négligé Vous m'avez négligé, vous m'avez négligé Sachez-le que c'est déjà trop tard, trop tard, trop tard Je n'raffole pas du menu fretin, fretin, fretin J'ai vu mon peuple en train d'se noyer, en train d'se noyer La misère du monde sur mon dos, sur mon dos, sur mon dos Et j'ai vu quelques atrocités, atrocités C'est des choses à n'pas trop citer, trop citer, trop citer Dans l'ombre on m'a laissé tu sais mon gava Le soleil n'a pas fait briller mes qualités J'suis plutôt Bob Marley que Che Guevara J'ai aimé tout c'qu'on a, c'que l'on a mérité Le pire c'est, qu'j'l'ai pas ché-lâ, j'suis pas che-lâ, face aux difficultés Négligé, votre truc sse-cra, on m'appelle pour l'she-ca XXX Je me suis dit XXX poursuit la ue-r Sans casse, brise les murs d'la hess car le biz' sature Y'a un retour dans une flamme Comme un démon dans un corps de femme M'ont pris pour un faible alors XXX Et j'leur ai dit Oui mais non merci oh Mais non merci oh Oui mais non merci oh Mais non merci Vous m'avez négligé, vous m'avez négligé Vous m'avez négligé, vous m'avez négligé Sachez-le que c'est déjà trop tard, trop tard, trop tard Je n'raffole pas du menu fretin, fretin, fretin Vous m'avez négligé-gé-gé-gé-gé-gé-gé-gé... Vous m'avez négligé x4 Je suis ce gosse à qui on disait nan T'es pas d'ici Vous m'avez négligé3</t>
+          <t>Ils n'ont qu'à me négliger Mais je passerai sous votre nez comme Omar Sy Ainsi, je n'ai jamais l'air blessé Je repeins le monde un peu comme Da Vinci Et si vous m'tendez la main, je ferai de même Et si jamais t'as croisé mon ch'min, j'suis resté l'même Et j'leur ai dit Oui mais non merci oh Mais non merci oh Oui mais non merci oh Mais non merci oh Oui mais non merci oh Mais non merci oh Oui mais non merci oh Mais non merci Vous m'avez négligé, vous m'avez négligé Vous m'avez négligé, vous m'avez négligé Sachez-le que c'est déjà trop tard, trop tard, trop tard Je n'raffole pas du menu fretin, fretin, fretin Ils ont beau se déguiser, mais au fil du temps la vérité les déshabille Je n'ai jamais XXX, j'ai détourné l'regard, j'veux pas te voir ainsi Je lui ai tendu la main, elle a fait de même Elle a croisé mon ch'min, le destin était de même Et j'leur ai dit Oui mais non merci oh Mais non merci oh Oui mais non merci oh Mais non merci oh Vous m'avez négligé, vous m'avez négligé Vous m'avez négligé, vous m'avez négligé Sachez-le que c'est déjà trop tard, trop tard, trop tard Je n'raffole pas du menu fretin, fretin, fretin J'ai vu mon peuple en train d'se noyer, en train d'se noyer La misère du monde sur mon dos, sur mon dos, sur mon dos Et j'ai vu quelques atrocités, atrocités C'est des choses à n'pas trop citer, trop citer, trop citer Dans l'ombre on m'a laissé tu sais mon gava Le soleil n'a pas fait briller mes qualités J'suis plutôt Bob Marley que Che Guevara J'ai aimé tout c'qu'on a, c'que l'on a mérité Le pire c'est, qu'j'l'ai pas ché-lâ, j'suis pas che-lâ, face aux difficultés Négligé, votre truc sse-cra, on m'appelle pour l'she-ca XXX Je me suis dit XXX poursuit la ue-r Sans casse, brise les murs d'la hess car le biz' sature Y'a un retour dans une flamme Comme un démon dans un corps de femme M'ont pris pour un faible alors XXX Et j'leur ai dit Oui mais non merci oh Mais non merci oh Oui mais non merci oh Mais non merci Vous m'avez négligé, vous m'avez négligé Vous m'avez négligé, vous m'avez négligé Sachez-le que c'est déjà trop tard, trop tard, trop tard Je n'raffole pas du menu fretin, fretin, fretin Vous m'avez négligé-gé-gé-gé-gé-gé-gé-gé... Vous m'avez négligé x4 Je suis ce gosse à qui on disait nan T'es pas d'ici Vous m'avez négligé3</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 You might also likeFévrier - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3</t>
+          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Outfit, outfit, j'suis dans mon outfit Outfit, outfit, j'suis dans mon outfit Out-out-outfit black, ils arrêtent pas d'me fixer Ouh Pourtant, là j'ai pas mis de marque de luxe Eh Je n'suis pas dans le m'as-tu-vu Oh, c'est le m'as-tu-vu qui me voit tout frais Tellement frais, la go me voit comme du bissap Bissap Salle de sport, poto, contours, biceps Biceps Gros bébé bien nourri qui rempli l'XL XL, XL, j'suis dans mon outfit Tu le sais, tu le sais bien Une veste en satin J'suis dans le thème, j'suis dans le thème, j'suis dans le thème d'la night D'la night, j'me prends pas la tête, c'est quoi l'projet ? Je suis bien sappé, comment tu t'appelles ? Enchanté Stop Stop, ne marche pas sur mes pompes Pompes Tu sens l'regard d'mes potes Potes, mais t'inquiète on reste classe dans c'bordel Envoie la sauce Ouh, envoie-nous ton outfit Ouh De face, de profil, montre-nous ton style, te prends pas la tête Ha, ha, ha, ha, ha Dis-moi combien Combien ?, combien coûte ton outfit ? De face, de profil, montre-nous ton style, te prends pas la tête You might also like Outfit, outfit Ouh, j'suis dans mon outfit Outfit, outfit Outfit, outfit, j'suis dans mon outfit Air Force, chaussettes trouées Ouh C'est mon outfit, j'en n'ai rien à secouer Rien n'a secouer, ah J'ai la tête sous l'eau, je n'ai pas besoin d'bouée La mode, c'est mon truc, je ne peux pas couler Outfit Je ne peux pas couler Je ne peux pas couler, Fashion Week, j'suis en baba cool Baba cool Porte-bébé stylé papa poule Papa poule, j'suis dans mon outfit La même question tous les matins Je n'ai pas les mesures d'un mannequin Les critiques, rien ne m'atteint Jogging, casquette, petit parfum Pshit, pshit Petit parfum, je sors d'un rêve où c'est moi la star Dans l'futur y a mon avatar Tout est dans l'style, j'suis pas trop bavard Envoie la sauce Envoie-nous oh, oh, envoie-nous ton outfit De face, de profil, montre-nous ton style Ouh, ouh, te prends pas la tête Tête Dis-moi combien Ouh, combien ?, combien coûte ton outfit ? De face, de profil, montre-nous ton style, te prends pas la tête Ouh Outfit, outfit Ouh, j'suis dans mon outfit Outfit, outfit Ah, j'suis dans mon outfit Stop Stop, ne marche pas sur mes pompes Pompes Tu sens l'regard d'mes potes Potes, mais t'inquiète on reste classe dans c'bordel Ouh, ouh Envoie la sauce, envoie-nous ton outfit De face, de profil, montre-nous ton style, te prends pas la tête Dis-moi combien Combien ?, combien coûte ton outfit ? De face, de profil, montre-nous ton style, te prends pas la tête Outfit, outfit Ah, j'suis dans mon outfit Sale unh Outfit, outfit, j'suis dans mon outfit Outfit, outfit, j'suis dans mon outfit Mais ça, c'est une petite tenue parmi tant Laisse ça PDG, laisse ça je t'ai dit Je suis dans mon outfit, laisse De face, de profil, montre-nous ton style, te prends pas la tête Ouh, ouh, ouh</t>
+          <t>Outfit, outfit, j'suis dans mon outfit Outfit, outfit, j'suis dans mon outfit Out-out-outfit black, ils arrêtent pas d'me fixer Ouh Pourtant, là j'ai pas mis de marque de luxe Eh Je n'suis pas dans le m'as-tu-vu Oh, c'est le m'as-tu-vu qui me voit tout frais Tellement frais, la go me voit comme du bissap Bissap Salle de sport, poto, contours, biceps Biceps Gros bébé bien nourri qui rempli l'XL XL, XL, j'suis dans mon outfit Tu le sais, tu le sais bien Une veste en satin J'suis dans le thème, j'suis dans le thème, j'suis dans le thème d'la night D'la night, j'me prends pas la tête, c'est quoi l'projet ? Je suis bien sappé, comment tu t'appelles ? Enchanté Stop Stop, ne marche pas sur mes pompes Pompes Tu sens l'regard d'mes potes Potes, mais t'inquiète on reste classe dans c'bordel Envoie la sauce Ouh, envoie-nous ton outfit Ouh De face, de profil, montre-nous ton style, te prends pas la tête Ha, ha, ha, ha, ha Dis-moi combien Combien ?, combien coûte ton outfit ? De face, de profil, montre-nous ton style, te prends pas la tête Outfit, outfit Ouh, j'suis dans mon outfit Outfit, outfit Outfit, outfit, j'suis dans mon outfit Air Force, chaussettes trouées Ouh C'est mon outfit, j'en n'ai rien à secouer Rien n'a secouer, ah J'ai la tête sous l'eau, je n'ai pas besoin d'bouée La mode, c'est mon truc, je ne peux pas couler Outfit Je ne peux pas couler Je ne peux pas couler, Fashion Week, j'suis en baba cool Baba cool Porte-bébé stylé papa poule Papa poule, j'suis dans mon outfit La même question tous les matins Je n'ai pas les mesures d'un mannequin Les critiques, rien ne m'atteint Jogging, casquette, petit parfum Pshit, pshit Petit parfum, je sors d'un rêve où c'est moi la star Dans l'futur y a mon avatar Tout est dans l'style, j'suis pas trop bavard Envoie la sauce Envoie-nous oh, oh, envoie-nous ton outfit De face, de profil, montre-nous ton style Ouh, ouh, te prends pas la tête Tête Dis-moi combien Ouh, combien ?, combien coûte ton outfit ? De face, de profil, montre-nous ton style, te prends pas la tête Ouh Outfit, outfit Ouh, j'suis dans mon outfit Outfit, outfit Ah, j'suis dans mon outfit Stop Stop, ne marche pas sur mes pompes Pompes Tu sens l'regard d'mes potes Potes, mais t'inquiète on reste classe dans c'bordel Ouh, ouh Envoie la sauce, envoie-nous ton outfit De face, de profil, montre-nous ton style, te prends pas la tête Dis-moi combien Combien ?, combien coûte ton outfit ? De face, de profil, montre-nous ton style, te prends pas la tête Outfit, outfit Ah, j'suis dans mon outfit Sale unh Outfit, outfit, j'suis dans mon outfit Outfit, outfit, j'suis dans mon outfit Mais ça, c'est une petite tenue parmi tant Laisse ça PDG, laisse ça je t'ai dit Je suis dans mon outfit, laisse De face, de profil, montre-nous ton style, te prends pas la tête Ouh, ouh, ouh</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>On na quune vie, et on y a tous droit On na quune vie, et on y a tous droit Paradise, paradise, paradise, paradise Le paradis, le paradis Jveux pas une parodie du paradis Ça baratine le paradis Jveux pas une parodie du paradis Ya ceux qui nont jamais eu dchance Et ceux qui baignent dans la vivance Écoute, deux mondes si différents Mais si proches dans la distance Cest pour ça que lun profite de lautre Et lautre chuchote que lun est faux Mais chacun ses défauts Et si seulement, si seulement On nétait pas si différents, si différents Si seulement, si seulement Il ny avait pas la distance, la distance On na quune vie, et on y a tous droit On na quune vie, et on y a tous droit Paradise, paradise, paradise, paradise Le paradis, le paradis Jveux pas une parodie du paradis Ça baratine le paradis Jveux pas une parodie du paradis You might also like Ya ceux qui sdisent jvais jamais percer Jsuis tombé dhaut mon frère et le béton ma bercé Personne ne maide et jte ldis demblée Ils nfont que fuir en trouvant des excuses XXX Putain cest quand jretourne au de-ble Jespère quce serait pas dans une soute Entouré dquatre planches scellées Jveux juste voir ma progéniture Mon producteur qui prend de lâge En distribuant la fortune Jme suis fait sous la torture Jsuis devenu une ordure Mais un jour jy arriverai Bien sûr poing levé pour les frères Quand jdis bonjour je transmets lespoir Jsuis devenu Beriz en rôdant les squares On na quune vie, et on y a tous droit On na quune vie, et on y a tous droit Paradise, paradise, paradise, paradise Le paradis, le paradis Jveux pas une parodie du paradis Ça baratine le paradis Jveux pas une parodie du paradis Paradis fiscaux, dégo et dordures Recouverts dor pur Paradis fiscaux, dégo et dordures Recouverts dor pur</t>
+          <t>On na quune vie, et on y a tous droit On na quune vie, et on y a tous droit Paradise, paradise, paradise, paradise Le paradis, le paradis Jveux pas une parodie du paradis Ça baratine le paradis Jveux pas une parodie du paradis Ya ceux qui nont jamais eu dchance Et ceux qui baignent dans la vivance Écoute, deux mondes si différents Mais si proches dans la distance Cest pour ça que lun profite de lautre Et lautre chuchote que lun est faux Mais chacun ses défauts Et si seulement, si seulement On nétait pas si différents, si différents Si seulement, si seulement Il ny avait pas la distance, la distance On na quune vie, et on y a tous droit On na quune vie, et on y a tous droit Paradise, paradise, paradise, paradise Le paradis, le paradis Jveux pas une parodie du paradis Ça baratine le paradis Jveux pas une parodie du paradis Ya ceux qui sdisent jvais jamais percer Jsuis tombé dhaut mon frère et le béton ma bercé Personne ne maide et jte ldis demblée Ils nfont que fuir en trouvant des excuses XXX Putain cest quand jretourne au de-ble Jespère quce serait pas dans une soute Entouré dquatre planches scellées Jveux juste voir ma progéniture Mon producteur qui prend de lâge En distribuant la fortune Jme suis fait sous la torture Jsuis devenu une ordure Mais un jour jy arriverai Bien sûr poing levé pour les frères Quand jdis bonjour je transmets lespoir Jsuis devenu Beriz en rôdant les squares On na quune vie, et on y a tous droit On na quune vie, et on y a tous droit Paradise, paradise, paradise, paradise Le paradis, le paradis Jveux pas une parodie du paradis Ça baratine le paradis Jveux pas une parodie du paradis Paradis fiscaux, dégo et dordures Recouverts dor pur Paradis fiscaux, dégo et dordures Recouverts dor pur</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Maître Gims, Bedjik Mais qui a 'glige ? Maitre Gims, Bedjik, un feat en famille Trop deus tu t'demandes si j'tape dans la farine Here We Go ! Tu vois bien que les flows varient C'est l'zbeul un peu comme dans Tex Avery Ça fait des mois et des mois et des mois que je ne dors pas Les MCs me veulent en featuring mais j'en prends très peu Qui assumera pas sans avoir enfilé un joint de beuh Vous êtes tous piégés dans le Vortex... Mais j'compte t'enterrer après t'avoir humilié sur la voie ferrée Demande à Ferris à quoi bon sert de faire l'inspecteur Derrick ? Ça m'fait dahek Sors ton béret, puis ton pe-pom, si t'es paré, ben c'est bavon C'est moi l'premier à l'avoir kické donc je n'sais pas à la base qui t'es L'heure est venue de t'liquider, Bedjik le psy, c'est la qualité Ceinture noire chrome sur le bas-côté, fallait méditer J'vais pas te le répéter au cas où t'aurais pas tilté Et puis j'm'lèb' sur la prod' sans déc' Il faut qu'j'te la mette pour que tu captes ma tech' Mais moi j'fais du lourd, même si t'es par terre j'te lève Bsahtek pour ton feat mais il t'en reste sur les lèvres You might also like J'suis dans mon délire, j'suis pas pressé, j'vais les fumer sans m'reposer La dégaine de l'homme amoché donc japparais souvent stressé Disons qu'la vie est dure, et qu'les pe-stu nous cassent les couilles À cause d'une dégaine de taré, j'suis pas carré mais j'sens la douille Alors j'me pose, ma couronne sur les questions qu'j'me pose La daronne cogne, crie sur le gosse qui compose Et dès qu'j'suis dehors, Berisque de perdre le contrôle Rien à foutre de ce que vous pensez, toutes vos attitudes de shour J'suis déboussolé, déboule solo ma passion j'vais déboutonner Correctionné mise de côté si t'as zappé là tu connais Genre connu mais débit volé, tu vas prendre une demi-volée Mais t'as rien à m'dire, t'inquiète J'avais une barre pour toi mais tu tentais de m'chourave les miettes J'ai tort de... toi t'es condamné à te gratter les fesses Et roule sur ce fils de... change de tier-quar Mon espèce est protégée, les enfoirés sont mis à part J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis grave énervant, tu es trop décevant J'kicke depuis mes 9 ans, pour ça qu'j'plie du de-mon AAAAAAAAAAAAAAAAH Guette le niveau froid comme Sub-Zéro D'mande à Jerry R., un flow sans précédent S'faire fumer devant des javons Ambiance chavaud-bavon, craint comme un Deceptycons Ton cul sur le trident, là c'est mon côté dit-ban Laisse moi les dé-fler-gon, me-Gi fucke Poséidon Ferme là, si t'es pas con, j'défouraille depuis l'balcon Glauque comme les rues d'Patong, danse dans la gueule du dragon Viens m'voir à Kin' au Congo, ou dans la forêt d'Ngorongoro Au corps à corps avec un taureau dans l'océan d'vant les coraux Violent comme de décevoir ou l'désaccord avec les parents C'est paro car tôt ou tard t'es forcé d'payer plein pot l'tarot J'suis avec Sop-pra-no Bedjik, Beriz, H, Dream Oh no, tu vis un instant hors norme J'suis bizarre, je sais, je ne suis pas aux normes Énorme ? I don't know Dream Chérie, questionne tes hormones J'lance une bombe, j'vous donne cinq secondes Les gars, cassez-vous, j'ai tué Cupidon Ta go me trouve intriguant Dis-lui qu'j'ai du goût comme du bon taga J'suis dans le sas, j'ai quatre tass', aux pattes des tas d'passes S'échappe ta carcasse, craque ne canne aps Le taff ton futur, mon passé s'noie Et t'es calme, me parle aps, j'sais aps les poukaves Écarte de cracher, se cache Confie tout aux tasses-pé, rafale de face Yeah, ne me faites pas chier, j'fais plus confiance même au chien Une belle paire à tes pieds même ton poto peut t'les cirer J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Reste tranquille, mais-mais reste tranquille Voilà Sopra' M'Baba et Maitre Gims Comme lui, j'ai fait le tour du monde de Marseille à Paris Tu connais déjà le gabarit, donc donc reste tranquille Un big up au Wati-B, pour les 700 000 Que des mecs costauds, que des mecs solides, là j'atterris comme à Smallvile Oh oui ce feat c'est de la-la folie, mes rimes défilent comme un gros bolide J'vois des MCs prendre la fuite comme des vaches d'Interville Dream, mon flow assassine À la fin de ce couplet tes gars ont le visage à Seal Je les braque avec le magnum de l'Institut Le game n'est pas un trottoir pourquoi tu te prostitues ? Dédicace à Bedjik et à Shin Sekaï Avec un putain de flow qui découpe comme San ku kai Rien qu'jpars en live, faut qu'je fly Donc je vous dis bye bye bye bye bye-bye bye !4</t>
+          <t>Maître Gims, Bedjik Mais qui a 'glige ? Maitre Gims, Bedjik, un feat en famille Trop deus tu t'demandes si j'tape dans la farine Here We Go ! Tu vois bien que les flows varient C'est l'zbeul un peu comme dans Tex Avery Ça fait des mois et des mois et des mois que je ne dors pas Les MCs me veulent en featuring mais j'en prends très peu Qui assumera pas sans avoir enfilé un joint de beuh Vous êtes tous piégés dans le Vortex... Mais j'compte t'enterrer après t'avoir humilié sur la voie ferrée Demande à Ferris à quoi bon sert de faire l'inspecteur Derrick ? Ça m'fait dahek Sors ton béret, puis ton pe-pom, si t'es paré, ben c'est bavon C'est moi l'premier à l'avoir kické donc je n'sais pas à la base qui t'es L'heure est venue de t'liquider, Bedjik le psy, c'est la qualité Ceinture noire chrome sur le bas-côté, fallait méditer J'vais pas te le répéter au cas où t'aurais pas tilté Et puis j'm'lèb' sur la prod' sans déc' Il faut qu'j'te la mette pour que tu captes ma tech' Mais moi j'fais du lourd, même si t'es par terre j'te lève Bsahtek pour ton feat mais il t'en reste sur les lèvres J'suis dans mon délire, j'suis pas pressé, j'vais les fumer sans m'reposer La dégaine de l'homme amoché donc japparais souvent stressé Disons qu'la vie est dure, et qu'les pe-stu nous cassent les couilles À cause d'une dégaine de taré, j'suis pas carré mais j'sens la douille Alors j'me pose, ma couronne sur les questions qu'j'me pose La daronne cogne, crie sur le gosse qui compose Et dès qu'j'suis dehors, Berisque de perdre le contrôle Rien à foutre de ce que vous pensez, toutes vos attitudes de shour J'suis déboussolé, déboule solo ma passion j'vais déboutonner Correctionné mise de côté si t'as zappé là tu connais Genre connu mais débit volé, tu vas prendre une demi-volée Mais t'as rien à m'dire, t'inquiète J'avais une barre pour toi mais tu tentais de m'chourave les miettes J'ai tort de... toi t'es condamné à te gratter les fesses Et roule sur ce fils de... change de tier-quar Mon espèce est protégée, les enfoirés sont mis à part J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis grave énervant, tu es trop décevant J'kicke depuis mes 9 ans, pour ça qu'j'plie du de-mon AAAAAAAAAAAAAAAAH Guette le niveau froid comme Sub-Zéro D'mande à Jerry R., un flow sans précédent S'faire fumer devant des javons Ambiance chavaud-bavon, craint comme un Deceptycons Ton cul sur le trident, là c'est mon côté dit-ban Laisse moi les dé-fler-gon, me-Gi fucke Poséidon Ferme là, si t'es pas con, j'défouraille depuis l'balcon Glauque comme les rues d'Patong, danse dans la gueule du dragon Viens m'voir à Kin' au Congo, ou dans la forêt d'Ngorongoro Au corps à corps avec un taureau dans l'océan d'vant les coraux Violent comme de décevoir ou l'désaccord avec les parents C'est paro car tôt ou tard t'es forcé d'payer plein pot l'tarot J'suis avec Sop-pra-no Bedjik, Beriz, H, Dream Oh no, tu vis un instant hors norme J'suis bizarre, je sais, je ne suis pas aux normes Énorme ? I don't know Dream Chérie, questionne tes hormones J'lance une bombe, j'vous donne cinq secondes Les gars, cassez-vous, j'ai tué Cupidon Ta go me trouve intriguant Dis-lui qu'j'ai du goût comme du bon taga J'suis dans le sas, j'ai quatre tass', aux pattes des tas d'passes S'échappe ta carcasse, craque ne canne aps Le taff ton futur, mon passé s'noie Et t'es calme, me parle aps, j'sais aps les poukaves Écarte de cracher, se cache Confie tout aux tasses-pé, rafale de face Yeah, ne me faites pas chier, j'fais plus confiance même au chien Une belle paire à tes pieds même ton poto peut t'les cirer J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Reste tranquille, mais-mais reste tranquille Voilà Sopra' M'Baba et Maitre Gims Comme lui, j'ai fait le tour du monde de Marseille à Paris Tu connais déjà le gabarit, donc donc reste tranquille Un big up au Wati-B, pour les 700 000 Que des mecs costauds, que des mecs solides, là j'atterris comme à Smallvile Oh oui ce feat c'est de la-la folie, mes rimes défilent comme un gros bolide J'vois des MCs prendre la fuite comme des vaches d'Interville Dream, mon flow assassine À la fin de ce couplet tes gars ont le visage à Seal Je les braque avec le magnum de l'Institut Le game n'est pas un trottoir pourquoi tu te prostitues ? Dédicace à Bedjik et à Shin Sekaï Avec un putain de flow qui découpe comme San ku kai Rien qu'jpars en live, faut qu'je fly Donc je vous dis bye bye bye bye bye-bye bye !4</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>7.5 C'est le 7.5 du seum et des nympho Le 7.5 du seum et des nympho 7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes C'est l'7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes C'est T.O.X.M.O en direction de Ricket Un coup de fil m'est nécessaire en quittant le 9 B.C - R.I.M ? Wesh bien ? - C'est quoi le lire-dé ? Ça fout rien Ramène toute l'Institut c'est bon soir-ce on va se mettre bien Mon 0.6 sonne mais bâtard qui décroche Il faut je m'échappe boycotte les blocs Que du whisky, shit et des tass' en bloc Laisse tomber, laisse tomber C'est Paris by night et c'est pas près de changer Ok, 7.5, Paris by night Ceux qui vont en boite, ceux qui font les drive-by C'est la capitale chez nous y'a des tas de bails Donc taille hataye c'est le continent thaï You might also like C'est le 7.5 du seum et des nympho Le 7.5 du seum et des nympho 7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes C'est l'7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes Le 7.5, le 7.5 n'a pas de sécu Notre seule issue c'est d'vendre du shit et le bif reste notre seul pécule Notre seul pécule Le 7.5 le 7.5 n'a pas de sécu, le 7.5 le 7.5 n'a pas de sécu Notre seule issue c'est de vendre du shit et le bif reste notre seul pécule Notre seul pécule, notre seul pécule Le 7.5 le 7.5 n'a pas de sécu Sin-cou envoie les masses, je suis dans la voiture avec des tass' Yoshi, Nervous dans la place, quoi ? Ton gars s'est mangé des coups de shlass Attend, j'arrive tout de suite, juste le temps d'un coup de fil Descendez bande de pétasse et rendez moi mon bout de shit Bombar, bombar, bombar, bombar, Bombar, bombar, bombar Je viens de péter ma teille, je vois des sses-fe nah sheitan Je sors tout droit de la boite et je vois des ss-ki nah sheitan Paris, la nuit ça tire ! Paris, la nuit ça deale Paris, la nuit ça tise ! Paris, la nuit ça sniffe Paris, la nuit ça tire ! Paris, la nuit ça deale Paris, la nuit ça tise ! Paris, la nuit ça sniffe 7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes C'est l'7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes Le 7.5, le 7.5 n'a pas de sécu Notre seule issue c'est de vendre du shit et le bif reste notre seul pécule Notre seul pécule, notre seul pécule Le 7.5, le 7.5 n'a pas de sécu - Wesh le H - Wesh S.Pri - Mais tu vas où ? - Avec Abou 2being, on est là - Hahahaha - Cintré comme ça, le pectoral saillant - Eh mon gars, ils sont où Jarod et tout ça ? - Eh, viens, on bombarde ma gueule ? - Eh, vas-y, viens, on bombarde direct, on va les calmer, rah Tu connais, tu connais, tu connais, tu connais Tu connais, tu connais, tu connais, tu connais Paris, by night, Paris, by night Paris, by night, Paris, by night P.A.R.I.S, Paris by night P.A.R.I.S, Paris by night, yeah 7.5, ouvre les yeux enfoiré L'Institut Frappe, rahigt</t>
+          <t>7.5 C'est le 7.5 du seum et des nympho Le 7.5 du seum et des nympho 7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes C'est l'7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes C'est T.O.X.M.O en direction de Ricket Un coup de fil m'est nécessaire en quittant le 9 B.C - R.I.M ? Wesh bien ? - C'est quoi le lire-dé ? Ça fout rien Ramène toute l'Institut c'est bon soir-ce on va se mettre bien Mon 0.6 sonne mais bâtard qui décroche Il faut je m'échappe boycotte les blocs Que du whisky, shit et des tass' en bloc Laisse tomber, laisse tomber C'est Paris by night et c'est pas près de changer Ok, 7.5, Paris by night Ceux qui vont en boite, ceux qui font les drive-by C'est la capitale chez nous y'a des tas de bails Donc taille hataye c'est le continent thaï C'est le 7.5 du seum et des nympho Le 7.5 du seum et des nympho 7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes C'est l'7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes Le 7.5, le 7.5 n'a pas de sécu Notre seule issue c'est d'vendre du shit et le bif reste notre seul pécule Notre seul pécule Le 7.5 le 7.5 n'a pas de sécu, le 7.5 le 7.5 n'a pas de sécu Notre seule issue c'est de vendre du shit et le bif reste notre seul pécule Notre seul pécule, notre seul pécule Le 7.5 le 7.5 n'a pas de sécu Sin-cou envoie les masses, je suis dans la voiture avec des tass' Yoshi, Nervous dans la place, quoi ? Ton gars s'est mangé des coups de shlass Attend, j'arrive tout de suite, juste le temps d'un coup de fil Descendez bande de pétasse et rendez moi mon bout de shit Bombar, bombar, bombar, bombar, Bombar, bombar, bombar Je viens de péter ma teille, je vois des sses-fe nah sheitan Je sors tout droit de la boite et je vois des ss-ki nah sheitan Paris, la nuit ça tire ! Paris, la nuit ça deale Paris, la nuit ça tise ! Paris, la nuit ça sniffe Paris, la nuit ça tire ! Paris, la nuit ça deale Paris, la nuit ça tise ! Paris, la nuit ça sniffe 7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes C'est l'7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes Le 7.5, le 7.5 n'a pas de sécu Notre seule issue c'est de vendre du shit et le bif reste notre seul pécule Notre seul pécule, notre seul pécule Le 7.5, le 7.5 n'a pas de sécu - Wesh le H - Wesh S.Pri - Mais tu vas où ? - Avec Abou 2being, on est là - Hahahaha - Cintré comme ça, le pectoral saillant - Eh mon gars, ils sont où Jarod et tout ça ? - Eh, viens, on bombarde ma gueule ? - Eh, vas-y, viens, on bombarde direct, on va les calmer, rah Tu connais, tu connais, tu connais, tu connais Tu connais, tu connais, tu connais, tu connais Paris, by night, Paris, by night Paris, by night, Paris, by night P.A.R.I.S, Paris by night P.A.R.I.S, Paris by night, yeah 7.5, ouvre les yeux enfoiré L'Institut Frappe, rahigt</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>...You might also like</t>
+          <t>...</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Salut mon vieux tu m'reconnais ? Jpaye mes coups rebeu À contre-courant deux Tour de mollet quarante-deux Renoi jcoupe ton corps en deux Pourquoi tu men veux ? Jaloux de mon buzz Jtaurai niqué ta Si elle sappelait Karembeu Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub On investit la fête avec des billets violets Limbécile a faim, pourtant il passe sa vie au lit Linstru jlai violée Moi jsuis un rappeur bionique Jles nique toutes comme Biolay Jsuis dans lshop, jsuis dans lblock Jsuis dans mes pompes, jsuis dans lPorsche Jsuis dans lparking, jsuis dans le Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub Jsuis dans lclub, jsuis dans lclub DJ Skorp est dans lclub You might also like Jsuis dans lcarré VIP, Louboutin sur lcanapé Tout est clean, jsuis refait H Magnum, Beriz, ouais teubé XXX, ouais teubé Privilégié DJ Skorp, privilège Skorp Privilégié H Magnum, privilège Beriz Privilégié, privilège Privilégié, privilège On mdit H, range ton magnum et puis surine les ! Jsuis dans lclub, elle me téma comme un surhumain Ça désamorce les bombes jsuis entouré ddémineurs Tu veux tfaire lever, mais tes mineur Jsuis dans la H-Mobile ils mont pas vu venir Si jlui sors ma liasse jpense quelle va sévanouir Jaugmente le level, jsuis dans mon délire Gotham City arrive je sens dladrénaline Tu mreconnais, tu mreconnais En live et direct, est-cque tu mreconnais ? Tu mreconnais H Magnum, Beriz, DJ Skorp</t>
+          <t>Salut mon vieux tu m'reconnais ? Jpaye mes coups rebeu À contre-courant deux Tour de mollet quarante-deux Renoi jcoupe ton corps en deux Pourquoi tu men veux ? Jaloux de mon buzz Jtaurai niqué ta Si elle sappelait Karembeu Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub On investit la fête avec des billets violets Limbécile a faim, pourtant il passe sa vie au lit Linstru jlai violée Moi jsuis un rappeur bionique Jles nique toutes comme Biolay Jsuis dans lshop, jsuis dans lblock Jsuis dans mes pompes, jsuis dans lPorsche Jsuis dans lparking, jsuis dans le Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub Jsuis dans lclub, jsuis dans lclub DJ Skorp est dans lclub Jsuis dans lcarré VIP, Louboutin sur lcanapé Tout est clean, jsuis refait H Magnum, Beriz, ouais teubé XXX, ouais teubé Privilégié DJ Skorp, privilège Skorp Privilégié H Magnum, privilège Beriz Privilégié, privilège Privilégié, privilège On mdit H, range ton magnum et puis surine les ! Jsuis dans lclub, elle me téma comme un surhumain Ça désamorce les bombes jsuis entouré ddémineurs Tu veux tfaire lever, mais tes mineur Jsuis dans la H-Mobile ils mont pas vu venir Si jlui sors ma liasse jpense quelle va sévanouir Jaugmente le level, jsuis dans mon délire Gotham City arrive je sens dladrénaline Tu mreconnais, tu mreconnais En live et direct, est-cque tu mreconnais ? Tu mreconnais H Magnum, Beriz, DJ Skorp</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Fifteen years ago, the American public was introduced to Marshall Mathers, Eminem, and Slim Shady, a triptych of manic personalities whose interests included raising hell, making enemies, and sticking nine-inch nails through each one of their eyelids. To commemorate Shady being set loose upon the world, we've decided to rank every single song Em has released to date But first, allow us to qualify our countdown with a few rules of eligibility We only included songs that were given an official retail release that means tracks featured on studio albums, EPs, and compilations, plus guest verses we didn't consult mixtapes or unofficial freestyles, so we offer our deepest apologies to Nail in the Coffin, Til Hell Freezes Over, and other noteworthy rarities. Skits weren't considered, either condolences to all the Ken Kaniff and Steve Berman die-hards out there. Obviously, we only considered D12 tracks that featured a verse or hook from Eminem. And, finally, if there were multiple versions of a track, we opted to include the rendition we thought superior, so don't expect to see the live Grammy performance of Stan or The Slim Shady EP's Just the Two of Us. And with that, we begin the Eminem show... 289. C'mon Let Me Ride Skylar Grey feat. Eminem, Don't Look Down, 2013 288. Here Comes the Weekend Pink feat. Eminem, The Truth About Love, 2012 287. Fuck Off Kid Rock feat. Eminem, Devil Without a Cause, 1998 286. Off to Tijuana Hush feat. Eminem, Kuniva, and Swifty McVay, Bulletproof, 2005 285. Fack Curtain Call The Hits, 2005 284. Desperation feat. Jamie N Commons The Marshall Mathers LP 2 , 2013 283. It Has Been Said The Notorious B.I.G. feat. Diddy, Eminem, and Obie Trice, Duets The Final Chapter, 2005 282. Bitch D12, D12 World, 2004 281. Echo Bad Meets Evil, Hell The Sequel , 2011 280. Twerk Dat Pop That Trick Trick feat. Eminem and Royce da 5'9, Twerk Dat Pop That Single, 2014 279. I Need a Doctor Dr. Dre feat. Eminem and Skylar Grey, I Need a Doctor Single, 2011 278. The Reunion Bad Meets Evil, Hell The Sequel, 2011 277. Open Mic Infinite, 1996 276. Hustlers Hardcore Domingo feat. Eminem, Behind the Doors of the 13th Floor, 1999 275. Jealousy Woes II Infinite, 1996 274. No More to Say Trick Trick feat. Proof and Eminem, The People vs., 2005 273. Who Want It Trick Trick feat. Eminem, The Villain, 2008 272. Insane Relapse, 2009 271. Our House Slaughterhouse feat. Eminem and Skylar Grey, welcome to OUR HOUSE, 2012 270. Ass Like That Encore, 2004 269. Stronger Than I Was The Marshall Mathers LP 2, 2013 268. Big Weenie Encore, 2004 267. My 1st Single Encore, 2004 266. My Life 50 Cent feat. Eminem and Adam Levine, My Life Single, 2012 265. Asshole feat. Skylar Grey The Marshall Mathers LP 2, 2013 264. Beautiful Pain feat. Sia The Marshall Mathers LP 2 , 2013 263. Drama Setter Tony Yayo feat. Eminem and Obie Trice, Thoughts of a Predicate Felon, 2005 262. Chemical Warfare The Alchemist feat. Eminem, Chemical Warfare, 2009 261. My Ballz D12, The Longest Yard , 2005 260. Green and Gold The Anonymous feat. Eminem, Green and Gold, 1998 259. Throw That Slaughterhouse feat. Eminem, welcome to OUR HOUSE, 2012 258. Hip Hop Bizarre feat. Eminem, Hannicap Circus, 2005 257. Baby The Marshall Mathers LP 2 , 2013 256. Backstabber Infinite, 1996 255. Black Cotton 2Pac feat. Eminem, Kastro, and Young Noble, Loyal to the Game, 2004 254. Puke Encore, 2004 253. Pimp Like Me D12 feat. Dina Rae, Devil's Night, 2001 252. Above the Law Bad Meets Evil, Hell The Sequel, 2011 251. Taking My Ball Relapse Refill, 2009 250. Maxine Infinite, 1996 249. Asylum Slaughterhouse feat. Eminem, welcome to OUR HOUSE , 2012 248. A Kiss Bad Meets Evil, Hell The Sequel, 2011 247. Pimplikeness Proof feat. D12, Searching for Jerry Garcia, 2005 246. The Re-Up feat. 50 Cent Eminem Presents The Re-Up, 2006 245. Peep Show 50 Cent feat. Eminem, Curtis, 2007 244. 40 Oz. D12, D12 World, 2004 243. Love the Way You Lie Part II Rihanna feat. Eminem, Loud, 2010 242. When I'm Gone Curtain Call The Hits, 2005 241. Medicine Ball Relapse, 2009 240. Space Bound Recovery, 2010 239. There They Go Obie Trice feat. Eminem, Big Herk, and Trick Trick, Second Round's On Me, 2006 238. We Ain't The Game feat. Eminem, The Documentary, 2005 237. Buffalo Bill Relapse Refill, 2009 236. Evil Twin The Marshall Mathers LP 2, 2013 235. Where I'm At Lloyd Banks feat. Eminem, H.F.M. 2 The Hunger For More 2 , 2010 234. Almost Famous Recovery, 2010 233. Leave Dat Boy Alone D12, D12 World, 2004 232. We're Back feat. Obie Trice, Stat Quo, Cashis, and Bobby Creekwater Eminem Presents The Re-Up, 2006 231. American Psycho II D12 feat. B-Real, D12 World, 2004 230. Rain Man Encore, 2004 229. Throw It Up Yelawolf feat. Eminem and Gangsta Boo, Radioactive, 2011 228. Searchin' Infinite, 1996 227. Untitled Recovery, 2010 226. Drop the Bomb On 'Em Relapse Refill, 2009 225. Brainless The Marshall Mathers LP 2, 2013 224. Touchdown T.I. feat. Eminem, T.I. vs. T.I.P., 2007 223. Get Back Tony Touch feat. D12, The Piece Maker, 2000 222. 911 Boo-Yaa T.R.I.B.E. feat. Eminem and B-Real, West Koasta Nostra, 2003 221. Take From Me Bad Meets Evil, Hell The Sequel, 2011 220. It's OK Infinite, 1996 219. Guts Over Fear feat. Sia Shady XV, 2014 218. Symphony in H Tony Touch feat. Eminem, The Piece Maker Return of the 50 MC's, 2013 217. Lighters feat. Bruno Mars Bad Meets Evil, Hell The Sequel, 2011 216. 6 in the Morning D12, D12 World, 2004 215. Love the Way You Lie feat. Rihanna Recovery, 2010 214. Psycho 50 Cent feat. Eminem, Before I Self Destruct, 2009 213. Bagpipes From Baghdad Relapse, 2009 212. 313 Infinite, 1996 211. So Much Better The Marshall Mathers LP 2, 2013 210. You're Never Over Recovery, 2010 209. Git Up D12, D12 World, 2004 208. Crazy in Love Encore, 2004 207. Never 2 Far Infinite, 1996 206. Headlights feat. Nate Ruess The Marshall Mathers LP 2, 2013 205. Revelation D12, Devil's Night, 2001 204. Public Enemy 1 Eminem Presents The Re-Up, 2006 203. Pistol Poppin' Cashis feat. Eminem, The County Hound EP, 2007 202. My Band D12, D12 World, 2004 201. Love You More Encore , 2004 200. Hell Breaks Loose feat. Dr. Dre Relapse Refill, 2009 199. Won't Back Down feat. Pink Recovery, 2010 198. Hands on You Obie Trice feat. Eminem, Cheers, 2003 197. Must Be the Ganja Relapse, 2009 196. Session One feat. Slaughterhouse Recovery , 2010 195. Groundhog Day The Marshall Mathers LP 2 , 2013 194. 25 to Life Recovery, 2010 193. Survival The Marshall Mathers LP 2, 2013 192. Music Box Relapse Refill, 2009 191. Cum on Everybody The Slim Shady LP, 1999 190. Drop the World Lil Wayne feat. Eminem, Rebirth, 2009 189. Going Through Changes Recovery, 2010 188. Wicked Ways feat. X Ambassadors The Marshall Mathers LP 2 , 2013 187. Richard Obie Trice feat. Eminem, Bottom's Up, 2012 186. Welcome 2 Detroit Trick Trick feat. Eminem, The People vs., 2005 185. Jimmy Crack Corn feat. 50 Cent Eminem Presents The Re-Up, 2006 184. Ricky Ticky Toc Encore , 2004 183. Shit Hits the Fan Obie Trice feat. Dr. Dre and Eminem, Cheers, 2003 182. These Drugs D12, Devil's Night , 2001 181. Watch Deez Thirstin Howl III feat. Eminem, Skilligan's Island, 2002 180. Not Afraid Recovery, 2010 179. Get You Mad The Slim Shady LP , 2003 178. One Day at a Time Em's Version 2Pac with Eminem feat. Outlawz, 2Pac Resurrection , 2003 177. Tonite Infinite, 1996 176. Ridaz Recovery , 2010 175. Old Time's Sake feat. Dr. Dre Relapse, 2009 174. Don't Push Me 50 Cent feat. Eminem and Lloyd Banks, Get Rich or Die Tryin', 2003 173. No Love feat. Lil Wayne Recovery, 2010 172. We Made You Relapse, 2009 171. Smack That Akon feat. Eminem, Konvicted, 2006 170. What If I Was White Sticky Fingaz feat. Eminem, Blacktrash The Autobiography of Kirk Jones, 2001 169. My Darling Relapse , 2009 168. Doe Rae Me Straight From the Lab, 2003 167. Serious Remix Proof feat. Eminem, Swift McVay, and Promatic, One, Two Single, 2002 166. Trife Thieves Bizarre feat. Eminem and Fuzz Scoota, Attack of the Weirdos EP, 1998 165. Freestyle DJ Kayslay feat. Eminem, The Streetsweeper Vol. 1, 2003 164. Welcome 2 Hell Bad Meets Evil, Hell The Sequel, 2011 163. Airplanes, Pt. II B.o.B. feat. Hayley Williams and Eminem, B.o.B. Presents The Adventures of Bobby Ray, 2010 162. Numb Rihanna feat. Eminem, Unapologetic, 2012 161. How Come D12, D12 World, 2004 160. Rap Game D12 feat. 50 Cent, Music From and Inspired By the Motion Picture 8 Mile, 2002 159. Just Lose It Encore, 2004 158. We As Americans Encore , 2004 157. Shake That feat. Nate Dogg Curtain Call The Hits, 2005 156. We Shine Da Ruckus feat. Eminem, Da Ruckus, Episode 1, 1998 155. Blow My Buzz D12, Devil's Night, 2001 154. On Fire Recovery, 2010 153. Hailie's Song The Eminem Show, 2002 152. Love Game feat. Kendrick Lamar The Marshall Mathers LP 2, 2013 151. Living Proof Bad Meets Evil, Hell The Sequel , 2011 150. Ain't Nuttin' But Music D12 feat. Dr. Dre, Devil's Night, 2001 149. My Mom Relapse, 2009 148. Devil's Night D12, Devil's Night, 2001 147. Go to Sleep Eminem, Obie Trice, and DMX, Cradle 2 the Grave , 2003 146. Cold Wind Blows Recovery, 2010 145. Shit Can Happen D12, Devil's Night, 2001 144. One Shot 2 Shot feat. D12 Encore, 2004 143. That's All She Wrote T.I. feat. Eminem, No Mercy, 2010 142. Mosh Encore, 2004 141. Hello Relapse, 2009 140. Loud Noises feat. Slaughterhouse Bad Meets Evil, Hell The Sequel, 2011 139. Writer's Block Royce da 5'9 feat. Eminem, Success Is Certain, 2011 138. W.T.P. Recovery, 2010 137. My Dad's Gone Crazy The Eminem Show, 2002 136. Careful What You Wish For Relapse , 2009 135. Berzerk The Marshall Mathers LP 2, 2013 134. Wanksta Eminem's Version The Singles, 2003 133. American Psycho D12, Devil's Night, 2001 132. No Apologies Eminem Presents The Re-Up, 2006 131. Low Down, Dirty The Slim Shady EP, 1997 130. So Bad Recovery, 2010 129. Same Song Dance Relapse, 2009 128. Drips feat. Obie Trice The Eminem Show, 2002 127. Desperados DJ Butter feat. Eminem, Bugz, Proof, Tha Almighty Dreadnaughtz, Kill the DJ, 2000 126. Soldier Like Me 2Pac feat. Eminem, Loyal to the Game, 2004 125. Talkin' 2 Myself feat. Kobe Recovery, 2010 124. Pistol Pistol D12, Devil's Night, 2001 123. Lean Back Remix Fat Joe feat. Eminem, Mae, Lil Jon, and Remy Ma, All or Nothing, 2005 122. Shit On You D12, Devil's Night , 2001 121. Spend Some Time feat. Obie Trice, Stat Quo, and 50 Cent Encore, 2004 120. Warrior, Pt. 2 Lloyd Banks feat. Eminem, 50 Cent, and Nate Dogg, The Hunger for More, 2004 119. When the Music Stops feat. D12 The Eminem Show, 2002 118. Slow Your Roll D12, D12 World , 2004 117. Evil Deeds Encore, 2004 116. 3hree6ix5ive Old World Disorder feat. Eminem, Restaurant ... It Ain't Always on the Menu , 2000 115. Mockingbird Encore, 2004 114. I Remember Dedication to Whitey Ford Street Version D12, Shit On You Single, 2001 113. The Monster feat. Rihanna The Marshall Mathers LP 2, 2013 112. Words Are Weapons D12, Devil's Night , 2001 111. Monkey See, Monkey Do Straight From the Lab, 2003 110. Bad Guys Always Die Dr. Dre Eminem, Wild Wild West , 1999 109. 5 Star Generals Shabaam Sahdeeq feat. Eminem, Skam, A.L., and Kwest, Sound Clash Single, 1998 108. I'm Gone DJ Kayslay feat. Eminem and Obie Trice, The Streetsweeper Vol. 2 The Pain From the Game, 2004 107. Bully Straight From the Lab, 2003 106. Get My Gun D12, D12 World, 2004 105. Never Enough feat. 50 Cent and Nate Dogg Encore, 2004 104. I'm On Everything feat. Mike Epps Bad Meets Evil, Hell The Sequel, 2011 103. Outro Obie Trice feat. D12, Cheers, 2003 102. What the Beat DJ Clue? feat. Eminem, Method Man, and Royce da 5'9, The Professional 2, 2001 101. Legacy The Marshall Mathers LP 2, 2013 100. Superman feat. Dina Rae The Eminem Show, 2002 99. Rock City Royce da 5'9 feat. Eminem, Rock City , 2002 98. Calm Down Busta Rhymes feat. Eminem, Calm Down Single, 2014 97. Stir Crazy The Madd Rapper feat. Eminem, Tell 'Em Why U Madd, 2000 96. The Conspiracy Freestyle feat. 50 Cent Straight From the Lab, 2003 95. Bad Guy The Marshall Mathers LP 2, 2013 94. Can-I-Bitch Straight From the Lab, 2003 93. Keep Talkin D12, D12 World, 2004 92. Amityville The Marshall Mathers LP, 2000 91. Hellbound Masta Ace feat. Eminem and J-Black, Game Over, 2000 90. Bump Heads feat. 50 Cent, Tony Yayo, and Lloyd Banks Straight From the Lab, 2003 89. Girls Limp Bizkit Diss D12, Devil's Night, 2001 88. Lady Obie Trice feat. Eminem, Cheers, 2003 87. Forever Drake feat. Kanye West, Lil Wayne, and Eminem, Relapse Refill, 2009 86. Don't Front feat. Buckshot The Marshall Mathers LP 2 , 2013 85. My Fault The Slim Shady LP, 1999 84. No One's Iller feat. Swifty McVay, Bizarre, and Fuzz The Slim Shady EP, 1997 83. Love Me feat. 50 Cent and Obie Trice Music From and Inspired By the Motion Picture 8 Mile, 2002 82. Underground Relapse, 2009 81. So Far The Marshall Mathers LP 2, 2013 80. Fight Music D12, Devil's Night, 2001 79. Stay Wide Awake Relapse, 2009 78. Cinderella Man Recovery, 2010 77. Nuttin' To Do Bad Meets Evil, Nuttin' To Do Single, 1999 76. Elevator Relapse Refill, 2009 75. We All Die One Day Obie Trice feat. Eminem, 50 Cent, Lloyd Banks, and Tony Yayo, Cheers, 2003 74. The Anthem Sway King Tech feat. RZA, Tech N9ne, Eminem, Xzibit, Pharoahe Monch, Kool G Rap, Jayo Felony, Chino XL, and KRS-One, This or That, 1999 73. Yellow Brick Road Encore, 2004 72. My Name Xzibit feat. Eminem and Nate Dogg, Man vs. Machine, 2002 71. Say Goodbye Hollywood The Eminem Show, 2002 70. Seduction Recovery, 2010 69. Welcome to D-Block Jadakiss feat. The LOX and Eminem, Kiss of Death, 2004 68. 3 a.m. Relapse, 2009 67. Off the Wall Eminem and Redman, Nutty Professor II The Klumps , 2000 66. Roman's Revenge Nicki Minaj feat. Eminem, Pink Friday, 2010 65. Square Dance The Eminem Show, 2002 64. You Don't Know feat. 50 Cent, Lloyd Banks, and Cashis Eminem Presents The Re-Up, 2006 63. Gatman Robbin' 50 Cent feat. Eminem, The Massacre, 2005 62. Beautiful Relapse, 2009 61. Rush Ya Clique Outsidaz feat. Eminem, Night Life, 2000 60. Rabbit Run Music From and Inspired By the Motion Picture 8 Mile, 2002 59. Without Me The Eminem Show, 2002 58. The Last Hit The High Mighty feat. Eminem, Home Field Advantage, 1999 57. Busa Rhyme Missy Elliott feat. Eminem, Da Real World, 1999 56. Murder, Murder The Slim Shady EP, 1997 55. Infinite Infinite, 1996 54. I'm Shady The Slim Shady LP, 1999 53. Rhyme or Reason The Marshall Mathers LP 2, 2013 52. Under the Influence feat. D12 The Marshall Mathers LP, 2000 51. Scary Movies Bad Meets Evil, Nuttin' To Do Single, 1999 50. Still Don't Give a Fuck The Slim Shady LP, 1999 49. Bad Influence End of Days , 1999 48. Crack a Bottle Relapse, 2009 47. If I Get Locked Up Funkmaster Flex and Big Kap feat. Dr. Dre and Eminem, The Tunnel, 1999 46. 8 Mile Music From and Inspired By the Motion Picture 8 Mile, 2002 45. Don't Approach Me Xzibit feat. Eminem, Restless, 2000 44. Fast Lane Bad Meets Evil, Hell The Sequel, 2011 43. EncoreCurtains Down feat. Dr. Dre and 50 Cent Encore, 2004 42. As the World Turns The Slim Shady LP, 1999 41. Purple Pills D12, Devil's Night, 2001 40. Drug Ballad feat. Dina Rae The Marshall Mathers LP, 2000 39. Soldier The Eminem Show, 2002 38. Say What You Say feat. Dr. Dre The Eminem Show, 2002 37. Bitch Please II feat. Dr. Dre, Snoop Dogg, Xzibit, and Nate Dogg The Marshall Mathers LP, 2000 36. Déjà Vu Relapse, 2009 35. Business The Eminem Show, 2002 34. The Kids The Marshall Mathers LP , 2000 33. Sing for the Moment The Eminem Show, 2002 32. Dead Wrong The Notorious B.I.G. feat. Eminem, Born Again, 1999 31. Stimulate Music From and Inspired By the Motion Picture 8 Mile , 2002 30. Marshall Mathers The Marshall Mathers LP, 2000 29. Bad Meets Evil feat. Royce da 5'9 The Slim Shady LP, 1999 28. Remember Me? feat. RBX and Sticky Fingaz The Marshall Mathers LP, 2000 27. Role Model The Slim Shady LP, 1999 26. Like Toy Soldiers Encore, 2004 25. Guilty Conscience The Slim Shady LP, 1999 24. White America The Eminem Show, 2002 23. Patiently Waiting 50 Cent feat. Eminem, Get Rich or Die Tryin', 2003 22. Brain Damage The Slim Shady LP, 1999 21. Who Knew The Marshall Mathers LP, 2000 20. What's the Difference Dr. Dre feat. Eminem and Xzibit, 2001, 1999 19. Any Man Rawkus Presents Soundbombing II, 1999 18. Criminal The Marshall Mathers LP, 2000 17. The Way I Am The Marshall Mathers LP, 2000 16. Rap God The Marshall Mathers LP 2, 2013 15. The Real Slim Shady The Marshall Mathers LP, 2000 14. I'm Back The Marshall Mathers LP, 2000 13. Rock Bottom The Slim Shady LP, 1999 12. Just Don't Give a Fuck The Slim Shady LP, 1999 11. Lose Yourself Music From and Inspired By the Motion Picture 8 Mile, 2002 10. Kim The Marshall Mathers LP, 2000 9. Renegade Jay Z feat. Eminem, The Blueprint, 2001 8. Cleanin' Out My Closet The Eminem Show, 2002 7. If I Had The Slim Shady LP, 1999 6. Stan The Marshall Mathers LP, 2000 5. My Name Is The Slim Shady LP, 1999 4. 'Till I Collapse The Eminem Show, 2002 3. '97 Bonnie Clyde The Slim Shady LP, 1999 2. Kill You The Marshall Mathers LP, 2000 1. Forgot About Dre Dr. Dre feat. Eminem, 2001, 1999You might also like30</t>
+          <t>Fifteen years ago, the American public was introduced to Marshall Mathers, Eminem, and Slim Shady, a triptych of manic personalities whose interests included raising hell, making enemies, and sticking nine-inch nails through each one of their eyelids. To commemorate Shady being set loose upon the world, we've decided to rank every single song Em has released to date But first, allow us to qualify our countdown with a few rules of eligibility We only included songs that were given an official retail release that means tracks featured on studio albums, EPs, and compilations, plus guest verses we didn't consult mixtapes or unofficial freestyles, so we offer our deepest apologies to Nail in the Coffin, Til Hell Freezes Over, and other noteworthy rarities. Skits weren't considered, either condolences to all the Ken Kaniff and Steve Berman die-hards out there. Obviously, we only considered D12 tracks that featured a verse or hook from Eminem. And, finally, if there were multiple versions of a track, we opted to include the rendition we thought superior, so don't expect to see the live Grammy performance of Stan or The Slim Shady EP's Just the Two of Us. And with that, we begin the Eminem show... 289. C'mon Let Me Ride Skylar Grey feat. Eminem, Don't Look Down, 2013 288. Here Comes the Weekend Pink feat. Eminem, The Truth About Love, 2012 287. Fuck Off Kid Rock feat. Eminem, Devil Without a Cause, 1998 286. Off to Tijuana Hush feat. Eminem, Kuniva, and Swifty McVay, Bulletproof, 2005 285. Fack Curtain Call The Hits, 2005 284. Desperation feat. Jamie N Commons The Marshall Mathers LP 2 , 2013 283. It Has Been Said The Notorious B.I.G. feat. Diddy, Eminem, and Obie Trice, Duets The Final Chapter, 2005 282. Bitch D12, D12 World, 2004 281. Echo Bad Meets Evil, Hell The Sequel , 2011 280. Twerk Dat Pop That Trick Trick feat. Eminem and Royce da 5'9, Twerk Dat Pop That Single, 2014 279. I Need a Doctor Dr. Dre feat. Eminem and Skylar Grey, I Need a Doctor Single, 2011 278. The Reunion Bad Meets Evil, Hell The Sequel, 2011 277. Open Mic Infinite, 1996 276. Hustlers Hardcore Domingo feat. Eminem, Behind the Doors of the 13th Floor, 1999 275. Jealousy Woes II Infinite, 1996 274. No More to Say Trick Trick feat. Proof and Eminem, The People vs., 2005 273. Who Want It Trick Trick feat. Eminem, The Villain, 2008 272. Insane Relapse, 2009 271. Our House Slaughterhouse feat. Eminem and Skylar Grey, welcome to OUR HOUSE, 2012 270. Ass Like That Encore, 2004 269. Stronger Than I Was The Marshall Mathers LP 2, 2013 268. Big Weenie Encore, 2004 267. My 1st Single Encore, 2004 266. My Life 50 Cent feat. Eminem and Adam Levine, My Life Single, 2012 265. Asshole feat. Skylar Grey The Marshall Mathers LP 2, 2013 264. Beautiful Pain feat. Sia The Marshall Mathers LP 2 , 2013 263. Drama Setter Tony Yayo feat. Eminem and Obie Trice, Thoughts of a Predicate Felon, 2005 262. Chemical Warfare The Alchemist feat. Eminem, Chemical Warfare, 2009 261. My Ballz D12, The Longest Yard , 2005 260. Green and Gold The Anonymous feat. Eminem, Green and Gold, 1998 259. Throw That Slaughterhouse feat. Eminem, welcome to OUR HOUSE, 2012 258. Hip Hop Bizarre feat. Eminem, Hannicap Circus, 2005 257. Baby The Marshall Mathers LP 2 , 2013 256. Backstabber Infinite, 1996 255. Black Cotton 2Pac feat. Eminem, Kastro, and Young Noble, Loyal to the Game, 2004 254. Puke Encore, 2004 253. Pimp Like Me D12 feat. Dina Rae, Devil's Night, 2001 252. Above the Law Bad Meets Evil, Hell The Sequel, 2011 251. Taking My Ball Relapse Refill, 2009 250. Maxine Infinite, 1996 249. Asylum Slaughterhouse feat. Eminem, welcome to OUR HOUSE , 2012 248. A Kiss Bad Meets Evil, Hell The Sequel, 2011 247. Pimplikeness Proof feat. D12, Searching for Jerry Garcia, 2005 246. The Re-Up feat. 50 Cent Eminem Presents The Re-Up, 2006 245. Peep Show 50 Cent feat. Eminem, Curtis, 2007 244. 40 Oz. D12, D12 World, 2004 243. Love the Way You Lie Part II Rihanna feat. Eminem, Loud, 2010 242. When I'm Gone Curtain Call The Hits, 2005 241. Medicine Ball Relapse, 2009 240. Space Bound Recovery, 2010 239. There They Go Obie Trice feat. Eminem, Big Herk, and Trick Trick, Second Round's On Me, 2006 238. We Ain't The Game feat. Eminem, The Documentary, 2005 237. Buffalo Bill Relapse Refill, 2009 236. Evil Twin The Marshall Mathers LP 2, 2013 235. Where I'm At Lloyd Banks feat. Eminem, H.F.M. 2 The Hunger For More 2 , 2010 234. Almost Famous Recovery, 2010 233. Leave Dat Boy Alone D12, D12 World, 2004 232. We're Back feat. Obie Trice, Stat Quo, Cashis, and Bobby Creekwater Eminem Presents The Re-Up, 2006 231. American Psycho II D12 feat. B-Real, D12 World, 2004 230. Rain Man Encore, 2004 229. Throw It Up Yelawolf feat. Eminem and Gangsta Boo, Radioactive, 2011 228. Searchin' Infinite, 1996 227. Untitled Recovery, 2010 226. Drop the Bomb On 'Em Relapse Refill, 2009 225. Brainless The Marshall Mathers LP 2, 2013 224. Touchdown T.I. feat. Eminem, T.I. vs. T.I.P., 2007 223. Get Back Tony Touch feat. D12, The Piece Maker, 2000 222. 911 Boo-Yaa T.R.I.B.E. feat. Eminem and B-Real, West Koasta Nostra, 2003 221. Take From Me Bad Meets Evil, Hell The Sequel, 2011 220. It's OK Infinite, 1996 219. Guts Over Fear feat. Sia Shady XV, 2014 218. Symphony in H Tony Touch feat. Eminem, The Piece Maker Return of the 50 MC's, 2013 217. Lighters feat. Bruno Mars Bad Meets Evil, Hell The Sequel, 2011 216. 6 in the Morning D12, D12 World, 2004 215. Love the Way You Lie feat. Rihanna Recovery, 2010 214. Psycho 50 Cent feat. Eminem, Before I Self Destruct, 2009 213. Bagpipes From Baghdad Relapse, 2009 212. 313 Infinite, 1996 211. So Much Better The Marshall Mathers LP 2, 2013 210. You're Never Over Recovery, 2010 209. Git Up D12, D12 World, 2004 208. Crazy in Love Encore, 2004 207. Never 2 Far Infinite, 1996 206. Headlights feat. Nate Ruess The Marshall Mathers LP 2, 2013 205. Revelation D12, Devil's Night, 2001 204. Public Enemy 1 Eminem Presents The Re-Up, 2006 203. Pistol Poppin' Cashis feat. Eminem, The County Hound EP, 2007 202. My Band D12, D12 World, 2004 201. Love You More Encore , 2004 200. Hell Breaks Loose feat. Dr. Dre Relapse Refill, 2009 199. Won't Back Down feat. Pink Recovery, 2010 198. Hands on You Obie Trice feat. Eminem, Cheers, 2003 197. Must Be the Ganja Relapse, 2009 196. Session One feat. Slaughterhouse Recovery , 2010 195. Groundhog Day The Marshall Mathers LP 2 , 2013 194. 25 to Life Recovery, 2010 193. Survival The Marshall Mathers LP 2, 2013 192. Music Box Relapse Refill, 2009 191. Cum on Everybody The Slim Shady LP, 1999 190. Drop the World Lil Wayne feat. Eminem, Rebirth, 2009 189. Going Through Changes Recovery, 2010 188. Wicked Ways feat. X Ambassadors The Marshall Mathers LP 2 , 2013 187. Richard Obie Trice feat. Eminem, Bottom's Up, 2012 186. Welcome 2 Detroit Trick Trick feat. Eminem, The People vs., 2005 185. Jimmy Crack Corn feat. 50 Cent Eminem Presents The Re-Up, 2006 184. Ricky Ticky Toc Encore , 2004 183. Shit Hits the Fan Obie Trice feat. Dr. Dre and Eminem, Cheers, 2003 182. These Drugs D12, Devil's Night , 2001 181. Watch Deez Thirstin Howl III feat. Eminem, Skilligan's Island, 2002 180. Not Afraid Recovery, 2010 179. Get You Mad The Slim Shady LP , 2003 178. One Day at a Time Em's Version 2Pac with Eminem feat. Outlawz, 2Pac Resurrection , 2003 177. Tonite Infinite, 1996 176. Ridaz Recovery , 2010 175. Old Time's Sake feat. Dr. Dre Relapse, 2009 174. Don't Push Me 50 Cent feat. Eminem and Lloyd Banks, Get Rich or Die Tryin', 2003 173. No Love feat. Lil Wayne Recovery, 2010 172. We Made You Relapse, 2009 171. Smack That Akon feat. Eminem, Konvicted, 2006 170. What If I Was White Sticky Fingaz feat. Eminem, Blacktrash The Autobiography of Kirk Jones, 2001 169. My Darling Relapse , 2009 168. Doe Rae Me Straight From the Lab, 2003 167. Serious Remix Proof feat. Eminem, Swift McVay, and Promatic, One, Two Single, 2002 166. Trife Thieves Bizarre feat. Eminem and Fuzz Scoota, Attack of the Weirdos EP, 1998 165. Freestyle DJ Kayslay feat. Eminem, The Streetsweeper Vol. 1, 2003 164. Welcome 2 Hell Bad Meets Evil, Hell The Sequel, 2011 163. Airplanes, Pt. II B.o.B. feat. Hayley Williams and Eminem, B.o.B. Presents The Adventures of Bobby Ray, 2010 162. Numb Rihanna feat. Eminem, Unapologetic, 2012 161. How Come D12, D12 World, 2004 160. Rap Game D12 feat. 50 Cent, Music From and Inspired By the Motion Picture 8 Mile, 2002 159. Just Lose It Encore, 2004 158. We As Americans Encore , 2004 157. Shake That feat. Nate Dogg Curtain Call The Hits, 2005 156. We Shine Da Ruckus feat. Eminem, Da Ruckus, Episode 1, 1998 155. Blow My Buzz D12, Devil's Night, 2001 154. On Fire Recovery, 2010 153. Hailie's Song The Eminem Show, 2002 152. Love Game feat. Kendrick Lamar The Marshall Mathers LP 2, 2013 151. Living Proof Bad Meets Evil, Hell The Sequel , 2011 150. Ain't Nuttin' But Music D12 feat. Dr. Dre, Devil's Night, 2001 149. My Mom Relapse, 2009 148. Devil's Night D12, Devil's Night, 2001 147. Go to Sleep Eminem, Obie Trice, and DMX, Cradle 2 the Grave , 2003 146. Cold Wind Blows Recovery, 2010 145. Shit Can Happen D12, Devil's Night, 2001 144. One Shot 2 Shot feat. D12 Encore, 2004 143. That's All She Wrote T.I. feat. Eminem, No Mercy, 2010 142. Mosh Encore, 2004 141. Hello Relapse, 2009 140. Loud Noises feat. Slaughterhouse Bad Meets Evil, Hell The Sequel, 2011 139. Writer's Block Royce da 5'9 feat. Eminem, Success Is Certain, 2011 138. W.T.P. Recovery, 2010 137. My Dad's Gone Crazy The Eminem Show, 2002 136. Careful What You Wish For Relapse , 2009 135. Berzerk The Marshall Mathers LP 2, 2013 134. Wanksta Eminem's Version The Singles, 2003 133. American Psycho D12, Devil's Night, 2001 132. No Apologies Eminem Presents The Re-Up, 2006 131. Low Down, Dirty The Slim Shady EP, 1997 130. So Bad Recovery, 2010 129. Same Song Dance Relapse, 2009 128. Drips feat. Obie Trice The Eminem Show, 2002 127. Desperados DJ Butter feat. Eminem, Bugz, Proof, Tha Almighty Dreadnaughtz, Kill the DJ, 2000 126. Soldier Like Me 2Pac feat. Eminem, Loyal to the Game, 2004 125. Talkin' 2 Myself feat. Kobe Recovery, 2010 124. Pistol Pistol D12, Devil's Night, 2001 123. Lean Back Remix Fat Joe feat. Eminem, Mae, Lil Jon, and Remy Ma, All or Nothing, 2005 122. Shit On You D12, Devil's Night , 2001 121. Spend Some Time feat. Obie Trice, Stat Quo, and 50 Cent Encore, 2004 120. Warrior, Pt. 2 Lloyd Banks feat. Eminem, 50 Cent, and Nate Dogg, The Hunger for More, 2004 119. When the Music Stops feat. D12 The Eminem Show, 2002 118. Slow Your Roll D12, D12 World , 2004 117. Evil Deeds Encore, 2004 116. 3hree6ix5ive Old World Disorder feat. Eminem, Restaurant ... It Ain't Always on the Menu , 2000 115. Mockingbird Encore, 2004 114. I Remember Dedication to Whitey Ford Street Version D12, Shit On You Single, 2001 113. The Monster feat. Rihanna The Marshall Mathers LP 2, 2013 112. Words Are Weapons D12, Devil's Night , 2001 111. Monkey See, Monkey Do Straight From the Lab, 2003 110. Bad Guys Always Die Dr. Dre Eminem, Wild Wild West , 1999 109. 5 Star Generals Shabaam Sahdeeq feat. Eminem, Skam, A.L., and Kwest, Sound Clash Single, 1998 108. I'm Gone DJ Kayslay feat. Eminem and Obie Trice, The Streetsweeper Vol. 2 The Pain From the Game, 2004 107. Bully Straight From the Lab, 2003 106. Get My Gun D12, D12 World, 2004 105. Never Enough feat. 50 Cent and Nate Dogg Encore, 2004 104. I'm On Everything feat. Mike Epps Bad Meets Evil, Hell The Sequel, 2011 103. Outro Obie Trice feat. D12, Cheers, 2003 102. What the Beat DJ Clue? feat. Eminem, Method Man, and Royce da 5'9, The Professional 2, 2001 101. Legacy The Marshall Mathers LP 2, 2013 100. Superman feat. Dina Rae The Eminem Show, 2002 99. Rock City Royce da 5'9 feat. Eminem, Rock City , 2002 98. Calm Down Busta Rhymes feat. Eminem, Calm Down Single, 2014 97. Stir Crazy The Madd Rapper feat. Eminem, Tell 'Em Why U Madd, 2000 96. The Conspiracy Freestyle feat. 50 Cent Straight From the Lab, 2003 95. Bad Guy The Marshall Mathers LP 2, 2013 94. Can-I-Bitch Straight From the Lab, 2003 93. Keep Talkin D12, D12 World, 2004 92. Amityville The Marshall Mathers LP, 2000 91. Hellbound Masta Ace feat. Eminem and J-Black, Game Over, 2000 90. Bump Heads feat. 50 Cent, Tony Yayo, and Lloyd Banks Straight From the Lab, 2003 89. Girls Limp Bizkit Diss D12, Devil's Night, 2001 88. Lady Obie Trice feat. Eminem, Cheers, 2003 87. Forever Drake feat. Kanye West, Lil Wayne, and Eminem, Relapse Refill, 2009 86. Don't Front feat. Buckshot The Marshall Mathers LP 2 , 2013 85. My Fault The Slim Shady LP, 1999 84. No One's Iller feat. Swifty McVay, Bizarre, and Fuzz The Slim Shady EP, 1997 83. Love Me feat. 50 Cent and Obie Trice Music From and Inspired By the Motion Picture 8 Mile, 2002 82. Underground Relapse, 2009 81. So Far The Marshall Mathers LP 2, 2013 80. Fight Music D12, Devil's Night, 2001 79. Stay Wide Awake Relapse, 2009 78. Cinderella Man Recovery, 2010 77. Nuttin' To Do Bad Meets Evil, Nuttin' To Do Single, 1999 76. Elevator Relapse Refill, 2009 75. We All Die One Day Obie Trice feat. Eminem, 50 Cent, Lloyd Banks, and Tony Yayo, Cheers, 2003 74. The Anthem Sway King Tech feat. RZA, Tech N9ne, Eminem, Xzibit, Pharoahe Monch, Kool G Rap, Jayo Felony, Chino XL, and KRS-One, This or That, 1999 73. Yellow Brick Road Encore, 2004 72. My Name Xzibit feat. Eminem and Nate Dogg, Man vs. Machine, 2002 71. Say Goodbye Hollywood The Eminem Show, 2002 70. Seduction Recovery, 2010 69. Welcome to D-Block Jadakiss feat. The LOX and Eminem, Kiss of Death, 2004 68. 3 a.m. Relapse, 2009 67. Off the Wall Eminem and Redman, Nutty Professor II The Klumps , 2000 66. Roman's Revenge Nicki Minaj feat. Eminem, Pink Friday, 2010 65. Square Dance The Eminem Show, 2002 64. You Don't Know feat. 50 Cent, Lloyd Banks, and Cashis Eminem Presents The Re-Up, 2006 63. Gatman Robbin' 50 Cent feat. Eminem, The Massacre, 2005 62. Beautiful Relapse, 2009 61. Rush Ya Clique Outsidaz feat. Eminem, Night Life, 2000 60. Rabbit Run Music From and Inspired By the Motion Picture 8 Mile, 2002 59. Without Me The Eminem Show, 2002 58. The Last Hit The High Mighty feat. Eminem, Home Field Advantage, 1999 57. Busa Rhyme Missy Elliott feat. Eminem, Da Real World, 1999 56. Murder, Murder The Slim Shady EP, 1997 55. Infinite Infinite, 1996 54. I'm Shady The Slim Shady LP, 1999 53. Rhyme or Reason The Marshall Mathers LP 2, 2013 52. Under the Influence feat. D12 The Marshall Mathers LP, 2000 51. Scary Movies Bad Meets Evil, Nuttin' To Do Single, 1999 50. Still Don't Give a Fuck The Slim Shady LP, 1999 49. Bad Influence End of Days , 1999 48. Crack a Bottle Relapse, 2009 47. If I Get Locked Up Funkmaster Flex and Big Kap feat. Dr. Dre and Eminem, The Tunnel, 1999 46. 8 Mile Music From and Inspired By the Motion Picture 8 Mile, 2002 45. Don't Approach Me Xzibit feat. Eminem, Restless, 2000 44. Fast Lane Bad Meets Evil, Hell The Sequel, 2011 43. EncoreCurtains Down feat. Dr. Dre and 50 Cent Encore, 2004 42. As the World Turns The Slim Shady LP, 1999 41. Purple Pills D12, Devil's Night, 2001 40. Drug Ballad feat. Dina Rae The Marshall Mathers LP, 2000 39. Soldier The Eminem Show, 2002 38. Say What You Say feat. Dr. Dre The Eminem Show, 2002 37. Bitch Please II feat. Dr. Dre, Snoop Dogg, Xzibit, and Nate Dogg The Marshall Mathers LP, 2000 36. Déjà Vu Relapse, 2009 35. Business The Eminem Show, 2002 34. The Kids The Marshall Mathers LP , 2000 33. Sing for the Moment The Eminem Show, 2002 32. Dead Wrong The Notorious B.I.G. feat. Eminem, Born Again, 1999 31. Stimulate Music From and Inspired By the Motion Picture 8 Mile , 2002 30. Marshall Mathers The Marshall Mathers LP, 2000 29. Bad Meets Evil feat. Royce da 5'9 The Slim Shady LP, 1999 28. Remember Me? feat. RBX and Sticky Fingaz The Marshall Mathers LP, 2000 27. Role Model The Slim Shady LP, 1999 26. Like Toy Soldiers Encore, 2004 25. Guilty Conscience The Slim Shady LP, 1999 24. White America The Eminem Show, 2002 23. Patiently Waiting 50 Cent feat. Eminem, Get Rich or Die Tryin', 2003 22. Brain Damage The Slim Shady LP, 1999 21. Who Knew The Marshall Mathers LP, 2000 20. What's the Difference Dr. Dre feat. Eminem and Xzibit, 2001, 1999 19. Any Man Rawkus Presents Soundbombing II, 1999 18. Criminal The Marshall Mathers LP, 2000 17. The Way I Am The Marshall Mathers LP, 2000 16. Rap God The Marshall Mathers LP 2, 2013 15. The Real Slim Shady The Marshall Mathers LP, 2000 14. I'm Back The Marshall Mathers LP, 2000 13. Rock Bottom The Slim Shady LP, 1999 12. Just Don't Give a Fuck The Slim Shady LP, 1999 11. Lose Yourself Music From and Inspired By the Motion Picture 8 Mile, 2002 10. Kim The Marshall Mathers LP, 2000 9. Renegade Jay Z feat. Eminem, The Blueprint, 2001 8. Cleanin' Out My Closet The Eminem Show, 2002 7. If I Had The Slim Shady LP, 1999 6. Stan The Marshall Mathers LP, 2000 5. My Name Is The Slim Shady LP, 1999 4. 'Till I Collapse The Eminem Show, 2002 3. '97 Bonnie Clyde The Slim Shady LP, 1999 2. Kill You The Marshall Mathers LP, 2000 1. Forgot About Dre Dr. Dre feat. Eminem, 2001, 199930</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>À lautomne, lautomne Rien que mes larmes tombent rien quelles tombent Rien ne me satisfait tout cqui mplaît, je lperds de vue Rien ne me satisfait tout cqui mplaît, je lperds de vue Lautomne, lautomne, lautomne Rien que mes larmes tombent rien quelles tombent Le soleil se lève et je le vois quil ravive mes forces, parmi mes semblables Heurté par la pluie, je rêve la nuit, me croyant si spécial Et les jours passent, puis les années méclaircissent Les visages autour de moi vieillissent Balayé par le vent, je me rends compte que je tombe Éprouvé par le temps, embêtant Cest là que je me rends compte que je meurs Je meurs, je meurs À lautomne, lautomne Rien que mes larmes tombent rien quelles tombent Rien ne me satisfait tout cqui mplaît, je lperds de vue Rien ne me satisfait tout cqui mplaît, je lperds de vue Lautomne, lautomne, lautomne Rien que mes larmes tombent rien quelles tombent You might also like Le soleil se couche et sen va cest fini, je tombe parmi mes semblables Martelé par la pluie, obscurci par la nuit je nai plus rien dspécial Plus les jours passent et les années me détruisent Et les visages ne sont plus que souvenirs Piétiné par les gens, je réalise que jmenfonce Étouffé évidemment, embêtant Cest là que je me rends compte que je fais mon temps Maintenant je fous lcamp À lautomne, lautomne Rien que mes larmes tombent rien quelles tombent Rien ne me satisfait tout cqui mplaît, je lperds de vue Rien ne me satisfait tout cqui mplaît, je lperds de vue Lautomne, lautomne, lautomne Rien que mes larmes tombent rien quelles tombent Jai fait mon temps, maintenant je fous lcamp J'assiste à une nouvelle naissance, je ne men fais plus trop pour moi XXX, rendez-vous à la prochaine saison</t>
+          <t>À lautomne, lautomne Rien que mes larmes tombent rien quelles tombent Rien ne me satisfait tout cqui mplaît, je lperds de vue Rien ne me satisfait tout cqui mplaît, je lperds de vue Lautomne, lautomne, lautomne Rien que mes larmes tombent rien quelles tombent Le soleil se lève et je le vois quil ravive mes forces, parmi mes semblables Heurté par la pluie, je rêve la nuit, me croyant si spécial Et les jours passent, puis les années méclaircissent Les visages autour de moi vieillissent Balayé par le vent, je me rends compte que je tombe Éprouvé par le temps, embêtant Cest là que je me rends compte que je meurs Je meurs, je meurs À lautomne, lautomne Rien que mes larmes tombent rien quelles tombent Rien ne me satisfait tout cqui mplaît, je lperds de vue Rien ne me satisfait tout cqui mplaît, je lperds de vue Lautomne, lautomne, lautomne Rien que mes larmes tombent rien quelles tombent Le soleil se couche et sen va cest fini, je tombe parmi mes semblables Martelé par la pluie, obscurci par la nuit je nai plus rien dspécial Plus les jours passent et les années me détruisent Et les visages ne sont plus que souvenirs Piétiné par les gens, je réalise que jmenfonce Étouffé évidemment, embêtant Cest là que je me rends compte que je fais mon temps Maintenant je fous lcamp À lautomne, lautomne Rien que mes larmes tombent rien quelles tombent Rien ne me satisfait tout cqui mplaît, je lperds de vue Rien ne me satisfait tout cqui mplaît, je lperds de vue Lautomne, lautomne, lautomne Rien que mes larmes tombent rien quelles tombent Jai fait mon temps, maintenant je fous lcamp J'assiste à une nouvelle naissance, je ne men fais plus trop pour moi XXX, rendez-vous à la prochaine saison</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>I SHOOK HIS PRIDE! Like, Twork comin'. Nigga look alive. He died with his eyes wide open, the nigga look alive We finally got this locked bitches Took a hot minute Hot pistols You keep showin' up to battles wearin' all these fuckin' costumes, nigga you got issues Y'all won't be seein' no more Michael Jackson jackets So y'all just 'Remember The Time' you had 'Rock With You' Glock pistol, cock and spray But first I wanna give Roc his praise First nigga with this high level energy First nigga with gun lines back to back, there's a lot of things we got from Tay Glock'll spray I'ma put the Pioneer in the trunk, y'all gon' hear from a block away Stop it Tay, you just a bitch with guns Disrespectin' the hustle, and you disrespected Hustle Can't go back to New York for that shit that you done The apes gon' chase you right up out the Cave like Temple Run This who you deal with Smack? A nigga beefin' wit' a bitch from Gorilla Stone Ain't do shit to the niggas that took his chain, how real is that? You so worried about the Gorillas, you need to go get yo' silver back Silverback Steel will clap! You dyin' on the set, niggas took your jewels off in ya home town What was all this slidin' with the TEC? Couldn't be me, cause nigga I'ma die for my respect Let's take it back, Double Impact NWX, it was one, suck my dick and shit got violent for the vet So that's the second time niggas had to take Shine from 'round ya neck I get to wildin' with this TEC Burn him and blaze him Surf like, On Neighborhood Crip. You touch him and I'm knockin' you out. Nigga this .30 will bang him And at his funeral, ain't nothin' but sermons and prayers He can't call Surf to come save him This a pastor preachin' and this time you can't turn to ya neighbor This .30 gon' bang him Surf get to talkin' this Rolling 60 shit, I'ma buck my pound Give a 60 nine 69, I'ma hold this sucka upside down Live rounds goin' over his head I live 28 minutes from Edgewood, you know what it is Don't push me, I'm this close to the edge You was bold on the web, do all that talkin' in my face I'ma slide down errrrr, to that apartment with an .8 I see ya bitch, fo-fo I'm spark it in her face I told her to beware of the dog, and then I put Caution on the gate I'ma slide off, spin back, now there's Caution on the tape I'm so terrific I went in the kitchen, seen Chef, now it's broken dishes Living room, bucks left on the couch, can't even go and spend it Outside, Henny packed up, like the prohibition Pole I'm liftin' Rock landed in the neighbor yard, who gon' go and get it? I lift the pole on bitches Cannon clip you And lately I've been dealin' with bad bitches that I can't commit to So I can't just go out with a .9, I got standard issues Speakin' of standards Aye Lady Caution, let's stop this cappin' I heard you went from John John, Tsu Surf to- oh you got a top ten rappers? Heard she went from Gates Of The Garden to URL, wonder how she got them battles Don't you know back in the day whores got stoned to death? Ain't no wonder why Rock went at you You'se a little body bitch Popsicle body bitch Sick, need to be in the hospital body bitch McGriddle body bitch You'se a brittle body bitch The instrument they use to play the fiddle body bitch I'ma keep it goin' You'se a Henny bottle bitch Not even a full size, you'se a mini bottle bitch You got Minnie's body bitch You ain't anybody bitch Before yo' ass got with Roc you was anybody bitch That sound familiar What happened to ya baby moms? Y'all remember ya baby moms? She was bad as shit That unfulfillin' Now she's fuckin' with an NFL nigga, I know it fuckin' kills him Hoe football playin' 'round yo' fuckin' children like Russel Wilson I know it's tough to deal with Nigga ran off with ya hoe whole kid like Rumpelstiltskin I up the pistol Raise it on him, blaze it on him If I knock Dracula costume off he stays in coffin, even the red eyes take off, like a late departure No more keeping in contact, it's a restraining order I'm finna bang it on him I just ignore ya crew So many niggas done left the Cave, I can't even go to war witchu Ever since Brizz Rawsteen left, you need more recruits Aye Brizz, if it wasn't for Roc, you wouldn't even be here, he literally opened up doors for you I'm Strapped In! I'll clap you in a coma Madness I could snap at any moment According to the culture, y'all had it surely known But I was there, right by the stage, y'all got the story wrong Top threw a bottle, Brizz threw a bottle No Tax threw a bottle, they goin' on and on Brizz ran straight to the back, he got his Maury on Roc standin' there actin' like he don't know what's goin' on Top drop, Chess chest popped out like Omarion Sorry y'all! Rest in peace, Zaid, but Brizz homie the only one that was doin' Twork moves I would've went to jail, ended up in an orange shirt too Hurt who? Jersey You might also like You let me down in that tournament nigga What's up with that? 100K on the line, Drake added 50, damn near doubled that And you fumbled that? Boy if you come with three rounds tonight you lettin' me know I'm more important than them 100 racks You better come to rap nigga Not just for Drake or for uncle Smack If you choke, I'ma delete ya number outta my fuckin' jack I'ma up the strap, drum attached Somethin' clap Who's that offensive player for the Jets? Um, new jersey Nu Jerzey running back I gotta check him, without a question I feel like Will Smith, I gotta put my dawg dog down to show y'all I Am Legend Sinners gotta Heaven Splish Splash, a Hollow wet him Fire a weapon, let it fly through the buildin' 911 Nigga said he would kill Tay Roc, that's how they all sound Tonight is not the night for you to be droppin' the ball now Against me is ya last chance nigga, don't let us all down You the reason niggas like me gotta battle Swamp now Shotgun, sawed down This ain't a game, my passenger Burke put bucks Bucs on Twork Make it rain, we ain't the same I raise and aim, bang the thang Leave you sleep with ya eyes open in major pain Major Payne This nigga thought he could out bar me? How sorry I find out where you live, pull up, pull out calmly This shit'll take ya arm, leg and scalp partially Leave Twork twerk all over the crib, it's a House Party I can make every single bar gold, my touch is Midas like My hands hurt, cause whatever this author write is arthritis tight This guy get hype and he tryin' to fight The clip is a half moon and it's lit for you, the entire night I'm the violent type and more outspoken .40 cal' totin' You will get shot in ya head, ya scalp smokin' Like MGM films before the movie come on he'll hear a loud roar Then by lyin' lion with his mouth open Makin' movies is all that I care about Two choppers, two tri-pods this picture a pair'll mount Paramount I'll air him out, the steel lift and peel shit I'll have an arsenal Arsonal and Shotgun Surf-ing through Jersey Jerzey It'll get Real sick Sikh, real shit End ya life when this fifth bang Inf' beam Red Light, Green Light, Squid Game, the clip hang I ain't in a Crip gang But I'll send niggas to his neighborhood that's Nutty and Insane And they don't have patience They gon' dump every last case in Have the murder scene all sheets and Sheiks in Shells gas stations Pistol whip him, the end of the Mag' breakin' The vision of Twork twerk blurred out, like we censoring ass shakin' Strap blazin' Cook this cat like I'm half Asian We gon' wreck if you don't stay in ya lane like drag racin' A burner is gettin' lifted Murder a nigga wit' it Boy I'll turn you to one of them little circular picture pendants Boy, you fire, when you don't choke, and deliver all rage When you choke you let down the nigga that get us all paid You battled Loso, I was front row Yeah Givin' him all praise I had to give courage to Twork twerk like pills do for strippers on stage Clips is gon' blaze, you'll turn up dead I'll burn the lead You my brother I can't watch you die So I turn my head Raisin' cans gun cocks Gauges blam His body flip in the air And then Twork twerk on the ground, it's a Jamaican dance Aye, I'm at ya location, FN in the shorts Amazon Prime, I knocked then left him on the porch Stretched him with the torch Every round out the gun A ton'll tunnel go through New Jersey Nu Jerzey, I can connect him to New York I'll pull up in a Porsche Skkkkkrt Hop out of an old Carrera Bullets hit the couch, TV, I'm even smokin' smoke and mirrors If ya bitch live, it's cause I chose to spare her I have that whole place that Twork in twerking dead like strip clubs in the COVID era I'm talkin' 'bout hurt this man family, drown Twork Jersey Jerzey underwater Hurricane Sandy I'ma end up murkin' this bastard, have it lit at ya wake Ya funeral ratchet, Twork in a casket Don't fuck up my classic This shit here can even ya stock I hate the fact that you the one I gotta treat as an op' Believe it or not these heaters will pop I don't know this Gun Title, but even with a vest ya chest Chess won't be easy to Eazy The Block, nigga Light bars Gang shit When will all this treason stop? You don't do nothin' but gun bar after gun bar No substance, angles, schemes or plots If this what y'all callin' the face, I don't even wanna compete for slots Raisin' Kanan, why beef over territory, I don't see nothin' you unique in Rock He needs to stop it This biggest mouth with the weakest body Little dog, hidin' behind all that bark like Geechi Gotti It's transparent, speakin' of trans... Y'all gave me the dude with the allegations? Who the fuck is this man scaring? Truthfully I thought this nigga been gay Bengay, I put that on my grandparents You get clowned on stage, but that shit you do in the comfort of ya own home, just keep it from around this way I ain't come up here to talk about Roc heshe Rikishi, that's somethin' he gotta sit down and face I'ma surround his place Y'all think he poppin' but he not If he lose tonight, nothing from his stock is gonna drop If I lose tonight, ain't none of my problems gonna stop It's back to slidin' on the ops Cleanin' the McDonalds with a mop I'll be somewhere delivering Krusty Krab Pizza, I got a lot ridin' on this Rock I'ma slide down his block, take a right, cut the blinkers off Pull up to they hang out spot, I'ma creep in dark He outside with the whole Cave Gang, oh he think he smart I already saw Rock group, that's why the Lincoln Linkin Park That's old wisdom He don't know he gettin' a humble abode visit Soon as he pull up to the crib, I'm outside his home, sit I'ma stop Rock right before he go in, that's goal tendin' Like, Hoe nigga. This pistol mean violence. Soon as he look for his strap I knock the vision clean out him Caution in the back of him yellin' Aye Dracula tell her, if this bitch just keep wildin' I'ma put a Mac up to the bat, that's Mr. 3000 I'm wildin' I slide daily, insane asylum tryin' to see if my mind's stable Cause they found him face down in the hole, look like a massage table You not gangsta, you not concealin' What ops you killin'? They use Rock to hold the door open like a project buildin' You all kinds of filthy Fair warning, this nigga took a pic', legs cocked wide open Stickin' out his tongue, I said, What is this man doin'? I don't even wanna talk about that shit, I was scared for him Let's just jump from that line with his tongue out like Air Jordan Can' on him I'm Strapped In!! I'll clap you in a coma Madness I could snap at any moment I can't fall for these traps That nigga Murda Mook told you to suck his dick You said it was lit, I thought he mean that You see Mook ain't do a motherfuckin' thing That nigga Mook would've told me to suck his d- ooow, I couldn't seein' that It would've went from suck my dick to him doin' a Party Arty rematch I don't honor these cats I don't just talk, I really walk the shit I'm about The Cave known for pretendin', that's why y'all had to kick Vada out I keep hearin' Biggums fat ass screamin', Get that nigga Roc! The homies pullin' 'bout six Llamas out If we can't get Roc address a dress we goin' straight to Big Momma's House Llama's out, your baby girl won't last after these I'll put ya kid on the front page, give her Mad magazines I'ma clap at ya teen, I keep a biscuit Two Glocks, these ain't twins, but these is civil One bitch with no body swingin' for the Title like Venus Williams But the other bitch got Guns and Cake like Serena Williams I'ma squeeze relentless, grip the pound gun clicks Did him foul Baow, baow Hole so big you can see into Tay, I'm finna sit him down WHHHAT?! I bang nigga Piru Blood gang member Thang lift up I really bang though I'm a bastard and khaki Dickies was gang code My mom a pastor, I went to Catholic school in the same clothes I use to rob the white kids for they shoes, like, Change those. Ran them random bitches right outta they Vans like Bang Bros Thang blow... Jersey I told my girl, I'm 'bout to hit the club and find this bitch I wanna see Usually she would trip, but this specific time she didn't fuss with me She trusted me Cause I got her gun wit' me And she know I'ma be starin' at her texts TECs while this bitch Twork twerk in front of me Don't fuck wit' me gun cocks This a bull pup wit' me and this baby stay wit' me, I got full custody You battled Geechi and let him take ya place, disgustingly Now he's the face and you are the L URL of the company It's up wit' me Fuckers are Strapped In! It's straps 'round Like a mental patient in padded rooms, we strapped down We strapped now My straps? Bizarre, it don't stick out But still up to bust like a strapless bra If we scrap or brawl I'ma beat homie ass It's gon' be fast Pistol whip, strap to the face, Mick Foley mask Bro get stabbed, 'til it's stuck or broke in half And you can see it showin' through Jersey Jerzey like shoulder pads If I'd have read your tweets and you don't said, it's beef You would've been like that one Jersey nigga vs. Danny, spittin' out hella teeth Shit ain't never sweet Blade on me, turn you to shredded meat He ain't see the pick in the pocket, I'm a petty thief Rest in peace Buck shots go in the shotty I let this gauge pierce a big hole in ya body Or drive-by holdin' the Tommy Bllllllt Get ya block shot wit' the stick like I'm a goalie for hockey Everybody got guns, you must not comprehend barely You'se a fat nigga with a strap cause you been scary I'm a skinny nigga without a strap, I would've been buried Ace Amin is proof that niggas that even go to the gym, carry You know Jim Carey, that movie where, he had on that yellow tux I can have my dawg dog put a Mask on fuck shit up You'll get left with a head gash, dead ass He went missin', cops knew something was wrong when all they seen was a red flag Actual slaughter I will drive-by, clap up ya corner This cat is a goner I'll have ya blood splatterin' on ya If I use this Judge, I'ma have to ask for a lawyer I blew blue caps to the core like natural water, I have to destroy ya Sic the savages on ya Hit his organ, eyes organize will be fucked up like he ain't have it in order I'm at his door, packages for ya I caught Twork twerk in the room, I'm like a disappointed dad in the room with his daughter We at his funeral, in the back, standin' in a straight line His moms readin' that obituary and she can't stay calm She like, My baby Twork, AKA Raivon Got killed. Wearin' his hood like Trayvon. I will bang mine Come from this waistline, put you all away Y'all ain't know his name was Raivon? We gon' call him Ray You'll get the bat with the spikes in ya skull today Martin and Eddie in Life somethin' get clawed in Claude and Ray Bombs away You'll get shot with my thumper Sting Ray through the chest, Crocodile Hunter Roc's a wild fucker, dude's stay trippin' I'll have you eyein' a barrel, in high definition, it blew Blu Ray vision You joined K-Shine, then left him the next day? I seen through that shit when you joined NWX-Ray This ya death day, I'll do him mad cruddy Now answer this question If you so Strapped In, then how you crash, dummy? That's mad funny, you gon' get what you ask from me What you on? E? I'll put this. 40 on Five gas money Your whip crash, and you almost burned alive Guess what movie you would've had a perfect role in? New Jersey Drive I heard he died, then revived It was gettin' scary, they had to bring dawg dog back from the dead Pet Cemetery That car wreck, gave him another cut And another cut Cause his seatbelt wouldn't work when he was tryin' to buckle up You fuckin' nut, it's lit for you From here it ain't gettin' better Wait, fuck the cops that shot up ya whip, cause we stick together But the cops shot up ya whip and you ain't do shit? I thought you was wit' whatever You almost got taken out by a 12, like Cinderella On God shit nigga! We all at the table on some mob shit Suit up on him job shit Kim brother Rob shit My nigga don't talk, he smoke Silent Bob shit I Will, Smith the leader Suicide Squad shit No vegan, no tomato, I don't squash shit Outta nowhere you get popped up, surprise shit Taught to just stick through the beef kabob shit Put in work, before I had a car, it was my mom's shit Bomb shit, nowhere to hide shit I find shit and go through the door and flip the screen it's a Sidekick The .9 spit, this hammer ain't my shit Really the text TEC's is in a different name like a side chick The chopstick under the armpit clear a mosh pit No TV, this Drake ain't the one to Josh wit' His soul wonder Wanda up to the cosmos Fairly Odd shit Playgrounds or not, we swing through and slide shit When mine hit, everything inside rip, cause conflict Tie you up, no bondage, this guy a hostage Violent, pillow, over ya face, for silence Feathers fly everywhere like I shot an ostrich Ya side hit, I paralyze shit, make ya spine shift, ya mind split Ya egg crack, we tryin' omelets, I'm outta pocket I will leave this guy unconscious Hooked to machines and doctors doin' diagnostics No pipe wit' him, then it's the blade, the strike in him I might kill him He tryin' to wrestle, but losin' the fight in him His life endin' Paralyze him soon as the knife in him Leave Twork twerk without a bottom half like white women I'm triflin' At your funeral? Smokin' on the gas They bury you, then I burn the roses on the grass Don't want my fingerprints on it Cuz said, Hold it with the flag. I'll walk through Jerusalem like I'm Moses with the staff You dead nigga! Let's set this straight Yes I called you the GOAT cause when you move you don't hesitate I've been here for the Dodge emblems The Craftsmen jeans, how you got to Mook and then levitate I don't know a lot about antonyms and synonyms but I know how to shoot when the weapon straight And I know a lot about homonyms so I can't let you resume with this resume You finna die Indeed Aye Smack, if this ya brother, advise him please Pine boxes don't come from the finest trees And since he rich, you get high quality Redish brown wood mahogany Hand crafted in South America, you don't wanna see a guy in these Guyanese Fire please! If I burn his house down, who gon' be your face when ya man die Troy? Pour gasoline 'Lean Wit' It, Rock Wit' It' there goes your Franchise Boy! Twork jumps in the crowd Hand my toy I'm finna clip this nigga up You said, DNanny for DNA in New York That shit was iffy bruh, listen up I'll show you how to split the states and cities up Cause that ain't go over or land though Orlando like you went to Disney bruh I don't wanna see you now or again Oregon, I suggest the niggas wit' you Duck You go to police, it goes South da code of Dakota the streets take ya lips and zip 'em up I went to his home in Baltimore, the nigga think he big and tough When he see his daughter on the floor it'll Florida switch his feelings up On my waist is where the cans is Kansas and if I lift these pistols up I shoot his baby boy crib, I won't even miss his sippy Mississippi cup I'm 'bout to clip this nigga up Put ya boy up in a ditch Bang bang, that's the sound of ya shorty gettin' hit Bang bang, that's the sound of the war we in the mix He can't buckle up, his seatbelt won't work Bang bang, that's the sound of the .40 on my hip And this a new car, so if you don't buckle up you gon' keep hearin' that noise until it click I get noisy with this bitch 100 round out the TEC I'm firin' I'm 'bout to send you up to Heaven flyin' You 'bout to find out how beautiful God is like Aphrodite Hey Smack, if this ya gunner, you should've gave him better guidance He should've never tried this If he don't die, he gon' leave here in liver failure like hepatitis If I have to find him, I'ma grab the coaster I'm outside with the ratchet blowin' Boom boom, I shoot the door until the latch is broken Boom HEY ROC! He in the bed restin', I flip the mattress over Now he can sleep upside down just like a bat suppose to I'ma clap the toaster I'm holdin' the fifth I see Caution, I say, Bitch you better not open ya lips. I'm pretty cautious, gloves on so they don't notice the prints Red Lobster, I even put the tape over the grip Like, Where the coke and the piff? If I clip you up, that wasn't Roc, I really had rocks, I'm talkin' zips and up Methamphetamines, oxycodone, prescription drugs Back in my heyday, I would've had Caution samplin', pass yo' bitch the blunt Whole dip of stuff Like, This the stuff Let her test the boat out, make your missus Puff I got yo' bitch on cuff She talk crazy, but she follow the plans though Police pull us over, Big Bad Wolf, she gon' swallow the grams whole Can' blow, get ya pals dumped on Oh that's a vest? Teflon? That's just gon' get me riled up more Cause dome shots the only thing my pound bust for Better hope that's what your foreheads four heads made outta Rock like Mount Rushmore Dump on 'em, you might get killed Say somethin' I don't like for real You gon' die for real We goin' outside for a single file foul line like a fire drill I'm Strapped In!! I'll clap you in a coma Madness I could snap at any moment Your life is over, you might not quite deserve it But a kind soul won't do you no good, once I light ya- this might get personal Everybody duck cause this rifle burstin' It might split Drake head wide open just like the Sprite commercial When they ask who's the king, I'm the rightful person It's time to steal the torch I was outside with the fans, I'm the one they feel for sure I went to the small league events, I gave 'em real support I got PG's in the buildin', you try to seal the door I even stopped them Crucible niggas from havin' to deal with Norbes I took off the hood, I jumped over Suge I'm the most creative I went on strike when you said you wasn't earnin' paper When Smack had yo' pockets tapped, who returned the favor? I 'Started From The Bottom', no entourage, I was comin' six deep Still the most imitated, I'm the reason K-Shine went on a 20 win streak I'm the streets Pray to me, I'm the synagogue When it come to battle rap, I'm exactly what it epitomize Nigga I'm Smack gunner, it's time to wear that shit with pride Let's turn Real Nigga Time into the Bigga .9 Baow Baow Baow! Nigga died, I shot him in a jiffy Hit his noggin with a .50 French blunderbuss, take an oval off his head like Monica Lewinsky you gon' move out the burbs I'm 'bout to take this one to the grave, you got my word Drive-by, chopper out the GMC I'll shoot out the burg K clip, press down on a half moon Do not disturb! That was mean Twork And now I got a body on a half moon like DreamWorks You be talkin' often Nigga you soft as cotton Wait 'til ya gang get around and be talkin' often I'ma wait 'til them niggas leave and spark it on you Squid Games By the time they come back Rock's in the bag, he done lost his marbles Jersey! I ain't gon' lie, this nigga's my friend How about I get my kids you get ya kids we hit the beach and we can get 'em to swim? Nah, I'ma drive us all to a cliff and let the sinnin' begin I'ma let our Child's Play but I'ma push my friend to the end I really am him You, were not the first to be copied, I've been cloned I faced all the writers that been known Y'all Champion Of The Year, yeah, y'all see how I did Jones This nigga from the Cave knocked over more pens pins than Fred Flintstone I have to be the master Eazy, he the Captain of the trappers As far as Chess? He actually will clap ya Surf? I get to passin' him a ladder And have Tsunami hit Jerusalem, that's a natural disaster I'm uncontrollable And I don't do what I'm told to do Unload on you Then trash cans disposable Rifle, from the Civil War, put a hole in you Like Back II The Future, I will bring something old to Nu new Cannon wit' me, blam the semi, 'til this can' is empty With ya life, you're gamblin' Jerzey gamble in Jersey Atlantic City This man get busy Mini chopper mounted That mean the Drac' posted on the wall like a fan of Drizzy Stop playin' wit' me I don't follow by the rules, I gotta lot of goons Them niggas ain't got a lot to lose I got a lot of tools This a chopper not an Uz' This'll knock Nu New Balance off, see him flyin' out his shoes Ratchet dirty Soon as he turn around, clap the .30 NBA protest, that's a piece peace to the back of Jerzey jersey I'm a hunter, preserve the kill if the catch is worthy Hang his head up on the wall taxidermy Who believe in him? If the ambulance comin', bitch you needin' 'em They know not to gas me up, I use premium Chop off a limb, mail it to ya mom I get unique wit' 'em Foot Locker, I send her home a box with Nu new feet in 'em The can' erupt, blam shit up It's like bowlin' after we done rollin', there won't be much left standin' up I don't care if this TEC jam or what Stab his side, get to ribin' ribbon on Jerzey jersey it's Breast Cancer Month Poof Magically, appears a Nina They hear this steamer It'll go from this shit bein' packed to a clear arena Jakk better not try to be no hero either I'ma bomb through him then drop Nu clear nuclear Hiroshima Kill his leader, hollow tips what this clip contain Turn him to a memory inside of a picture frame Up close or long distance aim Don't matter, arms on Jerzey jersey, NBA Christmas game I lift and bang Your vocal cords will get shot Your voice? Over, like them videos on Tik Tok I don't believe that ya clique pop Bitch stop All that tough talk, I ain't buyin' that Nu new thrift shop Make ya strip hot This shit drop whoever not in the family Shreddin' niggas Edward Scissors, the chop is handy We get the drop then we slide in the Camry Huge shotty, I will get Nu new body Dr. Miami To these fans, you the wild Blood, the big bully But to me, you just lil' bruh, a kid to me You heard right, I poke this knife in his left, turn right Drive it straight up the middle of Jerzey Jersey turnpike You'se a termite I earned my position, you will get murked if I'm trippin' I will let every round burst from my Smith You fuck around and be a hurt opposition Left there, shakin', with a wet t-shirt Who said Twork twerk competition? You ain't ask the culture I'm mad that I had to smoke ya Everybody, Jerzey jersey in a bag practice over I tried to tell him that this ain't what he want from me Battle rap is not a job to me this shit is fun to me Fuck a scheme, angle, punch, it's 'bout a gun to me The gun is the only thing that get the job done for me</t>
+          <t>I SHOOK HIS PRIDE! Like, Twork comin'. Nigga look alive. He died with his eyes wide open, the nigga look alive We finally got this locked bitches Took a hot minute Hot pistols You keep showin' up to battles wearin' all these fuckin' costumes, nigga you got issues Y'all won't be seein' no more Michael Jackson jackets So y'all just 'Remember The Time' you had 'Rock With You' Glock pistol, cock and spray But first I wanna give Roc his praise First nigga with this high level energy First nigga with gun lines back to back, there's a lot of things we got from Tay Glock'll spray I'ma put the Pioneer in the trunk, y'all gon' hear from a block away Stop it Tay, you just a bitch with guns Disrespectin' the hustle, and you disrespected Hustle Can't go back to New York for that shit that you done The apes gon' chase you right up out the Cave like Temple Run This who you deal with Smack? A nigga beefin' wit' a bitch from Gorilla Stone Ain't do shit to the niggas that took his chain, how real is that? You so worried about the Gorillas, you need to go get yo' silver back Silverback Steel will clap! You dyin' on the set, niggas took your jewels off in ya home town What was all this slidin' with the TEC? Couldn't be me, cause nigga I'ma die for my respect Let's take it back, Double Impact NWX, it was one, suck my dick and shit got violent for the vet So that's the second time niggas had to take Shine from 'round ya neck I get to wildin' with this TEC Burn him and blaze him Surf like, On Neighborhood Crip. You touch him and I'm knockin' you out. Nigga this .30 will bang him And at his funeral, ain't nothin' but sermons and prayers He can't call Surf to come save him This a pastor preachin' and this time you can't turn to ya neighbor This .30 gon' bang him Surf get to talkin' this Rolling 60 shit, I'ma buck my pound Give a 60 nine 69, I'ma hold this sucka upside down Live rounds goin' over his head I live 28 minutes from Edgewood, you know what it is Don't push me, I'm this close to the edge You was bold on the web, do all that talkin' in my face I'ma slide down errrrr, to that apartment with an .8 I see ya bitch, fo-fo I'm spark it in her face I told her to beware of the dog, and then I put Caution on the gate I'ma slide off, spin back, now there's Caution on the tape I'm so terrific I went in the kitchen, seen Chef, now it's broken dishes Living room, bucks left on the couch, can't even go and spend it Outside, Henny packed up, like the prohibition Pole I'm liftin' Rock landed in the neighbor yard, who gon' go and get it? I lift the pole on bitches Cannon clip you And lately I've been dealin' with bad bitches that I can't commit to So I can't just go out with a .9, I got standard issues Speakin' of standards Aye Lady Caution, let's stop this cappin' I heard you went from John John, Tsu Surf to- oh you got a top ten rappers? Heard she went from Gates Of The Garden to URL, wonder how she got them battles Don't you know back in the day whores got stoned to death? Ain't no wonder why Rock went at you You'se a little body bitch Popsicle body bitch Sick, need to be in the hospital body bitch McGriddle body bitch You'se a brittle body bitch The instrument they use to play the fiddle body bitch I'ma keep it goin' You'se a Henny bottle bitch Not even a full size, you'se a mini bottle bitch You got Minnie's body bitch You ain't anybody bitch Before yo' ass got with Roc you was anybody bitch That sound familiar What happened to ya baby moms? Y'all remember ya baby moms? She was bad as shit That unfulfillin' Now she's fuckin' with an NFL nigga, I know it fuckin' kills him Hoe football playin' 'round yo' fuckin' children like Russel Wilson I know it's tough to deal with Nigga ran off with ya hoe whole kid like Rumpelstiltskin I up the pistol Raise it on him, blaze it on him If I knock Dracula costume off he stays in coffin, even the red eyes take off, like a late departure No more keeping in contact, it's a restraining order I'm finna bang it on him I just ignore ya crew So many niggas done left the Cave, I can't even go to war witchu Ever since Brizz Rawsteen left, you need more recruits Aye Brizz, if it wasn't for Roc, you wouldn't even be here, he literally opened up doors for you I'm Strapped In! I'll clap you in a coma Madness I could snap at any moment According to the culture, y'all had it surely known But I was there, right by the stage, y'all got the story wrong Top threw a bottle, Brizz threw a bottle No Tax threw a bottle, they goin' on and on Brizz ran straight to the back, he got his Maury on Roc standin' there actin' like he don't know what's goin' on Top drop, Chess chest popped out like Omarion Sorry y'all! Rest in peace, Zaid, but Brizz homie the only one that was doin' Twork moves I would've went to jail, ended up in an orange shirt too Hurt who? Jersey You let me down in that tournament nigga What's up with that? 100K on the line, Drake added 50, damn near doubled that And you fumbled that? Boy if you come with three rounds tonight you lettin' me know I'm more important than them 100 racks You better come to rap nigga Not just for Drake or for uncle Smack If you choke, I'ma delete ya number outta my fuckin' jack I'ma up the strap, drum attached Somethin' clap Who's that offensive player for the Jets? Um, new jersey Nu Jerzey running back I gotta check him, without a question I feel like Will Smith, I gotta put my dawg dog down to show y'all I Am Legend Sinners gotta Heaven Splish Splash, a Hollow wet him Fire a weapon, let it fly through the buildin' 911 Nigga said he would kill Tay Roc, that's how they all sound Tonight is not the night for you to be droppin' the ball now Against me is ya last chance nigga, don't let us all down You the reason niggas like me gotta battle Swamp now Shotgun, sawed down This ain't a game, my passenger Burke put bucks Bucs on Twork Make it rain, we ain't the same I raise and aim, bang the thang Leave you sleep with ya eyes open in major pain Major Payne This nigga thought he could out bar me? How sorry I find out where you live, pull up, pull out calmly This shit'll take ya arm, leg and scalp partially Leave Twork twerk all over the crib, it's a House Party I can make every single bar gold, my touch is Midas like My hands hurt, cause whatever this author write is arthritis tight This guy get hype and he tryin' to fight The clip is a half moon and it's lit for you, the entire night I'm the violent type and more outspoken .40 cal' totin' You will get shot in ya head, ya scalp smokin' Like MGM films before the movie come on he'll hear a loud roar Then by lyin' lion with his mouth open Makin' movies is all that I care about Two choppers, two tri-pods this picture a pair'll mount Paramount I'll air him out, the steel lift and peel shit I'll have an arsenal Arsonal and Shotgun Surf-ing through Jersey Jerzey It'll get Real sick Sikh, real shit End ya life when this fifth bang Inf' beam Red Light, Green Light, Squid Game, the clip hang I ain't in a Crip gang But I'll send niggas to his neighborhood that's Nutty and Insane And they don't have patience They gon' dump every last case in Have the murder scene all sheets and Sheiks in Shells gas stations Pistol whip him, the end of the Mag' breakin' The vision of Twork twerk blurred out, like we censoring ass shakin' Strap blazin' Cook this cat like I'm half Asian We gon' wreck if you don't stay in ya lane like drag racin' A burner is gettin' lifted Murder a nigga wit' it Boy I'll turn you to one of them little circular picture pendants Boy, you fire, when you don't choke, and deliver all rage When you choke you let down the nigga that get us all paid You battled Loso, I was front row Yeah Givin' him all praise I had to give courage to Twork twerk like pills do for strippers on stage Clips is gon' blaze, you'll turn up dead I'll burn the lead You my brother I can't watch you die So I turn my head Raisin' cans gun cocks Gauges blam His body flip in the air And then Twork twerk on the ground, it's a Jamaican dance Aye, I'm at ya location, FN in the shorts Amazon Prime, I knocked then left him on the porch Stretched him with the torch Every round out the gun A ton'll tunnel go through New Jersey Nu Jerzey, I can connect him to New York I'll pull up in a Porsche Skkkkkrt Hop out of an old Carrera Bullets hit the couch, TV, I'm even smokin' smoke and mirrors If ya bitch live, it's cause I chose to spare her I have that whole place that Twork in twerking dead like strip clubs in the COVID era I'm talkin' 'bout hurt this man family, drown Twork Jersey Jerzey underwater Hurricane Sandy I'ma end up murkin' this bastard, have it lit at ya wake Ya funeral ratchet, Twork in a casket Don't fuck up my classic This shit here can even ya stock I hate the fact that you the one I gotta treat as an op' Believe it or not these heaters will pop I don't know this Gun Title, but even with a vest ya chest Chess won't be easy to Eazy The Block, nigga Light bars Gang shit When will all this treason stop? You don't do nothin' but gun bar after gun bar No substance, angles, schemes or plots If this what y'all callin' the face, I don't even wanna compete for slots Raisin' Kanan, why beef over territory, I don't see nothin' you unique in Rock He needs to stop it This biggest mouth with the weakest body Little dog, hidin' behind all that bark like Geechi Gotti It's transparent, speakin' of trans... Y'all gave me the dude with the allegations? Who the fuck is this man scaring? Truthfully I thought this nigga been gay Bengay, I put that on my grandparents You get clowned on stage, but that shit you do in the comfort of ya own home, just keep it from around this way I ain't come up here to talk about Roc heshe Rikishi, that's somethin' he gotta sit down and face I'ma surround his place Y'all think he poppin' but he not If he lose tonight, nothing from his stock is gonna drop If I lose tonight, ain't none of my problems gonna stop It's back to slidin' on the ops Cleanin' the McDonalds with a mop I'll be somewhere delivering Krusty Krab Pizza, I got a lot ridin' on this Rock I'ma slide down his block, take a right, cut the blinkers off Pull up to they hang out spot, I'ma creep in dark He outside with the whole Cave Gang, oh he think he smart I already saw Rock group, that's why the Lincoln Linkin Park That's old wisdom He don't know he gettin' a humble abode visit Soon as he pull up to the crib, I'm outside his home, sit I'ma stop Rock right before he go in, that's goal tendin' Like, Hoe nigga. This pistol mean violence. Soon as he look for his strap I knock the vision clean out him Caution in the back of him yellin' Aye Dracula tell her, if this bitch just keep wildin' I'ma put a Mac up to the bat, that's Mr. 3000 I'm wildin' I slide daily, insane asylum tryin' to see if my mind's stable Cause they found him face down in the hole, look like a massage table You not gangsta, you not concealin' What ops you killin'? They use Rock to hold the door open like a project buildin' You all kinds of filthy Fair warning, this nigga took a pic', legs cocked wide open Stickin' out his tongue, I said, What is this man doin'? I don't even wanna talk about that shit, I was scared for him Let's just jump from that line with his tongue out like Air Jordan Can' on him I'm Strapped In!! I'll clap you in a coma Madness I could snap at any moment I can't fall for these traps That nigga Murda Mook told you to suck his dick You said it was lit, I thought he mean that You see Mook ain't do a motherfuckin' thing That nigga Mook would've told me to suck his d- ooow, I couldn't seein' that It would've went from suck my dick to him doin' a Party Arty rematch I don't honor these cats I don't just talk, I really walk the shit I'm about The Cave known for pretendin', that's why y'all had to kick Vada out I keep hearin' Biggums fat ass screamin', Get that nigga Roc! The homies pullin' 'bout six Llamas out If we can't get Roc address a dress we goin' straight to Big Momma's House Llama's out, your baby girl won't last after these I'll put ya kid on the front page, give her Mad magazines I'ma clap at ya teen, I keep a biscuit Two Glocks, these ain't twins, but these is civil One bitch with no body swingin' for the Title like Venus Williams But the other bitch got Guns and Cake like Serena Williams I'ma squeeze relentless, grip the pound gun clicks Did him foul Baow, baow Hole so big you can see into Tay, I'm finna sit him down WHHHAT?! I bang nigga Piru Blood gang member Thang lift up I really bang though I'm a bastard and khaki Dickies was gang code My mom a pastor, I went to Catholic school in the same clothes I use to rob the white kids for they shoes, like, Change those. Ran them random bitches right outta they Vans like Bang Bros Thang blow... Jersey I told my girl, I'm 'bout to hit the club and find this bitch I wanna see Usually she would trip, but this specific time she didn't fuss with me She trusted me Cause I got her gun wit' me And she know I'ma be starin' at her texts TECs while this bitch Twork twerk in front of me Don't fuck wit' me gun cocks This a bull pup wit' me and this baby stay wit' me, I got full custody You battled Geechi and let him take ya place, disgustingly Now he's the face and you are the L URL of the company It's up wit' me Fuckers are Strapped In! It's straps 'round Like a mental patient in padded rooms, we strapped down We strapped now My straps? Bizarre, it don't stick out But still up to bust like a strapless bra If we scrap or brawl I'ma beat homie ass It's gon' be fast Pistol whip, strap to the face, Mick Foley mask Bro get stabbed, 'til it's stuck or broke in half And you can see it showin' through Jersey Jerzey like shoulder pads If I'd have read your tweets and you don't said, it's beef You would've been like that one Jersey nigga vs. Danny, spittin' out hella teeth Shit ain't never sweet Blade on me, turn you to shredded meat He ain't see the pick in the pocket, I'm a petty thief Rest in peace Buck shots go in the shotty I let this gauge pierce a big hole in ya body Or drive-by holdin' the Tommy Bllllllt Get ya block shot wit' the stick like I'm a goalie for hockey Everybody got guns, you must not comprehend barely You'se a fat nigga with a strap cause you been scary I'm a skinny nigga without a strap, I would've been buried Ace Amin is proof that niggas that even go to the gym, carry You know Jim Carey, that movie where, he had on that yellow tux I can have my dawg dog put a Mask on fuck shit up You'll get left with a head gash, dead ass He went missin', cops knew something was wrong when all they seen was a red flag Actual slaughter I will drive-by, clap up ya corner This cat is a goner I'll have ya blood splatterin' on ya If I use this Judge, I'ma have to ask for a lawyer I blew blue caps to the core like natural water, I have to destroy ya Sic the savages on ya Hit his organ, eyes organize will be fucked up like he ain't have it in order I'm at his door, packages for ya I caught Twork twerk in the room, I'm like a disappointed dad in the room with his daughter We at his funeral, in the back, standin' in a straight line His moms readin' that obituary and she can't stay calm She like, My baby Twork, AKA Raivon Got killed. Wearin' his hood like Trayvon. I will bang mine Come from this waistline, put you all away Y'all ain't know his name was Raivon? We gon' call him Ray You'll get the bat with the spikes in ya skull today Martin and Eddie in Life somethin' get clawed in Claude and Ray Bombs away You'll get shot with my thumper Sting Ray through the chest, Crocodile Hunter Roc's a wild fucker, dude's stay trippin' I'll have you eyein' a barrel, in high definition, it blew Blu Ray vision You joined K-Shine, then left him the next day? I seen through that shit when you joined NWX-Ray This ya death day, I'll do him mad cruddy Now answer this question If you so Strapped In, then how you crash, dummy? That's mad funny, you gon' get what you ask from me What you on? E? I'll put this. 40 on Five gas money Your whip crash, and you almost burned alive Guess what movie you would've had a perfect role in? New Jersey Drive I heard he died, then revived It was gettin' scary, they had to bring dawg dog back from the dead Pet Cemetery That car wreck, gave him another cut And another cut Cause his seatbelt wouldn't work when he was tryin' to buckle up You fuckin' nut, it's lit for you From here it ain't gettin' better Wait, fuck the cops that shot up ya whip, cause we stick together But the cops shot up ya whip and you ain't do shit? I thought you was wit' whatever You almost got taken out by a 12, like Cinderella On God shit nigga! We all at the table on some mob shit Suit up on him job shit Kim brother Rob shit My nigga don't talk, he smoke Silent Bob shit I Will, Smith the leader Suicide Squad shit No vegan, no tomato, I don't squash shit Outta nowhere you get popped up, surprise shit Taught to just stick through the beef kabob shit Put in work, before I had a car, it was my mom's shit Bomb shit, nowhere to hide shit I find shit and go through the door and flip the screen it's a Sidekick The .9 spit, this hammer ain't my shit Really the text TEC's is in a different name like a side chick The chopstick under the armpit clear a mosh pit No TV, this Drake ain't the one to Josh wit' His soul wonder Wanda up to the cosmos Fairly Odd shit Playgrounds or not, we swing through and slide shit When mine hit, everything inside rip, cause conflict Tie you up, no bondage, this guy a hostage Violent, pillow, over ya face, for silence Feathers fly everywhere like I shot an ostrich Ya side hit, I paralyze shit, make ya spine shift, ya mind split Ya egg crack, we tryin' omelets, I'm outta pocket I will leave this guy unconscious Hooked to machines and doctors doin' diagnostics No pipe wit' him, then it's the blade, the strike in him I might kill him He tryin' to wrestle, but losin' the fight in him His life endin' Paralyze him soon as the knife in him Leave Twork twerk without a bottom half like white women I'm triflin' At your funeral? Smokin' on the gas They bury you, then I burn the roses on the grass Don't want my fingerprints on it Cuz said, Hold it with the flag. I'll walk through Jerusalem like I'm Moses with the staff You dead nigga! Let's set this straight Yes I called you the GOAT cause when you move you don't hesitate I've been here for the Dodge emblems The Craftsmen jeans, how you got to Mook and then levitate I don't know a lot about antonyms and synonyms but I know how to shoot when the weapon straight And I know a lot about homonyms so I can't let you resume with this resume You finna die Indeed Aye Smack, if this ya brother, advise him please Pine boxes don't come from the finest trees And since he rich, you get high quality Redish brown wood mahogany Hand crafted in South America, you don't wanna see a guy in these Guyanese Fire please! If I burn his house down, who gon' be your face when ya man die Troy? Pour gasoline 'Lean Wit' It, Rock Wit' It' there goes your Franchise Boy! Twork jumps in the crowd Hand my toy I'm finna clip this nigga up You said, DNanny for DNA in New York That shit was iffy bruh, listen up I'll show you how to split the states and cities up Cause that ain't go over or land though Orlando like you went to Disney bruh I don't wanna see you now or again Oregon, I suggest the niggas wit' you Duck You go to police, it goes South da code of Dakota the streets take ya lips and zip 'em up I went to his home in Baltimore, the nigga think he big and tough When he see his daughter on the floor it'll Florida switch his feelings up On my waist is where the cans is Kansas and if I lift these pistols up I shoot his baby boy crib, I won't even miss his sippy Mississippi cup I'm 'bout to clip this nigga up Put ya boy up in a ditch Bang bang, that's the sound of ya shorty gettin' hit Bang bang, that's the sound of the war we in the mix He can't buckle up, his seatbelt won't work Bang bang, that's the sound of the .40 on my hip And this a new car, so if you don't buckle up you gon' keep hearin' that noise until it click I get noisy with this bitch 100 round out the TEC I'm firin' I'm 'bout to send you up to Heaven flyin' You 'bout to find out how beautiful God is like Aphrodite Hey Smack, if this ya gunner, you should've gave him better guidance He should've never tried this If he don't die, he gon' leave here in liver failure like hepatitis If I have to find him, I'ma grab the coaster I'm outside with the ratchet blowin' Boom boom, I shoot the door until the latch is broken Boom HEY ROC! He in the bed restin', I flip the mattress over Now he can sleep upside down just like a bat suppose to I'ma clap the toaster I'm holdin' the fifth I see Caution, I say, Bitch you better not open ya lips. I'm pretty cautious, gloves on so they don't notice the prints Red Lobster, I even put the tape over the grip Like, Where the coke and the piff? If I clip you up, that wasn't Roc, I really had rocks, I'm talkin' zips and up Methamphetamines, oxycodone, prescription drugs Back in my heyday, I would've had Caution samplin', pass yo' bitch the blunt Whole dip of stuff Like, This the stuff Let her test the boat out, make your missus Puff I got yo' bitch on cuff She talk crazy, but she follow the plans though Police pull us over, Big Bad Wolf, she gon' swallow the grams whole Can' blow, get ya pals dumped on Oh that's a vest? Teflon? That's just gon' get me riled up more Cause dome shots the only thing my pound bust for Better hope that's what your foreheads four heads made outta Rock like Mount Rushmore Dump on 'em, you might get killed Say somethin' I don't like for real You gon' die for real We goin' outside for a single file foul line like a fire drill I'm Strapped In!! I'll clap you in a coma Madness I could snap at any moment Your life is over, you might not quite deserve it But a kind soul won't do you no good, once I light ya- this might get personal Everybody duck cause this rifle burstin' It might split Drake head wide open just like the Sprite commercial When they ask who's the king, I'm the rightful person It's time to steal the torch I was outside with the fans, I'm the one they feel for sure I went to the small league events, I gave 'em real support I got PG's in the buildin', you try to seal the door I even stopped them Crucible niggas from havin' to deal with Norbes I took off the hood, I jumped over Suge I'm the most creative I went on strike when you said you wasn't earnin' paper When Smack had yo' pockets tapped, who returned the favor? I 'Started From The Bottom', no entourage, I was comin' six deep Still the most imitated, I'm the reason K-Shine went on a 20 win streak I'm the streets Pray to me, I'm the synagogue When it come to battle rap, I'm exactly what it epitomize Nigga I'm Smack gunner, it's time to wear that shit with pride Let's turn Real Nigga Time into the Bigga .9 Baow Baow Baow! Nigga died, I shot him in a jiffy Hit his noggin with a .50 French blunderbuss, take an oval off his head like Monica Lewinsky you gon' move out the burbs I'm 'bout to take this one to the grave, you got my word Drive-by, chopper out the GMC I'll shoot out the burg K clip, press down on a half moon Do not disturb! That was mean Twork And now I got a body on a half moon like DreamWorks You be talkin' often Nigga you soft as cotton Wait 'til ya gang get around and be talkin' often I'ma wait 'til them niggas leave and spark it on you Squid Games By the time they come back Rock's in the bag, he done lost his marbles Jersey! I ain't gon' lie, this nigga's my friend How about I get my kids you get ya kids we hit the beach and we can get 'em to swim? Nah, I'ma drive us all to a cliff and let the sinnin' begin I'ma let our Child's Play but I'ma push my friend to the end I really am him You, were not the first to be copied, I've been cloned I faced all the writers that been known Y'all Champion Of The Year, yeah, y'all see how I did Jones This nigga from the Cave knocked over more pens pins than Fred Flintstone I have to be the master Eazy, he the Captain of the trappers As far as Chess? He actually will clap ya Surf? I get to passin' him a ladder And have Tsunami hit Jerusalem, that's a natural disaster I'm uncontrollable And I don't do what I'm told to do Unload on you Then trash cans disposable Rifle, from the Civil War, put a hole in you Like Back II The Future, I will bring something old to Nu new Cannon wit' me, blam the semi, 'til this can' is empty With ya life, you're gamblin' Jerzey gamble in Jersey Atlantic City This man get busy Mini chopper mounted That mean the Drac' posted on the wall like a fan of Drizzy Stop playin' wit' me I don't follow by the rules, I gotta lot of goons Them niggas ain't got a lot to lose I got a lot of tools This a chopper not an Uz' This'll knock Nu New Balance off, see him flyin' out his shoes Ratchet dirty Soon as he turn around, clap the .30 NBA protest, that's a piece peace to the back of Jerzey jersey I'm a hunter, preserve the kill if the catch is worthy Hang his head up on the wall taxidermy Who believe in him? If the ambulance comin', bitch you needin' 'em They know not to gas me up, I use premium Chop off a limb, mail it to ya mom I get unique wit' 'em Foot Locker, I send her home a box with Nu new feet in 'em The can' erupt, blam shit up It's like bowlin' after we done rollin', there won't be much left standin' up I don't care if this TEC jam or what Stab his side, get to ribin' ribbon on Jerzey jersey it's Breast Cancer Month Poof Magically, appears a Nina They hear this steamer It'll go from this shit bein' packed to a clear arena Jakk better not try to be no hero either I'ma bomb through him then drop Nu clear nuclear Hiroshima Kill his leader, hollow tips what this clip contain Turn him to a memory inside of a picture frame Up close or long distance aim Don't matter, arms on Jerzey jersey, NBA Christmas game I lift and bang Your vocal cords will get shot Your voice? Over, like them videos on Tik Tok I don't believe that ya clique pop Bitch stop All that tough talk, I ain't buyin' that Nu new thrift shop Make ya strip hot This shit drop whoever not in the family Shreddin' niggas Edward Scissors, the chop is handy We get the drop then we slide in the Camry Huge shotty, I will get Nu new body Dr. Miami To these fans, you the wild Blood, the big bully But to me, you just lil' bruh, a kid to me You heard right, I poke this knife in his left, turn right Drive it straight up the middle of Jerzey Jersey turnpike You'se a termite I earned my position, you will get murked if I'm trippin' I will let every round burst from my Smith You fuck around and be a hurt opposition Left there, shakin', with a wet t-shirt Who said Twork twerk competition? You ain't ask the culture I'm mad that I had to smoke ya Everybody, Jerzey jersey in a bag practice over I tried to tell him that this ain't what he want from me Battle rap is not a job to me this shit is fun to me Fuck a scheme, angle, punch, it's 'bout a gun to me The gun is the only thing that get the job done for me</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Sombre, sombre crétin Sombre, sombre crétin Sombre, sombre, sombre crétin Sombre, sombre crétin Sombre, crétin Sombre, sombre, sombre crétin Sombre crétin, sombre Il croit quil est frais Mais en vrai nous on sait cque tes Tas jamais pu blairer mes frères À part le son, tu sais cquon fait Si percer est une histoire de couilles Ma semence vaut plus que toi est-ce que tas personne enfoiré Les balances ont baisé ma team Mais jamais on plaide coupable Quand ça monte sur scène tobserve Et tous nos faits et geste tobsèdent Jte lai déjà dit, laisse tomber On connaît déjà la fin du suspense Jlai déjà vu se ffiche-a quelqupart Et puis tes comme un suceur de bite dans tout mon secteur Négro mon flow dix sur dix SEGPA On dire pas fuck jsuis sur Webstar You might also like Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Sombre, sombre crétin Sombre, sombre crétin Sombre, sombre, sombre crétin Sombre, sombre crétin Sombre, crétin Sombre, sombre, sombre crétin Sombre crétin, sombre Pour les vrais de vrais, tu vaux moins Que la dernière merde qui va mi-dor Pour les vrais de vrais, je vaux plus Que la dernière paire qui va ti-sor Jojo J'compare les peut tués donc jrespecte Tous ceux qui sévadent avec des ressorts Tu passes de lAfrique à la France Le Visa du bled sur leurs passeports bon voyage monsieur Pour nous suivre il faudra faire cque tu peux On sen remets pas, les bastos pleuvent Eh, tu nous observes plus que les keufs En vrai tu voudrais être mon reuf ha ha Il mfaut ma Rolex et ma Benz Jsuis un furet si tisé un 3 600 euros swaggé Joue avec léquipe on va te charger la face Et tu suceras avec un dentier Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Sombre, sombre crétin Sombre, sombre crétin Sombre, sombre, sombre crétin Sombre, sombre crétin Sombre, crétin Sombre, sombre, sombre crétin Sombre crétin, sombre</t>
+          <t>Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Sombre, sombre crétin Sombre, sombre crétin Sombre, sombre, sombre crétin Sombre, sombre crétin Sombre, crétin Sombre, sombre, sombre crétin Sombre crétin, sombre Il croit quil est frais Mais en vrai nous on sait cque tes Tas jamais pu blairer mes frères À part le son, tu sais cquon fait Si percer est une histoire de couilles Ma semence vaut plus que toi est-ce que tas personne enfoiré Les balances ont baisé ma team Mais jamais on plaide coupable Quand ça monte sur scène tobserve Et tous nos faits et geste tobsèdent Jte lai déjà dit, laisse tomber On connaît déjà la fin du suspense Jlai déjà vu se ffiche-a quelqupart Et puis tes comme un suceur de bite dans tout mon secteur Négro mon flow dix sur dix SEGPA On dire pas fuck jsuis sur Webstar Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Sombre, sombre crétin Sombre, sombre crétin Sombre, sombre, sombre crétin Sombre, sombre crétin Sombre, crétin Sombre, sombre, sombre crétin Sombre crétin, sombre Pour les vrais de vrais, tu vaux moins Que la dernière merde qui va mi-dor Pour les vrais de vrais, je vaux plus Que la dernière paire qui va ti-sor Jojo J'compare les peut tués donc jrespecte Tous ceux qui sévadent avec des ressorts Tu passes de lAfrique à la France Le Visa du bled sur leurs passeports bon voyage monsieur Pour nous suivre il faudra faire cque tu peux On sen remets pas, les bastos pleuvent Eh, tu nous observes plus que les keufs En vrai tu voudrais être mon reuf ha ha Il mfaut ma Rolex et ma Benz Jsuis un furet si tisé un 3 600 euros swaggé Joue avec léquipe on va te charger la face Et tu suceras avec un dentier Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Sombre, sombre crétin Sombre, sombre crétin Sombre, sombre, sombre crétin Sombre, sombre crétin Sombre, crétin Sombre, sombre, sombre crétin Sombre crétin, sombre</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Viens par ici, combien tu mises ? Ce soir à ma table Tout est dit, jnai quune envie, vivre damour et de champagne Tu me vois en extase, mais ny pense même pas Cest pas pour moi, tous tes détails, je vis damour et de champagne Je nsuis quun invité Champagne à volonté Pour pouvoir planer plus haut Plus haut, plus haut Ne touche pas, ny pense pas Ne touche pas à mon verre Ne touche pas, ny pense pas Ne touche pas à mon verre Hey, mais qui t'a dit qupar ici tavais tout pour nous plaire ? Excuse-oim belle gosse mais ne touche pas à mon verre Cest la dream team ttest stu veux mais quest-ctes prête à perdre ? On peut te refaire de la tête au pied comme Shawn Carter You might also like Dinguelop, dinguelop, dinguelop, Dom Pé ou Moët Dinguelop, dinguelop, dinguelop, comme toi jsuis posé Dinguelop, dinguelop, dinguelop, ne touche pas à mon verre Dinguelop, dinguelop, dinguelop, ne touche pas Je nsuis quun invité Champagne à volonté Pour pouvoir planer plus haut Plus haut, plus haut Ne touche pas, ny pense pas Ne touche pas à mon verre Ne touche pas, ny pense pas Ne touche pas à mon verre Attention, plus de jus Monte le son, jen veux un peu plus Amène les bouteilles à ma ble-ta On fera péter lson à la Guetta Si tu veux kiffer, cest par là Ya toute ma clique qui se pavane On peut sambiancer mais ne touche pas Non ne touche pas à mon verre Dinguelop, dinguelop, dinguelop, Dom Pé ou Moët Dinguelop, dinguelop, dinguelop, comme toi jsuis posé Dinguelop, dinguelop, dinguelop, ne touche pas à mon verre Dinguelop, dinguelop, dinguelop, ne touche pas Ne touche pas, ny pense pas, ne touche pas à mon verre Ne touche pas, ny pense pas, ne touche pas à mon verre Ne touche pas, ny pense pas, ne touche pas à mon verre Ne touche pas, ny pense pas, ne touche pas à mon verre Ne touche pas à ma zik Beriz, Charly, Tefa Ne touche pas à mon verre</t>
+          <t>Viens par ici, combien tu mises ? Ce soir à ma table Tout est dit, jnai quune envie, vivre damour et de champagne Tu me vois en extase, mais ny pense même pas Cest pas pour moi, tous tes détails, je vis damour et de champagne Je nsuis quun invité Champagne à volonté Pour pouvoir planer plus haut Plus haut, plus haut Ne touche pas, ny pense pas Ne touche pas à mon verre Ne touche pas, ny pense pas Ne touche pas à mon verre Hey, mais qui t'a dit qupar ici tavais tout pour nous plaire ? Excuse-oim belle gosse mais ne touche pas à mon verre Cest la dream team ttest stu veux mais quest-ctes prête à perdre ? On peut te refaire de la tête au pied comme Shawn Carter Dinguelop, dinguelop, dinguelop, Dom Pé ou Moët Dinguelop, dinguelop, dinguelop, comme toi jsuis posé Dinguelop, dinguelop, dinguelop, ne touche pas à mon verre Dinguelop, dinguelop, dinguelop, ne touche pas Je nsuis quun invité Champagne à volonté Pour pouvoir planer plus haut Plus haut, plus haut Ne touche pas, ny pense pas Ne touche pas à mon verre Ne touche pas, ny pense pas Ne touche pas à mon verre Attention, plus de jus Monte le son, jen veux un peu plus Amène les bouteilles à ma ble-ta On fera péter lson à la Guetta Si tu veux kiffer, cest par là Ya toute ma clique qui se pavane On peut sambiancer mais ne touche pas Non ne touche pas à mon verre Dinguelop, dinguelop, dinguelop, Dom Pé ou Moët Dinguelop, dinguelop, dinguelop, comme toi jsuis posé Dinguelop, dinguelop, dinguelop, ne touche pas à mon verre Dinguelop, dinguelop, dinguelop, ne touche pas Ne touche pas, ny pense pas, ne touche pas à mon verre Ne touche pas, ny pense pas, ne touche pas à mon verre Ne touche pas, ny pense pas, ne touche pas à mon verre Ne touche pas, ny pense pas, ne touche pas à mon verre Ne touche pas à ma zik Beriz, Charly, Tefa Ne touche pas à mon verre</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Tu traînes la rue depuis dtemps Est-cque tu entends ? Un jour elle va tlaisser en plan Tu mises sur des amis La famille soi-disant Mais chaque soir cest tes parents Qui prient pour qutu sois vivant Avant, tavais lair sage Comme une image, un dessin Maintenant cest lair sale Tas mis dehors ton destin Combien dtes proches sont déçus En regardant ton déclin ? Voyant comment tu déglingues On parle de toi comme un défunt Avant, quon te perçoive comme une défaite Ici la rue te perçoit, taides celui quon déteste Donc sois précis dans tes choix Personne ne doit pleurer lsoir Tâche découter cette voix Qui tdit pense à rentrer chez toi Jtraîne souvent là où personne Ne dépose ses orteils On est frères on na pas la même mère Ni le même père Pas les mêmes peines, on est pareils Jme réveille, jme lève, je sors La daronne qui pète un câble, qui me dit Qucest la rue qui mjette un sort Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Tu traînes la rue depuis tant dtemps Est-cque tu entends ? Maintenant elle ta laissé en plan A miser sur des amis La famille soi-disant Mais qui pour toi se fera du souci Une fois aux arrivants ? Avant tavais lair sage comme une image Elle est loin, maintenant cest lair sale Tas mis en cage ton destin Combien sont déçus, perdus sur ce chemin ? Dans une cellule guée-flin Ici où lespoir sest éteint Cest comme une histoire qui se répète Isolé tu taperçois quil est impossible, tu regrettes Les années nsont plus des mois Tes pas lseul à porter lpoids Un peu comme si tavais lchoix Maintenant tu penses à rentrer chez toi Jtraîne souvent là où personne Ne dépose ses orteils On est frères on na pas la même mère Ni le même père Pas les mêmes peines, on est pareils Jme réveille, jme lève, je sors La daronne qui pète un câble, qui me dit Qucest la rue qui mjette un sort Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Sortir après tant dtemps Passé trente ans, tu veux une femme, des enfants Construire une vraie famille Cqui nétait pas évident Voir le sourire d'tes parents Vaudrait toutes les sommes dargent Avant, tavais cette rage Avant tétais malsain Pouvoir tourner cette page Un message dans un écrin Tu sais qudepuis le début On affrontera rien de sain Mélanger nos vécus Quand cest la crise on sesquinte On a compté moins dvictoires que de défaites Parfois fous-rires, jours de fête Jours noirs et prises de tête Mais cette fois, faut réfléchir à deux fois Avant dpasser lpas Tache découter cette voix, cette fois Jtraîne souvent là où personne Ne dépose ses orteils On est frères on na pas la même mère Ni le même père Pas les mêmes peines, on est pareils Jme réveille, jme lève, je sors La daronne qui pète un câble, qui me dit Qucest la rue qui mjette un sort Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Eh petit souvent tu mdéçois Faudrait qutu penses à rentrer chez toi Petit à petit on ta vu téloigner, téloigner On ta vu téloigner, elle peut en témoigner On ta vu téloigner, elle peut en témoignerYou might also like5</t>
+          <t>Tu traînes la rue depuis dtemps Est-cque tu entends ? Un jour elle va tlaisser en plan Tu mises sur des amis La famille soi-disant Mais chaque soir cest tes parents Qui prient pour qutu sois vivant Avant, tavais lair sage Comme une image, un dessin Maintenant cest lair sale Tas mis dehors ton destin Combien dtes proches sont déçus En regardant ton déclin ? Voyant comment tu déglingues On parle de toi comme un défunt Avant, quon te perçoive comme une défaite Ici la rue te perçoit, taides celui quon déteste Donc sois précis dans tes choix Personne ne doit pleurer lsoir Tâche découter cette voix Qui tdit pense à rentrer chez toi Jtraîne souvent là où personne Ne dépose ses orteils On est frères on na pas la même mère Ni le même père Pas les mêmes peines, on est pareils Jme réveille, jme lève, je sors La daronne qui pète un câble, qui me dit Qucest la rue qui mjette un sort Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Tu traînes la rue depuis tant dtemps Est-cque tu entends ? Maintenant elle ta laissé en plan A miser sur des amis La famille soi-disant Mais qui pour toi se fera du souci Une fois aux arrivants ? Avant tavais lair sage comme une image Elle est loin, maintenant cest lair sale Tas mis en cage ton destin Combien sont déçus, perdus sur ce chemin ? Dans une cellule guée-flin Ici où lespoir sest éteint Cest comme une histoire qui se répète Isolé tu taperçois quil est impossible, tu regrettes Les années nsont plus des mois Tes pas lseul à porter lpoids Un peu comme si tavais lchoix Maintenant tu penses à rentrer chez toi Jtraîne souvent là où personne Ne dépose ses orteils On est frères on na pas la même mère Ni le même père Pas les mêmes peines, on est pareils Jme réveille, jme lève, je sors La daronne qui pète un câble, qui me dit Qucest la rue qui mjette un sort Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Sortir après tant dtemps Passé trente ans, tu veux une femme, des enfants Construire une vraie famille Cqui nétait pas évident Voir le sourire d'tes parents Vaudrait toutes les sommes dargent Avant, tavais cette rage Avant tétais malsain Pouvoir tourner cette page Un message dans un écrin Tu sais qudepuis le début On affrontera rien de sain Mélanger nos vécus Quand cest la crise on sesquinte On a compté moins dvictoires que de défaites Parfois fous-rires, jours de fête Jours noirs et prises de tête Mais cette fois, faut réfléchir à deux fois Avant dpasser lpas Tache découter cette voix, cette fois Jtraîne souvent là où personne Ne dépose ses orteils On est frères on na pas la même mère Ni le même père Pas les mêmes peines, on est pareils Jme réveille, jme lève, je sors La daronne qui pète un câble, qui me dit Qucest la rue qui mjette un sort Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Eh petit souvent tu mdéçois Faudrait qutu penses à rentrer chez toi Petit à petit on ta vu téloigner, téloigner On ta vu téloigner, elle peut en témoigner On ta vu téloigner, elle peut en témoigner5</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Tu npeux pas fermer les yeux Et faire semblant dêtre un infirme, cest insensé Je peux te guider si tu veux Mais jsuis comme tout lmonde, je peux mtromper Non jme sens pas forcé Cest tout à mon honneur de tavoir croisé Mais un conseil Tout lmonde est loin dêtre fiable Un conseil En tout lmonde se cache un Diable Tout lmonde est loin dêtre fiable En tout lmonde se cache un Diable Cest vrai quelle était belle, et jeune, jai du placer ma confiance Elle a arraché mon cur peu à peu, mais je my ferai avec le temps Et maintenant je men rends compte, je ne fais que perdre mon time On fait semblant, on se ment, avec nos gamins Et maintenant je nressens plus rien, même quand jte fais mal Toi et moi, cétait juste un faux départ Tu npeux pas fermer les yeux Et faire semblant dêtre un infirme, cest insensé Je peux te guider si tu veux Mais jsuis comme tout lmonde, je peux mtromper Non jme sens pas forcé Cest tout à mon honneur de tavoir croisé Mais un conseil Tout lmonde est loin dêtre fiable Un conseil En tout lmonde se cache un Diable Tout lmonde est loin dêtre fiable En tout lmonde se cache un Diable You might also like Elle joue avec toi comme elle joue avec tout lmonde Si tas la bonne came, tu lauras sûrement, t'as vu l'mouv' Ne te crois pas si de-spee Ne te crois pas si de-spee Ne te crois pas si de-spee Ne te crois pas si de-spee Audi R8, RDV minuit pile Dîner aux chandelles, chez nous ya pas dpetite suite Petit bain, relax, Rolex sur la table Tout est géré, pas dsouci, fake paradise Oh laisse... Fais genre tu ne savais pas tout cqui l'a met à l'aise Tu npeux pas fermer les yeux Et faire semblant dêtre un infirme, cest insensé Je peux te guider si tu veux Mais jsuis comme tout lmonde, je peux mtromper Non jme sens pas forcé Cest tout à mon honneur de tavoir croisé Mais un conseil Tout lmonde est loin dêtre fiable Un conseil En tout lmonde se cache un Diable Tout lmonde est loin dêtre fiable En tout lmonde se cache un Diable Tu mas eu, tu mas eu Et moi qui croyais te connaître je ferai mieux De faire semblant comme toi Si javais su, javais su Jaurais sûrement fait comme toi Au lieu dêtre sincère comme moi Dêtre sincère comme moi Yeah Tu npeux pas fermer les yeux Et faire semblant dêtre un infirme, cest insensé Je peux te guider si tu veux Mais jsuis comme tout lmonde, je peux mtromper Non jme sens pas forcé Cest tout à mon honneur de tavoir croisé Mais un conseil Tout lmonde est loin dêtre fiable Un conseil En tout lmonde se cache un Diable Tout lmonde est loin dêtre fiable En tout lmonde se cache un Diable2</t>
+          <t>Tu npeux pas fermer les yeux Et faire semblant dêtre un infirme, cest insensé Je peux te guider si tu veux Mais jsuis comme tout lmonde, je peux mtromper Non jme sens pas forcé Cest tout à mon honneur de tavoir croisé Mais un conseil Tout lmonde est loin dêtre fiable Un conseil En tout lmonde se cache un Diable Tout lmonde est loin dêtre fiable En tout lmonde se cache un Diable Cest vrai quelle était belle, et jeune, jai du placer ma confiance Elle a arraché mon cur peu à peu, mais je my ferai avec le temps Et maintenant je men rends compte, je ne fais que perdre mon time On fait semblant, on se ment, avec nos gamins Et maintenant je nressens plus rien, même quand jte fais mal Toi et moi, cétait juste un faux départ Tu npeux pas fermer les yeux Et faire semblant dêtre un infirme, cest insensé Je peux te guider si tu veux Mais jsuis comme tout lmonde, je peux mtromper Non jme sens pas forcé Cest tout à mon honneur de tavoir croisé Mais un conseil Tout lmonde est loin dêtre fiable Un conseil En tout lmonde se cache un Diable Tout lmonde est loin dêtre fiable En tout lmonde se cache un Diable Elle joue avec toi comme elle joue avec tout lmonde Si tas la bonne came, tu lauras sûrement, t'as vu l'mouv' Ne te crois pas si de-spee Ne te crois pas si de-spee Ne te crois pas si de-spee Ne te crois pas si de-spee Audi R8, RDV minuit pile Dîner aux chandelles, chez nous ya pas dpetite suite Petit bain, relax, Rolex sur la table Tout est géré, pas dsouci, fake paradise Oh laisse... Fais genre tu ne savais pas tout cqui l'a met à l'aise Tu npeux pas fermer les yeux Et faire semblant dêtre un infirme, cest insensé Je peux te guider si tu veux Mais jsuis comme tout lmonde, je peux mtromper Non jme sens pas forcé Cest tout à mon honneur de tavoir croisé Mais un conseil Tout lmonde est loin dêtre fiable Un conseil En tout lmonde se cache un Diable Tout lmonde est loin dêtre fiable En tout lmonde se cache un Diable Tu mas eu, tu mas eu Et moi qui croyais te connaître je ferai mieux De faire semblant comme toi Si javais su, javais su Jaurais sûrement fait comme toi Au lieu dêtre sincère comme moi Dêtre sincère comme moi Yeah Tu npeux pas fermer les yeux Et faire semblant dêtre un infirme, cest insensé Je peux te guider si tu veux Mais jsuis comme tout lmonde, je peux mtromper Non jme sens pas forcé Cest tout à mon honneur de tavoir croisé Mais un conseil Tout lmonde est loin dêtre fiable Un conseil En tout lmonde se cache un Diable Tout lmonde est loin dêtre fiable En tout lmonde se cache un Diable2</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>N'oublie jamais c'que l'on t'a donné Tout le monde s'emporte J'en place une pour les frères qui sont condamnés Tout le monde s'emporte Toujours debout après tant d'années Tout le monde s'emporte Nos souffrances et nos peines vont bien s'en aller Tout le monde s'emporte N'oublie jamais c'que l'on t'a donné Tout le monde s'emporte J'en place une pour les frères qui sont condamnés Tout le monde s'emporte Toujours debout après tant d'années Tout le monde s'emporte Nos souffrances et nos peines vont bien s'en aller Tout le monde s'emporte C'est quoi les diez xxx du tieks, tout le monde sait qu'ça vend C'est vrai qu'on est pas ça, on fait passer le sexe avant L'amour comme la haine donc écris ton testament Assume quand c'est la merde, ne crois pas que ton destin ment Sur un plan fiable toujours près à tout miser Que les hommes forts, les plus faibles sont atomisés 2010 c'est la merde, tout le monde veut contrôler sa race Même les meufs s'y sont mis, demande à Condoleezza Rice Tout le monde s'emporte, dans la cave, dans les halls Les petits frères jouent les diables, ils se passent d'auréoles Même les meufs de la poste qui te parle en créole J'ai mon son dans ta caisse, c'est le disque d'oréééooohh C'est pour ça, la famille à Aulnay-sous-Bois Tu finis dans le coffre ou bien tu donnes les sous, quoi Y'a les hormones et les mecs avec des poitrines fortes Le cauchemar c'est Macdoum avec un poum-poum XXX You might also like Les meufs sexy, défais les tous, mets les dans les sacs business Tout le monde s'emporte La jeunesse est barge, c'est les parents qui s'arrachent Tout le monde s'emporte XXX c'est la descente en enfer sans stress Tout le monde s'emporte J'répète Tout le monde s'emporte, c'est dead Jeune homme ou jeune fille connectait à son mp3 ou ipod Et qui à l'époque des ordis De lui demander qu'est-ce qui s'passe Où est le bif, tu taffes mais ne mange même ap', mec Tout le monde s'en...1, tout le monde s'en...2 Tout le monde s'en...3 Tout le monde s'en bat les couilles de c'que tu penses C'qui nous rend bouche-bée c'est c'que tu prouves C'que tu prouves, donne c'que bouffes Même ceux qui doutent, sont sans dessus-dessous Pour les sangsues de l'état, j'ai un vécu de blédard Destiné au trottoir, dealer pour un comptoir Cette histoire est notoire C'est foutu, les darons pètent un plomb y'a rien à dire Tout le monde s'emporte Jeunes filles, jeunes hommes branchés sur internet Qui veux que sa gow aye se faire mettre Wow, tout le monde fait la ola Y'en a même qui veulent brûler la volaille Un poste brûlé ça donne un KFC Toute manière, ils sont bons qu'à nous faire traverser, mec Tout le monde s'en...1, tout le monde s'en...2 Tout le monde s'en...3 Tout le monde s'en bat les couilles que tu n'aies pas d'bif Y'a des gosses au Rwanda qui n'ont même plus d'mif' Des travailleurs qui se dé-suici C'est l'état qui nous dissocie Tout le monde a des soucis Chez les gars de la tèss' aussi C'est la faute à personne, la politique m'étonne Pour le bif à Elton Tout le monde s'emporte Les meufs sexy, défais les tous, mets les dans les sales business Tout le monde s'emporte La jeunesse est barge, c'est les parents qui s'arrachent Tout le monde s'emporte XXX c'est la descente en enfer sans stress Tout le monde s'emporte J'répète Tout le monde s'emporte, c'est dead Entre nous pas d'unions, tout le monde est capitaliste Plus t'évolues, plus tes amis t'haïssent Société d'consommation donc on veut c'qu'on voit Et après ils s'étonnent quand ça braque des convois Regarde comment on crève la dalle Des gosses de 11 piges parlent d'être fatale Rien à voir avec les boss qu'on pète à temps Chope notre chance et pour l'état qui sorte nos chambre Les messages direct que tu jette par terre Le tsunami arrive a-tu l'flair Va-tu l'faire ? Berné par un autre, pour abattre ton frère Mensonge, trahisons, disons... Rentre dans l'jeu et tu finis enfermé Les meufs sexy, défais les tous, mets les dans les sacs business Tout le monde s'emporte La jeunesse est barge, c'est les parents qui s'arrachent Tout le monde s'emporte Sans gène sans biff sans stress, c'est la descente en enfer sans stress Tout le monde s'emporte J'répète Tout le monde s'emporte, c'est dead Chaque fois quand c'est la merde, c'est nous qu'on accuse Génération négligée qui s'console sous la lune On leur parle de paix, ils nous parlent de tune Ils nous parlent de guerre, on gère donc normal que ça fume Chaque fois quand c'est la merde, c'est nous qu'on accuse Génération négligée qui s'console sous la lune On leur parle de paix, ils nous parlent de tune Ils nous parlent de guerre, on gère donc normal que ça fume Chaque fois quand c'est la merde, c'est nous qu'on accuse Génération négligée qui s'console sous la lune On leur parle de paix, ils nous parlent de tune Ils nous parlent de guerre, on gère donc normal que ça fume</t>
+          <t>N'oublie jamais c'que l'on t'a donné Tout le monde s'emporte J'en place une pour les frères qui sont condamnés Tout le monde s'emporte Toujours debout après tant d'années Tout le monde s'emporte Nos souffrances et nos peines vont bien s'en aller Tout le monde s'emporte N'oublie jamais c'que l'on t'a donné Tout le monde s'emporte J'en place une pour les frères qui sont condamnés Tout le monde s'emporte Toujours debout après tant d'années Tout le monde s'emporte Nos souffrances et nos peines vont bien s'en aller Tout le monde s'emporte C'est quoi les diez xxx du tieks, tout le monde sait qu'ça vend C'est vrai qu'on est pas ça, on fait passer le sexe avant L'amour comme la haine donc écris ton testament Assume quand c'est la merde, ne crois pas que ton destin ment Sur un plan fiable toujours près à tout miser Que les hommes forts, les plus faibles sont atomisés 2010 c'est la merde, tout le monde veut contrôler sa race Même les meufs s'y sont mis, demande à Condoleezza Rice Tout le monde s'emporte, dans la cave, dans les halls Les petits frères jouent les diables, ils se passent d'auréoles Même les meufs de la poste qui te parle en créole J'ai mon son dans ta caisse, c'est le disque d'oréééooohh C'est pour ça, la famille à Aulnay-sous-Bois Tu finis dans le coffre ou bien tu donnes les sous, quoi Y'a les hormones et les mecs avec des poitrines fortes Le cauchemar c'est Macdoum avec un poum-poum XXX Les meufs sexy, défais les tous, mets les dans les sacs business Tout le monde s'emporte La jeunesse est barge, c'est les parents qui s'arrachent Tout le monde s'emporte XXX c'est la descente en enfer sans stress Tout le monde s'emporte J'répète Tout le monde s'emporte, c'est dead Jeune homme ou jeune fille connectait à son mp3 ou ipod Et qui à l'époque des ordis De lui demander qu'est-ce qui s'passe Où est le bif, tu taffes mais ne mange même ap', mec Tout le monde s'en...1, tout le monde s'en...2 Tout le monde s'en...3 Tout le monde s'en bat les couilles de c'que tu penses C'qui nous rend bouche-bée c'est c'que tu prouves C'que tu prouves, donne c'que bouffes Même ceux qui doutent, sont sans dessus-dessous Pour les sangsues de l'état, j'ai un vécu de blédard Destiné au trottoir, dealer pour un comptoir Cette histoire est notoire C'est foutu, les darons pètent un plomb y'a rien à dire Tout le monde s'emporte Jeunes filles, jeunes hommes branchés sur internet Qui veux que sa gow aye se faire mettre Wow, tout le monde fait la ola Y'en a même qui veulent brûler la volaille Un poste brûlé ça donne un KFC Toute manière, ils sont bons qu'à nous faire traverser, mec Tout le monde s'en...1, tout le monde s'en...2 Tout le monde s'en...3 Tout le monde s'en bat les couilles que tu n'aies pas d'bif Y'a des gosses au Rwanda qui n'ont même plus d'mif' Des travailleurs qui se dé-suici C'est l'état qui nous dissocie Tout le monde a des soucis Chez les gars de la tèss' aussi C'est la faute à personne, la politique m'étonne Pour le bif à Elton Tout le monde s'emporte Les meufs sexy, défais les tous, mets les dans les sales business Tout le monde s'emporte La jeunesse est barge, c'est les parents qui s'arrachent Tout le monde s'emporte XXX c'est la descente en enfer sans stress Tout le monde s'emporte J'répète Tout le monde s'emporte, c'est dead Entre nous pas d'unions, tout le monde est capitaliste Plus t'évolues, plus tes amis t'haïssent Société d'consommation donc on veut c'qu'on voit Et après ils s'étonnent quand ça braque des convois Regarde comment on crève la dalle Des gosses de 11 piges parlent d'être fatale Rien à voir avec les boss qu'on pète à temps Chope notre chance et pour l'état qui sorte nos chambre Les messages direct que tu jette par terre Le tsunami arrive a-tu l'flair Va-tu l'faire ? Berné par un autre, pour abattre ton frère Mensonge, trahisons, disons... Rentre dans l'jeu et tu finis enfermé Les meufs sexy, défais les tous, mets les dans les sacs business Tout le monde s'emporte La jeunesse est barge, c'est les parents qui s'arrachent Tout le monde s'emporte Sans gène sans biff sans stress, c'est la descente en enfer sans stress Tout le monde s'emporte J'répète Tout le monde s'emporte, c'est dead Chaque fois quand c'est la merde, c'est nous qu'on accuse Génération négligée qui s'console sous la lune On leur parle de paix, ils nous parlent de tune Ils nous parlent de guerre, on gère donc normal que ça fume Chaque fois quand c'est la merde, c'est nous qu'on accuse Génération négligée qui s'console sous la lune On leur parle de paix, ils nous parlent de tune Ils nous parlent de guerre, on gère donc normal que ça fume Chaque fois quand c'est la merde, c'est nous qu'on accuse Génération négligée qui s'console sous la lune On leur parle de paix, ils nous parlent de tune Ils nous parlent de guerre, on gère donc normal que ça fume</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 You might also likeFévrier - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3</t>
+          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>No no no no, no way, no way No no no no, no way, no way, no way, no way Tu ne fais pas lpoids, face à ma douleur Jen ai vu dtoutes les couleurs Tarrêterais si tu mvoyais jouer Tu ne fais pas lpoids, jsuis pas un leader Oh mais nme pousse pas, je pourrais te sauver Tu ne fais pas lpoids Est-cque vous mressentez par ici ? Tu ne fais pas lpoids Je nserai pas très loin mon ami Tu ne fais pas lpoids Jai souvent marché dans Paname Avec mon inspi dans mon crâne Tu ndevineras jamais mon level Avec ton genre de style Juste pour mamuser Ma couleur de vie exposé par le mektoub Est-cque vous voyez ce que jvis ? Est-cque vous voyez ce que jvis ? You might also like Tu ne fais pas lpoids, face à ma douleur Jen ai vu dtoutes les couleurs Tarrêterais si tu mvoyais jouer Tu ne fais pas lpoids, jsuis pas un leader Oh mais nme pousse pas, je pourrais te sauver Tu ne fais pas lpoids Est-cque vous mressentez par ici ? Tu ne fais pas lpoids Je nserai pas très loin mon ami Tu ne fais pas lpoids Jai souvent limité les dégâts Pour pas vous faire autant de mal Jcollectionne des têtes Dans quelques temps je naurai plus dennemis Un toast pour larrivée, XXX Jsuis pas de ceux qui vivront à genoux Est-cque vous voyez où jveux en venir ? Est-cque vous voyez où jveux en venir ? Tu ne fais pas lpoids, face à ma douleur Jen ai vu dtoutes les couleurs Tarrêterais si tu mvoyais jouer Tu ne fais pas lpoids, jsuis pas un leader Oh mais nme pousse pas, je pourrais te sauver Tu ne fais pas lpoids Est-cque vous mressentez par ici ? Tu ne fais pas lpoids Je nserai pas très loin mon ami Tu ne fais pas lpoids Où sont mes gentlemen ? Où sont mes gentlemen ? Où sont mes belles gosses ? Dis moi où sont mes gentlemen Où sont mes belles gosses Tu ne fais pas lpoids Tu ne fais pas lpoids, face à ma douleur Jen ai vu dtoutes les couleurs Tarrêterais si tu mvoyais jouer Tu ne fais pas lpoids, jsuis pas un leader Oh mais nme pousse pas, je pourrais te sauver Tu ne fais pas lpoids Est-cque vous mressentez par ici ? Tu ne fais pas lpoids Je nserai pas très loin mon ami Tu ne fais pas lpoids</t>
+          <t>No no no no, no way, no way No no no no, no way, no way, no way, no way Tu ne fais pas lpoids, face à ma douleur Jen ai vu dtoutes les couleurs Tarrêterais si tu mvoyais jouer Tu ne fais pas lpoids, jsuis pas un leader Oh mais nme pousse pas, je pourrais te sauver Tu ne fais pas lpoids Est-cque vous mressentez par ici ? Tu ne fais pas lpoids Je nserai pas très loin mon ami Tu ne fais pas lpoids Jai souvent marché dans Paname Avec mon inspi dans mon crâne Tu ndevineras jamais mon level Avec ton genre de style Juste pour mamuser Ma couleur de vie exposé par le mektoub Est-cque vous voyez ce que jvis ? Est-cque vous voyez ce que jvis ? Tu ne fais pas lpoids, face à ma douleur Jen ai vu dtoutes les couleurs Tarrêterais si tu mvoyais jouer Tu ne fais pas lpoids, jsuis pas un leader Oh mais nme pousse pas, je pourrais te sauver Tu ne fais pas lpoids Est-cque vous mressentez par ici ? Tu ne fais pas lpoids Je nserai pas très loin mon ami Tu ne fais pas lpoids Jai souvent limité les dégâts Pour pas vous faire autant de mal Jcollectionne des têtes Dans quelques temps je naurai plus dennemis Un toast pour larrivée, XXX Jsuis pas de ceux qui vivront à genoux Est-cque vous voyez où jveux en venir ? Est-cque vous voyez où jveux en venir ? Tu ne fais pas lpoids, face à ma douleur Jen ai vu dtoutes les couleurs Tarrêterais si tu mvoyais jouer Tu ne fais pas lpoids, jsuis pas un leader Oh mais nme pousse pas, je pourrais te sauver Tu ne fais pas lpoids Est-cque vous mressentez par ici ? Tu ne fais pas lpoids Je nserai pas très loin mon ami Tu ne fais pas lpoids Où sont mes gentlemen ? Où sont mes gentlemen ? Où sont mes belles gosses ? Dis moi où sont mes gentlemen Où sont mes belles gosses Tu ne fais pas lpoids Tu ne fais pas lpoids, face à ma douleur Jen ai vu dtoutes les couleurs Tarrêterais si tu mvoyais jouer Tu ne fais pas lpoids, jsuis pas un leader Oh mais nme pousse pas, je pourrais te sauver Tu ne fais pas lpoids Est-cque vous mressentez par ici ? Tu ne fais pas lpoids Je nserai pas très loin mon ami Tu ne fais pas lpoids</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Im lookin for er Im lookin for er Im lookin for er Im lookin for er Is that her in the VIP-line With the Vuitton and Yves Saint Laurent Used to drive a Nissan now she in a Beamer I dont want er cause she from the corner And I heard that Beamer was a loaner Her old man, the owner And don't even drink Carona's What type of drink you want bruh On champagne forever On dirty sprite forever You can come sip with me If youd like to change the weather If you wanna live better We can buy a crib, where ever Dont get too thirsty, get used to the cheddar I wanna tell the world about you just so they can get jealous And if you see er fore I do tell er I wish that Ive met er Turn on the lights Im lookin for er too I heard she keep her promises, and never turn on you I heard she aint gon cheat and she gon never make no move I heard she be there anytime you need er, she come through Turn on the lights Im lookin for er Im lookin for er Im lookin for er Turn on the lights Im lookin for er Im lookin for er Im lookin for er Im lookin for er You might also like Est-ce que tu sais s'que tu racontes ou bien tu kiffe quand t'as pas d'bol J'te refais la scène a l'envers tu tiens la tête et puis tu demandes vite s'que je rapporte Un pour les vrais deux pour les faux trois pour les futurs Solja J'etais dans l'agonie j'ai perdu d'la famille j'esquinte le mektoub Job sale Toutes sortes de story toutes sortes de bolides Sa s'traine pour des tasspé au tarpé solide Qui t'as dis que nous suivre c'est risqué C'est la plus belle chose que t'as jamais dégusté T'a entendu parlé la tu vas voir de tes yeux Tu vas t'en mordre les lèvres ou crié Oh Mon Dieu Oh mon vieux la classe et la Tchat et pète le feux J'prends ton 06 à domicile j'pète ton J'prends ton 06 à domicile j'pète ton Demande moi d'ou j'sors Sept Cinq J'fais briller ma life et mes gars du Sept Cinq Beriz futur featuring Sept Cinq J'fais briller ma life Et toute ma zone , et tous mes soces , j'envoie la sauce J'fais briller ma life</t>
+          <t>Im lookin for er Im lookin for er Im lookin for er Im lookin for er Is that her in the VIP-line With the Vuitton and Yves Saint Laurent Used to drive a Nissan now she in a Beamer I dont want er cause she from the corner And I heard that Beamer was a loaner Her old man, the owner And don't even drink Carona's What type of drink you want bruh On champagne forever On dirty sprite forever You can come sip with me If youd like to change the weather If you wanna live better We can buy a crib, where ever Dont get too thirsty, get used to the cheddar I wanna tell the world about you just so they can get jealous And if you see er fore I do tell er I wish that Ive met er Turn on the lights Im lookin for er too I heard she keep her promises, and never turn on you I heard she aint gon cheat and she gon never make no move I heard she be there anytime you need er, she come through Turn on the lights Im lookin for er Im lookin for er Im lookin for er Turn on the lights Im lookin for er Im lookin for er Im lookin for er Im lookin for er Est-ce que tu sais s'que tu racontes ou bien tu kiffe quand t'as pas d'bol J'te refais la scène a l'envers tu tiens la tête et puis tu demandes vite s'que je rapporte Un pour les vrais deux pour les faux trois pour les futurs Solja J'etais dans l'agonie j'ai perdu d'la famille j'esquinte le mektoub Job sale Toutes sortes de story toutes sortes de bolides Sa s'traine pour des tasspé au tarpé solide Qui t'as dis que nous suivre c'est risqué C'est la plus belle chose que t'as jamais dégusté T'a entendu parlé la tu vas voir de tes yeux Tu vas t'en mordre les lèvres ou crié Oh Mon Dieu Oh mon vieux la classe et la Tchat et pète le feux J'prends ton 06 à domicile j'pète ton J'prends ton 06 à domicile j'pète ton Demande moi d'ou j'sors Sept Cinq J'fais briller ma life et mes gars du Sept Cinq Beriz futur featuring Sept Cinq J'fais briller ma life Et toute ma zone , et tous mes soces , j'envoie la sauce J'fais briller ma life</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>J'ai fait l'choix d'mettre mon front à terre Sans repères, j'espère m'repentir vite avant qu'on m'enterre J'vis sous l'il du mal Comme un Gendou, j'marche les ieds-p' au-dessus des flammes Que Dieu m'guide, akhi j'avance sans Tom-Tom J'suis tenté tous les jours par les rottes-ca', les teums-teums Les biens qu'la vie t'prend personne t'les rendra Starf', par égoïsme, j'ai fait l'choix d'décevoir mes rents-pa' Marre de choisir entre bien et hlam Face ou pile, face au mal, j'm'en sors tant bien qu'mal J'passe le salam aux 'soces Face aux salopes, aux suceuses, j'ai fait l'choix d'avancer seul J'cogite en balle, kho, j'ai pas d'quoi m'faire oublier mes soucis Du mal à prendre mon souffle, j'étouffe ici, j'compte plus mes soupirs Entre le bien et l'hlam, le Dîn et l'mal Avancer devient plus dur que de faire ses choix Les choix sont durs parfois Tu vis dans l'erreur, le bien, le mal te partagent T'as choisi la rue, tu ferais mieux d'faire ton paquetage Condamné, sans savoir où aller, on paie nos gestes salés J'ai dû choisir Entre rester par terre, ou briser les barrières Grandir, j'ai su m'assagir et m'endurcir Trop de gens sont faux qui sont donc les vrais ? Il faut qu'j'assume mes fautes, c'est ma personne qui paye les frais You might also like J'ai pris v'là les sens interdits, croqué la vie à pleines dents Passé mon temps à m'baigner dans l'hlam Chaque péché commis m'éloigne du Paradis Le nuit, médite sur mes choix Orienté par l'illicite Depuis l'jeune âge, la rue m'excite et m'incite À faire du mal J'ai pas décidé d'vivre dans c'monde de clébards J'compte décéder bu-bar' Entrer dans l'Dîn, y'a pas meilleur choix qu'j'peux faire L'avant-goût d'l'Enfer sur Terre J'l'ai goûté c'est la pisse d'Iblis Frelon, après dix piges de fumette, j'ai zappé l'seum qui a brouillé mes neurones Les paupières cernées par la fumée J'ai choisi d'arrêter d'faire le con, et d'fuir le camp des damnés J'ai choisi d'arrêter d'faire le con, et d'fuir le camp des damnés J'ai commencé par préférer la télé à l'école Puis s'en sont suivies des tonnes d'heures de colle Puis, ma vie j'ai préféré la vivre que la voir passer Et j'ai choisi d'être d'ceux qui verront pas l'avenir dans l'passé Et j'ai choisi la rue comme si c'était une carrière Et d'surveiller mes arrières sans proposer mon derrière Et j'ai choisi d'jamais prendre personne pour supérieur Et d'pas changer d'direction, même si j'm'enfonçais dans mes erreurs Donc j'ai choisi d'devenir un homme, quoi qu'il arrive Donc plus d'larmes quand vient la mort de ceux qui vivent D'être blessant, méchant, envers ceux qui l'méritaient Et qu'j'devais rien à personne, si c'n'est la vérité Et maintenant, j'ai choisi la liberté, car J'ai fait peu d'temps, mais j'pense que j'ai trop tourné au placard Et j'ai compris qu'y'avait pas d'bons ou d'mauvais choix à regretter Il est juste question d'ton aptitude à accepter la vérité</t>
+          <t>J'ai fait l'choix d'mettre mon front à terre Sans repères, j'espère m'repentir vite avant qu'on m'enterre J'vis sous l'il du mal Comme un Gendou, j'marche les ieds-p' au-dessus des flammes Que Dieu m'guide, akhi j'avance sans Tom-Tom J'suis tenté tous les jours par les rottes-ca', les teums-teums Les biens qu'la vie t'prend personne t'les rendra Starf', par égoïsme, j'ai fait l'choix d'décevoir mes rents-pa' Marre de choisir entre bien et hlam Face ou pile, face au mal, j'm'en sors tant bien qu'mal J'passe le salam aux 'soces Face aux salopes, aux suceuses, j'ai fait l'choix d'avancer seul J'cogite en balle, kho, j'ai pas d'quoi m'faire oublier mes soucis Du mal à prendre mon souffle, j'étouffe ici, j'compte plus mes soupirs Entre le bien et l'hlam, le Dîn et l'mal Avancer devient plus dur que de faire ses choix Les choix sont durs parfois Tu vis dans l'erreur, le bien, le mal te partagent T'as choisi la rue, tu ferais mieux d'faire ton paquetage Condamné, sans savoir où aller, on paie nos gestes salés J'ai dû choisir Entre rester par terre, ou briser les barrières Grandir, j'ai su m'assagir et m'endurcir Trop de gens sont faux qui sont donc les vrais ? Il faut qu'j'assume mes fautes, c'est ma personne qui paye les frais J'ai pris v'là les sens interdits, croqué la vie à pleines dents Passé mon temps à m'baigner dans l'hlam Chaque péché commis m'éloigne du Paradis Le nuit, médite sur mes choix Orienté par l'illicite Depuis l'jeune âge, la rue m'excite et m'incite À faire du mal J'ai pas décidé d'vivre dans c'monde de clébards J'compte décéder bu-bar' Entrer dans l'Dîn, y'a pas meilleur choix qu'j'peux faire L'avant-goût d'l'Enfer sur Terre J'l'ai goûté c'est la pisse d'Iblis Frelon, après dix piges de fumette, j'ai zappé l'seum qui a brouillé mes neurones Les paupières cernées par la fumée J'ai choisi d'arrêter d'faire le con, et d'fuir le camp des damnés J'ai choisi d'arrêter d'faire le con, et d'fuir le camp des damnés J'ai commencé par préférer la télé à l'école Puis s'en sont suivies des tonnes d'heures de colle Puis, ma vie j'ai préféré la vivre que la voir passer Et j'ai choisi d'être d'ceux qui verront pas l'avenir dans l'passé Et j'ai choisi la rue comme si c'était une carrière Et d'surveiller mes arrières sans proposer mon derrière Et j'ai choisi d'jamais prendre personne pour supérieur Et d'pas changer d'direction, même si j'm'enfonçais dans mes erreurs Donc j'ai choisi d'devenir un homme, quoi qu'il arrive Donc plus d'larmes quand vient la mort de ceux qui vivent D'être blessant, méchant, envers ceux qui l'méritaient Et qu'j'devais rien à personne, si c'n'est la vérité Et maintenant, j'ai choisi la liberté, car J'ai fait peu d'temps, mais j'pense que j'ai trop tourné au placard Et j'ai compris qu'y'avait pas d'bons ou d'mauvais choix à regretter Il est juste question d'ton aptitude à accepter la vérité</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Yeah, hein Yeah, hi Bériz Good evening bitches Yeah, yeah Yo, eh Elle veut, qu'elle est bonne, elle veut de la fraîche LV sur le côté, le compte plein c'est la merde J'éteins la lumière, c'est la merde J'éteins la lumière, c'est la merde Et je la bosse, jusqu'à 6 du mat ouais Et quand t'as les poches pleines mon sauce, c'est sûr que ça kouma Ça n'en finit plus bitches, juste arrête de gouma Après la balade, après la réussite boy, coup bas yeah Tout va, eh, tout va, tout va, tout va, tout va bien Tout va bien J'ai tout vu, pas b'soin d'faire le tour du monde hey Depuis qu'j'la calcule, elle s'prend pour une bombe hey J'fais plus l'fou dans Paris, j'pense à la tombe hey Beaucoup dans les clips, mais personne quand tu tombe hey Je n'crains pas les hommes, je crains la punition Bicraveur de crack dans les quartiers bres-som hey Y'a pas d'vainqueur, y'a juste des morts hey T'es d'ceux qu'aboient, j'suis d'ceux qui mordent hey You might also like Mes couilles frottent le sol, la longueur les a qué-cho Ma démarche, elle est bonne, la distance, elle m'a pé-cho Bien sûr qu'elle est bonne, bien sûr qu'elle est bonne Palette aux vovo, loin de la Volvo ya Je n'vois que du fou dji, j'fais parti des Fugees Bon bref, la 'sique me fait mal à la tête, igo, ramène les lovés J'bouge pas de la beuh, mais j'nourris le tier-quar avev du bon blé Le flic est mort, le policier est mort J'fais l'tour de la tess', j'vais l'tour de la Terre à bord Volvo couleur or, j'suis d'la couleur du succès Mettez dans les cordes, j'suis Tyson, j'suis calibré Enlève ta nuisette-sette, viens goûter mes noisettes-sette L'av'nir sur la casquette zer, j'ai remplacer la 'quette, 'quette, 'quette Avec la 'sique, 'sique, zer woo Fuck le paintball, on ne tire pas à blanc nous On te déforme le sage-vi, avec une batte de baseball On ne tire pas à blanc nous, j't'fouette avec du bamboo N'oublie pas qu'on est chez nous, tu sais bien qu'on les cher-tou woooh J'vendais d'la drogue, j'suis bé-tom dans l'crime Pour pas grand chose, vraiment pas grand chose J'ai les poches pleines, donc des potes hypocrites Ils ont trahi la cause, ils ont vendu la cause Avec la blackcard, bien sûr on transforme la street Hin hin hin hin hin hin hin hin Bien sûr qu'ils n'ont pas pied Hin hin hin hin hin hin hin hin Bien sûr qu'ils n'ont pas pied Tuba, tuba Bien sûr qu'ils n'ont pas pied Tuba, bien sûr qu'ils n'ont pas pied Tuba, ouais ils n'ont pas pied Tuba, tuba, tuba eh, tuba yeah Tuba eh, tuba, tuba eh, tuba hmm Tuba eh, tuba, bien sûr c'est tuba Bien sûr c'est tuba Tu vas, bien sûr qu't'es ttu-ba eh Nahouhaha</t>
+          <t>Yeah, hein Yeah, hi Bériz Good evening bitches Yeah, yeah Yo, eh Elle veut, qu'elle est bonne, elle veut de la fraîche LV sur le côté, le compte plein c'est la merde J'éteins la lumière, c'est la merde J'éteins la lumière, c'est la merde Et je la bosse, jusqu'à 6 du mat ouais Et quand t'as les poches pleines mon sauce, c'est sûr que ça kouma Ça n'en finit plus bitches, juste arrête de gouma Après la balade, après la réussite boy, coup bas yeah Tout va, eh, tout va, tout va, tout va, tout va bien Tout va bien J'ai tout vu, pas b'soin d'faire le tour du monde hey Depuis qu'j'la calcule, elle s'prend pour une bombe hey J'fais plus l'fou dans Paris, j'pense à la tombe hey Beaucoup dans les clips, mais personne quand tu tombe hey Je n'crains pas les hommes, je crains la punition Bicraveur de crack dans les quartiers bres-som hey Y'a pas d'vainqueur, y'a juste des morts hey T'es d'ceux qu'aboient, j'suis d'ceux qui mordent hey Mes couilles frottent le sol, la longueur les a qué-cho Ma démarche, elle est bonne, la distance, elle m'a pé-cho Bien sûr qu'elle est bonne, bien sûr qu'elle est bonne Palette aux vovo, loin de la Volvo ya Je n'vois que du fou dji, j'fais parti des Fugees Bon bref, la 'sique me fait mal à la tête, igo, ramène les lovés J'bouge pas de la beuh, mais j'nourris le tier-quar avev du bon blé Le flic est mort, le policier est mort J'fais l'tour de la tess', j'vais l'tour de la Terre à bord Volvo couleur or, j'suis d'la couleur du succès Mettez dans les cordes, j'suis Tyson, j'suis calibré Enlève ta nuisette-sette, viens goûter mes noisettes-sette L'av'nir sur la casquette zer, j'ai remplacer la 'quette, 'quette, 'quette Avec la 'sique, 'sique, zer woo Fuck le paintball, on ne tire pas à blanc nous On te déforme le sage-vi, avec une batte de baseball On ne tire pas à blanc nous, j't'fouette avec du bamboo N'oublie pas qu'on est chez nous, tu sais bien qu'on les cher-tou woooh J'vendais d'la drogue, j'suis bé-tom dans l'crime Pour pas grand chose, vraiment pas grand chose J'ai les poches pleines, donc des potes hypocrites Ils ont trahi la cause, ils ont vendu la cause Avec la blackcard, bien sûr on transforme la street Hin hin hin hin hin hin hin hin Bien sûr qu'ils n'ont pas pied Hin hin hin hin hin hin hin hin Bien sûr qu'ils n'ont pas pied Tuba, tuba Bien sûr qu'ils n'ont pas pied Tuba, bien sûr qu'ils n'ont pas pied Tuba, ouais ils n'ont pas pied Tuba, tuba, tuba eh, tuba yeah Tuba eh, tuba, tuba eh, tuba hmm Tuba eh, tuba, bien sûr c'est tuba Bien sûr c'est tuba Tu vas, bien sûr qu't'es ttu-ba eh Nahouhaha</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Dr._Bériz_songs.xlsx
+++ b/data/02_intermediate/cleaned_Dr._Bériz_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ville fantôme</t>
+          <t>My Life</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>Ce soir on sautera les barrières, on mettra pas leurs petits tickets Paraît qu'j'suis Noir et mal élevé, que mon équipe est critiquée Mais fuck, je ne gobe ni leurs paroles ni leurs médicaments Cosmopolites, chez nous lalcool est russe et le bolide allemand La sape est italienne, la rage est africaine, ok Raciste, cest avec nous que ta fille traîne, ok Jtexplique le dièse mon père fait pas déconomies En garde-à-vue mes frelots nient, et moi jai le blues des colonies Ouais jai lblues de lépoque où Del Piero menait la Juve Jaurais pas cru, si on mavait dit quun jour jverrais la juge Jparle pas trop au téléphone, mon entourage est sous écoute Ok... hé et la vie sans sous dégoûte Du coups jai deux-trois accès, dla dope qui peut désaxer Nos poumons sont martyrs, nos cigarettes détaxées Nos oncles et tantes, adeptes du petit grattage Et nous sa mère, ça mlaisse amer, on est tous dans le piratage Mes soucis mont forgé, je nfais que mplaindre dans ma life Mais quoi que je dise, crois-moi, jla kiffe trop my life Jai le contrôle sur mes faits et gestes, le guide de ma life Mes soucis mont forgé, je nfais que mplaindre dans ma life Mais quoi que je dise, crois-moi, jla kiffe trop my life Jai le contrôle sur mes faits et gestes, le guide de ma life Je souhaite de vivre longtemps dans mes prières Sans aiguille dans lbras Mes rimes jles chauffe dans une cuillère Ffrère, et jles deale en bas Jmen bats les couilles moi Tout cque jveux cest vivre sans souffrir Voir les coffres fermés souvrir Et pourquoi pas les sous venir Et dans mes meilleurs souvenirs Avec les potes on slâchait On savait même pas shlasser Sembrouillait pour des sachets Sembrouillait pour du bénèf Sembrouillait pour des petites putes On avait tous des petits buts Et puis les crocs des pitbulls Et on sest mis à grandir Entendu même les grands dire Quon prendrait leur place Et que les armes on aimerait brandir Cest la spirale dla cité Ouais celle avec un grand C Où cest plus dur davancer Quand Fleury Fresnes ta lancée Et si la sagesse sacquiert Bah moi jai besoin de saphirs Le soir, je marche sur des braises Un peu comme font les fakirs Hé jsais pas si au fond On nous prendra comme tels Si on mourra vieux Si on passera la trentaine, mon pote Je suis, larchitecte de mes erreurs Tu fuis, quoi quje fasse jsuis à zéro Je suis, tes larchitecte de tes erreurs Tu fuis, quoi qutu fasses tes à zéro Je kiffe ma life, je kiffe ma life Je kiffe ma life, je kiffe ma life 5</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>My Life</t>
+          <t>Zoné</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ce soir on sautera les barrières, on mettra pas leurs petits tickets Paraît qu'j'suis Noir et mal élevé, que mon équipe est critiquée Mais fuck, je ne gobe ni leurs paroles ni leurs médicaments Cosmopolites, chez nous lalcool est russe et le bolide allemand La sape est italienne, la rage est africaine, ok Raciste, cest avec nous que ta fille traîne, ok Jtexplique le dièse mon père fait pas déconomies En garde-à-vue mes frelots nient, et moi jai le blues des colonies Ouais jai lblues de lépoque où Del Piero menait la Juve Jaurais pas cru, si on mavait dit quun jour jverrais la juge Jparle pas trop au téléphone, mon entourage est sous écoute Ok... hé et la vie sans sous dégoûte Du coups jai deux-trois accès, dla dope qui peut désaxer Nos poumons sont martyrs, nos cigarettes détaxées Nos oncles et tantes, adeptes du petit grattage Et nous sa mère, ça mlaisse amer, on est tous dans le piratage Mes soucis mont forgé, je nfais que mplaindre dans ma life Mais quoi que je dise, crois-moi, jla kiffe trop my life Jai le contrôle sur mes faits et gestes, le guide de ma life Mes soucis mont forgé, je nfais que mplaindre dans ma life Mais quoi que je dise, crois-moi, jla kiffe trop my life Jai le contrôle sur mes faits et gestes, le guide de ma life Je souhaite de vivre longtemps dans mes prières Sans aiguille dans lbras Mes rimes jles chauffe dans une cuillère Ffrère, et jles deale en bas Jmen bats les couilles moi Tout cque jveux cest vivre sans souffrir Voir les coffres fermés souvrir Et pourquoi pas les sous venir Et dans mes meilleurs souvenirs Avec les potes on slâchait On savait même pas shlasser Sembrouillait pour des sachets Sembrouillait pour du bénèf Sembrouillait pour des petites putes On avait tous des petits buts Et puis les crocs des pitbulls Et on sest mis à grandir Entendu même les grands dire Quon prendrait leur place Et que les armes on aimerait brandir Cest la spirale dla cité Ouais celle avec un grand C Où cest plus dur davancer Quand Fleury Fresnes ta lancée Et si la sagesse sacquiert Bah moi jai besoin de saphirs Le soir, je marche sur des braises Un peu comme font les fakirs Hé jsais pas si au fond On nous prendra comme tels Si on mourra vieux Si on passera la trentaine, mon pote Je suis, larchitecte de mes erreurs Tu fuis, quoi quje fasse jsuis à zéro Je suis, tes larchitecte de tes erreurs Tu fuis, quoi qutu fasses tes à zéro Je kiffe ma life, je kiffe ma life Je kiffe ma life, je kiffe ma life 5</t>
+          <t>J'passe ma vie à zoner et à m'demander si j'n'ai pas de chance La rue c'est ma son-mai, tu m'as vu marcher dans tous les sens Ma belle, tu es chant-mé et je m'en tape de tout c'que tu penses J'passe ma vie à zoner, la tête dans les nuages et les pieds sur l'bitume Où? Où t'as dormi? Où? Mais où tu vas? Où? Mais où tu passes toutes les nuits? Ma belle, tu poses trop de questions On a peur pour toi, mon fils, j'lui ai répondu t'inquiète pas pour moi mama Je n'aime pas le jour je n'vis que la night J'passe ma vie à zoner et à m'demander si j'n'ai pas de chance La rue c'est ma son-mai, tu m'as vu marcher dans tous les sens Ma belle, tu es chant-mé et je m'en tape de tout c'que tu penses J'passe ma vie à zoner, la tête dans les nuages et les pieds sur l'bitume Qui? Qui tu fréquentes? Qui? Chez qui tu vas? Avec qui t'as passé toute la nuit? Ma belle, tu poses trop de questions On a peur pour toi, mon fils, j'lui ai répondu t'inquiète pas pour moi mama Je n'aime pas le jour je n'vis que la night J'passe ma vie à zoner et à m'demander si j'n'ai pas de chance La rue c'est ma son-mai, tu m'as vu marcher dans tous les sens Ma belle, tu es chant-mé et je m'en tape de tout c'que tu penses J'passe ma vie à zoner, la tête dans les nuages et les pieds sur l'bitume Je me pose des questions, quand est-ce que tu vas changer? Je me pose des questions, quand est-ce que tu vas médire? Tu n'comprends pas, une partie de moi ne vit qu'la nuit Désire que la nuit J'passe ma vie à zoner et à m'demander si j'n'ai pas de chance La rue c'est ma son-mai, tu m'as vu marcher dans tous les sens Ma belle, tu es chant-mé et je m'en tape de tout c'que tu penses J'passe ma vie à zoner, la tête dans les nuages et les pieds sur l'bitume1</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Zoné</t>
+          <t>On t’a dit</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>J'passe ma vie à zoner et à m'demander si j'n'ai pas de chance La rue c'est ma son-mai, tu m'as vu marcher dans tous les sens Ma belle, tu es chant-mé et je m'en tape de tout c'que tu penses J'passe ma vie à zoner, la tête dans les nuages et les pieds sur l'bitume Où? Où t'as dormi? Où? Mais où tu vas? Où? Mais où tu passes toutes les nuits? Ma belle, tu poses trop de questions On a peur pour toi, mon fils, j'lui ai répondu t'inquiète pas pour moi mama Je n'aime pas le jour je n'vis que la night J'passe ma vie à zoner et à m'demander si j'n'ai pas de chance La rue c'est ma son-mai, tu m'as vu marcher dans tous les sens Ma belle, tu es chant-mé et je m'en tape de tout c'que tu penses J'passe ma vie à zoner, la tête dans les nuages et les pieds sur l'bitume Qui? Qui tu fréquentes? Qui? Chez qui tu vas? Avec qui t'as passé toute la nuit? Ma belle, tu poses trop de questions On a peur pour toi, mon fils, j'lui ai répondu t'inquiète pas pour moi mama Je n'aime pas le jour je n'vis que la night J'passe ma vie à zoner et à m'demander si j'n'ai pas de chance La rue c'est ma son-mai, tu m'as vu marcher dans tous les sens Ma belle, tu es chant-mé et je m'en tape de tout c'que tu penses J'passe ma vie à zoner, la tête dans les nuages et les pieds sur l'bitume Je me pose des questions, quand est-ce que tu vas changer? Je me pose des questions, quand est-ce que tu vas médire? Tu n'comprends pas, une partie de moi ne vit qu'la nuit Désire que la nuit J'passe ma vie à zoner et à m'demander si j'n'ai pas de chance La rue c'est ma son-mai, tu m'as vu marcher dans tous les sens Ma belle, tu es chant-mé et je m'en tape de tout c'que tu penses J'passe ma vie à zoner, la tête dans les nuages et les pieds sur l'bitume1</t>
+          <t>Oh, oh, oh ! Les yeux plus gros qu'le monde ! Dr Beriz Big Black M Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M Hello Bériz ! Euh... Comment vas-tu depuis Wati euh... ? Comment leur dire que c'est moi l'king ? Euh... C'est moi qui vous dicte le chapitre Rêveur, on me dit que j'suis ché-per, mais, le Big Black M, il a cé-per Et on dit que, la chute, elle est sévère mais, le débrouillard, il sait faire J'ai le sang du daron de la Guinée tout comme j'ai le sang d'un rappeur qui sait kicker Je me fous de vos idoles cain-ri, ce n'est pas eux qui me donnent le maro Je suis pas dans les délires L.A, quand le soleil frappe, j'suis plutôt Maroc Gros son pour les re-frés, il faut que tout le monde chante mon refrain Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M Je voulais juste prendre mes lovés, sans pour autant vouloir être mauvais M'en voulez pas d'avoir innové, oh ! Tous vos sons me donnent la nausée J'étais au tié-quar' souvent posé, j'voulais que personne vienne me causer Je voulais juste dreamer, m'sauver, fuck l'Interim, j'préférais chômer Beaucoup m'ont dit qu'je finirai paumé, j'avais que Sexion pour m'épauler J'étais souvent dur et en colère, oui, je n'aimais pas l'système scolaire J'avais du mal avec les horaires, à mes ennemis j'disais J'les aurai. Je ne suis pas là pour décorer, non, renoi, faut pas déconner Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M Si j'ai les yeux plus gros qu'le monde C'est que j'ai dû voir ce qu'ont vu tous les grands de ce monde, n'est ce pas ? J'ai que ma gueule, ma musique et mon style Pour m'en sortir, j'ai du transmettre ma peine sur mes titres, mon gars Si j'ai les yeux plus gros qu'le monde C'est que j'ai dû voir ce qu'ont vu tous les grands de ce monde, n'est ce pas ? J'ai que ma gueule, ma musique et mon style Pour m'en sortir, j'ai du transmettre ma peine sur mes titres, mon gars Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M6</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>On t’a dit</t>
+          <t>Profiter de ma life</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Oh, oh, oh ! Les yeux plus gros qu'le monde ! Dr Beriz Big Black M Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M Hello Bériz ! Euh... Comment vas-tu depuis Wati euh... ? Comment leur dire que c'est moi l'king ? Euh... C'est moi qui vous dicte le chapitre Rêveur, on me dit que j'suis ché-per, mais, le Big Black M, il a cé-per Et on dit que, la chute, elle est sévère mais, le débrouillard, il sait faire J'ai le sang du daron de la Guinée tout comme j'ai le sang d'un rappeur qui sait kicker Je me fous de vos idoles cain-ri, ce n'est pas eux qui me donnent le maro Je suis pas dans les délires L.A, quand le soleil frappe, j'suis plutôt Maroc Gros son pour les re-frés, il faut que tout le monde chante mon refrain Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M Je voulais juste prendre mes lovés, sans pour autant vouloir être mauvais M'en voulez pas d'avoir innové, oh ! Tous vos sons me donnent la nausée J'étais au tié-quar' souvent posé, j'voulais que personne vienne me causer Je voulais juste dreamer, m'sauver, fuck l'Interim, j'préférais chômer Beaucoup m'ont dit qu'je finirai paumé, j'avais que Sexion pour m'épauler J'étais souvent dur et en colère, oui, je n'aimais pas l'système scolaire J'avais du mal avec les horaires, à mes ennemis j'disais J'les aurai. Je ne suis pas là pour décorer, non, renoi, faut pas déconner Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M Si j'ai les yeux plus gros qu'le monde C'est que j'ai dû voir ce qu'ont vu tous les grands de ce monde, n'est ce pas ? J'ai que ma gueule, ma musique et mon style Pour m'en sortir, j'ai du transmettre ma peine sur mes titres, mon gars Si j'ai les yeux plus gros qu'le monde C'est que j'ai dû voir ce qu'ont vu tous les grands de ce monde, n'est ce pas ? J'ai que ma gueule, ma musique et mon style Pour m'en sortir, j'ai du transmettre ma peine sur mes titres, mon gars Et on disait qu'il avait trop d'style Et qu'il vendait du rêve aux ladies Et, pour lui, personne se faisait d'bile Pas besoin d'cogiter, t'as d'jà tilté, Black M Et, quand il chantait, il faisait la dif' Et, avec ses mélodies, on oubliait la crise Pour n'pas se prendre la tête, disait Ainsi soit-il. Pas besoin d'cogiter, t'as d'ja tilté, Beriz Na na na na na na na na Na na na na na na na na, Bériz ! Na na na na na na na na Na na na na na na na na, Black M6</t>
+          <t>Est-ce que j'dois profiter d'ma life ? Dormir, sortir, que faire de ma night ? Est-ce que j'dois profiter d'ma life bien avant que ma vie s'écoule Dormir, sortir, que faire de ma night, soit je m'isole ou soit j'deviens fou Tu veux tout tout de suite quand t'es sous tise C'est une course poursuite, moi je m'épuise Wesh gava, tu t'pavanes T'as sorti la gova et les bravas T'es de passage, c'est le bazar T'as provoqué les passants même en bas âge On te connait, t'aimes rigoler Mais personne n'aime te croiser quand t'as trop picolé Tu vois une équipe, tu veux embrouiller l'un d'eux Akhi t'es mon gars sûr mais on s'verra main-de Est-ce que j'dois profiter d'ma life bien avant que ma vie s'écoule Dormir, sortir, que faire de ma night, soit je m'isole ou soit j'deviens fou Tu veux tout tout de suite quand t'es sous tise C'est une course poursuite, moi je m'épuise Ouh Ouh , je veux pas la baraque à Drake Je veux mon terrain au bled bien barricadé Ah Ah , demande à Barack A.D Le dream c'est la famille tout le reste est gâté Petit je voulais tout tout de suite J'voyais les chose en grand fallait pas que je touche que le SMIC Petit ferme ta bouche ! Parler d'argent ici en France c'est tabou On est pas dans le pays d'Obama Si t'as réussi ta vie on te regarde mal N'essaye pas de débattre ici les gens parlent mal Bienvenue akhi ici t'es bien à Paname Est-ce que j'dois profiter d'ma life bien avant que ma vie s'écoule Dormir, sortir, que faire de ma night, soit je m'isole ou soit j'deviens fou Tu veux tout tout de suite quand t'es sous tise C'est une course poursuite, moi je m'épuise Je suis entouré de biff, de meufs, de teilles... Que faire ? Dis moi que faire ? Finir à BKO en maybach, il faut le faire, il faut le faire T'es sorti clean, t'as pas le temps, deux, trois potos qui t'attendent Un beau mytho pour madame, ça passe elle va mir-dor, ça t'arrange Bouteille à ta table t'es refait ! En place avec tous tes re-fré Deux jolies métisses Que faire ? Mes yeux fatiguent J'te cerne ! Vous connaissez les refrains, fonce-dé jusquà demain Tu crois déchirer, être au dessus des hommes ? Mais t'es déchiré tu dors sur le sol Est-ce que j'dois profiter d'ma life bien avant que ma vie s'écoule Dormir, sortir, que faire de ma night, soit je m'isole ou soit j'deviens fou Tu veux tout tout de suite quand t'es sous tise C'est une course poursuite, moi je m'épuise Qui a sous estimé le WA ? C'est le del-bor Qui t'a surestimé toi ? Peu importe Trop de talent et d'billets, comme la NBA Feeling in the air ! Laisse moi profiter de ma life avant que tout s'éteigne ! De ma life avant que tout s'éteigne ! Laisse moi profiter de ma life avant que tout s'éteigne ! De ma life avant que tout s'éteigne6</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Profiter de ma life</t>
+          <t>Gauche Droite</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Est-ce que j'dois profiter d'ma life ? Dormir, sortir, que faire de ma night ? Est-ce que j'dois profiter d'ma life bien avant que ma vie s'écoule Dormir, sortir, que faire de ma night, soit je m'isole ou soit j'deviens fou Tu veux tout tout de suite quand t'es sous tise C'est une course poursuite, moi je m'épuise Wesh gava, tu t'pavanes T'as sorti la gova et les bravas T'es de passage, c'est le bazar T'as provoqué les passants même en bas âge On te connait, t'aimes rigoler Mais personne n'aime te croiser quand t'as trop picolé Tu vois une équipe, tu veux embrouiller l'un d'eux Akhi t'es mon gars sûr mais on s'verra main-de Est-ce que j'dois profiter d'ma life bien avant que ma vie s'écoule Dormir, sortir, que faire de ma night, soit je m'isole ou soit j'deviens fou Tu veux tout tout de suite quand t'es sous tise C'est une course poursuite, moi je m'épuise Ouh Ouh , je veux pas la baraque à Drake Je veux mon terrain au bled bien barricadé Ah Ah , demande à Barack A.D Le dream c'est la famille tout le reste est gâté Petit je voulais tout tout de suite J'voyais les chose en grand fallait pas que je touche que le SMIC Petit ferme ta bouche ! Parler d'argent ici en France c'est tabou On est pas dans le pays d'Obama Si t'as réussi ta vie on te regarde mal N'essaye pas de débattre ici les gens parlent mal Bienvenue akhi ici t'es bien à Paname Est-ce que j'dois profiter d'ma life bien avant que ma vie s'écoule Dormir, sortir, que faire de ma night, soit je m'isole ou soit j'deviens fou Tu veux tout tout de suite quand t'es sous tise C'est une course poursuite, moi je m'épuise Je suis entouré de biff, de meufs, de teilles... Que faire ? Dis moi que faire ? Finir à BKO en maybach, il faut le faire, il faut le faire T'es sorti clean, t'as pas le temps, deux, trois potos qui t'attendent Un beau mytho pour madame, ça passe elle va mir-dor, ça t'arrange Bouteille à ta table t'es refait ! En place avec tous tes re-fré Deux jolies métisses Que faire ? Mes yeux fatiguent J'te cerne ! Vous connaissez les refrains, fonce-dé jusquà demain Tu crois déchirer, être au dessus des hommes ? Mais t'es déchiré tu dors sur le sol Est-ce que j'dois profiter d'ma life bien avant que ma vie s'écoule Dormir, sortir, que faire de ma night, soit je m'isole ou soit j'deviens fou Tu veux tout tout de suite quand t'es sous tise C'est une course poursuite, moi je m'épuise Qui a sous estimé le WA ? C'est le del-bor Qui t'a surestimé toi ? Peu importe Trop de talent et d'billets, comme la NBA Feeling in the air ! Laisse moi profiter de ma life avant que tout s'éteigne ! De ma life avant que tout s'éteigne ! Laisse moi profiter de ma life avant que tout s'éteigne ! De ma life avant que tout s'éteigne6</t>
+          <t>Wati B Prod, Shin Sekai Warano style, l'Amiral D.R L'ennemi public aka le numero un Black Mesrimes Les choses se passent dans l'calme J'ai l'keutru, j'ai l'débit, j'ai l'flow, j'vais les taper sans commettre aucune faute T'es le vrai 'warano ou t'es l'faux ? J'ai cru voir ta tête aux infos ça va ! Franchement c'est par rapport à mes parents que mes couplets se différencient des javons de l'Île-de-France Et quand tu cavalais comme un caniche devant des keumés, des calibres, tu faisais moins lintéressant J'envoie des ck-tru droit dans les chicos, c'est signé Meuguiwarano, tout est fini, j'enflamme le vinyle Petite merde, dis-moi salâm 'aleïkoum si tu vois mon cavu sé-po.. Lamborghini J'suis dans le terrain de tout l'monde Zazie, Johnny puis Balavoine, le disque d'or, tu ne pourras p't-être pas l'avoir D'autant plus que tu t'es jamais cassé la voix, une spéciale pour mes gens, mes gavas navas J'suis un grand garçon, ne me tenez même pas la main, très peu, très peu de bonhommes à Paname Qui tiendraient plus de cinq ou six minutes à la barre, va là-bas, disparais comme Jessica Alba Ça gratte avec l'esprit d'tuer, demande à 2being, ce que je veux, c'est t'taser là où tu te baignes Beaucoup trop de faux vécus dans le rap game, qui t'la certifié que mon casier vierge est plus gang ? Gilge-né comme un baveux commis d'office, pourtant, j'ai la te-tê', j'ai le charisme et la notice J'suis arrivé jusqu'ici, mon parcours un sans faute, fils de... J'arrêterai le son quand j'aurai plus de blé que Will Smith Et tous les hustlers te diront C'est la hass, là donc ça ré-ti comme l'Hezbollah sans craindre de prendre du hebs tu piges ? À tous ces soi-disant gars sûrs absents après chaque accident présents que quand y'a le bif' qui rentre, zombie un peu comme dans Resident Evil T'as une grande gueule, gonflée comme une montgolfière mais, quand il y a plus tes potes, tu fais le moins fier, hein ? Belek à la ue-r et tout le monde veut s'entuber, soûlé de la vie, ça peut soulever pour une .. J'fixe les gles-rè', ça va saigner, un mot de travers faut assumer, toujours fidèle à moi même, akhi, j'dois rien à sonne-per' Et celui qui dit des dingueries peut pas cer-per' ses dingaries, il y a qu'une chose à dire, en vrai, c'est qu'il aille niquer son père Ici, c'est soit tu gagnes, soit tu perds, do you understand ? T'as l'air du-per' J'fais d'une pierre dix coups, tu peux m'a.k.a Les ricochets qui cognent et cognent en traversant la rivière Ma vie n'a pas beaucoup changé depuis Je reviendrai J'ajouterai qu'à vrai dire, j'aimerais avancer en paix car le succès m'effraie Mais j'ai besoin de donuts, j'aimerais faire peau neuve car j'ai laissé quelques plumes à la quête du bonheur Je n'ai jamais écouté mes profs cistes-ra' qui pensaient très fort que je ne finirai qu'en chômeur Et puis je sais que face à Brad Pitt, j'ai sûrement l'air abominable Michto, ton choix serait vite fait entre une ceinture LV et une ceinture abdominale Fuck la droite, fuck la gauche, fuck les, fuck les, fuck l'État Je n'aime pas me soumettre, mis à part devant Dieu, fuck les, fuck les, fuck les chtars Et j'rends les miens heureux pendant qu'tes rappeurs de merde rendent l'âme Je ne veux pas être un légume accro à la blanche comme Jean-Claude Van Damme Rien à foutre de vos clashs, rien à, rien à, rien à foutre de vos swags de merde Merci d'tes conseils, mais j'n'en ai rien à faire, et, tout compte fait, je t'emmerde Bloquer, je sais qu'tu veux m'bloquer Que je disparaisse du circuit car moi je ne suis pas cette pute à peloter Nan, gros c'est l'Amiral dit l'Animal, ouais fais croquer Moi je manie mic', coups d'tête et crochets, ma vie, mon équipe, mon éthique m'aident à bosser Grossiers sont les persos mais fuck moi j'attends que la Terre saute Vu que l'humanité a délaissé son berceau et que la lucidité chez nous on la perd tôt Beriz, je sais qu'tu veux nous baiser et qu'on périsse Je sais qu'tu veux nous briser mais t'embellis et ça sent la douille, dans les rues ça sent l'pénis Pour le khalis on dévalise vu qu'à nos parents ils ont bloqué les valises Eux qui subissent des contrôles même en Vélib', l'État brise leur rêves à rendre leur vie invalide Pas de manif car les calibres crient fort, asseoir ainsi le respect On partira pas les mains vides car comme ils disent on a la gueule du suspect Tout le monde dit Black Black ! Tout le monde dit Black Black ! J'ai dit Tout le monde dit Black Black ! Tout le monde voit Black Black ! Tout le monde voit Black Black ! Ok ok, tout le monde voit Black Ce n'est pas le premier single, non c'est juste une pression, pression Allô, les puristes de merde le Black M ne veut pas de vos impressions Ouais, j'ai le seum, je mélange tout, même l'ingé' son peut s'en manger une La verité sort de la bouche des alcoliques, ne venez pas me voir quand j'ai bu Qui est dans le tur-fu' ? Oui, dis moi, qui est dans le tur-fu' ? Les MCs te diront plus tard qu'à cause de moi leur passé fut dur Moi, mon rap, c'est pas la ue-r', mais la ue-r', elle aime mon rap J'ai l'antidote contre l'Alzheimer, oui, ma musique, elle est mémorable Dans ma tête, j'suis pas solo, dites à tout le monde qu'il m'unfollow Ou juste à Beyonce qu'elle me follow, j'sais que vous en redemanderez encore Wesh, le game, c'est comment ? On s'ennuie ça fait un moment Tout le monde prétend avoir du talent, voilà pourquoi Big Black, il est paro Tout le monde dit Black Black Tout le monde dit Black Black Tout le monde dit Black Les yeux plus gros que la Play 4</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Gauche Droite</t>
+          <t>Aller de l’avant</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Wati B Prod, Shin Sekai Warano style, l'Amiral D.R L'ennemi public aka le numero un Black Mesrimes Les choses se passent dans l'calme J'ai l'keutru, j'ai l'débit, j'ai l'flow, j'vais les taper sans commettre aucune faute T'es le vrai 'warano ou t'es l'faux ? J'ai cru voir ta tête aux infos ça va ! Franchement c'est par rapport à mes parents que mes couplets se différencient des javons de l'Île-de-France Et quand tu cavalais comme un caniche devant des keumés, des calibres, tu faisais moins lintéressant J'envoie des ck-tru droit dans les chicos, c'est signé Meuguiwarano, tout est fini, j'enflamme le vinyle Petite merde, dis-moi salâm 'aleïkoum si tu vois mon cavu sé-po.. Lamborghini J'suis dans le terrain de tout l'monde Zazie, Johnny puis Balavoine, le disque d'or, tu ne pourras p't-être pas l'avoir D'autant plus que tu t'es jamais cassé la voix, une spéciale pour mes gens, mes gavas navas J'suis un grand garçon, ne me tenez même pas la main, très peu, très peu de bonhommes à Paname Qui tiendraient plus de cinq ou six minutes à la barre, va là-bas, disparais comme Jessica Alba Ça gratte avec l'esprit d'tuer, demande à 2being, ce que je veux, c'est t'taser là où tu te baignes Beaucoup trop de faux vécus dans le rap game, qui t'la certifié que mon casier vierge est plus gang ? Gilge-né comme un baveux commis d'office, pourtant, j'ai la te-tê', j'ai le charisme et la notice J'suis arrivé jusqu'ici, mon parcours un sans faute, fils de... J'arrêterai le son quand j'aurai plus de blé que Will Smith Et tous les hustlers te diront C'est la hass, là donc ça ré-ti comme l'Hezbollah sans craindre de prendre du hebs tu piges ? À tous ces soi-disant gars sûrs absents après chaque accident présents que quand y'a le bif' qui rentre, zombie un peu comme dans Resident Evil T'as une grande gueule, gonflée comme une montgolfière mais, quand il y a plus tes potes, tu fais le moins fier, hein ? Belek à la ue-r et tout le monde veut s'entuber, soûlé de la vie, ça peut soulever pour une .. J'fixe les gles-rè', ça va saigner, un mot de travers faut assumer, toujours fidèle à moi même, akhi, j'dois rien à sonne-per' Et celui qui dit des dingueries peut pas cer-per' ses dingaries, il y a qu'une chose à dire, en vrai, c'est qu'il aille niquer son père Ici, c'est soit tu gagnes, soit tu perds, do you understand ? T'as l'air du-per' J'fais d'une pierre dix coups, tu peux m'a.k.a Les ricochets qui cognent et cognent en traversant la rivière Ma vie n'a pas beaucoup changé depuis Je reviendrai J'ajouterai qu'à vrai dire, j'aimerais avancer en paix car le succès m'effraie Mais j'ai besoin de donuts, j'aimerais faire peau neuve car j'ai laissé quelques plumes à la quête du bonheur Je n'ai jamais écouté mes profs cistes-ra' qui pensaient très fort que je ne finirai qu'en chômeur Et puis je sais que face à Brad Pitt, j'ai sûrement l'air abominable Michto, ton choix serait vite fait entre une ceinture LV et une ceinture abdominale Fuck la droite, fuck la gauche, fuck les, fuck les, fuck l'État Je n'aime pas me soumettre, mis à part devant Dieu, fuck les, fuck les, fuck les chtars Et j'rends les miens heureux pendant qu'tes rappeurs de merde rendent l'âme Je ne veux pas être un légume accro à la blanche comme Jean-Claude Van Damme Rien à foutre de vos clashs, rien à, rien à, rien à foutre de vos swags de merde Merci d'tes conseils, mais j'n'en ai rien à faire, et, tout compte fait, je t'emmerde Bloquer, je sais qu'tu veux m'bloquer Que je disparaisse du circuit car moi je ne suis pas cette pute à peloter Nan, gros c'est l'Amiral dit l'Animal, ouais fais croquer Moi je manie mic', coups d'tête et crochets, ma vie, mon équipe, mon éthique m'aident à bosser Grossiers sont les persos mais fuck moi j'attends que la Terre saute Vu que l'humanité a délaissé son berceau et que la lucidité chez nous on la perd tôt Beriz, je sais qu'tu veux nous baiser et qu'on périsse Je sais qu'tu veux nous briser mais t'embellis et ça sent la douille, dans les rues ça sent l'pénis Pour le khalis on dévalise vu qu'à nos parents ils ont bloqué les valises Eux qui subissent des contrôles même en Vélib', l'État brise leur rêves à rendre leur vie invalide Pas de manif car les calibres crient fort, asseoir ainsi le respect On partira pas les mains vides car comme ils disent on a la gueule du suspect Tout le monde dit Black Black ! Tout le monde dit Black Black ! J'ai dit Tout le monde dit Black Black ! Tout le monde voit Black Black ! Tout le monde voit Black Black ! Ok ok, tout le monde voit Black Ce n'est pas le premier single, non c'est juste une pression, pression Allô, les puristes de merde le Black M ne veut pas de vos impressions Ouais, j'ai le seum, je mélange tout, même l'ingé' son peut s'en manger une La verité sort de la bouche des alcoliques, ne venez pas me voir quand j'ai bu Qui est dans le tur-fu' ? Oui, dis moi, qui est dans le tur-fu' ? Les MCs te diront plus tard qu'à cause de moi leur passé fut dur Moi, mon rap, c'est pas la ue-r', mais la ue-r', elle aime mon rap J'ai l'antidote contre l'Alzheimer, oui, ma musique, elle est mémorable Dans ma tête, j'suis pas solo, dites à tout le monde qu'il m'unfollow Ou juste à Beyonce qu'elle me follow, j'sais que vous en redemanderez encore Wesh, le game, c'est comment ? On s'ennuie ça fait un moment Tout le monde prétend avoir du talent, voilà pourquoi Big Black, il est paro Tout le monde dit Black Black Tout le monde dit Black Black Tout le monde dit Black Les yeux plus gros que la Play 4</t>
+          <t>La lune descend un nouveau jour se lève La plus belle étoile dans le ciel s'élève Après chaque nuit de sommeil, envie de vivre mes rêves La vérité posée au bout de nos lèvres Tu dis que tu fais du lourd mais ton flow je le soulève N'oublions pas que le maître n'est qu'un ancien élève Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant Je crois que tu t'es trompé de jour, d'heure, de siècle et même de temps Car là où j'suis posé avec Biwai vous êtes la définition de ''perdre du temps'' Toucher le ciel, j'ai pas de time C'est peut-être la dernière fois où je kick en freestyle man Je dis bye bye ou reste encore et fais un truc de malade man C'est Les Chroniques Du Wati Boss on vous clashe man, on vous baffe man C'est Biwai et Beriz, Orlins et Paris Je n'ai pas le temps de t'expliquer, je sais que je te l'ai mise Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Différent</t>
+          <t>Marche avec les boss</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>J'arrive et j'les bouscule sans dire Pardon, messieurs De la classe dans les gestes, de la rage dans les yeux Vers chez nous ça kicke dur ouais, comme tu le vois Sinon, moi c'est Petrodollz Welcome to the Wa J'fais du cinéma parce que j'vois la vie sur grand écran J'ai jamais été p'tit, j'étais un futur grand Ils censurent les miens parce que chez nous ça ré-ti Du sang sur les mains, le dollar dans la rétine Trop d'types vendraient père et mère dans le périmètre Sens l'biff à des kilomètres, faut des kilos mec Tu m'testes ? Je t'encule au mic, j'suis un phénomène On s'doit, dans ce monde d'animal, d'être opé' les mecs Ouais ouais, on s'croise en ville et puis on s'parle Et puis c'est vrai que nos soirées commencent tard On paye un verre et puis on s'barre Je veux mener la vie de boss, non pas la vie de star Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Ça ne baratine pas Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Fais pas ta star alors qu't'es moche Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses IDR c'est comment ? Ça ne baratine pas PDG, on s'attrape ? Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses Hissam c'est comment ? Ça ne baratine pas Dawala, on s'attrape ? Marche avec les boss ou crève en hass Je fais parti de ceux qu'on présente pas Wati B frappe, tu ne peux que tendre la joue Numéro uno la gloire nous est due avec mes semblables C'est Dawa qui m'a parrainé Casse-toi, tu ne m'as pas aidé J'veux pas donner mon âme A mes démons m'affligent et me partagent Volontairement désinvolte Car aujourd'hui peu m'importe Quand je marche avec les boss Écartez les mômes, préparez les hommes, on est de sortie tonight, yeahi Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Ça ne baratine pas Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Fais pas ta star alors qu't'es moche Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses IDR c'est comment ? Ça ne baratine pas PDG, on s'attrape ? Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses c'est comment ? Ça ne baratine pas Dawala, on s'attrape ? Oyé sapapaya Ça vous dirait un ice cream avec mon ami et moi ? En plus mon ami et moi... j'ai dit mon ami et moi ? Plutôt mon frère, on partage tout comme des siamois Tu te fies à moi, j'suis pas dans fia-ma Mais je côtoie les italiennes un peu comme Diana Laisse ton gars l'plombier, viens voir mon clan, tu Nique sa mère le plan B, on passe direct au plan cul Quand je joue au foot, j'mets des buts à la Tevez Fais comme les américaines applaudis avec les fesses J'te présenterai mes potes, j'te ferai kiffer l'époque Je regarderai la télé quand tu m'feras des plats de pâtes J'te ferai kiffer l'époque, j'te présenterai mes potes J'te ferai crier de joie quand j'te prendrai à 4 pattes Ouais... on paye un verre et puis on s'barre Je veux mener la vie de boss, non pas la vie de star Quand Tony n'a plus sa coke, c'est sûrement ce son qui l'maudit Escobar qui tape la pose, Al Capone qui gère la musique Je peux faire de Alcatraz une boîte de nuit Qu'est-ce qu'on fait d'un camion de police ? Une boîte de 6 Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Ça ne baratine pas Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Fais pas ta star alors qu't'es moche Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses IDR c'est comment ? Ça ne baratine pas PDG, on s'attrape ? Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses Hissam c'est comment ? Ça ne baratine pas Dawala, on s'attrape ? Paroles rédigées et annotées par la communauté Rap Genius France</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Aller de l’avant</t>
+          <t>Mes amis</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>La lune descend un nouveau jour se lève La plus belle étoile dans le ciel s'élève Après chaque nuit de sommeil, envie de vivre mes rêves La vérité posée au bout de nos lèvres Tu dis que tu fais du lourd mais ton flow je le soulève N'oublions pas que le maître n'est qu'un ancien élève Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant Je crois que tu t'es trompé de jour, d'heure, de siècle et même de temps Car là où j'suis posé avec Biwai vous êtes la définition de ''perdre du temps'' Toucher le ciel, j'ai pas de time C'est peut-être la dernière fois où je kick en freestyle man Je dis bye bye ou reste encore et fais un truc de malade man C'est Les Chroniques Du Wati Boss on vous clashe man, on vous baffe man C'est Biwai et Beriz, Orlins et Paris Je n'ai pas le temps de t'expliquer, je sais que je te l'ai mise Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Chaque seconde, je prends de l'âge Je n'ai qu'une envie, c'est de prendre le large Partir loin des galères et des bandes de lâches Quand t'as rien dans les poches tes faux potes te lâchent Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant Et j'ai pris cette habitude d'aller toujours de l'avant Vivre au jour le jour, d'aller là où va le vent De ne plus regarder derrière, regarder devant De ne plus me mettre de barrières tant que j'suis vivant</t>
+          <t>Mes amis, j'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'pourrais te raconter ma life de façon triste et sans l'dire J'ai mal au cur, amis J'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'passe mon time à méditer j'essaie d'anticiper le pire J'ai mal au cur, amis J'ai beaucoup d'amis et presque autant de déceptions L'amitié parfaite ne restera qu'une inception J'accepte tes defauts, fais-en autant pour moi Car même dans le tort j'étais avec toi j't'ai jamais pointé du doigt Et je ne t'ai jamais causé de tort et si j'l'ai fait pardonne moi Ne crois pas que je te néglige si j'réponds une fois sur trois Et si demain tout s'arrête je n'irai pas tout recommencer Parce qu'une amitié qui s'arrête n'avait jamais commencé Avant d'être sincère avec moi sois-le avec toi même Ne m'encule pas sous pretexte que l'erreur est humaine Mon ami c'est moi et je suis mon ami J'avance avec le peu de frères que j'ai j'm'en beurre de ton avis Mes amis, j'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'pourrais te raconter ma life de façon triste et sans l'dire J'ai mal au cur, amis J'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'passe mon time à méditer j'essaie d'anticiper le pire J'ai mal au cur, amis Le cur à labri des coups de lame j'écris la plume dans l'estomac Mis de côté mes sentiments mais pour en faire une carapace Des fois les mots ça suffit pas, ça fait grandir ou ça fait mal L'amour est mort mais d'un virus virulent qu'on appelle Sheitan Rien a changé, mais le bitûme c'est comme les potes on s'y attache On s'donne à fond pour la plupart avec du recul c'est pas rentable On se comporte comme des hypocrites, sans rancune pour un coudoir Quasi détruit de l'intérieur, imbibé de larmes est le grimoire Plus de compassion, plus d'émotion, j'pars en guerre sans mitraillette J'ai mal au coeur, j'vis ma life à travers musique et concerts Les amis j'ai compté sur la plupart j'en ai souffert Aujourd'hui j'fais ma route j'reste à l'écart sans m'en soucier Mes amis, j'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'pourrais te raconter ma life de façon triste et sans l'dire J'ai mal au cur, amis J'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'passe mon time à méditer j'essaie d'anticiper le pire J'ai mal au cur, amis Entre l'amour et l'amitié l'incertitude fera son poids T'auras beau connaître tout un tas de meufs mais une fois dans les bois Si tu dois cher-ca un corps, dis-moi quel serait trop choix Une boule en plein milieu du thorax qui flirte avec le foie L'amitié c'est juste un masque qui che-ca une tête de mort Certains limite schizophrènes au niveau du comportement Pour tous nos soldats de l'ombre qu'on a pu juger par leurs actes Les vrais de vrais, coupe moi cinq doigts t'auras le chiffre exact J'tiens pas à faire de nouvelles connaissances traite moi d'incandescent Me connaissant, chaque déception me rend méconnaissable Moi je t'aime pour ce que tu es, toi t'aimes ce que tu veux que je sois J'en veux pas, juste mes gavas avec qui je peux être moi Tu n'auras plus jamais d'amis comme moi On pourrait se dire, je le sais, t'as changé comme moi Mes amis, j'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'pourrais te raconter ma life de façon triste et sans l'dire J'ai mal au cur, amis J'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'passe mon time à méditer j'essaie d'anticiper le pire J'ai mal au cur, amis3</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Marche avec les boss</t>
+          <t>Mon mal-être</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>J'arrive et j'les bouscule sans dire Pardon, messieurs De la classe dans les gestes, de la rage dans les yeux Vers chez nous ça kicke dur ouais, comme tu le vois Sinon, moi c'est Petrodollz Welcome to the Wa J'fais du cinéma parce que j'vois la vie sur grand écran J'ai jamais été p'tit, j'étais un futur grand Ils censurent les miens parce que chez nous ça ré-ti Du sang sur les mains, le dollar dans la rétine Trop d'types vendraient père et mère dans le périmètre Sens l'biff à des kilomètres, faut des kilos mec Tu m'testes ? Je t'encule au mic, j'suis un phénomène On s'doit, dans ce monde d'animal, d'être opé' les mecs Ouais ouais, on s'croise en ville et puis on s'parle Et puis c'est vrai que nos soirées commencent tard On paye un verre et puis on s'barre Je veux mener la vie de boss, non pas la vie de star Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Ça ne baratine pas Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Fais pas ta star alors qu't'es moche Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses IDR c'est comment ? Ça ne baratine pas PDG, on s'attrape ? Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses Hissam c'est comment ? Ça ne baratine pas Dawala, on s'attrape ? Marche avec les boss ou crève en hass Je fais parti de ceux qu'on présente pas Wati B frappe, tu ne peux que tendre la joue Numéro uno la gloire nous est due avec mes semblables C'est Dawa qui m'a parrainé Casse-toi, tu ne m'as pas aidé J'veux pas donner mon âme A mes démons m'affligent et me partagent Volontairement désinvolte Car aujourd'hui peu m'importe Quand je marche avec les boss Écartez les mômes, préparez les hommes, on est de sortie tonight, yeahi Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Ça ne baratine pas Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Fais pas ta star alors qu't'es moche Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses IDR c'est comment ? Ça ne baratine pas PDG, on s'attrape ? Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses c'est comment ? Ça ne baratine pas Dawala, on s'attrape ? Oyé sapapaya Ça vous dirait un ice cream avec mon ami et moi ? En plus mon ami et moi... j'ai dit mon ami et moi ? Plutôt mon frère, on partage tout comme des siamois Tu te fies à moi, j'suis pas dans fia-ma Mais je côtoie les italiennes un peu comme Diana Laisse ton gars l'plombier, viens voir mon clan, tu Nique sa mère le plan B, on passe direct au plan cul Quand je joue au foot, j'mets des buts à la Tevez Fais comme les américaines applaudis avec les fesses J'te présenterai mes potes, j'te ferai kiffer l'époque Je regarderai la télé quand tu m'feras des plats de pâtes J'te ferai kiffer l'époque, j'te présenterai mes potes J'te ferai crier de joie quand j'te prendrai à 4 pattes Ouais... on paye un verre et puis on s'barre Je veux mener la vie de boss, non pas la vie de star Quand Tony n'a plus sa coke, c'est sûrement ce son qui l'maudit Escobar qui tape la pose, Al Capone qui gère la musique Je peux faire de Alcatraz une boîte de nuit Qu'est-ce qu'on fait d'un camion de police ? Une boîte de 6 Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Ça ne baratine pas Marche avec les boss Fais-toi les manches avec les boss Vise le sommet avec les boss Fais pas ta star alors qu't'es moche Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses IDR c'est comment ? Ça ne baratine pas PDG, on s'attrape ? Marche avec les boss, marche avec les boss Pèse bien tes mots ou tu repars avec des bosses Hissam c'est comment ? Ça ne baratine pas Dawala, on s'attrape ? Paroles rédigées et annotées par la communauté Rap Genius France</t>
+          <t>Ma musique ne dépend pas du temps Mais l'accompagne à chaque instant Espace Temps En attendant Intemporel Connais-tu mon mal ? Connais-tu mon mal, mon mal-être ? Bastien Maska Souleyman veut toujours pas finir sous les flammes À moitié fou sans tous mes gars, mes cauchemars m'étouffent sous mes draps Il pleut mais j'ai le corps sec, tête d'ange, pensées obscènes J'observe à quoi les autres servent, ils sont trompeurs comme un corset J'avance quoi qu'ils disent, à l'époque des paquets de dix de clopes Y'avait pas tous ce biz' de coke, y'avait pas tout ces vices à l'école J'aimerais bien amputer l'Europe, l'Italie représente son pied J'parle de l'Etat, pas des habitants, fonce-dé sans tiser le rhum Pour viser le top, faudrait vider le coffre De ses propres potes c'est pas mon style, j'reste propre Les mecs sans tête qui s'entêtent, au final, comprennent et se sentent bêtes Princesse qui avance en boîte, deux gosses, trentenaire et sans mec Les amis, c'est comme des frères, on les aime avec leurs défauts Facile à dire, dur à faire, sur ma moral se sert l'étau Laisse-moi te dire File pas, frère, affronte la vie, lève-toi assez tôt Faut investir, petite affaire Chiken Chika, Chicha restau' Souvent, je m'isole sur mes notes, dans ma sphère, ça résonne, oh oui Le public est croque, moi, j'suis mort si j'ber-tom' sur la scène ou dans le vide C'est plus mon ego qui cause, le gent-ar' en cause, man Le bout de mes lèvres n'ose pas aller vers le haut, man Maintenant, tu connais mon mal-être J'ai besoin d'air pour rapper, à croire que rapper m'asphyxie J'repeignais le monde en rose, j'étais artiste à six piges Mais j'me suis rendu compte qu'la lumière était dans l'ombre Du trône des chefs d'Etat qui avaient trop souvent les dents longues Méfie-toi des apparences, certaines prostituées sentent bon J'ai l'rap assassin, ma prose te tuerait sans nom Laissées sur la scène de crime par mes empreintes digitales Mes mots ont des conséquences, comme une femme enceinte qui vit mal J'me vois trop en grand, heureusement, mon mini-moi M'dit Papa, assis-toi, raconte-moi une histoire Trop têtu, j'suis trop déter', ferme-la si tu me parles mal Tu recracheras un mensonge si, bêtement, tu l'avales J'suis un sentimental et ça m'fait peur Car, si tu m'casses le coeur, j'pourrais t'arracher l'tien J'arrive à trouver d'la beauté dans ma laideur Attiré par la luxure, heureusement, le passé m'tient Souvent, je m'isole sur mes notes, dans ma sphère, ça résonne, oh oui Le public est croque, moi, j'suis mort si j'ber-tom' sur la scène ou dans le vide C'est plus mon ego qui cause, le gent-ar' en cause, man Le bout de mes lèvres n'ose pas aller vers le haut, man Maintenant, tu connais mon mal-être Le mental d'acier de l'Etat s'affronte avec des gants de métal J'ai appris à kicker sale en partant rapper dans les caves J'revendais en détail mes petites barrettes pour louer le stud' J'cramais mon joint, j'me demandais qui de lui ou moi souffrait le plus On partait en descente pour remonter dans notre estime Je souhaite que tout s'arrête pour retrouver ma modestie Je désire ce que l'on esquive, être ivre n'est pas une excuse J'suis perdu, comme un manchot qui joue à la roulette russe Parfois, j'ai tellement honte de moi que mon miroir n'a plus d'reflet J'tourne en rond, j'égare les gens comme une boussole qu'a plus d'repère On a agit chacun pour soi bien qu'on soit rien sans les autres Oui, le succès m'a séduit bien que son sourire semblait faux Sur ma route, y'a des jaloux où que j'aille Pour éviter d'les voir, faudrait que j'me crève les yeux Les michtos ont un petit goût d'gousse d'ail Derrière le parfum Chanel que leur achètent les vieux Souvent, je m'isole sur mes notes, dans ma sphère, ça résonne, oh oui Le public est croque, moi, j'suis mort si j'ber-tom' sur la scène ou dans le vide C'est plus mon ego qui cause, le gent-ar' en cause, man Le bout de mes lèvres n'ose pas aller vers le haut, man Maintenant, tu connais mon mal-être Compter sur les gens, c'est jouer d'ses sentiments J'aime pas trop les gens qui font trop d'compliments, non T'ouvres ton coeur en chantant, y'a de l'ego qui entre Oui, mon âme est morte à force d'être bon vivant, non Compter sur les gens, c'est jouer d'ses sentiments J'aime pas trop les gens qui font trop d'compliments, non T'ouvres ton coeur en chantant, y'a de l'ego qui entre Oui, mon âme est morte à force d'être bon vivant, non5</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nuits blanches</t>
+          <t>A la recherche du bonheur</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>J'ai souffert dans l'effort Grandi dans Paris Nord Si l'amour était borgne Tu m'aimerais pour mes torts Mes passions, mon mal être, une énième cigarette Mes faiblesses, ma force Et souvent j'raisonne Au final j'ai mes torts Et je cherchais le bonheur Sans jamais sentir son odeur Et j'ai compris au fil du temps Qu'il est dans les choses simples Je n'attends pas de sauveur Non, je n'attendrai rien des autres A chacun ses défauts Je suis à la recherche du bonheur Sans jamais délaisser mon honneur Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Je suis à la recherche du bonheur Où est le bonheur ? Sans jamais délaisser mon honneur J'garderai mon honneur Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Pour enfin aller plus haut Mes peurs, ma foi Mes vices, mes larmes Mes erreurs, mes Mes choix, ma vie On dit souvent Relativise Mais à ma place Toi dis moi que ferais tu P'têtre que tabandonnerais Et que tu baisserais la tête Oh, dis moi Où se cache lallégresse Où se cache le bonheur Loin des yeux près du cur Ohouhoh Je suis à la recherche du bonheur Sans jamais délaisser mon honneur Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Je suis à la recherche du bonheur Où est le bonheur ? Sans jamais délaisser mon honneur J'garderai mon honneur Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Pour enfin aller plus haut Le temps ne guérit pas les blessures Mais j'apprends à vivre avec Je suis un être humain, je suis faible Mais j'suis pas prête à tout pour plaire Et si la chance est de mon côté Je n'aurai rien à perdre et tout à gagner A la recherche du bonheur c'est vrai Et j'aimerai tant y accéder Je suis à la recherche du bonheur Sans jamais délaisser mon honneur J'aimerais que la vie me fasse une fleur Effacer toutes mes rancurs Je suis à la recherche du bonheur Je suis à la recherche du bonheur Où es tu ? Je suis à la recherche du bonheur Sans jamais délaisser mon honneur Jamais Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Je suis à la recherche du bonheur Où est le bonheur ? Sans jamais délaisser mon honneur J'garderai mon honneur Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Pour enfin aller plus haut1</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mes amis</t>
+          <t>1974 (Intro)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mes amis, j'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'pourrais te raconter ma life de façon triste et sans l'dire J'ai mal au cur, amis J'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'passe mon time à méditer j'essaie d'anticiper le pire J'ai mal au cur, amis J'ai beaucoup d'amis et presque autant de déceptions L'amitié parfaite ne restera qu'une inception J'accepte tes defauts, fais-en autant pour moi Car même dans le tort j'étais avec toi j't'ai jamais pointé du doigt Et je ne t'ai jamais causé de tort et si j'l'ai fait pardonne moi Ne crois pas que je te néglige si j'réponds une fois sur trois Et si demain tout s'arrête je n'irai pas tout recommencer Parce qu'une amitié qui s'arrête n'avait jamais commencé Avant d'être sincère avec moi sois-le avec toi même Ne m'encule pas sous pretexte que l'erreur est humaine Mon ami c'est moi et je suis mon ami J'avance avec le peu de frères que j'ai j'm'en beurre de ton avis Mes amis, j'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'pourrais te raconter ma life de façon triste et sans l'dire J'ai mal au cur, amis J'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'passe mon time à méditer j'essaie d'anticiper le pire J'ai mal au cur, amis Le cur à labri des coups de lame j'écris la plume dans l'estomac Mis de côté mes sentiments mais pour en faire une carapace Des fois les mots ça suffit pas, ça fait grandir ou ça fait mal L'amour est mort mais d'un virus virulent qu'on appelle Sheitan Rien a changé, mais le bitûme c'est comme les potes on s'y attache On s'donne à fond pour la plupart avec du recul c'est pas rentable On se comporte comme des hypocrites, sans rancune pour un coudoir Quasi détruit de l'intérieur, imbibé de larmes est le grimoire Plus de compassion, plus d'émotion, j'pars en guerre sans mitraillette J'ai mal au coeur, j'vis ma life à travers musique et concerts Les amis j'ai compté sur la plupart j'en ai souffert Aujourd'hui j'fais ma route j'reste à l'écart sans m'en soucier Mes amis, j'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'pourrais te raconter ma life de façon triste et sans l'dire J'ai mal au cur, amis J'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'passe mon time à méditer j'essaie d'anticiper le pire J'ai mal au cur, amis Entre l'amour et l'amitié l'incertitude fera son poids T'auras beau connaître tout un tas de meufs mais une fois dans les bois Si tu dois cher-ca un corps, dis-moi quel serait trop choix Une boule en plein milieu du thorax qui flirte avec le foie L'amitié c'est juste un masque qui che-ca une tête de mort Certains limite schizophrènes au niveau du comportement Pour tous nos soldats de l'ombre qu'on a pu juger par leurs actes Les vrais de vrais, coupe moi cinq doigts t'auras le chiffre exact J'tiens pas à faire de nouvelles connaissances traite moi d'incandescent Me connaissant, chaque déception me rend méconnaissable Moi je t'aime pour ce que tu es, toi t'aimes ce que tu veux que je sois J'en veux pas, juste mes gavas avec qui je peux être moi Tu n'auras plus jamais d'amis comme moi On pourrait se dire, je le sais, t'as changé comme moi Mes amis, j'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'pourrais te raconter ma life de façon triste et sans l'dire J'ai mal au cur, amis J'ai compté sur la plupart du coup j'ai sauté dans le vide Partager mon cur mais j'ai des tonnes d'ennemis J'passe mon time à méditer j'essaie d'anticiper le pire J'ai mal au cur, amis3</t>
+          <t>Oh, mon Dieu, ne me dites pas que c'est c'que j'crois. Il faut qu'j'en parle aux supérieurs. Bonjour Colonel K. Je viens de capter un signal provenant de la galaxie noire, situé à 23 années-lumières de la Grande Dame. Je suis vraiment désolé monsieur, je suis obligée de vous faire parvenir le signal - Signal parvenu - Oh mon Dieu, Monsieur, ne me dites pas que c'est c'que j'pense - Dites-moi agent 00913, avez-vous déjà passée une journée en Enfer ? Bienvenue dans le sanctuaire du Docteur Bériz Les enfants, restez à vos places Les femmes et les hommes seront divisés en deux parties Et juste après votre retour, ce message vous parviendra en 1974 Aujourd'hui nous sommes en 2016 Apprenez à vous délecter de notre musique Il s'appelle Wati B Wost... L'Empire Ça fait 25 ans que j'vous observe Il n'y a pas d'solution pour votre espèce Corrompu à cause des espèces, il y a bien une solution qui vient de l'espace T'es dans un sale état, j'essaie de t'sauver Viens vers moi, de l'effet du temps tu seras immunisé 1, 2, 3, j'fais une dinguerie, barrez-vous Si t'es pas d'taille, eh barrez-vous J'ai dû coffrer toute ma science, le saviez-vous ? Tu n'seras jamais despi, tu fais le vif, tu m'vois, tu m'attrapes, je nie Je ne péra jamais dans le vide, je vois des fans, je m'vesqui, m'préserve pour l'inspi Je n'ai pas chaud, vas-y viens, on va au casse-pipe, c'est la merde, vas-y viens, tu fuis T'as des excuses, tu m'vois, c'est vif, tu m'as tourné l'dos si deuspi Bon bref, j'ai plié la prod c'est complet, mon phone qui sonn et j'm'en vais J'me souviens d'mes potes qui me samplaient, hmmm je m'disais jamais Calculez c'que j'ai fait, j'ai dit Bériz t'es mauvais Hmm hmmmm t'es mauvais</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mon mal-être</t>
+          <t>À Force</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ma musique ne dépend pas du temps Mais l'accompagne à chaque instant Espace Temps En attendant Intemporel Connais-tu mon mal ? Connais-tu mon mal, mon mal-être ? Bastien Maska Souleyman veut toujours pas finir sous les flammes À moitié fou sans tous mes gars, mes cauchemars m'étouffent sous mes draps Il pleut mais j'ai le corps sec, tête d'ange, pensées obscènes J'observe à quoi les autres servent, ils sont trompeurs comme un corset J'avance quoi qu'ils disent, à l'époque des paquets de dix de clopes Y'avait pas tous ce biz' de coke, y'avait pas tout ces vices à l'école J'aimerais bien amputer l'Europe, l'Italie représente son pied J'parle de l'Etat, pas des habitants, fonce-dé sans tiser le rhum Pour viser le top, faudrait vider le coffre De ses propres potes c'est pas mon style, j'reste propre Les mecs sans tête qui s'entêtent, au final, comprennent et se sentent bêtes Princesse qui avance en boîte, deux gosses, trentenaire et sans mec Les amis, c'est comme des frères, on les aime avec leurs défauts Facile à dire, dur à faire, sur ma moral se sert l'étau Laisse-moi te dire File pas, frère, affronte la vie, lève-toi assez tôt Faut investir, petite affaire Chiken Chika, Chicha restau' Souvent, je m'isole sur mes notes, dans ma sphère, ça résonne, oh oui Le public est croque, moi, j'suis mort si j'ber-tom' sur la scène ou dans le vide C'est plus mon ego qui cause, le gent-ar' en cause, man Le bout de mes lèvres n'ose pas aller vers le haut, man Maintenant, tu connais mon mal-être J'ai besoin d'air pour rapper, à croire que rapper m'asphyxie J'repeignais le monde en rose, j'étais artiste à six piges Mais j'me suis rendu compte qu'la lumière était dans l'ombre Du trône des chefs d'Etat qui avaient trop souvent les dents longues Méfie-toi des apparences, certaines prostituées sentent bon J'ai l'rap assassin, ma prose te tuerait sans nom Laissées sur la scène de crime par mes empreintes digitales Mes mots ont des conséquences, comme une femme enceinte qui vit mal J'me vois trop en grand, heureusement, mon mini-moi M'dit Papa, assis-toi, raconte-moi une histoire Trop têtu, j'suis trop déter', ferme-la si tu me parles mal Tu recracheras un mensonge si, bêtement, tu l'avales J'suis un sentimental et ça m'fait peur Car, si tu m'casses le coeur, j'pourrais t'arracher l'tien J'arrive à trouver d'la beauté dans ma laideur Attiré par la luxure, heureusement, le passé m'tient Souvent, je m'isole sur mes notes, dans ma sphère, ça résonne, oh oui Le public est croque, moi, j'suis mort si j'ber-tom' sur la scène ou dans le vide C'est plus mon ego qui cause, le gent-ar' en cause, man Le bout de mes lèvres n'ose pas aller vers le haut, man Maintenant, tu connais mon mal-être Le mental d'acier de l'Etat s'affronte avec des gants de métal J'ai appris à kicker sale en partant rapper dans les caves J'revendais en détail mes petites barrettes pour louer le stud' J'cramais mon joint, j'me demandais qui de lui ou moi souffrait le plus On partait en descente pour remonter dans notre estime Je souhaite que tout s'arrête pour retrouver ma modestie Je désire ce que l'on esquive, être ivre n'est pas une excuse J'suis perdu, comme un manchot qui joue à la roulette russe Parfois, j'ai tellement honte de moi que mon miroir n'a plus d'reflet J'tourne en rond, j'égare les gens comme une boussole qu'a plus d'repère On a agit chacun pour soi bien qu'on soit rien sans les autres Oui, le succès m'a séduit bien que son sourire semblait faux Sur ma route, y'a des jaloux où que j'aille Pour éviter d'les voir, faudrait que j'me crève les yeux Les michtos ont un petit goût d'gousse d'ail Derrière le parfum Chanel que leur achètent les vieux Souvent, je m'isole sur mes notes, dans ma sphère, ça résonne, oh oui Le public est croque, moi, j'suis mort si j'ber-tom' sur la scène ou dans le vide C'est plus mon ego qui cause, le gent-ar' en cause, man Le bout de mes lèvres n'ose pas aller vers le haut, man Maintenant, tu connais mon mal-être Compter sur les gens, c'est jouer d'ses sentiments J'aime pas trop les gens qui font trop d'compliments, non T'ouvres ton coeur en chantant, y'a de l'ego qui entre Oui, mon âme est morte à force d'être bon vivant, non Compter sur les gens, c'est jouer d'ses sentiments J'aime pas trop les gens qui font trop d'compliments, non T'ouvres ton coeur en chantant, y'a de l'ego qui entre Oui, mon âme est morte à force d'être bon vivant, non5</t>
+          <t>À force de dire qu'on a rien, on a tendance à s'retrouver dans la pente Mais on s'accroche car l'époque devient rude, on est tombé bien bas La réussite me parait loin d'ici et pour l'atteindre, j'ai déjà des crampes Mais qui vivra, verra, mon épopée Mais pour l'instant tout roule, oh, personne n'est blessé J'ai fais danser les foules sans jamais agresser Marre de t'voir endetter, il est temps que j'te soulage m'man J'vais devoir m'endetter Ouuuh Je suis le calme qui annonce la tempête, je n'suis pas seul sur ce chemin esquinté J'ai les deux pieds cloués au sol, mais je toucherai le sommet J'n'ai pas qu'la 'sique comme raison d'vivre, j'ai d'autres cibles Sans rancune, même si je m'épuise Et quand le public chante Nananana Je retrouve la force d'avancer, et j'me dis fonce À force de dire qu'on a rien, on a tendance à s'retrouver dans la pente Mais on s'accroche car l'époque devient rude, on est tombé bien bas La réussite me parait loin d'ici et pour l'atteindre, j'ai déjà des crampes Mais qui vivra, verra, mon épopée Mais pour l'instant tout roule, oh, personne n'est blessé J'ai fais danser les foules sans jamais agresser Marre de t'voir endetter, il est temps que j'te soulage m'man J'vais devoir m'endetter Ouuuh Et plus personne ne pourra me rabaisser, la peine, je rejette son odeur Le désarroi, j'veux plus le toucher, je n'veux plus le voir ni même m'en soucier J'veux qu'tous mes sos' soient comblés, n'plus sombrer Que ma famille reste en paix Et quand le public chante Nananana Je retrouve la force d'avancer, et j'me dis fonce À force de dire qu'on a rien, on a tendance à s'retrouver dans la pente Mais on s'accroche car l'époque devient rude, on est tombé bien bas La réussite me parait loin d'ici et pour l'atteindre, j'ai déjà des crampes Mais qui vivra, verra, mon épopée Mais pour l'instant tout roule, oh, personne n'est blessé J'ai fais danser les foules sans jamais agresser Marre de t'voir endetter, il est temps que j'te soulage m'man J'vais devoir m'endetter Ouuuh Le temps est passé, je sais qu'il est temps de démarrer C'est pas l'premier essai, ni le dernier, mais je suis paré À force d'entendre vos paroles Maintenant j'encaisse tous les coups, j'suis devenu un homme Mais pour l'instant tout roule, oh, personne n'est blessé J'ai fais danser les foules sans jamais agresser Marre de t'voir endetter, Il est temps que j'te soulage m'man J'vais devoir m'endetter Ouuuh</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pas de deuxième chance</t>
+          <t>Appelle-Moi</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>Appelle-moi, jirai te retrouver Peu importe où tu es, en France ou aux USA Appelle-moi, je nsais même plus où je vais Je msens abandonné Appelle-moi, je suis défiguré Oh mon sourire tas volé pour fuir aux USA Appelle-moi, appelle-moi Appelle-moi, appelle-moi, appelle-moi Mes yeux sont loin dson corps Mes pensées me dévorent Des fois je mendors Et je rêve dlavoir sous mes draps Pas de faux pas ni dfausse note Jcrois bien qucest la bonne Elle mignore, elle me laisse sur une île déserte Si ya dla place dans son cur jveux bien être le leader Elle a piqué mon âme sans les flèches de Cupidon Oh, en plein dans le mile, dans le mile Appelle-moi, jirai te retrouver Peu importe où tu es, en France ou aux USA Appelle-moi, je nsais même plus où je vais Je msens abandonné Appelle-moi, je suis défiguré Oh mon sourire tas volé pour fuir aux USA Appelle-moi, appelle-moi Appelle-moi, appelle-moi, appelle-moi Elle ma dépossédé de ma tristesse Elle ma sorti de ce quotidien Et dce monde qui mécure Maintenant je nai plus peur Je me sens si bien Arrête-moi ce numéro Je sais que tu nmas pas oublié Tu lsais eu jtai dans la peau, alors Appelle-moi, jirai te retrouver Peu importe où tu es, en France ou aux USA Appelle-moi, je nsais même plus où je vais Je msens abandonné Appelle-moi Ça y est, je vais devenir fou Ça y est, je vais devenir fou Ça y est, tu veux me rendre fou Fou, fou, fou Appelle-moi, jirai te retrouver Peu importe où tu es, en France ou aux USA Appelle-moi, je nsais même plus où je vais Je msens abandonné Appelle-moi, je suis défiguré Oh mon sourire tas volé pour fuir aux USA Appelle-moi, appelle-moi Appelle-moi, appelle-moi, appelle-moi Ça y est, je vais devenir fou Ça y est, je vais devenir fou Ça y est, tu veux me rendre fou Fou, fou, fou</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A la recherche du bonheur</t>
+          <t>Bac à sable</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>J'ai souffert dans l'effort Grandi dans Paris Nord Si l'amour était borgne Tu m'aimerais pour mes torts Mes passions, mon mal être, une énième cigarette Mes faiblesses, ma force Et souvent j'raisonne Au final j'ai mes torts Et je cherchais le bonheur Sans jamais sentir son odeur Et j'ai compris au fil du temps Qu'il est dans les choses simples Je n'attends pas de sauveur Non, je n'attendrai rien des autres A chacun ses défauts Je suis à la recherche du bonheur Sans jamais délaisser mon honneur Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Je suis à la recherche du bonheur Où est le bonheur ? Sans jamais délaisser mon honneur J'garderai mon honneur Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Pour enfin aller plus haut Mes peurs, ma foi Mes vices, mes larmes Mes erreurs, mes Mes choix, ma vie On dit souvent Relativise Mais à ma place Toi dis moi que ferais tu P'têtre que tabandonnerais Et que tu baisserais la tête Oh, dis moi Où se cache lallégresse Où se cache le bonheur Loin des yeux près du cur Ohouhoh Je suis à la recherche du bonheur Sans jamais délaisser mon honneur Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Je suis à la recherche du bonheur Où est le bonheur ? Sans jamais délaisser mon honneur J'garderai mon honneur Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Pour enfin aller plus haut Le temps ne guérit pas les blessures Mais j'apprends à vivre avec Je suis un être humain, je suis faible Mais j'suis pas prête à tout pour plaire Et si la chance est de mon côté Je n'aurai rien à perdre et tout à gagner A la recherche du bonheur c'est vrai Et j'aimerai tant y accéder Je suis à la recherche du bonheur Sans jamais délaisser mon honneur J'aimerais que la vie me fasse une fleur Effacer toutes mes rancurs Je suis à la recherche du bonheur Je suis à la recherche du bonheur Où es tu ? Je suis à la recherche du bonheur Sans jamais délaisser mon honneur Jamais Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Je suis à la recherche du bonheur Où est le bonheur ? Sans jamais délaisser mon honneur J'garderai mon honneur Ma foi en Dieu est mon seul moteur Pour enfin aller plus haut Pour enfin aller plus haut1</t>
+          <t>Tu disparais de vue sans que je puisse dire au revoir Tu disparais de vue sans que je puisse dire au revoir Le temps défile peu à peu Le temps défile peu à peu... Pourquoi il me questionne ? Pourquoi il veut savoir ce que je pense ? Pourquoi il me questionne ? Bon j'oublie, bon j'oublie J'ai pas l'age des soucis Non j'ai pas l'age des soucis Hey j'oublie, j'oublie J'ai baraudé la nuit y a plus une place à l'hôtel Ceux qui disent mon gars sûr, ont oublié mon phone-tel Y a personne pour m'assurer, j'étais limite par terre Papa souvent je me suis dit que j'aurais jamais dû partir Mais je me suis juré qu'en solo je pouvais m'en sortir Devenir un millionnaire avec ou sans supporters J'en pouvais plus de te voir boulette après des centimes Voir les mêmes s'enrichir pendant que tu suffoquais La vie est belle pour ceux qui peuvent la voir sous fond de teint Ceux qui la connaissent vraiment ne peuvent pas la sentir À jeun les gens nous saoulent, on préfère être sous vodka Je roule un cône bien roulé que pour me contenir Je fume un cône bien roulé que pour me contenir J'irai tout péter le jour où mes nerfs vont sortir de leurs containers J'ai dormi dans la rue, j'en ai encore des souvenirs Je la connais par cur, qui peut dire le contraire ? Alors on veut du concret T'as merdé, je t'ai mis de côté, tu m'en fais un procès Que Dieu nous protège, je veux moins de condés sur nos côtes Dire aux potos c'soir se barrant c'est moi qui régale la note Je t'ai dit qu'on veut du concret T'as merdé, je t'ai mis de côté, tu m'en fais un procès Que Dieu nous protège, je veux moins de condés sur nos côtes Dire aux potos c'soir se barrant c'est moi qui régale la note , 9 PC 18ème Oh, oh, oh, oh Hé, hé, hé, hé Tu disparais de vue sans que je puisse dire au revoir Tu disparais de vue sans que je puisse dire au revoir Le temps défile peu à peu Le temps défile peu à peu... À l'heure où j'te parle ça spécule Torches-toi la bouche avec du PQ Laisse-moi clarifier les choses avant qu'on te déforme Les médisants n'ont plus de visage, plus de formes Perdu mais son visage reste une boussole, Celui qu'a perdu toute sa puissance Mais le baraka n'a jamais dit que t'allais gagner dans la mouvance Cette salope a fermé les yeux, mon frère Elle s'est bouchée les oreilles, en vrai Elle a voulu m'oublier Elle a voulu m'oublier J'suis en béné' quand je vois ma famille au top J'ai dormi dans la rue, dans la cellule et dans la tiop Bâtons dans les roues en piétinant les ronds, on devient un sage Ou une créature encore plus différente à l'abattage Zoulou, t'étais souriant quand t'avais l'avantage Mais on t'a tous vu déchanter après c'est lamentable Kriss Kross, années 80, té-ma la référence Déterminé et solitaire, tu vois la différence Magique malgré la fin tragique Paris m'a éventré mais j'ai stoppé l'hémorragie Genre de classique, l'amour est né fragile J'arrivais pas à pioncer, j'ai compté les naufragés Je laisse couler la mer et je laisse couler la 'teille Je laisse la place à ce genre de mariachi, je rêve d'oublier la veille J'essaie de fuir la mort mais elle est là Rester loin des scélérats.... Tu disparais de vue sans que je puisse dire au revoir Tu disparais de vue sans que je puisse dire au revoir Le temps défile peu à peu Le temps défile peu à peu...</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0h00 pile</t>
+          <t>Bad boy</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>List of SCPs 001 to 099 SCP-001 - Awaiting De-classification Blocked SCP-002 - The Living Room SCP-003 - Biological Motherboard SCP-004 - The 12 Rusty Keys and the Door SCP-005 - Skeleton Key SCP-006 - Fountain of Youth SCP-007 - Abdominal Planet SCP-008 - Zombie Plague SCP-009 - Red Ice SCP-010 - Collars of Control SCP-011 - Sentient Civil War Memorial Statue SCP-012 - A Bad Composition SCP-013 - Blue Lady Cigarettes SCP-014 - The Concrete Man SCP-015 - Pipe Nightmare SCP-016 - Sentient Micro-Organism SCP-017 - Shadow Person SCP-018 - Super Ball SCP-019 - The Monster Pot SCP-020 - Unseen Mold SCP-021 - Skin Wyrm SCP-022 - The Morgue SCP-023 - Black Shuck SCP-024 - Game Show of Death SCP-025 - A Well-Worn Wardrobe SCP-026 - Afterschool Retention SCP-027 - The Vermin God SCP-028 - Knowledge SCP-029 - Daughter of Shadows SCP-030 - The Homunculus SCP-031 - What is Love? SCP-032 - Brothers' Bride SCP-033 - The Missing Number SCP-034 - Obsidian Ritual Knife SCP-035 - Possessive Mask SCP-036 - The Reincarnation Pilgrimage of the Yazidi Kiras Guhorîn SCP-037 - Dwarf Star SCP-038 - The Everything Tree SCP-039 - Monkey Brain SCP-040 - Evolution's Child SCP-041 - Thought-Broadcasting Patient SCP-042 - A Formerly Winged Horse SCP-043 - The Beatle SCP-044 - World War II Era Molecular-Fission Cannon SCP-045 - Atmospheric Converter SCP-046 - Predatory Holly Bush SCP-047 - Microbial Mutagen SCP-048 - The Cursed SCP Number SCP-049 - Plague Doctor SCP-050 - To The Cleverest SCP-051 - Japanese Obstetrical Model SCP-052 - Time-Traveling Train SCP-053 - Young Girl SCP-054 - Water Nymph SCP-055 - SCP-056 - A Beautiful Person SCP-057 - The Daily Grind SCP-058 - Heart of Darkness SCP-059 - Radioactive Mineral SCP-060 - Infernal Occult Skeleton SCP-061 - Auditory Mind Control SCP-062 - Quantum Computer SCP-063 - The World's Best TothBrush SCP-064 - Flawed von Neumann Structure SCP-065 - Destroyed Organic Catalyst SCP-066 - Eric's Toy SCP-067 - The Artist's Pen SCP-068 - The Wire Figure SCP-069 - Second Chance SCP-070 - Iron Wings SCP-071 - Degenerative Metamorphic Entity SCP-072 - The Foot of the Bed SCP-073 - Cain SCP-074 - Quantum Woodlouse SCP-075 - Corrosive Snail SCP-076 - Able SCP-077 - Rot Skull SCP-078 - Guilt SCP-079 - Old AI SCP-080 - Dark Form SCP-081 - Spontaneous Combustion Virus SCP-082 - Fernand the Cannibal SCP-083 - An Abandoned Row Home SCP-084 - Static Tower SCP-085 - Hand-drawn ''Cassy'' SCP-086 - The Office of Dr. SCP-087 - The Stairwell SCP-088 - The Lizard King SCP-089 - Tophet SCP-090 - Apocorubik's Cube SCP-091 - Nostalgia SCP-092 - The Best of The 5th Dimension SCP-093 - Red Sea Object SCP-094 - Miniature Event Horizon SCP-095 - The Atomic Adventures of Ronnie Ray-Gun SCP-096 - The Shy Guy SCP-097 - Old Fairgrounds SCP-098 - Surgeon Crabs SCP-099 - The Portrait 100 to 199 SCP-100 - Jamaican Joe's Junkyard Jubilee SCP-101 - Hungry Bag SCP-102 - Property of Marshall, Carter, and Dark Ltd. SCP-103 - The Never-Hungry Man SCP-104 - The Lonely Ball SCP-105 - Iris SCP-106 - The Old Man SCP-107 - The Turtle Shell SCP-108 - Extradimensional Nasal Cavity SCP-109 - Infinite Canteen SCP-110 - Subterranean City SCP-111 - Dragon-Snails SCP-112 - The Variable Coaster SCP-113 - The Gender-Switcher SCP-114 - Bringer of Conflict SCP-115 - Miniature Dump Truck SCP-116 - The Brittle Boy SCP-117 - Complete Multitool SCP-118 - Nuclear Protists SCP-119 - Timecrowave SCP-120 - Teleporting Paddling Pool SCP-121 - Concrete Cradle SCP-122 - no more monstrs. SCP-123 - Contained Miniature Black Hole SCP-124 - Fertile Soil SCP-125 - Contagious Reflection SCP-126 - Invisible Friend SCP-127 - The Living Gun SCP-128 - Kinetic Energy Entity SCP-129 - Progressive Fungal Infection SCP-130 - Post Office SCP-131 - The Eye Pods SCP-132 - Broken Desert SCP-133 - Instant Hole SCP-134 - Star-Eyed Child SCP-135 - Universal Carcinogen SCP-136 - Naked Doll SCP-137 - The Real Toy SCP-138 - The Ever-Living Man SCP-139 - All Eyes on Lucian SCP-140 - An Incomplete Chronicle SCP-141 - Codex Damnatio SCP-142 - One-Armed Bandit SCP-143 - The Bladewood Grove SCP-144 - Tibetan Rope to Heaven SCP-145 - Man-Absorbing Phone SCP-146 - Bronze Head of Shame SCP-147 - Anachronistic Television SCP-148 - The Telekill Alloy SCP-149 - The Blood Flies SCP-150 - The Prosthetic Parasite SCP-151 - The Painting SCP-152 - Book of Endings SCP-153 - Drain Worms SCP-154 - Offensive Bracelets SCP-155 - Infinite Speed Computer SCP-156 - Reanimating Pomegranate SCP-157 - Mimetic Predator SCP-158 - Soul Extractor SCP-159 - The Perfect Lock SCP-160 - Predator Drone SCP-161 - Pinwheel of Doom! SCP-162 - Ball of Sharp SCP-163 - An Old Castaway SCP-164 - Squid Tumors SCP-165 - The Creeping, Hungry Sands of Tule SCP-166 - Teenage Succubus SCP-167 - Infinite Labyrinth SCP-168 - Sentient Calculator SCP-169 - The Leviathan SCP-170 - A Tube of Superglue SCP-171 - Collective Brain Foam SCP-172 - The Gearman SCP-173 - The Sculpture - The Original SCP-174 - Ventriloquist's Dummy SCP-175 - Treasure Map SCP-176 - Observable Time Loop SCP-177 - Checkmate SCP-178 - 3-D Specs SCP-179 - Sauelsuesor SCP-180 - Identity Thieving Hat SCP-181 - Lucky SCP-182 - Rider SCP-183 - Weaver SCP-184 - The Architect SCP-185 - The Radio SCP-186 - To End All Wars SCP-187 - Double Vision SCP-188 - The Craftsman SCP-189 - Hair-Imitating Parasite SCP-190 - A Prize Toybox SCP-191 - Cyborg Child SCP-192 - Flawless X-Ray Machine SCP-193 - The Tissue Snail SCP-194 - Carrion Host SCP-195 - A Medicinal Whiskey SCP-196 - Time Paradox SCP-197 - The Greenhouse SCP-198 - Cup of Joe SCP-199 - Ferns 200 to 299 SCP-200 - Chrysalis SCP-201 - The Empty World SCP-202 - The Rewind Man SCP-203 - Tortured Iron Soul SCP-204 - The Protector SCP-205 - Shadow Lamps SCP-206 - The Voyager SCP-207 - Cola Bottles SCP-208 - Bes SCP-209 - The Sadist's Tumbler SCP-210 - Flooded House SCP-211 - Paper-Covered Building SCP-212 - The Improver SCP-213 - Anti-Matter Parasite SCP-214 - Hemotopian Virus SCP-215 - Paranoia-Inducing Spectacles SCP-216 - The Safe SCP-217 - The Clockwork Virus SCP-218 - Lamprey-Mass Organism SCP-219 - Resonance Engine SCP-220 - Two's Company SCP-221 - Compulsion Tweezers SCP-222 - Clone Coffin SCP-223 - A Photo Album SCP-224 - Grandfather Clock SCP-225 - Unstoppable and Immovable SCP-226 - Puzzle Of Terror SCP-227 - Complete Antikythera Mechanism SCP-228 - Psychiatric Diagnostic Tool SCP-229 - Wire Weed SCP-230 - The Gayest Man Alive SCP-231 - Special Personnel Requirements SCP-232 - Jack Proton's Atomic Zapper SCP-233 - 23-Sided Polyhedron SCP-234 - Extradimensional Fish SCP-235 - Phonographic Records SCP-236 - Mimic Crabs SCP-237 - Self-Made Man SCP-238 - Building Complex SCP-239 - The Witch Child SCP-240 - Breath-Powered Flying Machine SCP-241 - Good Home Cooking SCP-242 - Self Cleaning Pool SCP-243 - Animation SCP-244 - Ice Fog Jar SCP-245 - SCP-RPG SCP-246 - Prophetic Projector SCP-247 - A Harmless Kitten SCP-248 - 110 SCP-249 - The Random Door SCP-250 - Most of an Allosaurus SCP-251 - The Deceptive Snow Globe SCP-252 - Humboldt Squid SCP-253 - The Cancer Plague SCP-254 - Employee of the Month SCP-255 - Base Eleven Disorder SCP-256 - Trapped in the Typewriter SCP-257 - Professor William Woodsworths Collection of Curiosities SCP-258 - Weeping Frog SCP-259 - The Weisenglass Spiral SCP-260 - The Tracking Stone SCP-261 - Pan-Dimensional Vending SCP-262 - A Coat of Many Arms SCP-263 - Cash or Ash SCP-264 - Skeleton Temple SCP-265 - Black Volga SCP-266 - Will o' the Wisp SCP-267 - Tumorvore SCP-268 - Cap of Neglect SCP-269 - Dialysis Bracelet SCP-270 - Secluded Telephone SCP-271 - Inscribed Disc SCP-272 - An Old Iron Nail SCP-273 - Human Phoenix SCP-274 - Graffito SCP-275 - Ironskin SCP-276 - Time Schooner SCP-277 - Chalkland SCP-278 - A Large Mechanical Spider SCP-279 - Meandering Man SCP-280 - Eyes in the Dark SCP-281 - The Snooze Alarm SCP-282 - Ritual Devil Sticks SCP-283 - A Rock That Falls Sideways SCP-284 - The Twins SCP-285 - A Hack Job SCP-286 - The Brothers' Game SCP-287 - Clark's Third Favorite Sword SCP-288 - The Stepford Marriage Rings SCP-289 - Inertial Amplifier SCP-290 - The Picasso Machine SCP-291 - DisassemblerReassembler SCP-292 - Egg Timer of Déjà Vu SCP-293 - Obsession SCP-294 - The Coffee Machine SCP-295 - Cauterpillers SCP-296 - Armed Containment Site-03 SCP-297 - Steely Dan SCP-298 - The Blood Organ SCP-299 - Infectious Tree 300 to 399 SCP-300 - A World in a Bottle SCP-301 - Teleporter SCP-302 - Ant Sculpture SCP-303 - The Doorman SCP-304 - The Signal SCP-305 - The Whisperer SCP-306 - The Frogs SCP-307 - Carnivorous Ivy SCP-308 - Aztec Burial Sarcophagus SCP-309 - Plush Toy SCP-310 - Eternal Flame SCP-311 - Tactile Displacement Gloves SCP-312 - Atmospheric Jellyfish SCP-313 - Powerful Hand Dryer SCP-314 - Motion-Seeking Blade SCP-315 - The Recorded Man SCP-316 - Color-Draining Light SCP-317 - Cretaceous Physicist SCP-318 - Soul Press SCP-319 - A Curious Device SCP-320 - Higgs Field Acceleration Manipulator SCP-321 - Child of Man SCP-322 - Grow Your Own Castle Kit SCP-323 - Wendigo Skull SCP-324 - Eulogy Shrub SCP-325 - The Detergent SCP-326 - A Chinese Peasant SCP-327 - The Mermaid SCP-328 - Alien Disc SCP-329 - The Cancer Garden SCP-330 - Take Only Two SCP-331 - Tumbles SCP-332 - The 1976 Kirk Lonwood High School Marching Band SCP-333 - City in a Symphony SCP-334 - Stellar Vulpine SCP-335 - One Hundred and Fifty 3.5 Floppy Disks SCP-336 - Lilith SCP-337 - Hairball SCP-338 - A Portable Radio SCP-339 - Be Silent, Be Still SCP-340 - Viral Rebreather Membrane SCP-341 - A Collection of Extra-Solar Orreries SCP-342 - A Ticket to Ride SCP-343 - God SCP-344 - Schrödinger's Can Opener SCP-345 - Stone Puzzle Cube SCP-346 - Pterry the Pterodactyl SCP-347 - The Invisible Woman SCP-348 - A Gift from Dad SCP-349 - The Philosopher's Stone and the Graveyard of the Immortals SCP-350 - Unbreakable Contract SCP-351 - Fluid Canon SCP-352 - Baba Yaga SCP-353 - Vector SCP-354 - The Red Pool SCP-355 - The Serrated Lawn SCP-356 - Autointerrogation SCP-357 - Hungry Clay SCP-358 - A Deserted Hospital SCP-359 - The Hawk SCP-360 - Ascendance SCP-361 - Bronze Liver SCP-362 - A Cool T-Shirt SCP-363 - Not Centipedes SCP-364 - Ionian Drop Point SCP-365 - Pool Noodle SCP-366 - Carriage Grubs SCP-367 - Little Dog SCP-368 - Paper Crane SCP-369 - Living Migratory Roadwork SCP-370 - A Key SCP-371 - Macrovirus SCP-372 - Peripheral Jumper SCP-373 - Ghost Record SCP-374 - Oracular Guillotine SCP-375 - Forever A-Loan SCP-376 - The Traffic Light Tree SCP-377 - Accurate Fortune Cookies SCP-378 - Brainworm SCP-379 - Mechanical Pheromone SCP-380 - Biological Networking Device SCP-381 - The Pyrotechnic Polyphony SCP-382 - Haunted Baby Carriage SCP-383 - Variably Useful Flu SCP-384 - Let Her In SCP-385 - Personal Anti-Gravity Field Generator SCP-386 - Eternal Fungus SCP-387 - Living Lego SCP-388 - Ultimate Frisbee SCP-389 - Message in a Bottle SCP-390 - Ancient Death Ray SCP-391 - The Midas Owl SCP-392 - A Plant Now Found in Site-103, and Formerly Found in the Households of Nobility SCP-393 - The Memory Planner SCP-394 - Ear Candles SCP-395 - The Bottle Baby SCP-396 - And Suddenly, Chair SCP-397 - A Hominidae SCP-398 - The Greeting Hall SCP-399 - Atomic Manipulation Ring 400 to 499 SCP-400 - Beautiful Babies SCP-401 - A Palm Tree SCP-402 - Obsidian Absorber SCP-403 - Escalating Lighter SCP-404 - Memories Lost, Memories Found SCP-405 - Telepathy Virus SCP-406 - Sleepwalker's Tunnel SCP-407 - The Song of Genesis SCP-408 - Illusory Butterflies SCP-409 - Contagious Crystal SCP-410 - Editor Beetles SCP-411 - Ancient Precog SCP-412 - Mutagenic Mirror SCP-413 - Endless Garage SCP-414 - Regardless, I Might Prefer Myself Sick SCP-415 - The Harvested Man SCP-416 - Infinite Forest SCP-417 - The Plague Tree SCP-418 - Human Jigsaw SCP-419 - Window to the World SCP-420 - Aggressive Skin Condition SCP-421 - Shoal of Driftwood SCP-422 - Patchwork Beast SCP-423 - Self-Inserting Character SCP-424 - Nanomimes SCP-425 - The Infinity Broadcast SCP-426 - I am a Toaster SCP-427 - Lovecraftian Locket SCP-428 - The Crowd SCP-429 - Clockwork Teleporter SCP-430 - A Peasant's Punishment SCP-431 - Dr. Gideon SCP-432 - Cabinet Maze SCP-433 - A Ritual SCP-434 - A Meeting with Myself SCP-435 - He-Who-Made-Dark SCP-436 - Error Locket SCP-437 - Summer of '91 SCP-438 - Addictive Straitjacket of Espionage SCP-439 - Bone Hive SCP-440 - Sand-Based Ecology SCP-441 - Jacob Ram SCP-442 - On-Time Piece SCP-443 - Thought-streaming Crayons SCP-444 - The Language of Global Harmony SCP-445 - Dr. Wondertainment's Super Paper SCP-446 - Human Mannequin SCP-447 - Ball of Green Slime SCP-448 - Jack-in-the-Box SCP-449 - Gut Dust SCP-450 - Abandoned Federal Penitentiary SCP-451 - Mister Lonely SCP-452 - Dreamcatcher Spider SCP-453 - Scripted Nightclub SCP-454 - Comic Book SCP-455 - Cargo Ship SCP-456 - Soporific Bedbugs SCP-457 - Burning Man SCP-458 - The Never-Ending Pizza Box SCP-459 - Interplanetary Thermostat SCP-460 - Séance Storm SCP-461 - ZICU-TV SCP-462 - The Getaway Car SCP-463 - A Spoon That Bends People SCP-464 - The Foundry SCP-465 - Party in a Box SCP-466 - Mobile Veins SCP-467 - Confessional Phone Booth SCP-468 - The Abacus SCP-469 - Many-Winged Angel SCP-470 - Nexus of Abandoned Places SCP-471 - A Satellite SCP-472 - The Bloodstone SCP-473 - Supai SCP-474 - Broken Mason SCP-475 - Pope on a Rope SCP-476 - Map to Nowhere SCP-477 - Fossil Sea SCP-478 - Tooth Fairies SCP-479 - Hallway 4, D-Class Dorms, Site 14 SCP-480 - Recurring Nightmare Field SCP-481 - Scar Tissue SCP-482 - Mentally Mutating Straitjacket SCP-483 - Anti-Aging Placebos SCP-484 - Memory Stealing Drug SCP-485 - Death Pen SCP-486 - Coatlicue Skin SCP-487 - The Impossible House SCP-488 - Meteor Attractor SCP-489 - 1-555-BUG-BASH SCP-490 - Ice Cream Truck SCP-491 - Wrecking Light SCP-492 - Animated Cloth Dummy SCP-493 - Replicant SCP-494 - Matter Transference Gloves SCP-495 - Thingmaker SCP-496 - A Sunken Relic SCP-497 - The Shell SCP-498 - 11 Minute Snooze SCP-499 - Old Sun Man 500 to 599 SCP-500 - Panacea SCP-501 - Monk's Greed SCP-502 - The Surrogate Heart SCP-503 - The Luckiest Man in the World SCP-504 - Critical Tomatoes SCP-505 - Ink Stain SCP-506 - Instant-growing Plants SCP-507 - Reluctant Dimension Hopper SCP-508 - Random-dot Stereogram SCP-509 - Men Are Pigs SCP-510 - Soft Death SCP-511 - Basement Cat SCP-512 - Gravity-Nullifying Umbrella SCP-513 - A Cowbell SCP-514 - A Flock of Doves SCP-515 - Sleeper SCP-516 - Intelligent Tank SCP-517 - Grammie Knows SCP-518 - The Transinformational Tomb of Asa Rutledge SCP-519 - Cheeky Phone Booth SCP-520 - Knife Switch SCP-521 - The Postbox SCP-522 - Blood-draining Carpet SCP-523 - The Most Unhelpful Object On Earth SCP-524 - Walter the Omnivorous Rabbit SCP-525 - Eye Spiders SCP-526 - Valhalla Gate SCP-527 - Mr. Fish SCP-528 - Voodoo Putty SCP-529 - Josie the Half-Cat SCP-530 - Carl the Variable Dog SCP-531 - Paired Brass Guard Cats SCP-532 - Frost Bug SCP-533 - Snake Necklace SCP-534 - Misplaced Blood SCP-535 - Communicative Beaker SCP-536 - Physical Law Testing Chamber SCP-537 - Singing Gramophone SCP-538 - Shadow Spiders SCP-539 - The Perfect Distraction SCP-540 - Tannenbombs SCP-541 - Living Thoracic System SCP-542 - Herr Chirurg SCP-543 - Noise SCP-544 - The New Voice SCP-545 - Liquid LifeTotenkinder SCP-546 - A Notebook SCP-547 - The Cartesian Business Card SCP-548 - Ice Spider SCP-549 - Ursa Minor SCP-550 - The Ghûl SCP-551 - Impossible Puzzle SCP-552 - Ahead of His Time SCP-553 - Crystalline Butterflies SCP-554 - The Perfect Murder SCP-555 - Corpse Magnet SCP-556 - Painted Aircraft SCP-557 - Ancient Containment Site SCP-558 - Strange Contact Lenses SCP-559 - Birthday Time! SCP-560 - Bitwise Amoeba SCP-561 - A Passive Rip in Time SCP-562 - Revel Rousers SCP-563 - An Abandoned Farm in China SCP-564 - Incomplete Primitive Cyborg SCP-565 - Ed's Head SCP-566 - Word a Day SCP-567 - The Dungeon SCP-568 - Dismemberment Strap SCP-569 - Heads SCP-570 - Puppet Show Gloves!!! SCP-571 - Self-Propagating Infectious Pattern SCP-572 - Katana of Apparent Invincibility SCP-573 - The Pied Pipe SCP-574 - The Dropera House SCP-575 - Predatory Darkness SCP-576 - Sleep Well SCP-577 - Bullet Cat SCP-578 - Blood Opals SCP-579 - SCP-580 - Shi Huang Ti's Five Heaven Chariot SCP-581 - The Equestrian's Soul SCP-582 - A Bundle of Stories SCP-583 - Deathly Video Tape SCP-584 - Many Fingers, Many Toes SCP-585 - Sharpeners SCP-586 - Inscribable Object SCP-587 - A Model System SCP-588 - A Voracious Coin SCP-589 - The Price of Obsession SCP-590 - He Feels Your Pain SCP-591 - Dr. Wondertainment Pretendo SCP-592 - Inaccurate History Book SCP-593 - Contagious Innumeracy SCP-594 - Electric Sheep SCP-595 - Teleporting Destroyer SCP-596 - Cursed Regeneration Statue SCP-597 - The Mother of Them All SCP-598 - Sentient Color SCP-599 - Uncharted City 600 to 699 SCP-600 - That Guy SCP-601 - Sophocles' Chorus SCP-602 - The Sculptor of SoHo SCP-603 - Self-Replicating Computer Program SCP-604 - The Cannibal's Banquet A Corrupted Ritual SCP-605 - Living Storm Cloud SCP-606 - The Teacher SCP-607 - Dorian the Grey Cat SCP-608 - Fractal Tinsel SCP-609 - Dr. Wondertainment's Ontological 6-Balls SCP-610 - The Flesh that Hates SCP-611 - Parasitic Toothpick SCP-612 - Aggressive Cable SCP-613 - Wonder Bread! SCP-614 - IP Address 57.32.. SCP-615 - Stick Blob SCP-616 - The Vessel and the Gate SCP-617 - Pet Rocks SCP-618 - Smoky Cigars SCP-619 - Lucky Jeans SCP-620 - Time Keeps on Slipping SCP-621 - Hypnobulbs SCP-622 - Desert in a Can SCP-623 - One Groovy Room SCP-624 - Personal Music Player SCP-625 - Anklebiters SCP-626 - Vision-Altering Sculpture SCP-627 - Perpetual Circle SCP-628 - Flute Copse SCP-629 - Mr. Brass SCP-630 - Black Glacier SCP-631 - Nyctophobic Nocturnal Predator SCP-632 - Intrusive Arachnid Thoughts SCP-633 - Ghost In The Machine SCP-634 - Forgetful Goldfish SCP-635 - Medieval Bootstrap Program SCP-636 - Elevator to Nowhere SCP-637 - Viral Cat SCP-638 - The Roaring One SCP-639 - Distorted Man SCP-640 - Lucent Beams SCP-641 - The Pacifier SCP-642 - Hot Springs SCP-643 - Delicious Chocolates SCP-644 - Mr. Hot SCP-645 - Mouth of Truth SCP-646 - Birth Worm SCP-647 - Hungry Box SCP-648 - The Labyrinth SCP-649 - Matchbox Full of Winter SCP-650 - Startling Statue SCP-651 - Tissue-fusing virus SCP-652 - Meteorological Dog SCP-653 - The Boomerang SCP-654 - Thunderhorn SCP-655 - Biological Disinformation Campaign SCP-656 - Home Edition SCP-657 - Death-predicting Man SCP-658 - Botflies SCP-659 - Communal Avian Intelligence SCP-660 - Earthen Womb SCP-661 - Salesman, Too Good to Be True SCP-662 - Butler's Hand Bell SCP-663 - Living Water Filter SCP-664 - The Floor to Nowhere SCP-665 - The Garbage Man SCP-666 - Spirit Lodge SCP-667 - Fairy Kudzu SCP-668 - 13 Chef's Knife SCP-669 - A Didactic Perspective SCP-670 - Family of Cotton SCP-671 - Deconstructing Ants SCP-672 - Rock Coral SCP-673 - Tissues SCP-674 - The Exposition Gun SCP-675 - Shadows Through the Window SCP-676 - Unnatural Hot Spring SCP-677 - Unpredictable Pogo Stick SCP-678 - Trauma Harvester SCP-679 - Eyerot SCP-680 - Clockwork Skull SCP-681 - Hostile Helium SCP-682 - Hard-to-Destroy Reptile SCP-683 - Refrigerator Art SCP-684 - The Caretaken SCP-685 - Non-Bottomless Pit SCP-686 - Infectious Lactation SCP-687 - NOIR SCP-688 - Hole Dwellers SCP-689 - Haunter in the Dark SCP-690 - Joke Bandages SCP-691 - A Coward's Way Out SCP-692 - Revives the Colours SCP-693 - Knotty Stalker SCP-694 - All the time in the world SCP-695 - Eels SCP-696 - Abyssal Typewriter SCP-697 - Toxic Terraforming SCP-698 - Judgmental Turtle SCP-699 - Mystery Box 700 to 799 SCP-700 - Graffiti Factory SCP-701 - The Hanged King's Tragedy SCP-702 - The Trader's Residence SCP-703 - Into The Closet SCP-704 - Dangerous Curves SCP-705 - Militaristic Play-Doh SCP-706 - Perfect Porcelain Doll SCP-707 - Nesting Dolls SCP-708 - The Big Orange Forklift SCP-709 - Eye of the Forest SCP-710 - Disappearance SCP-711 - Paradoxical Insurance Policy SCP-712 - The Impossible Colors SCP-713 - Click Anywhere Computer SCP-714 - The Jaded Ring SCP-715 - My Face That I May Be SCP-716 - The Train SCP-717 - The Ambassador SCP-718 - Eyeball SCP-719 - Light-Bringer SCP-720 - Astronomically-Inclined Crane SCP-721 - Factory Toys SCP-722 - Jörmungandr SCP-723 - Aging Staircase SCP-724 - Procyon stentor SCP-725 - Parrot Whale SCP-726 - Reconstructive Maggots SCP-727 - Hephaestus's Forge SCP-728 - The Forever Room SCP-729 - Marble Bath SCP-730 - Decerebrating Plague SCP-731 - Rathole Cover SCP-732 - The Fan-Fic Plague SCP-733 - A Pair of Scissors SCP-734 - The Baby SCP-735 - Insult Box SCP-736 - The Iapetus Anomaly SCP-737 - Hungry Train SCP-738 - The Devil's Deal SCP-739 - A Mirrored Booth SCP-740 - The Hindenburg Photograph SCP-741 - Mysterious Russian Submarine SCP-742 - Retrovirus SCP-743 - A Chocolate Fountain SCP-744 - Assembly Required SCP-745 - The Headlights SCP-746 - Pseudo-Avian SCP-747 - Children and Dolls SCP-748 - Industrial Dissolution SCP-749 - Rain Drops SCP-750 - A Different Outlook on Life SCP-751 - Organ Eater SCP-752 - Altruistic Utopia SCP-753 - Automatic Artist SCP-754 - Illustrated Climbing Vine SCP-755 - Watch for the white bird SCP-756 - Miniature Solar System SCP-757 - The Fruit Tree SCP-758 - Spell Check - Vasili SCP-759 - Sourdough Starter SCP-760 - The Groomers SCP-761 - Slightly Less Dangerous Trampoline SCP-762 - Immortal Iron Maiden SCP-763 - Human Beowulf Cluster SCP-764 - The Obscene Show SCP-765 - Duck Pond SCP-766 - Human-Shaped Anomaly in Space SCP-767 - Crime Scene Photographs SCP-768 - Long-Range Alarm Clock SCP-769 - Ancient Encyclopedia SCP-770 - Nuclear Slime SCP-771 - Self-Repairing Biological AI SCP-772 - Giant Parasitoid Wasps SCP-773 - Voodoo Dartboard SCP-774 - Whistlebones SCP-775 - Hungry Ticks SCP-776 - The Youth Cult SCP-777 - Kingdom of Sand SCP-778 - Paradise Falls SCP-779 - Brownies SCP-780 - Seed Bead SCP-781 - Unwitting Dreamshaper SCP-782 - All-New You SCP-783 - Baba Yaga's Cottage SCP-784 - Christmas Cheer SCP-785 - A Chain Restaurant SCP-786 - Funnel Factor Twelve SCP-787 - The Plane That Never Was SCP-788 - Magma Carp SCP-789 - Internet-Savvy Predator SCP-790 - Blood? SCP-791 - Water Orb SCP-792 - The Body Farm SCP-793 - The Ghost Sickness SCP-794 - Desert Shipwreck SCP-795 - Reality-Bending Cat SCP-796 - River Cat SCP-797 - Curious Poltergeist SCP-798 - Cortex Rat SCP-799 - Carnivorous Blanket 800 to 899 SCP-800 - An Eastern History SCP-801 - Seven Furs SCP-802 - Musical Tank SCP-803 - Predatory Parasols SCP-804 - World Without Man SCP-805 - Poison Wood Foal SCP-806 - Resurrection Projection SCP-807 - Heart Attack on a Plate SCP-808 - The Mechanical Choir SCP-809 - Combat Boots SCP-810 - The Never-want Lamp SCP-811 - Swamp Woman SCP-812 - A Big Box of River SCP-813 - Glass Shard SCP-814 - Pure Tones SCP-815 - Snake Nut Can SCP-816 - Darwin's Erector Set SCP-817 - Random Metamorphism SCP-818 - An Abandoned Project SCP-819 - Vital Suckers SCP-820 - Las Langostas Pintadas SCP-821 - Dixie Funland SCP-822 - Landmine Cacti SCP-823 - Carnival of Horrors SCP-824 - Active Weed Control SCP-825 - Helmet of Disturbing Visions SCP-826 - Draws You into the Book SCP-827 - The Soup SCP-828 - SCP-829 - Bloodthirsty Nail Polish SCP-830 - Inky Quicksand SCP-831 - Tinkerbug SCP-832 - Accountant's Coin SCP-833 - Charity Worms SCP-834 - Marked SCP-835 - Expunged Data Released SCP-836 - Structural Cancer SCP-837 - Multiplying Clay SCP-838 - The Dream Job SCP-839 - Candied Worms SCP-840 - Drain Feeder SCP-841 - Reverse Mirror Voodoo Doll Stick Puppet SCP-842 - Operations Table SCP-843 - Cow Seeds SCP-844 - Crybaby SCP-845 - Liquid Polecat SCP-846 - Robo-Dude SCP-847 - The Mannequin SCP-848 - Interdimensional Spider Web SCP-849 - A Perfect Day SCP-850 - School of Fish SCP-851 - Lullabugs SCP-852 - Lunar Anomaly SCP-853 - Weather Preserves SCP-854 - Dream Bridge SCP-855 - The Film Hall SCP-856 - Leopotamus SCP-857 - Human-Based Ecosystem SCP-858 - Gravity's Rainbow SCP-859 - Arachnophobic Orb SCP-860 - Blue Key SCP-861 - A Fallen Angel SCP-862 - Rats SCP-863 - Patchwork Crabs SCP-864 - Efficient Washbasin SCP-865 - The Gentleman's Lash SCP-866 - Supercomputer SCP-867 - Blood Spruce SCP-868 - Mnemonic Meme SCP-869 - Summer of '48 SCP-870 - The Maybe There Monsters SCP-871 - Self-Replacing Cake SCP-872 - The Tattered Farmer SCP-873 - Russian Crystal Ball SCP-874 - Abyssal Fluid SCP-875 - War Criminals SCP-876 - Element-Switching Pills SCP-877 - University Microchips SCP-878 - The Actor SCP-879 - Colonial Cetacean SCP-880 - Trapped Winter SCP-881 - Little People SCP-882 - A Machine SCP-883 - Extradimensional Beehive SCP-884 - A Shaving Mirror SCP-885 - Living Vacuum SCP-886 - Nanny SCP-887 - Hypergraphia SCP-888 - Memory Stones SCP-889 - Hybridization SCP-890 - The Rocket Surgeon SCP-891 - California Field SCP-892 - Everyone's Spreadsheet SCP-893 - Asexual SCP-894 - Speak No, Hear No, See No SCP-895 - Camera Disruption SCP-896 - Online Role Playing Game SCP-897 - Voodoo Organ Transplant SCP-898 - Memetic Counter-Agent SCP-899 - Lost Children 900 to 999 SCP-900 - City of the Sun SCP-901 - The Building on the Square SCP-902 - The Final Countdown SCP-903 - Tunnel of Infinite Possibility SCP-904 - A Short Poem SCP-905 - Mr. Chameleon SCP-906 - Scouring Hive SCP-907 - An Exploratory Vehicle SCP-908 - Colocated Rock SCP-909 - Mr. Forgetful SCP-910 - A Foundation MTF in King Arthur's Court SCP-911 - Egyptian Book of the Dead SCP-912 - Autonomous SWAT Armor SCP-913 - Mr. Hungry SCP-914 - The Clockworks SCP-915 - The Mechanotesseractic Computer SCP-916 - Man's Best Friend SCP-917 - Mr. Moon SCP-918 - Baby Mill SCP-919 - Needy Mirror SCP-920 - Mr. Lost SCP-921 - Museum of Memories SCP-922 - Another Version of the Truth SCP-923 - A Useful Tool SCP-924 - The Ice Water Men SCP-925 - The Mushroom Cultist SCP-926 - Guqin SCP-927 - Contagious House SCP-928 - The White King SCP-929 - The Cuckoo SCP-930 - Seagull Island SCP-931 - A Rice Bowl SCP-932 - Night Feeder SCP-933 - Duct Tape SCP-934 - Inland Lighthouse SCP-935 - Ancient Playing Cards SCP-936 - Fruit of Man SCP-937 - Walking Sticks SCP-938 - Blood and Thunder SCP-939 - With Many Voices SCP-940 - Araneae Marionettes SCP-941 - Carsickness SCP-942 - Blood Candy SCP-943 - Repayment in Kind SCP-944 - Mirror Maze SCP-945 - Box of Shawabti SCP-946 - A Formal Discussion SCP-947 - Son of a SCP-948 - The Workaholic SCP-949 - Wondertainment Land SCP-950 - Clothes Dryer SCP-951 - My Friend LUCAS SCP-952 - Jack Of Hearts SCP-953 - Polymorphic Humanoid SCP-954 - Vocalizing Frogs SCP-955 - Mr. Sillybug SCP-956 - The Child-Breaker SCP-957 - Baiting SCP-958 - General-Beep SCP-959 - The Bogeyman SCP-960 - Inspiration SCP-961 - University Sundial SCP-962 - Tower of Babble SCP-963 - Immortality SCP-964 - Indescribable Polymorph SCP-965 - The Face In The Window SCP-966 - Sleep Killer SCP-967 - Infinite Scrapyard SCP-968 - Tar Baby SCP-969 - Brand Mosquito Repellent SCP-970 - The Recursive Room SCP-971 - Exotic Fast Food Delivery SCP-972 - Immunity SCP-973 - Smokey SCP-974 - Treehouse Predator SCP-975 - Subway Frogs SCP-976 - Anomalous Hard Drive SCP-977 - The Security Station SCP-978 - Desire Camera SCP-979 - Stoneware Rabbit SCP-980 - An Absence of Detail SCP-981 - The Director's Cut SCP-982 - Chicago Loop SCP-983 - The Birthday Monkey SCP-984 - A Public Restroom SCP-985 - Lost Luggage Claim SCP-986 - Faulkner's Last Manuscript SCP-987 - Gruesome Gallery SCP-988 - Unopenable Chest SCP-989 - Self-Defense Sugar SCP-990 - Dream Man SCP-991 - A Syringe SCP-992 - Gaia's Emissary SCP-993 - Bobble the Clown SCP-994 - Some Silver Dishes SCP-995 - Under The Couch SCP-996 - Broken Topology SCP-997 - Vermin Suppressor SCP-998 - Missing Aircraft SCP-999 - The Tickle Monster 1000 a 1999 SCP-1000 - Bigfoot SCP-1001 - Ya-Te-Veo SCP-1002 - Demisers SCP-1003 - Tapeworm Child SCP-1004 - Factory Porn SCP-1005 - The Painted Man SCP-1006 - Spider Proletariat SCP-1007 - Mr. Life and Mr. Death SCP-1008 - Exile Stone SCP-1009 - The Beautiful World SCP-1010 - The Green Man SCP-1011 - Humanization Process SCP-1012 - Secret Chord SCP-1013 - Cockatrice SCP-1014 - Jonah Crusoe SCP-1015 - Poor Man's Midas SCP-1016 - The Bloody Key SCP-1017 - The Replacement SCP-1018 - The Thirst SCP-1019 - Anartist's Folly SCP-1020 - An Important Letter SCP-1021 - Exit SCP-1022 - Suspiciously Clean Coat SCP-1023 - The Glass Seismograph SCP-1024 - The Basic Set SCP-1025 - Encyclopedia of Diseases SCP-1026 - Someone You Know SCP-1027 - Carnivorous CNS SCP-1028 - Mindwarp Murmuration SCP-1029 - Scratch 'n' Sniff JPEG SCP-1030 - Anything Golem SCP-1031 - Red Light Enforcement Module SCP-1032 - The Prediction Clock SCP-1033 - 33 Second Man SCP-1034 - Dollmaker's Kit SCP-1035 - Decomposition Mitten SCP-1036 - Nkondi SCP-1037 - Rotbolt SCP-1038 - An RCA Cable SCP-1039 - The Gathering Doll SCP-1040 - Daniel SCP-1041 - Multiple Pasts Disorder SCP-1042 - Ghost Stone SCP-1043 - Instant Structures SCP-1044 - The Contradictory Echo SCP-1045 - Candle of Life SCP-1046 - A House Without a Bedroom SCP-1047 - Vengefully Ironic Street Signs SCP-1048 - Builder Bear SCP-1049 - The Bonetaker Owl SCP-1050 - Obsidian Obelisk of Warning SCP-1051 - Nevadan Extraterrestrial SCP-1052 - Ana SCP-1053 - Overpopulation SCP-1054 - The 'Garden' Gnome SCP-1055 - Bugsy SCP-1056 - Re-size It! SCP-1057 - Absence of Shark SCP-1058 - The Semivisible Man SCP-1059 - Infectious Censorship SCP-1060 - Penanggalan SCP-1061 - The Accidental Car SCP-1062 - NS Magazine - Time SCP-1063 - Freiherr von Schwarzwald SCP-1064 - Candle Ring SCP-1065 - Self-Immolating Books SCP-1066 - Instant Education SCP-1067 - Tea-making Teaspoons SCP-1068 - Harmless Nuke SCP-1069 - Ys SCP-1070 - Re-Educational Software SCP-1071 - Improvement Test SCP-1072 - Memory-Replacing Disc SCP-1073 - Computing Microbes SCP-1074 - Stendhal's Nightmare SCP-1075 - The Forest Normally Known as Vince SCP-1076 - The Only Child SCP-1077 - Devil's Cap Mushroom SCP-1078 - Sight-Stealing Eye SCP-1079 - Dr Wondertainment's Bubblebath Bonbons SCP-1080 - The Creche SCP-1081 - University Speakers SCP-1082 - The Whole Truth SCP-1083 - University Skull SCP-1084 - Damaged Mausoleum SCP-1085 - Pound Off the Pounds! SCP-1086 - Second-Brain Syndrome SCP-1087 - White Tarsier SCP-1088 - The Eternity Ward SCP-1089 - The IC-UC SCP-1090 - Cordless Headphones SCP-1091 - Digital Mode Shortwave Entity SCP-1092 - A Species of Fish SCP-1093 - The Lamp Man SCP-1094 - Playground of the Lost SCP-1095 - The Fall of a King SCP-1096 - Perfect Plastic SCP-1097 - Liquefied Empath SCP-1098 - Virulent Word SCP-1099 - Spawn-Water 1100 to 1199 SCP-1100 - Gaia's Blood SCP-1101 - An Interesting Topic SCP-1102 - The Blue Ridge Phenomenon SCP-1103 - Dr. Wondertainment Young Surgeon's Transplant Kit SCP-1104 - Nose Crab SCP-1105 - Neural Polypore SCP-1106 - Grow Your Own Child Kit SCP-1107 - A Signal SCP-1108 - A Swamp God SCP-1109 - The Painkiller SCP-1110 - Videos of a Robbery SCP-1111 - The White Dog SCP-1112 - Shadow Play SCP-1113 - Lachesis' Spinner SCP-1114 - What a Dummy SCP-1115 - Distant Early Warning SCP-1116 - Humanoid Remote Drones SCP-1117 - Feasting Table SCP-1118 - Os Sumum SCP-1119 - No Touching SCP-1120 - Freeze Tag SCP-1121 - The Skinning Disease SCP-1122 - The House of Tomorrow SCP-1123 - Atrocity Skull SCP-1124 - Xenoplague SCP-1125 - Answer Dice SCP-1126 - Agent Palmer SCP-1127 - A Film Festival SCP-1128 - Aquatic Horror SCP-1129 - Hyperarousal Response SCP-1130 - A Handy Shortcut SCP-1131 - The Oscar Bug SCP-1132 - Snake Tongue SCP-1133 - Intravenous Sin SCP-1134 - Lead Paint SCP-1135 - Living Village SCP-1136 - Subjective Directional Gravity SCP-1137 - Perfect Sphere SCP-1138 - Book of Letters SCP-1139 - The Broken Tongue SCP-1140 - Gurgles SCP-1141 - Entrepreneurial Spirit SCP-1142 - A Cry for Help SCP-1143 - Suricate Altar SCP-1144 - Orion Scales SCP-1145 - Nagasaki Teddy SCP-1146 - Psycho Printer SCP-1147 - Adaptive Plum Tree SCP-1148 - Imperfect Image SCP-1149 - Erratic Weather Vane SCP-1150 - The Passengers SCP-1151 - A Handy Marker SCP-1152 - A Common Raccoon SCP-1153 - Programmable Patients SCP-1154 - Conceptual Dragon SCP-1155 - Predatory Street Art SCP-1156 - Wellington the Wonder Horse SCP-1157 - Bifurcating Man SCP-1158 - Arboreal Jellyfish Puppeteers SCP-1159 - The Wind Harp SCP-1160 - Effective Containment SCP-1161 - How-To Book SCP-1162 - A Hole in the Wall SCP-1163 - Face Swapper SCP-1164 - Echoing Epitaph SCP-1165 - Minus Level SCP-1166 - Perfect Lab Specimen SCP-1167 - Disembodied Robot Head SCP-1168 - A Highly Immature and Completely Unofficial Parody SCP-1169 - Lamarck's Giraffe SCP-1170 - Romantic Ghost SCP-1171 - Humans Go Home SC</t>
+          <t>Elle était belle et jeune, elle avait le monde pour elle disons Et lui la choquée, et ses attitudes ensorcelèrent son cur gisant Désemparé, tu ressens cquelle pourrait lui donner Une vie, linavoué mais elle nest pas dans son programme Du mauvais type elle est folle, elle lui donnerait le monde Juste pour vivre quelques secondes Avec lanimal, elle est en love Du mauvais man, elle est à fond dedans Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle ne ressent que les vibes de lanimal Elle est dans llove, elle est dans llove Elle veut faire partie de la life de lanimal Rien à foutre des loves, elle est dans llove Elle ne ressent que la vibes de lanimal Elle est dans llove, elle est dans llove Elle veut faire partie de la life de lanimal Rien à foutre des loves, elle est dans llove Il était jeune et beau, avait le monde à ses pieds disons Quil sen foutait, il voulait slibérer dses attitudes de sale dit-ban Il la voyait kiffer, il sdisait jai pas ltemps dme poser Le business ma envouté, belle gosse, je nsuis pas dans ton programme Du mauvais type elle est folle, elle lui donnerait le monde Juste pour vivre quelques secondes Avec lanimal, elle est en love Du mauvais man, elle est à fond dedans Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle ne ressent que les vibes de lanimal Elle est dans llove, elle est dans llove Elle veut faire partie de la life de lanimal Rien à foutre des loves, elle est dans llove Elle ne ressent que la vibes de lanimal Elle est dans llove, elle est dans llove Elle veut faire partie de la life de lanimal Rien à foutre des loves, elle est dans llove La distance me sépare de ma belle gosse, on remet ça à plus tard Éloigné de force de ma belle gosse, on remet ça à plus tard Si jamais le temps ne ta pas effacé, on remet ça à plus tard Je lirai dans tes yeux si tout sest bien passé Du mauvais type elle est folle, elle lui donnerait le monde Juste pour vivre quelques secondes Avec lanimal, elle est en love Du mauvais man, elle est à fond dedans Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle ne ressent que les vibes de lanimal Elle est dans llove, elle est dans llove Elle veut faire partie de la life de lanimal Rien à foutre des loves, elle est dans llove1</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1974 (Intro)</t>
+          <t>Balisé</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Oh, mon Dieu, ne me dites pas que c'est c'que j'crois. Il faut qu'j'en parle aux supérieurs. Bonjour Colonel K. Je viens de capter un signal provenant de la galaxie noire, situé à 23 années-lumières de la Grande Dame. Je suis vraiment désolé monsieur, je suis obligée de vous faire parvenir le signal - Signal parvenu - Oh mon Dieu, Monsieur, ne me dites pas que c'est c'que j'pense - Dites-moi agent 00913, avez-vous déjà passée une journée en Enfer ? Bienvenue dans le sanctuaire du Docteur Bériz Les enfants, restez à vos places Les femmes et les hommes seront divisés en deux parties Et juste après votre retour, ce message vous parviendra en 1974 Aujourd'hui nous sommes en 2016 Apprenez à vous délecter de notre musique Il s'appelle Wati B Wost... L'Empire Ça fait 25 ans que j'vous observe Il n'y a pas d'solution pour votre espèce Corrompu à cause des espèces, il y a bien une solution qui vient de l'espace T'es dans un sale état, j'essaie de t'sauver Viens vers moi, de l'effet du temps tu seras immunisé 1, 2, 3, j'fais une dinguerie, barrez-vous Si t'es pas d'taille, eh barrez-vous J'ai dû coffrer toute ma science, le saviez-vous ? Tu n'seras jamais despi, tu fais le vif, tu m'vois, tu m'attrapes, je nie Je ne péra jamais dans le vide, je vois des fans, je m'vesqui, m'préserve pour l'inspi Je n'ai pas chaud, vas-y viens, on va au casse-pipe, c'est la merde, vas-y viens, tu fuis T'as des excuses, tu m'vois, c'est vif, tu m'as tourné l'dos si deuspi Bon bref, j'ai plié la prod c'est complet, mon phone qui sonn et j'm'en vais J'me souviens d'mes potes qui me samplaient, hmmm je m'disais jamais Calculez c'que j'ai fait, j'ai dit Bériz t'es mauvais Hmm hmmmm t'es mauvais</t>
+          <t>Yeah Oh Oh Ah Provoque la folie, chouffe ma gouache C'est pour les Niggaz' qui valident la frappe Témoin du futur, je te laisse la place Gardez votre foutu trône, donne-nous le bif' qu'on se casse Laisse les Baliser, nous prends plus pour des outsiders yeah Ça kick comme dans un foutu cypher oh oh ah Défiguré par la vapeur Patienter sur l'tec' y à qu'ça à faire J'arrive en équipe, j'vois que nos rivaux s'équipent Y a pas ni une ni deux quand il s'agit de taire les critiques Ça tire comme ça kick, laisse les polémiquer A moins que la mort me frappe il me reste un peu de temps pour les gifler Ces cons aiment trop sticker, pour gonfler ce pick up Cousin y a pas photo entre la Lambo et le pick up Je les smoke comme un stick, pète vos pronostic D.R. aura le titre car la victoire n'est qu'un cycle Comme Ulysse viens pour charcler lil du cyclope Qui tiens la tour du rap français ? Tous diront mon cop' Ils aimeraient tous nous voir clamser Gère le Wati Boss si tu veux te placer, avant qu'on ne parle de toi qu'au passé W.A. c'est là que c'est, qu'on t'a dit No Limit Les zappeuses pour le succès, nous on fait pas les timides Ces connards aux goûts luxés, a bougé la tête sur nos chroniques Je suis le canon du brolique, killeur radiophonique Provoque la folie, chouffe ma gouache C'est pour les Niggaz' qui valident la frappe Témoin du futur, je te laisse la place Gardez votre foutu trône, donne-nous le bif' qu'on se casse Laisse les Baliser, nous prends plus pour des outsiders Ça kick comme dans un foutu cypher oh oh ah Défiguré par la vapeur Patienter sur l'tec' y à qu'ça à faire Hola Hola ils balisent mon frère, pousse toi laisse faire Beriz hé Wesh quoi de hein ? Brr Comment tu te sens quand jarrive avec mes concepts ? Sceptique ou pas tu vas te manger ton petit coup de cèp Petit con, casse toi, sauve toi quand tu peux Je suis un siphon, je parle pas, croise moi, fais un vu Enlève ton trois quart de merde, viens on se place où tu veux Pour moi tu bluff, allez fuck les suricates, sauve qui peut Ah, ce nest que les préliminaires Tu mises ta carrière de merde sur des délits mineurs On est des cracks, on te donne du taf si tes un démineur Débile, cest Beriz AKA flow dkiller Provoque la folie, chouffe ma gouache C'est pour les Niggaz' qui valident la frappe Témoin du futur, je te laisse la place Gardez votre foutu trône, donne-nous le bif' qu'on se casse Laisse les Baliser, nous prends plus pour des outsiders Ça kick comme dans un foutu cypher oh oh ah Défiguré par la vapeur Patienter sur l'tec' y à qu'ça à faire C'est pour les morros dans les XXX qui me check Les mecs à fond dedans qui font la promo sans sitckers Pour mes niggas, qui foncent au premier round dans un pick up Depuis que, je les ai mis à l'amende chouf les piquer L'impression d'avoir la dalle poto depuis mes premiers pas J'ai parchoqué pas mal de javons comme les phones avec la 3G Quand ça té-gra ça té-gra, j'ai comme un pe-pom dans la trachée Là j'vous préviens ça va s'pé-ta, ça va kicker, ça va s'donner oh oui Vendetta sur les chroniques du Wati Boss ah ouh Dans la famille Shin Sekaï moi je voudrais Dadju Epaulé mon acolyte j'ai du platine ras le cou On va t'arracher la tête au défilé baffe d'ours C'est pour les tés-ci qui font du sale à Paname Les loups garous du bitume qu'attendent de voir le bum-al Té-ma, on t'fais la cour même sur un T-Max T'as même pas fais le quart du taff donc arrête de pénave Provoque la folie, chouffe ma gouache C'est pour les Niggaz' qui valident la frappe Témoin du futur, je te laisse la place Gardez votre foutu trône, donne-nous le bif' qu'on se casse Laisse les Baliser, nous prends plus pour des outsiders Ça kick comme dans un foutu cypher oh oh ah Défiguré par la vapeur Patienter sur l'tec' y à qu'ça à faire Nous prends plus pour des outsiders Ça kick comme dans un foutu cypher Défiguré par la vapeur Patienter sur l'tec' y à qu'ça à faire2</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>À Force</t>
+          <t>Bingo Gringo</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>À force de dire qu'on a rien, on a tendance à s'retrouver dans la pente Mais on s'accroche car l'époque devient rude, on est tombé bien bas La réussite me parait loin d'ici et pour l'atteindre, j'ai déjà des crampes Mais qui vivra, verra, mon épopée Mais pour l'instant tout roule, oh, personne n'est blessé J'ai fais danser les foules sans jamais agresser Marre de t'voir endetter, il est temps que j'te soulage m'man J'vais devoir m'endetter Ouuuh Je suis le calme qui annonce la tempête, je n'suis pas seul sur ce chemin esquinté J'ai les deux pieds cloués au sol, mais je toucherai le sommet J'n'ai pas qu'la 'sique comme raison d'vivre, j'ai d'autres cibles Sans rancune, même si je m'épuise Et quand le public chante Nananana Je retrouve la force d'avancer, et j'me dis fonce À force de dire qu'on a rien, on a tendance à s'retrouver dans la pente Mais on s'accroche car l'époque devient rude, on est tombé bien bas La réussite me parait loin d'ici et pour l'atteindre, j'ai déjà des crampes Mais qui vivra, verra, mon épopée Mais pour l'instant tout roule, oh, personne n'est blessé J'ai fais danser les foules sans jamais agresser Marre de t'voir endetter, il est temps que j'te soulage m'man J'vais devoir m'endetter Ouuuh Et plus personne ne pourra me rabaisser, la peine, je rejette son odeur Le désarroi, j'veux plus le toucher, je n'veux plus le voir ni même m'en soucier J'veux qu'tous mes sos' soient comblés, n'plus sombrer Que ma famille reste en paix Et quand le public chante Nananana Je retrouve la force d'avancer, et j'me dis fonce À force de dire qu'on a rien, on a tendance à s'retrouver dans la pente Mais on s'accroche car l'époque devient rude, on est tombé bien bas La réussite me parait loin d'ici et pour l'atteindre, j'ai déjà des crampes Mais qui vivra, verra, mon épopée Mais pour l'instant tout roule, oh, personne n'est blessé J'ai fais danser les foules sans jamais agresser Marre de t'voir endetter, il est temps que j'te soulage m'man J'vais devoir m'endetter Ouuuh Le temps est passé, je sais qu'il est temps de démarrer C'est pas l'premier essai, ni le dernier, mais je suis paré À force d'entendre vos paroles Maintenant j'encaisse tous les coups, j'suis devenu un homme Mais pour l'instant tout roule, oh, personne n'est blessé J'ai fais danser les foules sans jamais agresser Marre de t'voir endetter, Il est temps que j'te soulage m'man J'vais devoir m'endetter Ouuuh</t>
+          <t>Les horreurs d'ici-bas ont justifié mes crimes Si je ne crois pas en moi, personne le fera Le bonheur d'ici, bah c'est le fric D'or et platine jusqu'en Africa Et le gagnant de ce soir se trouve à Paris, mesdames et messieurs Bingo gringo, bingo gringo Bingo gringo, bingo gringo Il veut juste la fille, qu'il rêvait Et quitter son appart' une pièce Grand palace ou bien un palais Est-ce qu'il reste encore une chance en vrai ? Mais oui bien sur, la chance sourit au plus audacieux Il suffit de faire un pas vers elle pour qu'elle te fixe dans les yeux Le plus dur ce n'est pas la chute quand tu tombes depuis les cieux Mais oui madame la chance, on peut faire ce qu'on veut Les horreurs d'ici-bas-bas ont justifié mes crimes Si je ne crois pas en moi, personne le fera Le bonheur d'ici, bah c'est le fric D'or et platine jusqu'en Africa Bingo gringo, bingo gringo Bingo gringo, bingo gringo Elle délaisse la vie de chalet Pour un homme qui n'a pas une pièce Est-ce l'amour ou bien un malaise ? Est-ce qu'elle sait encore ce qu'elle fait en vrai ? Mais oui bien sur, la chance sourit au plus audacieux Il suffit de faire un pas vers elle pour qu'elle te fixe dans les yeux Le plus dur ce n'est pas la chute quand tu es tombé depuis les cieux Mais oui madame la chance, on peut faire ce qu'on veut Les horreurs d'ici-bas ont justifié mes crimes Si je ne crois pas en moi, personne le fera Le bonheur d'ici, bah c'est le fric D'or et platine jusqu'en Africa Bingo gringo, bingo gringo Bingo gringo, bingo gringo Bingo gringo, bingo gringo Bingo gringo, bingo gringo Les horreurs d'ici-bas ont justifié mes crimes Si je ne crois pas en moi, personne le fera Le bonheur d'ici, bah c'est le fric D'or et platine jusqu'en Africa Et le gagnant de ce soir se trouve sur la lune, mesdames et messieurs Bingo gringo, bingo gringo Bingo gringo, bingo gringo Bingo gringo, bingo gringo Bingo gringo, bingo gringo</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Appelle-Moi</t>
+          <t>Ça kick dur</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Appelle-moi, jirai te retrouver Peu importe où tu es, en France ou aux USA Appelle-moi, je nsais même plus où je vais Je msens abandonné Appelle-moi, je suis défiguré Oh mon sourire tas volé pour fuir aux USA Appelle-moi, appelle-moi Appelle-moi, appelle-moi, appelle-moi Mes yeux sont loin dson corps Mes pensées me dévorent Des fois je mendors Et je rêve dlavoir sous mes draps Pas de faux pas ni dfausse note Jcrois bien qucest la bonne Elle mignore, elle me laisse sur une île déserte Si ya dla place dans son cur jveux bien être le leader Elle a piqué mon âme sans les flèches de Cupidon Oh, en plein dans le mile, dans le mile Appelle-moi, jirai te retrouver Peu importe où tu es, en France ou aux USA Appelle-moi, je nsais même plus où je vais Je msens abandonné Appelle-moi, je suis défiguré Oh mon sourire tas volé pour fuir aux USA Appelle-moi, appelle-moi Appelle-moi, appelle-moi, appelle-moi Elle ma dépossédé de ma tristesse Elle ma sorti de ce quotidien Et dce monde qui mécure Maintenant je nai plus peur Je me sens si bien Arrête-moi ce numéro Je sais que tu nmas pas oublié Tu lsais eu jtai dans la peau, alors Appelle-moi, jirai te retrouver Peu importe où tu es, en France ou aux USA Appelle-moi, je nsais même plus où je vais Je msens abandonné Appelle-moi Ça y est, je vais devenir fou Ça y est, je vais devenir fou Ça y est, tu veux me rendre fou Fou, fou, fou Appelle-moi, jirai te retrouver Peu importe où tu es, en France ou aux USA Appelle-moi, je nsais même plus où je vais Je msens abandonné Appelle-moi, je suis défiguré Oh mon sourire tas volé pour fuir aux USA Appelle-moi, appelle-moi Appelle-moi, appelle-moi, appelle-moi Ça y est, je vais devenir fou Ça y est, je vais devenir fou Ça y est, tu veux me rendre fou Fou, fou, fou</t>
+          <t>Si tu m'vois frapper l'tempo jusqu'à m'en péter les bias-ti' C'est pour la Porte de Clichy, la Fourche, la Tour, l'Allée XXX Comme tous les locos de ma team, je hais Sarko' dans la politique Il pleut des mythos, j'suis pas né d'la dernière tempête médiatique Dramatique, on pète la race pour quelques copecs au Tac-O-Tac Dans l'District on confond pas l'orage et le flash Kodak De pack en pack, on s'enracine dans les bâtiments made in OPAC J'veux l'champagne, la limousine sans avoir l'bac' Wesh cousine, joue pas les bastos ou j'te mets dans la chambre et j'tire et chtah C'est pas Shakespeare, c'est hrach, les MC's j'extirpe le cash Retire ton string, approche, je respire en cachette Kick à la vitesse d'un Porsche, et tu pries pour que j'me crash, wesh Ha-Ha-Hayce le traumatisme crânien Sortez l'champagne d'Alsace, le caviar iranien Contraint d'buter des plaquettes car les bas-fonds s'dégradent Fais pas genre tu vends d'la 'quette, on sait qu'tu racontes des cracks Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter J'te mets des coups d'tête comme si j'avais le front de Rihanna Tu nages dans la merde à côté des piranhas A la télé on dit noir, juste après on dit savane J'suis rare comme un cain-ri' qui adopte un p'tit arabe Qu'est-ce qu'il s'passe ? Encore un connard qui veut l'cash, qui fini die T'excites pas, j'tape les 'ta-'ta-'tasses, on rappe, on les mitraille C'est ti-par', on te pète le coccyx, découpe le beat avec lacolyte Hayce Lemsi, casse le mythe Quoi que l'on dise on est tricards J'tape le beat et le bute à la batte C'est le but du Bic et la lutte à l'élite On déboule des beats, des phases qui font mal Les pétasses ont la trique, on leur A la base on est pas dans les baptêmes, les battles Les boîtes, à l'épreuve des balles On écarte la prod' et la casse A la base on est pas des boloss On t'éclate la face man Passe le Bic qu'on le castagne, casse toi ou on t'casse ta gueule Cascader, , cassons ou on casse la prod' Casse les mans et les fouette comme Castlevania Tellement propre et sûr de moi qu'on les déclasse wa'Allah Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter On fait péter les watts, quoi que tu fasses dans l'rap j'vais t'briser On clash pas, on tape dans le tas pour t'plier Quoi que tu fasses dans l'rap j'vais t'briser On clash pas, on tape dans le tas pour t'plier On fait péter les watts, quoi que tu fasses dans l'rap j'vais t'briser Briser, briser, j'vais, j'vais t'plier Quoi que tu fasses dans l'rap j'vais t'briser On clash pas, on tape dans le tas pour t'plier Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bac à sable</t>
+          <t>Ça serait beau</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tu disparais de vue sans que je puisse dire au revoir Tu disparais de vue sans que je puisse dire au revoir Le temps défile peu à peu Le temps défile peu à peu... Pourquoi il me questionne ? Pourquoi il veut savoir ce que je pense ? Pourquoi il me questionne ? Bon j'oublie, bon j'oublie J'ai pas l'age des soucis Non j'ai pas l'age des soucis Hey j'oublie, j'oublie J'ai baraudé la nuit y a plus une place à l'hôtel Ceux qui disent mon gars sûr, ont oublié mon phone-tel Y a personne pour m'assurer, j'étais limite par terre Papa souvent je me suis dit que j'aurais jamais dû partir Mais je me suis juré qu'en solo je pouvais m'en sortir Devenir un millionnaire avec ou sans supporters J'en pouvais plus de te voir boulette après des centimes Voir les mêmes s'enrichir pendant que tu suffoquais La vie est belle pour ceux qui peuvent la voir sous fond de teint Ceux qui la connaissent vraiment ne peuvent pas la sentir À jeun les gens nous saoulent, on préfère être sous vodka Je roule un cône bien roulé que pour me contenir Je fume un cône bien roulé que pour me contenir J'irai tout péter le jour où mes nerfs vont sortir de leurs containers J'ai dormi dans la rue, j'en ai encore des souvenirs Je la connais par cur, qui peut dire le contraire ? Alors on veut du concret T'as merdé, je t'ai mis de côté, tu m'en fais un procès Que Dieu nous protège, je veux moins de condés sur nos côtes Dire aux potos c'soir se barrant c'est moi qui régale la note Je t'ai dit qu'on veut du concret T'as merdé, je t'ai mis de côté, tu m'en fais un procès Que Dieu nous protège, je veux moins de condés sur nos côtes Dire aux potos c'soir se barrant c'est moi qui régale la note , 9 PC 18ème Oh, oh, oh, oh Hé, hé, hé, hé Tu disparais de vue sans que je puisse dire au revoir Tu disparais de vue sans que je puisse dire au revoir Le temps défile peu à peu Le temps défile peu à peu... À l'heure où j'te parle ça spécule Torches-toi la bouche avec du PQ Laisse-moi clarifier les choses avant qu'on te déforme Les médisants n'ont plus de visage, plus de formes Perdu mais son visage reste une boussole, Celui qu'a perdu toute sa puissance Mais le baraka n'a jamais dit que t'allais gagner dans la mouvance Cette salope a fermé les yeux, mon frère Elle s'est bouchée les oreilles, en vrai Elle a voulu m'oublier Elle a voulu m'oublier J'suis en béné' quand je vois ma famille au top J'ai dormi dans la rue, dans la cellule et dans la tiop Bâtons dans les roues en piétinant les ronds, on devient un sage Ou une créature encore plus différente à l'abattage Zoulou, t'étais souriant quand t'avais l'avantage Mais on t'a tous vu déchanter après c'est lamentable Kriss Kross, années 80, té-ma la référence Déterminé et solitaire, tu vois la différence Magique malgré la fin tragique Paris m'a éventré mais j'ai stoppé l'hémorragie Genre de classique, l'amour est né fragile J'arrivais pas à pioncer, j'ai compté les naufragés Je laisse couler la mer et je laisse couler la 'teille Je laisse la place à ce genre de mariachi, je rêve d'oublier la veille J'essaie de fuir la mort mais elle est là Rester loin des scélérats.... Tu disparais de vue sans que je puisse dire au revoir Tu disparais de vue sans que je puisse dire au revoir Le temps défile peu à peu Le temps défile peu à peu...</t>
+          <t>Métro, boulot, dodo, cauchemar citizen Métro, boulot, dodo, fardeau, cauchemar citizen Je nsuis pas devin, je nai rien de divin Je nsuis quun humain, prisonnier dson destin Je nsuis pas devin, je nai rien de divin Je nsuis quun humain, prisonnier dson destin Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Oh oui, oh oui, oh oui, oh oui Oh oui, oh oui, oh oui, oh oui Que ça serai beau, quça serait bon Jsuis dans mon monde, exactement Jsuis assez grand, jobserve le monde Jai beaucoup trop de rêves pour une âme de mortel Je ndors même plus pour le lendemain moi Je jongle avec des flammes qui me brûlent les mains Et jembellis un sale décor Enfermé dans la salle des coffres Avec une clé dsol jorganise le bordel Cest là qutu réalises que cest mort Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Oh oui, oh oui, oh oui, oh oui Oh oui, oh oui, oh oui, oh oui Le rêve est permis Donc je fais cque jveux Tu naimes pas la grande vie Si taimes la monnaie il en pleut Tu naimes pas avoir tort Cest la faute du mauvais sort Tout lmonde mange puis tout lmonde dort La belle vie sans faire defforts La belle vie sans faire defforts La belle vie sans faire defforts Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Oh oui, oh oui, oh oui, oh oui Oh oui, oh oui, oh oui, oh oui</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bad boy</t>
+          <t>Celui qui dit</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Elle était belle et jeune, elle avait le monde pour elle disons Et lui la choquée, et ses attitudes ensorcelèrent son cur gisant Désemparé, tu ressens cquelle pourrait lui donner Une vie, linavoué mais elle nest pas dans son programme Du mauvais type elle est folle, elle lui donnerait le monde Juste pour vivre quelques secondes Avec lanimal, elle est en love Du mauvais man, elle est à fond dedans Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle ne ressent que les vibes de lanimal Elle est dans llove, elle est dans llove Elle veut faire partie de la life de lanimal Rien à foutre des loves, elle est dans llove Elle ne ressent que la vibes de lanimal Elle est dans llove, elle est dans llove Elle veut faire partie de la life de lanimal Rien à foutre des loves, elle est dans llove Il était jeune et beau, avait le monde à ses pieds disons Quil sen foutait, il voulait slibérer dses attitudes de sale dit-ban Il la voyait kiffer, il sdisait jai pas ltemps dme poser Le business ma envouté, belle gosse, je nsuis pas dans ton programme Du mauvais type elle est folle, elle lui donnerait le monde Juste pour vivre quelques secondes Avec lanimal, elle est en love Du mauvais man, elle est à fond dedans Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle ne ressent que les vibes de lanimal Elle est dans llove, elle est dans llove Elle veut faire partie de la life de lanimal Rien à foutre des loves, elle est dans llove Elle ne ressent que la vibes de lanimal Elle est dans llove, elle est dans llove Elle veut faire partie de la life de lanimal Rien à foutre des loves, elle est dans llove La distance me sépare de ma belle gosse, on remet ça à plus tard Éloigné de force de ma belle gosse, on remet ça à plus tard Si jamais le temps ne ta pas effacé, on remet ça à plus tard Je lirai dans tes yeux si tout sest bien passé Du mauvais type elle est folle, elle lui donnerait le monde Juste pour vivre quelques secondes Avec lanimal, elle est en love Du mauvais man, elle est à fond dedans Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle était en love dun bad boy Elle ne ressent que les vibes de lanimal Elle est dans llove, elle est dans llove Elle veut faire partie de la life de lanimal Rien à foutre des loves, elle est dans llove1</t>
+          <t>Bla bla bla, cest toujours la même chose avec toi Tu regardes de gauche à droite tu nchanges pas Tes jamais sûr de toi, jamais sûr de toi Tu nes jamais sûr de toi Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Tu nas peut-être pas dquoi te vanter Pas dquoi te vanter Jsuis désolé, tu vas louper, louper, louper Je me demande comment je vais te shooter Depuis le départ tu nfais que loucher Tu nvends que du rêve tu nes jamais clair Les gens qui te suivent sont dans la merde Ici tout lmonde te connaît, ça ne marchera jamais Imposteur, baratineur, menteur, jamais dhumeur à XXX Imposteur, baratineur, menteur, jamais Bla bla bla, cest toujours la même chose avec toi Tu regardes de gauche à droite tu nchanges pas Tes jamais sûr de toi, jamais sûr de toi Tu nes jamais sûr de toi Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Tas bavé sur mon dos toi tes pas fiable Jte faisais confiance jusquà présent Mais jai remarqué que tout comme eux Tétais rempli de blablas Toujours à jacter dans les parages Fais gaffe à cqui va tarriver Car un jour tout se sait Et tu le sais, donc reste sincère Ou un beau jour se stoppera notre amitié Tu sors tard la night et tu blablabates Sur ldos de tout lmonde cest dla folie Pour casser du sucre paraît quil ny a pas dâge Tu tes retrouvé dans la merde par le on-dit Allez va, fais ta vie, bats les pattes Après tout cest chacun sa vie, Dieu pour tous Efface mon num et ne mappelle pas Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Bla bla bla, cest toujours la même chose avec toi Tu regardes de gauche à droite tu nchanges pas Tes jamais sûr de toi, jamais sûr de toi Tu nes jamais sûr de toi Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Il veut être moi, elle veut être à moi Et moi jvoudrais être à laffiche dans lRER du mois Il veut être moi, elle veut être à moi Et moi être à laffiche dans lRER du mois Du mois, du mois Cest celui qui dit qui lest Cest celui qui dit qui lest2</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Balisé</t>
+          <t>Cool</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Yeah Oh Oh Ah Provoque la folie, chouffe ma gouache C'est pour les Niggaz' qui valident la frappe Témoin du futur, je te laisse la place Gardez votre foutu trône, donne-nous le bif' qu'on se casse Laisse les Baliser, nous prends plus pour des outsiders yeah Ça kick comme dans un foutu cypher oh oh ah Défiguré par la vapeur Patienter sur l'tec' y à qu'ça à faire J'arrive en équipe, j'vois que nos rivaux s'équipent Y a pas ni une ni deux quand il s'agit de taire les critiques Ça tire comme ça kick, laisse les polémiquer A moins que la mort me frappe il me reste un peu de temps pour les gifler Ces cons aiment trop sticker, pour gonfler ce pick up Cousin y a pas photo entre la Lambo et le pick up Je les smoke comme un stick, pète vos pronostic D.R. aura le titre car la victoire n'est qu'un cycle Comme Ulysse viens pour charcler lil du cyclope Qui tiens la tour du rap français ? Tous diront mon cop' Ils aimeraient tous nous voir clamser Gère le Wati Boss si tu veux te placer, avant qu'on ne parle de toi qu'au passé W.A. c'est là que c'est, qu'on t'a dit No Limit Les zappeuses pour le succès, nous on fait pas les timides Ces connards aux goûts luxés, a bougé la tête sur nos chroniques Je suis le canon du brolique, killeur radiophonique Provoque la folie, chouffe ma gouache C'est pour les Niggaz' qui valident la frappe Témoin du futur, je te laisse la place Gardez votre foutu trône, donne-nous le bif' qu'on se casse Laisse les Baliser, nous prends plus pour des outsiders Ça kick comme dans un foutu cypher oh oh ah Défiguré par la vapeur Patienter sur l'tec' y à qu'ça à faire Hola Hola ils balisent mon frère, pousse toi laisse faire Beriz hé Wesh quoi de hein ? Brr Comment tu te sens quand jarrive avec mes concepts ? Sceptique ou pas tu vas te manger ton petit coup de cèp Petit con, casse toi, sauve toi quand tu peux Je suis un siphon, je parle pas, croise moi, fais un vu Enlève ton trois quart de merde, viens on se place où tu veux Pour moi tu bluff, allez fuck les suricates, sauve qui peut Ah, ce nest que les préliminaires Tu mises ta carrière de merde sur des délits mineurs On est des cracks, on te donne du taf si tes un démineur Débile, cest Beriz AKA flow dkiller Provoque la folie, chouffe ma gouache C'est pour les Niggaz' qui valident la frappe Témoin du futur, je te laisse la place Gardez votre foutu trône, donne-nous le bif' qu'on se casse Laisse les Baliser, nous prends plus pour des outsiders Ça kick comme dans un foutu cypher oh oh ah Défiguré par la vapeur Patienter sur l'tec' y à qu'ça à faire C'est pour les morros dans les XXX qui me check Les mecs à fond dedans qui font la promo sans sitckers Pour mes niggas, qui foncent au premier round dans un pick up Depuis que, je les ai mis à l'amende chouf les piquer L'impression d'avoir la dalle poto depuis mes premiers pas J'ai parchoqué pas mal de javons comme les phones avec la 3G Quand ça té-gra ça té-gra, j'ai comme un pe-pom dans la trachée Là j'vous préviens ça va s'pé-ta, ça va kicker, ça va s'donner oh oui Vendetta sur les chroniques du Wati Boss ah ouh Dans la famille Shin Sekaï moi je voudrais Dadju Epaulé mon acolyte j'ai du platine ras le cou On va t'arracher la tête au défilé baffe d'ours C'est pour les tés-ci qui font du sale à Paname Les loups garous du bitume qu'attendent de voir le bum-al Té-ma, on t'fais la cour même sur un T-Max T'as même pas fais le quart du taff donc arrête de pénave Provoque la folie, chouffe ma gouache C'est pour les Niggaz' qui valident la frappe Témoin du futur, je te laisse la place Gardez votre foutu trône, donne-nous le bif' qu'on se casse Laisse les Baliser, nous prends plus pour des outsiders Ça kick comme dans un foutu cypher oh oh ah Défiguré par la vapeur Patienter sur l'tec' y à qu'ça à faire Nous prends plus pour des outsiders Ça kick comme dans un foutu cypher Défiguré par la vapeur Patienter sur l'tec' y à qu'ça à faire2</t>
+          <t>Tu veux le biff du reuf et quer-ni la reus Que j'sois docile tout en restant dans la hass T'aimes bien l'Afrique pour toutes les femmes colorées Jt'ai vu partir en cances-va, investir comme Une belle femme j'dis ne se rate pas Mais tu wake plus cheum sur l'compte d'la rapta Es-tu aptes à assumer ce gosse là Quand tous les soirs tu décides de pas mettre la pote-ca A chaque fois que j'étais lade-ma C'était pour le lendemain pouvoir esquiver le radma Claque sur la tetê, puchca Mène une vie de couche tard, excuse pour les embuscades Les rottes-ca mais faut dire qu'à la raque-ba Pour une baguette ça criait Allah Akbar Voilà ce qu'il me traversait l'esprit avant de gratter c'texte, peace La Terre tourne avec ou sans toi Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle Chelou, chelou, c'est chelou Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle C'est injuste Toi tu veux que la, la, la, la Toi tu veux que la, la, la, la Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle Ça y est ça roule en Crossover, ça y est ça vé-squi la té-ci T'as l'compte en banque d'un footballeur grâce à la coke que tu cuisines T'as fait d'la baraque un palace, mais y'a ta reum dans un taudis Tu veux le bon Dieu sans concession t'as les mains pleins d'hémoglobines T'as laissé tomber ton équipe Donc autrement dit, t'as qué-ni, khey, ton Posse T'es plus qu'avide de sentiments, t'as l'cur aussi noir qu'un gothique Les boites de nuits c'est comme les potes, un moment c'est plus compatible T'as fait du sale, la hagra, l'a crié sur tous les toits T'as fait du placard à Dakar tout le monde en ler-par au tier-quar T'as fait ton malaise sur l'Trocad' direction l'autoroute A4 Avec la BAC en filature du coup t'as ton-car en bécane Évidemment ça part en testos', tortionnaire de lice-po Déclencheur d'émeutes tu peux dire ci-mer à ton flash ball Toi tu veux qu'la vie te fasse flipper depuis qutes vux sexaucent Venez vous repentir mais bon juste avant qu'la terre saute Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle Chelou, chelou, c'est chelou Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle C'est injuste Toi tu veux que la, la, la, la Toi tu veux que la, la, la, la Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle Tu veux les bienfaits du Tout Puissant mais n'commet que des méfaits Dur de gagner le marathon de la vie les lacets défaits Chelou comme ces bâtards qui se réjouissent de nos décès Ou comme ce frère de sang qui convoite ta pine-co vulsée Pourquoi mon succès te gratte la gorge, oui, vu qu'j'ai Ravalé ma haine, la ceinture serré comme mon budget Chelou comme ces gavas qui te vendent puis te volent Mais rien d'étonnant si ces connards s'font shooter en plein vol Donc je plane sous pilon négro, canne que sur mes démos Femme trouve les phases si ce soir tu veux ton négro Je vois que la côte est grandissante depuis Ma mélo Pourtant ma rage n'est pas décroissante car j'suis trop ghetto Tu la trouves si ravissante pourtant c'est un homme Oui tu la trouves si attirante mais pourquoi tu la cognes ? T'es chelou comme ce coq qui ne défend plus sa basse-cour Au chant du glock bah plus personne, tout le monde court Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle Chelou, chelou, c'est chelou Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle C'est injuste Toi tu veux que la, la, la, la Toi tu veux que la, la, la, la Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle1</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bingo Gringo</t>
+          <t>Copacabana</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Les horreurs d'ici-bas ont justifié mes crimes Si je ne crois pas en moi, personne le fera Le bonheur d'ici, bah c'est le fric D'or et platine jusqu'en Africa Et le gagnant de ce soir se trouve à Paris, mesdames et messieurs Bingo gringo, bingo gringo Bingo gringo, bingo gringo Il veut juste la fille, qu'il rêvait Et quitter son appart' une pièce Grand palace ou bien un palais Est-ce qu'il reste encore une chance en vrai ? Mais oui bien sur, la chance sourit au plus audacieux Il suffit de faire un pas vers elle pour qu'elle te fixe dans les yeux Le plus dur ce n'est pas la chute quand tu tombes depuis les cieux Mais oui madame la chance, on peut faire ce qu'on veut Les horreurs d'ici-bas-bas ont justifié mes crimes Si je ne crois pas en moi, personne le fera Le bonheur d'ici, bah c'est le fric D'or et platine jusqu'en Africa Bingo gringo, bingo gringo Bingo gringo, bingo gringo Elle délaisse la vie de chalet Pour un homme qui n'a pas une pièce Est-ce l'amour ou bien un malaise ? Est-ce qu'elle sait encore ce qu'elle fait en vrai ? Mais oui bien sur, la chance sourit au plus audacieux Il suffit de faire un pas vers elle pour qu'elle te fixe dans les yeux Le plus dur ce n'est pas la chute quand tu es tombé depuis les cieux Mais oui madame la chance, on peut faire ce qu'on veut Les horreurs d'ici-bas ont justifié mes crimes Si je ne crois pas en moi, personne le fera Le bonheur d'ici, bah c'est le fric D'or et platine jusqu'en Africa Bingo gringo, bingo gringo Bingo gringo, bingo gringo Bingo gringo, bingo gringo Bingo gringo, bingo gringo Les horreurs d'ici-bas ont justifié mes crimes Si je ne crois pas en moi, personne le fera Le bonheur d'ici, bah c'est le fric D'or et platine jusqu'en Africa Et le gagnant de ce soir se trouve sur la lune, mesdames et messieurs Bingo gringo, bingo gringo Bingo gringo, bingo gringo Bingo gringo, bingo gringo Bingo gringo, bingo gringo</t>
+          <t>Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Gbereya be bela gbereya be bela Wari bana Gbereya be bela, gbereya be bela Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Jte les ai vu senfuir En sous-entendant je reviendrais Que veux-tu quje fasse du désespoir À part la rendre plus belle ? Je veux juste un petit coin dParadis Sans les effets néfastes de la money Si tu cherches comme moi un petit coin dParadis Copacabana mon ami Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Gbereya be bela gbereya be bela Wari bana, gbereya be bela, gbereya be bela Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Stop, juste un petit coin au soleil Parcque moi la grisaille de Paname ma soulé Parcquau tier-quar je ne peux pas me défouler Zone à risque surveillée par les poulets We-we-wesh, miss como está ? Elle a kiffé sur moi ya quà voir comment elle msnappe Dailleurs cest pas la seule, té-ma comment elle stapent toutes Beriz on a la cote ici mon gars, ouais pas ddoute Oh oui, dans le délire on est fêlés Parcquon vient dun endroit où portes et fenêtres étaient scellés La famille sur le te-c, ne crois pas que je suis solo Laissez-nous la discothèque ou on va faire les insolents Tant pis si ça part en cacahuètes On est loin de la capitale, on est plein, on va les uer-t Envie de tout niquer, Copacabana, Havana Le Big Black M il a la mala Même si tes poches sont vides viens à Copacabana De-de joie on-on déborde de bonheur, on-on déborde Même si tes poches sont vides viens à Copacabana De-de joie on-on déborde de bonheur, on-on déborde Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Gbereya be bela gbereya be bela Wari bana, gbereya be bela gbereya be bela Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Boule Noire</t>
+          <t>Dans le coup</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>Au pire des cas juste un coup de fil juste un coup de fil Comme dans le movie eh comme dans le movie Aucun soucis eh ouuuu ah Je déboule tout de suite Dis-moi si tes dans le coup ou ou Si tes dans le coup ou ho Si tes dans le coup ou ou Si tes dans le coup ou ho Que signifie ce clin dil ? On se connaît pas mais cest cramé je suis pas le seul Eh, tes tombé dans le love Quand tes rentré le temps cest arrêté à lentrée Je vois le style, cest Cainfri et Quinri bien mixé A distance sans toucher on cest regardé jai kiffé Au pire des cas juste un coup de fil juste un coup de fil Comme dans le movie eh comme dans le movie Aucun soucis eh ouuuu ah Je déboule tout de suite Au pire des juste un coup de fil juste un coup de fil Comme dans le movie eh comme dans le movie Aucun soucis eh ouuuu ah Je déboule tout de suite Dis-moi si tes dans le coup ou ou Si tes dans le coup ou ho Si tes dans le coup ou ou Si tes dans le coup ou ho Verres fumés, jean taille basse, parfumé hasin Jai le cur calciné Je suis en place avec mes potes mal lunés Est-ce que tu veux que je te fasse une place en vrai Quand tu tes mis debout ou ou, Jai perdu le souffle Donne-moi quelques secondes, pour te suivre jusquau bout Au pire des cas juste un coup de fil juste un coup de fil Comme dans le movie eh comme dans le movie Aucun soucis eh ouuuu ah Je déboule tout de suite Dis-moi si tes dans le coup ou ou Si tes dans le coup ou ho Si tes dans le coup ou ou Si tes dans le coup ou ho Pourtant je suis pas un queme dans le love, jsuis dans les loves, dans les love oh Jsuis pas dans le love mais dans les loves, dans les love oh On se tient au joussma Elle marche doucement Tout le monde veut tâter le tossma Ça ce passe comme ça On se tient au joussma Au pire des cas juste un coup de fil juste un coup de fil Comme dans le movie eh comme dans le movie Aucun soucis eh ouuuu ah Je déboule tout de suite Dis-moi si tes dans le coup ou ou Si tes dans le coup ou ho Si tes dans le coup ou ou Si tes dans le coup ou ho</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Dernier Negro</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>T'es nouveau sur l'rrain-té, t'es bénef' Mon tit-pe, ma dope tu écoutes bien De mauvaise humeur, on va t'niquer ta mère pour que tout l'monde s'en souvienne Colt 45, Smith Yassa', chez nous ça mange bien Débrouillardise, t'as rien à dire à part sentir la patate dans l'refrain Ils en montent par un geyser Negro à se-l'ai dans l'désert Visu' de Zulu, dans la poche un ze-dou On s'vi-ser sans jamais dire ci-mer Va niquer ta grand mère, ton cavu est ciblé à 3 heures Comment tu veux qu'on compatisse ? Même pour aller à la guerre, mes négros tisent Faut des gros titres, sinus bousillés à la chevrotine Ça chiffre vite, même quand ça tire, c'est la routine Toujours sur les rotules même quand la roue tourne Nous parle pas de nos fils, on va te percer la foufoune Je me suis fait tout seul Fuck la réput' des mecs qu'ont l'seum La weed, j'consomme Tout mon entourage touche des grosses sommes Les meufs, les haineux Les suceurs de ah, les élites, le quartier Dans mon monde, tu n'as pas pieds Je suis l'dernier negro Le dernier negro Le dernier negro Dernier negro Le dernier negro Rien à foutre de c'que t'en penses Ventre plein sans dépense Les types sont haut perchés Y'a qu'les balles qui descendent Check, qu'est-ce qu'tu veux qu'j'te dise ? Si t'es sec fais belek ! Protèges ton dos, même si t'es 50 cents Cassez-vous, aucun respect T'aurais du faire des tubes, au lieu de te faire shoo-shoo-shooter-shoot mon frère Ils veulent nous voir 6 pieds sous terre, dis-leur ces mots Ils veulent nous voir 6 pieds sous terre, dis-leur c'est mort Je suis le dernier, le dernier Ils veulent nous voir 6 pieds sous terre, dis-leur ces mots Ils veulent nous voir 6 pieds sous terre, dis-leur c'est mort Je suis le dernier, le dernier Ils veulent nous voir 6 pieds sous terre, dis-leur ces mots Ils veulent nous voir 6 pieds sous terre, dis-leur c'est mort Je suis le dernier Je me suis fait tout seul Fuck la réput' des mecs qu'ont l'seum La weed, j'consomme Tout mon entourage touche des grosses sommes Les meufs, les haineux Les suceurs de ah, les élites, le quartier Dans mon monde, tu n'as pas pieds Je suis l'dernier negro Le dernier negro Le dernier negro Dernier negro Le dernier negro1</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ça kick dur</t>
+          <t>Dinguelop</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Si tu m'vois frapper l'tempo jusqu'à m'en péter les bias-ti' C'est pour la Porte de Clichy, la Fourche, la Tour, l'Allée XXX Comme tous les locos de ma team, je hais Sarko' dans la politique Il pleut des mythos, j'suis pas né d'la dernière tempête médiatique Dramatique, on pète la race pour quelques copecs au Tac-O-Tac Dans l'District on confond pas l'orage et le flash Kodak De pack en pack, on s'enracine dans les bâtiments made in OPAC J'veux l'champagne, la limousine sans avoir l'bac' Wesh cousine, joue pas les bastos ou j'te mets dans la chambre et j'tire et chtah C'est pas Shakespeare, c'est hrach, les MC's j'extirpe le cash Retire ton string, approche, je respire en cachette Kick à la vitesse d'un Porsche, et tu pries pour que j'me crash, wesh Ha-Ha-Hayce le traumatisme crânien Sortez l'champagne d'Alsace, le caviar iranien Contraint d'buter des plaquettes car les bas-fonds s'dégradent Fais pas genre tu vends d'la 'quette, on sait qu'tu racontes des cracks Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter J'te mets des coups d'tête comme si j'avais le front de Rihanna Tu nages dans la merde à côté des piranhas A la télé on dit noir, juste après on dit savane J'suis rare comme un cain-ri' qui adopte un p'tit arabe Qu'est-ce qu'il s'passe ? Encore un connard qui veut l'cash, qui fini die T'excites pas, j'tape les 'ta-'ta-'tasses, on rappe, on les mitraille C'est ti-par', on te pète le coccyx, découpe le beat avec lacolyte Hayce Lemsi, casse le mythe Quoi que l'on dise on est tricards J'tape le beat et le bute à la batte C'est le but du Bic et la lutte à l'élite On déboule des beats, des phases qui font mal Les pétasses ont la trique, on leur A la base on est pas dans les baptêmes, les battles Les boîtes, à l'épreuve des balles On écarte la prod' et la casse A la base on est pas des boloss On t'éclate la face man Passe le Bic qu'on le castagne, casse toi ou on t'casse ta gueule Cascader, , cassons ou on casse la prod' Casse les mans et les fouette comme Castlevania Tellement propre et sûr de moi qu'on les déclasse wa'Allah Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter On fait péter les watts, quoi que tu fasses dans l'rap j'vais t'briser On clash pas, on tape dans le tas pour t'plier Quoi que tu fasses dans l'rap j'vais t'briser On clash pas, on tape dans le tas pour t'plier On fait péter les watts, quoi que tu fasses dans l'rap j'vais t'briser Briser, briser, j'vais, j'vais t'plier Quoi que tu fasses dans l'rap j'vais t'briser On clash pas, on tape dans le tas pour t'plier Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Ouch Je sais que j'ai le contrôle et que je m'en sers Vous êtes bloqué sur mes mélos J'ai tous vos airs Dinguelop J'suis bon qu'à faire des dinguelop Dinguelop Bon qu'à faire des dinguelop J'suis bon qu'à faire des dinguelop Dinguelop , Dinguelop Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff man Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff J'suis perturbée Je perds l'équilibre sur toutes ces lignes qui font ma vie Je vais tomber, mais t'inquiète j'sais voler Je suis sous l'emprise d'une terrible maladie À ce qui parait eh oh Eh Beriz j'ai quelques ennuis Je crois que j'ai des problèmes psychologiques C'est la même mélodie Elle reste dans ma tête cette mélodie Oh oh oh Que puis-je y faire ? Elle m'embarque au bout de la terre Cette même mélodie Cette même mélodie J'ai tous vos airs Dinguelop J'suis bon qu'à faire des dinguelop Dinguelop Bon qu'à faire des dinguelop J'suis bon qu'à faire des dinguelop Dinguelop , Dinguelop Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff man Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff J'suis désolée Je ne me contrôle pas, c'est ma folie qui guide mes pas Tu t'en doutais eh oh Ouai j'suis spontanée Je fonce droit dedans même si j'finis par l'regretter J'suis désolé eh oh Eh Beriz j'ai quelques ennuis Je crois que j'ai des problèmes psychologiques C'est la même mélodie Elle reste dans ma tête cette mélodie Oh oh oh Que puis-je y faire ? Elle m'embarque au bout de la terre Cette même mélodie ... J'ai tous vos airs Dinguelop J'suis bon qu'à faire des dinguelop Dinguelop Bon qu'à faire des dinguelop J'suis bon qu'à faire des dinguelop Dinguelop , Dinguelop Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff man Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff I heard something ... I think the angel's cry tonight Oh oh oh I heard something The angel's cry tonight J'ai tous vos airs Dinguelop J'suis bon qu'à faire des dinguelop Dinguelop Bon qu'à faire des dinguelop J'suis bon qu'à faire des dinguelop Dinguelop , Dinguelop Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff man Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff Dinguelop ! Dinguelop this is my life Je sais bien qu'ils ne me comprennent pas Mais j'y peux rien c'est bien plus fort que moi J'suis comme ça, j'suis comme ça Dinguelop ! Dinguelop this is my life Je fonce dedans je ne réfléchis pas Les autres bluffs, ils ne sont pas de taille C'est comme ça C'est comme ça Hey wech Beriz quoi d'neuf ? Rien que ça bluff Wech Beriz quoi d'neuf ? De l'autre côté Rien que ça bluff Hey wech Beriz quoi d'neuf ? Rien que ça bluff Wech Beriz quoi d'neuf ? De l'autre côté Rien que sa bluff</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ça serait beau</t>
+          <t>Entrée olympique</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Métro, boulot, dodo, cauchemar citizen Métro, boulot, dodo, fardeau, cauchemar citizen Je nsuis pas devin, je nai rien de divin Je nsuis quun humain, prisonnier dson destin Je nsuis pas devin, je nai rien de divin Je nsuis quun humain, prisonnier dson destin Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Oh oui, oh oui, oh oui, oh oui Oh oui, oh oui, oh oui, oh oui Que ça serai beau, quça serait bon Jsuis dans mon monde, exactement Jsuis assez grand, jobserve le monde Jai beaucoup trop de rêves pour une âme de mortel Je ndors même plus pour le lendemain moi Je jongle avec des flammes qui me brûlent les mains Et jembellis un sale décor Enfermé dans la salle des coffres Avec une clé dsol jorganise le bordel Cest là qutu réalises que cest mort Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Oh oui, oh oui, oh oui, oh oui Oh oui, oh oui, oh oui, oh oui Le rêve est permis Donc je fais cque jveux Tu naimes pas la grande vie Si taimes la monnaie il en pleut Tu naimes pas avoir tort Cest la faute du mauvais sort Tout lmonde mange puis tout lmonde dort La belle vie sans faire defforts La belle vie sans faire defforts La belle vie sans faire defforts Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Que ça serait beau, quça serait beau Si largent tombait du ciel Jcrois qumon cur serait plus beau Si la vieillesse prenait des siècles Oh oui, oh oui, oh oui, oh oui Oh oui, oh oui, oh oui, oh oui</t>
+          <t>Nous avons trouvé deux types extraordinaires Qui ne craignent aucun effet de la kryptonite Après avoir exploré les bas fonds Nous les avons trouvé avec une détermination qui dépasse votre imagination Oui Et aujourd'hui, c'est la rentrée, et bien sûr, elle est olympique Oui Olympique Pour décrocher la Lune faut la fusée, j'arrive en vaisseau spatial On veut pas toucher le ciel, j'suis déjà dans l'espace, man Déter' comme un spartiate, il s'passe as-p' Un jour sans que j'gratte sale, j'm'acharne, la mélodie m'attrape Je coupe la prod' et la castagne, un peu comme une renaissance On est tellement forts qu'on a plus besoin d'reconnaissance Moi, depuis l'adolescence, j'ai pas sympathisé Et fini l'époque du pilon où je trouvais sympa d'tiser On pètera la maille pour les briser, coup d'tête, t'es avisé Coup sec comme un uzi, si tu m'testes t'es la risée Kicker figé, briser crispé, sent les limites qu'ils veulent m'infliger Qui sait qui t'es ? J'y vais direct sans les minutes qui vont défiler Si la qualité d'MC était proportionnelle au nombre de clics Amandine du 38 serait la reine du featuring Le monde part en vrille, même les saisons sont déréglées J'serai même plus surpris qu'en été il s'mette à neiger Me contenter de c'que j'ai ? Regarde mon doigt d'honneur Y'a qu'les riches qui disent que l'argent n'fait pas l'bonheur Si j'avais les tunes d'un empereur ? Si j'avais les tunes d'un empereur ? Imagine Ici c'est pas l'Tibet, les mois sont agités Freeno Prod s'exporte et XXX comme au Wati-B Calibré, Entrée Olympique c'est l'instinct qui tue Aligné, armé comme esprit d'art et d'institut Abrité par la , plus besoin d'sampleur On compose les mélodrames, on arrive comme des empereurs Tant d'peur, tant d'pleurs, t'aide comme le prompteur Plus que rappeur, tant de vibe qu'on est chanteurs On fait notre entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Un pour les soldats, deux pour les sisters Fuck si t'es un haineux du temps qu't'insistes peu Sept-Cinq, Scrib'r, T.O.X C'est deux MCs respectables, tu peux kiffer On fait notre entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Tu penses qu'on joue jusqu'à c'qu'on fasse livré la frappe c'est clair Avant la 'sique, on s'faisait palper par la BAC sans dec' ? Si ça paye as-p', ça retourne dealer, pourquoi ? L'oseille Poto, j'ai pas sommeil, ça mène la vie de Marc Dorcel La rue t'a marqué comme une vache qui sourit Rumine ta haine et tourne autour, et hop, la vache, on t'surine Y'a des gosses qu'ont passés des étapes sales Maintenant c'est les startings blocs, avant-hier c'était les cages d'escal' Peu importe comment t'as palpé Si t'as pas balancé ni baisé tes potes au top sans casquer Respect, t'es un champion, respire Passe le tapis rouge et fait ta rentrée olympique Prend une place entre les soldats Oubli tes soucis et laisse toi guider par les sistas Couvert quoi qu'il arrive Un dollar c'est un dollar, si tu perds c'est moi qui mise Fuck les autres, ils ont pas l'sens de la mif' En vérité, y'a que la maille qui fait la diff' Poto, regarde la rentrée olympique, fuck c'que tu penses, mec Rentrée olympique On fait notre entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Un pour les soldats, deux pour les sisters Fuck si t'es un haineux du temps qu't'insistes peu Sept-Cinq, Scrib'r, T.O.X C'est deux MCs respectables, tu peux kiffer On fait notre entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Huuum, sur un bateau, ouais imagine Non, non, ou plutôt sur un yacht ou un avion ouais, ça c'est bien ça imagine Dans une soucoupe volante imagine J'suis trop loin, j'ai la fusée imagine Et la piquouse du Dr. Beriz Tu vas swinguer même sans musique Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Casino</t>
+          <t>Fiston</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Columbine - Clubbing for Columbine - 0301 Sam's - Sunday Soundcloud Première saison 0401 Artiste multiples Babali Show rap is not a game vol. 2 - 0501 La Race Canine - Héroïne - 0601 Sanka - Black shaolin - 0801 Black Kent - Morceaux d'un homme - 0801 Freeze Corleone - Vieilles merdes vol. II - 1101 75ème Session - Enter the dojo vol. 2 Diabi - 1501 Alpha Wann - Alph Lauren 2 - 1501 Rim'k - Monster tape 1801 Ninho - I.S.P.A.C 2 - 1801 Scars Volodia - Vitamine R - 2001 Alkpote Butter Bullets - Ténébreuse musique 2101 Lacraps Mani Deïz - 42 grammes - 2201 H Magnum - Gotham city 2301 Godié Swinx - N22 - 2401 Hash24 Sopico - 2075 2501 Artistes multiples - Sismogram - 2501 Euphonik - Inconnu mais reconnu 2501 Taf - Tohu bohu - 2901 Lefa - Monsieur Fall 2901 Bolo Bicrave ou rapper Février 0202 H-Tône - Fistaille made in Toylettes Vol. 1 - 0502 Fixpen Sill - Edelweiss - 0502 Kohndo - Intra-muros - 0502 KSA - VIII 0502 Manny À lhorizon 0502 Oner O 0502 Tarek FastLife Emirates money - 0502 Tortoz - Dans le carré 0702 SLONE - At the boom jazz cafe 0802 Eddy Woogy - Tout Eddy - 0802 Kekra - Free base 2 - 1002 Sango - Flowrilege 1202 Diomay Tchiki O - 1202 Perso - Gratte ciel 1202 Pink Flamingo - Escape - 1702 Peet - PEATE 1902 Bip's - Nocturne pré-régicide 1902 Cadavreski - Sensible 1902 Clem Beatz - Trouble in paradise 1902 Fadah KLM - Le billet de 5 - 1902 Kore - Pattaya Bande Originale 1902 Krom Au Mic Zone franche - 1902 Leeroy - Noir fluo - 1902 Sadek - Roulette Russe - 2102 Inspire - Millenaire II 2502 Timuxx - Super hero 2602 Bazoo - B-Tape - 2602 Brav - Error 404 2602 Dirty Zoo - La Dernière Tribu 2602 Droogz Brigade - Projet Ludovico - 2602 Jazzy Bazz - P-Town 2602 Kamnouze OSNS - 2602 Kool Shen - Sur le fil du rasoir - 2602 Nakk Mendosa - Darksun 2 2602 Numbers - Numbers - 2802 O'boy - OlySide - 2802 Romeo Elvis Le Motel - Morale 2902 Charly Kid Patee Gee - Yacht Club 2902 Vaati - Adventures Mars - 0203 Grems - Green Pisse - 0203 Grems - Freen Pisse - 0303 Biffty - Du sale et du gras Bootleg - 0403 13 Block Violence urbaine émeute 0403 Aris-K Noob saibot - 0403 Jul - My World Réédition - 0403 Lartiste - Maestro - 0403 La Fouine - Nouveau Monde - 0403 Moïse The Dude - Dudelife 0703 Cheeko Blanka - Sont Trop Cools 0803 Skreally Boy - SuperStona1 - 1103 Fababy - Ange Démon 1303 Les 13 Salopards - Own The Spot 1403 Triplego - Eau Max 1503 KSA DJ Weedim - Clochard de luxe - 1703 KT Gorique - Tentative de survie - 1803 DTF - La hass avant le bonheur - 2103 Pesoa - Supra - 2503 Falcko Conte de tess IV 2503 Hugo Délire Kyo Itachi - Grand Delirium - 2503 The Shin Sekaï - Indéfini - 2503 MOH - L'art des Mots 2703 Seven Eli Prod - Double Infini - 3103 Lorenzo - Empereur du sale 3103 Beny, Yacine 1.5, Majdon Co Yazid Z - Reality Show Avril - 0104 Jul - Album Gratuit 2016 - 0104 Ol'Kainry - Superman Noir - 0104 TLF - No Limit - 0404 Juxebox - Naga 0604 Coolax - Black Mathusalem - 0804 Bhati - Abimé 0804 Green Money CDC V 0804 Iris - Magnitude 10 Maxi - 0804 Jehkyl - CVPP Couilles Vides Poches Pleines - 0804 Jorrdee DJ Weedim - Je sais plus - 0804 Les Frères Lumières - À des années lumières - 0804 Lil Taï Z - Lil Taï Z - 0804 Neg' Marrons - Valeur Sûre - 0804 Sultan - Condamné À Régner 1004 Krisy - Parmi vous - 1504 A2H - Libre 1504 Arm TEPR - Psaumes - 1504 Doc Gynéco - Première consultation Edition 20ème Anniversaire - 1504 MHD - MHD - 1504 Artistes multiples - Booska Peufra - Vol. 2 1804 Jiddy - CKDO 2004 Fhat.R Melan - Bornes To Loose - 2204 Big Budha Cheez - L'heure des loups - 2204 Caballero JeanJass - Double Hélice - 2204 MZ - La Dictature 2404 Beeby - Le aigneur Réédition - 2704 Eech - Rosendaal Talk 2904 Artiste multiples - Néochrome présente Microbes saison 1 - 2904 Dr Bériz - 1974 - 2904 Hooss - French Riviera Vol. 2 2904 Loud Lary Ajust - Ondulé - 2904 Tiers Monde - No Future 3004 2spee Gonzales - Ah Souhait Vol. 1 Mai 0205 Brownie Dubz Gang - LE KLVN 0205 I.N.C.H. - Nappage Nocturne - 0305 3010 - Monstre - 0605 Djadja Dinaz - On s'promet - 0605 Jarod - Caméléon - 0605 Kalash Kaos 0605 Paco - Baraka Feat 0605 Rezinsky - Les Hérétiques, Tomes I II - 0605 Mani Deïz, Senamo Seyté - Trois fois rien 1005 Artistes multiples - EOW EP - 1005 Di-Meh - Shine 1205 Jones Cruipy - Rêve européen 1305 Artistes multiples - AMG Hip Hop Présente La France Sous Pression 1305 Coco Tkt Human ex thug 1305 Rochdi - L'Exorciste Cénobite 1305 Specta - Metempsycose - 2005 Alonzo - Avenue de Saint-Antoine - 2005 Dooz Kawa - Bohemian Rap Story - 2005 Ghetto Fabulous Gang - 93 La cité des parias 2005 Houssaw - Play 2005 LK de l'Hotel Moscou - Orient Heights Springbreak 2 - 2005 PSO Thug - Demoniak 2005 Ywill La Jonction - Livre d'or 2005 GLK - Murder 2305 Mani Deïz - Comme les autres - 2505 Ichon - FDP - 2605 Niro - Or Game - 2705 Aero Wonderful - Atmosphère Vol. 2 - 2705 Kekra - Vréel - 2705 Keny Arkana - État d'Urgence 2705 Artistes multiples - Néochrome - Tirs Groupés volume 2 2705 Res Turner - Ouvrez les cages - 2705 Lomepal Stwo - ODSL - 2705 SCH - Anarchie 3105 Hits Alive - Triple 6 Vol. 3 Les Enfants du Diable Juin 0306 Fadah, Kdor Metronom Les sens des maux 0306 Faf Larage Sébastien Damiani - Larage Damiani Extended Play Vol. 2 - 0306 Guizmo - GPG - 0306 Jr O Crom Doomams - Vendetta - 0306 K-LY - Samo - 0306 Lucio Bukowski Oster Lapwass - Oderunt Poetas - 0306 Niska Zifukoro - 0306 Numbers - 77 0306 Rekta - Marche ou Crève 0506 Ockney Chileas Alter ego 2 - 0606 A2H - Studio Files 2015-2016 0606 Funky Armenico Subotaï - Normalus 0606 Ockney Chilea's - Alter Ego 2 1006 Arom - Damien VS Van Helsing - 1206 Salfrom Goune, Stick Bazoo - Godphaseurs - 1306 Josman - Matrix - 1306 Grems The Imposture - P.R.A.F 1506 Jiddy - Training Tape 2 1706 Mac Kregor - Cogito Ergo Sum 1706 Myth Syzer Ikaz Boi - Cerebral EP - 1706 -Crew - Destins Liés - 1906 Panama Bende - Bende Mafia - 2206 Les Tontons Flingueurs - Le démon à 9 queues II 2206 Youno Les Chimistes - Méthylamine - 2406 Alkpote DJ Weedim - Sadisme et perversion - 2406 Bigflo Oli - La cour des grands Réédition 2406 Fizzi Pizzi - C1C2T - 2406 Hamza - Zombie Life - 2406 Jul - Émotions 2406 Zekwé Ramos - FrappMusiq 2606 SOV - Sovaire Ep - 2706 Sopico - MOJO Juillet 0107 Aladoum - Géant Noir - 0107 Les Alchimistes - Cannibales - 0107 Biffty DJ Weedim - Mega Souye Tape 0107 Kahifa - Nueva Luz - 0407 Népal - 444 Nuits - 0807 Damso - Batterie Faible - 0807 Sadek - Nique le casino 1107 Hologram Lo' - Jeep EP 1307 Fencizzle Gsnype - Kramwa'ill - 1807 Lapso Laps - Packman 2107 Les Genero - Parcours du combattant 2707 Nusky - On vit avec - 3107 Despo Rutti - Majster - 3107 Krisy - Menthe à l'eau Août - 0508 O'Trak - Gomorrap - 2608 Maître Gims - À contrecur M.C.A.R. Réédition Septembre - 0209 A2H - Summer Stories Kushtape Volume 2 - 0509 LuXe - LuXemixtape - 0909 13 Block - Ultrap - 0909 Rockin' Squat - Grand Cru Classé 2004-2016 1209 Beeby - 5 Etoiles 1209 K-LY - K-LY Co - 1509 Jul - Album gratuit 2016 Vol. 2 - 1609 PNL - Dans la légende - 1609 Wati B - La Pièce BO du film 1709 A Point Z Matière grise - 2309 Jorrdee - BJOVR IOP! - 2309 Lefa - TMCP - 2309 Volodia - Un Pied sur Terre - 2309 Jayel - Tout Est Dit - 2509 Dinos - Toujours pas Imany mais presque - 2609 Espiiem - Départ 2609 La Connaixion Jeunesse Eternelle - 2609 Tengo John - Près Qu'elle - 3009 Kery James - Mouhammad Alix 3009 LIM - Pirates - 3009 Taïro - Reggae Français Octobre 0710 Elams - Je Suis Elams - 0710 MRC - MRC - 0910 Hakim Sensei - Goldfish 1010 Gys - Vale Tudo 1010 LTA - Echographie 1310 La Prune - La Prune - 1410 Convok - Un jour plus vieux - 1410 Despo Rutti Le Front Kick De Cantona - 1410 Gros Mo - Les de Gros Mo 1410 Lefty All Hayz On Me 1410 JP Manova - 19h07 Réédition - 1410 Soprano - L'Everest 1810 Issaba - À la recherche du temps perdu 2110 Hotel Moscou - L'Opium du Peuple - 2110 Lil Taï Z - Trop Jeune - 2110 Ninho M.I.L.S Maintenant Ils Le Savent - 2110 Naza - Tout pour la street 2110 Skreally Boy - 0352 - 2110 Sneazzy - Dieu bénisse Supersound 2110 Mani Deïz, Nefaste, Ol Zico Pejmaxx Martyrs Modernes 2310 Le 77 - C'est le 77 - 2410 Hamza - New Casanova 2510 2spee Gonzales - Ah Souhait Vol. 2 - 2810 Black M - Eternel Insatisfait - 2810 Casseurs Flowters - Live Tour 2016 2810 Gérard Baste - Le Prince de la Vigne 2810 Jeff Le Nerf Red Album - 2810 Kalash Criminel - R.A.S 2810 Kdor Sales Gosses Incurable 2810 La Méthode - Adrénaline - 2810 L'Algérino - Banderas 2810 Lario Nowhere A Mi-Chemin 2810 Medouze Changer La Donne 2810 Taïpan - P.A.N - 2810 Tortoz - FullG - 3110 T.I.S - L'homme contre le monstre Novembre 0111 Karna - Inconnu mais style reconnu - 0211 Prince Waly Myth Syzer - Junior - 0411 Dosseh - Yuri - 0411 Georgio - Héra - 0411 MMZ - Tout Pour Le Gang 0611 Artistes multiples - Misère Records présente le rap indé ouvre sa gueule - 0611 Lu'cid - Ex-Nihilo 0611 PALA - Acid Rose Garden 0711 Le Bon Son Du Bon Son 3 1111 Artistes multiples - Diamantaire Jee Van Cleef présente Jukebox Vol. 1 1111 Das Raizer - Nathuram Godse - 1111 Kaaris - Okou Gnakouri 1111 Krimo Vis Ta Vie 1511 Mr Kayz - 11 de légende 1611 HIGHMAN - H.I.G.H 1811 Artistes multiples All Stars Industrie - 1811 Mister You - Le Grand Méchant You 1811 Pumpkin Vin'S da Cuero - Chimiq - 1811 Seth Gueko - Barlou 2011 Tengo John - Tortue de Jade 2111 Jorrdee - Wavers 2111 Tonino Entre Temps John-Z Zed Beatz 2111 Dorian - Horizons 2511 Anton Serra Eddy Martin - Les 400 coups - 2511 Gradur - Where is l'album de Gradur 2511 Lacraps - Les Preuves Du Temps - 2511 Lucio Bukowski Milka - Hourvari - 2511 Swift Guad Mani Deiz - Masterpiece - 2711 PLK - Dedans - 2811 Haristone - Bates Motel - 2811 High Five Crew - Silicon Valley 3011 Artistes multiples - Le Gang Des Antillais Bande Originale Du Film De Jean-Claude Barny - 3011 Kekra - FreeBase 3 3011 Sëar-lui-même - À L'arrache, Épisode II Histoires Sans Fin XX11 Néochrome - Générations 88.2 Décembre - 0212 Billy Joe - La petite maison de la tuerie 0212 Chabodo - C'est Le Cha - 0212 Jul - L'ovni - 0212 Nekfeu - Cyborg 0212 Tarek FastLife À Bon Entendeur - 0212 Shay - Jolie Garce - 0212 Shurik'N - Adamant-ium - 0412 So'Clock Negann - Fréquences 0912 Artiste multiples - Booska Pefra Vol. 3 0912 Benito Chacon Chef De Meute 0912 GrandeVille - GrandeVille Records Vol. 1 0912 Lartiste - Clandestino - 0912 Laylow - Mercy 0912 Niro - Les Autres avec Or Game en version physique 0912 Prince Fellaga - Arabesque 0912 Tekilla Le Retour du sombre héros - 0912 Tito Prince - Toti Nation II 1112 Da Nill PubArt - 1112 Luni Sacks - Souterrain Son Vol. 1 - 1212 B-Biface - Fini de pleurer 1212 Hematome Pêle-Mêle 1212 Sauveur Eloheem - Aube 1412 Toy El Mago, Swif Nebaza Rus-Vi Made In 1Dependanz 1612 Artiste multiples - Sauvages, vol. 2 1612 Fayçal - Bords perdus EP 1612 K-Rhyme Le Roi Adrénaline 1612 Melan - Vagabond De La Rime, Vol. 3 - 1812 Rowjay - Carnaval de Finesse 1912 Stick - TricératoX Vol. 2 - 2012 Beny - Pepito deviendra grand 2112 West - Overdose 2212 Seven - 2032 - 2312 Nekfeu - Black Album - 2412 Hamza - Santa Sauce 2512 Grande Instance - 12 ans d'âge 2512 Miklo - Carnal Vol. 1 2512 Sauveur Eloheem - Le Panthéon des Pensées Sombres 2912 GRTZKY - Apex 2912 Sixo Master Flow - JMNDC 3112 G Lamaonthebeat - Dans le noir EP 3112 Jason Voriz - Trap Manstrr Autres - Du 1104 au 1111 Sofiane - Jesuispasséchezso Du 1706 au XXXX Alkpote - Les Marches de l'Empereur, Saison 2 - Du 2307 au 1408 Eskro - Néant 94 Date à confirmer XXXX Treza Ulysse XXXX Minch Né Sous X16</t>
+          <t>J'sais pas si j'aurais la force de te gérer Y'a que dans mes écrits que j'tue Quand j'aurai plus rien dans les poches, comment j'ferai Y'a que dans mes écrits que j'tue J'voudrais t'élever à la dure Y'a que dans mes écrits que j'tue Même si j'viens d'la ue-r' J'te guiderai au maximum Ta mère m'a dit qu'tu mettais que des coups d'pieds C'est sûrement qu'elle s'défoule, fiston écoute bien J'fais des cascades pour un casse-dalle la nuit Rentre à la casba, faut déjà qu'j'parte taffer J'reçois un texto, ça c'est Dawala Y'a des interviews gros, y'a l'cd dans les bacs Moi j'sais rien faire d'autre, si j'ai pu m'y faire Que vendre ma vieille dope, survivant d'l'enfer Pour que tu t'installes, j'laisse parler ceux qui me disent instable En gros ceux qui m'connaissent pas Qui m'appellent re-sta depuis qu'j'suis loin des res-shta Qui m'aimaient bien que dans la merde mais chacun vit son destin N'est-ce pas, fiston Sache que la vie n'est pas faite que de piston T'as les bras long, ceux qu'on m'a amputé C'est dans le drame qu'on voit les plus gros enculés J't'assure pas, que tes diplômes te seront bénéfiques Si t'assures pas, surtout me ramène jamais les flics J'sais pas si j'aurais la force de te gérer Y'a que dans mes écrits que j'tue Quand j'aurai plus rien dans les poches, comment j'ferai Y'a que dans mes écrits que j'tue J'voudrais t'élever à la dure Y'a que dans mes écrits que j'tue Même si j'viens d'la ue-r' J'te guiderai au maximum Si j'ai cru m'y faire à ce monde de merde qui m'a traumat' Survivant d'l'enfer, le cur calciné, ça fait trop mal Si j'ai su m'y faire, comparé aux autres, j'ai moins d'stigmates Ce monde fait mal, ça t'a traumat', t'as moins d'stigmates et tu t'en tires pas mal J'suis débordé, j'sais même pas par où commencer Mais j'imagine que ça a dû être dur pour toi de m'l'annoncer J'ai du sentir la boule au ventre au bout du fil qui simmisçait Lors du soir où t'as bigo bah c'était bien c'que j'me disais Dissipé quand ça délire t'as comme un poids mais sur la tête Là faut choisir, être un bonhomme ou s'enfuir et faire le traître Faire le test de pater', t'en assurer qu't'en es l'daron Mettre les voiles dans la minute, l'abandonner comme un brigand, ok On f'ra c'qu'il faut pour qu'tu sois quelqu'un d'élégant N'imite jamais les gens qu'affrontent la BRB c'est qu'des légendes N'oublie jamais qu'on s'f'ra du mouron si t'as pas fait comme les grands J'vois d'jà ta mère faire des duhas, s'exciter dans tous les sens T'auras beau ram'ner les shtars mais j'te dirai jamais décampe Tout c'que j'veux c'est t'voir marcher sur les sentiers du Tout Puissant J'traînerai dehors jusqu'à l'aube mais tiens pas compte de mes absences J'connais la street, mon fils ne s'ra pas un délinquant J'sais pas si j'aurais la force de te gérer Y'a que dans mes écrits que j'tue Quand j'aurai plus rien dans les poches, comment j'ferai Y'a que dans mes écrits que j'tue J'voudrais t'élever à la dure Y'a que dans mes écrits que j'tue Même si j'viens d'la ue-r' J'te guiderai au maximum Connu ta mère en galère, pas grand chose sous le palet Le gabarit d'un balais, j'touchais même pas d'salaire Pâtes salées, en pleine chaleur J'rêvais d'vacances ne serait-c'qu'au Pas-d'Calais Son sage-vi m'a giflé Obligé d'm'impliquer M'appliquer, la fliquer Tout filtrer, mon côté africain M'a quer-ni jusque dans l'affectif Effectivement Entre les meufs qui t'mentent Une éducation où l'affectif manque Là j'étais obligé Elle avait trop de swag, une certaine timidité Les mecs c'est ça que j'aime, faut seulement la mériter Imagine-toi juste une frappe qui te dit la vérité J'sais pas si j'aurais la force de te gérer Y'a que dans mes écrits que j'tue Quand j'aurai plus rien dans les poches, comment j'ferai Y'a que dans mes écrits que j'tue J'voudrais t'élever à la dure Y'a que dans mes écrits que j'tue Même si j'viens d'la ue-r' J'te guiderai au maximum ...1</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Celui qui dit</t>
+          <t>GI Joe</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Bla bla bla, cest toujours la même chose avec toi Tu regardes de gauche à droite tu nchanges pas Tes jamais sûr de toi, jamais sûr de toi Tu nes jamais sûr de toi Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Tu nas peut-être pas dquoi te vanter Pas dquoi te vanter Jsuis désolé, tu vas louper, louper, louper Je me demande comment je vais te shooter Depuis le départ tu nfais que loucher Tu nvends que du rêve tu nes jamais clair Les gens qui te suivent sont dans la merde Ici tout lmonde te connaît, ça ne marchera jamais Imposteur, baratineur, menteur, jamais dhumeur à XXX Imposteur, baratineur, menteur, jamais Bla bla bla, cest toujours la même chose avec toi Tu regardes de gauche à droite tu nchanges pas Tes jamais sûr de toi, jamais sûr de toi Tu nes jamais sûr de toi Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Tas bavé sur mon dos toi tes pas fiable Jte faisais confiance jusquà présent Mais jai remarqué que tout comme eux Tétais rempli de blablas Toujours à jacter dans les parages Fais gaffe à cqui va tarriver Car un jour tout se sait Et tu le sais, donc reste sincère Ou un beau jour se stoppera notre amitié Tu sors tard la night et tu blablabates Sur ldos de tout lmonde cest dla folie Pour casser du sucre paraît quil ny a pas dâge Tu tes retrouvé dans la merde par le on-dit Allez va, fais ta vie, bats les pattes Après tout cest chacun sa vie, Dieu pour tous Efface mon num et ne mappelle pas Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Bla bla bla, cest toujours la même chose avec toi Tu regardes de gauche à droite tu nchanges pas Tes jamais sûr de toi, jamais sûr de toi Tu nes jamais sûr de toi Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Cest celui qui dit qui lest Il veut être moi, elle veut être à moi Et moi jvoudrais être à laffiche dans lRER du mois Il veut être moi, elle veut être à moi Et moi être à laffiche dans lRER du mois Du mois, du mois Cest celui qui dit qui lest Cest celui qui dit qui lest2</t>
+          <t>The 8-Bit Luchador Player Uno The 8th Wonder of the World Andre the Giant The 9th Wonder of the World Chyna A-List David Otunga Above Average Mike Sanders The Ace in the Hole Sonny Siaki Ace of Hearts Shane Valentine Addicted to Love Rhett Titus The AK-47 Allysin Kay The Alaskan Assassin Ice The All-American Ron Simmons, Doug Basham, Jeff Peterson, Steve Rivers The All-American American Jack Swagger The All-American Boy Bob Backlund The Alpha Male Monty Brown Alushe the one made of felt, The Mayan Goblin Alushe The Ambling Alp Primo Carnera America's Hardcore Icon G.I. Ho America's Hero Sgt. Slaughter America's Sweetheart Babe the Farmer's Daughter American Angel, the Queen of Wrestling, the Death Rey Sara Del Rey American Dragon Bryan Danielson The American Dream, the Bull of the Woods, Stardust Dusty Rhodes The American Hero Johnny Magnum The American Wolf Davey Richards The Anarchist Arik Cannon, Doug Williams, Ian Daniels The Angel of Death Angie Skye The Angry Amish Warrior Roadkill The Animal George Steele, Batista The Anomaly Niles Young The Anvil Jim Neidhart The Architect Seth Rollins Argentina Antonino Rocca The Army Tank with a Ferrari Engine Husky Harris The Asian Nightmare Kwan Chang The Assassin Aric Dylan The Axe Larry Hennig B-Gizzle, The Trailer Park Gangsta B.G. James Bad Attitude Brian Beech The Bad Guy Razor Ramon Bad S Sharon Palty The Bad Seed Shawn Osbourne The Baddest Woman on the Planet, Bonesaw Jessie Brooks The Ballsy Badass Shotzi Blackheart Bamm-Bamm Terry Gordy The Barbaric Berzerker, the Zombie Princess Jimmy Jacobs The Barber Brutus Beefcake Barn Owl Gary Jay The Bashing Bulgarian, the Bulgarian Brute, the Super-Athlete, the Russian Gladiator Alexander Rusev The Bashman Doug Basham The Basket Case, the Reflection of Perfection Mark Jindrak The Beast Dan Severn, Bob Sapp The Beast from the East Bam Bam Bigelow, Shak Khan The Beastmaster Rick Link, Francine The Belfast Bruiser Dave Fit Finlay Best-Dressed Man Jason Harris The Big, Blue Bruiser of the Colony assailANTWorker Ant II The Big Cat Ernie Ladd, Curtis Hughes Big City Sebastian Reese Big Daddy Shirley Crabtree Big Daddy Cool Diesel The Big Daddy of Destruction J-Rocc Big Game Smith James Big Hungry Ryback The Big Kahuna Sir Oliver Humperdink Big Lalo Osama Rodriguez Alejandro Big League Byron Saxton Big Magic Shane Matthews Big Money Hank James Big Nasty Angelo Mosca The Big Red Machine, the Devil's Favorite Demon Kane The Big Shot, The Superheavyweight, The Alabama Slamma Hardcore Holly Big Thunder Gene Kiniski Big Time Nick Mitchell Big V Vern Henderson The Big Valbowski Val Venis Big Vis, The World's Largest Love Machine Viscera The Billion-Dollar Princess Stephanie McMahon The Bird Man Koko B. Ware The Birdman Hieracon The Bitchboy Annihilator The Juggulator The Bizarre One, the Prince of Perversion Goldust The Black and White Express NWO Black Magic Norman Smiley The Black Nature Boy Scoot Andrews Black Prince Minoru Tanaka The Black Redneck Kliff Hanger The Blasian Barbie Mia Yim The Blonde Bomber Ray Stevens, Art Crews The Blonde Bombshell Jade- not the Jade from WOW The Blueprint Matt Morgan The Body Chris Tolos, Jesse Ventura, Scotty Braddock, Brent Albright The Bombshell Macaela Mercedes The Bonebreaker Homemaker Sherri Lee The Boogie-Woogie Man Jimmy Valiant The Boricua Badass Tasha Steelz The Boss Andre the Giant, Spike Dudley The Boston Bad Boy Tony Rumble, Jason Rumble The Boston Battler, the Prince of Darkness, the Gamesmaster, the Taskmaster Kevin Sullivan The Boy Wonder Shane McMahon The Brain Eddie Creatchman, Bobby Heenan Brainwashed Davey Vega The Brandon Bull, Mr. Wonderful Paul Orndorff The Brawler from the Bayou Cajun Crawdad The Brazilian Beast Kafu The British Babe Steve Lewington British Storm Ian Harrison The Broadstreet Bully Tony Stetson The Brothers of Destruction The Undertaker and Kane Brown Chivalry Tadasuke Buff Daddy Buff Bagwell The Buffalo Bad Boy Brian Jennings The Bull Curtis Iaukea, Ed Gantner Bulldog Don Kent, Bob Brown, Harry Smith Bulldozer, Killdozer Brian Lee The Bullet Bob Armstrong Bullet Babe Amber Gallows The Butcher Paul Vachon, Larry Cameron The California Hippie Mike Boyette The California Kid Tommy Jammer The California Stud Rod Price, Ken Ericson The Calypso Kid Lenny Hurst, Dory Dixon The Cambodian Ax Murderer Joker Canada's Greatest Athlete Gene Kiniski, Iron Mike Sharpe Canada's Strongest Man Dino Bravo The Canadian Crime Spree Spyder The Canadian Destroyer, Maple Leaf Muscle, Little Petey Pump, The Definition of Definition Petey Williams Canadian Dynamite Josh Daniels, Max Boyer The Canadian Enforcer, the It Factor Bobby Roode The Canadian Freight Train Jos LeDuc The Canadian Rage, Captain Charisma, the Instant Classic Christian Cage The Canadian Tiger Mike Lozansky Canadian Wildcat Vic Rain The Cape Town Werewolf Justin Gabriel Captain HUSTLE Naoya Ogawa Captain Redneck Dick Murdoch The Caribbean Legend Savio Vega The Cat Ernest Miller Caveman Tyler Elkins The Centerfold Matthew Palmer The Chairman La Parka The Chairman of the Board King Curtis Iaukea The Charismatic Enigma, the Rainbow-Haired Warrior, the Extreme Enigma, the anti-Christ of Professional Wrestling Jeff Hardy The Chosen One Jeff Jarrett, Drew McIntyre Choujuu super beast Bruiser Brody. This was his nickname in Japan. Classic, Boom Boom Colt Cabana The Classic Superstar Spiro The Claw Claudia Reiff The Clawmaster Baron Von Raschke The Clockwork Angel Katred The Coach Jonathan Coachman The Cold Hearted Playa Danny Demanto The Colossus of Boggo Road Nathan Jones Confederate Currency Chris Hamrick Copetes, El Rey Moro Moor King Rene Guajardo The Cornfed Colossus Festus The Cornfed Meathead Skip Sheffield The Count of California The Black Pearl Coventry's Loudest Jetta Cowboy Bob Orton Sr., Bob Orton Jr., Bill Watts, Bob Ellis, Scott Casey, Ron Bass, Jack Lanza The Creation of Devastation Adam Bomb The Crippler Ray Stevens, Rip Oliver, Chris Benoit The Croatian Panther Wesna Busic The Crown Prince of Camden Desean Pratt The Cruncher Larry Zbyszko The Crusher Stan Stasiak, Jerry Blackwell The Cuban Sandwich Pepe Prado Cutie Pie, Madonna's Boyfriend Louie Spicolli DA MAN Goldberg The Dancing Sensation Ace Vicious Dangan Bullet Masato Tanaka Danger Man Shoji Nakamaki Dangerous Dan Spivey, Doug Gilbert, Devon Storm,Dawn Marie Dangerous K, HUSTLE K Toshiaki Kawada Dangerous Queen Akira Hokuto The Daredevil of Extreme Tack Dark Angel Sarah Stock Dark Prince, Black Hulk Osirus Das Wunderkind Alex Wright Dashing Cody Rhodes The Dastardly One, The Danaconda Danny Doring Deadly Angel Angel Mortal The Deadly Demonic Warmonger Obariyon The Dean of Professional Wrestling Announcers Gordon Solie Death Match Jesus Necro Butcher The Definition of Technician Cindy Rogers The Delinquent Damian Michaels The Demon of the Deep Leviathan Der Heldenvater the Hero Father Herbert Audersch Der Würger aus den Anden the Stork of the Andes Indio Guajaro The Deranged One Mankind The Devil's Reject Brandon Webb The Devious One Mr. Fuji Diamond Timothy Flowers Die Hard Eddie Edwards Lola Dinamita Dynamite, Lola La Grande Lola The Great Lola Gonzalez The Dirtiest Player in the Game Ric Flair Dirty T.X. Tex Monroe The Dirty White Boy Tony Anthony The Dirty White Girl Kimberly The Diva Kelly Tabor, Crystal Carmichael Do It To It Steve Cox Dr. D David Schultz Dr. Death Steve Williams The Dr. of Desire Tom Prichard The Doctor of Style Slick The Doctor of Thugenomics John Cena The Dogfaced Gremlin Rick Steiner The Dominant Male, the Sicilian Psychopath Tommaso Ciampa Dominican Dynamite Marti Belle Double A Arn Anderson Double C, the Most Money Making Man, the Stalwart Swiss Powerhouse, Very European Claudio Castagnoli The Dragon Ricky Steamboat The Dream Machine Troy Graham The Duchess of Dudleyville Stacy Keibler The Duke of Dorchester Pete Doherty The Dumpster Duke Droese East Coast Intensity Jose Perez The Eater of Worlds, the Man of 1000 Truths Bray Wyatt The Ebony Hercules Honeyboy Zimba The Ecuadorian Aristocrat Juan Francisco de Coronado The Edge Chris Evans El 1000 Guapo Handsome, El Rudo del Milenio The Rudo of the Millennium, El Hombre Electrico The Electric Man Shocker El Abogado del Diablo The Devil's advocate ArkangelArkangel de la Muerte El Amo de los Ocho Angulos The Master of the Eight Angles Octagon El Amo del Escandalo The King of Scandals Sangre Chicana El Artemarcialista The Martial Artist Kung Fu El Ave de las Tempestades Storm Bird Gory Guerrero, Gran Markus Sr. El Black Black Warrior El Bocazas The Big Mouthed One, Pierroth Le Fou Pierroth Jr. El Bufalo the Buffalo Violencia El Caballero del Estilo Diferente The Gentleman with a different style, El Hombre Elastico The Elastic Man Mr. Niebla El Can de Nochistlan The Dog from Nochistlan Perro Aguayo El Capo de Capos The Boss of Bosses Cien Caras El Charro The Horseman Charro Aguayo El Che as in Che Guevara, The Colossal Man Coloso Colosetti El Chino The Chinese One El Gladiador El Consentido de las Damas The pampered one by the ladies Tarzan Boy El Dado de Oro Super Astro El Duende que Camina The Ghost Who Walks Fantasma El Elefante Volador The Flying Elephant Tamba El Enmascarado de Oro The Man of the Golden Mask, El Soli El Solitario El Enmascarado de Plata The man of the silver mask El Santo, El Hijo del Santo El Escandalo del Topochico The Scandal from Topochico El Sanguinario El Fabuloso The Fabulous One, El Efectivo The Effective One Silver King El Galeno del Mal The Evil Doctor Dr. Wagner Sr., Dr. Wagner Jr. El General The General Rambo El Geniecillo Azul The Little Blue Genius Lizmark El Gigante de la Laguna Lagunero Giant Gran Markus Sr. El Gigante de Ebano The Ebony Giant, Black Bullet Dory Dixon El Gigante Sabio The Wise Giant, El Capitan Aventuras Captain Adventure Tinieblas El Guapo The Handsome One Bestia Salvaje, Scorpio Jr. El Guerrero Cartaginas The Carthaginian Warrior, La Saeta Azul The Blue Arrow, La Furia Azul The Blue Fury, El Principe de Seda The Silk Prince Anibal El Guerrero del Averno Warrior from Hell Shu El Guerrero El Hercules Poblano The Hercules from Puebla Mr. Mexico El Heredero de la Leyenda de Plata The heir of the silver legend El Hijo del Santo El Hijo de la Leyenda Azul The son of the Blue Legend Blue Demon Jr. El Hijo del Gigante Sabio The son of the wise giant Tinieblas Jr. El Hombre del Guante Negro The man in the black glove Mano Negra El Hombre de la jugada mortal The man with the deadly movement Jacque Mate El Hombre Pez The Fish Man, El Latigo Lagunero The Lagunero Whip Fishman El Hombre Verde The Green Man Espectro I El idolo del bombeo de hierro The pumping iron idol Cibernetico El Idolo de los ninos The Idol of the Kids, El Principe de la Atlantida The Prince of Atlantis Atlantis El Indio de Mezcala de la Asuncion The Indian from Mezcala de la Asuncion Ringo Mendoza El Lider The Leader Fuerza Guerrera El Luchador de la Elegancia The Fighter of the Elegance Ares El luchador mas rapido The fastest luchador, El Gato Volador The Flying Cat, Felino Centella spark Felino El Maestro Lagunero The Lagunero Master Blue Panther El Manotas The man with the big hands, El Profe Manotas, El Demonio Azul The Blue Demon Blue Demon Sr. El Mejor Luchador del Mundo The best wrestler in the world Pirata Morgan El Metalico The Metallic One Oro El Millonario de Tijuana Tijuana's Million Dollar Man Nicho El Millonario El Mister Nuevo Leon Latin Lover El Monarca The Monarch, El Tijeras de Oro Golden Scissors Javier Cruz El Munecazo The Big Baby Doll Hugo Savinovich El Numero Uno The Number 1 Satanico El Orgillo de Oriente Orient's Pride Sugi Sito El Presidente Osama Alejandro Rodriguez , Pinkie Sanchez El Principe de Plata y Oro The Prince of Silver and Gold Mistico El Principe Maya The Mayan Prince, El Gigante de Tabasco The Giant from Tabasco El Canek El Principe Negro Black Prince, El Hombre de Goma The man made out of rubberThe Elastic man Black Shadow El Profe Blue Demon Sr., El Santo El Profesor Rolando Vera El Ranchero The Rancher Angel Blanco El Rey Arturo King Arthur Villano III El Rey del Aire The King of Air Antifaz del Norte El Rey del Beautiful The King of Beautiful Emilio Charles Jr. El Rey del Derechazo The king of the right hand punch Firpo Segura El Rey del Martinete The King of the Martinete Abismo Negro El Rey Feo The ugly king, The World's Ugliest Man in Texas Scorpio El Rudo de los Ojos Esmeralda The rudo with the emerald eyes El Faraon El rudo de los ojos verdes The green-eyed rudo El Dandy El Senor de los Enigmas Lord Enigma, El Rey del Tenedor The King of the fork Misterioso El Terror de Jalisco Jalisco's Terror Bestia Salvaje El Tigre Blanco The White Tiger Mascara Sagrada original El Tigre Enmascarado The Masked Tiger Tiger Mask- original El Trailer Asesino The Killer Truck Gran Markus Jr. El Two Faces Dos Caras El Volador Jarocho The High Flyer from Veracruz Ricky Marvin Elegant Assassin Pierre Abernathy The Energetic Insectoid Grappler Fire Ant The Enforcer Arn Anderson, C.W. Anderson Everybody's Favorite Girlfriend Jessie McKay Everybody's Favorite Homeboy Chilly Willy Evil Zombie Fresh From the Grave Ichabod Slayne The Excellence of Execution, the Best There Is the Best There Was the Best There Ever Will Be Bret Hart The Excellence of Innovation, the Dolphin Master, the Intrepid Traveler Paul London The Exotic Goddess Mandy Leon The Extreme Commissioner Tod Gordon The Extreme Giant The Big Show The Extreme Strongman Gino Martino The Extreme Stud, The Sicilian Shooter Little Guido Maritato The Fabulous Firebird Phoenix The Fabulous One Jackie Fargo The Face of Terror Meng The Fallen Angel, Mr. TNA Christopher Daniels The Father of Destruction Paul Bearer Fear Factor P.J. Friedman The Female Fight Machine Jenny Sjodin The Female Fighting Phenom Jazz The Female Phenom, the New York Knockout Trinity The Female Wrestling Machine Nikita Fink The Fink Howard Finkel The First Lady of Hardcore, Super Hardcore Anime, The Wounded Owl Ronin Lufisto The First Lady of Wrestling Elizabeth The Fish Gilles Poisson Flash, Flapjack Scott Norton The Flatliner Chris Manns Flippin' Sweet Brett Gakiya Fonzie, The Man Who Calls It Right Down the Middle Bill Alfonso The Force from the North Vigo Foxy Lady, The Experience Lexie Fyfe The Franchise Shane Douglas The Freak Rob Terry The Free Spirit Rick Titan Freight Train Rufus R. Jones The French Paradox Pierre Marceau The French Phenom Rene Dupree A Frenetic Ball of Kinetic Energy, the Spear of Nazmaldun Frightmare Freshly Squeezed Orange Cassidy The Friendly Shark Jawsolyn The Funkasaurus Brodus Clay The Funker Terry Funk The Funky Pharaoh, the Madjai of the Dieties Amasis Fuun Noboriryu Sky-Rising Dragon, Mr. Puroresu, Monster General Genichiro Tenryu The Future Frankie Kazarian, Joey Matthews, Chris Sabin, Deuce Shade, Seth Rollins The Future Legend Cheerleader Melissa The Future of Flight Ricochet The Galaxy's Greatest Alien Kris Statlander The Gallowsman Soloman Longfire The Game, the Cerebral Assassin, the Sadistic Son-In-Law HHH The Gangster of Love Sweet Stan Lane Gato cat Ari Romero The Gecko-Roman Wrestler Argus The Geek Goddess, the Black Widow AJ Lee The Gem City Queen Neveah The Generator, Young and Handsome Race Jaxon The Generic Luchador El Generico Genesis, The Savior Yako Romero Gentleman Chris Adams, Jervis Cottonbelly The Georgia Greyhound Jerry Oates The German Beef Otto Schwanz The Giant Paul Lauria The Giant-Killer Little Spike Dudley, Tom Dub, Mike Mondo The Gigolo Jimmy Del Ray Girl Dynamite Jennifer Blake The Gladiator Mike Awesome The Glamazon Beth Phoenix Go Time Chris LaPlante G-d of Pro Wrestling Karl Gotch. Nickname in Japan The Goddess Chikako Shiratori The Godfather Theodore R. Long The Godfather of Extreme Damien Kane The Gold Standard Shelton Benjamin The Golden Boy Arnold Skaaland, Adrian Adonis, Jerry Grey, Chic Donovan, Ted Oates, Dan Spivey The Golden Girl Corinne Mink The Golden Greek Jim Londos, John Tolos The Golden-Haired Fox Sunny The Golden Star Kota Ibushi The Golden Warrior Kevin Von Erich Good Ol' JR Jim Ross Goth Rock Monster Blind Rage The Great and Devious One, the Angry Insect Evildoer, Part Insect Part Superhero UltraMantis Black The Greek Goddess Alexia The Green Goddess Tori The Grim Reaper, the Man from the Dark Side, the Pale Destroyer, the Lord of Darkness, the American Badass, the Deadman, the Red Devil, Big Evil, the Demon of Death Valley, the Last Outlaw The Undertaker The Grittiest Girl in the Game Molly McCoy The Guiding Light Captain Lou Albano Gusano Worm, Gusano de Seda Silkworm Javier Llanes Hacksaw Butch Reed, Jim Duggan, Brett Sawyer The Haitian Sensation Tyree Pride The Hammer Frank Goodish , Greg Valentine, Beverly Slade, Mark Coleman Handsome Johnny Barend, Harley Race, Johnny Valentine, Jimmy Valiant, Dallas Page, Heath Slater, Johnny Bradford The Handsome Half-Breed Gino Hernandez Hard Rock Paul Diamond, Ricky Reeves The Hardcore Chair-Swinging Freaks Balls Mahoney and Axl Rotten The Hardcore Daredevil Kay Lee Ray The Hardcore Giant Ron Niemi The Hardcore Icon The Sandman Hardcore Jesus Anthony Stone The Hardcore Legend Mick Foley, Terry Funk The Hardcore Monster Kubiak The Hardcore Queen Dash Chisako Hardwork Bobby Walker The Hawaiian Hellraiser, the Hawaiian Tornado, Mr. H50 Taiyo Kea The Head Cheerleader, the Queen of Extreme Francine The Heartbreak KidHBK, the Show Stopper, Mr. WrestleMania Shawn Michaels Heartcore Shazza McKenzie Heavy Metal Van Hammer, Ric Savage The Heavy Metal Maniac Riot The Heavyweight Horror Crossbones Hebrew Hammer Joseph Schwartz The Hebrew Hercules Abe Coleman Hell's Favorite Harlot Priscilla Kelly The Hellion of the Dark Army, the Bled Island Butcher Kodama The Helsinki Hellraiser Ludwig Borga The Heretic Red Vinny High Flying Optical Illusion Rorschach High IQ Quinten Lee Hinotama Kozou Fireball Kid Michiaki Yoshimura The Hip Hop Hippo Albert The Hippest Cat in the Land Dude Love The Hitman Bret Hart, Doug Gilbert, Tony Stetson, Michael Bruno Hollywood John Tatum, Bob Holly, Hulk Hogan The Homicidal Suicidal Genocidal Death-Defying Maniac Sabu Honoo no Hiryu Dragon of the Flame Tatsumi Fujinami The Horny Little She-Devil Terri Runnels Hot Chocolate Kory Williams, Kris Krude, Sugar Dunkerton The Hot Property Shane Matthews, Fire Ant Hot Scoop Skylar Hot Stuff Eddie Gilbert Hotrod, the Rowdy Scot Rowdy Roddy Piper Hott Chocolate Acid Jaz Hott Stuff Paul Hudson The Houdini of Hardcore Crash Holly The Hounds of Justice The Shield The Hulkster, the Immortal One Hulk Hogan The Human Highlight Reel Sabu, Rey Misterio Jr., Cody Jones The Human Massacre Keith Walker The Human Orchid, the Toast of the Coast, the Sensation of the Nation Gorgeous George The Human Rulebook Chandler McClure The Human Skyscraper Tower The Human Suplex Machine, the Path of Rage, the Orange and Black Attack, the One Man Human Crime Spree Taz The Human Wrecking Machine Zeus Hurricane Hank James, Scott Hudson , John Walters Hustle Prince Wataru Sakata Hustler Rip Rogers The Hybrid Diva Kaitlyn The Iceman Buck Quartermaine, Dean Malenko The Icon Dutch Mantel, Shawn Michaels, Sting The Ideal Reflection Christopher Ryseck The Idol Aaron Stevens Inazuma Senshi Lightning Warrior Kengo Kimura The Innovator of Offense Kanyon, Nova The Innovator of Violence Tommy Dreamer The Insane Luchador Super Crazy The Intellectual Savior of the Unwashed Masses Damien Sandow The Interdimensional Demon Lloyd Cthulowitz The Intergalactic Luchadora Saturyne The Internet Icon Petey Staniforth The Irish Lass Kicker Becky Lynch The Irish Lionheart CJ O'Doyle Iron Man Gran Hamada Ironhead Kazuyuki Fujita Ironman Tommy Cairo, Rob Conway The Italian Eagle Marco Corleone The Italian Monster Tony Mamaluke The Italian Superman Bruno Sammartino Jagged Scott Parker Jam Jimmy Garvin The Jamaican Jammer Bobby Wales Jammin' Mitch Snow The Japanese Buzzsaw Yoshihiro Tajiri Jefe Indio Dedos Chuecos Indian Chief Twisted Fingers Rey Mendoza The Jezebel Eden Black The Joeverine Joey Knight Juan El Hermoso Juan, The Beautiful One El Brazo The Juice Juventud Guerrera, JT Dunn K-Dog Konnan Kakumei Senshi revolution warrior Riki Choshu Kamen Kizoku Masked Noble Mil Mascaras Kanaami no Oni Monster of Steel Cage Rusher Kimura The Kansas Cowboy Art Crews The Kentucky Gentleman, Raccoon City's Favorite Son, Sexy Chucky T, Smooth Chucky T Chuck Taylor The Killer Bae Heather Monroe The King Jerry Lawler, Harley Race, Kenny Bolin King Kong Bruiser Brody, Angelo Mosca, Abe Kashey, Malcolm Kirk The King of Chaos Ali Muhammad The King of Destruction Shinya Hashimoto The King of Diamonds, the War King Eddie Kingston The King of Old School Steve Corino The King of the Green Mountain Maxx Burton The Korean Monster Ryze Kryptonite Jeremy Crony La Bestia del ApocalipsisThe Apocalypse Beast Damian 666 La Bruja The Witch Miss Janeth , Rossy Moreno La Calabacita The Little Pumpkin Halloween La Diva de Juarez Casssandro La Esencia de la Exelencia The Essence of Excellence, the Mexican Aristocrat Alberto Del Rio La Machine Cecil Dubois La Pantera Rosa The Pink Panther Villano I, Villano III, Villano IV, Villano V Lady Destroyer Hiroyo Matsumoto Lady Excellence, the Virtuosa Deonna Purrazzo The Lariat, the Bad Man from Borger, Fuchinkan unsunk battleship Stan Hansen The Last of a Dying Breed Eddie Kingston, Bull Dempsey The Last Pure Athlete, Thicc Mama Pump Jordynne Grace The Last Real Man Silas Young The Latin Heartthrob Al Perez The Latin Hellcat Lita Marez The Latina Sensation Mercedes Martinez The Latina Super Woman Caliente Latino Heat Eddie Guerrero The Laughing Man Hugh Morrus Le Justice Michel Dubois The Legacy Blare Rogers The Legend-Killer, the Viper, the WWE's Apex Predator Randy Orton The Lethal One, Black Machismo Jay Lethal The Lethal Weapon Steve Blackman Lightning Cheryl Rusa, Mike Quackenbush, Tim Lutz Lightning Foot Jerry Flynn Limitless Keith Lee Lionheart, Your Hero, Role Model and Paragon of Virtue, The Ayatollah of Rock and Rolla, The Man of 1004 Holds, the King of the Loopholes, Y2J, the Larger-Than-Life Living Legend, the King of the World, the Highlight of the Night, the King of Bling-Bling, the Sexy Beast Chris Jericho The Living Legend Bruno Sammartino, Larry Zbyszko, Larry Winters Lone Eagle, Rey Aguila Aguila Solitaria The Lone Wolf Barry Windham, Davey Richards Lonestar Dustin Rhodes The Long Island Loudmouth, Long Island Iced-Z Zack Ryder The Loose Cannon Brian Pillman, Teddy Hart The Lost Girl Samantha Heights The Louisville Slugger, The Louisville Lip James E. Cornette Los Sustos The Scares, Los Tinacos Los Hermanos Espanto The Love Machine Art Barr Loverboy Dennis Condrey Lunatic Fringe Dean Ambrose The Mack Daddies of Violence The Public Enemy The Macho Man Goldie Rogers, Randy Savage Mad Dog Maurice Vachon, Buzz Sawyer, Marcial Bovee, Pierre Lefebvre, DC Drake, Mike Bell The Mad Dogs of War The Pitbulls The Mad Russian Alexis Smirnoff The Mad Scientist of Professional Wrestling Paul Heyman Made in the USA Mike Jones , Lex Luger The Madman from the Badlands Glenn Osbourne The Madman from the Sudan, Kuroi Jujutsushi black wizard Abdullah the Butcher The Mag Daddy Brutus Magnus Magnificent, The Rock Don Muraco The Main Attraction Adam Action The Main Event, Custom Chucky P Chuck Palumbo The Main Man Tracy Smothers The Man Stan Stasiak, Ric Flair, Becky Lynch The Man-Bear Sylvester Terkay The Man Monster Hydra The Man of 1000 Holds Earl Caddock, Frank Sexton, Johnny Saint, Al Costello, Red Bastien, Les Thornton, Dean Malenko The Man That Gravity Forgot PAC The Man Who Loves to Steal the Show Flash Flanagan The Manager of Champions The Grand Wizard, Neil Sharkey, Bill Alfonso Maniac Mark Lewin, Mike Davis, Matt Borne The Manliest Man Biff Busick Marvelous Marc Mero The Master and the Ruler of the World, the Millenium Man Sid Vicious The Master of a Thousand Holds Mike Quackenbush The Master of Darkness, The Snakemaster Abudadein- Note This guy is NOT the son of King Curtis Iaukea. He is at times confused with King Curtis's real son Rocky Iaukea, who held titles in the Pacific Northwest territory and in Puerto Rico as Abudda Dein. Mike Prince Iaukea Haynor is also not King Curtis's son. The Masterpiece Chris Masters The Mastodon Vader The Mat-Wrestling Machine Tim Donst Mean Streak Mike Dempsey The Menace from East L.A, East L.A. Player Lemus II The Messiah of the Backbreaker Roderick Strong The Messiah of the Spinebuster David Young The Mexican Spitfire Rita Cortez The Mexican Superman, SuperMex Hernandez The Mexican Warrior Chavo Guerrero Jr. The Miami Pound Machine, The Turncoat, The Rod Damn Champ Rod Steele The Middle Eastern Nightmare Sheik Abdul Bashir Mighty Mighty Monster Monster Medieval Medieval Dragon Dragon The Milan Miracle Santino Marella The Militant Mat Mite Soldier Ant The Milkman Jake Milliman The Million Dollar Man Ted DiBiase The Mind Jesse Ventura Mississippi Queen Christie Ricci The Missouri Tiger Jeff Gaylord Mr. 1 Scott Zenzen Mr. 1.9 Michael Tarver Mr. 200 Yoji Anjo Mr. 630 Jerrelle Clark Mr. 6033 Angelo Poffo Mr. Action Replay Nick Jackson Mr. America Gene Stanlee Mr. Ass, the One Billy Gunn Mr. Charisma, No Gimmick Needed, Hard Knox Chris Candido Mr. Chippendale, Mr. Fantasy Tom Brandi Mr. Class A-1 Mr. Danger Mitsuhiro Matsunaga Mr. Ebony Tom Jones Mr. Electricity Steve Regal , Herb Abrams Mr. Hardcore Kintaro Kanemura, Rico Suave, Erik Crow Mr. Insanity Toby Klein Mr. Irresistible Sweet Daddy Siki Mr. Israeli Pro Wrestling Gery Roif Mr. M-80 Marshe Rockett Mr. Magnificent Kevin Kelly Mr. Majestic Flex Lavender Mr. Monday Night, The Whole F'N Show, Mr. PPV, Mr. TNN, Mr. Thursday Night Rob Van Dam Mr. Money Randy Price Mr. No Days Off Darren Young Mr. Perfect Jerry Stubbs, Curt Hennig Mr. Piledriver Bruiser Bob Sweetan Mr. Raytings Ray Gonzalez Mr. Romeo, Dirty Deeds Darren Wyse Mr. SmackDown! John Bradshaw Layfield Mr. Smooth Johnny Kidd Mr. Torture Mr. Saito Mr. Touchdown, the Interception of Perfection, the Ultimate Athlete Mark Angelosetti Mr. TV Jackie Pallo Mr. USA Tony Atlas Mr. Universe Earl Maynard Mr. Unpredictable, Mr. Excitement, the Rebel Dick Slater Mr. Wrestling Vince Torelli , Jeff Roth, Nick Dinsmore , Kevin Steen Ms. Baka Gaijin Crazy Mary Dobson The Mistress of Destruction, the Ravishing Russian Lana The Mistress of Mayhem, the Queen of the Night Misery De Sade Moalm The Man of All Living Men Joey Tylec The Model Rick Martel The Modern Day Icon, the 420 Pimp Barry Ace The Modern Day Miracle Steve Madison The Modern Day Warrior, Tora no Tsume nails of tiger, the Texas Tornado Kerry Von Erich Moeru Toukon Fighting Spirit That Burns Antonio Inoki Mongo Steve McMichael The Monster Meng, Abyss, Kevin Randleman Monster K Toshiaki Kawada, Kohei Sato The Mormon Giant Don Leo Jonathan The Moscow Mauler Vladimir Kozlov The Most Professional Tag Team in Wrestling, the Sultans of Smirk 3.0 The Mountain Vanessa Kraven The Mountain from Stone Mountain Jerry The Crusher Blackwell Mourningstar Marcus Hall The Mouth of the South Jimmy Hart The Murky Murderous Menace of the Deep Merlok The Murderous Monk J. Miller The Mysterious Mythological Warrior from Afar Gran Akuma Namida no Karisuma Charisma of Tears Atsushi Onita The Narcissist Lex Luger The National Treasure Nick Aldis The Natural Butch Reed, Dustin Rhodes, Bobby Roode, Nick Nemeth , Nathan Crown The Natural One Mike Modest The Nature Boy Buddy Rogers, JJ Dillon, Ric Flair, Buddy Landel, Roger Kirby New Attitude Jamie Howard The New Era Kriptic Keegan The New Era Icon Jon Moxley The New F'N Show Jerry Lynn The New Faces of Fear The Wyatt Family The New Genesis Christopher Arkadian The New Horror Sami Callihan New Superstar, the Vision Steve Douglas The New Thing, the Robgoblin Robbie Dawber The New Wave Cheech Hernandez The Next, the Prospect, the Technical Messiah Alex Shelley The Next Big Thing, the Anomaly, the Global Standard, the Beast Incarnate Brock Lesnar The Nightmare Warrior, Dark Minion of the Underworld, Broadsword of Nazmaldun Hallowicked No Class Bobby Bass No Fear Mike Mondo No Money Malcolm Monroe The No Pain Train, the Being of Inconceivable Horror, the Harbinger of Sorrow Iceberg Not America's Sweetheart Davienne The Noticeable One, the Dandy Highwayman Aaron Proctor The Notorious 187, the Strong Style Thug Homicide The Notorious B.I.G. Big Moe The Notorious K.I.D. Kid Kash Number One Paul Jones The O.G. Doll Vanity The Obsession, the Midnight Son Caleb Konley Old Brown Eyes, the Italian Stallion J.T. Smith The Old-Timey King of Swing, Very American Dasher Hatfield The Omaha Chainsaw S.M. King The Omega Aaron Draven The One Man Gang, Hands of Stone Ronnie Garvin The One Man Glam Band Scotty Saxxon The One Man Rock Band Heath Slater The Orange Dream Jenna Tangerine The Original Gangsta New Jack The Original King of Swing, Dancin'Stevie Richards The Original Playa from the Himalaya, the Guru Sonjay Dutt The Original XTC, the Crown Jewel of the Embassy Jimmy Rave Ornery Octogenarian From The Old Folks' Home Melvin Snodgrass The Other Dark Meat Gotti The Outback Silvaback Mark Silva Outlaw Ron Bass, Don Bass, Joel Deaton, J.D. McKay, Charlie Haas P.S. Purely Sexy Michael Hayes The Palm Beach Heartthrob Scott Anthony The Panama City Playboy Adam Cole The Panther Tyrone Evans The Paparazzi Princess, the Paparazzi Diva Melina The Paragon of Virtue Elijah Burke, Mike Burry The Paranoid Pied Piper of TNA Eric Young The Party Peacock Dalton Castle The Pascagoula Plowboy Stan Frazier The Pearl of the Orient The Great Muta The Pearl River Powerhouse Ahmed Johnson The People's Champion, the Great One, the Brahma Bull, the Most Electrifying Man in Sports Entertainment Today The Rock The Perfect 10 Baby Doll The Perfect One, Perfectshawn, the Mecca of Manhood Shawn Stasiak The Perfect Weapon, the Insane Savant Delirious The Permanently Profit Producing Person Ares The Personification of Annihilation Max Smashmaster The Phenom Jimmy Snuka, The Undertaker The Phenomenal One AJ Styles Pig Daddy Cool The Proletariat Boar of Moldova The Pink and Black Attack The Hart Foundation Pistol Danger Evan Gelistico The Pit Bull Sgt. Craig Pittman, Skull Ganz Pitbull Kerry Brown The Pinnacle Shawn Patrick The Playboy Gary Hart, Buddy Rose, Jamie Gibson, Pete Huge The Poison Princess Taeler Hendrix The Polar Bear Paul Varleans The Policy Orlando Jordan Polish Power Ivan Putski The Polish Prince Steve Olsonoski, Scott Putski The Polynesian Warrior Mana Ponzona Americo Rocca The Pope D'Angelo Dinero Portugal's Perfect Athlete Shanna The Portuguese Man-Of-War Aldo Montoya Poseidon's Siren Ashley Vox The Predator Don Frye Pretty Badass, the Gatekeeper Kelly Klein Pretty Boy Pat Patterson, Gene Anderson, Larry Hennig, Bobby Heenan, Larry Sharpe The Pride of Tallinn The Estonian Thunderfrog The Pride of Wales Eddie Dennis Primetime Brian Lee, Elix Skipper, Amy Lee The Prince of All Goblins, the Poison-Tipped Bolt of Nazmaldun Kobald The Prince of Pain Joe Kane The Prince of Passion Kenny Casanova The Prince of Pranks Doink the Clown The Prince of Punk, The Reject Shannon Moore The Princess of Darkness Melicious Princess Palmstrike Kimber Lee The Prize April Hunter The Prodigy Tom Marquez, Alex Shelley, Mike Bennett The Professor Mike Tenay The Profile, The Blond Adonis Rip Hawk The Psycho Superman Smiley The Psycho Yuppie Paul E. Dangerously The Puerto Rican Princess Amber Rodriguez The Pug Alex Porteau The Punisher Don Vega, Andrew Martin The Punjabi Nightmare, the Punjabi Playboy, the Prince of the Land of Five Rivers The Great Khali The Punk Princess, The Patron Saint of Filth Christina Von Eerie The Punk Rock Ragdoll, the Vintage Vixen Heidi Lovelace Pure Dynamite Billy Roc The Purrfect 10 Lince Dorado The Queen of Rings Lei'D Tapa Queen of Suplexes, Sacramento Suplex Machine Nicole Savoy The Queen of the Carolinas, Undeniable Tessa Blanchard The Queen of the Dinosaurs Terra Calaway The Queen of the Seven Seas Oceanea The Quintessential Studmuffin Joel Gertner The Rabid Wolverine, the Human Buzzsaw Chris Benoit The Ragin' Bull Manny Fernandez The Ragin' Cajun Lash Leroux Rainmaker, Shin Jidai no Ace Ace of the new era, New Age Star Kazuchika Okada Rampaging Muscle Naruki Doi The Rapmaster PN News The Rapscallion Mick Moretti Rat Boy Yoshinari Ogawa The Rate Tank Kellie Skater The Rated R Superstar, the Ultimate Opportunist Edge The Ravishing One, the Smooth Operator Rick Rude Rayo Mexicano Rito Romero The Real Deal Selina Majors, Bobby Lashley, Aaron Neil, Adrian Steele The Real Double J, Road Dogg Jesse Jammes The Red and Black Attack NWO Wolfpac Redd Dogg Rodney Begnaud The Redneck Messiah Jamie Noble Redneck Woman Mickie Knuckles The Resilient Rookie, the Submission Specialist Green Ant Right Leg Andy Ridge T</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cool</t>
+          <t>Harakiri</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Tu veux le biff du reuf et quer-ni la reus Que j'sois docile tout en restant dans la hass T'aimes bien l'Afrique pour toutes les femmes colorées Jt'ai vu partir en cances-va, investir comme Une belle femme j'dis ne se rate pas Mais tu wake plus cheum sur l'compte d'la rapta Es-tu aptes à assumer ce gosse là Quand tous les soirs tu décides de pas mettre la pote-ca A chaque fois que j'étais lade-ma C'était pour le lendemain pouvoir esquiver le radma Claque sur la tetê, puchca Mène une vie de couche tard, excuse pour les embuscades Les rottes-ca mais faut dire qu'à la raque-ba Pour une baguette ça criait Allah Akbar Voilà ce qu'il me traversait l'esprit avant de gratter c'texte, peace La Terre tourne avec ou sans toi Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle Chelou, chelou, c'est chelou Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle C'est injuste Toi tu veux que la, la, la, la Toi tu veux que la, la, la, la Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle Ça y est ça roule en Crossover, ça y est ça vé-squi la té-ci T'as l'compte en banque d'un footballeur grâce à la coke que tu cuisines T'as fait d'la baraque un palace, mais y'a ta reum dans un taudis Tu veux le bon Dieu sans concession t'as les mains pleins d'hémoglobines T'as laissé tomber ton équipe Donc autrement dit, t'as qué-ni, khey, ton Posse T'es plus qu'avide de sentiments, t'as l'cur aussi noir qu'un gothique Les boites de nuits c'est comme les potes, un moment c'est plus compatible T'as fait du sale, la hagra, l'a crié sur tous les toits T'as fait du placard à Dakar tout le monde en ler-par au tier-quar T'as fait ton malaise sur l'Trocad' direction l'autoroute A4 Avec la BAC en filature du coup t'as ton-car en bécane Évidemment ça part en testos', tortionnaire de lice-po Déclencheur d'émeutes tu peux dire ci-mer à ton flash ball Toi tu veux qu'la vie te fasse flipper depuis qutes vux sexaucent Venez vous repentir mais bon juste avant qu'la terre saute Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle Chelou, chelou, c'est chelou Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle C'est injuste Toi tu veux que la, la, la, la Toi tu veux que la, la, la, la Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle Tu veux les bienfaits du Tout Puissant mais n'commet que des méfaits Dur de gagner le marathon de la vie les lacets défaits Chelou comme ces bâtards qui se réjouissent de nos décès Ou comme ce frère de sang qui convoite ta pine-co vulsée Pourquoi mon succès te gratte la gorge, oui, vu qu'j'ai Ravalé ma haine, la ceinture serré comme mon budget Chelou comme ces gavas qui te vendent puis te volent Mais rien d'étonnant si ces connards s'font shooter en plein vol Donc je plane sous pilon négro, canne que sur mes démos Femme trouve les phases si ce soir tu veux ton négro Je vois que la côte est grandissante depuis Ma mélo Pourtant ma rage n'est pas décroissante car j'suis trop ghetto Tu la trouves si ravissante pourtant c'est un homme Oui tu la trouves si attirante mais pourquoi tu la cognes ? T'es chelou comme ce coq qui ne défend plus sa basse-cour Au chant du glock bah plus personne, tout le monde court Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle Chelou, chelou, c'est chelou Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle C'est injuste Toi tu veux que la, la, la, la Toi tu veux que la, la, la, la Toi tu veux que la vie soit cool avec oi-t Mais toi t'es pas cool avec elle1</t>
+          <t>Maintenant, écoute, celui qui viendra te parler d'une rencontre avec Barzini, ce sera lui le traître, n'oublie pas ça. La technique est brésilienne il me faut un fusil et Laisses les putains s'égosiller On va les bousiller Nerveux quand je vois la Dép' J'suis dehors c'est la fête Savent déjà qu'j'vais les uer-t Mettent des pépettes sur ma tête Cette salope à tout donner c'est pas assez hein Hara Kiri c'est pas assez yeah Cette salope à tout donner c'est pas assez hein Hara Kiri c'est pas assez yeah Torche-toi le cul et respecte nous tout ira mieux Ferme ta gueule et respecte nous tout ira mieux Ok la prod est lourde j'me sens comme Pablo j'fais mon job Des patates dans la cour, des coups d'sse-cro c'est l'minimum J'ai pris le mic bourré, les juges font que d'm'harceler PalpaTeam va t'mêler, pas d'moonwalk, côtes fêlées Boy, quand l'cur hésite la main tremble J'voulais m'barrer mais tout le quartier m'a tenu la jambe Boy, magnum pas d'bouteille, ni de sécurité Boy, j'vis dans un putain d'sas pressurisé Hey, j'ai peu d'amis beaucoup d'inimitiés Hey, y'a des corps terre-pa, j'élimine sans hésiter Hey, j'alimente la ne-zo en tout humilité Genkidama dans leurs mères personnes pourra l'éviter La technique est brésilienne il me faut un fusil et Laisses les putains s'égosiller On va les bousiller Nerveux quand je vois la Dép' J'suis dehors c'est la fête Savent déjà qu'j'vais les uer-t Mettent des pépettes sur ma tête Cette salope à tout donner c'est pas assez, hein Hara Kiri c'est pas assez yeah Cette salope à tout donner c'est pas assez, hein Hara Kiri c'est pas assez yeah Torche-toi le cul et respecte nous tout ira mieux Ferme ta gueule et respecte nous tout ira mieux C'est la Mannschaft, c'est la Mannschaft J'ai posé mes couilles et le tout sur la table Carré VIP c'est pour les pointeurs et les zoulous piqués qui veulent montrer leur tal' J'ai du bon 'tos, j'ai du bon 'tos ma gueule dis-leur qu'j'fais des réductions Tu r'pars à poil si tu fais l'grossiste, dans l'19ème c'est la tradition Ton équipe de putes nous te garnissons Va tapiner à la télé avec Ardisson, Fogiel J'ai dégainé nous vous haïssons Dans l'mille j'ai du nouveau pour la mission Hosto, j'fais augmenter les admissions Vas-y pousse le son chacal ça flingue C'est pour les mauvais garçons dans l'banks, mets ta bouche par terre ramasse ta seringue hmm hmm hmm Et la douille est passée, ça s'arrose hmm hmm Et le compte est plein hmm Et la mule est passée, ça s'arrose La technique est brésilienne il me faut un fusil et Laisses les putains s'égosiller On va les bousiller Nerveux quand je vois la Dép' J'suis dehors c'est la fête Savent déjà qu'j'vais les uer-t Mette des pépettes sur ma tête Cette salope à tout donner c'est pas assez, hein Hara Kiri c'est pas assez yeah Cette salope à tout donner c'est pas assez, hein Hara Kiri c'est pas assez yeah Torche-toi le cul et respecte nous tout ira mieux Ferme ta gueule et respecte nous tout ira mieux Tu connais les bails ma gueule Respect à toi, longue vie à nous et garde la pêche Respect à toi, longue vie à nous et garde la pêche Cest lui quavait raison Bruce Wayne Bang 2005 Yo What up boy boy1</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Copacabana</t>
+          <t>Jamaican Boy</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Gbereya be bela gbereya be bela Wari bana Gbereya be bela, gbereya be bela Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Jte les ai vu senfuir En sous-entendant je reviendrais Que veux-tu quje fasse du désespoir À part la rendre plus belle ? Je veux juste un petit coin dParadis Sans les effets néfastes de la money Si tu cherches comme moi un petit coin dParadis Copacabana mon ami Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Gbereya be bela gbereya be bela Wari bana, gbereya be bela, gbereya be bela Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Stop, juste un petit coin au soleil Parcque moi la grisaille de Paname ma soulé Parcquau tier-quar je ne peux pas me défouler Zone à risque surveillée par les poulets We-we-wesh, miss como está ? Elle a kiffé sur moi ya quà voir comment elle msnappe Dailleurs cest pas la seule, té-ma comment elle stapent toutes Beriz on a la cote ici mon gars, ouais pas ddoute Oh oui, dans le délire on est fêlés Parcquon vient dun endroit où portes et fenêtres étaient scellés La famille sur le te-c, ne crois pas que je suis solo Laissez-nous la discothèque ou on va faire les insolents Tant pis si ça part en cacahuètes On est loin de la capitale, on est plein, on va les uer-t Envie de tout niquer, Copacabana, Havana Le Big Black M il a la mala Même si tes poches sont vides viens à Copacabana De-de joie on-on déborde de bonheur, on-on déborde Même si tes poches sont vides viens à Copacabana De-de joie on-on déborde de bonheur, on-on déborde Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Copacabana Qui a dit wari bana ? Gbereya be bela gbereya be bela Wari bana, gbereya be bela gbereya be bela Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi Vine, Snapchat Fais cque tu veux pour te souvenir de moi</t>
+          <t>If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa Perdu de vue depuis dix ans Moi qui mdisais Mon aller-retour serait vite-fait Jai perdu ma route comme un tiseur Parti trop tôt dchez moi sans être avisé La déchéance de lhomme ma tétanisé Et certains dentre nous préfèrent lignorer Les yeux fermés à jamais Parti trop tôt dchez moi sans être avisé La déchéance de lhomme ma tétanisé Et certains dentre nous préfèrent lignorer Les yeux fermés à jamais If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa Ça fait déjà une décennie que je sais quje nreviendrai plus Je fais le tour de la Terre de leuphorie au garde-à-vous Jusquà la fin dmes jours, loin de vous Jusquà la fin dmes jours, loin de vous If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa Perdu de vue depuis dix ans Moi qui mdisais Mon aller-retour serait vite-fait Jai perdu ma route comme un tiseur</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dans le coup</t>
+          <t>Jukebox</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Au pire des cas juste un coup de fil juste un coup de fil Comme dans le movie eh comme dans le movie Aucun soucis eh ouuuu ah Je déboule tout de suite Dis-moi si tes dans le coup ou ou Si tes dans le coup ou ho Si tes dans le coup ou ou Si tes dans le coup ou ho Que signifie ce clin dil ? On se connaît pas mais cest cramé je suis pas le seul Eh, tes tombé dans le love Quand tes rentré le temps cest arrêté à lentrée Je vois le style, cest Cainfri et Quinri bien mixé A distance sans toucher on cest regardé jai kiffé Au pire des cas juste un coup de fil juste un coup de fil Comme dans le movie eh comme dans le movie Aucun soucis eh ouuuu ah Je déboule tout de suite Au pire des juste un coup de fil juste un coup de fil Comme dans le movie eh comme dans le movie Aucun soucis eh ouuuu ah Je déboule tout de suite Dis-moi si tes dans le coup ou ou Si tes dans le coup ou ho Si tes dans le coup ou ou Si tes dans le coup ou ho Verres fumés, jean taille basse, parfumé hasin Jai le cur calciné Je suis en place avec mes potes mal lunés Est-ce que tu veux que je te fasse une place en vrai Quand tu tes mis debout ou ou, Jai perdu le souffle Donne-moi quelques secondes, pour te suivre jusquau bout Au pire des cas juste un coup de fil juste un coup de fil Comme dans le movie eh comme dans le movie Aucun soucis eh ouuuu ah Je déboule tout de suite Dis-moi si tes dans le coup ou ou Si tes dans le coup ou ho Si tes dans le coup ou ou Si tes dans le coup ou ho Pourtant je suis pas un queme dans le love, jsuis dans les loves, dans les love oh Jsuis pas dans le love mais dans les loves, dans les love oh On se tient au joussma Elle marche doucement Tout le monde veut tâter le tossma Ça ce passe comme ça On se tient au joussma Au pire des cas juste un coup de fil juste un coup de fil Comme dans le movie eh comme dans le movie Aucun soucis eh ouuuu ah Je déboule tout de suite Dis-moi si tes dans le coup ou ou Si tes dans le coup ou ho Si tes dans le coup ou ou Si tes dans le coup ou ho</t>
+          <t>Epargnez-moi vos partouzes, on les frappe tous 7.5 les zoulous, je les tue par douze Come back c'est la frappe dans les bacs couz Casses toi, tu fais du rap, j'suis la bad news Trop de putains veulent graille, ils vont pas gater mes bails Gros big up à ma maille, ils sont bons qu'à taper des rails Sont bons quà sucer des eue-q, check fais péter les watts Je suis satisfait quand les you-v mettent mon son dans les bat' Je suis satisfait quand les nazes foutent mon son dans les boites Je te connais a-p oi-t, tu me checkes a-p x3 Le 7.5 ma gueule, ça va défoncer vos enceintes Depuis le temps qu'on les esquinte C'est le 7.5 Plus qu'une seule idée être le meilleur à Paname Plus qu'une seule idée la concu n'est pas là Plus qu'une seule idée si t'es fêlé, fais-le Plus qu'une seule idée ???? faut les ver-le Pètes ton sbah, bouges ta tête Et quand le 7.5 frappe, bouges ta tête Ça vient des ghettos chics, man, bouges ta tête C'est que du son, paniques a-p, bouges ta tête Pourquoi tu guettes comme ça, bouges ta tête x2 C'est que du son, paniques a-p, bouges ta tête Ça vient des ghettos chics, man, bouges ta tête C'est Jarod, je baraude, galope salope, j'arrose J'ai pas reu-p, balance, carotte, c'est le même taro J'ai perdu trop de potes, j'ai des raisons dêtre paro 365 jours des grillages et cinq barreaux 1.9 y'a la hass quand mes gars seront libérés T'as un 9 dans ta caisse, dis toi bien que tu vas tirer Comme un coup de machette, je te la ai-f one shoot Ton équipe est H.S, faut la foutre aux chiottes Les gens m'entendent pper-ra et croient que je joues Si j'ai haja avec toi, je vais pas te mettre en joue C'est le zoo, comment allez-vous ? Ce mec a un flingue putain de merde, barrez-vous Le 7.5 ma gueule, ça va défoncer vos enceintes Depuis le temps qu'on les esquinte C'est le 7.5 Plus qu'une seule idée être le meilleur à Paname Plus qu'une seule idée la concu n'est pas là Plus qu'une seule idée si t'es fêlé, fais-le Plus qu'une seule idée ???? faut les ver-le Pètes ton sbah, bouges ta tête Et quand le 7.5 frappe, bouges ta tête Ça vient des ghettos chics, man, bouges ta tête C'est que du son, paniques a-p, bouges ta tête Pourquoi tu guettes comme ça, bouges ta tête x2 C'est que du son, paniques a-p, bouges ta tête Ça vient des ghettos chics, man, bouges ta tête Fais pas genre tu connais pas , on arrive, on te met le tarif....</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Dernier Negro</t>
+          <t>Langue de vipère</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>T'es nouveau sur l'rrain-té, t'es bénef' Mon tit-pe, ma dope tu écoutes bien De mauvaise humeur, on va t'niquer ta mère pour que tout l'monde s'en souvienne Colt 45, Smith Yassa', chez nous ça mange bien Débrouillardise, t'as rien à dire à part sentir la patate dans l'refrain Ils en montent par un geyser Negro à se-l'ai dans l'désert Visu' de Zulu, dans la poche un ze-dou On s'vi-ser sans jamais dire ci-mer Va niquer ta grand mère, ton cavu est ciblé à 3 heures Comment tu veux qu'on compatisse ? Même pour aller à la guerre, mes négros tisent Faut des gros titres, sinus bousillés à la chevrotine Ça chiffre vite, même quand ça tire, c'est la routine Toujours sur les rotules même quand la roue tourne Nous parle pas de nos fils, on va te percer la foufoune Je me suis fait tout seul Fuck la réput' des mecs qu'ont l'seum La weed, j'consomme Tout mon entourage touche des grosses sommes Les meufs, les haineux Les suceurs de ah, les élites, le quartier Dans mon monde, tu n'as pas pieds Je suis l'dernier negro Le dernier negro Le dernier negro Dernier negro Le dernier negro Rien à foutre de c'que t'en penses Ventre plein sans dépense Les types sont haut perchés Y'a qu'les balles qui descendent Check, qu'est-ce qu'tu veux qu'j'te dise ? Si t'es sec fais belek ! Protèges ton dos, même si t'es 50 cents Cassez-vous, aucun respect T'aurais du faire des tubes, au lieu de te faire shoo-shoo-shooter-shoot mon frère Ils veulent nous voir 6 pieds sous terre, dis-leur ces mots Ils veulent nous voir 6 pieds sous terre, dis-leur c'est mort Je suis le dernier, le dernier Ils veulent nous voir 6 pieds sous terre, dis-leur ces mots Ils veulent nous voir 6 pieds sous terre, dis-leur c'est mort Je suis le dernier, le dernier Ils veulent nous voir 6 pieds sous terre, dis-leur ces mots Ils veulent nous voir 6 pieds sous terre, dis-leur c'est mort Je suis le dernier Je me suis fait tout seul Fuck la réput' des mecs qu'ont l'seum La weed, j'consomme Tout mon entourage touche des grosses sommes Les meufs, les haineux Les suceurs de ah, les élites, le quartier Dans mon monde, tu n'as pas pieds Je suis l'dernier negro Le dernier negro Le dernier negro Dernier negro Le dernier negro1</t>
+          <t>Tu m'ennuies, moi aussi, viens on parle Sur qui? Deux, trois, Caraba, Maléfique Chut, chut, chut, chut tout c'qu'elles disent Chut, chut, chut, chut que des bêtises Des bêtises des hypocrites ah, des hypocrites ah Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, j'te dis que l'homme est du-per Je les ai vus sur Twitter te faire Comment tu veux dire que tout est fake? Les bâtards ont noté tous les faits De quoi faire un coup d'état Mon ami, faut que tu disparaisses Tout ce qu'on dit sur toi m'agresse Amis et ennemis disent tous pareil, reprends-toi Mais tout est faux, Black J'ai déjà payé la pension, on m'dit no, no, no C'est parce qu'ils disent, tout est faux, Black J'ai payé la pension, mais on m'dit no, no, no Sois gentil, épargne-nous les détails J'ai grandi, ça n'me fait plus de mal ah, ah oui Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui La prochaine fois qu't'entends des messes basses Crois pas qu't'as dead ça, mes potos laissent ça La prochaine fois qu't'entends des messes basses Crois pas qu't'as dead ça, mes potos laissent ça Tu n'es qu'un mytho, igo, d'après toutes celles que t'as côtoyées Tu es mon gars, quoi qu'il arrive, le poisson, je vais le noyer Monsieur le juge, la vérité, ce n'est pas mérité Ce n'est que la célébrité, question de crédibilité Mais tout est faux, Black non, non J'ai déjà payé la pension, on m'dit no, no, no C'est parce qu'ils disent, tout est faux, Black non, non J'ai payé la pension, mais on m'dit no, no, no Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, j'te dis que l'homme est du-per Y a beaucoup trop de pipelettes Très peu de gens qui t'aident À deux doigts d'te quitter, j'ai quitté, faut quitter Beaucoup trop de mythos, ils veulent nous imiter Tu fais sonner mon bigo, mais t'es pas invité J'suis avec Portoricaine, on décale un week-end Au soleil, en hiver, loin des langues de vipère Côté sur l'appuie-tête, casquette de capitaine Si leur vie est vilaine, bah, la nôtre est super Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal mais, mais, mais, mais Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, j'te dis que l'homme est du-per</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Dinguelop</t>
+          <t>La source</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ouch Je sais que j'ai le contrôle et que je m'en sers Vous êtes bloqué sur mes mélos J'ai tous vos airs Dinguelop J'suis bon qu'à faire des dinguelop Dinguelop Bon qu'à faire des dinguelop J'suis bon qu'à faire des dinguelop Dinguelop , Dinguelop Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff man Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff J'suis perturbée Je perds l'équilibre sur toutes ces lignes qui font ma vie Je vais tomber, mais t'inquiète j'sais voler Je suis sous l'emprise d'une terrible maladie À ce qui parait eh oh Eh Beriz j'ai quelques ennuis Je crois que j'ai des problèmes psychologiques C'est la même mélodie Elle reste dans ma tête cette mélodie Oh oh oh Que puis-je y faire ? Elle m'embarque au bout de la terre Cette même mélodie Cette même mélodie J'ai tous vos airs Dinguelop J'suis bon qu'à faire des dinguelop Dinguelop Bon qu'à faire des dinguelop J'suis bon qu'à faire des dinguelop Dinguelop , Dinguelop Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff man Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff J'suis désolée Je ne me contrôle pas, c'est ma folie qui guide mes pas Tu t'en doutais eh oh Ouai j'suis spontanée Je fonce droit dedans même si j'finis par l'regretter J'suis désolé eh oh Eh Beriz j'ai quelques ennuis Je crois que j'ai des problèmes psychologiques C'est la même mélodie Elle reste dans ma tête cette mélodie Oh oh oh Que puis-je y faire ? Elle m'embarque au bout de la terre Cette même mélodie ... J'ai tous vos airs Dinguelop J'suis bon qu'à faire des dinguelop Dinguelop Bon qu'à faire des dinguelop J'suis bon qu'à faire des dinguelop Dinguelop , Dinguelop Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff man Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff I heard something ... I think the angel's cry tonight Oh oh oh I heard something The angel's cry tonight J'ai tous vos airs Dinguelop J'suis bon qu'à faire des dinguelop Dinguelop Bon qu'à faire des dinguelop J'suis bon qu'à faire des dinguelop Dinguelop , Dinguelop Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff man Dinguelop , Dinguelop Oh yeah, ici rien que ça bluff Dinguelop ! Dinguelop this is my life Je sais bien qu'ils ne me comprennent pas Mais j'y peux rien c'est bien plus fort que moi J'suis comme ça, j'suis comme ça Dinguelop ! Dinguelop this is my life Je fonce dedans je ne réfléchis pas Les autres bluffs, ils ne sont pas de taille C'est comme ça C'est comme ça Hey wech Beriz quoi d'neuf ? Rien que ça bluff Wech Beriz quoi d'neuf ? De l'autre côté Rien que ça bluff Hey wech Beriz quoi d'neuf ? Rien que ça bluff Wech Beriz quoi d'neuf ? De l'autre côté Rien que sa bluff</t>
+          <t>J'avoue y avait toute la team quand on l'a ken Laisse-la vivre quelques semaines Scarifie son corps ensuite balance dans la Seine Je te laisse faire ton gravon pendant qu'on reste zen T'es dans les problèmes my nigga Quoi de neuf gravon ? Les problèmes my nigga Fais pas trop le savon, quoi de neuf gravon ? Il passe le savon Fais pas trop le savant ou tu te feras lessiver Esquive-les dehors À ce qu'il parait tu tires dans les jambes et tu rigoles Zoulou on m'appelle John Wayne, viens nous voir à jeun Ça fait 15 ans qu'on est là, putain mais retourne à l'école T'es que de la chair à canon, ouais ça va enjailler l'engin Petite tapine au collège ensuite veut michetonner un grand du tieks J'arrive c'est nous les grands du tieks, monte dans la tchop Tu vas juste gratter la bouteile, un KFC et stop Putain de génération niqué, ouais tous les jours, elle m'choque Bref, je suis nouveau dans la fête, j'ai fait des kilomètres Mon zoulou tu vas yer-p', mon zoulou tu vas ier-ch Quand tu verras la team Quand tu verras qu'on frime pas, qu'on connait bien le crime J'parle peu, je connais bien mes classiques et mes racines Monnaie facile, roro massif, état raciste démocratie Ça rime mal, j'envoie comme Beenie Man L'habit, le moine, trahir chez moi c'est illégal, boy J'avoue y avait toute la team quand on l'a ken Laisse-la vivre quelques semaines Scarifie son corps ensuite balance dans la Seine Je te laisse faire ton gravon pendant qu'on reste zen T'es dans les problèmes my nigga Quoi de neuf gravon ? Les problèmes my nigga Fais pas trop le savon, quoi de neuf gravon ? Il passe le savon Fais pas trop le savant ou tu te feras lessiver Esquive-les dehors J'arrive tout seul je vous bousille Maitrise langage du Uzi, pose ton vuca dans le jacuzzi On savait que c'était ta cousine, mon laud-sa, mais on s'en beurre Même les petits du coin sont passés dessus, gava, elle aime le beurre Qu'on arrive jamais à l'heure, habitudes d'ancien voleur Plus matrixé tu meurs, ouais mon zoulou, elle aime le beurre Casse-toi, je veux pas de limousine, je veux juste une son-mai pour Maman On m'appelle brother, mon zinc j'arrive je fais l'effet d'un calmant Zoulou je te laisse le bas-monde, et tout ce qu'il englobe Zoulou je te mets plus d'amende, tu me paieras là-haut Ils font les dingues, ils me connaissent bien, ils oublient On va les uer-t, ils vont entendre brrrr fin du conflit Mon zoulou viens nous voir dans le zoo et ouais l'ambiance est cosy Malgré beaucoup de charos en chien, des ches-lâ comme sarkozy J'avoue y avait toute la team quand on l'a ken Laisse-la vivre quelques semaines Scarifie son corps ensuite balance dans la Seine Je te laisse faire gravon pendant qu'on reste zen T'es dans les problèmes my nigga Quoi de neuf gravon ? Les problèmes my nigga Fais pas trop le savon, quoi de neuf gravon ? Il passe le savon Fais pas trop le savant ou tu te feras lessiver Esquive-les dehors Ouais mon gars c'est comment ? Ici la Source Ha j'ai entendu les histoires, c'est bon c'est réglé ? Il s'est vé-squi RDV au top Là où ça donne la calvitie Torse nu, calibré même en calcif Hé ! Fuck ton arbitre Armée, donnes-moi le reflet sur ta vitre teintée</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Dirty</t>
+          <t>La Vie</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Columbine - Clubbing for Columbine - 0301 Sam's - Sunday Soundcloud Première saison 0401 Artiste multiples Babali Show rap is not a game vol. 2 - 0501 La Race Canine - Héroïne - 0601 Sanka - Black shaolin - 0801 Black Kent - Morceaux d'un homme - 0801 Freeze Corleone - Vieilles merdes vol. II - 1101 75ème Session - Enter the dojo vol. 2 Diabi - 1501 Alpha Wann - Alph Lauren 2 - 1501 Rim'k - Monster tape 1801 Ninho - I.S.P.A.C 2 - 1801 Scars Volodia - Vitamine R - 2001 Alkpote Butter Bullets - Ténébreuse musique 2101 Lacraps Mani Deïz - 42 grammes - 2201 H Magnum - Gotham city 2301 Godié Swinx - N22 - 2401 Hash24 Sopico - 2075 2501 Artistes multiples - Sismogram - 2501 Euphonik - Inconnu mais reconnu 2501 Taf - Tohu bohu - 2901 Lefa - Monsieur Fall 2901 Bolo Bicrave ou rapper Février 0202 H-Tône - Fistaille made in Toylettes Vol. 1 - 0502 Fixpen Sill - Edelweiss - 0502 Kohndo - Intra-muros - 0502 KSA - VIII 0502 Manny À lhorizon 0502 Oner O 0502 Tarek FastLife Emirates money - 0502 Tortoz - Dans le carré 0702 SLONE - At the boom jazz cafe 0802 Eddy Woogy - Tout Eddy - 0802 Kekra - Free base 2 - 1002 Sango - Flowrilege 1202 Diomay Tchiki O - 1202 Perso - Gratte ciel 1202 Pink Flamingo - Escape - 1702 Peet - PEATE 1902 Bip's - Nocturne pré-régicide 1902 Cadavreski - Sensible 1902 Clem Beatz - Trouble in paradise 1902 Fadah KLM - Le billet de 5 - 1902 Kore - Pattaya Bande Originale 1902 Krom Au Mic Zone franche - 1902 Leeroy - Noir fluo - 1902 Sadek - Roulette Russe - 2102 Inspire - Millenaire II 2502 Timuxx - Super hero 2602 Bazoo - B-Tape - 2602 Brav - Error 404 2602 Dirty Zoo - La Dernière Tribu 2602 Droogz Brigade - Projet Ludovico - 2602 Jazzy Bazz - P-Town 2602 Kamnouze OSNS - 2602 Kool Shen - Sur le fil du rasoir - 2602 Nakk Mendosa - Darksun 2 2602 Numbers - Numbers - 2802 O'boy - OlySide - 2802 Romeo Elvis Le Motel - Morale 2902 Charly Kid Patee Gee - Yacht Club 2902 Vaati - Adventures Mars - 0203 Grems - Green Pisse - 0203 Grems - Freen Pisse - 0303 Biffty - Du sale et du gras Bootleg - 0403 13 Block Violence urbaine émeute 0403 Aris-K Noob saibot - 0403 Jul - My World Réédition - 0403 Lartiste - Maestro - 0403 La Fouine - Nouveau Monde - 0403 Moïse The Dude - Dudelife 0703 Cheeko Blanka - Sont Trop Cools 0803 Skreally Boy - SuperStona1 - 1103 Fababy - Ange Démon 1303 Les 13 Salopards - Own The Spot 1403 Triplego - Eau Max 1503 KSA DJ Weedim - Clochard de luxe - 1703 KT Gorique - Tentative de survie - 1803 DTF - La hass avant le bonheur - 2103 Pesoa - Supra - 2503 Falcko Conte de tess IV 2503 Hugo Délire Kyo Itachi - Grand Delirium - 2503 The Shin Sekaï - Indéfini - 2503 MOH - L'art des Mots 2703 Seven Eli Prod - Double Infini - 3103 Lorenzo - Empereur du sale 3103 Beny, Yacine 1.5, Majdon Co Yazid Z - Reality Show Avril - 0104 Jul - Album Gratuit 2016 - 0104 Ol'Kainry - Superman Noir - 0104 TLF - No Limit - 0404 Juxebox - Naga 0604 Coolax - Black Mathusalem - 0804 Bhati - Abimé 0804 Green Money CDC V 0804 Iris - Magnitude 10 Maxi - 0804 Jehkyl - CVPP Couilles Vides Poches Pleines - 0804 Jorrdee DJ Weedim - Je sais plus - 0804 Les Frères Lumières - À des années lumières - 0804 Lil Taï Z - Lil Taï Z - 0804 Neg' Marrons - Valeur Sûre - 0804 Sultan - Condamné À Régner 1004 Krisy - Parmi vous - 1504 A2H - Libre 1504 Arm TEPR - Psaumes - 1504 Doc Gynéco - Première consultation Edition 20ème Anniversaire - 1504 MHD - MHD - 1504 Artistes multiples - Booska Peufra - Vol. 2 1804 Jiddy - CKDO 2004 Fhat.R Melan - Bornes To Loose - 2204 Big Budha Cheez - L'heure des loups - 2204 Caballero JeanJass - Double Hélice - 2204 MZ - La Dictature 2404 Beeby - Le aigneur Réédition - 2704 Eech - Rosendaal Talk 2904 Artiste multiples - Néochrome présente Microbes saison 1 - 2904 Dr Bériz - 1974 - 2904 Hooss - French Riviera Vol. 2 2904 Loud Lary Ajust - Ondulé - 2904 Tiers Monde - No Future 3004 2spee Gonzales - Ah Souhait Vol. 1 Mai 0205 Brownie Dubz Gang - LE KLVN 0205 I.N.C.H. - Nappage Nocturne - 0305 3010 - Monstre - 0605 Djadja Dinaz - On s'promet - 0605 Jarod - Caméléon - 0605 Kalash Kaos 0605 Paco - Baraka Feat 0605 Rezinsky - Les Hérétiques, Tomes I II - 0605 Mani Deïz, Senamo Seyté - Trois fois rien 1005 Artistes multiples - EOW EP - 1005 Di-Meh - Shine 1205 Jones Cruipy - Rêve européen 1305 Artistes multiples - AMG Hip Hop Présente La France Sous Pression 1305 Coco Tkt Human ex thug 1305 Rochdi - L'Exorciste Cénobite 1305 Specta - Metempsycose - 2005 Alonzo - Avenue de Saint-Antoine - 2005 Dooz Kawa - Bohemian Rap Story - 2005 Ghetto Fabulous Gang - 93 La cité des parias 2005 Houssaw - Play 2005 LK de l'Hotel Moscou - Orient Heights Springbreak 2 - 2005 PSO Thug - Demoniak 2005 Ywill La Jonction - Livre d'or 2005 GLK - Murder 2305 Mani Deïz - Comme les autres - 2505 Ichon - FDP - 2605 Niro - Or Game - 2705 Aero Wonderful - Atmosphère Vol. 2 - 2705 Kekra - Vréel - 2705 Keny Arkana - État d'Urgence 2705 Artistes multiples - Néochrome - Tirs Groupés volume 2 2705 Res Turner - Ouvrez les cages - 2705 Lomepal Stwo - ODSL - 2705 SCH - Anarchie 3105 Hits Alive - Triple 6 Vol. 3 Les Enfants du Diable Juin 0306 Fadah, Kdor Metronom Les sens des maux 0306 Faf Larage Sébastien Damiani - Larage Damiani Extended Play Vol. 2 - 0306 Guizmo - GPG - 0306 Jr O Crom Doomams - Vendetta - 0306 K-LY - Samo - 0306 Lucio Bukowski Oster Lapwass - Oderunt Poetas - 0306 Niska Zifukoro - 0306 Numbers - 77 0306 Rekta - Marche ou Crève 0506 Ockney Chileas Alter ego 2 - 0606 A2H - Studio Files 2015-2016 0606 Funky Armenico Subotaï - Normalus 0606 Ockney Chilea's - Alter Ego 2 1006 Arom - Damien VS Van Helsing - 1206 Salfrom Goune, Stick Bazoo - Godphaseurs - 1306 Josman - Matrix - 1306 Grems The Imposture - P.R.A.F 1506 Jiddy - Training Tape 2 1706 Mac Kregor - Cogito Ergo Sum 1706 Myth Syzer Ikaz Boi - Cerebral EP - 1706 -Crew - Destins Liés - 1906 Panama Bende - Bende Mafia - 2206 Les Tontons Flingueurs - Le démon à 9 queues II 2206 Youno Les Chimistes - Méthylamine - 2406 Alkpote DJ Weedim - Sadisme et perversion - 2406 Bigflo Oli - La cour des grands Réédition 2406 Fizzi Pizzi - C1C2T - 2406 Hamza - Zombie Life - 2406 Jul - Émotions 2406 Zekwé Ramos - FrappMusiq 2606 SOV - Sovaire Ep - 2706 Sopico - MOJO Juillet 0107 Aladoum - Géant Noir - 0107 Les Alchimistes - Cannibales - 0107 Biffty DJ Weedim - Mega Souye Tape 0107 Kahifa - Nueva Luz - 0407 Népal - 444 Nuits - 0807 Damso - Batterie Faible - 0807 Sadek - Nique le casino 1107 Hologram Lo' - Jeep EP 1307 Fencizzle Gsnype - Kramwa'ill - 1807 Lapso Laps - Packman 2107 Les Genero - Parcours du combattant 2707 Nusky - On vit avec - 3107 Despo Rutti - Majster - 3107 Krisy - Menthe à l'eau Août - 0508 O'Trak - Gomorrap - 2608 Maître Gims - À contrecur M.C.A.R. Réédition Septembre - 0209 A2H - Summer Stories Kushtape Volume 2 - 0509 LuXe - LuXemixtape - 0909 13 Block - Ultrap - 0909 Rockin' Squat - Grand Cru Classé 2004-2016 1209 Beeby - 5 Etoiles 1209 K-LY - K-LY Co - 1509 Jul - Album gratuit 2016 Vol. 2 - 1609 PNL - Dans la légende - 1609 Wati B - La Pièce BO du film 1709 A Point Z Matière grise - 2309 Jorrdee - BJOVR IOP! - 2309 Lefa - TMCP - 2309 Volodia - Un Pied sur Terre - 2309 Jayel - Tout Est Dit - 2509 Dinos - Toujours pas Imany mais presque - 2609 Espiiem - Départ 2609 La Connaixion Jeunesse Eternelle - 2609 Tengo John - Près Qu'elle - 3009 Kery James - Mouhammad Alix 3009 LIM - Pirates - 3009 Taïro - Reggae Français Octobre 0710 Elams - Je Suis Elams - 0710 MRC - MRC - 0910 Hakim Sensei - Goldfish 1010 Gys - Vale Tudo 1010 LTA - Echographie 1310 La Prune - La Prune - 1410 Convok - Un jour plus vieux - 1410 Despo Rutti Le Front Kick De Cantona - 1410 Gros Mo - Les de Gros Mo 1410 Lefty All Hayz On Me 1410 JP Manova - 19h07 Réédition - 1410 Soprano - L'Everest 1810 Issaba - À la recherche du temps perdu 2110 Hotel Moscou - L'Opium du Peuple - 2110 Lil Taï Z - Trop Jeune - 2110 Ninho M.I.L.S Maintenant Ils Le Savent - 2110 Naza - Tout pour la street 2110 Skreally Boy - 0352 - 2110 Sneazzy - Dieu bénisse Supersound 2110 Mani Deïz, Nefaste, Ol Zico Pejmaxx Martyrs Modernes 2310 Le 77 - C'est le 77 - 2410 Hamza - New Casanova 2510 2spee Gonzales - Ah Souhait Vol. 2 - 2810 Black M - Eternel Insatisfait - 2810 Casseurs Flowters - Live Tour 2016 2810 Gérard Baste - Le Prince de la Vigne 2810 Jeff Le Nerf Red Album - 2810 Kalash Criminel - R.A.S 2810 Kdor Sales Gosses Incurable 2810 La Méthode - Adrénaline - 2810 L'Algérino - Banderas 2810 Lario Nowhere A Mi-Chemin 2810 Medouze Changer La Donne 2810 Taïpan - P.A.N - 2810 Tortoz - FullG - 3110 T.I.S - L'homme contre le monstre Novembre 0111 Karna - Inconnu mais style reconnu - 0211 Prince Waly Myth Syzer - Junior - 0411 Dosseh - Yuri - 0411 Georgio - Héra - 0411 MMZ - Tout Pour Le Gang 0611 Artistes multiples - Misère Records présente le rap indé ouvre sa gueule - 0611 Lu'cid - Ex-Nihilo 0611 PALA - Acid Rose Garden 0711 Le Bon Son Du Bon Son 3 1111 Artistes multiples - Diamantaire Jee Van Cleef présente Jukebox Vol. 1 1111 Das Raizer - Nathuram Godse - 1111 Kaaris - Okou Gnakouri 1111 Krimo Vis Ta Vie 1511 Mr Kayz - 11 de légende 1611 HIGHMAN - H.I.G.H 1811 Artistes multiples All Stars Industrie - 1811 Mister You - Le Grand Méchant You 1811 Pumpkin Vin'S da Cuero - Chimiq - 1811 Seth Gueko - Barlou 2011 Tengo John - Tortue de Jade 2111 Jorrdee - Wavers 2111 Tonino Entre Temps John-Z Zed Beatz 2111 Dorian - Horizons 2511 Anton Serra Eddy Martin - Les 400 coups - 2511 Gradur - Where is l'album de Gradur 2511 Lacraps - Les Preuves Du Temps - 2511 Lucio Bukowski Milka - Hourvari - 2511 Swift Guad Mani Deiz - Masterpiece - 2711 PLK - Dedans - 2811 Haristone - Bates Motel - 2811 High Five Crew - Silicon Valley 3011 Artistes multiples - Le Gang Des Antillais Bande Originale Du Film De Jean-Claude Barny - 3011 Kekra - FreeBase 3 3011 Sëar-lui-même - À L'arrache, Épisode II Histoires Sans Fin XX11 Néochrome - Générations 88.2 Décembre - 0212 Billy Joe - La petite maison de la tuerie 0212 Chabodo - C'est Le Cha - 0212 Jul - L'ovni - 0212 Nekfeu - Cyborg 0212 Tarek FastLife À Bon Entendeur - 0212 Shay - Jolie Garce - 0212 Shurik'N - Adamant-ium - 0412 So'Clock Negann - Fréquences 0912 Artiste multiples - Booska Pefra Vol. 3 0912 Benito Chacon Chef De Meute 0912 GrandeVille - GrandeVille Records Vol. 1 0912 Lartiste - Clandestino - 0912 Laylow - Mercy 0912 Niro - Les Autres avec Or Game en version physique 0912 Prince Fellaga - Arabesque 0912 Tekilla Le Retour du sombre héros - 0912 Tito Prince - Toti Nation II 1112 Da Nill PubArt - 1112 Luni Sacks - Souterrain Son Vol. 1 - 1212 B-Biface - Fini de pleurer 1212 Hematome Pêle-Mêle 1212 Sauveur Eloheem - Aube 1412 Toy El Mago, Swif Nebaza Rus-Vi Made In 1Dependanz 1612 Artiste multiples - Sauvages, vol. 2 1612 Fayçal - Bords perdus EP 1612 K-Rhyme Le Roi Adrénaline 1612 Melan - Vagabond De La Rime, Vol. 3 - 1812 Rowjay - Carnaval de Finesse 1912 Stick - TricératoX Vol. 2 - 2012 Beny - Pepito deviendra grand 2112 West - Overdose 2212 Seven - 2032 - 2312 Nekfeu - Black Album - 2412 Hamza - Santa Sauce 2512 Grande Instance - 12 ans d'âge 2512 Miklo - Carnal Vol. 1 2512 Sauveur Eloheem - Le Panthéon des Pensées Sombres 2912 GRTZKY - Apex 2912 Sixo Master Flow - JMNDC 3112 G Lamaonthebeat - Dans le noir EP 3112 Jason Voriz - Trap Manstrr Autres - Du 1104 au 1111 Sofiane - Jesuispasséchezso Du 1706 au XXXX Alkpote - Les Marches de l'Empereur, Saison 2 - Du 2307 au 1408 Eskro - Néant 94 Date à confirmer XXXX Treza Ulysse XXXX Minch Né Sous X16</t>
+          <t>Eh mais t'entends pas ou quoi ? Yeah, c'est Jacky Brown et Ben-J Accompagnés du Docteur Bériz Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques Mais je reste debout Ce n'est pas la peine d'appeler les pompiers tant que j'respire N'appelez pas les pompes funèbres tant qu'la bonne musique m'inspire Et ouais les gars, j'ai tout vu, j'ai connu les hauts, les bas Mais n'en faites pas tout un débat, pas de hasard si on est là Capitaine de mon bateau, mister Jacky Brown garde le cap J'ai partagé mon gâteau la vie m'a quand même mis des claques Acteur et metteur en scène de mon propre long métrage J'ai toujours assumé mes réussites et mes naufrages Leur soi-disant game franchement m'a fatigué Mais mon orgueil et ma fierté m'empêchent de capituler Donc on come back again malgré les difficultés J'aime entendre mon fiston crier Vas-y Papa tue-les Aujourd'hui j'ferai plus croquer personne à part mon chien Vu qu'les Hommes sont tous des vampires Te sucent de tout ton sang quand tu leur tends la main Ils te souhaitent la mort avec le sourire Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques J'ai pris de l'âge, j'me sens fatigué Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques Mais je reste debout Les mecs comme moi qui gardent leurs souvenirs Comme si Picasso l'avait peinte en personne Mon berceau à moi, c'est bien l'Afrique Je ne fais pas la guerre pour une soi-disant terre sainte Je paye mes fautes pour ma part Je paye mes fautes pour ma part Si tu l'sais pas, j'te le dis Les mecs comme moi se font tous seuls Comme Shin Shekaï disait du berceau au linceul Je n'suiverai pas les gens qui disent Des balles il pleut Je vis pour donner de l'espoir à ceux qui l'veulent Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques J'ai pris de l'âge, j'me sens fatigué Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques Mais je reste debout Tu veux savoir combien j'pèse, si j'prends du bif Si la musique ça paie, combien rapportent mes classiques On est jamais assez préparé pour le succès Le showbiz laisse plus de traces que les tatoos à Djibril Cissé Strass et paillettes, gros gamos, red carpet Que de gros rêves de plomb sur un matelas rempli de pépettes Hmm, la rançon de la gloire c'est trop hard Comme un boxeur faut encaisser pour être le La vie nous met des claques La vie a un prix pour chacun La vie une piste noire, j'zigzague entre les fauves et les requins J'vous laisse rêver du star system Mon empreinte rouge sang pour emblème Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques J'ai pris de l'âge, j'me sens fatigué Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques Mais je reste debout Tic tac, de pas à pas j'arrive à mon destin La vie te met une claque si t'es mesquin Tic tac, de pas à pas j'arrive à mon destin La vie te met une claque si t'es mesquin Eh Jacky, mes frères sont à bout Eh baby, l'Afrique est à genoux</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Entrée olympique</t>
+          <t>Légendaire</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Nous avons trouvé deux types extraordinaires Qui ne craignent aucun effet de la kryptonite Après avoir exploré les bas fonds Nous les avons trouvé avec une détermination qui dépasse votre imagination Oui Et aujourd'hui, c'est la rentrée, et bien sûr, elle est olympique Oui Olympique Pour décrocher la Lune faut la fusée, j'arrive en vaisseau spatial On veut pas toucher le ciel, j'suis déjà dans l'espace, man Déter' comme un spartiate, il s'passe as-p' Un jour sans que j'gratte sale, j'm'acharne, la mélodie m'attrape Je coupe la prod' et la castagne, un peu comme une renaissance On est tellement forts qu'on a plus besoin d'reconnaissance Moi, depuis l'adolescence, j'ai pas sympathisé Et fini l'époque du pilon où je trouvais sympa d'tiser On pètera la maille pour les briser, coup d'tête, t'es avisé Coup sec comme un uzi, si tu m'testes t'es la risée Kicker figé, briser crispé, sent les limites qu'ils veulent m'infliger Qui sait qui t'es ? J'y vais direct sans les minutes qui vont défiler Si la qualité d'MC était proportionnelle au nombre de clics Amandine du 38 serait la reine du featuring Le monde part en vrille, même les saisons sont déréglées J'serai même plus surpris qu'en été il s'mette à neiger Me contenter de c'que j'ai ? Regarde mon doigt d'honneur Y'a qu'les riches qui disent que l'argent n'fait pas l'bonheur Si j'avais les tunes d'un empereur ? Si j'avais les tunes d'un empereur ? Imagine Ici c'est pas l'Tibet, les mois sont agités Freeno Prod s'exporte et XXX comme au Wati-B Calibré, Entrée Olympique c'est l'instinct qui tue Aligné, armé comme esprit d'art et d'institut Abrité par la , plus besoin d'sampleur On compose les mélodrames, on arrive comme des empereurs Tant d'peur, tant d'pleurs, t'aide comme le prompteur Plus que rappeur, tant de vibe qu'on est chanteurs On fait notre entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Un pour les soldats, deux pour les sisters Fuck si t'es un haineux du temps qu't'insistes peu Sept-Cinq, Scrib'r, T.O.X C'est deux MCs respectables, tu peux kiffer On fait notre entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Tu penses qu'on joue jusqu'à c'qu'on fasse livré la frappe c'est clair Avant la 'sique, on s'faisait palper par la BAC sans dec' ? Si ça paye as-p', ça retourne dealer, pourquoi ? L'oseille Poto, j'ai pas sommeil, ça mène la vie de Marc Dorcel La rue t'a marqué comme une vache qui sourit Rumine ta haine et tourne autour, et hop, la vache, on t'surine Y'a des gosses qu'ont passés des étapes sales Maintenant c'est les startings blocs, avant-hier c'était les cages d'escal' Peu importe comment t'as palpé Si t'as pas balancé ni baisé tes potes au top sans casquer Respect, t'es un champion, respire Passe le tapis rouge et fait ta rentrée olympique Prend une place entre les soldats Oubli tes soucis et laisse toi guider par les sistas Couvert quoi qu'il arrive Un dollar c'est un dollar, si tu perds c'est moi qui mise Fuck les autres, ils ont pas l'sens de la mif' En vérité, y'a que la maille qui fait la diff' Poto, regarde la rentrée olympique, fuck c'que tu penses, mec Rentrée olympique On fait notre entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Un pour les soldats, deux pour les sisters Fuck si t'es un haineux du temps qu't'insistes peu Sept-Cinq, Scrib'r, T.O.X C'est deux MCs respectables, tu peux kiffer On fait notre entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Entrée olympique, fuck c'que tu penses, mec Entrée olympique, fuck c'que tu penses, bref Huuum, sur un bateau, ouais imagine Non, non, ou plutôt sur un yacht ou un avion ouais, ça c'est bien ça imagine Dans une soucoupe volante imagine J'suis trop loin, j'ai la fusée imagine Et la piquouse du Dr. Beriz Tu vas swinguer même sans musique Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Ils ont qu'à dire c'est le rap à l'ancienne bats les couilles j'suis lancé J'ai fait quelques diamants ils veulent me faire tout recommencer J'étais posé au tierquar fallait que je fasse mon billet car Les gens sont froids là bas poto même en été ça yéca En face ils pensent qu'à streamer ici on veut juste s'exprimer Trop vrai pour être acteur je préfère prendre des mots les fair rimer Salam aux détracteurs j'sais qu'ils font partie ds opprimés Oui très peu m'ont compris mais j'suis encore là pas d'R.I.P Et souvent quand je pense 10 ans en arrière Je me dis hmm macha'Allah la carrière Bref pas là pour parler de moi enfin si Et puis mais pourquoi les petits de chez moi se croient invincibles ? J'ai des flashs j'aimerais pouvoir retourner dans le passé J'étais sous flash je me disais mais qu'est ce que je vais faire dans le futur Aujourd'hui je les entends dire aaah il est sur sa route Quitte à choisir je veux pas être sur la vôtre allez vous faire foutre Entre musique et vie réelle aaah je me trompe peut-être Y'a celui qui joue et celui qui va souffler dans la trompette C'est pas à moi de juger tout ce qu'ils font frère Est ce que tu sais ce qui se cache derrière ce putain de fond vert ? J'aimerais tellement me venger avant de me ranger Mais si je fonce tête baissée ils vont me prendre pour un dérangé 10 ans à douter la musique m'a envoûté Comme Paul mon fils commence à me demander papa où t'es ? Les gens de ma ville m'élèvent Le coeur à Paris le cerveau sur une île déserte Quand j'ai la haine j'essaye de faire un signe à mon ascendant Je mettrai de l'eau dans mon vin quand il aura 100 ans Les keufs se sont levés plus tôt que la daronne Y'a les chemins qui mènent au hebs et les autres à Rome Dis leur que t'as faim ils vont juste te mettre des carottes Si ils sont 20 et qu'j'suis tout seul wAllah que j'ai pas reup Petit frère s'est fait planter pas loin du jardin dans le jargon On est très loin des films de Dujardin Comme si j'avais du sang sur la mano Du sang sur la mano Ils m'ont rendu parano Ils m'ont rendu parano Je suis seul dans mon viano Je suis seul je suis seul Je suis triste comme un piano Vos regards me font peur me font perdre confiance Laissez moi dans mon coin je risque de plomber l'ambiance Je me méfie comme de celui qui pose le regard sur ma fille Bizarre quand tu veux donner on veut te prendre ta vie Mon gilet pare balles est troué juste au niveau du coeur Okay prenez ce que vous voulez mais laissez moi un joker J'essaie pas de vous faire de la peine veuillez garder votre compassion Si tu viens juger ma vie bien sûr qu'y'aura confrontation Je me suis retrouvé dans tout ce bordel juste par passion PS Je suis celui qui marque dans les prolongations On va tous finir au sol pour le simple fait qu'on respire Ceux qui sont encore debout se consolident ou bien se méprisent Motivés par la chaleur et le prestige D'où je viens y'avait pas grand chose Le temps de rêver du top on y était Mon petit frère on essaie juste de vivre Légendaire depuis le binks un exemple pour ma ville D'où je viens ma vie est gravée comme dans un livre D'où je viens ma vie est gravée comme dans un livre Comme dans un livre</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Feeling</t>
+          <t>Les anges nous aiment</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>Peu importe c'que tu fais, un d'ces quatre tu payes Que ce soit ici ou ailleurs, Beriz mets les à l'heure Je suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Témoins d'c'que vous voyez pas Quand tout le monde part c'est eux qui veillent sur moi C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent Les yeux ouverts dans la matinée En portant le regard sur tous ceux qui m'ont freiné Je prends une douche froide, grille une clope et sors pour prier Une présence qui m'observe, mon passé qui m'obsède Je suis en excès, j'attends pas le succès J'ai pas besoin d'me prendre la tête, je sais qu'ils veillent sur moi J'ai pas besoin d'être prise de tête, je sais qu'ils veillent sur moi Je suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Témoins d'c'que vous voyez pas Quand tout le monde part c'est eux qui veillent sur moi C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent Maman m'a dit sort, va chercher de quoi vivre À la s'conde j'étais dehors, tout en esquivant les flics Ma démarche a changé poto, j'suis devenu deuss Essaie de me pointer si à cause du goudron dans la beuj' Rien que j'les rends ouf dans ma zone Beriz est d'sorti et il a les crocs Petit fait pas l'malin, dis-moi qu'est-c'que tu connais J'laisse mes affaires entre tes mains pour voir qu'est-c'que tu commets La rue n'a pas d'pitié, négro tu veux briller Tes adversaires t'effacent pour un billet La jalousie du charme et si tu t'poses elle va t'sucer Elle fera ça tellement bien qu'elle pourrait t'parler du suicide Et toi comme un con tu sors ton Beretta et règle tes affaires Comment faire quand t'as un fer ? C'est l'enfer et je m'y plaîs Je soigne mes plaies et j'suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Témoins d'c'que vous voyez pas Quand tout le monde part c'est eux qui veillent sur moi C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent Garde la foi p'tit frère, peu importe c'que tu fais Les gens qui t'jugent, sont ceux qui ont à faire à l'enfer Leur facture est salée, on les nomme les obsédés C'est eux qui gagnent mais un d'ces quatre ils s'feront fourrer Ils perdront la tête en cherchant leur chance Entourés par le diable dans n'importe quel sens Ce jour-là c'est toi qui s'ras vainqueur Pas parc'que t'es le meilleur mais parc'que t'as du cur, nigga Mais tout se paye passe à la caisse nigga Tourne la page si t'as fini C'est eux qui payent bien sûr Et toi qui passes Je suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Témoins d'c'que vous voyez pas Quand tout le monde part c'est eux qui veillent sur moi C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent Je suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Témoins d'c'que vous voyez pas Quand tout le monde part c'est eux qui veillent sur moi C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent3</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Fiston</t>
+          <t>Love</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>J'sais pas si j'aurais la force de te gérer Y'a que dans mes écrits que j'tue Quand j'aurai plus rien dans les poches, comment j'ferai Y'a que dans mes écrits que j'tue J'voudrais t'élever à la dure Y'a que dans mes écrits que j'tue Même si j'viens d'la ue-r' J'te guiderai au maximum Ta mère m'a dit qu'tu mettais que des coups d'pieds C'est sûrement qu'elle s'défoule, fiston écoute bien J'fais des cascades pour un casse-dalle la nuit Rentre à la casba, faut déjà qu'j'parte taffer J'reçois un texto, ça c'est Dawala Y'a des interviews gros, y'a l'cd dans les bacs Moi j'sais rien faire d'autre, si j'ai pu m'y faire Que vendre ma vieille dope, survivant d'l'enfer Pour que tu t'installes, j'laisse parler ceux qui me disent instable En gros ceux qui m'connaissent pas Qui m'appellent re-sta depuis qu'j'suis loin des res-shta Qui m'aimaient bien que dans la merde mais chacun vit son destin N'est-ce pas, fiston Sache que la vie n'est pas faite que de piston T'as les bras long, ceux qu'on m'a amputé C'est dans le drame qu'on voit les plus gros enculés J't'assure pas, que tes diplômes te seront bénéfiques Si t'assures pas, surtout me ramène jamais les flics J'sais pas si j'aurais la force de te gérer Y'a que dans mes écrits que j'tue Quand j'aurai plus rien dans les poches, comment j'ferai Y'a que dans mes écrits que j'tue J'voudrais t'élever à la dure Y'a que dans mes écrits que j'tue Même si j'viens d'la ue-r' J'te guiderai au maximum Si j'ai cru m'y faire à ce monde de merde qui m'a traumat' Survivant d'l'enfer, le cur calciné, ça fait trop mal Si j'ai su m'y faire, comparé aux autres, j'ai moins d'stigmates Ce monde fait mal, ça t'a traumat', t'as moins d'stigmates et tu t'en tires pas mal J'suis débordé, j'sais même pas par où commencer Mais j'imagine que ça a dû être dur pour toi de m'l'annoncer J'ai du sentir la boule au ventre au bout du fil qui simmisçait Lors du soir où t'as bigo bah c'était bien c'que j'me disais Dissipé quand ça délire t'as comme un poids mais sur la tête Là faut choisir, être un bonhomme ou s'enfuir et faire le traître Faire le test de pater', t'en assurer qu't'en es l'daron Mettre les voiles dans la minute, l'abandonner comme un brigand, ok On f'ra c'qu'il faut pour qu'tu sois quelqu'un d'élégant N'imite jamais les gens qu'affrontent la BRB c'est qu'des légendes N'oublie jamais qu'on s'f'ra du mouron si t'as pas fait comme les grands J'vois d'jà ta mère faire des duhas, s'exciter dans tous les sens T'auras beau ram'ner les shtars mais j'te dirai jamais décampe Tout c'que j'veux c'est t'voir marcher sur les sentiers du Tout Puissant J'traînerai dehors jusqu'à l'aube mais tiens pas compte de mes absences J'connais la street, mon fils ne s'ra pas un délinquant J'sais pas si j'aurais la force de te gérer Y'a que dans mes écrits que j'tue Quand j'aurai plus rien dans les poches, comment j'ferai Y'a que dans mes écrits que j'tue J'voudrais t'élever à la dure Y'a que dans mes écrits que j'tue Même si j'viens d'la ue-r' J'te guiderai au maximum Connu ta mère en galère, pas grand chose sous le palet Le gabarit d'un balais, j'touchais même pas d'salaire Pâtes salées, en pleine chaleur J'rêvais d'vacances ne serait-c'qu'au Pas-d'Calais Son sage-vi m'a giflé Obligé d'm'impliquer M'appliquer, la fliquer Tout filtrer, mon côté africain M'a quer-ni jusque dans l'affectif Effectivement Entre les meufs qui t'mentent Une éducation où l'affectif manque Là j'étais obligé Elle avait trop de swag, une certaine timidité Les mecs c'est ça que j'aime, faut seulement la mériter Imagine-toi juste une frappe qui te dit la vérité J'sais pas si j'aurais la force de te gérer Y'a que dans mes écrits que j'tue Quand j'aurai plus rien dans les poches, comment j'ferai Y'a que dans mes écrits que j'tue J'voudrais t'élever à la dure Y'a que dans mes écrits que j'tue Même si j'viens d'la ue-r' J'te guiderai au maximum ...1</t>
+          <t>Tinquiète elle est pas comme les autres, elle est pas sotte Bosseuse, elle a pas ltime elle est frais comme personne Ce nest quune question dtemps ce nest quune question dépiderme Car lamour ne suffit plus et que la haine nous dissout Cétait pas la bonne, qui sait pas les mêmes ambitions Quen sais-je ? Pas les mêmes accords uon jouait, ya pas dsecret On a perdu le fil car ça n'allait pas trop, nos familles sdéchirent Petit à petit jmabandonne rien qujenquille des culs-secs Jai donné tout cque javais jamais je ntai trahi crois-moi Sur les réseaux sociaux jamais donné mon numéro On aurait pu faire un bon bout dtrajet même partir en séjour planète ou movie Jréalise, parle pas dkhaliss, prends tes valises Cest tout cquil y avait entre elle et moi Cest tout cquil y avait entre elle et moi Cquil y avait, cquil y avait, cquil y avait Si tu ne le vois pas, jpeux pas texpliquer la situation Tu ne le vois pas, jpeux pas texpliquer la situation Fallait bien quun jour les choses bloquent depuis lépoque il te manipulait Ramène plus jamais ce sale Noir Première réplique qui ma fait reculer Pourtant jai commis aucune erreur pour toi javais donné le meilleur Juste la couleur de ma peau qui les dérange jveux pas rentrer les menaces Fallait surtout pas quon strompe la mélodie était sans fausse note On était deux, yavait pas besoin dpotes tout cela nous a rendu claustrophobes Jtire fort sur fin dclope, jcogite solo sur lbalcon Tous tes messages je les relis, tout ça mrend fou Jusquau jour où apparaît le syndrome de celui ou celle qui aime Plus que lautre Jattendrai pas la fin du requiem Jattendrai pas la fin du requiem Cest tout cquil y avait entre elle et moi Cest tout cquil y avait entre elle et moi Cquil y avait, cquil y avait, cquil y avait Si tu ne le vois pas, jpeux pas texpliquer la situation Tu ne le vois pas, jpeux pas texpliquer la situation Cest tout cquil y avait entre elle et moi Cest tout cquil y avait entre elle et moi Cquil y avait, cquil y avait, cquil y avait Si tu ne le vois pas, jpeux pas texpliquer la situation Tu ne le vois pas, jpeux pas texpliquer la situation La situation1</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GI Joe</t>
+          <t>Madame la chance - 2125004</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>The 8-Bit Luchador Player Uno The 8th Wonder of the World Andre the Giant The 9th Wonder of the World Chyna A-List David Otunga Above Average Mike Sanders The Ace in the Hole Sonny Siaki Ace of Hearts Shane Valentine Addicted to Love Rhett Titus The AK-47 Allysin Kay The Alaskan Assassin Ice The All-American Ron Simmons, Doug Basham, Jeff Peterson, Steve Rivers The All-American American Jack Swagger The All-American Boy Bob Backlund The Alpha Male Monty Brown Alushe the one made of felt, The Mayan Goblin Alushe The Ambling Alp Primo Carnera America's Hardcore Icon G.I. Ho America's Hero Sgt. Slaughter America's Sweetheart Babe the Farmer's Daughter American Angel, the Queen of Wrestling, the Death Rey Sara Del Rey American Dragon Bryan Danielson The American Dream, the Bull of the Woods, Stardust Dusty Rhodes The American Hero Johnny Magnum The American Wolf Davey Richards The Anarchist Arik Cannon, Doug Williams, Ian Daniels The Angel of Death Angie Skye The Angry Amish Warrior Roadkill The Animal George Steele, Batista The Anomaly Niles Young The Anvil Jim Neidhart The Architect Seth Rollins Argentina Antonino Rocca The Army Tank with a Ferrari Engine Husky Harris The Asian Nightmare Kwan Chang The Assassin Aric Dylan The Axe Larry Hennig B-Gizzle, The Trailer Park Gangsta B.G. James Bad Attitude Brian Beech The Bad Guy Razor Ramon Bad S Sharon Palty The Bad Seed Shawn Osbourne The Baddest Woman on the Planet, Bonesaw Jessie Brooks The Ballsy Badass Shotzi Blackheart Bamm-Bamm Terry Gordy The Barbaric Berzerker, the Zombie Princess Jimmy Jacobs The Barber Brutus Beefcake Barn Owl Gary Jay The Bashing Bulgarian, the Bulgarian Brute, the Super-Athlete, the Russian Gladiator Alexander Rusev The Bashman Doug Basham The Basket Case, the Reflection of Perfection Mark Jindrak The Beast Dan Severn, Bob Sapp The Beast from the East Bam Bam Bigelow, Shak Khan The Beastmaster Rick Link, Francine The Belfast Bruiser Dave Fit Finlay Best-Dressed Man Jason Harris The Big, Blue Bruiser of the Colony assailANTWorker Ant II The Big Cat Ernie Ladd, Curtis Hughes Big City Sebastian Reese Big Daddy Shirley Crabtree Big Daddy Cool Diesel The Big Daddy of Destruction J-Rocc Big Game Smith James Big Hungry Ryback The Big Kahuna Sir Oliver Humperdink Big Lalo Osama Rodriguez Alejandro Big League Byron Saxton Big Magic Shane Matthews Big Money Hank James Big Nasty Angelo Mosca The Big Red Machine, the Devil's Favorite Demon Kane The Big Shot, The Superheavyweight, The Alabama Slamma Hardcore Holly Big Thunder Gene Kiniski Big Time Nick Mitchell Big V Vern Henderson The Big Valbowski Val Venis Big Vis, The World's Largest Love Machine Viscera The Billion-Dollar Princess Stephanie McMahon The Bird Man Koko B. Ware The Birdman Hieracon The Bitchboy Annihilator The Juggulator The Bizarre One, the Prince of Perversion Goldust The Black and White Express NWO Black Magic Norman Smiley The Black Nature Boy Scoot Andrews Black Prince Minoru Tanaka The Black Redneck Kliff Hanger The Blasian Barbie Mia Yim The Blonde Bomber Ray Stevens, Art Crews The Blonde Bombshell Jade- not the Jade from WOW The Blueprint Matt Morgan The Body Chris Tolos, Jesse Ventura, Scotty Braddock, Brent Albright The Bombshell Macaela Mercedes The Bonebreaker Homemaker Sherri Lee The Boogie-Woogie Man Jimmy Valiant The Boricua Badass Tasha Steelz The Boss Andre the Giant, Spike Dudley The Boston Bad Boy Tony Rumble, Jason Rumble The Boston Battler, the Prince of Darkness, the Gamesmaster, the Taskmaster Kevin Sullivan The Boy Wonder Shane McMahon The Brain Eddie Creatchman, Bobby Heenan Brainwashed Davey Vega The Brandon Bull, Mr. Wonderful Paul Orndorff The Brawler from the Bayou Cajun Crawdad The Brazilian Beast Kafu The British Babe Steve Lewington British Storm Ian Harrison The Broadstreet Bully Tony Stetson The Brothers of Destruction The Undertaker and Kane Brown Chivalry Tadasuke Buff Daddy Buff Bagwell The Buffalo Bad Boy Brian Jennings The Bull Curtis Iaukea, Ed Gantner Bulldog Don Kent, Bob Brown, Harry Smith Bulldozer, Killdozer Brian Lee The Bullet Bob Armstrong Bullet Babe Amber Gallows The Butcher Paul Vachon, Larry Cameron The California Hippie Mike Boyette The California Kid Tommy Jammer The California Stud Rod Price, Ken Ericson The Calypso Kid Lenny Hurst, Dory Dixon The Cambodian Ax Murderer Joker Canada's Greatest Athlete Gene Kiniski, Iron Mike Sharpe Canada's Strongest Man Dino Bravo The Canadian Crime Spree Spyder The Canadian Destroyer, Maple Leaf Muscle, Little Petey Pump, The Definition of Definition Petey Williams Canadian Dynamite Josh Daniels, Max Boyer The Canadian Enforcer, the It Factor Bobby Roode The Canadian Freight Train Jos LeDuc The Canadian Rage, Captain Charisma, the Instant Classic Christian Cage The Canadian Tiger Mike Lozansky Canadian Wildcat Vic Rain The Cape Town Werewolf Justin Gabriel Captain HUSTLE Naoya Ogawa Captain Redneck Dick Murdoch The Caribbean Legend Savio Vega The Cat Ernest Miller Caveman Tyler Elkins The Centerfold Matthew Palmer The Chairman La Parka The Chairman of the Board King Curtis Iaukea The Charismatic Enigma, the Rainbow-Haired Warrior, the Extreme Enigma, the anti-Christ of Professional Wrestling Jeff Hardy The Chosen One Jeff Jarrett, Drew McIntyre Choujuu super beast Bruiser Brody. This was his nickname in Japan. Classic, Boom Boom Colt Cabana The Classic Superstar Spiro The Claw Claudia Reiff The Clawmaster Baron Von Raschke The Clockwork Angel Katred The Coach Jonathan Coachman The Cold Hearted Playa Danny Demanto The Colossus of Boggo Road Nathan Jones Confederate Currency Chris Hamrick Copetes, El Rey Moro Moor King Rene Guajardo The Cornfed Colossus Festus The Cornfed Meathead Skip Sheffield The Count of California The Black Pearl Coventry's Loudest Jetta Cowboy Bob Orton Sr., Bob Orton Jr., Bill Watts, Bob Ellis, Scott Casey, Ron Bass, Jack Lanza The Creation of Devastation Adam Bomb The Crippler Ray Stevens, Rip Oliver, Chris Benoit The Croatian Panther Wesna Busic The Crown Prince of Camden Desean Pratt The Cruncher Larry Zbyszko The Crusher Stan Stasiak, Jerry Blackwell The Cuban Sandwich Pepe Prado Cutie Pie, Madonna's Boyfriend Louie Spicolli DA MAN Goldberg The Dancing Sensation Ace Vicious Dangan Bullet Masato Tanaka Danger Man Shoji Nakamaki Dangerous Dan Spivey, Doug Gilbert, Devon Storm,Dawn Marie Dangerous K, HUSTLE K Toshiaki Kawada Dangerous Queen Akira Hokuto The Daredevil of Extreme Tack Dark Angel Sarah Stock Dark Prince, Black Hulk Osirus Das Wunderkind Alex Wright Dashing Cody Rhodes The Dastardly One, The Danaconda Danny Doring Deadly Angel Angel Mortal The Deadly Demonic Warmonger Obariyon The Dean of Professional Wrestling Announcers Gordon Solie Death Match Jesus Necro Butcher The Definition of Technician Cindy Rogers The Delinquent Damian Michaels The Demon of the Deep Leviathan Der Heldenvater the Hero Father Herbert Audersch Der Würger aus den Anden the Stork of the Andes Indio Guajaro The Deranged One Mankind The Devil's Reject Brandon Webb The Devious One Mr. Fuji Diamond Timothy Flowers Die Hard Eddie Edwards Lola Dinamita Dynamite, Lola La Grande Lola The Great Lola Gonzalez The Dirtiest Player in the Game Ric Flair Dirty T.X. Tex Monroe The Dirty White Boy Tony Anthony The Dirty White Girl Kimberly The Diva Kelly Tabor, Crystal Carmichael Do It To It Steve Cox Dr. D David Schultz Dr. Death Steve Williams The Dr. of Desire Tom Prichard The Doctor of Style Slick The Doctor of Thugenomics John Cena The Dogfaced Gremlin Rick Steiner The Dominant Male, the Sicilian Psychopath Tommaso Ciampa Dominican Dynamite Marti Belle Double A Arn Anderson Double C, the Most Money Making Man, the Stalwart Swiss Powerhouse, Very European Claudio Castagnoli The Dragon Ricky Steamboat The Dream Machine Troy Graham The Duchess of Dudleyville Stacy Keibler The Duke of Dorchester Pete Doherty The Dumpster Duke Droese East Coast Intensity Jose Perez The Eater of Worlds, the Man of 1000 Truths Bray Wyatt The Ebony Hercules Honeyboy Zimba The Ecuadorian Aristocrat Juan Francisco de Coronado The Edge Chris Evans El 1000 Guapo Handsome, El Rudo del Milenio The Rudo of the Millennium, El Hombre Electrico The Electric Man Shocker El Abogado del Diablo The Devil's advocate ArkangelArkangel de la Muerte El Amo de los Ocho Angulos The Master of the Eight Angles Octagon El Amo del Escandalo The King of Scandals Sangre Chicana El Artemarcialista The Martial Artist Kung Fu El Ave de las Tempestades Storm Bird Gory Guerrero, Gran Markus Sr. El Black Black Warrior El Bocazas The Big Mouthed One, Pierroth Le Fou Pierroth Jr. El Bufalo the Buffalo Violencia El Caballero del Estilo Diferente The Gentleman with a different style, El Hombre Elastico The Elastic Man Mr. Niebla El Can de Nochistlan The Dog from Nochistlan Perro Aguayo El Capo de Capos The Boss of Bosses Cien Caras El Charro The Horseman Charro Aguayo El Che as in Che Guevara, The Colossal Man Coloso Colosetti El Chino The Chinese One El Gladiador El Consentido de las Damas The pampered one by the ladies Tarzan Boy El Dado de Oro Super Astro El Duende que Camina The Ghost Who Walks Fantasma El Elefante Volador The Flying Elephant Tamba El Enmascarado de Oro The Man of the Golden Mask, El Soli El Solitario El Enmascarado de Plata The man of the silver mask El Santo, El Hijo del Santo El Escandalo del Topochico The Scandal from Topochico El Sanguinario El Fabuloso The Fabulous One, El Efectivo The Effective One Silver King El Galeno del Mal The Evil Doctor Dr. Wagner Sr., Dr. Wagner Jr. El General The General Rambo El Geniecillo Azul The Little Blue Genius Lizmark El Gigante de la Laguna Lagunero Giant Gran Markus Sr. El Gigante de Ebano The Ebony Giant, Black Bullet Dory Dixon El Gigante Sabio The Wise Giant, El Capitan Aventuras Captain Adventure Tinieblas El Guapo The Handsome One Bestia Salvaje, Scorpio Jr. El Guerrero Cartaginas The Carthaginian Warrior, La Saeta Azul The Blue Arrow, La Furia Azul The Blue Fury, El Principe de Seda The Silk Prince Anibal El Guerrero del Averno Warrior from Hell Shu El Guerrero El Hercules Poblano The Hercules from Puebla Mr. Mexico El Heredero de la Leyenda de Plata The heir of the silver legend El Hijo del Santo El Hijo de la Leyenda Azul The son of the Blue Legend Blue Demon Jr. El Hijo del Gigante Sabio The son of the wise giant Tinieblas Jr. El Hombre del Guante Negro The man in the black glove Mano Negra El Hombre de la jugada mortal The man with the deadly movement Jacque Mate El Hombre Pez The Fish Man, El Latigo Lagunero The Lagunero Whip Fishman El Hombre Verde The Green Man Espectro I El idolo del bombeo de hierro The pumping iron idol Cibernetico El Idolo de los ninos The Idol of the Kids, El Principe de la Atlantida The Prince of Atlantis Atlantis El Indio de Mezcala de la Asuncion The Indian from Mezcala de la Asuncion Ringo Mendoza El Lider The Leader Fuerza Guerrera El Luchador de la Elegancia The Fighter of the Elegance Ares El luchador mas rapido The fastest luchador, El Gato Volador The Flying Cat, Felino Centella spark Felino El Maestro Lagunero The Lagunero Master Blue Panther El Manotas The man with the big hands, El Profe Manotas, El Demonio Azul The Blue Demon Blue Demon Sr. El Mejor Luchador del Mundo The best wrestler in the world Pirata Morgan El Metalico The Metallic One Oro El Millonario de Tijuana Tijuana's Million Dollar Man Nicho El Millonario El Mister Nuevo Leon Latin Lover El Monarca The Monarch, El Tijeras de Oro Golden Scissors Javier Cruz El Munecazo The Big Baby Doll Hugo Savinovich El Numero Uno The Number 1 Satanico El Orgillo de Oriente Orient's Pride Sugi Sito El Presidente Osama Alejandro Rodriguez , Pinkie Sanchez El Principe de Plata y Oro The Prince of Silver and Gold Mistico El Principe Maya The Mayan Prince, El Gigante de Tabasco The Giant from Tabasco El Canek El Principe Negro Black Prince, El Hombre de Goma The man made out of rubberThe Elastic man Black Shadow El Profe Blue Demon Sr., El Santo El Profesor Rolando Vera El Ranchero The Rancher Angel Blanco El Rey Arturo King Arthur Villano III El Rey del Aire The King of Air Antifaz del Norte El Rey del Beautiful The King of Beautiful Emilio Charles Jr. El Rey del Derechazo The king of the right hand punch Firpo Segura El Rey del Martinete The King of the Martinete Abismo Negro El Rey Feo The ugly king, The World's Ugliest Man in Texas Scorpio El Rudo de los Ojos Esmeralda The rudo with the emerald eyes El Faraon El rudo de los ojos verdes The green-eyed rudo El Dandy El Senor de los Enigmas Lord Enigma, El Rey del Tenedor The King of the fork Misterioso El Terror de Jalisco Jalisco's Terror Bestia Salvaje El Tigre Blanco The White Tiger Mascara Sagrada original El Tigre Enmascarado The Masked Tiger Tiger Mask- original El Trailer Asesino The Killer Truck Gran Markus Jr. El Two Faces Dos Caras El Volador Jarocho The High Flyer from Veracruz Ricky Marvin Elegant Assassin Pierre Abernathy The Energetic Insectoid Grappler Fire Ant The Enforcer Arn Anderson, C.W. Anderson Everybody's Favorite Girlfriend Jessie McKay Everybody's Favorite Homeboy Chilly Willy Evil Zombie Fresh From the Grave Ichabod Slayne The Excellence of Execution, the Best There Is the Best There Was the Best There Ever Will Be Bret Hart The Excellence of Innovation, the Dolphin Master, the Intrepid Traveler Paul London The Exotic Goddess Mandy Leon The Extreme Commissioner Tod Gordon The Extreme Giant The Big Show The Extreme Strongman Gino Martino The Extreme Stud, The Sicilian Shooter Little Guido Maritato The Fabulous Firebird Phoenix The Fabulous One Jackie Fargo The Face of Terror Meng The Fallen Angel, Mr. TNA Christopher Daniels The Father of Destruction Paul Bearer Fear Factor P.J. Friedman The Female Fight Machine Jenny Sjodin The Female Fighting Phenom Jazz The Female Phenom, the New York Knockout Trinity The Female Wrestling Machine Nikita Fink The Fink Howard Finkel The First Lady of Hardcore, Super Hardcore Anime, The Wounded Owl Ronin Lufisto The First Lady of Wrestling Elizabeth The Fish Gilles Poisson Flash, Flapjack Scott Norton The Flatliner Chris Manns Flippin' Sweet Brett Gakiya Fonzie, The Man Who Calls It Right Down the Middle Bill Alfonso The Force from the North Vigo Foxy Lady, The Experience Lexie Fyfe The Franchise Shane Douglas The Freak Rob Terry The Free Spirit Rick Titan Freight Train Rufus R. Jones The French Paradox Pierre Marceau The French Phenom Rene Dupree A Frenetic Ball of Kinetic Energy, the Spear of Nazmaldun Frightmare Freshly Squeezed Orange Cassidy The Friendly Shark Jawsolyn The Funkasaurus Brodus Clay The Funker Terry Funk The Funky Pharaoh, the Madjai of the Dieties Amasis Fuun Noboriryu Sky-Rising Dragon, Mr. Puroresu, Monster General Genichiro Tenryu The Future Frankie Kazarian, Joey Matthews, Chris Sabin, Deuce Shade, Seth Rollins The Future Legend Cheerleader Melissa The Future of Flight Ricochet The Galaxy's Greatest Alien Kris Statlander The Gallowsman Soloman Longfire The Game, the Cerebral Assassin, the Sadistic Son-In-Law HHH The Gangster of Love Sweet Stan Lane Gato cat Ari Romero The Gecko-Roman Wrestler Argus The Geek Goddess, the Black Widow AJ Lee The Gem City Queen Neveah The Generator, Young and Handsome Race Jaxon The Generic Luchador El Generico Genesis, The Savior Yako Romero Gentleman Chris Adams, Jervis Cottonbelly The Georgia Greyhound Jerry Oates The German Beef Otto Schwanz The Giant Paul Lauria The Giant-Killer Little Spike Dudley, Tom Dub, Mike Mondo The Gigolo Jimmy Del Ray Girl Dynamite Jennifer Blake The Gladiator Mike Awesome The Glamazon Beth Phoenix Go Time Chris LaPlante G-d of Pro Wrestling Karl Gotch. Nickname in Japan The Goddess Chikako Shiratori The Godfather Theodore R. Long The Godfather of Extreme Damien Kane The Gold Standard Shelton Benjamin The Golden Boy Arnold Skaaland, Adrian Adonis, Jerry Grey, Chic Donovan, Ted Oates, Dan Spivey The Golden Girl Corinne Mink The Golden Greek Jim Londos, John Tolos The Golden-Haired Fox Sunny The Golden Star Kota Ibushi The Golden Warrior Kevin Von Erich Good Ol' JR Jim Ross Goth Rock Monster Blind Rage The Great and Devious One, the Angry Insect Evildoer, Part Insect Part Superhero UltraMantis Black The Greek Goddess Alexia The Green Goddess Tori The Grim Reaper, the Man from the Dark Side, the Pale Destroyer, the Lord of Darkness, the American Badass, the Deadman, the Red Devil, Big Evil, the Demon of Death Valley, the Last Outlaw The Undertaker The Grittiest Girl in the Game Molly McCoy The Guiding Light Captain Lou Albano Gusano Worm, Gusano de Seda Silkworm Javier Llanes Hacksaw Butch Reed, Jim Duggan, Brett Sawyer The Haitian Sensation Tyree Pride The Hammer Frank Goodish , Greg Valentine, Beverly Slade, Mark Coleman Handsome Johnny Barend, Harley Race, Johnny Valentine, Jimmy Valiant, Dallas Page, Heath Slater, Johnny Bradford The Handsome Half-Breed Gino Hernandez Hard Rock Paul Diamond, Ricky Reeves The Hardcore Chair-Swinging Freaks Balls Mahoney and Axl Rotten The Hardcore Daredevil Kay Lee Ray The Hardcore Giant Ron Niemi The Hardcore Icon The Sandman Hardcore Jesus Anthony Stone The Hardcore Legend Mick Foley, Terry Funk The Hardcore Monster Kubiak The Hardcore Queen Dash Chisako Hardwork Bobby Walker The Hawaiian Hellraiser, the Hawaiian Tornado, Mr. H50 Taiyo Kea The Head Cheerleader, the Queen of Extreme Francine The Heartbreak KidHBK, the Show Stopper, Mr. WrestleMania Shawn Michaels Heartcore Shazza McKenzie Heavy Metal Van Hammer, Ric Savage The Heavy Metal Maniac Riot The Heavyweight Horror Crossbones Hebrew Hammer Joseph Schwartz The Hebrew Hercules Abe Coleman Hell's Favorite Harlot Priscilla Kelly The Hellion of the Dark Army, the Bled Island Butcher Kodama The Helsinki Hellraiser Ludwig Borga The Heretic Red Vinny High Flying Optical Illusion Rorschach High IQ Quinten Lee Hinotama Kozou Fireball Kid Michiaki Yoshimura The Hip Hop Hippo Albert The Hippest Cat in the Land Dude Love The Hitman Bret Hart, Doug Gilbert, Tony Stetson, Michael Bruno Hollywood John Tatum, Bob Holly, Hulk Hogan The Homicidal Suicidal Genocidal Death-Defying Maniac Sabu Honoo no Hiryu Dragon of the Flame Tatsumi Fujinami The Horny Little She-Devil Terri Runnels Hot Chocolate Kory Williams, Kris Krude, Sugar Dunkerton The Hot Property Shane Matthews, Fire Ant Hot Scoop Skylar Hot Stuff Eddie Gilbert Hotrod, the Rowdy Scot Rowdy Roddy Piper Hott Chocolate Acid Jaz Hott Stuff Paul Hudson The Houdini of Hardcore Crash Holly The Hounds of Justice The Shield The Hulkster, the Immortal One Hulk Hogan The Human Highlight Reel Sabu, Rey Misterio Jr., Cody Jones The Human Massacre Keith Walker The Human Orchid, the Toast of the Coast, the Sensation of the Nation Gorgeous George The Human Rulebook Chandler McClure The Human Skyscraper Tower The Human Suplex Machine, the Path of Rage, the Orange and Black Attack, the One Man Human Crime Spree Taz The Human Wrecking Machine Zeus Hurricane Hank James, Scott Hudson , John Walters Hustle Prince Wataru Sakata Hustler Rip Rogers The Hybrid Diva Kaitlyn The Iceman Buck Quartermaine, Dean Malenko The Icon Dutch Mantel, Shawn Michaels, Sting The Ideal Reflection Christopher Ryseck The Idol Aaron Stevens Inazuma Senshi Lightning Warrior Kengo Kimura The Innovator of Offense Kanyon, Nova The Innovator of Violence Tommy Dreamer The Insane Luchador Super Crazy The Intellectual Savior of the Unwashed Masses Damien Sandow The Interdimensional Demon Lloyd Cthulowitz The Intergalactic Luchadora Saturyne The Internet Icon Petey Staniforth The Irish Lass Kicker Becky Lynch The Irish Lionheart CJ O'Doyle Iron Man Gran Hamada Ironhead Kazuyuki Fujita Ironman Tommy Cairo, Rob Conway The Italian Eagle Marco Corleone The Italian Monster Tony Mamaluke The Italian Superman Bruno Sammartino Jagged Scott Parker Jam Jimmy Garvin The Jamaican Jammer Bobby Wales Jammin' Mitch Snow The Japanese Buzzsaw Yoshihiro Tajiri Jefe Indio Dedos Chuecos Indian Chief Twisted Fingers Rey Mendoza The Jezebel Eden Black The Joeverine Joey Knight Juan El Hermoso Juan, The Beautiful One El Brazo The Juice Juventud Guerrera, JT Dunn K-Dog Konnan Kakumei Senshi revolution warrior Riki Choshu Kamen Kizoku Masked Noble Mil Mascaras Kanaami no Oni Monster of Steel Cage Rusher Kimura The Kansas Cowboy Art Crews The Kentucky Gentleman, Raccoon City's Favorite Son, Sexy Chucky T, Smooth Chucky T Chuck Taylor The Killer Bae Heather Monroe The King Jerry Lawler, Harley Race, Kenny Bolin King Kong Bruiser Brody, Angelo Mosca, Abe Kashey, Malcolm Kirk The King of Chaos Ali Muhammad The King of Destruction Shinya Hashimoto The King of Diamonds, the War King Eddie Kingston The King of Old School Steve Corino The King of the Green Mountain Maxx Burton The Korean Monster Ryze Kryptonite Jeremy Crony La Bestia del ApocalipsisThe Apocalypse Beast Damian 666 La Bruja The Witch Miss Janeth , Rossy Moreno La Calabacita The Little Pumpkin Halloween La Diva de Juarez Casssandro La Esencia de la Exelencia The Essence of Excellence, the Mexican Aristocrat Alberto Del Rio La Machine Cecil Dubois La Pantera Rosa The Pink Panther Villano I, Villano III, Villano IV, Villano V Lady Destroyer Hiroyo Matsumoto Lady Excellence, the Virtuosa Deonna Purrazzo The Lariat, the Bad Man from Borger, Fuchinkan unsunk battleship Stan Hansen The Last of a Dying Breed Eddie Kingston, Bull Dempsey The Last Pure Athlete, Thicc Mama Pump Jordynne Grace The Last Real Man Silas Young The Latin Heartthrob Al Perez The Latin Hellcat Lita Marez The Latina Sensation Mercedes Martinez The Latina Super Woman Caliente Latino Heat Eddie Guerrero The Laughing Man Hugh Morrus Le Justice Michel Dubois The Legacy Blare Rogers The Legend-Killer, the Viper, the WWE's Apex Predator Randy Orton The Lethal One, Black Machismo Jay Lethal The Lethal Weapon Steve Blackman Lightning Cheryl Rusa, Mike Quackenbush, Tim Lutz Lightning Foot Jerry Flynn Limitless Keith Lee Lionheart, Your Hero, Role Model and Paragon of Virtue, The Ayatollah of Rock and Rolla, The Man of 1004 Holds, the King of the Loopholes, Y2J, the Larger-Than-Life Living Legend, the King of the World, the Highlight of the Night, the King of Bling-Bling, the Sexy Beast Chris Jericho The Living Legend Bruno Sammartino, Larry Zbyszko, Larry Winters Lone Eagle, Rey Aguila Aguila Solitaria The Lone Wolf Barry Windham, Davey Richards Lonestar Dustin Rhodes The Long Island Loudmouth, Long Island Iced-Z Zack Ryder The Loose Cannon Brian Pillman, Teddy Hart The Lost Girl Samantha Heights The Louisville Slugger, The Louisville Lip James E. Cornette Los Sustos The Scares, Los Tinacos Los Hermanos Espanto The Love Machine Art Barr Loverboy Dennis Condrey Lunatic Fringe Dean Ambrose The Mack Daddies of Violence The Public Enemy The Macho Man Goldie Rogers, Randy Savage Mad Dog Maurice Vachon, Buzz Sawyer, Marcial Bovee, Pierre Lefebvre, DC Drake, Mike Bell The Mad Dogs of War The Pitbulls The Mad Russian Alexis Smirnoff The Mad Scientist of Professional Wrestling Paul Heyman Made in the USA Mike Jones , Lex Luger The Madman from the Badlands Glenn Osbourne The Madman from the Sudan, Kuroi Jujutsushi black wizard Abdullah the Butcher The Mag Daddy Brutus Magnus Magnificent, The Rock Don Muraco The Main Attraction Adam Action The Main Event, Custom Chucky P Chuck Palumbo The Main Man Tracy Smothers The Man Stan Stasiak, Ric Flair, Becky Lynch The Man-Bear Sylvester Terkay The Man Monster Hydra The Man of 1000 Holds Earl Caddock, Frank Sexton, Johnny Saint, Al Costello, Red Bastien, Les Thornton, Dean Malenko The Man That Gravity Forgot PAC The Man Who Loves to Steal the Show Flash Flanagan The Manager of Champions The Grand Wizard, Neil Sharkey, Bill Alfonso Maniac Mark Lewin, Mike Davis, Matt Borne The Manliest Man Biff Busick Marvelous Marc Mero The Master and the Ruler of the World, the Millenium Man Sid Vicious The Master of a Thousand Holds Mike Quackenbush The Master of Darkness, The Snakemaster Abudadein- Note This guy is NOT the son of King Curtis Iaukea. He is at times confused with King Curtis's real son Rocky Iaukea, who held titles in the Pacific Northwest territory and in Puerto Rico as Abudda Dein. Mike Prince Iaukea Haynor is also not King Curtis's son. The Masterpiece Chris Masters The Mastodon Vader The Mat-Wrestling Machine Tim Donst Mean Streak Mike Dempsey The Menace from East L.A, East L.A. Player Lemus II The Messiah of the Backbreaker Roderick Strong The Messiah of the Spinebuster David Young The Mexican Spitfire Rita Cortez The Mexican Superman, SuperMex Hernandez The Mexican Warrior Chavo Guerrero Jr. The Miami Pound Machine, The Turncoat, The Rod Damn Champ Rod Steele The Middle Eastern Nightmare Sheik Abdul Bashir Mighty Mighty Monster Monster Medieval Medieval Dragon Dragon The Milan Miracle Santino Marella The Militant Mat Mite Soldier Ant The Milkman Jake Milliman The Million Dollar Man Ted DiBiase The Mind Jesse Ventura Mississippi Queen Christie Ricci The Missouri Tiger Jeff Gaylord Mr. 1 Scott Zenzen Mr. 1.9 Michael Tarver Mr. 200 Yoji Anjo Mr. 630 Jerrelle Clark Mr. 6033 Angelo Poffo Mr. Action Replay Nick Jackson Mr. America Gene Stanlee Mr. Ass, the One Billy Gunn Mr. Charisma, No Gimmick Needed, Hard Knox Chris Candido Mr. Chippendale, Mr. Fantasy Tom Brandi Mr. Class A-1 Mr. Danger Mitsuhiro Matsunaga Mr. Ebony Tom Jones Mr. Electricity Steve Regal , Herb Abrams Mr. Hardcore Kintaro Kanemura, Rico Suave, Erik Crow Mr. Insanity Toby Klein Mr. Irresistible Sweet Daddy Siki Mr. Israeli Pro Wrestling Gery Roif Mr. M-80 Marshe Rockett Mr. Magnificent Kevin Kelly Mr. Majestic Flex Lavender Mr. Monday Night, The Whole F'N Show, Mr. PPV, Mr. TNN, Mr. Thursday Night Rob Van Dam Mr. Money Randy Price Mr. No Days Off Darren Young Mr. Perfect Jerry Stubbs, Curt Hennig Mr. Piledriver Bruiser Bob Sweetan Mr. Raytings Ray Gonzalez Mr. Romeo, Dirty Deeds Darren Wyse Mr. SmackDown! John Bradshaw Layfield Mr. Smooth Johnny Kidd Mr. Torture Mr. Saito Mr. Touchdown, the Interception of Perfection, the Ultimate Athlete Mark Angelosetti Mr. TV Jackie Pallo Mr. USA Tony Atlas Mr. Universe Earl Maynard Mr. Unpredictable, Mr. Excitement, the Rebel Dick Slater Mr. Wrestling Vince Torelli , Jeff Roth, Nick Dinsmore , Kevin Steen Ms. Baka Gaijin Crazy Mary Dobson The Mistress of Destruction, the Ravishing Russian Lana The Mistress of Mayhem, the Queen of the Night Misery De Sade Moalm The Man of All Living Men Joey Tylec The Model Rick Martel The Modern Day Icon, the 420 Pimp Barry Ace The Modern Day Miracle Steve Madison The Modern Day Warrior, Tora no Tsume nails of tiger, the Texas Tornado Kerry Von Erich Moeru Toukon Fighting Spirit That Burns Antonio Inoki Mongo Steve McMichael The Monster Meng, Abyss, Kevin Randleman Monster K Toshiaki Kawada, Kohei Sato The Mormon Giant Don Leo Jonathan The Moscow Mauler Vladimir Kozlov The Most Professional Tag Team in Wrestling, the Sultans of Smirk 3.0 The Mountain Vanessa Kraven The Mountain from Stone Mountain Jerry The Crusher Blackwell Mourningstar Marcus Hall The Mouth of the South Jimmy Hart The Murky Murderous Menace of the Deep Merlok The Murderous Monk J. Miller The Mysterious Mythological Warrior from Afar Gran Akuma Namida no Karisuma Charisma of Tears Atsushi Onita The Narcissist Lex Luger The National Treasure Nick Aldis The Natural Butch Reed, Dustin Rhodes, Bobby Roode, Nick Nemeth , Nathan Crown The Natural One Mike Modest The Nature Boy Buddy Rogers, JJ Dillon, Ric Flair, Buddy Landel, Roger Kirby New Attitude Jamie Howard The New Era Kriptic Keegan The New Era Icon Jon Moxley The New F'N Show Jerry Lynn The New Faces of Fear The Wyatt Family The New Genesis Christopher Arkadian The New Horror Sami Callihan New Superstar, the Vision Steve Douglas The New Thing, the Robgoblin Robbie Dawber The New Wave Cheech Hernandez The Next, the Prospect, the Technical Messiah Alex Shelley The Next Big Thing, the Anomaly, the Global Standard, the Beast Incarnate Brock Lesnar The Nightmare Warrior, Dark Minion of the Underworld, Broadsword of Nazmaldun Hallowicked No Class Bobby Bass No Fear Mike Mondo No Money Malcolm Monroe The No Pain Train, the Being of Inconceivable Horror, the Harbinger of Sorrow Iceberg Not America's Sweetheart Davienne The Noticeable One, the Dandy Highwayman Aaron Proctor The Notorious 187, the Strong Style Thug Homicide The Notorious B.I.G. Big Moe The Notorious K.I.D. Kid Kash Number One Paul Jones The O.G. Doll Vanity The Obsession, the Midnight Son Caleb Konley Old Brown Eyes, the Italian Stallion J.T. Smith The Old-Timey King of Swing, Very American Dasher Hatfield The Omaha Chainsaw S.M. King The Omega Aaron Draven The One Man Gang, Hands of Stone Ronnie Garvin The One Man Glam Band Scotty Saxxon The One Man Rock Band Heath Slater The Orange Dream Jenna Tangerine The Original Gangsta New Jack The Original King of Swing, Dancin'Stevie Richards The Original Playa from the Himalaya, the Guru Sonjay Dutt The Original XTC, the Crown Jewel of the Embassy Jimmy Rave Ornery Octogenarian From The Old Folks' Home Melvin Snodgrass The Other Dark Meat Gotti The Outback Silvaback Mark Silva Outlaw Ron Bass, Don Bass, Joel Deaton, J.D. McKay, Charlie Haas P.S. Purely Sexy Michael Hayes The Palm Beach Heartthrob Scott Anthony The Panama City Playboy Adam Cole The Panther Tyrone Evans The Paparazzi Princess, the Paparazzi Diva Melina The Paragon of Virtue Elijah Burke, Mike Burry The Paranoid Pied Piper of TNA Eric Young The Party Peacock Dalton Castle The Pascagoula Plowboy Stan Frazier The Pearl of the Orient The Great Muta The Pearl River Powerhouse Ahmed Johnson The People's Champion, the Great One, the Brahma Bull, the Most Electrifying Man in Sports Entertainment Today The Rock The Perfect 10 Baby Doll The Perfect One, Perfectshawn, the Mecca of Manhood Shawn Stasiak The Perfect Weapon, the Insane Savant Delirious The Permanently Profit Producing Person Ares The Personification of Annihilation Max Smashmaster The Phenom Jimmy Snuka, The Undertaker The Phenomenal One AJ Styles Pig Daddy Cool The Proletariat Boar of Moldova The Pink and Black Attack The Hart Foundation Pistol Danger Evan Gelistico The Pit Bull Sgt. Craig Pittman, Skull Ganz Pitbull Kerry Brown The Pinnacle Shawn Patrick The Playboy Gary Hart, Buddy Rose, Jamie Gibson, Pete Huge The Poison Princess Taeler Hendrix The Polar Bear Paul Varleans The Policy Orlando Jordan Polish Power Ivan Putski The Polish Prince Steve Olsonoski, Scott Putski The Polynesian Warrior Mana Ponzona Americo Rocca The Pope D'Angelo Dinero Portugal's Perfect Athlete Shanna The Portuguese Man-Of-War Aldo Montoya Poseidon's Siren Ashley Vox The Predator Don Frye Pretty Badass, the Gatekeeper Kelly Klein Pretty Boy Pat Patterson, Gene Anderson, Larry Hennig, Bobby Heenan, Larry Sharpe The Pride of Tallinn The Estonian Thunderfrog The Pride of Wales Eddie Dennis Primetime Brian Lee, Elix Skipper, Amy Lee The Prince of All Goblins, the Poison-Tipped Bolt of Nazmaldun Kobald The Prince of Pain Joe Kane The Prince of Passion Kenny Casanova The Prince of Pranks Doink the Clown The Prince of Punk, The Reject Shannon Moore The Princess of Darkness Melicious Princess Palmstrike Kimber Lee The Prize April Hunter The Prodigy Tom Marquez, Alex Shelley, Mike Bennett The Professor Mike Tenay The Profile, The Blond Adonis Rip Hawk The Psycho Superman Smiley The Psycho Yuppie Paul E. Dangerously The Puerto Rican Princess Amber Rodriguez The Pug Alex Porteau The Punisher Don Vega, Andrew Martin The Punjabi Nightmare, the Punjabi Playboy, the Prince of the Land of Five Rivers The Great Khali The Punk Princess, The Patron Saint of Filth Christina Von Eerie The Punk Rock Ragdoll, the Vintage Vixen Heidi Lovelace Pure Dynamite Billy Roc The Purrfect 10 Lince Dorado The Queen of Rings Lei'D Tapa Queen of Suplexes, Sacramento Suplex Machine Nicole Savoy The Queen of the Carolinas, Undeniable Tessa Blanchard The Queen of the Dinosaurs Terra Calaway The Queen of the Seven Seas Oceanea The Quintessential Studmuffin Joel Gertner The Rabid Wolverine, the Human Buzzsaw Chris Benoit The Ragin' Bull Manny Fernandez The Ragin' Cajun Lash Leroux Rainmaker, Shin Jidai no Ace Ace of the new era, New Age Star Kazuchika Okada Rampaging Muscle Naruki Doi The Rapmaster PN News The Rapscallion Mick Moretti Rat Boy Yoshinari Ogawa The Rate Tank Kellie Skater The Rated R Superstar, the Ultimate Opportunist Edge The Ravishing One, the Smooth Operator Rick Rude Rayo Mexicano Rito Romero The Real Deal Selina Majors, Bobby Lashley, Aaron Neil, Adrian Steele The Real Double J, Road Dogg Jesse Jammes The Red and Black Attack NWO Wolfpac Redd Dogg Rodney Begnaud The Redneck Messiah Jamie Noble Redneck Woman Mickie Knuckles The Resilient Rookie, the Submission Specialist Green Ant Right Leg Andy Ridge T</t>
+          <t>x2 Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Certains sont touchés par la grâce d'autres par la poisse On me dit choisis ta voie alors que face à moi il y a qu'une impasse J'ai vu je touchais pas au but même au gré des passes Car habitué du banc de touche j'ai peu de face-à-face Mais il parait que ça n'arrive pas qu'aux autres Mais c'est les notre qui payent la note Moi comme tout ces Boeings mon rêve est de la détourner Au pied du mur comment la voir si j'ai le dos tourné ? J'ai vu le bonheur passer comme une étoile filante Ça fêter le réveillon sur un capot mais sans guirlande J'ai tout misé sur l'écriture à défaut de finir chef de gang Les seuls étoiles qu'on voit briller se trouventdans les stades ou sur les champs J'ai pas toujours été au top d'ailleurs je me demande à quand mon projet? J'ai mis du temps mais pour apprendre à tenir sans fléchir sur les genoux Certains ont l'intention de réfléchir avec les naseaux pleines de poudres On la convoite au clair de lune tout comme dans les tributs babtous Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Je vois le paradis à quelque kilomètre Le navire a chaviré et ma bonne étoile après vit la même Mon compagnon le désespoir me rappelle qu'on ne sait pas nager Ma descendance ne saura jamais où mon corps a pu échouer Combien en ont perdu la vie? nous sommes des milliers Et combien y pensent tout les jours? nous sommes des millions Et si personne bouge? nous sommes des milliards Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Une douleur sans médicament Je vous parle d'une vie du tiers monde La valeur d'une âme en diamant Méprisé qu'il vient du tiers monde J'suis le reflet de ce que je vis, j'avance avec un regard de glace Le savoir est une arme, on peut blesser avec les mots Si j'te racontais ma vie j'crois bien que tu pleurais à ma place J'ai toujours retenu mes larmes parce que j'aime pas gaspiller l'eau Rester lucide, c'est déjà une réussite J'dois mourir avec une arme je pense au braquage pas au suicide Elle m'a abandonné depuis ce jour là ça va pas Certains l'appellent ça la chance moi j'appelle ça la Baraka Quand jétais petit je croyais que jétais son préféré J'y échappais de justesse quand les autres faisaient déferrer Elle me rappelle en masqué donc souvent je décroche pas Je croyais qu'elle me faisait du pied enfaîte c'était un croche-patte Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner x2 Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Harakiri</t>
+          <t>Millions de kilomètres</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Maintenant, écoute, celui qui viendra te parler d'une rencontre avec Barzini, ce sera lui le traître, n'oublie pas ça. La technique est brésilienne il me faut un fusil et Laisses les putains s'égosiller On va les bousiller Nerveux quand je vois la Dép' J'suis dehors c'est la fête Savent déjà qu'j'vais les uer-t Mettent des pépettes sur ma tête Cette salope à tout donner c'est pas assez hein Hara Kiri c'est pas assez yeah Cette salope à tout donner c'est pas assez hein Hara Kiri c'est pas assez yeah Torche-toi le cul et respecte nous tout ira mieux Ferme ta gueule et respecte nous tout ira mieux Ok la prod est lourde j'me sens comme Pablo j'fais mon job Des patates dans la cour, des coups d'sse-cro c'est l'minimum J'ai pris le mic bourré, les juges font que d'm'harceler PalpaTeam va t'mêler, pas d'moonwalk, côtes fêlées Boy, quand l'cur hésite la main tremble J'voulais m'barrer mais tout le quartier m'a tenu la jambe Boy, magnum pas d'bouteille, ni de sécurité Boy, j'vis dans un putain d'sas pressurisé Hey, j'ai peu d'amis beaucoup d'inimitiés Hey, y'a des corps terre-pa, j'élimine sans hésiter Hey, j'alimente la ne-zo en tout humilité Genkidama dans leurs mères personnes pourra l'éviter La technique est brésilienne il me faut un fusil et Laisses les putains s'égosiller On va les bousiller Nerveux quand je vois la Dép' J'suis dehors c'est la fête Savent déjà qu'j'vais les uer-t Mettent des pépettes sur ma tête Cette salope à tout donner c'est pas assez, hein Hara Kiri c'est pas assez yeah Cette salope à tout donner c'est pas assez, hein Hara Kiri c'est pas assez yeah Torche-toi le cul et respecte nous tout ira mieux Ferme ta gueule et respecte nous tout ira mieux C'est la Mannschaft, c'est la Mannschaft J'ai posé mes couilles et le tout sur la table Carré VIP c'est pour les pointeurs et les zoulous piqués qui veulent montrer leur tal' J'ai du bon 'tos, j'ai du bon 'tos ma gueule dis-leur qu'j'fais des réductions Tu r'pars à poil si tu fais l'grossiste, dans l'19ème c'est la tradition Ton équipe de putes nous te garnissons Va tapiner à la télé avec Ardisson, Fogiel J'ai dégainé nous vous haïssons Dans l'mille j'ai du nouveau pour la mission Hosto, j'fais augmenter les admissions Vas-y pousse le son chacal ça flingue C'est pour les mauvais garçons dans l'banks, mets ta bouche par terre ramasse ta seringue hmm hmm hmm Et la douille est passée, ça s'arrose hmm hmm Et le compte est plein hmm Et la mule est passée, ça s'arrose La technique est brésilienne il me faut un fusil et Laisses les putains s'égosiller On va les bousiller Nerveux quand je vois la Dép' J'suis dehors c'est la fête Savent déjà qu'j'vais les uer-t Mette des pépettes sur ma tête Cette salope à tout donner c'est pas assez, hein Hara Kiri c'est pas assez yeah Cette salope à tout donner c'est pas assez, hein Hara Kiri c'est pas assez yeah Torche-toi le cul et respecte nous tout ira mieux Ferme ta gueule et respecte nous tout ira mieux Tu connais les bails ma gueule Respect à toi, longue vie à nous et garde la pêche Respect à toi, longue vie à nous et garde la pêche Cest lui quavait raison Bruce Wayne Bang 2005 Yo What up boy boy1</t>
+          <t>x2 Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Certains sont touchés par la grâce d'autres par la poisse On me dit choisis ta voie alors que face à moi il y a qu'une impasse J'ai vu je touchais pas au but même au gré des passes Car habitué du banc de touche j'ai peu de face-à-face Mais il parait que ça n'arrive pas qu'aux autres Mais c'est les notre qui payent la note Moi comme tout ces Boeings mon rêve est de la détourner Au pied du mur comment la voir si j'ai le dos tourné ? J'ai vu le bonheur passer comme une étoile filante Ça fêter le réveillon sur un capot mais sans guirlande J'ai tout misé sur l'écriture à défaut de finir chef de gang Les seuls étoiles qu'on voit briller se trouventdans les stades ou sur les champs J'ai pas toujours été au top d'ailleurs je me demande à quand mon projet? J'ai mis du temps mais pour apprendre à tenir sans fléchir sur les genoux Certains ont l'intention de réfléchir avec les naseaux pleines de poudres On la convoite au clair de lune tout comme dans les tributs babtous Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Je vois le paradis à quelque kilomètre Le navire a chaviré et ma bonne étoile après vit la même Mon compagnon le désespoir me rappelle qu'on ne sait pas nager Ma descendance ne saura jamais où mon corps a pu échouer Combien en ont perdu la vie? nous sommes des milliers Et combien y pensent tout les jours? nous sommes des millions Et si personne bouge? nous sommes des milliards Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Une douleur sans médicament Je vous parle d'une vie du tiers monde La valeur d'une âme en diamant Méprisé qu'il vient du tiers monde J'suis le reflet de ce que je vis, j'avance avec un regard de glace Le savoir est une arme, on peut blesser avec les mots Si j'te racontais ma vie j'crois bien que tu pleurais à ma place J'ai toujours retenu mes larmes parce que j'aime pas gaspiller l'eau Rester lucide, c'est déjà une réussite J'dois mourir avec une arme je pense au braquage pas au suicide Elle m'a abandonné depuis ce jour là ça va pas Certains l'appellent ça la chance moi j'appelle ça la Baraka Quand jétais petit je croyais que jétais son préféré J'y échappais de justesse quand les autres faisaient déferrer Elle me rappelle en masqué donc souvent je décroche pas Je croyais qu'elle me faisait du pied enfaîte c'était un croche-patte Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner x2 Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Invités par la street</t>
+          <t>Monica Jolie</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>Elle s'appelait Monica, Monica qui Jolie Elle s'appelait Monica, Monica Jolie Monica, Monica Jolie, Monica Monica n'est pas le genre de meuf à dire je t'aime Monica est armé, prêt à faire bang bang Si t'as pas dix mille euros, vas-y, vas-y, passe ton chemin Combien se tuent au taf juste pour lui remplir les mains, aux pieds les mains Elle n'a pas de cur, retiens bien mes paroles tu ne seras pas son âme-sur Petit ou gros, tu ne restes qu'un poisson Tu fais le malin devant l'hameçon fiston Elle s'appelait Monica, Monica qui Jolie Elle s'appelait Monica, Monica Jolie Monica, Monica Jolie, Monica Jack Daniel, bub, matinée mortelle Un peu du dancehall, elle se tortille comme une sorcière Elle a caché son cur dans un mini-short taille basse Elle réglera ton compte à coup de quelques messes basses Bien sûr elle gère quelques loss-bo Le papa à Monica si tu pèses pas des kilos Elle s'appelait Monica, Monica qui Jolie Elle s'appelait Monica, Monica Jolie Monica, Monica Jolie, Monica Elle s'appelait Monica, Monica qui Jolie Elle s'appelait Monica, Monica Jolie Monica, Monica Jolie, Monica</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Jamaican Boy</t>
+          <t>Monsieur l’Agent</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa Perdu de vue depuis dix ans Moi qui mdisais Mon aller-retour serait vite-fait Jai perdu ma route comme un tiseur Parti trop tôt dchez moi sans être avisé La déchéance de lhomme ma tétanisé Et certains dentre nous préfèrent lignorer Les yeux fermés à jamais Parti trop tôt dchez moi sans être avisé La déchéance de lhomme ma tétanisé Et certains dentre nous préfèrent lignorer Les yeux fermés à jamais If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa Ça fait déjà une décennie que je sais quje nreviendrai plus Je fais le tour de la Terre de leuphorie au garde-à-vous Jusquà la fin dmes jours, loin de vous Jusquà la fin dmes jours, loin de vous If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa If I was a Jamaican boy from Africa Perdu de vue depuis dix ans Moi qui mdisais Mon aller-retour serait vite-fait Jai perdu ma route comme un tiseur</t>
+          <t>Oui, oui, oui, oui, monsieur l'Agent Ça se voit peut-être pas mais tiens, j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Oui, oui, monsieur l'Agent Ça se voit peut-être pas mais j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Fais pas ta morale à deux balles, franchement t'es fatigant Fais pas ta morale à deux balles, franchement t'es fatigant Malgré qu'j'suis mate, mes fafs ont la même couleur que ton uniforme À part mettre un désordre, à quoi servent vos forces ? J'te donne pas raison malgré tes torts Et vu qu'je vis là, t'aimerais me vé-la et me jeter par mes tées-por Erreur judiciaire, erreur, Erreur judiciaire Les erreurs judiciaires sont des bavures policières Erreur judiciaire, erreur, Erreur judiciaire Les erreurs judiciaires sont des bavures policières Ça fait des marches républicaines et y'a pleins de démons L'affaire Bouna et Zyed, y'avait pas de démons À la vue de tous ça, j'veux m'tirer Ici, c'est pas lÉlysée Pourquoi j'm'habillerais ? Pourquoi j'mentirais Oui, oui, oui, oui, monsieur l'Agent Ça se voit peut-être pas mais tiens, j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Oui, oui, monsieur l'Agent Ça se voit peut-être pas mais j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Fais pas ta morale à deux balles, franchement t'es fatigant Fais pas ta morale à deux balles, franchement t'es fatigant Oui, Monsieur l'Agent Mais qu'est que tu veux que j'te dise ? J'ai les poches pleines et tous ces gâteaux, friandises Ze-dou, chelou Selon toi, j'suis bon qu'à être un fucking modo' Arrêtez vos contrôles abusifs toute la journée Jeté au Wati B parce que j'ai une certaine manière de m'habiller Je rôde les rues de ma ville avec les poches pleines de billets J'fais ma tricks et j'me demande dans quelle merde j'me suis fourré Je suis comme mes mentors depuis l'élémentaire Négro, j'ai tort, j'suis à deux doigts d'déborder Monsieur l'Agent, c'est vrai, tu nous sens pas Et nous aussi, on t'aime pas vraiment On s'demande pas pourquoi tu nous méprises seulement Tall Toujours acharné, ce pour nous mettre à l'amende Mets ton amande, j'fais plus d'sous que t'en aura jamais, bitch Pourquoi me regardes-tu mal ? Parce que je suis k'hel, l'air coupable et que je n'ai pas le cul pâle Un flic est mort, j'ai la larme à l'il Y'a-t-il quelqu'un lorsque nos daronnes sont en deuil ? Nan La raison pour laquelle on tire le signal d'alarme C'est que le respect va dans les deux sens, pas d'enculade Monsieur l'Agent, c'est la haine que tu m'imposes Aucun amour pour toi, lèche mes flash-balls suce Prend ma pièce et casse-toi, parle au talkie Moi j'ai pas de shit Merci, bye bye Oui monsieur l'Agent Ça se voit peut-être pas mais tiens, j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Oui, oui, monsieur l'Agent Ça se voit peut-être pas mais j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Fais pas ta morale à deux balles, franchement t'es fatigant Fais pas ta morale à deux balles, franchement t'es fatigant J'fais d'la 'sique, j'suis loin de la Thug Life Tu vois pas plus loin que ta Maglite Qu'est-ce qui te pousse à jouer les Batmans, nigga ? T'es complètement à coté de ta plaque Tes enfants m'écoutent, et ta femme aussi Mets-toi dans le crâne qu'un noir en Panamera, c'est possible Sans uniforme, t'aurais déjà ta tête sous mes XXXX Aucune haine Monsieur l'Agent Sois juste, après on coexiste Donne-moi une seule raison de garder le silence Ok, une seule raison, autre que ma différence capillaire Pas la peau claire, pas là pour plaire Tous tes confrères n'ont qu'à aller s'faire Oh oh ah Hé képi, viens pas nous les sé-bri Les pédophiles sont devant les schools avec des Kinders Country Képi, viens pas nous les sé-bri Dans nos fut', y'a pas de résine, y'a pas de résine Toujours les même balles dans les tieks, les té-ci1</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Jukebox</t>
+          <t>Non merci</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Epargnez-moi vos partouzes, on les frappe tous 7.5 les zoulous, je les tue par douze Come back c'est la frappe dans les bacs couz Casses toi, tu fais du rap, j'suis la bad news Trop de putains veulent graille, ils vont pas gater mes bails Gros big up à ma maille, ils sont bons qu'à taper des rails Sont bons quà sucer des eue-q, check fais péter les watts Je suis satisfait quand les you-v mettent mon son dans les bat' Je suis satisfait quand les nazes foutent mon son dans les boites Je te connais a-p oi-t, tu me checkes a-p x3 Le 7.5 ma gueule, ça va défoncer vos enceintes Depuis le temps qu'on les esquinte C'est le 7.5 Plus qu'une seule idée être le meilleur à Paname Plus qu'une seule idée la concu n'est pas là Plus qu'une seule idée si t'es fêlé, fais-le Plus qu'une seule idée ???? faut les ver-le Pètes ton sbah, bouges ta tête Et quand le 7.5 frappe, bouges ta tête Ça vient des ghettos chics, man, bouges ta tête C'est que du son, paniques a-p, bouges ta tête Pourquoi tu guettes comme ça, bouges ta tête x2 C'est que du son, paniques a-p, bouges ta tête Ça vient des ghettos chics, man, bouges ta tête C'est Jarod, je baraude, galope salope, j'arrose J'ai pas reu-p, balance, carotte, c'est le même taro J'ai perdu trop de potes, j'ai des raisons dêtre paro 365 jours des grillages et cinq barreaux 1.9 y'a la hass quand mes gars seront libérés T'as un 9 dans ta caisse, dis toi bien que tu vas tirer Comme un coup de machette, je te la ai-f one shoot Ton équipe est H.S, faut la foutre aux chiottes Les gens m'entendent pper-ra et croient que je joues Si j'ai haja avec toi, je vais pas te mettre en joue C'est le zoo, comment allez-vous ? Ce mec a un flingue putain de merde, barrez-vous Le 7.5 ma gueule, ça va défoncer vos enceintes Depuis le temps qu'on les esquinte C'est le 7.5 Plus qu'une seule idée être le meilleur à Paname Plus qu'une seule idée la concu n'est pas là Plus qu'une seule idée si t'es fêlé, fais-le Plus qu'une seule idée ???? faut les ver-le Pètes ton sbah, bouges ta tête Et quand le 7.5 frappe, bouges ta tête Ça vient des ghettos chics, man, bouges ta tête C'est que du son, paniques a-p, bouges ta tête Pourquoi tu guettes comme ça, bouges ta tête x2 C'est que du son, paniques a-p, bouges ta tête Ça vient des ghettos chics, man, bouges ta tête Fais pas genre tu connais pas , on arrive, on te met le tarif....</t>
+          <t>Ils n'ont qu'à me négliger Mais je passerai sous votre nez comme Omar Sy Ainsi, je n'ai jamais l'air blessé Je repeins le monde un peu comme Da Vinci Et si vous m'tendez la main, je ferai de même Et si jamais t'as croisé mon ch'min, j'suis resté l'même Et j'leur ai dit Oui mais non merci oh Mais non merci oh Oui mais non merci oh Mais non merci oh Oui mais non merci oh Mais non merci oh Oui mais non merci oh Mais non merci Vous m'avez négligé, vous m'avez négligé Vous m'avez négligé, vous m'avez négligé Sachez-le que c'est déjà trop tard, trop tard, trop tard Je n'raffole pas du menu fretin, fretin, fretin Ils ont beau se déguiser, mais au fil du temps la vérité les déshabille Je n'ai jamais XXX, j'ai détourné l'regard, j'veux pas te voir ainsi Je lui ai tendu la main, elle a fait de même Elle a croisé mon ch'min, le destin était de même Et j'leur ai dit Oui mais non merci oh Mais non merci oh Oui mais non merci oh Mais non merci oh Vous m'avez négligé, vous m'avez négligé Vous m'avez négligé, vous m'avez négligé Sachez-le que c'est déjà trop tard, trop tard, trop tard Je n'raffole pas du menu fretin, fretin, fretin J'ai vu mon peuple en train d'se noyer, en train d'se noyer La misère du monde sur mon dos, sur mon dos, sur mon dos Et j'ai vu quelques atrocités, atrocités C'est des choses à n'pas trop citer, trop citer, trop citer Dans l'ombre on m'a laissé tu sais mon gava Le soleil n'a pas fait briller mes qualités J'suis plutôt Bob Marley que Che Guevara J'ai aimé tout c'qu'on a, c'que l'on a mérité Le pire c'est, qu'j'l'ai pas ché-lâ, j'suis pas che-lâ, face aux difficultés Négligé, votre truc sse-cra, on m'appelle pour l'she-ca XXX Je me suis dit XXX poursuit la ue-r Sans casse, brise les murs d'la hess car le biz' sature Y'a un retour dans une flamme Comme un démon dans un corps de femme M'ont pris pour un faible alors XXX Et j'leur ai dit Oui mais non merci oh Mais non merci oh Oui mais non merci oh Mais non merci Vous m'avez négligé, vous m'avez négligé Vous m'avez négligé, vous m'avez négligé Sachez-le que c'est déjà trop tard, trop tard, trop tard Je n'raffole pas du menu fretin, fretin, fretin Vous m'avez négligé-gé-gé-gé-gé-gé-gé-gé... Vous m'avez négligé x4 Je suis ce gosse à qui on disait nan T'es pas d'ici Vous m'avez négligé3</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Langue de vipère</t>
+          <t>Outfit</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Tu m'ennuies, moi aussi, viens on parle Sur qui? Deux, trois, Caraba, Maléfique Chut, chut, chut, chut tout c'qu'elles disent Chut, chut, chut, chut que des bêtises Des bêtises des hypocrites ah, des hypocrites ah Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, j'te dis que l'homme est du-per Je les ai vus sur Twitter te faire Comment tu veux dire que tout est fake? Les bâtards ont noté tous les faits De quoi faire un coup d'état Mon ami, faut que tu disparaisses Tout ce qu'on dit sur toi m'agresse Amis et ennemis disent tous pareil, reprends-toi Mais tout est faux, Black J'ai déjà payé la pension, on m'dit no, no, no C'est parce qu'ils disent, tout est faux, Black J'ai payé la pension, mais on m'dit no, no, no Sois gentil, épargne-nous les détails J'ai grandi, ça n'me fait plus de mal ah, ah oui Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui La prochaine fois qu't'entends des messes basses Crois pas qu't'as dead ça, mes potos laissent ça La prochaine fois qu't'entends des messes basses Crois pas qu't'as dead ça, mes potos laissent ça Tu n'es qu'un mytho, igo, d'après toutes celles que t'as côtoyées Tu es mon gars, quoi qu'il arrive, le poisson, je vais le noyer Monsieur le juge, la vérité, ce n'est pas mérité Ce n'est que la célébrité, question de crédibilité Mais tout est faux, Black non, non J'ai déjà payé la pension, on m'dit no, no, no C'est parce qu'ils disent, tout est faux, Black non, non J'ai payé la pension, mais on m'dit no, no, no Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, j'te dis que l'homme est du-per Y a beaucoup trop de pipelettes Très peu de gens qui t'aident À deux doigts d'te quitter, j'ai quitté, faut quitter Beaucoup trop de mythos, ils veulent nous imiter Tu fais sonner mon bigo, mais t'es pas invité J'suis avec Portoricaine, on décale un week-end Au soleil, en hiver, loin des langues de vipère Côté sur l'appuie-tête, casquette de capitaine Si leur vie est vilaine, bah, la nôtre est super Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal ah, ah oui Sois gentil, épargne-nous les détails ah, ah oui J'ai grandi, ça n'me fait plus de mal mais, mais, mais, mais Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, oui, l'homme est du-per Langue de vipère, j'te dis que l'homme est du-per</t>
+          <t>Outfit, outfit, j'suis dans mon outfit Outfit, outfit, j'suis dans mon outfit Out-out-outfit black, ils arrêtent pas d'me fixer Ouh Pourtant, là j'ai pas mis de marque de luxe Eh Je n'suis pas dans le m'as-tu-vu Oh, c'est le m'as-tu-vu qui me voit tout frais Tellement frais, la go me voit comme du bissap Bissap Salle de sport, poto, contours, biceps Biceps Gros bébé bien nourri qui rempli l'XL XL, XL, j'suis dans mon outfit Tu le sais, tu le sais bien Une veste en satin J'suis dans le thème, j'suis dans le thème, j'suis dans le thème d'la night D'la night, j'me prends pas la tête, c'est quoi l'projet ? Je suis bien sappé, comment tu t'appelles ? Enchanté Stop Stop, ne marche pas sur mes pompes Pompes Tu sens l'regard d'mes potes Potes, mais t'inquiète on reste classe dans c'bordel Envoie la sauce Ouh, envoie-nous ton outfit Ouh De face, de profil, montre-nous ton style, te prends pas la tête Ha, ha, ha, ha, ha Dis-moi combien Combien ?, combien coûte ton outfit ? De face, de profil, montre-nous ton style, te prends pas la tête Outfit, outfit Ouh, j'suis dans mon outfit Outfit, outfit Outfit, outfit, j'suis dans mon outfit Air Force, chaussettes trouées Ouh C'est mon outfit, j'en n'ai rien à secouer Rien n'a secouer, ah J'ai la tête sous l'eau, je n'ai pas besoin d'bouée La mode, c'est mon truc, je ne peux pas couler Outfit Je ne peux pas couler Je ne peux pas couler, Fashion Week, j'suis en baba cool Baba cool Porte-bébé stylé papa poule Papa poule, j'suis dans mon outfit La même question tous les matins Je n'ai pas les mesures d'un mannequin Les critiques, rien ne m'atteint Jogging, casquette, petit parfum Pshit, pshit Petit parfum, je sors d'un rêve où c'est moi la star Dans l'futur y a mon avatar Tout est dans l'style, j'suis pas trop bavard Envoie la sauce Envoie-nous oh, oh, envoie-nous ton outfit De face, de profil, montre-nous ton style Ouh, ouh, te prends pas la tête Tête Dis-moi combien Ouh, combien ?, combien coûte ton outfit ? De face, de profil, montre-nous ton style, te prends pas la tête Ouh Outfit, outfit Ouh, j'suis dans mon outfit Outfit, outfit Ah, j'suis dans mon outfit Stop Stop, ne marche pas sur mes pompes Pompes Tu sens l'regard d'mes potes Potes, mais t'inquiète on reste classe dans c'bordel Ouh, ouh Envoie la sauce, envoie-nous ton outfit De face, de profil, montre-nous ton style, te prends pas la tête Dis-moi combien Combien ?, combien coûte ton outfit ? De face, de profil, montre-nous ton style, te prends pas la tête Outfit, outfit Ah, j'suis dans mon outfit Sale unh Outfit, outfit, j'suis dans mon outfit Outfit, outfit, j'suis dans mon outfit Mais ça, c'est une petite tenue parmi tant Laisse ça PDG, laisse ça je t'ai dit Je suis dans mon outfit, laisse De face, de profil, montre-nous ton style, te prends pas la tête Ouh, ouh, ouh</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>La source</t>
+          <t>Paradis</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>J'avoue y avait toute la team quand on l'a ken Laisse-la vivre quelques semaines Scarifie son corps ensuite balance dans la Seine Je te laisse faire ton gravon pendant qu'on reste zen T'es dans les problèmes my nigga Quoi de neuf gravon ? Les problèmes my nigga Fais pas trop le savon, quoi de neuf gravon ? Il passe le savon Fais pas trop le savant ou tu te feras lessiver Esquive-les dehors À ce qu'il parait tu tires dans les jambes et tu rigoles Zoulou on m'appelle John Wayne, viens nous voir à jeun Ça fait 15 ans qu'on est là, putain mais retourne à l'école T'es que de la chair à canon, ouais ça va enjailler l'engin Petite tapine au collège ensuite veut michetonner un grand du tieks J'arrive c'est nous les grands du tieks, monte dans la tchop Tu vas juste gratter la bouteile, un KFC et stop Putain de génération niqué, ouais tous les jours, elle m'choque Bref, je suis nouveau dans la fête, j'ai fait des kilomètres Mon zoulou tu vas yer-p', mon zoulou tu vas ier-ch Quand tu verras la team Quand tu verras qu'on frime pas, qu'on connait bien le crime J'parle peu, je connais bien mes classiques et mes racines Monnaie facile, roro massif, état raciste démocratie Ça rime mal, j'envoie comme Beenie Man L'habit, le moine, trahir chez moi c'est illégal, boy J'avoue y avait toute la team quand on l'a ken Laisse-la vivre quelques semaines Scarifie son corps ensuite balance dans la Seine Je te laisse faire ton gravon pendant qu'on reste zen T'es dans les problèmes my nigga Quoi de neuf gravon ? Les problèmes my nigga Fais pas trop le savon, quoi de neuf gravon ? Il passe le savon Fais pas trop le savant ou tu te feras lessiver Esquive-les dehors J'arrive tout seul je vous bousille Maitrise langage du Uzi, pose ton vuca dans le jacuzzi On savait que c'était ta cousine, mon laud-sa, mais on s'en beurre Même les petits du coin sont passés dessus, gava, elle aime le beurre Qu'on arrive jamais à l'heure, habitudes d'ancien voleur Plus matrixé tu meurs, ouais mon zoulou, elle aime le beurre Casse-toi, je veux pas de limousine, je veux juste une son-mai pour Maman On m'appelle brother, mon zinc j'arrive je fais l'effet d'un calmant Zoulou je te laisse le bas-monde, et tout ce qu'il englobe Zoulou je te mets plus d'amende, tu me paieras là-haut Ils font les dingues, ils me connaissent bien, ils oublient On va les uer-t, ils vont entendre brrrr fin du conflit Mon zoulou viens nous voir dans le zoo et ouais l'ambiance est cosy Malgré beaucoup de charos en chien, des ches-lâ comme sarkozy J'avoue y avait toute la team quand on l'a ken Laisse-la vivre quelques semaines Scarifie son corps ensuite balance dans la Seine Je te laisse faire gravon pendant qu'on reste zen T'es dans les problèmes my nigga Quoi de neuf gravon ? Les problèmes my nigga Fais pas trop le savon, quoi de neuf gravon ? Il passe le savon Fais pas trop le savant ou tu te feras lessiver Esquive-les dehors Ouais mon gars c'est comment ? Ici la Source Ha j'ai entendu les histoires, c'est bon c'est réglé ? Il s'est vé-squi RDV au top Là où ça donne la calvitie Torse nu, calibré même en calcif Hé ! Fuck ton arbitre Armée, donnes-moi le reflet sur ta vitre teintée</t>
+          <t>On na quune vie, et on y a tous droit On na quune vie, et on y a tous droit Paradise, paradise, paradise, paradise Le paradis, le paradis Jveux pas une parodie du paradis Ça baratine le paradis Jveux pas une parodie du paradis Ya ceux qui nont jamais eu dchance Et ceux qui baignent dans la vivance Écoute, deux mondes si différents Mais si proches dans la distance Cest pour ça que lun profite de lautre Et lautre chuchote que lun est faux Mais chacun ses défauts Et si seulement, si seulement On nétait pas si différents, si différents Si seulement, si seulement Il ny avait pas la distance, la distance On na quune vie, et on y a tous droit On na quune vie, et on y a tous droit Paradise, paradise, paradise, paradise Le paradis, le paradis Jveux pas une parodie du paradis Ça baratine le paradis Jveux pas une parodie du paradis Ya ceux qui sdisent jvais jamais percer Jsuis tombé dhaut mon frère et le béton ma bercé Personne ne maide et jte ldis demblée Ils nfont que fuir en trouvant des excuses XXX Putain cest quand jretourne au de-ble Jespère quce serait pas dans une soute Entouré dquatre planches scellées Jveux juste voir ma progéniture Mon producteur qui prend de lâge En distribuant la fortune Jme suis fait sous la torture Jsuis devenu une ordure Mais un jour jy arriverai Bien sûr poing levé pour les frères Quand jdis bonjour je transmets lespoir Jsuis devenu Beriz en rôdant les squares On na quune vie, et on y a tous droit On na quune vie, et on y a tous droit Paradise, paradise, paradise, paradise Le paradis, le paradis Jveux pas une parodie du paradis Ça baratine le paradis Jveux pas une parodie du paradis Paradis fiscaux, dégo et dordures Recouverts dor pur Paradis fiscaux, dégo et dordures Recouverts dor pur</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>La Vie</t>
+          <t>Parigos</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Eh mais t'entends pas ou quoi ? Yeah, c'est Jacky Brown et Ben-J Accompagnés du Docteur Bériz Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques Mais je reste debout Ce n'est pas la peine d'appeler les pompiers tant que j'respire N'appelez pas les pompes funèbres tant qu'la bonne musique m'inspire Et ouais les gars, j'ai tout vu, j'ai connu les hauts, les bas Mais n'en faites pas tout un débat, pas de hasard si on est là Capitaine de mon bateau, mister Jacky Brown garde le cap J'ai partagé mon gâteau la vie m'a quand même mis des claques Acteur et metteur en scène de mon propre long métrage J'ai toujours assumé mes réussites et mes naufrages Leur soi-disant game franchement m'a fatigué Mais mon orgueil et ma fierté m'empêchent de capituler Donc on come back again malgré les difficultés J'aime entendre mon fiston crier Vas-y Papa tue-les Aujourd'hui j'ferai plus croquer personne à part mon chien Vu qu'les Hommes sont tous des vampires Te sucent de tout ton sang quand tu leur tends la main Ils te souhaitent la mort avec le sourire Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques J'ai pris de l'âge, j'me sens fatigué Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques Mais je reste debout Les mecs comme moi qui gardent leurs souvenirs Comme si Picasso l'avait peinte en personne Mon berceau à moi, c'est bien l'Afrique Je ne fais pas la guerre pour une soi-disant terre sainte Je paye mes fautes pour ma part Je paye mes fautes pour ma part Si tu l'sais pas, j'te le dis Les mecs comme moi se font tous seuls Comme Shin Shekaï disait du berceau au linceul Je n'suiverai pas les gens qui disent Des balles il pleut Je vis pour donner de l'espoir à ceux qui l'veulent Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques J'ai pris de l'âge, j'me sens fatigué Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques Mais je reste debout Tu veux savoir combien j'pèse, si j'prends du bif Si la musique ça paie, combien rapportent mes classiques On est jamais assez préparé pour le succès Le showbiz laisse plus de traces que les tatoos à Djibril Cissé Strass et paillettes, gros gamos, red carpet Que de gros rêves de plomb sur un matelas rempli de pépettes Hmm, la rançon de la gloire c'est trop hard Comme un boxeur faut encaisser pour être le La vie nous met des claques La vie a un prix pour chacun La vie une piste noire, j'zigzague entre les fauves et les requins J'vous laisse rêver du star system Mon empreinte rouge sang pour emblème Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques J'ai pris de l'âge, j'me sens fatigué Oh yo yo yo La vie m'a mis des claques J'ai pris du retard sur mes projets Oh yo yo yo La vie m'a mis des claques Mais je reste debout Tic tac, de pas à pas j'arrive à mon destin La vie te met une claque si t'es mesquin Tic tac, de pas à pas j'arrive à mon destin La vie te met une claque si t'es mesquin Eh Jacky, mes frères sont à bout Eh baby, l'Afrique est à genoux</t>
+          <t>Maître Gims, Bedjik Mais qui a 'glige ? Maitre Gims, Bedjik, un feat en famille Trop deus tu t'demandes si j'tape dans la farine Here We Go ! Tu vois bien que les flows varient C'est l'zbeul un peu comme dans Tex Avery Ça fait des mois et des mois et des mois que je ne dors pas Les MCs me veulent en featuring mais j'en prends très peu Qui assumera pas sans avoir enfilé un joint de beuh Vous êtes tous piégés dans le Vortex... Mais j'compte t'enterrer après t'avoir humilié sur la voie ferrée Demande à Ferris à quoi bon sert de faire l'inspecteur Derrick ? Ça m'fait dahek Sors ton béret, puis ton pe-pom, si t'es paré, ben c'est bavon C'est moi l'premier à l'avoir kické donc je n'sais pas à la base qui t'es L'heure est venue de t'liquider, Bedjik le psy, c'est la qualité Ceinture noire chrome sur le bas-côté, fallait méditer J'vais pas te le répéter au cas où t'aurais pas tilté Et puis j'm'lèb' sur la prod' sans déc' Il faut qu'j'te la mette pour que tu captes ma tech' Mais moi j'fais du lourd, même si t'es par terre j'te lève Bsahtek pour ton feat mais il t'en reste sur les lèvres J'suis dans mon délire, j'suis pas pressé, j'vais les fumer sans m'reposer La dégaine de l'homme amoché donc japparais souvent stressé Disons qu'la vie est dure, et qu'les pe-stu nous cassent les couilles À cause d'une dégaine de taré, j'suis pas carré mais j'sens la douille Alors j'me pose, ma couronne sur les questions qu'j'me pose La daronne cogne, crie sur le gosse qui compose Et dès qu'j'suis dehors, Berisque de perdre le contrôle Rien à foutre de ce que vous pensez, toutes vos attitudes de shour J'suis déboussolé, déboule solo ma passion j'vais déboutonner Correctionné mise de côté si t'as zappé là tu connais Genre connu mais débit volé, tu vas prendre une demi-volée Mais t'as rien à m'dire, t'inquiète J'avais une barre pour toi mais tu tentais de m'chourave les miettes J'ai tort de... toi t'es condamné à te gratter les fesses Et roule sur ce fils de... change de tier-quar Mon espèce est protégée, les enfoirés sont mis à part J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis grave énervant, tu es trop décevant J'kicke depuis mes 9 ans, pour ça qu'j'plie du de-mon AAAAAAAAAAAAAAAAH Guette le niveau froid comme Sub-Zéro D'mande à Jerry R., un flow sans précédent S'faire fumer devant des javons Ambiance chavaud-bavon, craint comme un Deceptycons Ton cul sur le trident, là c'est mon côté dit-ban Laisse moi les dé-fler-gon, me-Gi fucke Poséidon Ferme là, si t'es pas con, j'défouraille depuis l'balcon Glauque comme les rues d'Patong, danse dans la gueule du dragon Viens m'voir à Kin' au Congo, ou dans la forêt d'Ngorongoro Au corps à corps avec un taureau dans l'océan d'vant les coraux Violent comme de décevoir ou l'désaccord avec les parents C'est paro car tôt ou tard t'es forcé d'payer plein pot l'tarot J'suis avec Sop-pra-no Bedjik, Beriz, H, Dream Oh no, tu vis un instant hors norme J'suis bizarre, je sais, je ne suis pas aux normes Énorme ? I don't know Dream Chérie, questionne tes hormones J'lance une bombe, j'vous donne cinq secondes Les gars, cassez-vous, j'ai tué Cupidon Ta go me trouve intriguant Dis-lui qu'j'ai du goût comme du bon taga J'suis dans le sas, j'ai quatre tass', aux pattes des tas d'passes S'échappe ta carcasse, craque ne canne aps Le taff ton futur, mon passé s'noie Et t'es calme, me parle aps, j'sais aps les poukaves Écarte de cracher, se cache Confie tout aux tasses-pé, rafale de face Yeah, ne me faites pas chier, j'fais plus confiance même au chien Une belle paire à tes pieds même ton poto peut t'les cirer J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Reste tranquille, mais-mais reste tranquille Voilà Sopra' M'Baba et Maitre Gims Comme lui, j'ai fait le tour du monde de Marseille à Paris Tu connais déjà le gabarit, donc donc reste tranquille Un big up au Wati-B, pour les 700 000 Que des mecs costauds, que des mecs solides, là j'atterris comme à Smallvile Oh oui ce feat c'est de la-la folie, mes rimes défilent comme un gros bolide J'vois des MCs prendre la fuite comme des vaches d'Interville Dream, mon flow assassine À la fin de ce couplet tes gars ont le visage à Seal Je les braque avec le magnum de l'Institut Le game n'est pas un trottoir pourquoi tu te prostitues ? Dédicace à Bedjik et à Shin Sekaï Avec un putain de flow qui découpe comme San ku kai Rien qu'jpars en live, faut qu'je fly Donc je vous dis bye bye bye bye bye-bye bye !4</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Légendaire</t>
+          <t>Paris By Night</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Ils ont qu'à dire c'est le rap à l'ancienne bats les couilles j'suis lancé J'ai fait quelques diamants ils veulent me faire tout recommencer J'étais posé au tierquar fallait que je fasse mon billet car Les gens sont froids là bas poto même en été ça yéca En face ils pensent qu'à streamer ici on veut juste s'exprimer Trop vrai pour être acteur je préfère prendre des mots les fair rimer Salam aux détracteurs j'sais qu'ils font partie ds opprimés Oui très peu m'ont compris mais j'suis encore là pas d'R.I.P Et souvent quand je pense 10 ans en arrière Je me dis hmm macha'Allah la carrière Bref pas là pour parler de moi enfin si Et puis mais pourquoi les petits de chez moi se croient invincibles ? J'ai des flashs j'aimerais pouvoir retourner dans le passé J'étais sous flash je me disais mais qu'est ce que je vais faire dans le futur Aujourd'hui je les entends dire aaah il est sur sa route Quitte à choisir je veux pas être sur la vôtre allez vous faire foutre Entre musique et vie réelle aaah je me trompe peut-être Y'a celui qui joue et celui qui va souffler dans la trompette C'est pas à moi de juger tout ce qu'ils font frère Est ce que tu sais ce qui se cache derrière ce putain de fond vert ? J'aimerais tellement me venger avant de me ranger Mais si je fonce tête baissée ils vont me prendre pour un dérangé 10 ans à douter la musique m'a envoûté Comme Paul mon fils commence à me demander papa où t'es ? Les gens de ma ville m'élèvent Le coeur à Paris le cerveau sur une île déserte Quand j'ai la haine j'essaye de faire un signe à mon ascendant Je mettrai de l'eau dans mon vin quand il aura 100 ans Les keufs se sont levés plus tôt que la daronne Y'a les chemins qui mènent au hebs et les autres à Rome Dis leur que t'as faim ils vont juste te mettre des carottes Si ils sont 20 et qu'j'suis tout seul wAllah que j'ai pas reup Petit frère s'est fait planter pas loin du jardin dans le jargon On est très loin des films de Dujardin Comme si j'avais du sang sur la mano Du sang sur la mano Ils m'ont rendu parano Ils m'ont rendu parano Je suis seul dans mon viano Je suis seul je suis seul Je suis triste comme un piano Vos regards me font peur me font perdre confiance Laissez moi dans mon coin je risque de plomber l'ambiance Je me méfie comme de celui qui pose le regard sur ma fille Bizarre quand tu veux donner on veut te prendre ta vie Mon gilet pare balles est troué juste au niveau du coeur Okay prenez ce que vous voulez mais laissez moi un joker J'essaie pas de vous faire de la peine veuillez garder votre compassion Si tu viens juger ma vie bien sûr qu'y'aura confrontation Je me suis retrouvé dans tout ce bordel juste par passion PS Je suis celui qui marque dans les prolongations On va tous finir au sol pour le simple fait qu'on respire Ceux qui sont encore debout se consolident ou bien se méprisent Motivés par la chaleur et le prestige D'où je viens y'avait pas grand chose Le temps de rêver du top on y était Mon petit frère on essaie juste de vivre Légendaire depuis le binks un exemple pour ma ville D'où je viens ma vie est gravée comme dans un livre D'où je viens ma vie est gravée comme dans un livre Comme dans un livre</t>
+          <t>7.5 C'est le 7.5 du seum et des nympho Le 7.5 du seum et des nympho 7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes C'est l'7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes C'est T.O.X.M.O en direction de Ricket Un coup de fil m'est nécessaire en quittant le 9 B.C - R.I.M ? Wesh bien ? - C'est quoi le lire-dé ? Ça fout rien Ramène toute l'Institut c'est bon soir-ce on va se mettre bien Mon 0.6 sonne mais bâtard qui décroche Il faut je m'échappe boycotte les blocs Que du whisky, shit et des tass' en bloc Laisse tomber, laisse tomber C'est Paris by night et c'est pas près de changer Ok, 7.5, Paris by night Ceux qui vont en boite, ceux qui font les drive-by C'est la capitale chez nous y'a des tas de bails Donc taille hataye c'est le continent thaï C'est le 7.5 du seum et des nympho Le 7.5 du seum et des nympho 7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes C'est l'7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes Le 7.5, le 7.5 n'a pas de sécu Notre seule issue c'est d'vendre du shit et le bif reste notre seul pécule Notre seul pécule Le 7.5 le 7.5 n'a pas de sécu, le 7.5 le 7.5 n'a pas de sécu Notre seule issue c'est de vendre du shit et le bif reste notre seul pécule Notre seul pécule, notre seul pécule Le 7.5 le 7.5 n'a pas de sécu Sin-cou envoie les masses, je suis dans la voiture avec des tass' Yoshi, Nervous dans la place, quoi ? Ton gars s'est mangé des coups de shlass Attend, j'arrive tout de suite, juste le temps d'un coup de fil Descendez bande de pétasse et rendez moi mon bout de shit Bombar, bombar, bombar, bombar, Bombar, bombar, bombar Je viens de péter ma teille, je vois des sses-fe nah sheitan Je sors tout droit de la boite et je vois des ss-ki nah sheitan Paris, la nuit ça tire ! Paris, la nuit ça deale Paris, la nuit ça tise ! Paris, la nuit ça sniffe Paris, la nuit ça tire ! Paris, la nuit ça deale Paris, la nuit ça tise ! Paris, la nuit ça sniffe 7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes C'est l'7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes Le 7.5, le 7.5 n'a pas de sécu Notre seule issue c'est de vendre du shit et le bif reste notre seul pécule Notre seul pécule, notre seul pécule Le 7.5, le 7.5 n'a pas de sécu - Wesh le H - Wesh S.Pri - Mais tu vas où ? - Avec Abou 2being, on est là - Hahahaha - Cintré comme ça, le pectoral saillant - Eh mon gars, ils sont où Jarod et tout ça ? - Eh, viens, on bombarde ma gueule ? - Eh, vas-y, viens, on bombarde direct, on va les calmer, rah Tu connais, tu connais, tu connais, tu connais Tu connais, tu connais, tu connais, tu connais Paris, by night, Paris, by night Paris, by night, Paris, by night P.A.R.I.S, Paris by night P.A.R.I.S, Paris by night, yeah 7.5, ouvre les yeux enfoiré L'Institut Frappe, rahigt</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Les anges nous aiment</t>
+          <t>​popcorn intro</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Peu importe c'que tu fais, un d'ces quatre tu payes Que ce soit ici ou ailleurs, Beriz mets les à l'heure Je suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Témoins d'c'que vous voyez pas Quand tout le monde part c'est eux qui veillent sur moi C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent Les yeux ouverts dans la matinée En portant le regard sur tous ceux qui m'ont freiné Je prends une douche froide, grille une clope et sors pour prier Une présence qui m'observe, mon passé qui m'obsède Je suis en excès, j'attends pas le succès J'ai pas besoin d'me prendre la tête, je sais qu'ils veillent sur moi J'ai pas besoin d'être prise de tête, je sais qu'ils veillent sur moi Je suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Témoins d'c'que vous voyez pas Quand tout le monde part c'est eux qui veillent sur moi C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent Maman m'a dit sort, va chercher de quoi vivre À la s'conde j'étais dehors, tout en esquivant les flics Ma démarche a changé poto, j'suis devenu deuss Essaie de me pointer si à cause du goudron dans la beuj' Rien que j'les rends ouf dans ma zone Beriz est d'sorti et il a les crocs Petit fait pas l'malin, dis-moi qu'est-c'que tu connais J'laisse mes affaires entre tes mains pour voir qu'est-c'que tu commets La rue n'a pas d'pitié, négro tu veux briller Tes adversaires t'effacent pour un billet La jalousie du charme et si tu t'poses elle va t'sucer Elle fera ça tellement bien qu'elle pourrait t'parler du suicide Et toi comme un con tu sors ton Beretta et règle tes affaires Comment faire quand t'as un fer ? C'est l'enfer et je m'y plaîs Je soigne mes plaies et j'suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Témoins d'c'que vous voyez pas Quand tout le monde part c'est eux qui veillent sur moi C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent Garde la foi p'tit frère, peu importe c'que tu fais Les gens qui t'jugent, sont ceux qui ont à faire à l'enfer Leur facture est salée, on les nomme les obsédés C'est eux qui gagnent mais un d'ces quatre ils s'feront fourrer Ils perdront la tête en cherchant leur chance Entourés par le diable dans n'importe quel sens Ce jour-là c'est toi qui s'ras vainqueur Pas parc'que t'es le meilleur mais parc'que t'as du cur, nigga Mais tout se paye passe à la caisse nigga Tourne la page si t'as fini C'est eux qui payent bien sûr Et toi qui passes Je suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Témoins d'c'que vous voyez pas Quand tout le monde part c'est eux qui veillent sur moi C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent Je suis sûr que les anges nous aiment Je suis sûr que les anges nous aiment Témoins d'c'que vous voyez pas Quand tout le monde part c'est eux qui veillent sur moi C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent C'est sur mon âme que les anges veillent C'est sur mon âme que les anges méditent3</t>
+          <t>...</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Love</t>
+          <t>Privilégié</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Tinquiète elle est pas comme les autres, elle est pas sotte Bosseuse, elle a pas ltime elle est frais comme personne Ce nest quune question dtemps ce nest quune question dépiderme Car lamour ne suffit plus et que la haine nous dissout Cétait pas la bonne, qui sait pas les mêmes ambitions Quen sais-je ? Pas les mêmes accords uon jouait, ya pas dsecret On a perdu le fil car ça n'allait pas trop, nos familles sdéchirent Petit à petit jmabandonne rien qujenquille des culs-secs Jai donné tout cque javais jamais je ntai trahi crois-moi Sur les réseaux sociaux jamais donné mon numéro On aurait pu faire un bon bout dtrajet même partir en séjour planète ou movie Jréalise, parle pas dkhaliss, prends tes valises Cest tout cquil y avait entre elle et moi Cest tout cquil y avait entre elle et moi Cquil y avait, cquil y avait, cquil y avait Si tu ne le vois pas, jpeux pas texpliquer la situation Tu ne le vois pas, jpeux pas texpliquer la situation Fallait bien quun jour les choses bloquent depuis lépoque il te manipulait Ramène plus jamais ce sale Noir Première réplique qui ma fait reculer Pourtant jai commis aucune erreur pour toi javais donné le meilleur Juste la couleur de ma peau qui les dérange jveux pas rentrer les menaces Fallait surtout pas quon strompe la mélodie était sans fausse note On était deux, yavait pas besoin dpotes tout cela nous a rendu claustrophobes Jtire fort sur fin dclope, jcogite solo sur lbalcon Tous tes messages je les relis, tout ça mrend fou Jusquau jour où apparaît le syndrome de celui ou celle qui aime Plus que lautre Jattendrai pas la fin du requiem Jattendrai pas la fin du requiem Cest tout cquil y avait entre elle et moi Cest tout cquil y avait entre elle et moi Cquil y avait, cquil y avait, cquil y avait Si tu ne le vois pas, jpeux pas texpliquer la situation Tu ne le vois pas, jpeux pas texpliquer la situation Cest tout cquil y avait entre elle et moi Cest tout cquil y avait entre elle et moi Cquil y avait, cquil y avait, cquil y avait Si tu ne le vois pas, jpeux pas texpliquer la situation Tu ne le vois pas, jpeux pas texpliquer la situation La situation1</t>
+          <t>Salut mon vieux tu m'reconnais ? Jpaye mes coups rebeu À contre-courant deux Tour de mollet quarante-deux Renoi jcoupe ton corps en deux Pourquoi tu men veux ? Jaloux de mon buzz Jtaurai niqué ta Si elle sappelait Karembeu Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub On investit la fête avec des billets violets Limbécile a faim, pourtant il passe sa vie au lit Linstru jlai violée Moi jsuis un rappeur bionique Jles nique toutes comme Biolay Jsuis dans lshop, jsuis dans lblock Jsuis dans mes pompes, jsuis dans lPorsche Jsuis dans lparking, jsuis dans le Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub Jsuis dans lclub, jsuis dans lclub DJ Skorp est dans lclub Jsuis dans lcarré VIP, Louboutin sur lcanapé Tout est clean, jsuis refait H Magnum, Beriz, ouais teubé XXX, ouais teubé Privilégié DJ Skorp, privilège Skorp Privilégié H Magnum, privilège Beriz Privilégié, privilège Privilégié, privilège On mdit H, range ton magnum et puis surine les ! Jsuis dans lclub, elle me téma comme un surhumain Ça désamorce les bombes jsuis entouré ddémineurs Tu veux tfaire lever, mais tes mineur Jsuis dans la H-Mobile ils mont pas vu venir Si jlui sors ma liasse jpense quelle va sévanouir Jaugmente le level, jsuis dans mon délire Gotham City arrive je sens dladrénaline Tu mreconnais, tu mreconnais En live et direct, est-cque tu mreconnais ? Tu mreconnais H Magnum, Beriz, DJ Skorp</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Madame la chance - 2125004</t>
+          <t>Résurrection</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>x2 Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Certains sont touchés par la grâce d'autres par la poisse On me dit choisis ta voie alors que face à moi il y a qu'une impasse J'ai vu je touchais pas au but même au gré des passes Car habitué du banc de touche j'ai peu de face-à-face Mais il parait que ça n'arrive pas qu'aux autres Mais c'est les notre qui payent la note Moi comme tout ces Boeings mon rêve est de la détourner Au pied du mur comment la voir si j'ai le dos tourné ? J'ai vu le bonheur passer comme une étoile filante Ça fêter le réveillon sur un capot mais sans guirlande J'ai tout misé sur l'écriture à défaut de finir chef de gang Les seuls étoiles qu'on voit briller se trouventdans les stades ou sur les champs J'ai pas toujours été au top d'ailleurs je me demande à quand mon projet? J'ai mis du temps mais pour apprendre à tenir sans fléchir sur les genoux Certains ont l'intention de réfléchir avec les naseaux pleines de poudres On la convoite au clair de lune tout comme dans les tributs babtous Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Je vois le paradis à quelque kilomètre Le navire a chaviré et ma bonne étoile après vit la même Mon compagnon le désespoir me rappelle qu'on ne sait pas nager Ma descendance ne saura jamais où mon corps a pu échouer Combien en ont perdu la vie? nous sommes des milliers Et combien y pensent tout les jours? nous sommes des millions Et si personne bouge? nous sommes des milliards Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Une douleur sans médicament Je vous parle d'une vie du tiers monde La valeur d'une âme en diamant Méprisé qu'il vient du tiers monde J'suis le reflet de ce que je vis, j'avance avec un regard de glace Le savoir est une arme, on peut blesser avec les mots Si j'te racontais ma vie j'crois bien que tu pleurais à ma place J'ai toujours retenu mes larmes parce que j'aime pas gaspiller l'eau Rester lucide, c'est déjà une réussite J'dois mourir avec une arme je pense au braquage pas au suicide Elle m'a abandonné depuis ce jour là ça va pas Certains l'appellent ça la chance moi j'appelle ça la Baraka Quand jétais petit je croyais que jétais son préféré J'y échappais de justesse quand les autres faisaient déferrer Elle me rappelle en masqué donc souvent je décroche pas Je croyais qu'elle me faisait du pied enfaîte c'était un croche-patte Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner x2 Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense</t>
+          <t>Fifteen years ago, the American public was introduced to Marshall Mathers, Eminem, and Slim Shady, a triptych of manic personalities whose interests included raising hell, making enemies, and sticking nine-inch nails through each one of their eyelids. To commemorate Shady being set loose upon the world, we've decided to rank every single song Em has released to date But first, allow us to qualify our countdown with a few rules of eligibility We only included songs that were given an official retail release that means tracks featured on studio albums, EPs, and compilations, plus guest verses we didn't consult mixtapes or unofficial freestyles, so we offer our deepest apologies to Nail in the Coffin, Til Hell Freezes Over, and other noteworthy rarities. Skits weren't considered, either condolences to all the Ken Kaniff and Steve Berman die-hards out there. Obviously, we only considered D12 tracks that featured a verse or hook from Eminem. And, finally, if there were multiple versions of a track, we opted to include the rendition we thought superior, so don't expect to see the live Grammy performance of Stan or The Slim Shady EP's Just the Two of Us. And with that, we begin the Eminem show... 289. C'mon Let Me Ride Skylar Grey feat. Eminem, Don't Look Down, 2013 288. Here Comes the Weekend Pink feat. Eminem, The Truth About Love, 2012 287. Fuck Off Kid Rock feat. Eminem, Devil Without a Cause, 1998 286. Off to Tijuana Hush feat. Eminem, Kuniva, and Swifty McVay, Bulletproof, 2005 285. Fack Curtain Call The Hits, 2005 284. Desperation feat. Jamie N Commons The Marshall Mathers LP 2 , 2013 283. It Has Been Said The Notorious B.I.G. feat. Diddy, Eminem, and Obie Trice, Duets The Final Chapter, 2005 282. Bitch D12, D12 World, 2004 281. Echo Bad Meets Evil, Hell The Sequel , 2011 280. Twerk Dat Pop That Trick Trick feat. Eminem and Royce da 5'9, Twerk Dat Pop That Single, 2014 279. I Need a Doctor Dr. Dre feat. Eminem and Skylar Grey, I Need a Doctor Single, 2011 278. The Reunion Bad Meets Evil, Hell The Sequel, 2011 277. Open Mic Infinite, 1996 276. Hustlers Hardcore Domingo feat. Eminem, Behind the Doors of the 13th Floor, 1999 275. Jealousy Woes II Infinite, 1996 274. No More to Say Trick Trick feat. Proof and Eminem, The People vs., 2005 273. Who Want It Trick Trick feat. Eminem, The Villain, 2008 272. Insane Relapse, 2009 271. Our House Slaughterhouse feat. Eminem and Skylar Grey, welcome to OUR HOUSE, 2012 270. Ass Like That Encore, 2004 269. Stronger Than I Was The Marshall Mathers LP 2, 2013 268. Big Weenie Encore, 2004 267. My 1st Single Encore, 2004 266. My Life 50 Cent feat. Eminem and Adam Levine, My Life Single, 2012 265. Asshole feat. Skylar Grey The Marshall Mathers LP 2, 2013 264. Beautiful Pain feat. Sia The Marshall Mathers LP 2 , 2013 263. Drama Setter Tony Yayo feat. Eminem and Obie Trice, Thoughts of a Predicate Felon, 2005 262. Chemical Warfare The Alchemist feat. Eminem, Chemical Warfare, 2009 261. My Ballz D12, The Longest Yard , 2005 260. Green and Gold The Anonymous feat. Eminem, Green and Gold, 1998 259. Throw That Slaughterhouse feat. Eminem, welcome to OUR HOUSE, 2012 258. Hip Hop Bizarre feat. Eminem, Hannicap Circus, 2005 257. Baby The Marshall Mathers LP 2 , 2013 256. Backstabber Infinite, 1996 255. Black Cotton 2Pac feat. Eminem, Kastro, and Young Noble, Loyal to the Game, 2004 254. Puke Encore, 2004 253. Pimp Like Me D12 feat. Dina Rae, Devil's Night, 2001 252. Above the Law Bad Meets Evil, Hell The Sequel, 2011 251. Taking My Ball Relapse Refill, 2009 250. Maxine Infinite, 1996 249. Asylum Slaughterhouse feat. Eminem, welcome to OUR HOUSE , 2012 248. A Kiss Bad Meets Evil, Hell The Sequel, 2011 247. Pimplikeness Proof feat. D12, Searching for Jerry Garcia, 2005 246. The Re-Up feat. 50 Cent Eminem Presents The Re-Up, 2006 245. Peep Show 50 Cent feat. Eminem, Curtis, 2007 244. 40 Oz. D12, D12 World, 2004 243. Love the Way You Lie Part II Rihanna feat. Eminem, Loud, 2010 242. When I'm Gone Curtain Call The Hits, 2005 241. Medicine Ball Relapse, 2009 240. Space Bound Recovery, 2010 239. There They Go Obie Trice feat. Eminem, Big Herk, and Trick Trick, Second Round's On Me, 2006 238. We Ain't The Game feat. Eminem, The Documentary, 2005 237. Buffalo Bill Relapse Refill, 2009 236. Evil Twin The Marshall Mathers LP 2, 2013 235. Where I'm At Lloyd Banks feat. Eminem, H.F.M. 2 The Hunger For More 2 , 2010 234. Almost Famous Recovery, 2010 233. Leave Dat Boy Alone D12, D12 World, 2004 232. We're Back feat. Obie Trice, Stat Quo, Cashis, and Bobby Creekwater Eminem Presents The Re-Up, 2006 231. American Psycho II D12 feat. B-Real, D12 World, 2004 230. Rain Man Encore, 2004 229. Throw It Up Yelawolf feat. Eminem and Gangsta Boo, Radioactive, 2011 228. Searchin' Infinite, 1996 227. Untitled Recovery, 2010 226. Drop the Bomb On 'Em Relapse Refill, 2009 225. Brainless The Marshall Mathers LP 2, 2013 224. Touchdown T.I. feat. Eminem, T.I. vs. T.I.P., 2007 223. Get Back Tony Touch feat. D12, The Piece Maker, 2000 222. 911 Boo-Yaa T.R.I.B.E. feat. Eminem and B-Real, West Koasta Nostra, 2003 221. Take From Me Bad Meets Evil, Hell The Sequel, 2011 220. It's OK Infinite, 1996 219. Guts Over Fear feat. Sia Shady XV, 2014 218. Symphony in H Tony Touch feat. Eminem, The Piece Maker Return of the 50 MC's, 2013 217. Lighters feat. Bruno Mars Bad Meets Evil, Hell The Sequel, 2011 216. 6 in the Morning D12, D12 World, 2004 215. Love the Way You Lie feat. Rihanna Recovery, 2010 214. Psycho 50 Cent feat. Eminem, Before I Self Destruct, 2009 213. Bagpipes From Baghdad Relapse, 2009 212. 313 Infinite, 1996 211. So Much Better The Marshall Mathers LP 2, 2013 210. You're Never Over Recovery, 2010 209. Git Up D12, D12 World, 2004 208. Crazy in Love Encore, 2004 207. Never 2 Far Infinite, 1996 206. Headlights feat. Nate Ruess The Marshall Mathers LP 2, 2013 205. Revelation D12, Devil's Night, 2001 204. Public Enemy 1 Eminem Presents The Re-Up, 2006 203. Pistol Poppin' Cashis feat. Eminem, The County Hound EP, 2007 202. My Band D12, D12 World, 2004 201. Love You More Encore , 2004 200. Hell Breaks Loose feat. Dr. Dre Relapse Refill, 2009 199. Won't Back Down feat. Pink Recovery, 2010 198. Hands on You Obie Trice feat. Eminem, Cheers, 2003 197. Must Be the Ganja Relapse, 2009 196. Session One feat. Slaughterhouse Recovery , 2010 195. Groundhog Day The Marshall Mathers LP 2 , 2013 194. 25 to Life Recovery, 2010 193. Survival The Marshall Mathers LP 2, 2013 192. Music Box Relapse Refill, 2009 191. Cum on Everybody The Slim Shady LP, 1999 190. Drop the World Lil Wayne feat. Eminem, Rebirth, 2009 189. Going Through Changes Recovery, 2010 188. Wicked Ways feat. X Ambassadors The Marshall Mathers LP 2 , 2013 187. Richard Obie Trice feat. Eminem, Bottom's Up, 2012 186. Welcome 2 Detroit Trick Trick feat. Eminem, The People vs., 2005 185. Jimmy Crack Corn feat. 50 Cent Eminem Presents The Re-Up, 2006 184. Ricky Ticky Toc Encore , 2004 183. Shit Hits the Fan Obie Trice feat. Dr. Dre and Eminem, Cheers, 2003 182. These Drugs D12, Devil's Night , 2001 181. Watch Deez Thirstin Howl III feat. Eminem, Skilligan's Island, 2002 180. Not Afraid Recovery, 2010 179. Get You Mad The Slim Shady LP , 2003 178. One Day at a Time Em's Version 2Pac with Eminem feat. Outlawz, 2Pac Resurrection , 2003 177. Tonite Infinite, 1996 176. Ridaz Recovery , 2010 175. Old Time's Sake feat. Dr. Dre Relapse, 2009 174. Don't Push Me 50 Cent feat. Eminem and Lloyd Banks, Get Rich or Die Tryin', 2003 173. No Love feat. Lil Wayne Recovery, 2010 172. We Made You Relapse, 2009 171. Smack That Akon feat. Eminem, Konvicted, 2006 170. What If I Was White Sticky Fingaz feat. Eminem, Blacktrash The Autobiography of Kirk Jones, 2001 169. My Darling Relapse , 2009 168. Doe Rae Me Straight From the Lab, 2003 167. Serious Remix Proof feat. Eminem, Swift McVay, and Promatic, One, Two Single, 2002 166. Trife Thieves Bizarre feat. Eminem and Fuzz Scoota, Attack of the Weirdos EP, 1998 165. Freestyle DJ Kayslay feat. Eminem, The Streetsweeper Vol. 1, 2003 164. Welcome 2 Hell Bad Meets Evil, Hell The Sequel, 2011 163. Airplanes, Pt. II B.o.B. feat. Hayley Williams and Eminem, B.o.B. Presents The Adventures of Bobby Ray, 2010 162. Numb Rihanna feat. Eminem, Unapologetic, 2012 161. How Come D12, D12 World, 2004 160. Rap Game D12 feat. 50 Cent, Music From and Inspired By the Motion Picture 8 Mile, 2002 159. Just Lose It Encore, 2004 158. We As Americans Encore , 2004 157. Shake That feat. Nate Dogg Curtain Call The Hits, 2005 156. We Shine Da Ruckus feat. Eminem, Da Ruckus, Episode 1, 1998 155. Blow My Buzz D12, Devil's Night, 2001 154. On Fire Recovery, 2010 153. Hailie's Song The Eminem Show, 2002 152. Love Game feat. Kendrick Lamar The Marshall Mathers LP 2, 2013 151. Living Proof Bad Meets Evil, Hell The Sequel , 2011 150. Ain't Nuttin' But Music D12 feat. Dr. Dre, Devil's Night, 2001 149. My Mom Relapse, 2009 148. Devil's Night D12, Devil's Night, 2001 147. Go to Sleep Eminem, Obie Trice, and DMX, Cradle 2 the Grave , 2003 146. Cold Wind Blows Recovery, 2010 145. Shit Can Happen D12, Devil's Night, 2001 144. One Shot 2 Shot feat. D12 Encore, 2004 143. That's All She Wrote T.I. feat. Eminem, No Mercy, 2010 142. Mosh Encore, 2004 141. Hello Relapse, 2009 140. Loud Noises feat. Slaughterhouse Bad Meets Evil, Hell The Sequel, 2011 139. Writer's Block Royce da 5'9 feat. Eminem, Success Is Certain, 2011 138. W.T.P. Recovery, 2010 137. My Dad's Gone Crazy The Eminem Show, 2002 136. Careful What You Wish For Relapse , 2009 135. Berzerk The Marshall Mathers LP 2, 2013 134. Wanksta Eminem's Version The Singles, 2003 133. American Psycho D12, Devil's Night, 2001 132. No Apologies Eminem Presents The Re-Up, 2006 131. Low Down, Dirty The Slim Shady EP, 1997 130. So Bad Recovery, 2010 129. Same Song Dance Relapse, 2009 128. Drips feat. Obie Trice The Eminem Show, 2002 127. Desperados DJ Butter feat. Eminem, Bugz, Proof, Tha Almighty Dreadnaughtz, Kill the DJ, 2000 126. Soldier Like Me 2Pac feat. Eminem, Loyal to the Game, 2004 125. Talkin' 2 Myself feat. Kobe Recovery, 2010 124. Pistol Pistol D12, Devil's Night, 2001 123. Lean Back Remix Fat Joe feat. Eminem, Mae, Lil Jon, and Remy Ma, All or Nothing, 2005 122. Shit On You D12, Devil's Night , 2001 121. Spend Some Time feat. Obie Trice, Stat Quo, and 50 Cent Encore, 2004 120. Warrior, Pt. 2 Lloyd Banks feat. Eminem, 50 Cent, and Nate Dogg, The Hunger for More, 2004 119. When the Music Stops feat. D12 The Eminem Show, 2002 118. Slow Your Roll D12, D12 World , 2004 117. Evil Deeds Encore, 2004 116. 3hree6ix5ive Old World Disorder feat. Eminem, Restaurant ... It Ain't Always on the Menu , 2000 115. Mockingbird Encore, 2004 114. I Remember Dedication to Whitey Ford Street Version D12, Shit On You Single, 2001 113. The Monster feat. Rihanna The Marshall Mathers LP 2, 2013 112. Words Are Weapons D12, Devil's Night , 2001 111. Monkey See, Monkey Do Straight From the Lab, 2003 110. Bad Guys Always Die Dr. Dre Eminem, Wild Wild West , 1999 109. 5 Star Generals Shabaam Sahdeeq feat. Eminem, Skam, A.L., and Kwest, Sound Clash Single, 1998 108. I'm Gone DJ Kayslay feat. Eminem and Obie Trice, The Streetsweeper Vol. 2 The Pain From the Game, 2004 107. Bully Straight From the Lab, 2003 106. Get My Gun D12, D12 World, 2004 105. Never Enough feat. 50 Cent and Nate Dogg Encore, 2004 104. I'm On Everything feat. Mike Epps Bad Meets Evil, Hell The Sequel, 2011 103. Outro Obie Trice feat. D12, Cheers, 2003 102. What the Beat DJ Clue? feat. Eminem, Method Man, and Royce da 5'9, The Professional 2, 2001 101. Legacy The Marshall Mathers LP 2, 2013 100. Superman feat. Dina Rae The Eminem Show, 2002 99. Rock City Royce da 5'9 feat. Eminem, Rock City , 2002 98. Calm Down Busta Rhymes feat. Eminem, Calm Down Single, 2014 97. Stir Crazy The Madd Rapper feat. Eminem, Tell 'Em Why U Madd, 2000 96. The Conspiracy Freestyle feat. 50 Cent Straight From the Lab, 2003 95. Bad Guy The Marshall Mathers LP 2, 2013 94. Can-I-Bitch Straight From the Lab, 2003 93. Keep Talkin D12, D12 World, 2004 92. Amityville The Marshall Mathers LP, 2000 91. Hellbound Masta Ace feat. Eminem and J-Black, Game Over, 2000 90. Bump Heads feat. 50 Cent, Tony Yayo, and Lloyd Banks Straight From the Lab, 2003 89. Girls Limp Bizkit Diss D12, Devil's Night, 2001 88. Lady Obie Trice feat. Eminem, Cheers, 2003 87. Forever Drake feat. Kanye West, Lil Wayne, and Eminem, Relapse Refill, 2009 86. Don't Front feat. Buckshot The Marshall Mathers LP 2 , 2013 85. My Fault The Slim Shady LP, 1999 84. No One's Iller feat. Swifty McVay, Bizarre, and Fuzz The Slim Shady EP, 1997 83. Love Me feat. 50 Cent and Obie Trice Music From and Inspired By the Motion Picture 8 Mile, 2002 82. Underground Relapse, 2009 81. So Far The Marshall Mathers LP 2, 2013 80. Fight Music D12, Devil's Night, 2001 79. Stay Wide Awake Relapse, 2009 78. Cinderella Man Recovery, 2010 77. Nuttin' To Do Bad Meets Evil, Nuttin' To Do Single, 1999 76. Elevator Relapse Refill, 2009 75. We All Die One Day Obie Trice feat. Eminem, 50 Cent, Lloyd Banks, and Tony Yayo, Cheers, 2003 74. The Anthem Sway King Tech feat. RZA, Tech N9ne, Eminem, Xzibit, Pharoahe Monch, Kool G Rap, Jayo Felony, Chino XL, and KRS-One, This or That, 1999 73. Yellow Brick Road Encore, 2004 72. My Name Xzibit feat. Eminem and Nate Dogg, Man vs. Machine, 2002 71. Say Goodbye Hollywood The Eminem Show, 2002 70. Seduction Recovery, 2010 69. Welcome to D-Block Jadakiss feat. The LOX and Eminem, Kiss of Death, 2004 68. 3 a.m. Relapse, 2009 67. Off the Wall Eminem and Redman, Nutty Professor II The Klumps , 2000 66. Roman's Revenge Nicki Minaj feat. Eminem, Pink Friday, 2010 65. Square Dance The Eminem Show, 2002 64. You Don't Know feat. 50 Cent, Lloyd Banks, and Cashis Eminem Presents The Re-Up, 2006 63. Gatman Robbin' 50 Cent feat. Eminem, The Massacre, 2005 62. Beautiful Relapse, 2009 61. Rush Ya Clique Outsidaz feat. Eminem, Night Life, 2000 60. Rabbit Run Music From and Inspired By the Motion Picture 8 Mile, 2002 59. Without Me The Eminem Show, 2002 58. The Last Hit The High Mighty feat. Eminem, Home Field Advantage, 1999 57. Busa Rhyme Missy Elliott feat. Eminem, Da Real World, 1999 56. Murder, Murder The Slim Shady EP, 1997 55. Infinite Infinite, 1996 54. I'm Shady The Slim Shady LP, 1999 53. Rhyme or Reason The Marshall Mathers LP 2, 2013 52. Under the Influence feat. D12 The Marshall Mathers LP, 2000 51. Scary Movies Bad Meets Evil, Nuttin' To Do Single, 1999 50. Still Don't Give a Fuck The Slim Shady LP, 1999 49. Bad Influence End of Days , 1999 48. Crack a Bottle Relapse, 2009 47. If I Get Locked Up Funkmaster Flex and Big Kap feat. Dr. Dre and Eminem, The Tunnel, 1999 46. 8 Mile Music From and Inspired By the Motion Picture 8 Mile, 2002 45. Don't Approach Me Xzibit feat. Eminem, Restless, 2000 44. Fast Lane Bad Meets Evil, Hell The Sequel, 2011 43. EncoreCurtains Down feat. Dr. Dre and 50 Cent Encore, 2004 42. As the World Turns The Slim Shady LP, 1999 41. Purple Pills D12, Devil's Night, 2001 40. Drug Ballad feat. Dina Rae The Marshall Mathers LP, 2000 39. Soldier The Eminem Show, 2002 38. Say What You Say feat. Dr. Dre The Eminem Show, 2002 37. Bitch Please II feat. Dr. Dre, Snoop Dogg, Xzibit, and Nate Dogg The Marshall Mathers LP, 2000 36. Déjà Vu Relapse, 2009 35. Business The Eminem Show, 2002 34. The Kids The Marshall Mathers LP , 2000 33. Sing for the Moment The Eminem Show, 2002 32. Dead Wrong The Notorious B.I.G. feat. Eminem, Born Again, 1999 31. Stimulate Music From and Inspired By the Motion Picture 8 Mile , 2002 30. Marshall Mathers The Marshall Mathers LP, 2000 29. Bad Meets Evil feat. Royce da 5'9 The Slim Shady LP, 1999 28. Remember Me? feat. RBX and Sticky Fingaz The Marshall Mathers LP, 2000 27. Role Model The Slim Shady LP, 1999 26. Like Toy Soldiers Encore, 2004 25. Guilty Conscience The Slim Shady LP, 1999 24. White America The Eminem Show, 2002 23. Patiently Waiting 50 Cent feat. Eminem, Get Rich or Die Tryin', 2003 22. Brain Damage The Slim Shady LP, 1999 21. Who Knew The Marshall Mathers LP, 2000 20. What's the Difference Dr. Dre feat. Eminem and Xzibit, 2001, 1999 19. Any Man Rawkus Presents Soundbombing II, 1999 18. Criminal The Marshall Mathers LP, 2000 17. The Way I Am The Marshall Mathers LP, 2000 16. Rap God The Marshall Mathers LP 2, 2013 15. The Real Slim Shady The Marshall Mathers LP, 2000 14. I'm Back The Marshall Mathers LP, 2000 13. Rock Bottom The Slim Shady LP, 1999 12. Just Don't Give a Fuck The Slim Shady LP, 1999 11. Lose Yourself Music From and Inspired By the Motion Picture 8 Mile, 2002 10. Kim The Marshall Mathers LP, 2000 9. Renegade Jay Z feat. Eminem, The Blueprint, 2001 8. Cleanin' Out My Closet The Eminem Show, 2002 7. If I Had The Slim Shady LP, 1999 6. Stan The Marshall Mathers LP, 2000 5. My Name Is The Slim Shady LP, 1999 4. 'Till I Collapse The Eminem Show, 2002 3. '97 Bonnie Clyde The Slim Shady LP, 1999 2. Kill You The Marshall Mathers LP, 2000 1. Forgot About Dre Dr. Dre feat. Eminem, 2001, 199930</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Millions de kilomètres</t>
+          <t>Saison</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>x2 Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Certains sont touchés par la grâce d'autres par la poisse On me dit choisis ta voie alors que face à moi il y a qu'une impasse J'ai vu je touchais pas au but même au gré des passes Car habitué du banc de touche j'ai peu de face-à-face Mais il parait que ça n'arrive pas qu'aux autres Mais c'est les notre qui payent la note Moi comme tout ces Boeings mon rêve est de la détourner Au pied du mur comment la voir si j'ai le dos tourné ? J'ai vu le bonheur passer comme une étoile filante Ça fêter le réveillon sur un capot mais sans guirlande J'ai tout misé sur l'écriture à défaut de finir chef de gang Les seuls étoiles qu'on voit briller se trouventdans les stades ou sur les champs J'ai pas toujours été au top d'ailleurs je me demande à quand mon projet? J'ai mis du temps mais pour apprendre à tenir sans fléchir sur les genoux Certains ont l'intention de réfléchir avec les naseaux pleines de poudres On la convoite au clair de lune tout comme dans les tributs babtous Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Je vois le paradis à quelque kilomètre Le navire a chaviré et ma bonne étoile après vit la même Mon compagnon le désespoir me rappelle qu'on ne sait pas nager Ma descendance ne saura jamais où mon corps a pu échouer Combien en ont perdu la vie? nous sommes des milliers Et combien y pensent tout les jours? nous sommes des millions Et si personne bouge? nous sommes des milliards Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner Une douleur sans médicament Je vous parle d'une vie du tiers monde La valeur d'une âme en diamant Méprisé qu'il vient du tiers monde J'suis le reflet de ce que je vis, j'avance avec un regard de glace Le savoir est une arme, on peut blesser avec les mots Si j'te racontais ma vie j'crois bien que tu pleurais à ma place J'ai toujours retenu mes larmes parce que j'aime pas gaspiller l'eau Rester lucide, c'est déjà une réussite J'dois mourir avec une arme je pense au braquage pas au suicide Elle m'a abandonné depuis ce jour là ça va pas Certains l'appellent ça la chance moi j'appelle ça la Baraka Quand jétais petit je croyais que jétais son préféré J'y échappais de justesse quand les autres faisaient déferrer Elle me rappelle en masqué donc souvent je décroche pas Je croyais qu'elle me faisait du pied enfaîte c'était un croche-patte Elle ne m'a jamais épousé, certains l'appellent la chance, moi elle n'est jamais de mon côté J'ai cru des fois qu'elle me faisait signe, sur la même longueur d'onde Mais c'était souvent l'autre type à qui elle faisait sauter l'plafond Elle m'a toujours contourné Peine de cur, je rêve de la détourner x2 Je fais parti des millions de gens qui disparaissent sans conséquence Je fais parti des millions de gens qui disparaissent sans qu'on y pense</t>
+          <t>À lautomne, lautomne Rien que mes larmes tombent rien quelles tombent Rien ne me satisfait tout cqui mplaît, je lperds de vue Rien ne me satisfait tout cqui mplaît, je lperds de vue Lautomne, lautomne, lautomne Rien que mes larmes tombent rien quelles tombent Le soleil se lève et je le vois quil ravive mes forces, parmi mes semblables Heurté par la pluie, je rêve la nuit, me croyant si spécial Et les jours passent, puis les années méclaircissent Les visages autour de moi vieillissent Balayé par le vent, je me rends compte que je tombe Éprouvé par le temps, embêtant Cest là que je me rends compte que je meurs Je meurs, je meurs À lautomne, lautomne Rien que mes larmes tombent rien quelles tombent Rien ne me satisfait tout cqui mplaît, je lperds de vue Rien ne me satisfait tout cqui mplaît, je lperds de vue Lautomne, lautomne, lautomne Rien que mes larmes tombent rien quelles tombent Le soleil se couche et sen va cest fini, je tombe parmi mes semblables Martelé par la pluie, obscurci par la nuit je nai plus rien dspécial Plus les jours passent et les années me détruisent Et les visages ne sont plus que souvenirs Piétiné par les gens, je réalise que jmenfonce Étouffé évidemment, embêtant Cest là que je me rends compte que je fais mon temps Maintenant je fous lcamp À lautomne, lautomne Rien que mes larmes tombent rien quelles tombent Rien ne me satisfait tout cqui mplaît, je lperds de vue Rien ne me satisfait tout cqui mplaît, je lperds de vue Lautomne, lautomne, lautomne Rien que mes larmes tombent rien quelles tombent Jai fait mon temps, maintenant je fous lcamp J'assiste à une nouvelle naissance, je ne men fais plus trop pour moi XXX, rendez-vous à la prochaine saison</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Monica Jolie</t>
+          <t>Shoot Niggaz</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Elle s'appelait Monica, Monica qui Jolie Elle s'appelait Monica, Monica Jolie Monica, Monica Jolie, Monica Monica n'est pas le genre de meuf à dire je t'aime Monica est armé, prêt à faire bang bang Si t'as pas dix mille euros, vas-y, vas-y, passe ton chemin Combien se tuent au taf juste pour lui remplir les mains, aux pieds les mains Elle n'a pas de cur, retiens bien mes paroles tu ne seras pas son âme-sur Petit ou gros, tu ne restes qu'un poisson Tu fais le malin devant l'hameçon fiston Elle s'appelait Monica, Monica qui Jolie Elle s'appelait Monica, Monica Jolie Monica, Monica Jolie, Monica Jack Daniel, bub, matinée mortelle Un peu du dancehall, elle se tortille comme une sorcière Elle a caché son cur dans un mini-short taille basse Elle réglera ton compte à coup de quelques messes basses Bien sûr elle gère quelques loss-bo Le papa à Monica si tu pèses pas des kilos Elle s'appelait Monica, Monica qui Jolie Elle s'appelait Monica, Monica Jolie Monica, Monica Jolie, Monica Elle s'appelait Monica, Monica qui Jolie Elle s'appelait Monica, Monica Jolie Monica, Monica Jolie, Monica</t>
+          <t>I SHOOK HIS PRIDE! Like, Twork comin'. Nigga look alive. He died with his eyes wide open, the nigga look alive We finally got this locked bitches Took a hot minute Hot pistols You keep showin' up to battles wearin' all these fuckin' costumes, nigga you got issues Y'all won't be seein' no more Michael Jackson jackets So y'all just 'Remember The Time' you had 'Rock With You' Glock pistol, cock and spray But first I wanna give Roc his praise First nigga with this high level energy First nigga with gun lines back to back, there's a lot of things we got from Tay Glock'll spray I'ma put the Pioneer in the trunk, y'all gon' hear from a block away Stop it Tay, you just a bitch with guns Disrespectin' the hustle, and you disrespected Hustle Can't go back to New York for that shit that you done The apes gon' chase you right up out the Cave like Temple Run This who you deal with Smack? A nigga beefin' wit' a bitch from Gorilla Stone Ain't do shit to the niggas that took his chain, how real is that? You so worried about the Gorillas, you need to go get yo' silver back Silverback Steel will clap! You dyin' on the set, niggas took your jewels off in ya home town What was all this slidin' with the TEC? Couldn't be me, cause nigga I'ma die for my respect Let's take it back, Double Impact NWX, it was one, suck my dick and shit got violent for the vet So that's the second time niggas had to take Shine from 'round ya neck I get to wildin' with this TEC Burn him and blaze him Surf like, On Neighborhood Crip. You touch him and I'm knockin' you out. Nigga this .30 will bang him And at his funeral, ain't nothin' but sermons and prayers He can't call Surf to come save him This a pastor preachin' and this time you can't turn to ya neighbor This .30 gon' bang him Surf get to talkin' this Rolling 60 shit, I'ma buck my pound Give a 60 nine 69, I'ma hold this sucka upside down Live rounds goin' over his head I live 28 minutes from Edgewood, you know what it is Don't push me, I'm this close to the edge You was bold on the web, do all that talkin' in my face I'ma slide down errrrr, to that apartment with an .8 I see ya bitch, fo-fo I'm spark it in her face I told her to beware of the dog, and then I put Caution on the gate I'ma slide off, spin back, now there's Caution on the tape I'm so terrific I went in the kitchen, seen Chef, now it's broken dishes Living room, bucks left on the couch, can't even go and spend it Outside, Henny packed up, like the prohibition Pole I'm liftin' Rock landed in the neighbor yard, who gon' go and get it? I lift the pole on bitches Cannon clip you And lately I've been dealin' with bad bitches that I can't commit to So I can't just go out with a .9, I got standard issues Speakin' of standards Aye Lady Caution, let's stop this cappin' I heard you went from John John, Tsu Surf to- oh you got a top ten rappers? Heard she went from Gates Of The Garden to URL, wonder how she got them battles Don't you know back in the day whores got stoned to death? Ain't no wonder why Rock went at you You'se a little body bitch Popsicle body bitch Sick, need to be in the hospital body bitch McGriddle body bitch You'se a brittle body bitch The instrument they use to play the fiddle body bitch I'ma keep it goin' You'se a Henny bottle bitch Not even a full size, you'se a mini bottle bitch You got Minnie's body bitch You ain't anybody bitch Before yo' ass got with Roc you was anybody bitch That sound familiar What happened to ya baby moms? Y'all remember ya baby moms? She was bad as shit That unfulfillin' Now she's fuckin' with an NFL nigga, I know it fuckin' kills him Hoe football playin' 'round yo' fuckin' children like Russel Wilson I know it's tough to deal with Nigga ran off with ya hoe whole kid like Rumpelstiltskin I up the pistol Raise it on him, blaze it on him If I knock Dracula costume off he stays in coffin, even the red eyes take off, like a late departure No more keeping in contact, it's a restraining order I'm finna bang it on him I just ignore ya crew So many niggas done left the Cave, I can't even go to war witchu Ever since Brizz Rawsteen left, you need more recruits Aye Brizz, if it wasn't for Roc, you wouldn't even be here, he literally opened up doors for you I'm Strapped In! I'll clap you in a coma Madness I could snap at any moment According to the culture, y'all had it surely known But I was there, right by the stage, y'all got the story wrong Top threw a bottle, Brizz threw a bottle No Tax threw a bottle, they goin' on and on Brizz ran straight to the back, he got his Maury on Roc standin' there actin' like he don't know what's goin' on Top drop, Chess chest popped out like Omarion Sorry y'all! Rest in peace, Zaid, but Brizz homie the only one that was doin' Twork moves I would've went to jail, ended up in an orange shirt too Hurt who? Jersey You let me down in that tournament nigga What's up with that? 100K on the line, Drake added 50, damn near doubled that And you fumbled that? Boy if you come with three rounds tonight you lettin' me know I'm more important than them 100 racks You better come to rap nigga Not just for Drake or for uncle Smack If you choke, I'ma delete ya number outta my fuckin' jack I'ma up the strap, drum attached Somethin' clap Who's that offensive player for the Jets? Um, new jersey Nu Jerzey running back I gotta check him, without a question I feel like Will Smith, I gotta put my dawg dog down to show y'all I Am Legend Sinners gotta Heaven Splish Splash, a Hollow wet him Fire a weapon, let it fly through the buildin' 911 Nigga said he would kill Tay Roc, that's how they all sound Tonight is not the night for you to be droppin' the ball now Against me is ya last chance nigga, don't let us all down You the reason niggas like me gotta battle Swamp now Shotgun, sawed down This ain't a game, my passenger Burke put bucks Bucs on Twork Make it rain, we ain't the same I raise and aim, bang the thang Leave you sleep with ya eyes open in major pain Major Payne This nigga thought he could out bar me? How sorry I find out where you live, pull up, pull out calmly This shit'll take ya arm, leg and scalp partially Leave Twork twerk all over the crib, it's a House Party I can make every single bar gold, my touch is Midas like My hands hurt, cause whatever this author write is arthritis tight This guy get hype and he tryin' to fight The clip is a half moon and it's lit for you, the entire night I'm the violent type and more outspoken .40 cal' totin' You will get shot in ya head, ya scalp smokin' Like MGM films before the movie come on he'll hear a loud roar Then by lyin' lion with his mouth open Makin' movies is all that I care about Two choppers, two tri-pods this picture a pair'll mount Paramount I'll air him out, the steel lift and peel shit I'll have an arsenal Arsonal and Shotgun Surf-ing through Jersey Jerzey It'll get Real sick Sikh, real shit End ya life when this fifth bang Inf' beam Red Light, Green Light, Squid Game, the clip hang I ain't in a Crip gang But I'll send niggas to his neighborhood that's Nutty and Insane And they don't have patience They gon' dump every last case in Have the murder scene all sheets and Sheiks in Shells gas stations Pistol whip him, the end of the Mag' breakin' The vision of Twork twerk blurred out, like we censoring ass shakin' Strap blazin' Cook this cat like I'm half Asian We gon' wreck if you don't stay in ya lane like drag racin' A burner is gettin' lifted Murder a nigga wit' it Boy I'll turn you to one of them little circular picture pendants Boy, you fire, when you don't choke, and deliver all rage When you choke you let down the nigga that get us all paid You battled Loso, I was front row Yeah Givin' him all praise I had to give courage to Twork twerk like pills do for strippers on stage Clips is gon' blaze, you'll turn up dead I'll burn the lead You my brother I can't watch you die So I turn my head Raisin' cans gun cocks Gauges blam His body flip in the air And then Twork twerk on the ground, it's a Jamaican dance Aye, I'm at ya location, FN in the shorts Amazon Prime, I knocked then left him on the porch Stretched him with the torch Every round out the gun A ton'll tunnel go through New Jersey Nu Jerzey, I can connect him to New York I'll pull up in a Porsche Skkkkkrt Hop out of an old Carrera Bullets hit the couch, TV, I'm even smokin' smoke and mirrors If ya bitch live, it's cause I chose to spare her I have that whole place that Twork in twerking dead like strip clubs in the COVID era I'm talkin' 'bout hurt this man family, drown Twork Jersey Jerzey underwater Hurricane Sandy I'ma end up murkin' this bastard, have it lit at ya wake Ya funeral ratchet, Twork in a casket Don't fuck up my classic This shit here can even ya stock I hate the fact that you the one I gotta treat as an op' Believe it or not these heaters will pop I don't know this Gun Title, but even with a vest ya chest Chess won't be easy to Eazy The Block, nigga Light bars Gang shit When will all this treason stop? You don't do nothin' but gun bar after gun bar No substance, angles, schemes or plots If this what y'all callin' the face, I don't even wanna compete for slots Raisin' Kanan, why beef over territory, I don't see nothin' you unique in Rock He needs to stop it This biggest mouth with the weakest body Little dog, hidin' behind all that bark like Geechi Gotti It's transparent, speakin' of trans... Y'all gave me the dude with the allegations? Who the fuck is this man scaring? Truthfully I thought this nigga been gay Bengay, I put that on my grandparents You get clowned on stage, but that shit you do in the comfort of ya own home, just keep it from around this way I ain't come up here to talk about Roc heshe Rikishi, that's somethin' he gotta sit down and face I'ma surround his place Y'all think he poppin' but he not If he lose tonight, nothing from his stock is gonna drop If I lose tonight, ain't none of my problems gonna stop It's back to slidin' on the ops Cleanin' the McDonalds with a mop I'll be somewhere delivering Krusty Krab Pizza, I got a lot ridin' on this Rock I'ma slide down his block, take a right, cut the blinkers off Pull up to they hang out spot, I'ma creep in dark He outside with the whole Cave Gang, oh he think he smart I already saw Rock group, that's why the Lincoln Linkin Park That's old wisdom He don't know he gettin' a humble abode visit Soon as he pull up to the crib, I'm outside his home, sit I'ma stop Rock right before he go in, that's goal tendin' Like, Hoe nigga. This pistol mean violence. Soon as he look for his strap I knock the vision clean out him Caution in the back of him yellin' Aye Dracula tell her, if this bitch just keep wildin' I'ma put a Mac up to the bat, that's Mr. 3000 I'm wildin' I slide daily, insane asylum tryin' to see if my mind's stable Cause they found him face down in the hole, look like a massage table You not gangsta, you not concealin' What ops you killin'? They use Rock to hold the door open like a project buildin' You all kinds of filthy Fair warning, this nigga took a pic', legs cocked wide open Stickin' out his tongue, I said, What is this man doin'? I don't even wanna talk about that shit, I was scared for him Let's just jump from that line with his tongue out like Air Jordan Can' on him I'm Strapped In!! I'll clap you in a coma Madness I could snap at any moment I can't fall for these traps That nigga Murda Mook told you to suck his dick You said it was lit, I thought he mean that You see Mook ain't do a motherfuckin' thing That nigga Mook would've told me to suck his d- ooow, I couldn't seein' that It would've went from suck my dick to him doin' a Party Arty rematch I don't honor these cats I don't just talk, I really walk the shit I'm about The Cave known for pretendin', that's why y'all had to kick Vada out I keep hearin' Biggums fat ass screamin', Get that nigga Roc! The homies pullin' 'bout six Llamas out If we can't get Roc address a dress we goin' straight to Big Momma's House Llama's out, your baby girl won't last after these I'll put ya kid on the front page, give her Mad magazines I'ma clap at ya teen, I keep a biscuit Two Glocks, these ain't twins, but these is civil One bitch with no body swingin' for the Title like Venus Williams But the other bitch got Guns and Cake like Serena Williams I'ma squeeze relentless, grip the pound gun clicks Did him foul Baow, baow Hole so big you can see into Tay, I'm finna sit him down WHHHAT?! I bang nigga Piru Blood gang member Thang lift up I really bang though I'm a bastard and khaki Dickies was gang code My mom a pastor, I went to Catholic school in the same clothes I use to rob the white kids for they shoes, like, Change those. Ran them random bitches right outta they Vans like Bang Bros Thang blow... Jersey I told my girl, I'm 'bout to hit the club and find this bitch I wanna see Usually she would trip, but this specific time she didn't fuss with me She trusted me Cause I got her gun wit' me And she know I'ma be starin' at her texts TECs while this bitch Twork twerk in front of me Don't fuck wit' me gun cocks This a bull pup wit' me and this baby stay wit' me, I got full custody You battled Geechi and let him take ya place, disgustingly Now he's the face and you are the L URL of the company It's up wit' me Fuckers are Strapped In! It's straps 'round Like a mental patient in padded rooms, we strapped down We strapped now My straps? Bizarre, it don't stick out But still up to bust like a strapless bra If we scrap or brawl I'ma beat homie ass It's gon' be fast Pistol whip, strap to the face, Mick Foley mask Bro get stabbed, 'til it's stuck or broke in half And you can see it showin' through Jersey Jerzey like shoulder pads If I'd have read your tweets and you don't said, it's beef You would've been like that one Jersey nigga vs. Danny, spittin' out hella teeth Shit ain't never sweet Blade on me, turn you to shredded meat He ain't see the pick in the pocket, I'm a petty thief Rest in peace Buck shots go in the shotty I let this gauge pierce a big hole in ya body Or drive-by holdin' the Tommy Bllllllt Get ya block shot wit' the stick like I'm a goalie for hockey Everybody got guns, you must not comprehend barely You'se a fat nigga with a strap cause you been scary I'm a skinny nigga without a strap, I would've been buried Ace Amin is proof that niggas that even go to the gym, carry You know Jim Carey, that movie where, he had on that yellow tux I can have my dawg dog put a Mask on fuck shit up You'll get left with a head gash, dead ass He went missin', cops knew something was wrong when all they seen was a red flag Actual slaughter I will drive-by, clap up ya corner This cat is a goner I'll have ya blood splatterin' on ya If I use this Judge, I'ma have to ask for a lawyer I blew blue caps to the core like natural water, I have to destroy ya Sic the savages on ya Hit his organ, eyes organize will be fucked up like he ain't have it in order I'm at his door, packages for ya I caught Twork twerk in the room, I'm like a disappointed dad in the room with his daughter We at his funeral, in the back, standin' in a straight line His moms readin' that obituary and she can't stay calm She like, My baby Twork, AKA Raivon Got killed. Wearin' his hood like Trayvon. I will bang mine Come from this waistline, put you all away Y'all ain't know his name was Raivon? We gon' call him Ray You'll get the bat with the spikes in ya skull today Martin and Eddie in Life somethin' get clawed in Claude and Ray Bombs away You'll get shot with my thumper Sting Ray through the chest, Crocodile Hunter Roc's a wild fucker, dude's stay trippin' I'll have you eyein' a barrel, in high definition, it blew Blu Ray vision You joined K-Shine, then left him the next day? I seen through that shit when you joined NWX-Ray This ya death day, I'll do him mad cruddy Now answer this question If you so Strapped In, then how you crash, dummy? That's mad funny, you gon' get what you ask from me What you on? E? I'll put this. 40 on Five gas money Your whip crash, and you almost burned alive Guess what movie you would've had a perfect role in? New Jersey Drive I heard he died, then revived It was gettin' scary, they had to bring dawg dog back from the dead Pet Cemetery That car wreck, gave him another cut And another cut Cause his seatbelt wouldn't work when he was tryin' to buckle up You fuckin' nut, it's lit for you From here it ain't gettin' better Wait, fuck the cops that shot up ya whip, cause we stick together But the cops shot up ya whip and you ain't do shit? I thought you was wit' whatever You almost got taken out by a 12, like Cinderella On God shit nigga! We all at the table on some mob shit Suit up on him job shit Kim brother Rob shit My nigga don't talk, he smoke Silent Bob shit I Will, Smith the leader Suicide Squad shit No vegan, no tomato, I don't squash shit Outta nowhere you get popped up, surprise shit Taught to just stick through the beef kabob shit Put in work, before I had a car, it was my mom's shit Bomb shit, nowhere to hide shit I find shit and go through the door and flip the screen it's a Sidekick The .9 spit, this hammer ain't my shit Really the text TEC's is in a different name like a side chick The chopstick under the armpit clear a mosh pit No TV, this Drake ain't the one to Josh wit' His soul wonder Wanda up to the cosmos Fairly Odd shit Playgrounds or not, we swing through and slide shit When mine hit, everything inside rip, cause conflict Tie you up, no bondage, this guy a hostage Violent, pillow, over ya face, for silence Feathers fly everywhere like I shot an ostrich Ya side hit, I paralyze shit, make ya spine shift, ya mind split Ya egg crack, we tryin' omelets, I'm outta pocket I will leave this guy unconscious Hooked to machines and doctors doin' diagnostics No pipe wit' him, then it's the blade, the strike in him I might kill him He tryin' to wrestle, but losin' the fight in him His life endin' Paralyze him soon as the knife in him Leave Twork twerk without a bottom half like white women I'm triflin' At your funeral? Smokin' on the gas They bury you, then I burn the roses on the grass Don't want my fingerprints on it Cuz said, Hold it with the flag. I'll walk through Jerusalem like I'm Moses with the staff You dead nigga! Let's set this straight Yes I called you the GOAT cause when you move you don't hesitate I've been here for the Dodge emblems The Craftsmen jeans, how you got to Mook and then levitate I don't know a lot about antonyms and synonyms but I know how to shoot when the weapon straight And I know a lot about homonyms so I can't let you resume with this resume You finna die Indeed Aye Smack, if this ya brother, advise him please Pine boxes don't come from the finest trees And since he rich, you get high quality Redish brown wood mahogany Hand crafted in South America, you don't wanna see a guy in these Guyanese Fire please! If I burn his house down, who gon' be your face when ya man die Troy? Pour gasoline 'Lean Wit' It, Rock Wit' It' there goes your Franchise Boy! Twork jumps in the crowd Hand my toy I'm finna clip this nigga up You said, DNanny for DNA in New York That shit was iffy bruh, listen up I'll show you how to split the states and cities up Cause that ain't go over or land though Orlando like you went to Disney bruh I don't wanna see you now or again Oregon, I suggest the niggas wit' you Duck You go to police, it goes South da code of Dakota the streets take ya lips and zip 'em up I went to his home in Baltimore, the nigga think he big and tough When he see his daughter on the floor it'll Florida switch his feelings up On my waist is where the cans is Kansas and if I lift these pistols up I shoot his baby boy crib, I won't even miss his sippy Mississippi cup I'm 'bout to clip this nigga up Put ya boy up in a ditch Bang bang, that's the sound of ya shorty gettin' hit Bang bang, that's the sound of the war we in the mix He can't buckle up, his seatbelt won't work Bang bang, that's the sound of the .40 on my hip And this a new car, so if you don't buckle up you gon' keep hearin' that noise until it click I get noisy with this bitch 100 round out the TEC I'm firin' I'm 'bout to send you up to Heaven flyin' You 'bout to find out how beautiful God is like Aphrodite Hey Smack, if this ya gunner, you should've gave him better guidance He should've never tried this If he don't die, he gon' leave here in liver failure like hepatitis If I have to find him, I'ma grab the coaster I'm outside with the ratchet blowin' Boom boom, I shoot the door until the latch is broken Boom HEY ROC! He in the bed restin', I flip the mattress over Now he can sleep upside down just like a bat suppose to I'ma clap the toaster I'm holdin' the fifth I see Caution, I say, Bitch you better not open ya lips. I'm pretty cautious, gloves on so they don't notice the prints Red Lobster, I even put the tape over the grip Like, Where the coke and the piff? If I clip you up, that wasn't Roc, I really had rocks, I'm talkin' zips and up Methamphetamines, oxycodone, prescription drugs Back in my heyday, I would've had Caution samplin', pass yo' bitch the blunt Whole dip of stuff Like, This the stuff Let her test the boat out, make your missus Puff I got yo' bitch on cuff She talk crazy, but she follow the plans though Police pull us over, Big Bad Wolf, she gon' swallow the grams whole Can' blow, get ya pals dumped on Oh that's a vest? Teflon? That's just gon' get me riled up more Cause dome shots the only thing my pound bust for Better hope that's what your foreheads four heads made outta Rock like Mount Rushmore Dump on 'em, you might get killed Say somethin' I don't like for real You gon' die for real We goin' outside for a single file foul line like a fire drill I'm Strapped In!! I'll clap you in a coma Madness I could snap at any moment Your life is over, you might not quite deserve it But a kind soul won't do you no good, once I light ya- this might get personal Everybody duck cause this rifle burstin' It might split Drake head wide open just like the Sprite commercial When they ask who's the king, I'm the rightful person It's time to steal the torch I was outside with the fans, I'm the one they feel for sure I went to the small league events, I gave 'em real support I got PG's in the buildin', you try to seal the door I even stopped them Crucible niggas from havin' to deal with Norbes I took off the hood, I jumped over Suge I'm the most creative I went on strike when you said you wasn't earnin' paper When Smack had yo' pockets tapped, who returned the favor? I 'Started From The Bottom', no entourage, I was comin' six deep Still the most imitated, I'm the reason K-Shine went on a 20 win streak I'm the streets Pray to me, I'm the synagogue When it come to battle rap, I'm exactly what it epitomize Nigga I'm Smack gunner, it's time to wear that shit with pride Let's turn Real Nigga Time into the Bigga .9 Baow Baow Baow! Nigga died, I shot him in a jiffy Hit his noggin with a .50 French blunderbuss, take an oval off his head like Monica Lewinsky you gon' move out the burbs I'm 'bout to take this one to the grave, you got my word Drive-by, chopper out the GMC I'll shoot out the burg K clip, press down on a half moon Do not disturb! That was mean Twork And now I got a body on a half moon like DreamWorks You be talkin' often Nigga you soft as cotton Wait 'til ya gang get around and be talkin' often I'ma wait 'til them niggas leave and spark it on you Squid Games By the time they come back Rock's in the bag, he done lost his marbles Jersey! I ain't gon' lie, this nigga's my friend How about I get my kids you get ya kids we hit the beach and we can get 'em to swim? Nah, I'ma drive us all to a cliff and let the sinnin' begin I'ma let our Child's Play but I'ma push my friend to the end I really am him You, were not the first to be copied, I've been cloned I faced all the writers that been known Y'all Champion Of The Year, yeah, y'all see how I did Jones This nigga from the Cave knocked over more pens pins than Fred Flintstone I have to be the master Eazy, he the Captain of the trappers As far as Chess? He actually will clap ya Surf? I get to passin' him a ladder And have Tsunami hit Jerusalem, that's a natural disaster I'm uncontrollable And I don't do what I'm told to do Unload on you Then trash cans disposable Rifle, from the Civil War, put a hole in you Like Back II The Future, I will bring something old to Nu new Cannon wit' me, blam the semi, 'til this can' is empty With ya life, you're gamblin' Jerzey gamble in Jersey Atlantic City This man get busy Mini chopper mounted That mean the Drac' posted on the wall like a fan of Drizzy Stop playin' wit' me I don't follow by the rules, I gotta lot of goons Them niggas ain't got a lot to lose I got a lot of tools This a chopper not an Uz' This'll knock Nu New Balance off, see him flyin' out his shoes Ratchet dirty Soon as he turn around, clap the .30 NBA protest, that's a piece peace to the back of Jerzey jersey I'm a hunter, preserve the kill if the catch is worthy Hang his head up on the wall taxidermy Who believe in him? If the ambulance comin', bitch you needin' 'em They know not to gas me up, I use premium Chop off a limb, mail it to ya mom I get unique wit' 'em Foot Locker, I send her home a box with Nu new feet in 'em The can' erupt, blam shit up It's like bowlin' after we done rollin', there won't be much left standin' up I don't care if this TEC jam or what Stab his side, get to ribin' ribbon on Jerzey jersey it's Breast Cancer Month Poof Magically, appears a Nina They hear this steamer It'll go from this shit bein' packed to a clear arena Jakk better not try to be no hero either I'ma bomb through him then drop Nu clear nuclear Hiroshima Kill his leader, hollow tips what this clip contain Turn him to a memory inside of a picture frame Up close or long distance aim Don't matter, arms on Jerzey jersey, NBA Christmas game I lift and bang Your vocal cords will get shot Your voice? Over, like them videos on Tik Tok I don't believe that ya clique pop Bitch stop All that tough talk, I ain't buyin' that Nu new thrift shop Make ya strip hot This shit drop whoever not in the family Shreddin' niggas Edward Scissors, the chop is handy We get the drop then we slide in the Camry Huge shotty, I will get Nu new body Dr. Miami To these fans, you the wild Blood, the big bully But to me, you just lil' bruh, a kid to me You heard right, I poke this knife in his left, turn right Drive it straight up the middle of Jerzey Jersey turnpike You'se a termite I earned my position, you will get murked if I'm trippin' I will let every round burst from my Smith You fuck around and be a hurt opposition Left there, shakin', with a wet t-shirt Who said Twork twerk competition? You ain't ask the culture I'm mad that I had to smoke ya Everybody, Jerzey jersey in a bag practice over I tried to tell him that this ain't what he want from me Battle rap is not a job to me this shit is fun to me Fuck a scheme, angle, punch, it's 'bout a gun to me The gun is the only thing that get the job done for me</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Monsieur l’Agent</t>
+          <t>Sombre Crétin</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Oui, oui, oui, oui, monsieur l'Agent Ça se voit peut-être pas mais tiens, j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Oui, oui, monsieur l'Agent Ça se voit peut-être pas mais j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Fais pas ta morale à deux balles, franchement t'es fatigant Fais pas ta morale à deux balles, franchement t'es fatigant Malgré qu'j'suis mate, mes fafs ont la même couleur que ton uniforme À part mettre un désordre, à quoi servent vos forces ? J'te donne pas raison malgré tes torts Et vu qu'je vis là, t'aimerais me vé-la et me jeter par mes tées-por Erreur judiciaire, erreur, Erreur judiciaire Les erreurs judiciaires sont des bavures policières Erreur judiciaire, erreur, Erreur judiciaire Les erreurs judiciaires sont des bavures policières Ça fait des marches républicaines et y'a pleins de démons L'affaire Bouna et Zyed, y'avait pas de démons À la vue de tous ça, j'veux m'tirer Ici, c'est pas lÉlysée Pourquoi j'm'habillerais ? Pourquoi j'mentirais Oui, oui, oui, oui, monsieur l'Agent Ça se voit peut-être pas mais tiens, j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Oui, oui, monsieur l'Agent Ça se voit peut-être pas mais j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Fais pas ta morale à deux balles, franchement t'es fatigant Fais pas ta morale à deux balles, franchement t'es fatigant Oui, Monsieur l'Agent Mais qu'est que tu veux que j'te dise ? J'ai les poches pleines et tous ces gâteaux, friandises Ze-dou, chelou Selon toi, j'suis bon qu'à être un fucking modo' Arrêtez vos contrôles abusifs toute la journée Jeté au Wati B parce que j'ai une certaine manière de m'habiller Je rôde les rues de ma ville avec les poches pleines de billets J'fais ma tricks et j'me demande dans quelle merde j'me suis fourré Je suis comme mes mentors depuis l'élémentaire Négro, j'ai tort, j'suis à deux doigts d'déborder Monsieur l'Agent, c'est vrai, tu nous sens pas Et nous aussi, on t'aime pas vraiment On s'demande pas pourquoi tu nous méprises seulement Tall Toujours acharné, ce pour nous mettre à l'amende Mets ton amande, j'fais plus d'sous que t'en aura jamais, bitch Pourquoi me regardes-tu mal ? Parce que je suis k'hel, l'air coupable et que je n'ai pas le cul pâle Un flic est mort, j'ai la larme à l'il Y'a-t-il quelqu'un lorsque nos daronnes sont en deuil ? Nan La raison pour laquelle on tire le signal d'alarme C'est que le respect va dans les deux sens, pas d'enculade Monsieur l'Agent, c'est la haine que tu m'imposes Aucun amour pour toi, lèche mes flash-balls suce Prend ma pièce et casse-toi, parle au talkie Moi j'ai pas de shit Merci, bye bye Oui monsieur l'Agent Ça se voit peut-être pas mais tiens, j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Oui, oui, monsieur l'Agent Ça se voit peut-être pas mais j'ai les papiers çais-fran M'gâche pas mon temps, ma vie est une longue pente Et le sol n'est pas celui du Vatican Fais pas ta morale à deux balles, franchement t'es fatigant Fais pas ta morale à deux balles, franchement t'es fatigant J'fais d'la 'sique, j'suis loin de la Thug Life Tu vois pas plus loin que ta Maglite Qu'est-ce qui te pousse à jouer les Batmans, nigga ? T'es complètement à coté de ta plaque Tes enfants m'écoutent, et ta femme aussi Mets-toi dans le crâne qu'un noir en Panamera, c'est possible Sans uniforme, t'aurais déjà ta tête sous mes XXXX Aucune haine Monsieur l'Agent Sois juste, après on coexiste Donne-moi une seule raison de garder le silence Ok, une seule raison, autre que ma différence capillaire Pas la peau claire, pas là pour plaire Tous tes confrères n'ont qu'à aller s'faire Oh oh ah Hé képi, viens pas nous les sé-bri Les pédophiles sont devant les schools avec des Kinders Country Képi, viens pas nous les sé-bri Dans nos fut', y'a pas de résine, y'a pas de résine Toujours les même balles dans les tieks, les té-ci1</t>
+          <t>Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Sombre, sombre crétin Sombre, sombre crétin Sombre, sombre, sombre crétin Sombre, sombre crétin Sombre, crétin Sombre, sombre, sombre crétin Sombre crétin, sombre Il croit quil est frais Mais en vrai nous on sait cque tes Tas jamais pu blairer mes frères À part le son, tu sais cquon fait Si percer est une histoire de couilles Ma semence vaut plus que toi est-ce que tas personne enfoiré Les balances ont baisé ma team Mais jamais on plaide coupable Quand ça monte sur scène tobserve Et tous nos faits et geste tobsèdent Jte lai déjà dit, laisse tomber On connaît déjà la fin du suspense Jlai déjà vu se ffiche-a quelqupart Et puis tes comme un suceur de bite dans tout mon secteur Négro mon flow dix sur dix SEGPA On dire pas fuck jsuis sur Webstar Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Sombre, sombre crétin Sombre, sombre crétin Sombre, sombre, sombre crétin Sombre, sombre crétin Sombre, crétin Sombre, sombre, sombre crétin Sombre crétin, sombre Pour les vrais de vrais, tu vaux moins Que la dernière merde qui va mi-dor Pour les vrais de vrais, je vaux plus Que la dernière paire qui va ti-sor Jojo J'compare les peut tués donc jrespecte Tous ceux qui sévadent avec des ressorts Tu passes de lAfrique à la France Le Visa du bled sur leurs passeports bon voyage monsieur Pour nous suivre il faudra faire cque tu peux On sen remets pas, les bastos pleuvent Eh, tu nous observes plus que les keufs En vrai tu voudrais être mon reuf ha ha Il mfaut ma Rolex et ma Benz Jsuis un furet si tisé un 3 600 euros swaggé Joue avec léquipe on va te charger la face Et tu suceras avec un dentier Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Sombre, sombre crétin Sombre, sombre crétin Sombre, sombre, sombre crétin Sombre, sombre crétin Sombre, crétin Sombre, sombre, sombre crétin Sombre crétin, sombre</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Non merci</t>
+          <t>Touche Pas À Mon Verre</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ils n'ont qu'à me négliger Mais je passerai sous votre nez comme Omar Sy Ainsi, je n'ai jamais l'air blessé Je repeins le monde un peu comme Da Vinci Et si vous m'tendez la main, je ferai de même Et si jamais t'as croisé mon ch'min, j'suis resté l'même Et j'leur ai dit Oui mais non merci oh Mais non merci oh Oui mais non merci oh Mais non merci oh Oui mais non merci oh Mais non merci oh Oui mais non merci oh Mais non merci Vous m'avez négligé, vous m'avez négligé Vous m'avez négligé, vous m'avez négligé Sachez-le que c'est déjà trop tard, trop tard, trop tard Je n'raffole pas du menu fretin, fretin, fretin Ils ont beau se déguiser, mais au fil du temps la vérité les déshabille Je n'ai jamais XXX, j'ai détourné l'regard, j'veux pas te voir ainsi Je lui ai tendu la main, elle a fait de même Elle a croisé mon ch'min, le destin était de même Et j'leur ai dit Oui mais non merci oh Mais non merci oh Oui mais non merci oh Mais non merci oh Vous m'avez négligé, vous m'avez négligé Vous m'avez négligé, vous m'avez négligé Sachez-le que c'est déjà trop tard, trop tard, trop tard Je n'raffole pas du menu fretin, fretin, fretin J'ai vu mon peuple en train d'se noyer, en train d'se noyer La misère du monde sur mon dos, sur mon dos, sur mon dos Et j'ai vu quelques atrocités, atrocités C'est des choses à n'pas trop citer, trop citer, trop citer Dans l'ombre on m'a laissé tu sais mon gava Le soleil n'a pas fait briller mes qualités J'suis plutôt Bob Marley que Che Guevara J'ai aimé tout c'qu'on a, c'que l'on a mérité Le pire c'est, qu'j'l'ai pas ché-lâ, j'suis pas che-lâ, face aux difficultés Négligé, votre truc sse-cra, on m'appelle pour l'she-ca XXX Je me suis dit XXX poursuit la ue-r Sans casse, brise les murs d'la hess car le biz' sature Y'a un retour dans une flamme Comme un démon dans un corps de femme M'ont pris pour un faible alors XXX Et j'leur ai dit Oui mais non merci oh Mais non merci oh Oui mais non merci oh Mais non merci Vous m'avez négligé, vous m'avez négligé Vous m'avez négligé, vous m'avez négligé Sachez-le que c'est déjà trop tard, trop tard, trop tard Je n'raffole pas du menu fretin, fretin, fretin Vous m'avez négligé-gé-gé-gé-gé-gé-gé-gé... Vous m'avez négligé x4 Je suis ce gosse à qui on disait nan T'es pas d'ici Vous m'avez négligé3</t>
+          <t>Viens par ici, combien tu mises ? Ce soir à ma table Tout est dit, jnai quune envie, vivre damour et de champagne Tu me vois en extase, mais ny pense même pas Cest pas pour moi, tous tes détails, je vis damour et de champagne Je nsuis quun invité Champagne à volonté Pour pouvoir planer plus haut Plus haut, plus haut Ne touche pas, ny pense pas Ne touche pas à mon verre Ne touche pas, ny pense pas Ne touche pas à mon verre Hey, mais qui t'a dit qupar ici tavais tout pour nous plaire ? Excuse-oim belle gosse mais ne touche pas à mon verre Cest la dream team ttest stu veux mais quest-ctes prête à perdre ? On peut te refaire de la tête au pied comme Shawn Carter Dinguelop, dinguelop, dinguelop, Dom Pé ou Moët Dinguelop, dinguelop, dinguelop, comme toi jsuis posé Dinguelop, dinguelop, dinguelop, ne touche pas à mon verre Dinguelop, dinguelop, dinguelop, ne touche pas Je nsuis quun invité Champagne à volonté Pour pouvoir planer plus haut Plus haut, plus haut Ne touche pas, ny pense pas Ne touche pas à mon verre Ne touche pas, ny pense pas Ne touche pas à mon verre Attention, plus de jus Monte le son, jen veux un peu plus Amène les bouteilles à ma ble-ta On fera péter lson à la Guetta Si tu veux kiffer, cest par là Ya toute ma clique qui se pavane On peut sambiancer mais ne touche pas Non ne touche pas à mon verre Dinguelop, dinguelop, dinguelop, Dom Pé ou Moët Dinguelop, dinguelop, dinguelop, comme toi jsuis posé Dinguelop, dinguelop, dinguelop, ne touche pas à mon verre Dinguelop, dinguelop, dinguelop, ne touche pas Ne touche pas, ny pense pas, ne touche pas à mon verre Ne touche pas, ny pense pas, ne touche pas à mon verre Ne touche pas, ny pense pas, ne touche pas à mon verre Ne touche pas, ny pense pas, ne touche pas à mon verre Ne touche pas à ma zik Beriz, Charly, Tefa Ne touche pas à mon verre</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ON VA YEKE</t>
+          <t>Tous Les Jours Dehors</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
+          <t>Tu traînes la rue depuis dtemps Est-cque tu entends ? Un jour elle va tlaisser en plan Tu mises sur des amis La famille soi-disant Mais chaque soir cest tes parents Qui prient pour qutu sois vivant Avant, tavais lair sage Comme une image, un dessin Maintenant cest lair sale Tas mis dehors ton destin Combien dtes proches sont déçus En regardant ton déclin ? Voyant comment tu déglingues On parle de toi comme un défunt Avant, quon te perçoive comme une défaite Ici la rue te perçoit, taides celui quon déteste Donc sois précis dans tes choix Personne ne doit pleurer lsoir Tâche découter cette voix Qui tdit pense à rentrer chez toi Jtraîne souvent là où personne Ne dépose ses orteils On est frères on na pas la même mère Ni le même père Pas les mêmes peines, on est pareils Jme réveille, jme lève, je sors La daronne qui pète un câble, qui me dit Qucest la rue qui mjette un sort Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Tu traînes la rue depuis tant dtemps Est-cque tu entends ? Maintenant elle ta laissé en plan A miser sur des amis La famille soi-disant Mais qui pour toi se fera du souci Une fois aux arrivants ? Avant tavais lair sage comme une image Elle est loin, maintenant cest lair sale Tas mis en cage ton destin Combien sont déçus, perdus sur ce chemin ? Dans une cellule guée-flin Ici où lespoir sest éteint Cest comme une histoire qui se répète Isolé tu taperçois quil est impossible, tu regrettes Les années nsont plus des mois Tes pas lseul à porter lpoids Un peu comme si tavais lchoix Maintenant tu penses à rentrer chez toi Jtraîne souvent là où personne Ne dépose ses orteils On est frères on na pas la même mère Ni le même père Pas les mêmes peines, on est pareils Jme réveille, jme lève, je sors La daronne qui pète un câble, qui me dit Qucest la rue qui mjette un sort Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Sortir après tant dtemps Passé trente ans, tu veux une femme, des enfants Construire une vraie famille Cqui nétait pas évident Voir le sourire d'tes parents Vaudrait toutes les sommes dargent Avant, tavais cette rage Avant tétais malsain Pouvoir tourner cette page Un message dans un écrin Tu sais qudepuis le début On affrontera rien de sain Mélanger nos vécus Quand cest la crise on sesquinte On a compté moins dvictoires que de défaites Parfois fous-rires, jours de fête Jours noirs et prises de tête Mais cette fois, faut réfléchir à deux fois Avant dpasser lpas Tache découter cette voix, cette fois Jtraîne souvent là où personne Ne dépose ses orteils On est frères on na pas la même mère Ni le même père Pas les mêmes peines, on est pareils Jme réveille, jme lève, je sors La daronne qui pète un câble, qui me dit Qucest la rue qui mjette un sort Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Eh petit souvent tu mdéçois Faudrait qutu penses à rentrer chez toi Petit à petit on ta vu téloigner, téloigner On ta vu téloigner, elle peut en témoigner On ta vu téloigner, elle peut en témoigner5</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Outfit</t>
+          <t>Tout le monde est loin d’être fiable</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Outfit, outfit, j'suis dans mon outfit Outfit, outfit, j'suis dans mon outfit Out-out-outfit black, ils arrêtent pas d'me fixer Ouh Pourtant, là j'ai pas mis de marque de luxe Eh Je n'suis pas dans le m'as-tu-vu Oh, c'est le m'as-tu-vu qui me voit tout frais Tellement frais, la go me voit comme du bissap Bissap Salle de sport, poto, contours, biceps Biceps Gros bébé bien nourri qui rempli l'XL XL, XL, j'suis dans mon outfit Tu le sais, tu le sais bien Une veste en satin J'suis dans le thème, j'suis dans le thème, j'suis dans le thème d'la night D'la night, j'me prends pas la tête, c'est quoi l'projet ? Je suis bien sappé, comment tu t'appelles ? Enchanté Stop Stop, ne marche pas sur mes pompes Pompes Tu sens l'regard d'mes potes Potes, mais t'inquiète on reste classe dans c'bordel Envoie la sauce Ouh, envoie-nous ton outfit Ouh De face, de profil, montre-nous ton style, te prends pas la tête Ha, ha, ha, ha, ha Dis-moi combien Combien ?, combien coûte ton outfit ? De face, de profil, montre-nous ton style, te prends pas la tête Outfit, outfit Ouh, j'suis dans mon outfit Outfit, outfit Outfit, outfit, j'suis dans mon outfit Air Force, chaussettes trouées Ouh C'est mon outfit, j'en n'ai rien à secouer Rien n'a secouer, ah J'ai la tête sous l'eau, je n'ai pas besoin d'bouée La mode, c'est mon truc, je ne peux pas couler Outfit Je ne peux pas couler Je ne peux pas couler, Fashion Week, j'suis en baba cool Baba cool Porte-bébé stylé papa poule Papa poule, j'suis dans mon outfit La même question tous les matins Je n'ai pas les mesures d'un mannequin Les critiques, rien ne m'atteint Jogging, casquette, petit parfum Pshit, pshit Petit parfum, je sors d'un rêve où c'est moi la star Dans l'futur y a mon avatar Tout est dans l'style, j'suis pas trop bavard Envoie la sauce Envoie-nous oh, oh, envoie-nous ton outfit De face, de profil, montre-nous ton style Ouh, ouh, te prends pas la tête Tête Dis-moi combien Ouh, combien ?, combien coûte ton outfit ? De face, de profil, montre-nous ton style, te prends pas la tête Ouh Outfit, outfit Ouh, j'suis dans mon outfit Outfit, outfit Ah, j'suis dans mon outfit Stop Stop, ne marche pas sur mes pompes Pompes Tu sens l'regard d'mes potes Potes, mais t'inquiète on reste classe dans c'bordel Ouh, ouh Envoie la sauce, envoie-nous ton outfit De face, de profil, montre-nous ton style, te prends pas la tête Dis-moi combien Combien ?, combien coûte ton outfit ? De face, de profil, montre-nous ton style, te prends pas la tête Outfit, outfit Ah, j'suis dans mon outfit Sale unh Outfit, outfit, j'suis dans mon outfit Outfit, outfit, j'suis dans mon outfit Mais ça, c'est une petite tenue parmi tant Laisse ça PDG, laisse ça je t'ai dit Je suis dans mon outfit, laisse De face, de profil, montre-nous ton style, te prends pas la tête Ouh, ouh, ouh</t>
+          <t>Tu npeux pas fermer les yeux Et faire semblant dêtre un infirme, cest insensé Je peux te guider si tu veux Mais jsuis comme tout lmonde, je peux mtromper Non jme sens pas forcé Cest tout à mon honneur de tavoir croisé Mais un conseil Tout lmonde est loin dêtre fiable Un conseil En tout lmonde se cache un Diable Tout lmonde est loin dêtre fiable En tout lmonde se cache un Diable Cest vrai quelle était belle, et jeune, jai du placer ma confiance Elle a arraché mon cur peu à peu, mais je my ferai avec le temps Et maintenant je men rends compte, je ne fais que perdre mon time On fait semblant, on se ment, avec nos gamins Et maintenant je nressens plus rien, même quand jte fais mal Toi et moi, cétait juste un faux départ Tu npeux pas fermer les yeux Et faire semblant dêtre un infirme, cest insensé Je peux te guider si tu veux Mais jsuis comme tout lmonde, je peux mtromper Non jme sens pas forcé Cest tout à mon honneur de tavoir croisé Mais un conseil Tout lmonde est loin dêtre fiable Un conseil En tout lmonde se cache un Diable Tout lmonde est loin dêtre fiable En tout lmonde se cache un Diable Elle joue avec toi comme elle joue avec tout lmonde Si tas la bonne came, tu lauras sûrement, t'as vu l'mouv' Ne te crois pas si de-spee Ne te crois pas si de-spee Ne te crois pas si de-spee Ne te crois pas si de-spee Audi R8, RDV minuit pile Dîner aux chandelles, chez nous ya pas dpetite suite Petit bain, relax, Rolex sur la table Tout est géré, pas dsouci, fake paradise Oh laisse... Fais genre tu ne savais pas tout cqui l'a met à l'aise Tu npeux pas fermer les yeux Et faire semblant dêtre un infirme, cest insensé Je peux te guider si tu veux Mais jsuis comme tout lmonde, je peux mtromper Non jme sens pas forcé Cest tout à mon honneur de tavoir croisé Mais un conseil Tout lmonde est loin dêtre fiable Un conseil En tout lmonde se cache un Diable Tout lmonde est loin dêtre fiable En tout lmonde se cache un Diable Tu mas eu, tu mas eu Et moi qui croyais te connaître je ferai mieux De faire semblant comme toi Si javais su, javais su Jaurais sûrement fait comme toi Au lieu dêtre sincère comme moi Dêtre sincère comme moi Yeah Tu npeux pas fermer les yeux Et faire semblant dêtre un infirme, cest insensé Je peux te guider si tu veux Mais jsuis comme tout lmonde, je peux mtromper Non jme sens pas forcé Cest tout à mon honneur de tavoir croisé Mais un conseil Tout lmonde est loin dêtre fiable Un conseil En tout lmonde se cache un Diable Tout lmonde est loin dêtre fiable En tout lmonde se cache un Diable2</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Paname arrive</t>
+          <t>Tout le monde s’emporte</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>N'oublie jamais c'que l'on t'a donné Tout le monde s'emporte J'en place une pour les frères qui sont condamnés Tout le monde s'emporte Toujours debout après tant d'années Tout le monde s'emporte Nos souffrances et nos peines vont bien s'en aller Tout le monde s'emporte N'oublie jamais c'que l'on t'a donné Tout le monde s'emporte J'en place une pour les frères qui sont condamnés Tout le monde s'emporte Toujours debout après tant d'années Tout le monde s'emporte Nos souffrances et nos peines vont bien s'en aller Tout le monde s'emporte C'est quoi les diez xxx du tieks, tout le monde sait qu'ça vend C'est vrai qu'on est pas ça, on fait passer le sexe avant L'amour comme la haine donc écris ton testament Assume quand c'est la merde, ne crois pas que ton destin ment Sur un plan fiable toujours près à tout miser Que les hommes forts, les plus faibles sont atomisés 2010 c'est la merde, tout le monde veut contrôler sa race Même les meufs s'y sont mis, demande à Condoleezza Rice Tout le monde s'emporte, dans la cave, dans les halls Les petits frères jouent les diables, ils se passent d'auréoles Même les meufs de la poste qui te parle en créole J'ai mon son dans ta caisse, c'est le disque d'oréééooohh C'est pour ça, la famille à Aulnay-sous-Bois Tu finis dans le coffre ou bien tu donnes les sous, quoi Y'a les hormones et les mecs avec des poitrines fortes Le cauchemar c'est Macdoum avec un poum-poum XXX Les meufs sexy, défais les tous, mets les dans les sacs business Tout le monde s'emporte La jeunesse est barge, c'est les parents qui s'arrachent Tout le monde s'emporte XXX c'est la descente en enfer sans stress Tout le monde s'emporte J'répète Tout le monde s'emporte, c'est dead Jeune homme ou jeune fille connectait à son mp3 ou ipod Et qui à l'époque des ordis De lui demander qu'est-ce qui s'passe Où est le bif, tu taffes mais ne mange même ap', mec Tout le monde s'en...1, tout le monde s'en...2 Tout le monde s'en...3 Tout le monde s'en bat les couilles de c'que tu penses C'qui nous rend bouche-bée c'est c'que tu prouves C'que tu prouves, donne c'que bouffes Même ceux qui doutent, sont sans dessus-dessous Pour les sangsues de l'état, j'ai un vécu de blédard Destiné au trottoir, dealer pour un comptoir Cette histoire est notoire C'est foutu, les darons pètent un plomb y'a rien à dire Tout le monde s'emporte Jeunes filles, jeunes hommes branchés sur internet Qui veux que sa gow aye se faire mettre Wow, tout le monde fait la ola Y'en a même qui veulent brûler la volaille Un poste brûlé ça donne un KFC Toute manière, ils sont bons qu'à nous faire traverser, mec Tout le monde s'en...1, tout le monde s'en...2 Tout le monde s'en...3 Tout le monde s'en bat les couilles que tu n'aies pas d'bif Y'a des gosses au Rwanda qui n'ont même plus d'mif' Des travailleurs qui se dé-suici C'est l'état qui nous dissocie Tout le monde a des soucis Chez les gars de la tèss' aussi C'est la faute à personne, la politique m'étonne Pour le bif à Elton Tout le monde s'emporte Les meufs sexy, défais les tous, mets les dans les sales business Tout le monde s'emporte La jeunesse est barge, c'est les parents qui s'arrachent Tout le monde s'emporte XXX c'est la descente en enfer sans stress Tout le monde s'emporte J'répète Tout le monde s'emporte, c'est dead Entre nous pas d'unions, tout le monde est capitaliste Plus t'évolues, plus tes amis t'haïssent Société d'consommation donc on veut c'qu'on voit Et après ils s'étonnent quand ça braque des convois Regarde comment on crève la dalle Des gosses de 11 piges parlent d'être fatale Rien à voir avec les boss qu'on pète à temps Chope notre chance et pour l'état qui sorte nos chambre Les messages direct que tu jette par terre Le tsunami arrive a-tu l'flair Va-tu l'faire ? Berné par un autre, pour abattre ton frère Mensonge, trahisons, disons... Rentre dans l'jeu et tu finis enfermé Les meufs sexy, défais les tous, mets les dans les sacs business Tout le monde s'emporte La jeunesse est barge, c'est les parents qui s'arrachent Tout le monde s'emporte Sans gène sans biff sans stress, c'est la descente en enfer sans stress Tout le monde s'emporte J'répète Tout le monde s'emporte, c'est dead Chaque fois quand c'est la merde, c'est nous qu'on accuse Génération négligée qui s'console sous la lune On leur parle de paix, ils nous parlent de tune Ils nous parlent de guerre, on gère donc normal que ça fume Chaque fois quand c'est la merde, c'est nous qu'on accuse Génération négligée qui s'console sous la lune On leur parle de paix, ils nous parlent de tune Ils nous parlent de guerre, on gère donc normal que ça fume Chaque fois quand c'est la merde, c'est nous qu'on accuse Génération négligée qui s'console sous la lune On leur parle de paix, ils nous parlent de tune Ils nous parlent de guerre, on gère donc normal que ça fume</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Paradis</t>
+          <t>Tu ne fais pas le poids</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>On na quune vie, et on y a tous droit On na quune vie, et on y a tous droit Paradise, paradise, paradise, paradise Le paradis, le paradis Jveux pas une parodie du paradis Ça baratine le paradis Jveux pas une parodie du paradis Ya ceux qui nont jamais eu dchance Et ceux qui baignent dans la vivance Écoute, deux mondes si différents Mais si proches dans la distance Cest pour ça que lun profite de lautre Et lautre chuchote que lun est faux Mais chacun ses défauts Et si seulement, si seulement On nétait pas si différents, si différents Si seulement, si seulement Il ny avait pas la distance, la distance On na quune vie, et on y a tous droit On na quune vie, et on y a tous droit Paradise, paradise, paradise, paradise Le paradis, le paradis Jveux pas une parodie du paradis Ça baratine le paradis Jveux pas une parodie du paradis Ya ceux qui sdisent jvais jamais percer Jsuis tombé dhaut mon frère et le béton ma bercé Personne ne maide et jte ldis demblée Ils nfont que fuir en trouvant des excuses XXX Putain cest quand jretourne au de-ble Jespère quce serait pas dans une soute Entouré dquatre planches scellées Jveux juste voir ma progéniture Mon producteur qui prend de lâge En distribuant la fortune Jme suis fait sous la torture Jsuis devenu une ordure Mais un jour jy arriverai Bien sûr poing levé pour les frères Quand jdis bonjour je transmets lespoir Jsuis devenu Beriz en rôdant les squares On na quune vie, et on y a tous droit On na quune vie, et on y a tous droit Paradise, paradise, paradise, paradise Le paradis, le paradis Jveux pas une parodie du paradis Ça baratine le paradis Jveux pas une parodie du paradis Paradis fiscaux, dégo et dordures Recouverts dor pur Paradis fiscaux, dégo et dordures Recouverts dor pur</t>
+          <t>No no no no, no way, no way No no no no, no way, no way, no way, no way Tu ne fais pas lpoids, face à ma douleur Jen ai vu dtoutes les couleurs Tarrêterais si tu mvoyais jouer Tu ne fais pas lpoids, jsuis pas un leader Oh mais nme pousse pas, je pourrais te sauver Tu ne fais pas lpoids Est-cque vous mressentez par ici ? Tu ne fais pas lpoids Je nserai pas très loin mon ami Tu ne fais pas lpoids Jai souvent marché dans Paname Avec mon inspi dans mon crâne Tu ndevineras jamais mon level Avec ton genre de style Juste pour mamuser Ma couleur de vie exposé par le mektoub Est-cque vous voyez ce que jvis ? Est-cque vous voyez ce que jvis ? Tu ne fais pas lpoids, face à ma douleur Jen ai vu dtoutes les couleurs Tarrêterais si tu mvoyais jouer Tu ne fais pas lpoids, jsuis pas un leader Oh mais nme pousse pas, je pourrais te sauver Tu ne fais pas lpoids Est-cque vous mressentez par ici ? Tu ne fais pas lpoids Je nserai pas très loin mon ami Tu ne fais pas lpoids Jai souvent limité les dégâts Pour pas vous faire autant de mal Jcollectionne des têtes Dans quelques temps je naurai plus dennemis Un toast pour larrivée, XXX Jsuis pas de ceux qui vivront à genoux Est-cque vous voyez où jveux en venir ? Est-cque vous voyez où jveux en venir ? Tu ne fais pas lpoids, face à ma douleur Jen ai vu dtoutes les couleurs Tarrêterais si tu mvoyais jouer Tu ne fais pas lpoids, jsuis pas un leader Oh mais nme pousse pas, je pourrais te sauver Tu ne fais pas lpoids Est-cque vous mressentez par ici ? Tu ne fais pas lpoids Je nserai pas très loin mon ami Tu ne fais pas lpoids Où sont mes gentlemen ? Où sont mes gentlemen ? Où sont mes belles gosses ? Dis moi où sont mes gentlemen Où sont mes belles gosses Tu ne fais pas lpoids Tu ne fais pas lpoids, face à ma douleur Jen ai vu dtoutes les couleurs Tarrêterais si tu mvoyais jouer Tu ne fais pas lpoids, jsuis pas un leader Oh mais nme pousse pas, je pourrais te sauver Tu ne fais pas lpoids Est-cque vous mressentez par ici ? Tu ne fais pas lpoids Je nserai pas très loin mon ami Tu ne fais pas lpoids</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Parigos</t>
+          <t>Turn On the Lights (Remix)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Maître Gims, Bedjik Mais qui a 'glige ? Maitre Gims, Bedjik, un feat en famille Trop deus tu t'demandes si j'tape dans la farine Here We Go ! Tu vois bien que les flows varient C'est l'zbeul un peu comme dans Tex Avery Ça fait des mois et des mois et des mois que je ne dors pas Les MCs me veulent en featuring mais j'en prends très peu Qui assumera pas sans avoir enfilé un joint de beuh Vous êtes tous piégés dans le Vortex... Mais j'compte t'enterrer après t'avoir humilié sur la voie ferrée Demande à Ferris à quoi bon sert de faire l'inspecteur Derrick ? Ça m'fait dahek Sors ton béret, puis ton pe-pom, si t'es paré, ben c'est bavon C'est moi l'premier à l'avoir kické donc je n'sais pas à la base qui t'es L'heure est venue de t'liquider, Bedjik le psy, c'est la qualité Ceinture noire chrome sur le bas-côté, fallait méditer J'vais pas te le répéter au cas où t'aurais pas tilté Et puis j'm'lèb' sur la prod' sans déc' Il faut qu'j'te la mette pour que tu captes ma tech' Mais moi j'fais du lourd, même si t'es par terre j'te lève Bsahtek pour ton feat mais il t'en reste sur les lèvres J'suis dans mon délire, j'suis pas pressé, j'vais les fumer sans m'reposer La dégaine de l'homme amoché donc japparais souvent stressé Disons qu'la vie est dure, et qu'les pe-stu nous cassent les couilles À cause d'une dégaine de taré, j'suis pas carré mais j'sens la douille Alors j'me pose, ma couronne sur les questions qu'j'me pose La daronne cogne, crie sur le gosse qui compose Et dès qu'j'suis dehors, Berisque de perdre le contrôle Rien à foutre de ce que vous pensez, toutes vos attitudes de shour J'suis déboussolé, déboule solo ma passion j'vais déboutonner Correctionné mise de côté si t'as zappé là tu connais Genre connu mais débit volé, tu vas prendre une demi-volée Mais t'as rien à m'dire, t'inquiète J'avais une barre pour toi mais tu tentais de m'chourave les miettes J'ai tort de... toi t'es condamné à te gratter les fesses Et roule sur ce fils de... change de tier-quar Mon espèce est protégée, les enfoirés sont mis à part J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis grave énervant, tu es trop décevant J'kicke depuis mes 9 ans, pour ça qu'j'plie du de-mon AAAAAAAAAAAAAAAAH Guette le niveau froid comme Sub-Zéro D'mande à Jerry R., un flow sans précédent S'faire fumer devant des javons Ambiance chavaud-bavon, craint comme un Deceptycons Ton cul sur le trident, là c'est mon côté dit-ban Laisse moi les dé-fler-gon, me-Gi fucke Poséidon Ferme là, si t'es pas con, j'défouraille depuis l'balcon Glauque comme les rues d'Patong, danse dans la gueule du dragon Viens m'voir à Kin' au Congo, ou dans la forêt d'Ngorongoro Au corps à corps avec un taureau dans l'océan d'vant les coraux Violent comme de décevoir ou l'désaccord avec les parents C'est paro car tôt ou tard t'es forcé d'payer plein pot l'tarot J'suis avec Sop-pra-no Bedjik, Beriz, H, Dream Oh no, tu vis un instant hors norme J'suis bizarre, je sais, je ne suis pas aux normes Énorme ? I don't know Dream Chérie, questionne tes hormones J'lance une bombe, j'vous donne cinq secondes Les gars, cassez-vous, j'ai tué Cupidon Ta go me trouve intriguant Dis-lui qu'j'ai du goût comme du bon taga J'suis dans le sas, j'ai quatre tass', aux pattes des tas d'passes S'échappe ta carcasse, craque ne canne aps Le taff ton futur, mon passé s'noie Et t'es calme, me parle aps, j'sais aps les poukaves Écarte de cracher, se cache Confie tout aux tasses-pé, rafale de face Yeah, ne me faites pas chier, j'fais plus confiance même au chien Une belle paire à tes pieds même ton poto peut t'les cirer J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Reste tranquille, mais-mais reste tranquille Voilà Sopra' M'Baba et Maitre Gims Comme lui, j'ai fait le tour du monde de Marseille à Paris Tu connais déjà le gabarit, donc donc reste tranquille Un big up au Wati-B, pour les 700 000 Que des mecs costauds, que des mecs solides, là j'atterris comme à Smallvile Oh oui ce feat c'est de la-la folie, mes rimes défilent comme un gros bolide J'vois des MCs prendre la fuite comme des vaches d'Interville Dream, mon flow assassine À la fin de ce couplet tes gars ont le visage à Seal Je les braque avec le magnum de l'Institut Le game n'est pas un trottoir pourquoi tu te prostitues ? Dédicace à Bedjik et à Shin Sekaï Avec un putain de flow qui découpe comme San ku kai Rien qu'jpars en live, faut qu'je fly Donc je vous dis bye bye bye bye bye-bye bye !4</t>
+          <t>Im lookin for er Im lookin for er Im lookin for er Im lookin for er Is that her in the VIP-line With the Vuitton and Yves Saint Laurent Used to drive a Nissan now she in a Beamer I dont want er cause she from the corner And I heard that Beamer was a loaner Her old man, the owner And don't even drink Carona's What type of drink you want bruh On champagne forever On dirty sprite forever You can come sip with me If youd like to change the weather If you wanna live better We can buy a crib, where ever Dont get too thirsty, get used to the cheddar I wanna tell the world about you just so they can get jealous And if you see er fore I do tell er I wish that Ive met er Turn on the lights Im lookin for er too I heard she keep her promises, and never turn on you I heard she aint gon cheat and she gon never make no move I heard she be there anytime you need er, she come through Turn on the lights Im lookin for er Im lookin for er Im lookin for er Turn on the lights Im lookin for er Im lookin for er Im lookin for er Im lookin for er Est-ce que tu sais s'que tu racontes ou bien tu kiffe quand t'as pas d'bol J'te refais la scène a l'envers tu tiens la tête et puis tu demandes vite s'que je rapporte Un pour les vrais deux pour les faux trois pour les futurs Solja J'etais dans l'agonie j'ai perdu d'la famille j'esquinte le mektoub Job sale Toutes sortes de story toutes sortes de bolides Sa s'traine pour des tasspé au tarpé solide Qui t'as dis que nous suivre c'est risqué C'est la plus belle chose que t'as jamais dégusté T'a entendu parlé la tu vas voir de tes yeux Tu vas t'en mordre les lèvres ou crié Oh Mon Dieu Oh mon vieux la classe et la Tchat et pète le feux J'prends ton 06 à domicile j'pète ton J'prends ton 06 à domicile j'pète ton Demande moi d'ou j'sors Sept Cinq J'fais briller ma life et mes gars du Sept Cinq Beriz futur featuring Sept Cinq J'fais briller ma life Et toute ma zone , et tous mes soces , j'envoie la sauce J'fais briller ma life</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Paris By Night</t>
+          <t>Un choix</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>7.5 C'est le 7.5 du seum et des nympho Le 7.5 du seum et des nympho 7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes C'est l'7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes C'est T.O.X.M.O en direction de Ricket Un coup de fil m'est nécessaire en quittant le 9 B.C - R.I.M ? Wesh bien ? - C'est quoi le lire-dé ? Ça fout rien Ramène toute l'Institut c'est bon soir-ce on va se mettre bien Mon 0.6 sonne mais bâtard qui décroche Il faut je m'échappe boycotte les blocs Que du whisky, shit et des tass' en bloc Laisse tomber, laisse tomber C'est Paris by night et c'est pas près de changer Ok, 7.5, Paris by night Ceux qui vont en boite, ceux qui font les drive-by C'est la capitale chez nous y'a des tas de bails Donc taille hataye c'est le continent thaï C'est le 7.5 du seum et des nympho Le 7.5 du seum et des nympho 7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes C'est l'7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes Le 7.5, le 7.5 n'a pas de sécu Notre seule issue c'est d'vendre du shit et le bif reste notre seul pécule Notre seul pécule Le 7.5 le 7.5 n'a pas de sécu, le 7.5 le 7.5 n'a pas de sécu Notre seule issue c'est de vendre du shit et le bif reste notre seul pécule Notre seul pécule, notre seul pécule Le 7.5 le 7.5 n'a pas de sécu Sin-cou envoie les masses, je suis dans la voiture avec des tass' Yoshi, Nervous dans la place, quoi ? Ton gars s'est mangé des coups de shlass Attend, j'arrive tout de suite, juste le temps d'un coup de fil Descendez bande de pétasse et rendez moi mon bout de shit Bombar, bombar, bombar, bombar, Bombar, bombar, bombar Je viens de péter ma teille, je vois des sses-fe nah sheitan Je sors tout droit de la boite et je vois des ss-ki nah sheitan Paris, la nuit ça tire ! Paris, la nuit ça deale Paris, la nuit ça tise ! Paris, la nuit ça sniffe Paris, la nuit ça tire ! Paris, la nuit ça deale Paris, la nuit ça tise ! Paris, la nuit ça sniffe 7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes C'est l'7.5 drogue douce, du seum et des nympho On s'impose, pas de thèmes commet les mêmes fautes Le 7.5, le 7.5 n'a pas de sécu Notre seule issue c'est de vendre du shit et le bif reste notre seul pécule Notre seul pécule, notre seul pécule Le 7.5, le 7.5 n'a pas de sécu - Wesh le H - Wesh S.Pri - Mais tu vas où ? - Avec Abou 2being, on est là - Hahahaha - Cintré comme ça, le pectoral saillant - Eh mon gars, ils sont où Jarod et tout ça ? - Eh, viens, on bombarde ma gueule ? - Eh, vas-y, viens, on bombarde direct, on va les calmer, rah Tu connais, tu connais, tu connais, tu connais Tu connais, tu connais, tu connais, tu connais Paris, by night, Paris, by night Paris, by night, Paris, by night P.A.R.I.S, Paris by night P.A.R.I.S, Paris by night, yeah 7.5, ouvre les yeux enfoiré L'Institut Frappe, rahigt</t>
+          <t>J'ai fait l'choix d'mettre mon front à terre Sans repères, j'espère m'repentir vite avant qu'on m'enterre J'vis sous l'il du mal Comme un Gendou, j'marche les ieds-p' au-dessus des flammes Que Dieu m'guide, akhi j'avance sans Tom-Tom J'suis tenté tous les jours par les rottes-ca', les teums-teums Les biens qu'la vie t'prend personne t'les rendra Starf', par égoïsme, j'ai fait l'choix d'décevoir mes rents-pa' Marre de choisir entre bien et hlam Face ou pile, face au mal, j'm'en sors tant bien qu'mal J'passe le salam aux 'soces Face aux salopes, aux suceuses, j'ai fait l'choix d'avancer seul J'cogite en balle, kho, j'ai pas d'quoi m'faire oublier mes soucis Du mal à prendre mon souffle, j'étouffe ici, j'compte plus mes soupirs Entre le bien et l'hlam, le Dîn et l'mal Avancer devient plus dur que de faire ses choix Les choix sont durs parfois Tu vis dans l'erreur, le bien, le mal te partagent T'as choisi la rue, tu ferais mieux d'faire ton paquetage Condamné, sans savoir où aller, on paie nos gestes salés J'ai dû choisir Entre rester par terre, ou briser les barrières Grandir, j'ai su m'assagir et m'endurcir Trop de gens sont faux qui sont donc les vrais ? Il faut qu'j'assume mes fautes, c'est ma personne qui paye les frais J'ai pris v'là les sens interdits, croqué la vie à pleines dents Passé mon temps à m'baigner dans l'hlam Chaque péché commis m'éloigne du Paradis Le nuit, médite sur mes choix Orienté par l'illicite Depuis l'jeune âge, la rue m'excite et m'incite À faire du mal J'ai pas décidé d'vivre dans c'monde de clébards J'compte décéder bu-bar' Entrer dans l'Dîn, y'a pas meilleur choix qu'j'peux faire L'avant-goût d'l'Enfer sur Terre J'l'ai goûté c'est la pisse d'Iblis Frelon, après dix piges de fumette, j'ai zappé l'seum qui a brouillé mes neurones Les paupières cernées par la fumée J'ai choisi d'arrêter d'faire le con, et d'fuir le camp des damnés J'ai choisi d'arrêter d'faire le con, et d'fuir le camp des damnés J'ai commencé par préférer la télé à l'école Puis s'en sont suivies des tonnes d'heures de colle Puis, ma vie j'ai préféré la vivre que la voir passer Et j'ai choisi d'être d'ceux qui verront pas l'avenir dans l'passé Et j'ai choisi la rue comme si c'était une carrière Et d'surveiller mes arrières sans proposer mon derrière Et j'ai choisi d'jamais prendre personne pour supérieur Et d'pas changer d'direction, même si j'm'enfonçais dans mes erreurs Donc j'ai choisi d'devenir un homme, quoi qu'il arrive Donc plus d'larmes quand vient la mort de ceux qui vivent D'être blessant, méchant, envers ceux qui l'méritaient Et qu'j'devais rien à personne, si c'n'est la vérité Et maintenant, j'ai choisi la liberté, car J'ai fait peu d'temps, mais j'pense que j'ai trop tourné au placard Et j'ai compris qu'y'avait pas d'bons ou d'mauvais choix à regretter Il est juste question d'ton aptitude à accepter la vérité</t>
         </is>
       </c>
     </row>
@@ -1614,248 +1614,10 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>​popcorn intro</t>
+          <t>Volvo</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
-        <is>
-          <t>...</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Dr. Bériz</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Privilégié</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Salut mon vieux tu m'reconnais ? Jpaye mes coups rebeu À contre-courant deux Tour de mollet quarante-deux Renoi jcoupe ton corps en deux Pourquoi tu men veux ? Jaloux de mon buzz Jtaurai niqué ta Si elle sappelait Karembeu Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub On investit la fête avec des billets violets Limbécile a faim, pourtant il passe sa vie au lit Linstru jlai violée Moi jsuis un rappeur bionique Jles nique toutes comme Biolay Jsuis dans lshop, jsuis dans lblock Jsuis dans mes pompes, jsuis dans lPorsche Jsuis dans lparking, jsuis dans le Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub Jsuis dans lclub, jsuis dans lclub DJ Skorp est dans lclub Jsuis dans lcarré VIP, Louboutin sur lcanapé Tout est clean, jsuis refait H Magnum, Beriz, ouais teubé XXX, ouais teubé Privilégié DJ Skorp, privilège Skorp Privilégié H Magnum, privilège Beriz Privilégié, privilège Privilégié, privilège On mdit H, range ton magnum et puis surine les ! Jsuis dans lclub, elle me téma comme un surhumain Ça désamorce les bombes jsuis entouré ddémineurs Tu veux tfaire lever, mais tes mineur Jsuis dans la H-Mobile ils mont pas vu venir Si jlui sors ma liasse jpense quelle va sévanouir Jaugmente le level, jsuis dans mon délire Gotham City arrive je sens dladrénaline Tu mreconnais, tu mreconnais En live et direct, est-cque tu mreconnais ? Tu mreconnais H Magnum, Beriz, DJ Skorp</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Dr. Bériz</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Résurrection</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Fifteen years ago, the American public was introduced to Marshall Mathers, Eminem, and Slim Shady, a triptych of manic personalities whose interests included raising hell, making enemies, and sticking nine-inch nails through each one of their eyelids. To commemorate Shady being set loose upon the world, we've decided to rank every single song Em has released to date But first, allow us to qualify our countdown with a few rules of eligibility We only included songs that were given an official retail release that means tracks featured on studio albums, EPs, and compilations, plus guest verses we didn't consult mixtapes or unofficial freestyles, so we offer our deepest apologies to Nail in the Coffin, Til Hell Freezes Over, and other noteworthy rarities. Skits weren't considered, either condolences to all the Ken Kaniff and Steve Berman die-hards out there. Obviously, we only considered D12 tracks that featured a verse or hook from Eminem. And, finally, if there were multiple versions of a track, we opted to include the rendition we thought superior, so don't expect to see the live Grammy performance of Stan or The Slim Shady EP's Just the Two of Us. And with that, we begin the Eminem show... 289. C'mon Let Me Ride Skylar Grey feat. Eminem, Don't Look Down, 2013 288. Here Comes the Weekend Pink feat. Eminem, The Truth About Love, 2012 287. Fuck Off Kid Rock feat. Eminem, Devil Without a Cause, 1998 286. Off to Tijuana Hush feat. Eminem, Kuniva, and Swifty McVay, Bulletproof, 2005 285. Fack Curtain Call The Hits, 2005 284. Desperation feat. Jamie N Commons The Marshall Mathers LP 2 , 2013 283. It Has Been Said The Notorious B.I.G. feat. Diddy, Eminem, and Obie Trice, Duets The Final Chapter, 2005 282. Bitch D12, D12 World, 2004 281. Echo Bad Meets Evil, Hell The Sequel , 2011 280. Twerk Dat Pop That Trick Trick feat. Eminem and Royce da 5'9, Twerk Dat Pop That Single, 2014 279. I Need a Doctor Dr. Dre feat. Eminem and Skylar Grey, I Need a Doctor Single, 2011 278. The Reunion Bad Meets Evil, Hell The Sequel, 2011 277. Open Mic Infinite, 1996 276. Hustlers Hardcore Domingo feat. Eminem, Behind the Doors of the 13th Floor, 1999 275. Jealousy Woes II Infinite, 1996 274. No More to Say Trick Trick feat. Proof and Eminem, The People vs., 2005 273. Who Want It Trick Trick feat. Eminem, The Villain, 2008 272. Insane Relapse, 2009 271. Our House Slaughterhouse feat. Eminem and Skylar Grey, welcome to OUR HOUSE, 2012 270. Ass Like That Encore, 2004 269. Stronger Than I Was The Marshall Mathers LP 2, 2013 268. Big Weenie Encore, 2004 267. My 1st Single Encore, 2004 266. My Life 50 Cent feat. Eminem and Adam Levine, My Life Single, 2012 265. Asshole feat. Skylar Grey The Marshall Mathers LP 2, 2013 264. Beautiful Pain feat. Sia The Marshall Mathers LP 2 , 2013 263. Drama Setter Tony Yayo feat. Eminem and Obie Trice, Thoughts of a Predicate Felon, 2005 262. Chemical Warfare The Alchemist feat. Eminem, Chemical Warfare, 2009 261. My Ballz D12, The Longest Yard , 2005 260. Green and Gold The Anonymous feat. Eminem, Green and Gold, 1998 259. Throw That Slaughterhouse feat. Eminem, welcome to OUR HOUSE, 2012 258. Hip Hop Bizarre feat. Eminem, Hannicap Circus, 2005 257. Baby The Marshall Mathers LP 2 , 2013 256. Backstabber Infinite, 1996 255. Black Cotton 2Pac feat. Eminem, Kastro, and Young Noble, Loyal to the Game, 2004 254. Puke Encore, 2004 253. Pimp Like Me D12 feat. Dina Rae, Devil's Night, 2001 252. Above the Law Bad Meets Evil, Hell The Sequel, 2011 251. Taking My Ball Relapse Refill, 2009 250. Maxine Infinite, 1996 249. Asylum Slaughterhouse feat. Eminem, welcome to OUR HOUSE , 2012 248. A Kiss Bad Meets Evil, Hell The Sequel, 2011 247. Pimplikeness Proof feat. D12, Searching for Jerry Garcia, 2005 246. The Re-Up feat. 50 Cent Eminem Presents The Re-Up, 2006 245. Peep Show 50 Cent feat. Eminem, Curtis, 2007 244. 40 Oz. D12, D12 World, 2004 243. Love the Way You Lie Part II Rihanna feat. Eminem, Loud, 2010 242. When I'm Gone Curtain Call The Hits, 2005 241. Medicine Ball Relapse, 2009 240. Space Bound Recovery, 2010 239. There They Go Obie Trice feat. Eminem, Big Herk, and Trick Trick, Second Round's On Me, 2006 238. We Ain't The Game feat. Eminem, The Documentary, 2005 237. Buffalo Bill Relapse Refill, 2009 236. Evil Twin The Marshall Mathers LP 2, 2013 235. Where I'm At Lloyd Banks feat. Eminem, H.F.M. 2 The Hunger For More 2 , 2010 234. Almost Famous Recovery, 2010 233. Leave Dat Boy Alone D12, D12 World, 2004 232. We're Back feat. Obie Trice, Stat Quo, Cashis, and Bobby Creekwater Eminem Presents The Re-Up, 2006 231. American Psycho II D12 feat. B-Real, D12 World, 2004 230. Rain Man Encore, 2004 229. Throw It Up Yelawolf feat. Eminem and Gangsta Boo, Radioactive, 2011 228. Searchin' Infinite, 1996 227. Untitled Recovery, 2010 226. Drop the Bomb On 'Em Relapse Refill, 2009 225. Brainless The Marshall Mathers LP 2, 2013 224. Touchdown T.I. feat. Eminem, T.I. vs. T.I.P., 2007 223. Get Back Tony Touch feat. D12, The Piece Maker, 2000 222. 911 Boo-Yaa T.R.I.B.E. feat. Eminem and B-Real, West Koasta Nostra, 2003 221. Take From Me Bad Meets Evil, Hell The Sequel, 2011 220. It's OK Infinite, 1996 219. Guts Over Fear feat. Sia Shady XV, 2014 218. Symphony in H Tony Touch feat. Eminem, The Piece Maker Return of the 50 MC's, 2013 217. Lighters feat. Bruno Mars Bad Meets Evil, Hell The Sequel, 2011 216. 6 in the Morning D12, D12 World, 2004 215. Love the Way You Lie feat. Rihanna Recovery, 2010 214. Psycho 50 Cent feat. Eminem, Before I Self Destruct, 2009 213. Bagpipes From Baghdad Relapse, 2009 212. 313 Infinite, 1996 211. So Much Better The Marshall Mathers LP 2, 2013 210. You're Never Over Recovery, 2010 209. Git Up D12, D12 World, 2004 208. Crazy in Love Encore, 2004 207. Never 2 Far Infinite, 1996 206. Headlights feat. Nate Ruess The Marshall Mathers LP 2, 2013 205. Revelation D12, Devil's Night, 2001 204. Public Enemy 1 Eminem Presents The Re-Up, 2006 203. Pistol Poppin' Cashis feat. Eminem, The County Hound EP, 2007 202. My Band D12, D12 World, 2004 201. Love You More Encore , 2004 200. Hell Breaks Loose feat. Dr. Dre Relapse Refill, 2009 199. Won't Back Down feat. Pink Recovery, 2010 198. Hands on You Obie Trice feat. Eminem, Cheers, 2003 197. Must Be the Ganja Relapse, 2009 196. Session One feat. Slaughterhouse Recovery , 2010 195. Groundhog Day The Marshall Mathers LP 2 , 2013 194. 25 to Life Recovery, 2010 193. Survival The Marshall Mathers LP 2, 2013 192. Music Box Relapse Refill, 2009 191. Cum on Everybody The Slim Shady LP, 1999 190. Drop the World Lil Wayne feat. Eminem, Rebirth, 2009 189. Going Through Changes Recovery, 2010 188. Wicked Ways feat. X Ambassadors The Marshall Mathers LP 2 , 2013 187. Richard Obie Trice feat. Eminem, Bottom's Up, 2012 186. Welcome 2 Detroit Trick Trick feat. Eminem, The People vs., 2005 185. Jimmy Crack Corn feat. 50 Cent Eminem Presents The Re-Up, 2006 184. Ricky Ticky Toc Encore , 2004 183. Shit Hits the Fan Obie Trice feat. Dr. Dre and Eminem, Cheers, 2003 182. These Drugs D12, Devil's Night , 2001 181. Watch Deez Thirstin Howl III feat. Eminem, Skilligan's Island, 2002 180. Not Afraid Recovery, 2010 179. Get You Mad The Slim Shady LP , 2003 178. One Day at a Time Em's Version 2Pac with Eminem feat. Outlawz, 2Pac Resurrection , 2003 177. Tonite Infinite, 1996 176. Ridaz Recovery , 2010 175. Old Time's Sake feat. Dr. Dre Relapse, 2009 174. Don't Push Me 50 Cent feat. Eminem and Lloyd Banks, Get Rich or Die Tryin', 2003 173. No Love feat. Lil Wayne Recovery, 2010 172. We Made You Relapse, 2009 171. Smack That Akon feat. Eminem, Konvicted, 2006 170. What If I Was White Sticky Fingaz feat. Eminem, Blacktrash The Autobiography of Kirk Jones, 2001 169. My Darling Relapse , 2009 168. Doe Rae Me Straight From the Lab, 2003 167. Serious Remix Proof feat. Eminem, Swift McVay, and Promatic, One, Two Single, 2002 166. Trife Thieves Bizarre feat. Eminem and Fuzz Scoota, Attack of the Weirdos EP, 1998 165. Freestyle DJ Kayslay feat. Eminem, The Streetsweeper Vol. 1, 2003 164. Welcome 2 Hell Bad Meets Evil, Hell The Sequel, 2011 163. Airplanes, Pt. II B.o.B. feat. Hayley Williams and Eminem, B.o.B. Presents The Adventures of Bobby Ray, 2010 162. Numb Rihanna feat. Eminem, Unapologetic, 2012 161. How Come D12, D12 World, 2004 160. Rap Game D12 feat. 50 Cent, Music From and Inspired By the Motion Picture 8 Mile, 2002 159. Just Lose It Encore, 2004 158. We As Americans Encore , 2004 157. Shake That feat. Nate Dogg Curtain Call The Hits, 2005 156. We Shine Da Ruckus feat. Eminem, Da Ruckus, Episode 1, 1998 155. Blow My Buzz D12, Devil's Night, 2001 154. On Fire Recovery, 2010 153. Hailie's Song The Eminem Show, 2002 152. Love Game feat. Kendrick Lamar The Marshall Mathers LP 2, 2013 151. Living Proof Bad Meets Evil, Hell The Sequel , 2011 150. Ain't Nuttin' But Music D12 feat. Dr. Dre, Devil's Night, 2001 149. My Mom Relapse, 2009 148. Devil's Night D12, Devil's Night, 2001 147. Go to Sleep Eminem, Obie Trice, and DMX, Cradle 2 the Grave , 2003 146. Cold Wind Blows Recovery, 2010 145. Shit Can Happen D12, Devil's Night, 2001 144. One Shot 2 Shot feat. D12 Encore, 2004 143. That's All She Wrote T.I. feat. Eminem, No Mercy, 2010 142. Mosh Encore, 2004 141. Hello Relapse, 2009 140. Loud Noises feat. Slaughterhouse Bad Meets Evil, Hell The Sequel, 2011 139. Writer's Block Royce da 5'9 feat. Eminem, Success Is Certain, 2011 138. W.T.P. Recovery, 2010 137. My Dad's Gone Crazy The Eminem Show, 2002 136. Careful What You Wish For Relapse , 2009 135. Berzerk The Marshall Mathers LP 2, 2013 134. Wanksta Eminem's Version The Singles, 2003 133. American Psycho D12, Devil's Night, 2001 132. No Apologies Eminem Presents The Re-Up, 2006 131. Low Down, Dirty The Slim Shady EP, 1997 130. So Bad Recovery, 2010 129. Same Song Dance Relapse, 2009 128. Drips feat. Obie Trice The Eminem Show, 2002 127. Desperados DJ Butter feat. Eminem, Bugz, Proof, Tha Almighty Dreadnaughtz, Kill the DJ, 2000 126. Soldier Like Me 2Pac feat. Eminem, Loyal to the Game, 2004 125. Talkin' 2 Myself feat. Kobe Recovery, 2010 124. Pistol Pistol D12, Devil's Night, 2001 123. Lean Back Remix Fat Joe feat. Eminem, Mae, Lil Jon, and Remy Ma, All or Nothing, 2005 122. Shit On You D12, Devil's Night , 2001 121. Spend Some Time feat. Obie Trice, Stat Quo, and 50 Cent Encore, 2004 120. Warrior, Pt. 2 Lloyd Banks feat. Eminem, 50 Cent, and Nate Dogg, The Hunger for More, 2004 119. When the Music Stops feat. D12 The Eminem Show, 2002 118. Slow Your Roll D12, D12 World , 2004 117. Evil Deeds Encore, 2004 116. 3hree6ix5ive Old World Disorder feat. Eminem, Restaurant ... It Ain't Always on the Menu , 2000 115. Mockingbird Encore, 2004 114. I Remember Dedication to Whitey Ford Street Version D12, Shit On You Single, 2001 113. The Monster feat. Rihanna The Marshall Mathers LP 2, 2013 112. Words Are Weapons D12, Devil's Night , 2001 111. Monkey See, Monkey Do Straight From the Lab, 2003 110. Bad Guys Always Die Dr. Dre Eminem, Wild Wild West , 1999 109. 5 Star Generals Shabaam Sahdeeq feat. Eminem, Skam, A.L., and Kwest, Sound Clash Single, 1998 108. I'm Gone DJ Kayslay feat. Eminem and Obie Trice, The Streetsweeper Vol. 2 The Pain From the Game, 2004 107. Bully Straight From the Lab, 2003 106. Get My Gun D12, D12 World, 2004 105. Never Enough feat. 50 Cent and Nate Dogg Encore, 2004 104. I'm On Everything feat. Mike Epps Bad Meets Evil, Hell The Sequel, 2011 103. Outro Obie Trice feat. D12, Cheers, 2003 102. What the Beat DJ Clue? feat. Eminem, Method Man, and Royce da 5'9, The Professional 2, 2001 101. Legacy The Marshall Mathers LP 2, 2013 100. Superman feat. Dina Rae The Eminem Show, 2002 99. Rock City Royce da 5'9 feat. Eminem, Rock City , 2002 98. Calm Down Busta Rhymes feat. Eminem, Calm Down Single, 2014 97. Stir Crazy The Madd Rapper feat. Eminem, Tell 'Em Why U Madd, 2000 96. The Conspiracy Freestyle feat. 50 Cent Straight From the Lab, 2003 95. Bad Guy The Marshall Mathers LP 2, 2013 94. Can-I-Bitch Straight From the Lab, 2003 93. Keep Talkin D12, D12 World, 2004 92. Amityville The Marshall Mathers LP, 2000 91. Hellbound Masta Ace feat. Eminem and J-Black, Game Over, 2000 90. Bump Heads feat. 50 Cent, Tony Yayo, and Lloyd Banks Straight From the Lab, 2003 89. Girls Limp Bizkit Diss D12, Devil's Night, 2001 88. Lady Obie Trice feat. Eminem, Cheers, 2003 87. Forever Drake feat. Kanye West, Lil Wayne, and Eminem, Relapse Refill, 2009 86. Don't Front feat. Buckshot The Marshall Mathers LP 2 , 2013 85. My Fault The Slim Shady LP, 1999 84. No One's Iller feat. Swifty McVay, Bizarre, and Fuzz The Slim Shady EP, 1997 83. Love Me feat. 50 Cent and Obie Trice Music From and Inspired By the Motion Picture 8 Mile, 2002 82. Underground Relapse, 2009 81. So Far The Marshall Mathers LP 2, 2013 80. Fight Music D12, Devil's Night, 2001 79. Stay Wide Awake Relapse, 2009 78. Cinderella Man Recovery, 2010 77. Nuttin' To Do Bad Meets Evil, Nuttin' To Do Single, 1999 76. Elevator Relapse Refill, 2009 75. We All Die One Day Obie Trice feat. Eminem, 50 Cent, Lloyd Banks, and Tony Yayo, Cheers, 2003 74. The Anthem Sway King Tech feat. RZA, Tech N9ne, Eminem, Xzibit, Pharoahe Monch, Kool G Rap, Jayo Felony, Chino XL, and KRS-One, This or That, 1999 73. Yellow Brick Road Encore, 2004 72. My Name Xzibit feat. Eminem and Nate Dogg, Man vs. Machine, 2002 71. Say Goodbye Hollywood The Eminem Show, 2002 70. Seduction Recovery, 2010 69. Welcome to D-Block Jadakiss feat. The LOX and Eminem, Kiss of Death, 2004 68. 3 a.m. Relapse, 2009 67. Off the Wall Eminem and Redman, Nutty Professor II The Klumps , 2000 66. Roman's Revenge Nicki Minaj feat. Eminem, Pink Friday, 2010 65. Square Dance The Eminem Show, 2002 64. You Don't Know feat. 50 Cent, Lloyd Banks, and Cashis Eminem Presents The Re-Up, 2006 63. Gatman Robbin' 50 Cent feat. Eminem, The Massacre, 2005 62. Beautiful Relapse, 2009 61. Rush Ya Clique Outsidaz feat. Eminem, Night Life, 2000 60. Rabbit Run Music From and Inspired By the Motion Picture 8 Mile, 2002 59. Without Me The Eminem Show, 2002 58. The Last Hit The High Mighty feat. Eminem, Home Field Advantage, 1999 57. Busa Rhyme Missy Elliott feat. Eminem, Da Real World, 1999 56. Murder, Murder The Slim Shady EP, 1997 55. Infinite Infinite, 1996 54. I'm Shady The Slim Shady LP, 1999 53. Rhyme or Reason The Marshall Mathers LP 2, 2013 52. Under the Influence feat. D12 The Marshall Mathers LP, 2000 51. Scary Movies Bad Meets Evil, Nuttin' To Do Single, 1999 50. Still Don't Give a Fuck The Slim Shady LP, 1999 49. Bad Influence End of Days , 1999 48. Crack a Bottle Relapse, 2009 47. If I Get Locked Up Funkmaster Flex and Big Kap feat. Dr. Dre and Eminem, The Tunnel, 1999 46. 8 Mile Music From and Inspired By the Motion Picture 8 Mile, 2002 45. Don't Approach Me Xzibit feat. Eminem, Restless, 2000 44. Fast Lane Bad Meets Evil, Hell The Sequel, 2011 43. EncoreCurtains Down feat. Dr. Dre and 50 Cent Encore, 2004 42. As the World Turns The Slim Shady LP, 1999 41. Purple Pills D12, Devil's Night, 2001 40. Drug Ballad feat. Dina Rae The Marshall Mathers LP, 2000 39. Soldier The Eminem Show, 2002 38. Say What You Say feat. Dr. Dre The Eminem Show, 2002 37. Bitch Please II feat. Dr. Dre, Snoop Dogg, Xzibit, and Nate Dogg The Marshall Mathers LP, 2000 36. Déjà Vu Relapse, 2009 35. Business The Eminem Show, 2002 34. The Kids The Marshall Mathers LP , 2000 33. Sing for the Moment The Eminem Show, 2002 32. Dead Wrong The Notorious B.I.G. feat. Eminem, Born Again, 1999 31. Stimulate Music From and Inspired By the Motion Picture 8 Mile , 2002 30. Marshall Mathers The Marshall Mathers LP, 2000 29. Bad Meets Evil feat. Royce da 5'9 The Slim Shady LP, 1999 28. Remember Me? feat. RBX and Sticky Fingaz The Marshall Mathers LP, 2000 27. Role Model The Slim Shady LP, 1999 26. Like Toy Soldiers Encore, 2004 25. Guilty Conscience The Slim Shady LP, 1999 24. White America The Eminem Show, 2002 23. Patiently Waiting 50 Cent feat. Eminem, Get Rich or Die Tryin', 2003 22. Brain Damage The Slim Shady LP, 1999 21. Who Knew The Marshall Mathers LP, 2000 20. What's the Difference Dr. Dre feat. Eminem and Xzibit, 2001, 1999 19. Any Man Rawkus Presents Soundbombing II, 1999 18. Criminal The Marshall Mathers LP, 2000 17. The Way I Am The Marshall Mathers LP, 2000 16. Rap God The Marshall Mathers LP 2, 2013 15. The Real Slim Shady The Marshall Mathers LP, 2000 14. I'm Back The Marshall Mathers LP, 2000 13. Rock Bottom The Slim Shady LP, 1999 12. Just Don't Give a Fuck The Slim Shady LP, 1999 11. Lose Yourself Music From and Inspired By the Motion Picture 8 Mile, 2002 10. Kim The Marshall Mathers LP, 2000 9. Renegade Jay Z feat. Eminem, The Blueprint, 2001 8. Cleanin' Out My Closet The Eminem Show, 2002 7. If I Had The Slim Shady LP, 1999 6. Stan The Marshall Mathers LP, 2000 5. My Name Is The Slim Shady LP, 1999 4. 'Till I Collapse The Eminem Show, 2002 3. '97 Bonnie Clyde The Slim Shady LP, 1999 2. Kill You The Marshall Mathers LP, 2000 1. Forgot About Dre Dr. Dre feat. Eminem, 2001, 199930</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Dr. Bériz</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Saison</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>À lautomne, lautomne Rien que mes larmes tombent rien quelles tombent Rien ne me satisfait tout cqui mplaît, je lperds de vue Rien ne me satisfait tout cqui mplaît, je lperds de vue Lautomne, lautomne, lautomne Rien que mes larmes tombent rien quelles tombent Le soleil se lève et je le vois quil ravive mes forces, parmi mes semblables Heurté par la pluie, je rêve la nuit, me croyant si spécial Et les jours passent, puis les années méclaircissent Les visages autour de moi vieillissent Balayé par le vent, je me rends compte que je tombe Éprouvé par le temps, embêtant Cest là que je me rends compte que je meurs Je meurs, je meurs À lautomne, lautomne Rien que mes larmes tombent rien quelles tombent Rien ne me satisfait tout cqui mplaît, je lperds de vue Rien ne me satisfait tout cqui mplaît, je lperds de vue Lautomne, lautomne, lautomne Rien que mes larmes tombent rien quelles tombent Le soleil se couche et sen va cest fini, je tombe parmi mes semblables Martelé par la pluie, obscurci par la nuit je nai plus rien dspécial Plus les jours passent et les années me détruisent Et les visages ne sont plus que souvenirs Piétiné par les gens, je réalise que jmenfonce Étouffé évidemment, embêtant Cest là que je me rends compte que je fais mon temps Maintenant je fous lcamp À lautomne, lautomne Rien que mes larmes tombent rien quelles tombent Rien ne me satisfait tout cqui mplaît, je lperds de vue Rien ne me satisfait tout cqui mplaît, je lperds de vue Lautomne, lautomne, lautomne Rien que mes larmes tombent rien quelles tombent Jai fait mon temps, maintenant je fous lcamp J'assiste à une nouvelle naissance, je ne men fais plus trop pour moi XXX, rendez-vous à la prochaine saison</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Dr. Bériz</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Shoot Niggaz</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>I SHOOK HIS PRIDE! Like, Twork comin'. Nigga look alive. He died with his eyes wide open, the nigga look alive We finally got this locked bitches Took a hot minute Hot pistols You keep showin' up to battles wearin' all these fuckin' costumes, nigga you got issues Y'all won't be seein' no more Michael Jackson jackets So y'all just 'Remember The Time' you had 'Rock With You' Glock pistol, cock and spray But first I wanna give Roc his praise First nigga with this high level energy First nigga with gun lines back to back, there's a lot of things we got from Tay Glock'll spray I'ma put the Pioneer in the trunk, y'all gon' hear from a block away Stop it Tay, you just a bitch with guns Disrespectin' the hustle, and you disrespected Hustle Can't go back to New York for that shit that you done The apes gon' chase you right up out the Cave like Temple Run This who you deal with Smack? A nigga beefin' wit' a bitch from Gorilla Stone Ain't do shit to the niggas that took his chain, how real is that? You so worried about the Gorillas, you need to go get yo' silver back Silverback Steel will clap! You dyin' on the set, niggas took your jewels off in ya home town What was all this slidin' with the TEC? Couldn't be me, cause nigga I'ma die for my respect Let's take it back, Double Impact NWX, it was one, suck my dick and shit got violent for the vet So that's the second time niggas had to take Shine from 'round ya neck I get to wildin' with this TEC Burn him and blaze him Surf like, On Neighborhood Crip. You touch him and I'm knockin' you out. Nigga this .30 will bang him And at his funeral, ain't nothin' but sermons and prayers He can't call Surf to come save him This a pastor preachin' and this time you can't turn to ya neighbor This .30 gon' bang him Surf get to talkin' this Rolling 60 shit, I'ma buck my pound Give a 60 nine 69, I'ma hold this sucka upside down Live rounds goin' over his head I live 28 minutes from Edgewood, you know what it is Don't push me, I'm this close to the edge You was bold on the web, do all that talkin' in my face I'ma slide down errrrr, to that apartment with an .8 I see ya bitch, fo-fo I'm spark it in her face I told her to beware of the dog, and then I put Caution on the gate I'ma slide off, spin back, now there's Caution on the tape I'm so terrific I went in the kitchen, seen Chef, now it's broken dishes Living room, bucks left on the couch, can't even go and spend it Outside, Henny packed up, like the prohibition Pole I'm liftin' Rock landed in the neighbor yard, who gon' go and get it? I lift the pole on bitches Cannon clip you And lately I've been dealin' with bad bitches that I can't commit to So I can't just go out with a .9, I got standard issues Speakin' of standards Aye Lady Caution, let's stop this cappin' I heard you went from John John, Tsu Surf to- oh you got a top ten rappers? Heard she went from Gates Of The Garden to URL, wonder how she got them battles Don't you know back in the day whores got stoned to death? Ain't no wonder why Rock went at you You'se a little body bitch Popsicle body bitch Sick, need to be in the hospital body bitch McGriddle body bitch You'se a brittle body bitch The instrument they use to play the fiddle body bitch I'ma keep it goin' You'se a Henny bottle bitch Not even a full size, you'se a mini bottle bitch You got Minnie's body bitch You ain't anybody bitch Before yo' ass got with Roc you was anybody bitch That sound familiar What happened to ya baby moms? Y'all remember ya baby moms? She was bad as shit That unfulfillin' Now she's fuckin' with an NFL nigga, I know it fuckin' kills him Hoe football playin' 'round yo' fuckin' children like Russel Wilson I know it's tough to deal with Nigga ran off with ya hoe whole kid like Rumpelstiltskin I up the pistol Raise it on him, blaze it on him If I knock Dracula costume off he stays in coffin, even the red eyes take off, like a late departure No more keeping in contact, it's a restraining order I'm finna bang it on him I just ignore ya crew So many niggas done left the Cave, I can't even go to war witchu Ever since Brizz Rawsteen left, you need more recruits Aye Brizz, if it wasn't for Roc, you wouldn't even be here, he literally opened up doors for you I'm Strapped In! I'll clap you in a coma Madness I could snap at any moment According to the culture, y'all had it surely known But I was there, right by the stage, y'all got the story wrong Top threw a bottle, Brizz threw a bottle No Tax threw a bottle, they goin' on and on Brizz ran straight to the back, he got his Maury on Roc standin' there actin' like he don't know what's goin' on Top drop, Chess chest popped out like Omarion Sorry y'all! Rest in peace, Zaid, but Brizz homie the only one that was doin' Twork moves I would've went to jail, ended up in an orange shirt too Hurt who? Jersey You let me down in that tournament nigga What's up with that? 100K on the line, Drake added 50, damn near doubled that And you fumbled that? Boy if you come with three rounds tonight you lettin' me know I'm more important than them 100 racks You better come to rap nigga Not just for Drake or for uncle Smack If you choke, I'ma delete ya number outta my fuckin' jack I'ma up the strap, drum attached Somethin' clap Who's that offensive player for the Jets? Um, new jersey Nu Jerzey running back I gotta check him, without a question I feel like Will Smith, I gotta put my dawg dog down to show y'all I Am Legend Sinners gotta Heaven Splish Splash, a Hollow wet him Fire a weapon, let it fly through the buildin' 911 Nigga said he would kill Tay Roc, that's how they all sound Tonight is not the night for you to be droppin' the ball now Against me is ya last chance nigga, don't let us all down You the reason niggas like me gotta battle Swamp now Shotgun, sawed down This ain't a game, my passenger Burke put bucks Bucs on Twork Make it rain, we ain't the same I raise and aim, bang the thang Leave you sleep with ya eyes open in major pain Major Payne This nigga thought he could out bar me? How sorry I find out where you live, pull up, pull out calmly This shit'll take ya arm, leg and scalp partially Leave Twork twerk all over the crib, it's a House Party I can make every single bar gold, my touch is Midas like My hands hurt, cause whatever this author write is arthritis tight This guy get hype and he tryin' to fight The clip is a half moon and it's lit for you, the entire night I'm the violent type and more outspoken .40 cal' totin' You will get shot in ya head, ya scalp smokin' Like MGM films before the movie come on he'll hear a loud roar Then by lyin' lion with his mouth open Makin' movies is all that I care about Two choppers, two tri-pods this picture a pair'll mount Paramount I'll air him out, the steel lift and peel shit I'll have an arsenal Arsonal and Shotgun Surf-ing through Jersey Jerzey It'll get Real sick Sikh, real shit End ya life when this fifth bang Inf' beam Red Light, Green Light, Squid Game, the clip hang I ain't in a Crip gang But I'll send niggas to his neighborhood that's Nutty and Insane And they don't have patience They gon' dump every last case in Have the murder scene all sheets and Sheiks in Shells gas stations Pistol whip him, the end of the Mag' breakin' The vision of Twork twerk blurred out, like we censoring ass shakin' Strap blazin' Cook this cat like I'm half Asian We gon' wreck if you don't stay in ya lane like drag racin' A burner is gettin' lifted Murder a nigga wit' it Boy I'll turn you to one of them little circular picture pendants Boy, you fire, when you don't choke, and deliver all rage When you choke you let down the nigga that get us all paid You battled Loso, I was front row Yeah Givin' him all praise I had to give courage to Twork twerk like pills do for strippers on stage Clips is gon' blaze, you'll turn up dead I'll burn the lead You my brother I can't watch you die So I turn my head Raisin' cans gun cocks Gauges blam His body flip in the air And then Twork twerk on the ground, it's a Jamaican dance Aye, I'm at ya location, FN in the shorts Amazon Prime, I knocked then left him on the porch Stretched him with the torch Every round out the gun A ton'll tunnel go through New Jersey Nu Jerzey, I can connect him to New York I'll pull up in a Porsche Skkkkkrt Hop out of an old Carrera Bullets hit the couch, TV, I'm even smokin' smoke and mirrors If ya bitch live, it's cause I chose to spare her I have that whole place that Twork in twerking dead like strip clubs in the COVID era I'm talkin' 'bout hurt this man family, drown Twork Jersey Jerzey underwater Hurricane Sandy I'ma end up murkin' this bastard, have it lit at ya wake Ya funeral ratchet, Twork in a casket Don't fuck up my classic This shit here can even ya stock I hate the fact that you the one I gotta treat as an op' Believe it or not these heaters will pop I don't know this Gun Title, but even with a vest ya chest Chess won't be easy to Eazy The Block, nigga Light bars Gang shit When will all this treason stop? You don't do nothin' but gun bar after gun bar No substance, angles, schemes or plots If this what y'all callin' the face, I don't even wanna compete for slots Raisin' Kanan, why beef over territory, I don't see nothin' you unique in Rock He needs to stop it This biggest mouth with the weakest body Little dog, hidin' behind all that bark like Geechi Gotti It's transparent, speakin' of trans... Y'all gave me the dude with the allegations? Who the fuck is this man scaring? Truthfully I thought this nigga been gay Bengay, I put that on my grandparents You get clowned on stage, but that shit you do in the comfort of ya own home, just keep it from around this way I ain't come up here to talk about Roc heshe Rikishi, that's somethin' he gotta sit down and face I'ma surround his place Y'all think he poppin' but he not If he lose tonight, nothing from his stock is gonna drop If I lose tonight, ain't none of my problems gonna stop It's back to slidin' on the ops Cleanin' the McDonalds with a mop I'll be somewhere delivering Krusty Krab Pizza, I got a lot ridin' on this Rock I'ma slide down his block, take a right, cut the blinkers off Pull up to they hang out spot, I'ma creep in dark He outside with the whole Cave Gang, oh he think he smart I already saw Rock group, that's why the Lincoln Linkin Park That's old wisdom He don't know he gettin' a humble abode visit Soon as he pull up to the crib, I'm outside his home, sit I'ma stop Rock right before he go in, that's goal tendin' Like, Hoe nigga. This pistol mean violence. Soon as he look for his strap I knock the vision clean out him Caution in the back of him yellin' Aye Dracula tell her, if this bitch just keep wildin' I'ma put a Mac up to the bat, that's Mr. 3000 I'm wildin' I slide daily, insane asylum tryin' to see if my mind's stable Cause they found him face down in the hole, look like a massage table You not gangsta, you not concealin' What ops you killin'? They use Rock to hold the door open like a project buildin' You all kinds of filthy Fair warning, this nigga took a pic', legs cocked wide open Stickin' out his tongue, I said, What is this man doin'? I don't even wanna talk about that shit, I was scared for him Let's just jump from that line with his tongue out like Air Jordan Can' on him I'm Strapped In!! I'll clap you in a coma Madness I could snap at any moment I can't fall for these traps That nigga Murda Mook told you to suck his dick You said it was lit, I thought he mean that You see Mook ain't do a motherfuckin' thing That nigga Mook would've told me to suck his d- ooow, I couldn't seein' that It would've went from suck my dick to him doin' a Party Arty rematch I don't honor these cats I don't just talk, I really walk the shit I'm about The Cave known for pretendin', that's why y'all had to kick Vada out I keep hearin' Biggums fat ass screamin', Get that nigga Roc! The homies pullin' 'bout six Llamas out If we can't get Roc address a dress we goin' straight to Big Momma's House Llama's out, your baby girl won't last after these I'll put ya kid on the front page, give her Mad magazines I'ma clap at ya teen, I keep a biscuit Two Glocks, these ain't twins, but these is civil One bitch with no body swingin' for the Title like Venus Williams But the other bitch got Guns and Cake like Serena Williams I'ma squeeze relentless, grip the pound gun clicks Did him foul Baow, baow Hole so big you can see into Tay, I'm finna sit him down WHHHAT?! I bang nigga Piru Blood gang member Thang lift up I really bang though I'm a bastard and khaki Dickies was gang code My mom a pastor, I went to Catholic school in the same clothes I use to rob the white kids for they shoes, like, Change those. Ran them random bitches right outta they Vans like Bang Bros Thang blow... Jersey I told my girl, I'm 'bout to hit the club and find this bitch I wanna see Usually she would trip, but this specific time she didn't fuss with me She trusted me Cause I got her gun wit' me And she know I'ma be starin' at her texts TECs while this bitch Twork twerk in front of me Don't fuck wit' me gun cocks This a bull pup wit' me and this baby stay wit' me, I got full custody You battled Geechi and let him take ya place, disgustingly Now he's the face and you are the L URL of the company It's up wit' me Fuckers are Strapped In! It's straps 'round Like a mental patient in padded rooms, we strapped down We strapped now My straps? Bizarre, it don't stick out But still up to bust like a strapless bra If we scrap or brawl I'ma beat homie ass It's gon' be fast Pistol whip, strap to the face, Mick Foley mask Bro get stabbed, 'til it's stuck or broke in half And you can see it showin' through Jersey Jerzey like shoulder pads If I'd have read your tweets and you don't said, it's beef You would've been like that one Jersey nigga vs. Danny, spittin' out hella teeth Shit ain't never sweet Blade on me, turn you to shredded meat He ain't see the pick in the pocket, I'm a petty thief Rest in peace Buck shots go in the shotty I let this gauge pierce a big hole in ya body Or drive-by holdin' the Tommy Bllllllt Get ya block shot wit' the stick like I'm a goalie for hockey Everybody got guns, you must not comprehend barely You'se a fat nigga with a strap cause you been scary I'm a skinny nigga without a strap, I would've been buried Ace Amin is proof that niggas that even go to the gym, carry You know Jim Carey, that movie where, he had on that yellow tux I can have my dawg dog put a Mask on fuck shit up You'll get left with a head gash, dead ass He went missin', cops knew something was wrong when all they seen was a red flag Actual slaughter I will drive-by, clap up ya corner This cat is a goner I'll have ya blood splatterin' on ya If I use this Judge, I'ma have to ask for a lawyer I blew blue caps to the core like natural water, I have to destroy ya Sic the savages on ya Hit his organ, eyes organize will be fucked up like he ain't have it in order I'm at his door, packages for ya I caught Twork twerk in the room, I'm like a disappointed dad in the room with his daughter We at his funeral, in the back, standin' in a straight line His moms readin' that obituary and she can't stay calm She like, My baby Twork, AKA Raivon Got killed. Wearin' his hood like Trayvon. I will bang mine Come from this waistline, put you all away Y'all ain't know his name was Raivon? We gon' call him Ray You'll get the bat with the spikes in ya skull today Martin and Eddie in Life somethin' get clawed in Claude and Ray Bombs away You'll get shot with my thumper Sting Ray through the chest, Crocodile Hunter Roc's a wild fucker, dude's stay trippin' I'll have you eyein' a barrel, in high definition, it blew Blu Ray vision You joined K-Shine, then left him the next day? I seen through that shit when you joined NWX-Ray This ya death day, I'll do him mad cruddy Now answer this question If you so Strapped In, then how you crash, dummy? That's mad funny, you gon' get what you ask from me What you on? E? I'll put this. 40 on Five gas money Your whip crash, and you almost burned alive Guess what movie you would've had a perfect role in? New Jersey Drive I heard he died, then revived It was gettin' scary, they had to bring dawg dog back from the dead Pet Cemetery That car wreck, gave him another cut And another cut Cause his seatbelt wouldn't work when he was tryin' to buckle up You fuckin' nut, it's lit for you From here it ain't gettin' better Wait, fuck the cops that shot up ya whip, cause we stick together But the cops shot up ya whip and you ain't do shit? I thought you was wit' whatever You almost got taken out by a 12, like Cinderella On God shit nigga! We all at the table on some mob shit Suit up on him job shit Kim brother Rob shit My nigga don't talk, he smoke Silent Bob shit I Will, Smith the leader Suicide Squad shit No vegan, no tomato, I don't squash shit Outta nowhere you get popped up, surprise shit Taught to just stick through the beef kabob shit Put in work, before I had a car, it was my mom's shit Bomb shit, nowhere to hide shit I find shit and go through the door and flip the screen it's a Sidekick The .9 spit, this hammer ain't my shit Really the text TEC's is in a different name like a side chick The chopstick under the armpit clear a mosh pit No TV, this Drake ain't the one to Josh wit' His soul wonder Wanda up to the cosmos Fairly Odd shit Playgrounds or not, we swing through and slide shit When mine hit, everything inside rip, cause conflict Tie you up, no bondage, this guy a hostage Violent, pillow, over ya face, for silence Feathers fly everywhere like I shot an ostrich Ya side hit, I paralyze shit, make ya spine shift, ya mind split Ya egg crack, we tryin' omelets, I'm outta pocket I will leave this guy unconscious Hooked to machines and doctors doin' diagnostics No pipe wit' him, then it's the blade, the strike in him I might kill him He tryin' to wrestle, but losin' the fight in him His life endin' Paralyze him soon as the knife in him Leave Twork twerk without a bottom half like white women I'm triflin' At your funeral? Smokin' on the gas They bury you, then I burn the roses on the grass Don't want my fingerprints on it Cuz said, Hold it with the flag. I'll walk through Jerusalem like I'm Moses with the staff You dead nigga! Let's set this straight Yes I called you the GOAT cause when you move you don't hesitate I've been here for the Dodge emblems The Craftsmen jeans, how you got to Mook and then levitate I don't know a lot about antonyms and synonyms but I know how to shoot when the weapon straight And I know a lot about homonyms so I can't let you resume with this resume You finna die Indeed Aye Smack, if this ya brother, advise him please Pine boxes don't come from the finest trees And since he rich, you get high quality Redish brown wood mahogany Hand crafted in South America, you don't wanna see a guy in these Guyanese Fire please! If I burn his house down, who gon' be your face when ya man die Troy? Pour gasoline 'Lean Wit' It, Rock Wit' It' there goes your Franchise Boy! Twork jumps in the crowd Hand my toy I'm finna clip this nigga up You said, DNanny for DNA in New York That shit was iffy bruh, listen up I'll show you how to split the states and cities up Cause that ain't go over or land though Orlando like you went to Disney bruh I don't wanna see you now or again Oregon, I suggest the niggas wit' you Duck You go to police, it goes South da code of Dakota the streets take ya lips and zip 'em up I went to his home in Baltimore, the nigga think he big and tough When he see his daughter on the floor it'll Florida switch his feelings up On my waist is where the cans is Kansas and if I lift these pistols up I shoot his baby boy crib, I won't even miss his sippy Mississippi cup I'm 'bout to clip this nigga up Put ya boy up in a ditch Bang bang, that's the sound of ya shorty gettin' hit Bang bang, that's the sound of the war we in the mix He can't buckle up, his seatbelt won't work Bang bang, that's the sound of the .40 on my hip And this a new car, so if you don't buckle up you gon' keep hearin' that noise until it click I get noisy with this bitch 100 round out the TEC I'm firin' I'm 'bout to send you up to Heaven flyin' You 'bout to find out how beautiful God is like Aphrodite Hey Smack, if this ya gunner, you should've gave him better guidance He should've never tried this If he don't die, he gon' leave here in liver failure like hepatitis If I have to find him, I'ma grab the coaster I'm outside with the ratchet blowin' Boom boom, I shoot the door until the latch is broken Boom HEY ROC! He in the bed restin', I flip the mattress over Now he can sleep upside down just like a bat suppose to I'ma clap the toaster I'm holdin' the fifth I see Caution, I say, Bitch you better not open ya lips. I'm pretty cautious, gloves on so they don't notice the prints Red Lobster, I even put the tape over the grip Like, Where the coke and the piff? If I clip you up, that wasn't Roc, I really had rocks, I'm talkin' zips and up Methamphetamines, oxycodone, prescription drugs Back in my heyday, I would've had Caution samplin', pass yo' bitch the blunt Whole dip of stuff Like, This the stuff Let her test the boat out, make your missus Puff I got yo' bitch on cuff She talk crazy, but she follow the plans though Police pull us over, Big Bad Wolf, she gon' swallow the grams whole Can' blow, get ya pals dumped on Oh that's a vest? Teflon? That's just gon' get me riled up more Cause dome shots the only thing my pound bust for Better hope that's what your foreheads four heads made outta Rock like Mount Rushmore Dump on 'em, you might get killed Say somethin' I don't like for real You gon' die for real We goin' outside for a single file foul line like a fire drill I'm Strapped In!! I'll clap you in a coma Madness I could snap at any moment Your life is over, you might not quite deserve it But a kind soul won't do you no good, once I light ya- this might get personal Everybody duck cause this rifle burstin' It might split Drake head wide open just like the Sprite commercial When they ask who's the king, I'm the rightful person It's time to steal the torch I was outside with the fans, I'm the one they feel for sure I went to the small league events, I gave 'em real support I got PG's in the buildin', you try to seal the door I even stopped them Crucible niggas from havin' to deal with Norbes I took off the hood, I jumped over Suge I'm the most creative I went on strike when you said you wasn't earnin' paper When Smack had yo' pockets tapped, who returned the favor? I 'Started From The Bottom', no entourage, I was comin' six deep Still the most imitated, I'm the reason K-Shine went on a 20 win streak I'm the streets Pray to me, I'm the synagogue When it come to battle rap, I'm exactly what it epitomize Nigga I'm Smack gunner, it's time to wear that shit with pride Let's turn Real Nigga Time into the Bigga .9 Baow Baow Baow! Nigga died, I shot him in a jiffy Hit his noggin with a .50 French blunderbuss, take an oval off his head like Monica Lewinsky you gon' move out the burbs I'm 'bout to take this one to the grave, you got my word Drive-by, chopper out the GMC I'll shoot out the burg K clip, press down on a half moon Do not disturb! That was mean Twork And now I got a body on a half moon like DreamWorks You be talkin' often Nigga you soft as cotton Wait 'til ya gang get around and be talkin' often I'ma wait 'til them niggas leave and spark it on you Squid Games By the time they come back Rock's in the bag, he done lost his marbles Jersey! I ain't gon' lie, this nigga's my friend How about I get my kids you get ya kids we hit the beach and we can get 'em to swim? Nah, I'ma drive us all to a cliff and let the sinnin' begin I'ma let our Child's Play but I'ma push my friend to the end I really am him You, were not the first to be copied, I've been cloned I faced all the writers that been known Y'all Champion Of The Year, yeah, y'all see how I did Jones This nigga from the Cave knocked over more pens pins than Fred Flintstone I have to be the master Eazy, he the Captain of the trappers As far as Chess? He actually will clap ya Surf? I get to passin' him a ladder And have Tsunami hit Jerusalem, that's a natural disaster I'm uncontrollable And I don't do what I'm told to do Unload on you Then trash cans disposable Rifle, from the Civil War, put a hole in you Like Back II The Future, I will bring something old to Nu new Cannon wit' me, blam the semi, 'til this can' is empty With ya life, you're gamblin' Jerzey gamble in Jersey Atlantic City This man get busy Mini chopper mounted That mean the Drac' posted on the wall like a fan of Drizzy Stop playin' wit' me I don't follow by the rules, I gotta lot of goons Them niggas ain't got a lot to lose I got a lot of tools This a chopper not an Uz' This'll knock Nu New Balance off, see him flyin' out his shoes Ratchet dirty Soon as he turn around, clap the .30 NBA protest, that's a piece peace to the back of Jerzey jersey I'm a hunter, preserve the kill if the catch is worthy Hang his head up on the wall taxidermy Who believe in him? If the ambulance comin', bitch you needin' 'em They know not to gas me up, I use premium Chop off a limb, mail it to ya mom I get unique wit' 'em Foot Locker, I send her home a box with Nu new feet in 'em The can' erupt, blam shit up It's like bowlin' after we done rollin', there won't be much left standin' up I don't care if this TEC jam or what Stab his side, get to ribin' ribbon on Jerzey jersey it's Breast Cancer Month Poof Magically, appears a Nina They hear this steamer It'll go from this shit bein' packed to a clear arena Jakk better not try to be no hero either I'ma bomb through him then drop Nu clear nuclear Hiroshima Kill his leader, hollow tips what this clip contain Turn him to a memory inside of a picture frame Up close or long distance aim Don't matter, arms on Jerzey jersey, NBA Christmas game I lift and bang Your vocal cords will get shot Your voice? Over, like them videos on Tik Tok I don't believe that ya clique pop Bitch stop All that tough talk, I ain't buyin' that Nu new thrift shop Make ya strip hot This shit drop whoever not in the family Shreddin' niggas Edward Scissors, the chop is handy We get the drop then we slide in the Camry Huge shotty, I will get Nu new body Dr. Miami To these fans, you the wild Blood, the big bully But to me, you just lil' bruh, a kid to me You heard right, I poke this knife in his left, turn right Drive it straight up the middle of Jerzey Jersey turnpike You'se a termite I earned my position, you will get murked if I'm trippin' I will let every round burst from my Smith You fuck around and be a hurt opposition Left there, shakin', with a wet t-shirt Who said Twork twerk competition? You ain't ask the culture I'm mad that I had to smoke ya Everybody, Jerzey jersey in a bag practice over I tried to tell him that this ain't what he want from me Battle rap is not a job to me this shit is fun to me Fuck a scheme, angle, punch, it's 'bout a gun to me The gun is the only thing that get the job done for me</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Dr. Bériz</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Sombre Crétin</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Sombre, sombre crétin Sombre, sombre crétin Sombre, sombre, sombre crétin Sombre, sombre crétin Sombre, crétin Sombre, sombre, sombre crétin Sombre crétin, sombre Il croit quil est frais Mais en vrai nous on sait cque tes Tas jamais pu blairer mes frères À part le son, tu sais cquon fait Si percer est une histoire de couilles Ma semence vaut plus que toi est-ce que tas personne enfoiré Les balances ont baisé ma team Mais jamais on plaide coupable Quand ça monte sur scène tobserve Et tous nos faits et geste tobsèdent Jte lai déjà dit, laisse tomber On connaît déjà la fin du suspense Jlai déjà vu se ffiche-a quelqupart Et puis tes comme un suceur de bite dans tout mon secteur Négro mon flow dix sur dix SEGPA On dire pas fuck jsuis sur Webstar Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Sombre, sombre crétin Sombre, sombre crétin Sombre, sombre, sombre crétin Sombre, sombre crétin Sombre, crétin Sombre, sombre, sombre crétin Sombre crétin, sombre Pour les vrais de vrais, tu vaux moins Que la dernière merde qui va mi-dor Pour les vrais de vrais, je vaux plus Que la dernière paire qui va ti-sor Jojo J'compare les peut tués donc jrespecte Tous ceux qui sévadent avec des ressorts Tu passes de lAfrique à la France Le Visa du bled sur leurs passeports bon voyage monsieur Pour nous suivre il faudra faire cque tu peux On sen remets pas, les bastos pleuvent Eh, tu nous observes plus que les keufs En vrai tu voudrais être mon reuf ha ha Il mfaut ma Rolex et ma Benz Jsuis un furet si tisé un 3 600 euros swaggé Joue avec léquipe on va te charger la face Et tu suceras avec un dentier Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Tu nferas jamais lllion-mi, reste gnon-mi Tu nferas jamais lllion-mi Le son te fout lseum, tes tout seul dans llit Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Est-cque tu sais cque cest ? Sombre, sombre crétin Sombre, sombre crétin Sombre, sombre, sombre crétin Sombre, sombre crétin Sombre, crétin Sombre, sombre, sombre crétin Sombre crétin, sombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Dr. Bériz</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Touche Pas À Mon Verre</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Viens par ici, combien tu mises ? Ce soir à ma table Tout est dit, jnai quune envie, vivre damour et de champagne Tu me vois en extase, mais ny pense même pas Cest pas pour moi, tous tes détails, je vis damour et de champagne Je nsuis quun invité Champagne à volonté Pour pouvoir planer plus haut Plus haut, plus haut Ne touche pas, ny pense pas Ne touche pas à mon verre Ne touche pas, ny pense pas Ne touche pas à mon verre Hey, mais qui t'a dit qupar ici tavais tout pour nous plaire ? Excuse-oim belle gosse mais ne touche pas à mon verre Cest la dream team ttest stu veux mais quest-ctes prête à perdre ? On peut te refaire de la tête au pied comme Shawn Carter Dinguelop, dinguelop, dinguelop, Dom Pé ou Moët Dinguelop, dinguelop, dinguelop, comme toi jsuis posé Dinguelop, dinguelop, dinguelop, ne touche pas à mon verre Dinguelop, dinguelop, dinguelop, ne touche pas Je nsuis quun invité Champagne à volonté Pour pouvoir planer plus haut Plus haut, plus haut Ne touche pas, ny pense pas Ne touche pas à mon verre Ne touche pas, ny pense pas Ne touche pas à mon verre Attention, plus de jus Monte le son, jen veux un peu plus Amène les bouteilles à ma ble-ta On fera péter lson à la Guetta Si tu veux kiffer, cest par là Ya toute ma clique qui se pavane On peut sambiancer mais ne touche pas Non ne touche pas à mon verre Dinguelop, dinguelop, dinguelop, Dom Pé ou Moët Dinguelop, dinguelop, dinguelop, comme toi jsuis posé Dinguelop, dinguelop, dinguelop, ne touche pas à mon verre Dinguelop, dinguelop, dinguelop, ne touche pas Ne touche pas, ny pense pas, ne touche pas à mon verre Ne touche pas, ny pense pas, ne touche pas à mon verre Ne touche pas, ny pense pas, ne touche pas à mon verre Ne touche pas, ny pense pas, ne touche pas à mon verre Ne touche pas à ma zik Beriz, Charly, Tefa Ne touche pas à mon verre</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Dr. Bériz</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Tous Les Jours Dehors</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Tu traînes la rue depuis dtemps Est-cque tu entends ? Un jour elle va tlaisser en plan Tu mises sur des amis La famille soi-disant Mais chaque soir cest tes parents Qui prient pour qutu sois vivant Avant, tavais lair sage Comme une image, un dessin Maintenant cest lair sale Tas mis dehors ton destin Combien dtes proches sont déçus En regardant ton déclin ? Voyant comment tu déglingues On parle de toi comme un défunt Avant, quon te perçoive comme une défaite Ici la rue te perçoit, taides celui quon déteste Donc sois précis dans tes choix Personne ne doit pleurer lsoir Tâche découter cette voix Qui tdit pense à rentrer chez toi Jtraîne souvent là où personne Ne dépose ses orteils On est frères on na pas la même mère Ni le même père Pas les mêmes peines, on est pareils Jme réveille, jme lève, je sors La daronne qui pète un câble, qui me dit Qucest la rue qui mjette un sort Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Tu traînes la rue depuis tant dtemps Est-cque tu entends ? Maintenant elle ta laissé en plan A miser sur des amis La famille soi-disant Mais qui pour toi se fera du souci Une fois aux arrivants ? Avant tavais lair sage comme une image Elle est loin, maintenant cest lair sale Tas mis en cage ton destin Combien sont déçus, perdus sur ce chemin ? Dans une cellule guée-flin Ici où lespoir sest éteint Cest comme une histoire qui se répète Isolé tu taperçois quil est impossible, tu regrettes Les années nsont plus des mois Tes pas lseul à porter lpoids Un peu comme si tavais lchoix Maintenant tu penses à rentrer chez toi Jtraîne souvent là où personne Ne dépose ses orteils On est frères on na pas la même mère Ni le même père Pas les mêmes peines, on est pareils Jme réveille, jme lève, je sors La daronne qui pète un câble, qui me dit Qucest la rue qui mjette un sort Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Sortir après tant dtemps Passé trente ans, tu veux une femme, des enfants Construire une vraie famille Cqui nétait pas évident Voir le sourire d'tes parents Vaudrait toutes les sommes dargent Avant, tavais cette rage Avant tétais malsain Pouvoir tourner cette page Un message dans un écrin Tu sais qudepuis le début On affrontera rien de sain Mélanger nos vécus Quand cest la crise on sesquinte On a compté moins dvictoires que de défaites Parfois fous-rires, jours de fête Jours noirs et prises de tête Mais cette fois, faut réfléchir à deux fois Avant dpasser lpas Tache découter cette voix, cette fois Jtraîne souvent là où personne Ne dépose ses orteils On est frères on na pas la même mère Ni le même père Pas les mêmes peines, on est pareils Jme réveille, jme lève, je sors La daronne qui pète un câble, qui me dit Qucest la rue qui mjette un sort Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Jsuis tous les jours dehors Eh petit souvent tu mdéçois Faudrait qutu penses à rentrer chez toi Petit à petit on ta vu téloigner, téloigner On ta vu téloigner, elle peut en témoigner On ta vu téloigner, elle peut en témoigner5</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Dr. Bériz</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Tout le monde est loin d’être fiable</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Tu npeux pas fermer les yeux Et faire semblant dêtre un infirme, cest insensé Je peux te guider si tu veux Mais jsuis comme tout lmonde, je peux mtromper Non jme sens pas forcé Cest tout à mon honneur de tavoir croisé Mais un conseil Tout lmonde est loin dêtre fiable Un conseil En tout lmonde se cache un Diable Tout lmonde est loin dêtre fiable En tout lmonde se cache un Diable Cest vrai quelle était belle, et jeune, jai du placer ma confiance Elle a arraché mon cur peu à peu, mais je my ferai avec le temps Et maintenant je men rends compte, je ne fais que perdre mon time On fait semblant, on se ment, avec nos gamins Et maintenant je nressens plus rien, même quand jte fais mal Toi et moi, cétait juste un faux départ Tu npeux pas fermer les yeux Et faire semblant dêtre un infirme, cest insensé Je peux te guider si tu veux Mais jsuis comme tout lmonde, je peux mtromper Non jme sens pas forcé Cest tout à mon honneur de tavoir croisé Mais un conseil Tout lmonde est loin dêtre fiable Un conseil En tout lmonde se cache un Diable Tout lmonde est loin dêtre fiable En tout lmonde se cache un Diable Elle joue avec toi comme elle joue avec tout lmonde Si tas la bonne came, tu lauras sûrement, t'as vu l'mouv' Ne te crois pas si de-spee Ne te crois pas si de-spee Ne te crois pas si de-spee Ne te crois pas si de-spee Audi R8, RDV minuit pile Dîner aux chandelles, chez nous ya pas dpetite suite Petit bain, relax, Rolex sur la table Tout est géré, pas dsouci, fake paradise Oh laisse... Fais genre tu ne savais pas tout cqui l'a met à l'aise Tu npeux pas fermer les yeux Et faire semblant dêtre un infirme, cest insensé Je peux te guider si tu veux Mais jsuis comme tout lmonde, je peux mtromper Non jme sens pas forcé Cest tout à mon honneur de tavoir croisé Mais un conseil Tout lmonde est loin dêtre fiable Un conseil En tout lmonde se cache un Diable Tout lmonde est loin dêtre fiable En tout lmonde se cache un Diable Tu mas eu, tu mas eu Et moi qui croyais te connaître je ferai mieux De faire semblant comme toi Si javais su, javais su Jaurais sûrement fait comme toi Au lieu dêtre sincère comme moi Dêtre sincère comme moi Yeah Tu npeux pas fermer les yeux Et faire semblant dêtre un infirme, cest insensé Je peux te guider si tu veux Mais jsuis comme tout lmonde, je peux mtromper Non jme sens pas forcé Cest tout à mon honneur de tavoir croisé Mais un conseil Tout lmonde est loin dêtre fiable Un conseil En tout lmonde se cache un Diable Tout lmonde est loin dêtre fiable En tout lmonde se cache un Diable2</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Dr. Bériz</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Tout le monde s’emporte</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>N'oublie jamais c'que l'on t'a donné Tout le monde s'emporte J'en place une pour les frères qui sont condamnés Tout le monde s'emporte Toujours debout après tant d'années Tout le monde s'emporte Nos souffrances et nos peines vont bien s'en aller Tout le monde s'emporte N'oublie jamais c'que l'on t'a donné Tout le monde s'emporte J'en place une pour les frères qui sont condamnés Tout le monde s'emporte Toujours debout après tant d'années Tout le monde s'emporte Nos souffrances et nos peines vont bien s'en aller Tout le monde s'emporte C'est quoi les diez xxx du tieks, tout le monde sait qu'ça vend C'est vrai qu'on est pas ça, on fait passer le sexe avant L'amour comme la haine donc écris ton testament Assume quand c'est la merde, ne crois pas que ton destin ment Sur un plan fiable toujours près à tout miser Que les hommes forts, les plus faibles sont atomisés 2010 c'est la merde, tout le monde veut contrôler sa race Même les meufs s'y sont mis, demande à Condoleezza Rice Tout le monde s'emporte, dans la cave, dans les halls Les petits frères jouent les diables, ils se passent d'auréoles Même les meufs de la poste qui te parle en créole J'ai mon son dans ta caisse, c'est le disque d'oréééooohh C'est pour ça, la famille à Aulnay-sous-Bois Tu finis dans le coffre ou bien tu donnes les sous, quoi Y'a les hormones et les mecs avec des poitrines fortes Le cauchemar c'est Macdoum avec un poum-poum XXX Les meufs sexy, défais les tous, mets les dans les sacs business Tout le monde s'emporte La jeunesse est barge, c'est les parents qui s'arrachent Tout le monde s'emporte XXX c'est la descente en enfer sans stress Tout le monde s'emporte J'répète Tout le monde s'emporte, c'est dead Jeune homme ou jeune fille connectait à son mp3 ou ipod Et qui à l'époque des ordis De lui demander qu'est-ce qui s'passe Où est le bif, tu taffes mais ne mange même ap', mec Tout le monde s'en...1, tout le monde s'en...2 Tout le monde s'en...3 Tout le monde s'en bat les couilles de c'que tu penses C'qui nous rend bouche-bée c'est c'que tu prouves C'que tu prouves, donne c'que bouffes Même ceux qui doutent, sont sans dessus-dessous Pour les sangsues de l'état, j'ai un vécu de blédard Destiné au trottoir, dealer pour un comptoir Cette histoire est notoire C'est foutu, les darons pètent un plomb y'a rien à dire Tout le monde s'emporte Jeunes filles, jeunes hommes branchés sur internet Qui veux que sa gow aye se faire mettre Wow, tout le monde fait la ola Y'en a même qui veulent brûler la volaille Un poste brûlé ça donne un KFC Toute manière, ils sont bons qu'à nous faire traverser, mec Tout le monde s'en...1, tout le monde s'en...2 Tout le monde s'en...3 Tout le monde s'en bat les couilles que tu n'aies pas d'bif Y'a des gosses au Rwanda qui n'ont même plus d'mif' Des travailleurs qui se dé-suici C'est l'état qui nous dissocie Tout le monde a des soucis Chez les gars de la tèss' aussi C'est la faute à personne, la politique m'étonne Pour le bif à Elton Tout le monde s'emporte Les meufs sexy, défais les tous, mets les dans les sales business Tout le monde s'emporte La jeunesse est barge, c'est les parents qui s'arrachent Tout le monde s'emporte XXX c'est la descente en enfer sans stress Tout le monde s'emporte J'répète Tout le monde s'emporte, c'est dead Entre nous pas d'unions, tout le monde est capitaliste Plus t'évolues, plus tes amis t'haïssent Société d'consommation donc on veut c'qu'on voit Et après ils s'étonnent quand ça braque des convois Regarde comment on crève la dalle Des gosses de 11 piges parlent d'être fatale Rien à voir avec les boss qu'on pète à temps Chope notre chance et pour l'état qui sorte nos chambre Les messages direct que tu jette par terre Le tsunami arrive a-tu l'flair Va-tu l'faire ? Berné par un autre, pour abattre ton frère Mensonge, trahisons, disons... Rentre dans l'jeu et tu finis enfermé Les meufs sexy, défais les tous, mets les dans les sacs business Tout le monde s'emporte La jeunesse est barge, c'est les parents qui s'arrachent Tout le monde s'emporte Sans gène sans biff sans stress, c'est la descente en enfer sans stress Tout le monde s'emporte J'répète Tout le monde s'emporte, c'est dead Chaque fois quand c'est la merde, c'est nous qu'on accuse Génération négligée qui s'console sous la lune On leur parle de paix, ils nous parlent de tune Ils nous parlent de guerre, on gère donc normal que ça fume Chaque fois quand c'est la merde, c'est nous qu'on accuse Génération négligée qui s'console sous la lune On leur parle de paix, ils nous parlent de tune Ils nous parlent de guerre, on gère donc normal que ça fume Chaque fois quand c'est la merde, c'est nous qu'on accuse Génération négligée qui s'console sous la lune On leur parle de paix, ils nous parlent de tune Ils nous parlent de guerre, on gère donc normal que ça fume</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Dr. Bériz</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Trahis</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Dr. Bériz</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Tu ne fais pas le poids</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>No no no no, no way, no way No no no no, no way, no way, no way, no way Tu ne fais pas lpoids, face à ma douleur Jen ai vu dtoutes les couleurs Tarrêterais si tu mvoyais jouer Tu ne fais pas lpoids, jsuis pas un leader Oh mais nme pousse pas, je pourrais te sauver Tu ne fais pas lpoids Est-cque vous mressentez par ici ? Tu ne fais pas lpoids Je nserai pas très loin mon ami Tu ne fais pas lpoids Jai souvent marché dans Paname Avec mon inspi dans mon crâne Tu ndevineras jamais mon level Avec ton genre de style Juste pour mamuser Ma couleur de vie exposé par le mektoub Est-cque vous voyez ce que jvis ? Est-cque vous voyez ce que jvis ? Tu ne fais pas lpoids, face à ma douleur Jen ai vu dtoutes les couleurs Tarrêterais si tu mvoyais jouer Tu ne fais pas lpoids, jsuis pas un leader Oh mais nme pousse pas, je pourrais te sauver Tu ne fais pas lpoids Est-cque vous mressentez par ici ? Tu ne fais pas lpoids Je nserai pas très loin mon ami Tu ne fais pas lpoids Jai souvent limité les dégâts Pour pas vous faire autant de mal Jcollectionne des têtes Dans quelques temps je naurai plus dennemis Un toast pour larrivée, XXX Jsuis pas de ceux qui vivront à genoux Est-cque vous voyez où jveux en venir ? Est-cque vous voyez où jveux en venir ? Tu ne fais pas lpoids, face à ma douleur Jen ai vu dtoutes les couleurs Tarrêterais si tu mvoyais jouer Tu ne fais pas lpoids, jsuis pas un leader Oh mais nme pousse pas, je pourrais te sauver Tu ne fais pas lpoids Est-cque vous mressentez par ici ? Tu ne fais pas lpoids Je nserai pas très loin mon ami Tu ne fais pas lpoids Où sont mes gentlemen ? Où sont mes gentlemen ? Où sont mes belles gosses ? Dis moi où sont mes gentlemen Où sont mes belles gosses Tu ne fais pas lpoids Tu ne fais pas lpoids, face à ma douleur Jen ai vu dtoutes les couleurs Tarrêterais si tu mvoyais jouer Tu ne fais pas lpoids, jsuis pas un leader Oh mais nme pousse pas, je pourrais te sauver Tu ne fais pas lpoids Est-cque vous mressentez par ici ? Tu ne fais pas lpoids Je nserai pas très loin mon ami Tu ne fais pas lpoids</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Dr. Bériz</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Turn On the Lights (Remix)</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Im lookin for er Im lookin for er Im lookin for er Im lookin for er Is that her in the VIP-line With the Vuitton and Yves Saint Laurent Used to drive a Nissan now she in a Beamer I dont want er cause she from the corner And I heard that Beamer was a loaner Her old man, the owner And don't even drink Carona's What type of drink you want bruh On champagne forever On dirty sprite forever You can come sip with me If youd like to change the weather If you wanna live better We can buy a crib, where ever Dont get too thirsty, get used to the cheddar I wanna tell the world about you just so they can get jealous And if you see er fore I do tell er I wish that Ive met er Turn on the lights Im lookin for er too I heard she keep her promises, and never turn on you I heard she aint gon cheat and she gon never make no move I heard she be there anytime you need er, she come through Turn on the lights Im lookin for er Im lookin for er Im lookin for er Turn on the lights Im lookin for er Im lookin for er Im lookin for er Im lookin for er Est-ce que tu sais s'que tu racontes ou bien tu kiffe quand t'as pas d'bol J'te refais la scène a l'envers tu tiens la tête et puis tu demandes vite s'que je rapporte Un pour les vrais deux pour les faux trois pour les futurs Solja J'etais dans l'agonie j'ai perdu d'la famille j'esquinte le mektoub Job sale Toutes sortes de story toutes sortes de bolides Sa s'traine pour des tasspé au tarpé solide Qui t'as dis que nous suivre c'est risqué C'est la plus belle chose que t'as jamais dégusté T'a entendu parlé la tu vas voir de tes yeux Tu vas t'en mordre les lèvres ou crié Oh Mon Dieu Oh mon vieux la classe et la Tchat et pète le feux J'prends ton 06 à domicile j'pète ton J'prends ton 06 à domicile j'pète ton Demande moi d'ou j'sors Sept Cinq J'fais briller ma life et mes gars du Sept Cinq Beriz futur featuring Sept Cinq J'fais briller ma life Et toute ma zone , et tous mes soces , j'envoie la sauce J'fais briller ma life</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Dr. Bériz</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Un choix</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>J'ai fait l'choix d'mettre mon front à terre Sans repères, j'espère m'repentir vite avant qu'on m'enterre J'vis sous l'il du mal Comme un Gendou, j'marche les ieds-p' au-dessus des flammes Que Dieu m'guide, akhi j'avance sans Tom-Tom J'suis tenté tous les jours par les rottes-ca', les teums-teums Les biens qu'la vie t'prend personne t'les rendra Starf', par égoïsme, j'ai fait l'choix d'décevoir mes rents-pa' Marre de choisir entre bien et hlam Face ou pile, face au mal, j'm'en sors tant bien qu'mal J'passe le salam aux 'soces Face aux salopes, aux suceuses, j'ai fait l'choix d'avancer seul J'cogite en balle, kho, j'ai pas d'quoi m'faire oublier mes soucis Du mal à prendre mon souffle, j'étouffe ici, j'compte plus mes soupirs Entre le bien et l'hlam, le Dîn et l'mal Avancer devient plus dur que de faire ses choix Les choix sont durs parfois Tu vis dans l'erreur, le bien, le mal te partagent T'as choisi la rue, tu ferais mieux d'faire ton paquetage Condamné, sans savoir où aller, on paie nos gestes salés J'ai dû choisir Entre rester par terre, ou briser les barrières Grandir, j'ai su m'assagir et m'endurcir Trop de gens sont faux qui sont donc les vrais ? Il faut qu'j'assume mes fautes, c'est ma personne qui paye les frais J'ai pris v'là les sens interdits, croqué la vie à pleines dents Passé mon temps à m'baigner dans l'hlam Chaque péché commis m'éloigne du Paradis Le nuit, médite sur mes choix Orienté par l'illicite Depuis l'jeune âge, la rue m'excite et m'incite À faire du mal J'ai pas décidé d'vivre dans c'monde de clébards J'compte décéder bu-bar' Entrer dans l'Dîn, y'a pas meilleur choix qu'j'peux faire L'avant-goût d'l'Enfer sur Terre J'l'ai goûté c'est la pisse d'Iblis Frelon, après dix piges de fumette, j'ai zappé l'seum qui a brouillé mes neurones Les paupières cernées par la fumée J'ai choisi d'arrêter d'faire le con, et d'fuir le camp des damnés J'ai choisi d'arrêter d'faire le con, et d'fuir le camp des damnés J'ai commencé par préférer la télé à l'école Puis s'en sont suivies des tonnes d'heures de colle Puis, ma vie j'ai préféré la vivre que la voir passer Et j'ai choisi d'être d'ceux qui verront pas l'avenir dans l'passé Et j'ai choisi la rue comme si c'était une carrière Et d'surveiller mes arrières sans proposer mon derrière Et j'ai choisi d'jamais prendre personne pour supérieur Et d'pas changer d'direction, même si j'm'enfonçais dans mes erreurs Donc j'ai choisi d'devenir un homme, quoi qu'il arrive Donc plus d'larmes quand vient la mort de ceux qui vivent D'être blessant, méchant, envers ceux qui l'méritaient Et qu'j'devais rien à personne, si c'n'est la vérité Et maintenant, j'ai choisi la liberté, car J'ai fait peu d'temps, mais j'pense que j'ai trop tourné au placard Et j'ai compris qu'y'avait pas d'bons ou d'mauvais choix à regretter Il est juste question d'ton aptitude à accepter la vérité</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Dr. Bériz</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Volvo</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>Yeah, hein Yeah, hi Bériz Good evening bitches Yeah, yeah Yo, eh Elle veut, qu'elle est bonne, elle veut de la fraîche LV sur le côté, le compte plein c'est la merde J'éteins la lumière, c'est la merde J'éteins la lumière, c'est la merde Et je la bosse, jusqu'à 6 du mat ouais Et quand t'as les poches pleines mon sauce, c'est sûr que ça kouma Ça n'en finit plus bitches, juste arrête de gouma Après la balade, après la réussite boy, coup bas yeah Tout va, eh, tout va, tout va, tout va, tout va bien Tout va bien J'ai tout vu, pas b'soin d'faire le tour du monde hey Depuis qu'j'la calcule, elle s'prend pour une bombe hey J'fais plus l'fou dans Paris, j'pense à la tombe hey Beaucoup dans les clips, mais personne quand tu tombe hey Je n'crains pas les hommes, je crains la punition Bicraveur de crack dans les quartiers bres-som hey Y'a pas d'vainqueur, y'a juste des morts hey T'es d'ceux qu'aboient, j'suis d'ceux qui mordent hey Mes couilles frottent le sol, la longueur les a qué-cho Ma démarche, elle est bonne, la distance, elle m'a pé-cho Bien sûr qu'elle est bonne, bien sûr qu'elle est bonne Palette aux vovo, loin de la Volvo ya Je n'vois que du fou dji, j'fais parti des Fugees Bon bref, la 'sique me fait mal à la tête, igo, ramène les lovés J'bouge pas de la beuh, mais j'nourris le tier-quar avev du bon blé Le flic est mort, le policier est mort J'fais l'tour de la tess', j'vais l'tour de la Terre à bord Volvo couleur or, j'suis d'la couleur du succès Mettez dans les cordes, j'suis Tyson, j'suis calibré Enlève ta nuisette-sette, viens goûter mes noisettes-sette L'av'nir sur la casquette zer, j'ai remplacer la 'quette, 'quette, 'quette Avec la 'sique, 'sique, zer woo Fuck le paintball, on ne tire pas à blanc nous On te déforme le sage-vi, avec une batte de baseball On ne tire pas à blanc nous, j't'fouette avec du bamboo N'oublie pas qu'on est chez nous, tu sais bien qu'on les cher-tou woooh J'vendais d'la drogue, j'suis bé-tom dans l'crime Pour pas grand chose, vraiment pas grand chose J'ai les poches pleines, donc des potes hypocrites Ils ont trahi la cause, ils ont vendu la cause Avec la blackcard, bien sûr on transforme la street Hin hin hin hin hin hin hin hin Bien sûr qu'ils n'ont pas pied Hin hin hin hin hin hin hin hin Bien sûr qu'ils n'ont pas pied Tuba, tuba Bien sûr qu'ils n'ont pas pied Tuba, bien sûr qu'ils n'ont pas pied Tuba, ouais ils n'ont pas pied Tuba, tuba, tuba eh, tuba yeah Tuba eh, tuba, tuba eh, tuba hmm Tuba eh, tuba, bien sûr c'est tuba Bien sûr c'est tuba Tu vas, bien sûr qu't'es ttu-ba eh Nahouhaha</t>
         </is>
